--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5756A-7779-42D2-B552-0D425BB1ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B6A91-A038-487E-8D78-A1A8C1C909B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="3" r:id="rId2"/>
     <sheet name="Trikafta" sheetId="9" r:id="rId3"/>
-    <sheet name="Kalydeco" sheetId="2" r:id="rId4"/>
+    <sheet name="Orkambi" sheetId="11" r:id="rId4"/>
     <sheet name="Symdeko" sheetId="6" r:id="rId5"/>
-    <sheet name="CTX001" sheetId="8" r:id="rId6"/>
-    <sheet name="VX-880" sheetId="7" r:id="rId7"/>
-    <sheet name="inaxaplin" sheetId="10" r:id="rId8"/>
-    <sheet name="IP" sheetId="4" r:id="rId9"/>
-    <sheet name="Compounds" sheetId="5" r:id="rId10"/>
+    <sheet name="Kalydeco" sheetId="2" r:id="rId6"/>
+    <sheet name="CTX001" sheetId="8" r:id="rId7"/>
+    <sheet name="VX-880" sheetId="7" r:id="rId8"/>
+    <sheet name="VX-121" sheetId="12" r:id="rId9"/>
+    <sheet name="VX-548" sheetId="13" r:id="rId10"/>
+    <sheet name="inaxaplin" sheetId="10" r:id="rId11"/>
+    <sheet name="IP" sheetId="4" r:id="rId12"/>
+    <sheet name="Compounds" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +46,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q122: reiterates 8.4-8.6B guidance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="305">
   <si>
     <t>Price</t>
   </si>
@@ -475,9 +496,6 @@
     <t>Phase I/II n=17 single-arm, open-label</t>
   </si>
   <si>
-    <t>Part A n=2</t>
-  </si>
-  <si>
     <t>Part B n=5</t>
   </si>
   <si>
@@ -562,17 +580,416 @@
     <t>Founded: 1989</t>
   </si>
   <si>
-    <t>Phase II/III n=400</t>
-  </si>
-  <si>
     <t>exagamglogene autotemcel</t>
+  </si>
+  <si>
+    <t>6/6/22: VX-880 data at ADA</t>
+  </si>
+  <si>
+    <t>Part A n=2 half dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P2 35.9% time-in-range to 51.9% with -30% insulin use at day 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P1 40.1% time-in-range to 99.9% with insulin independence at day 270</t>
+  </si>
+  <si>
+    <t>Cell &amp; Genetic Therapies: Bastiano Sanna</t>
+  </si>
+  <si>
+    <t>cell therapy+device</t>
+  </si>
+  <si>
+    <t>6/2/22: CTX001 latebreaker accepted at EHA</t>
+  </si>
+  <si>
+    <t>https://library.ehaweb.org/eha/#!*menu=16*browseby=9*sortby=1*trend=4016</t>
+  </si>
+  <si>
+    <t>5/31/22: VX-880 data to be presented at ADA</t>
+  </si>
+  <si>
+    <t>5/18/22: BOD addition</t>
+  </si>
+  <si>
+    <t>5/17/22: Headquarters expansion</t>
+  </si>
+  <si>
+    <t>5/17/22: Health equity donations</t>
+  </si>
+  <si>
+    <t>5/5/22: Q1 results</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>CEO: Reshma Kewalramani</t>
+  </si>
+  <si>
+    <t>Expanded in children 6-11 years old 6/21</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>MA granted for 6-11yo</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>signed reimbursement agreement with PBS</t>
+  </si>
+  <si>
+    <t>Phase III 2-5yo</t>
+  </si>
+  <si>
+    <t>sNDA by YE22</t>
+  </si>
+  <si>
+    <t>Filed sNDA for 12-24 months old</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>6-11yo label approved</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Reimbursed</t>
+  </si>
+  <si>
+    <t>25 countries approved/reimbursed as of Q122.</t>
+  </si>
+  <si>
+    <t>Phase III "SKYLINE 102"</t>
+  </si>
+  <si>
+    <t>Phase III "SKYLINE 103"</t>
+  </si>
+  <si>
+    <t>VX-121/tezacaftor/VX-561 vs. Trikafta</t>
+  </si>
+  <si>
+    <t>VX-561</t>
+  </si>
+  <si>
+    <t>deutivacaftor</t>
+  </si>
+  <si>
+    <t>deuterated ivacaftor</t>
+  </si>
+  <si>
+    <t>non-viral ex vivo transfection</t>
+  </si>
+  <si>
+    <t>plans submissions in late 2022</t>
+  </si>
+  <si>
+    <t>APOL1 inhibitor</t>
+  </si>
+  <si>
+    <t>Sulfonamides as modulators of sodium channels</t>
+  </si>
+  <si>
+    <t>Hadida-Ruah; Sara Sabina (LaJolla, CA), Anderson; Corey (San Diego, CA), Termin; Andreas P. (Encinitas, CA), Bear; Brian Richard (Carlsbad, CA), Arumugam; Vijayalaksmi (San Marcos, CA), Krenitsky; Paul (San Diego, CA), Johnson; James Philip (San Diego, CA)</t>
+  </si>
+  <si>
+    <t>Modulator of cystic fibrosis transmembrane conductance regulator, pharmaceutical compositions, methods of treatment, and process for making the modulator</t>
+  </si>
+  <si>
+    <t>Alcacio; Timothy (San Diego, CA), Baek; Minson (San Diego, CA), Grootenhuis; Peter (Del Mar, CA), Hadida Ruah; Sara Sabina (La Jolla, CA), Hughes; Robert M. (San Diego, CA), Keshavarz-Shokri; Ali (San Diego, CA), McAuley-Aoki; Rachel (San Diego, CA), McCartney; Jason (Cardiff by the Sea, CA), Miller; Mark Thomas (San Diego, CA), Van Goor; Fredrick (San Diego, CA), Zhang; Beili (San Diego, CA), Anderson; Corey (San Diego, CA), Cleveland; Thomas (San Marcos, CA), Frieman; Bryan A. (La Jolla, CA), Khatuya; Haripada (San Diego, CA), Joshi; Pramod Virupax (San Diego, CA), Krenitsky; Paul John (San Diego, CA), Melillo; Vito (Escondido, CA), Pierre; Fabrice Jean Denis (La Jolla, CA), Termin; Andreas P. (Encinitas, CA), Uy; Johnny (San Diego, CA), Zhou; Jinglan (San Diego, CA), Abela; Alexander Russell (San Diego, CA), Busch; Brett Bradley (San Diego, CA), Paraselli; Prasuna (San Diego, CA)</t>
+  </si>
+  <si>
+    <t>CFTR</t>
+  </si>
+  <si>
+    <t>Method for treating cancer using a combination of Chk1 and ATR inhibitors</t>
+  </si>
+  <si>
+    <t>Helleday; Thomas (Stockholm, SE), Sanjiv; Kumar (Stockholm, SE)</t>
+  </si>
+  <si>
+    <t>ATR/Chk1 MOU</t>
+  </si>
+  <si>
+    <t>Pharmaceutical compositions for treating cystic fibrosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Chu; Cathy (Cambridge, MA), Dhamankar; Varsha (Watertown, MA), Dokou; Eleni (Cambridge, MA), Haseltine; Eric L. (Melrose, MA), Moskowitz; Samuel (Waban, MA), Robertson; Sarah (Somerville, MA), Waltz; David (Waban, MA), Chen; Weichao George (San Diego, CA)</t>
+  </si>
+  <si>
+    <t>Formulation</t>
+  </si>
+  <si>
+    <t>Crystalline forms and compositions of CFTR modulators</t>
+  </si>
+  <si>
+    <t>Dhamankar; Varsha (Watertown, MA), Dinehart; Kirk Raymond (Holliston, MA), Dokou; Eleni (Newton, MA), Ferris; Lori Ann (Wilmington, MA), Gopinathan; Nishanth (Lynnfield, MA), McCarty; Katie (Watertown, MA), Metzler; Catherine (Medford, MA), Zhang; Beili (San Diego, CA), Moskowitz; Samuel (Waban, MA), Robertson; Sarah (Somerville, MA), Waltz; David (Waban, MA), Haseltine; Eric L. (Melrose, MA), Chen; Weichao George (San Diego, CA)</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Pharmaceutical composition and administrations thereof</t>
+  </si>
+  <si>
+    <t>Dokou; Eleni (Cambridge, MA), Jamzad; Shahla (Belmont, MA), Caesar, Jr.; John P. (Lancaster, MA), Fawaz; Majed (Foxboro, MA), Das; Laura (Charlestown, MA), Gu; Chong-Hui (Waban, MA), Hurter; Patricia Nell (Harvard, MA), Israni; Meghna Jai (Boston, MA), Johnston; Meghan M. (Wakefield, MA), Knezic; Dragutin (Watertown, MA), Kuzmission; Andrew G. (Shrewsbury, MA), Wang; Hongren (Lexington, MA)</t>
+  </si>
+  <si>
+    <t>Methods, compositions and kits for increasing genome editing efficiency</t>
+  </si>
+  <si>
+    <t>Abdul-Manan; Norzehan (Boston, MA), Newsome; David A. (Boston, MA), Zwahlen; Jacque (Boston, MA)</t>
+  </si>
+  <si>
+    <t>DNAPK inhibitor to increase CRISPR efficiency</t>
+  </si>
+  <si>
+    <t>Method for treating cancer using a combination of DNA-damaging agents and DNA-PK inhibitors</t>
+  </si>
+  <si>
+    <t>Boucher; Diane M. (Boston, MA), Hillier; Shawn M. (Boston, MA), Tsai; Wanjung (Boston, MA), Hare; Brian (Boston, MA), Markland; William (Boston, MA), Newsome; David A. (Boston, MA), Penney; Marina S. (Boston, MA)</t>
+  </si>
+  <si>
+    <t>Compounds useful as inhibitors of ATR kinase and combination therapies thereof</t>
+  </si>
+  <si>
+    <t>Pollard; John Robert (Abingdon, GB), Reaper; Philip Michael (Abingdon, GB), Asmal; Mohammed (Newton, MA)</t>
+  </si>
+  <si>
+    <t>Modulators of ATP-binding cassette transporters</t>
+  </si>
+  <si>
+    <t>Hadida Ruah; Sara S. (La Jolla, CA), Hamilton; Matthew M. (Hackettstown, NJ), Miller; Mark (San Diego, CA), Grootenhuis; Peter D. J. (San Diego, CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Clemens; Jeremy J. (San Diego, CA), Abela; Alexander Russell (Escondido, CA), Anderson; Corey Don (San Diego, CA), Busch; Brett B. (San Diego, CA), Chen; Weichao George (San Diego, CA), Cleveland; Thomas (San Marcos, CA), Coon; Timothy Richard (Carlsbad, CA), Frieman; Bryan (La Jolla, CA), Ghirmai; Senait G. (San Diego, CA), Grootenhuis; Peter (Del Mar, CA), Gulevich; Anton V. (San Diego, CA), Hadida Ruah; Sara Sabina (La Jolla, CA), Hsia; Clara Kuang-Ju (San Diego, CA), Kang; Ping (San Diego, CA), Khatuya; Haripada (San Diego, CA), McCartney; Jason (Cardiff by the Sea, CA), Miller; Mark Thomas (San Diego, CA), Paraselli; Prasuna (San Diego, CA), Pierre; Fabrice (La Jolla, CA), Swift; Sara E. (San Diego, CA), Termin; Andreas (Encinitas, CA), Uy; Johnny (San Diego, CA), Vogel; Carl V. (Carlsbad, CA), Zhou; Jinglan (San Diego, CA)</t>
+  </si>
+  <si>
+    <t>Modulators of cystic fibrosis transmembrane conductance regulator, pharmaceutical compositions, methods of treatment, and process for making the modulators</t>
+  </si>
+  <si>
+    <t>Pteridinone compounds and uses thereof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lauffer; David J. (Stow, MA), Bemis; Guy (Boston, MA), Boyd; Michael (Boston, MA), Deininger; David (Boston, MA), Deng; Hongbo (Southborough, MA), Dorsch; Warren (Boston, MA), Gu; Wenxin (Concord, MA), Hoover; Russell R. (Harvard, MA), Johnson, Jr.; Mac Arthur (Derry, NH), Ledeboer; Mark Willem (Boston, MA), Ledford; Brian (Boston, MA), Maltais; Francois (Boston, MA), Penney; Marina (Acton, MA), Takemoto; Darin (Belmont, MA), Waal; Nathan D. (Cambridge, MA), Wang; Tiansheng (Concord, MA), Li; Pan (Lexington, MA)</t>
+  </si>
+  <si>
+    <t>WFS1 inhibitor</t>
+  </si>
+  <si>
+    <t>Pharmaceutical compositions of 3-(6-(1-(2,2-difluorobenzo[d][1,3]dioxol-5-yl) cyclopropanecarboxamido)-3-methylpyridin-2-yl) benzoic acid and administration thereof</t>
+  </si>
+  <si>
+    <t>Verwijs; Marinus Jacobus (Framingham, MA), Alargova; Rossitza Gueorguieva (Brighton, MA), Kaushik; Ritu Rohit (Long Island City, NY), Kadiyala; Irina Nikolaevna (Newton, MA), Young; Christopher (Waltham, MA)</t>
+  </si>
+  <si>
+    <t>Phase II/III n=400 proteinuric kidney disease with two APOL1 mutations</t>
+  </si>
+  <si>
+    <t>PE of Phase III portion is 2 year eGFR slope</t>
+  </si>
+  <si>
+    <t>IND-enabling</t>
+  </si>
+  <si>
+    <t>4/21/22: Q1 results day.</t>
+  </si>
+  <si>
+    <t>4/20/22: Health Canada Trikafta approval for 6-11yo</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>SPID48 change from baseline</t>
+  </si>
+  <si>
+    <t>100mg first dose/50mg q12h</t>
+  </si>
+  <si>
+    <t>Loading dose with q12h thereafter</t>
+  </si>
+  <si>
+    <t>60mg first dose/30mg q12h</t>
+  </si>
+  <si>
+    <t>20mg first dose/10mg q12h</t>
+  </si>
+  <si>
+    <t>hydrocodone</t>
+  </si>
+  <si>
+    <t>p=0.0251</t>
+  </si>
+  <si>
+    <t>p=NS</t>
+  </si>
+  <si>
+    <t>Phase II n=303 dose-ranging abdominoplasty</t>
+  </si>
+  <si>
+    <t>Phase II n=274 dose-ranging bunionectomy</t>
+  </si>
+  <si>
+    <t>p=0.0097</t>
+  </si>
+  <si>
+    <t>3/31/22: VX-548 Phase II data</t>
+  </si>
+  <si>
+    <t>3/26/22: Australia Trikafta reimbursement agreement</t>
+  </si>
+  <si>
+    <t>3/22/22: VX-147 Phase II/III initiation</t>
+  </si>
+  <si>
+    <t>interim analysis at 1 year</t>
+  </si>
+  <si>
+    <t>3/1/22: investor conference</t>
+  </si>
+  <si>
+    <t>1/26/22: Q421 results</t>
+  </si>
+  <si>
+    <t>VX-150</t>
+  </si>
+  <si>
+    <t>Discontinued?</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>CoCo</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>NonCash</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP issuance</t>
+  </si>
+  <si>
+    <t>ESOP tax</t>
+  </si>
+  <si>
+    <t>SG&amp;A %</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -605,6 +1022,17 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -716,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -746,6 +1174,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,8 +1213,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -792,7 +1229,57 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="66675"/>
+          <a:off x="6686550" y="66675"/>
+          <a:ext cx="0" cy="10972800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5715D485-C164-4435-B335-635A75EE85AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="38100"/>
           <a:ext cx="0" cy="7743825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -823,16 +1310,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385978</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE766E0-1608-88C4-7544-D8DAFEE9AD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5362575" y="413407"/>
+          <a:ext cx="3281578" cy="1986893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFD0ACF-84D1-38F1-A6FE-CFB3F027B857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5715000" y="2600325"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,7 +1476,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5200650" y="590550"/>
+          <a:off x="5943600" y="352425"/>
           <a:ext cx="2124075" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -883,6 +1497,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{FB8BFC03-2370-4716-A729-D8FACAD01755}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,11 +1800,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z12" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <text>Q122: reiterates 8.4-8.6B guidance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1277,7 +1905,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1375,7 +2003,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
@@ -1411,7 +2039,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>41</v>
@@ -1424,7 +2052,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="8"/>
@@ -1440,7 +2068,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -1460,110 +2088,222 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
+      <c r="E15" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="13"/>
+      <c r="D16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="13" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="9"/>
+      <c r="J17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E22" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="20" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="20" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E23" s="20" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E25" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E26" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E27" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="20" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1574,6 +2314,8 @@
     <hyperlink ref="B3" location="Trikafta!A1" display="Trikafta" xr:uid="{FCEBE0EB-001B-4AF7-8302-88E3A55A88B1}"/>
     <hyperlink ref="B12" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
     <hyperlink ref="B10" location="'CTX001'!A1" display="CTX001" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
+    <hyperlink ref="B5" location="Orkambi!A1" display="Orkambi" xr:uid="{5B227DE1-747D-41D9-AFFC-27BF0DF44345}"/>
+    <hyperlink ref="B13" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1581,14 +2323,889 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB47AF-768E-4B06-9E84-BC4ABCFB8ABD}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="21"/>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="26">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="26">
+        <v>86.9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="26">
+        <v>112.9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="26">
+        <v>115.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="22"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="22"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>110.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21">
+        <v>95.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22">
+        <v>85.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9F1444FB-1FC7-4AF6-9D19-F860F1DDD4D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3500169-374E-454F-AD84-2EA69EF52EB1}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8E17983A-F281-41DE-94AE-3C971B03D303}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0003B-178C-466F-BE10-E90BCC8A1B78}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>11390600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>44019</v>
+      </c>
+      <c r="H3" s="18">
+        <v>44761</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>11370798</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>44074</v>
+      </c>
+      <c r="H4" s="18">
+        <v>44740</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>11369692</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>42671</v>
+      </c>
+      <c r="H5" s="18">
+        <v>44740</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>11358977</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="18">
+        <v>43236</v>
+      </c>
+      <c r="H6" s="18">
+        <v>44726</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>11345700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43899</v>
+      </c>
+      <c r="H7" s="18">
+        <v>44712</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>11291662</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18">
+        <v>43804</v>
+      </c>
+      <c r="H8" s="18">
+        <v>44656</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>11268077</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>43501</v>
+      </c>
+      <c r="H9" s="18">
+        <v>44628</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>11253509</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>43259</v>
+      </c>
+      <c r="H10" s="18">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>11203571</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="18">
+        <v>41835</v>
+      </c>
+      <c r="H11" s="18">
+        <v>44551</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>11186566</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>43803</v>
+      </c>
+      <c r="H12" s="18">
+        <v>44530</v>
+      </c>
+      <c r="I12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11179394</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="18">
+        <v>42172</v>
+      </c>
+      <c r="H13" s="18">
+        <v>44523</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11179367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>43500</v>
+      </c>
+      <c r="H14" s="18">
+        <v>44523</v>
+      </c>
+      <c r="I14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>11155533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>43915</v>
+      </c>
+      <c r="H15" s="18">
+        <v>44495</v>
+      </c>
+      <c r="I15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>11147770</v>
+      </c>
+      <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>43536</v>
+      </c>
+      <c r="H16" s="18">
+        <v>44488</v>
+      </c>
+      <c r="I16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>11124805</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" s="18">
+        <v>42929</v>
+      </c>
+      <c r="H17" s="18">
+        <v>44460</v>
+      </c>
+      <c r="I17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>11117900</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="18">
+        <v>43683</v>
+      </c>
+      <c r="H18" s="18">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>11110108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>43005</v>
+      </c>
+      <c r="H19" s="18">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>11110086</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18">
+        <v>43656</v>
+      </c>
+      <c r="H20" s="18">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>11084804</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="18">
+        <v>43874</v>
+      </c>
+      <c r="H21" s="18">
+        <v>44418</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>11066417</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
+        <v>43510</v>
+      </c>
+      <c r="H22" s="18">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>11059826</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="18">
+        <v>43578</v>
+      </c>
+      <c r="H23" s="18">
+        <v>44390</v>
+      </c>
+      <c r="I23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>11052075</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="18">
+        <v>43679</v>
+      </c>
+      <c r="H24" s="18">
+        <v>44383</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{28B9CEB8-4D0A-4224-9448-513A0C99A972}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4728C55-E312-4CB5-A877-7A6998D5236F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1727,15 +3344,29 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1748,10 +3379,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
+  <dimension ref="A1:CZ72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1761,16 +3392,17 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1807,302 +3439,3277 @@
       <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15">
-        <v>1193.2</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
-        <v>1761.6</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>2015</v>
+      </c>
+      <c r="T3">
+        <f>+S3+1</f>
+        <v>2016</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:AM3" si="0">+T3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>800</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>+AH4*1.01</f>
+        <v>1010</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" ref="AJ4:AM6" si="1">+AI4*1.01</f>
+        <v>1020.1</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" si="1"/>
+        <v>1030.3009999999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <f t="shared" si="1"/>
+        <v>1040.60401</v>
+      </c>
+      <c r="AM4" s="2">
+        <f t="shared" si="1"/>
+        <v>1051.0100500999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15">
-        <v>125.1</v>
-      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="15">
-        <v>64.8</v>
-      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>500</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>800</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1700</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>+AG5*1.01</f>
+        <v>1717</v>
+      </c>
+      <c r="AI5" s="2">
+        <f t="shared" ref="AI5:AM5" si="2">+AH5*1.01</f>
+        <v>1734.17</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f t="shared" si="2"/>
+        <v>1751.5117</v>
+      </c>
+      <c r="AK5" s="2">
+        <f t="shared" si="2"/>
+        <v>1769.0268169999999</v>
+      </c>
+      <c r="AL5" s="2">
+        <f t="shared" si="2"/>
+        <v>1786.71708517</v>
+      </c>
+      <c r="AM5" s="2">
+        <f t="shared" si="2"/>
+        <v>1804.5842560217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="15">
-        <v>218.7</v>
-      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="15">
-        <v>132.1</v>
-      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD6" s="2">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>800</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AI6" s="2">
+        <f>+AH6*1.01</f>
+        <v>1010</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f t="shared" si="1"/>
+        <v>1020.1</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="1"/>
+        <v>1030.3009999999999</v>
+      </c>
+      <c r="AL6" s="2">
+        <f t="shared" si="1"/>
+        <v>1040.60401</v>
+      </c>
+      <c r="AM6" s="2">
+        <f t="shared" si="1"/>
+        <v>1051.0100500999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15">
-        <v>186.3</v>
-      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="15">
-        <v>139</v>
-      </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:J8" si="0">SUM(G4:G7)</f>
-        <v>1723.3</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <f>SUM(K4:K7)</f>
-        <v>2097.5</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>300</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>500</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>800</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>+AE7*1.01</f>
+        <v>1010</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" ref="AG7:AM7" si="3">+AF7*1.01</f>
+        <v>1020.1</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="3"/>
+        <v>1030.3009999999999</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="3"/>
+        <v>1040.60401</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f t="shared" si="3"/>
+        <v>1051.0100500999999</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="3"/>
+        <v>1061.5201506009998</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="3"/>
+        <v>1072.1353521070098</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" si="3"/>
+        <v>1082.8567056280799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>1091</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1193.2</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>1693</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1761.6</v>
+      </c>
+      <c r="L8" s="15">
+        <f>+K8+100</f>
+        <v>1861.6</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" ref="M8:N8" si="4">+L8+100</f>
+        <v>1961.6</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="4"/>
+        <v>2061.6</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>SUM(G8:J8)</f>
+        <v>2886.2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" ref="Z8:Z10" si="5">SUM(K8:N8)</f>
+        <v>7646.4</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>+Z8*1.2</f>
+        <v>9175.6799999999985</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>+AA8*1.1</f>
+        <v>10093.248</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>+AB8*1.02</f>
+        <v>10295.11296</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" ref="AD8:AK8" si="6">+AC8*1.02</f>
+        <v>10501.015219200001</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="6"/>
+        <v>10711.035523584002</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="6"/>
+        <v>10925.256234055681</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="6"/>
+        <v>11143.761358736796</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="6"/>
+        <v>11366.636585911532</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="6"/>
+        <v>11593.969317629762</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="6"/>
+        <v>11825.848703982358</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="6"/>
+        <v>12062.365678062006</v>
+      </c>
+      <c r="AL8" s="2">
+        <f>+AK8*0.5</f>
+        <v>6031.1828390310029</v>
+      </c>
+      <c r="AM8" s="2">
+        <f>+AL8*0.1</f>
+        <v>603.11828390310029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15">
+        <v>128</v>
+      </c>
       <c r="G9" s="15">
-        <v>192.3</v>
+        <v>125.1</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="15">
+        <v>80</v>
+      </c>
       <c r="K9" s="15">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>64.8</v>
+      </c>
+      <c r="L9" s="15">
+        <f>K9-1</f>
+        <v>63.8</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" ref="M9:N9" si="7">L9-1</f>
+        <v>62.8</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="7"/>
+        <v>61.8</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" ref="Y9:Y13" si="8">SUM(G9:J9)</f>
+        <v>205.1</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="5"/>
+        <v>253.2</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>+Z9*0.9</f>
+        <v>227.88</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB9:AM9" si="9">+AA9*0.9</f>
+        <v>205.09200000000001</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="9"/>
+        <v>184.58280000000002</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="9"/>
+        <v>166.12452000000002</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="9"/>
+        <v>149.51206800000003</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="9"/>
+        <v>134.56086120000003</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="9"/>
+        <v>121.10477508000004</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="9"/>
+        <v>108.99429757200004</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="9"/>
+        <v>98.09486781480004</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="9"/>
+        <v>88.285381033320036</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="9"/>
+        <v>79.456842929988028</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="9"/>
+        <v>71.511158636989222</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="9"/>
+        <v>64.360042773290303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15">
+        <v>215</v>
+      </c>
       <c r="G10" s="15">
-        <f>+G8-G9</f>
-        <v>1531</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
+        <v>218.7</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K10" s="15">
-        <f>+K8-K9</f>
-        <v>1951.7</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132.1</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" ref="L10:N10" si="10">K10-1</f>
+        <v>131.1</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="10"/>
+        <v>130.1</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="10"/>
+        <v>129.1</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="8"/>
+        <v>365.7</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="5"/>
+        <v>522.4</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" ref="AA10:AM10" si="11">+Z10*0.9</f>
+        <v>470.15999999999997</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="11"/>
+        <v>423.14400000000001</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="11"/>
+        <v>380.82960000000003</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="11"/>
+        <v>342.74664000000001</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="11"/>
+        <v>308.47197600000004</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="11"/>
+        <v>277.62477840000003</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="11"/>
+        <v>249.86230056000002</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="11"/>
+        <v>224.87607050400001</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="11"/>
+        <v>202.38846345360002</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="11"/>
+        <v>182.14961710824002</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="11"/>
+        <v>163.93465539741604</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="11"/>
+        <v>147.54118985767442</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="11"/>
+        <v>132.78707087190699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15">
+        <v>193</v>
+      </c>
       <c r="G11" s="15">
-        <v>192.1</v>
+        <v>186.3</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>152</v>
+      </c>
       <c r="K11" s="15">
-        <v>215.2</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
-        <v>456</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
-        <v>603.1</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" ref="L11:N11" si="12">K11-1</f>
+        <v>138</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="8"/>
+        <v>338.3</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>SUM(K11:N11)</f>
+        <v>550</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" ref="AA11:AM11" si="13">+Z11*0.9</f>
+        <v>495</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="13"/>
+        <v>445.5</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="13"/>
+        <v>400.95</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="13"/>
+        <v>360.85500000000002</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="13"/>
+        <v>324.76950000000005</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="13"/>
+        <v>292.29255000000006</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="13"/>
+        <v>263.06329500000004</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="13"/>
+        <v>236.75696550000004</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="13"/>
+        <v>213.08126895000004</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="13"/>
+        <v>191.77314205500005</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="13"/>
+        <v>172.59582784950004</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="13"/>
+        <v>155.33624506455004</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="13"/>
+        <v>139.80262055809504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <f t="shared" ref="F12:J12" si="14">SUM(F8:F11)</f>
+        <v>1627</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="14"/>
+        <v>1723.3</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="14"/>
+        <v>2072</v>
+      </c>
+      <c r="K12" s="17">
+        <f>SUM(K8:K11)</f>
+        <v>2097.5</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" ref="L12:N12" si="15">SUM(L8:L11)</f>
+        <v>2194.5</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="15"/>
+        <v>2291.5</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="15"/>
+        <v>2388.5</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" ref="X12" si="16">SUM(X8:X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <f>SUM(Y8:Y11)</f>
+        <v>3795.2999999999997</v>
+      </c>
+      <c r="Z12" s="16">
+        <f>SUM(Z8:Z11)</f>
+        <v>8972</v>
+      </c>
+      <c r="AA12" s="16">
+        <f>SUM(AA4:AA11)</f>
+        <v>10468.719999999998</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" ref="AB12:AM12" si="17">SUM(AB4:AB11)</f>
+        <v>11666.984</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="17"/>
+        <v>12261.47536</v>
+      </c>
+      <c r="AD12" s="16">
+        <f t="shared" si="17"/>
+        <v>13370.741379199999</v>
+      </c>
+      <c r="AE12" s="16">
+        <f t="shared" si="17"/>
+        <v>14393.789067584003</v>
+      </c>
+      <c r="AF12" s="16">
+        <f t="shared" si="17"/>
+        <v>15239.734423655682</v>
+      </c>
+      <c r="AG12" s="16">
+        <f t="shared" si="17"/>
+        <v>16097.891729376797</v>
+      </c>
+      <c r="AH12" s="16">
+        <f t="shared" si="17"/>
+        <v>16684.564919487533</v>
+      </c>
+      <c r="AI12" s="16">
+        <f t="shared" si="17"/>
+        <v>16902.307927848167</v>
+      </c>
+      <c r="AJ12" s="16">
+        <f t="shared" si="17"/>
+        <v>17130.77859427892</v>
+      </c>
+      <c r="AK12" s="16">
+        <f t="shared" si="17"/>
+        <v>17369.501971839913</v>
+      </c>
+      <c r="AL12" s="16">
+        <f t="shared" si="17"/>
+        <v>11345.631889867229</v>
+      </c>
+      <c r="AM12" s="16">
+        <f t="shared" si="17"/>
+        <v>5929.5290799561726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15">
+        <v>203.1</v>
+      </c>
       <c r="G13" s="15">
-        <f>SUM(G11:G12)</f>
-        <v>648.1</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" ref="H13:K13" si="1">SUM(H11:H12)</f>
+        <v>192.3</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
+        <v>247.4</v>
+      </c>
+      <c r="K13" s="15">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="L13" s="15">
+        <f>L12*0.07</f>
+        <v>153.61500000000001</v>
+      </c>
+      <c r="M13" s="15">
+        <f>M12*0.07</f>
+        <v>160.405</v>
+      </c>
+      <c r="N13" s="15">
+        <f>N12*0.07</f>
+        <v>167.19500000000002</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="8"/>
+        <v>439.70000000000005</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>SUM(K13:N13)</f>
+        <v>627.0150000000001</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>+AA12*0.07</f>
+        <v>732.81039999999985</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" ref="AB13:AM13" si="18">+AB12*0.07</f>
+        <v>816.68888000000015</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="18"/>
+        <v>858.30327520000014</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="18"/>
+        <v>935.95189654399996</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="18"/>
+        <v>1007.5652347308803</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="18"/>
+        <v>1066.7814096558977</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="18"/>
+        <v>1126.852421056376</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="18"/>
+        <v>1167.9195443641274</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="18"/>
+        <v>1183.1615549493717</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="18"/>
+        <v>1199.1545015995246</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="18"/>
+        <v>1215.865138028794</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="18"/>
+        <v>794.19423229070605</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="18"/>
+        <v>415.0670355969321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14" si="19">+F12-F13</f>
+        <v>1423.9</v>
+      </c>
+      <c r="G14" s="15">
+        <f>+G12-G13</f>
+        <v>1531</v>
+      </c>
+      <c r="H14" s="15">
         <v>0</v>
       </c>
-      <c r="I13" s="15">
-        <f t="shared" si="1"/>
+      <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
+      <c r="J14" s="15">
+        <f>+J12-J13</f>
+        <v>1824.6</v>
+      </c>
+      <c r="K14" s="15">
+        <f>+K12-K13</f>
+        <v>1951.7</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14:N14" si="20">+L12-L13</f>
+        <v>2040.885</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="20"/>
+        <v>2131.0949999999998</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="20"/>
+        <v>2221.3049999999998</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" ref="X14" si="21">+X12-X13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" si="1"/>
-        <v>818.3</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="Y14" s="2">
+        <f>+Y12-Y13</f>
+        <v>3355.5999999999995</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>+Z12-Z13</f>
+        <v>8344.9850000000006</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>+AA12-AA13</f>
+        <v>9735.9095999999972</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" ref="AB14:AM14" si="22">+AB12-AB13</f>
+        <v>10850.295120000001</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="22"/>
+        <v>11403.1720848</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="22"/>
+        <v>12434.789482655999</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="22"/>
+        <v>13386.223832853122</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="22"/>
+        <v>14172.953013999784</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="22"/>
+        <v>14971.039308320422</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="22"/>
+        <v>15516.645375123406</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="22"/>
+        <v>15719.146372898795</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="22"/>
+        <v>15931.624092679394</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="22"/>
+        <v>16153.636833811119</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="22"/>
+        <v>10551.437657576524</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" si="22"/>
+        <v>5514.4620443592403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
+        <v>175</v>
+      </c>
+      <c r="G15" s="15">
+        <v>151</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
+        <v>210</v>
+      </c>
+      <c r="K15" s="15">
+        <v>167</v>
+      </c>
+      <c r="L15" s="15">
+        <f>+K15</f>
+        <v>167</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" ref="M15:N15" si="23">+L15</f>
+        <v>167</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="23"/>
+        <v>167</v>
+      </c>
+      <c r="X15" s="2">
+        <v>609</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>673</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" ref="Z15:Z16" si="24">SUM(K15:N15)</f>
+        <v>668</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>+AA12*0.1</f>
+        <v>1046.8719999999998</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" ref="AB15:AM15" si="25">+AB12*0.1</f>
+        <v>1166.6984</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="25"/>
+        <v>1226.1475360000002</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="25"/>
+        <v>1337.0741379199999</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="25"/>
+        <v>1439.3789067584003</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="25"/>
+        <v>1523.9734423655682</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="25"/>
+        <v>1609.7891729376797</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="25"/>
+        <v>1668.4564919487534</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="25"/>
+        <v>1690.2307927848169</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="25"/>
+        <v>1713.077859427892</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="25"/>
+        <v>1736.9501971839913</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="25"/>
+        <v>1134.5631889867229</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="25"/>
+        <v>592.95290799561724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15">
+        <v>364</v>
+      </c>
+      <c r="G16" s="15">
+        <v>380</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
+        <v>493</v>
+      </c>
+      <c r="K16" s="15">
+        <v>520</v>
+      </c>
+      <c r="L16" s="15">
+        <f>+K16</f>
+        <v>520</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" ref="M16:N16" si="26">+L16</f>
+        <v>520</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="26"/>
+        <v>520</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1372</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1658</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="24"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="17" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15">
+        <f t="shared" ref="F17" si="27">SUM(F15:F16)</f>
+        <v>539</v>
+      </c>
+      <c r="G17" s="15">
+        <f>SUM(G15:G16)</f>
+        <v>531</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" ref="H17:K17" si="28">SUM(H15:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <f>SUM(J15:J16)</f>
+        <v>703</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="28"/>
+        <v>687</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" ref="L17:N17" si="29">SUM(L15:L16)</f>
+        <v>687</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="29"/>
+        <v>687</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="29"/>
+        <v>687</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" ref="X17:Z17" si="30">SUM(X15:X16)</f>
+        <v>1981</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="30"/>
+        <v>2331</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" si="30"/>
+        <v>2748</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" ref="AA17:AM17" si="31">SUM(AA15:AA16)</f>
+        <v>1046.8719999999998</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" si="31"/>
+        <v>1166.6984</v>
+      </c>
+      <c r="AC17" s="15">
+        <f t="shared" si="31"/>
+        <v>1226.1475360000002</v>
+      </c>
+      <c r="AD17" s="15">
+        <f t="shared" si="31"/>
+        <v>1337.0741379199999</v>
+      </c>
+      <c r="AE17" s="15">
+        <f t="shared" si="31"/>
+        <v>1439.3789067584003</v>
+      </c>
+      <c r="AF17" s="15">
+        <f t="shared" si="31"/>
+        <v>1523.9734423655682</v>
+      </c>
+      <c r="AG17" s="15">
+        <f t="shared" si="31"/>
+        <v>1609.7891729376797</v>
+      </c>
+      <c r="AH17" s="15">
+        <f t="shared" si="31"/>
+        <v>1668.4564919487534</v>
+      </c>
+      <c r="AI17" s="15">
+        <f t="shared" si="31"/>
+        <v>1690.2307927848169</v>
+      </c>
+      <c r="AJ17" s="15">
+        <f t="shared" si="31"/>
+        <v>1713.077859427892</v>
+      </c>
+      <c r="AK17" s="15">
+        <f t="shared" si="31"/>
+        <v>1736.9501971839913</v>
+      </c>
+      <c r="AL17" s="15">
+        <f t="shared" si="31"/>
+        <v>1134.5631889867229</v>
+      </c>
+      <c r="AM17" s="15">
+        <f t="shared" si="31"/>
+        <v>592.95290799561724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="15">
-        <f>G10-G13</f>
-        <v>882.9</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" ref="H14:K14" si="2">H10-H13</f>
+      <c r="F18" s="15">
+        <f t="shared" ref="F18" si="32">F14-F17</f>
+        <v>884.90000000000009</v>
+      </c>
+      <c r="G18" s="15">
+        <f>G14-G17</f>
+        <v>1000</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" ref="H18:K18" si="33">H14-H17</f>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
-        <f t="shared" si="2"/>
+      <c r="I18" s="15">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="2"/>
+      <c r="J18" s="15">
+        <f>J14-J17</f>
+        <v>1121.5999999999999</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="33"/>
+        <v>1264.7</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" ref="L18:N18" si="34">L14-L17</f>
+        <v>1353.885</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="34"/>
+        <v>1444.0949999999998</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="34"/>
+        <v>1534.3049999999998</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" ref="X18:Z18" si="35">X14-X17</f>
+        <v>-1981</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="35"/>
+        <v>1024.5999999999995</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="35"/>
+        <v>5596.9850000000006</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" ref="AA18:AM18" si="36">AA14-AA17</f>
+        <v>8689.0375999999978</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" si="36"/>
+        <v>9683.5967200000014</v>
+      </c>
+      <c r="AC18" s="15">
+        <f t="shared" si="36"/>
+        <v>10177.0245488</v>
+      </c>
+      <c r="AD18" s="15">
+        <f t="shared" si="36"/>
+        <v>11097.715344736</v>
+      </c>
+      <c r="AE18" s="15">
+        <f t="shared" si="36"/>
+        <v>11946.844926094722</v>
+      </c>
+      <c r="AF18" s="15">
+        <f t="shared" si="36"/>
+        <v>12648.979571634216</v>
+      </c>
+      <c r="AG18" s="15">
+        <f t="shared" si="36"/>
+        <v>13361.250135382743</v>
+      </c>
+      <c r="AH18" s="15">
+        <f t="shared" si="36"/>
+        <v>13848.188883174653</v>
+      </c>
+      <c r="AI18" s="15">
+        <f t="shared" si="36"/>
+        <v>14028.915580113979</v>
+      </c>
+      <c r="AJ18" s="15">
+        <f t="shared" si="36"/>
+        <v>14218.546233251502</v>
+      </c>
+      <c r="AK18" s="15">
+        <f t="shared" si="36"/>
+        <v>14416.686636627128</v>
+      </c>
+      <c r="AL18" s="15">
+        <f t="shared" si="36"/>
+        <v>9416.8744685898</v>
+      </c>
+      <c r="AM18" s="15">
+        <f t="shared" si="36"/>
+        <v>4921.5091363636229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
+        <f>2.3-16.3</f>
+        <v>-14</v>
+      </c>
+      <c r="G19" s="15">
+        <f>1.5-15.7</f>
+        <v>-14.2</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15">
+        <f>1.2-15.1</f>
+        <v>-13.9</v>
+      </c>
+      <c r="K19" s="15">
+        <f>1.6-14.9</f>
+        <v>-13.3</v>
+      </c>
+      <c r="L19" s="15">
+        <f>+K19</f>
+        <v>-13.3</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" ref="M19:N19" si="37">+L19</f>
+        <v>-13.3</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="37"/>
+        <v>-13.3</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" ref="Z19:Z21" si="38">SUM(K19:N19)</f>
+        <v>-53.2</v>
+      </c>
+      <c r="AA19" s="2">
+        <f>+Z30*$AP$28</f>
+        <v>117.64368</v>
+      </c>
+      <c r="AB19" s="2">
+        <f>+AA30*$AP$28</f>
+        <v>188.09713023999998</v>
+      </c>
+      <c r="AC19" s="2">
+        <f>+AB30*$AP$28</f>
+        <v>267.07068104191995</v>
+      </c>
+      <c r="AD19" s="2">
+        <f>+AC30*$AP$28</f>
+        <v>350.62344288065538</v>
+      </c>
+      <c r="AE19" s="2">
+        <f>+AD30*$AP$28</f>
+        <v>442.21015318158857</v>
+      </c>
+      <c r="AF19" s="2">
+        <f>+AE30*$AP$28</f>
+        <v>541.32259381579911</v>
+      </c>
+      <c r="AG19" s="2">
+        <f>+AF30*$AP$28</f>
+        <v>646.84501113939916</v>
+      </c>
+      <c r="AH19" s="2">
+        <f>+AG30*$AP$28</f>
+        <v>758.90977231157626</v>
+      </c>
+      <c r="AI19" s="2">
+        <f>+AH30*$AP$28</f>
+        <v>875.76656155546607</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f>+AI30*$AP$28</f>
+        <v>995.00401868882159</v>
+      </c>
+      <c r="AK19" s="2">
+        <f>+AJ30*$AP$28</f>
+        <v>1116.7124207043441</v>
+      </c>
+      <c r="AL19" s="2">
+        <f>+AK30*$AP$28</f>
+        <v>1240.979613162996</v>
+      </c>
+      <c r="AM19" s="2">
+        <f>+AL30*$AP$28</f>
+        <v>1326.2424458170185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="15">
+        <f>+F18+F19</f>
+        <v>870.90000000000009</v>
+      </c>
+      <c r="G20" s="15">
+        <f>+G18+G19</f>
+        <v>985.8</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" ref="H20:K20" si="39">+H18+H19</f>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
-        <f t="shared" si="2"/>
-        <v>1133.4000000000001</v>
-      </c>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="I20" s="15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="39"/>
+        <v>1107.6999999999998</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="39"/>
+        <v>1251.4000000000001</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" ref="L20" si="40">+L18+L19</f>
+        <v>1340.585</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" ref="M20" si="41">+M18+M19</f>
+        <v>1430.7949999999998</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" ref="N20" si="42">+N18+N19</f>
+        <v>1521.0049999999999</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>+Z18+Z19</f>
+        <v>5543.7850000000008</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" ref="AA20:AM20" si="43">+AA18+AA19</f>
+        <v>8806.6812799999971</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="43"/>
+        <v>9871.6938502400008</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="43"/>
+        <v>10444.09522984192</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" si="43"/>
+        <v>11448.338787616654</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="43"/>
+        <v>12389.05507927631</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="43"/>
+        <v>13190.302165450015</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="43"/>
+        <v>14008.095146522142</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="43"/>
+        <v>14607.098655486228</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="43"/>
+        <v>14904.682141669444</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="43"/>
+        <v>15213.550251940324</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="43"/>
+        <v>15533.399057331471</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="43"/>
+        <v>10657.854081752796</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="43"/>
+        <v>6247.751582180641</v>
+      </c>
+    </row>
+    <row r="21" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
+        <v>198</v>
+      </c>
+      <c r="G21" s="15">
+        <v>206</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
+        <v>239</v>
+      </c>
+      <c r="K21" s="15">
+        <v>249</v>
+      </c>
+      <c r="L21" s="15">
+        <f>+L20*0.2</f>
+        <v>268.11700000000002</v>
+      </c>
+      <c r="M21" s="15">
+        <v>249</v>
+      </c>
+      <c r="N21" s="15">
+        <v>249</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="38"/>
+        <v>1015.117</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>+AA20*0.2</f>
+        <v>1761.3362559999996</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" ref="AB21:AM21" si="44">+AB20*0.2</f>
+        <v>1974.3387700480002</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="44"/>
+        <v>2088.8190459683842</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="44"/>
+        <v>2289.6677575233311</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="44"/>
+        <v>2477.8110158552622</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="44"/>
+        <v>2638.0604330900032</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="44"/>
+        <v>2801.6190293044288</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="44"/>
+        <v>2921.4197310972459</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="44"/>
+        <v>2980.9364283338891</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="44"/>
+        <v>3042.7100503880647</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="44"/>
+        <v>3106.6798114662943</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="44"/>
+        <v>2131.5708163505592</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" si="44"/>
+        <v>1249.5503164361282</v>
+      </c>
+    </row>
+    <row r="22" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="F22" s="15">
+        <f>+F20-F21</f>
+        <v>672.90000000000009</v>
+      </c>
+      <c r="G22" s="15">
+        <f>+G20-G21</f>
+        <v>779.8</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:N22" si="45">+H20-H21</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="45"/>
+        <v>868.69999999999982</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="45"/>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="45"/>
+        <v>1072.4680000000001</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="45"/>
+        <v>1181.7949999999998</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="45"/>
+        <v>1272.0049999999999</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>+Z20-Z21</f>
+        <v>4528.6680000000006</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AM22" si="46">+AA20-AA21</f>
+        <v>7045.3450239999975</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="46"/>
+        <v>7897.355080192001</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="46"/>
+        <v>8355.276183873535</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" si="46"/>
+        <v>9158.6710300933228</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="46"/>
+        <v>9911.244063421047</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="46"/>
+        <v>10552.241732360013</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="46"/>
+        <v>11206.476117217713</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="46"/>
+        <v>11685.678924388983</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="46"/>
+        <v>11923.745713335555</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="46"/>
+        <v>12170.840201552259</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="46"/>
+        <v>12426.719245865177</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="46"/>
+        <v>8526.2832654022368</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="46"/>
+        <v>4998.201265744513</v>
+      </c>
+      <c r="AN22" s="2">
+        <f>+AM22*(1+$AP$26)</f>
+        <v>4748.291202457287</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" ref="AO22:CZ22" si="47">+AN22*(1+$AP$26)</f>
+        <v>4510.8766423344223</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="47"/>
+        <v>4285.3328102177011</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="47"/>
+        <v>4071.0661697068158</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="47"/>
+        <v>3867.5128612214749</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="47"/>
+        <v>3674.1372181604011</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" si="47"/>
+        <v>3490.4303572523809</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" si="47"/>
+        <v>3315.9088393897619</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" si="47"/>
+        <v>3150.1133974202735</v>
+      </c>
+      <c r="AW22" s="2">
+        <f t="shared" si="47"/>
+        <v>2992.6077275492598</v>
+      </c>
+      <c r="AX22" s="2">
+        <f t="shared" si="47"/>
+        <v>2842.9773411717965</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" si="47"/>
+        <v>2700.8284741132065</v>
+      </c>
+      <c r="AZ22" s="2">
+        <f t="shared" si="47"/>
+        <v>2565.7870504075463</v>
+      </c>
+      <c r="BA22" s="2">
+        <f t="shared" si="47"/>
+        <v>2437.4976978871687</v>
+      </c>
+      <c r="BB22" s="2">
+        <f t="shared" si="47"/>
+        <v>2315.6228129928099</v>
+      </c>
+      <c r="BC22" s="2">
+        <f t="shared" si="47"/>
+        <v>2199.8416723431692</v>
+      </c>
+      <c r="BD22" s="2">
+        <f t="shared" si="47"/>
+        <v>2089.8495887260106</v>
+      </c>
+      <c r="BE22" s="2">
+        <f t="shared" si="47"/>
+        <v>1985.35710928971</v>
+      </c>
+      <c r="BF22" s="2">
+        <f t="shared" si="47"/>
+        <v>1886.0892538252244</v>
+      </c>
+      <c r="BG22" s="2">
+        <f t="shared" si="47"/>
+        <v>1791.7847911339632</v>
+      </c>
+      <c r="BH22" s="2">
+        <f t="shared" si="47"/>
+        <v>1702.195551577265</v>
+      </c>
+      <c r="BI22" s="2">
+        <f t="shared" si="47"/>
+        <v>1617.0857739984017</v>
+      </c>
+      <c r="BJ22" s="2">
+        <f t="shared" si="47"/>
+        <v>1536.2314852984816</v>
+      </c>
+      <c r="BK22" s="2">
+        <f t="shared" si="47"/>
+        <v>1459.4199110335576</v>
+      </c>
+      <c r="BL22" s="2">
+        <f t="shared" si="47"/>
+        <v>1386.4489154818796</v>
+      </c>
+      <c r="BM22" s="2">
+        <f t="shared" si="47"/>
+        <v>1317.1264697077854</v>
+      </c>
+      <c r="BN22" s="2">
+        <f t="shared" si="47"/>
+        <v>1251.2701462223961</v>
+      </c>
+      <c r="BO22" s="2">
+        <f t="shared" si="47"/>
+        <v>1188.7066389112763</v>
+      </c>
+      <c r="BP22" s="2">
+        <f t="shared" si="47"/>
+        <v>1129.2713069657125</v>
+      </c>
+      <c r="BQ22" s="2">
+        <f t="shared" si="47"/>
+        <v>1072.8077416174267</v>
+      </c>
+      <c r="BR22" s="2">
+        <f t="shared" si="47"/>
+        <v>1019.1673545365553</v>
+      </c>
+      <c r="BS22" s="2">
+        <f t="shared" si="47"/>
+        <v>968.20898680972755</v>
+      </c>
+      <c r="BT22" s="2">
+        <f t="shared" si="47"/>
+        <v>919.79853746924118</v>
+      </c>
+      <c r="BU22" s="2">
+        <f t="shared" si="47"/>
+        <v>873.8086105957791</v>
+      </c>
+      <c r="BV22" s="2">
+        <f t="shared" si="47"/>
+        <v>830.11818006599015</v>
+      </c>
+      <c r="BW22" s="2">
+        <f t="shared" si="47"/>
+        <v>788.61227106269064</v>
+      </c>
+      <c r="BX22" s="2">
+        <f t="shared" si="47"/>
+        <v>749.18165750955609</v>
+      </c>
+      <c r="BY22" s="2">
+        <f t="shared" si="47"/>
+        <v>711.72257463407823</v>
+      </c>
+      <c r="BZ22" s="2">
+        <f t="shared" si="47"/>
+        <v>676.13644590237425</v>
+      </c>
+      <c r="CA22" s="2">
+        <f t="shared" si="47"/>
+        <v>642.32962360725548</v>
+      </c>
+      <c r="CB22" s="2">
+        <f t="shared" si="47"/>
+        <v>610.21314242689266</v>
+      </c>
+      <c r="CC22" s="2">
+        <f t="shared" si="47"/>
+        <v>579.70248530554795</v>
+      </c>
+      <c r="CD22" s="2">
+        <f t="shared" si="47"/>
+        <v>550.71736104027048</v>
+      </c>
+      <c r="CE22" s="2">
+        <f t="shared" si="47"/>
+        <v>523.18149298825688</v>
+      </c>
+      <c r="CF22" s="2">
+        <f t="shared" si="47"/>
+        <v>497.02241833884403</v>
+      </c>
+      <c r="CG22" s="2">
+        <f t="shared" si="47"/>
+        <v>472.17129742190178</v>
+      </c>
+      <c r="CH22" s="2">
+        <f t="shared" si="47"/>
+        <v>448.56273255080669</v>
+      </c>
+      <c r="CI22" s="2">
+        <f t="shared" si="47"/>
+        <v>426.13459592326632</v>
+      </c>
+      <c r="CJ22" s="2">
+        <f t="shared" si="47"/>
+        <v>404.82786612710299</v>
+      </c>
+      <c r="CK22" s="2">
+        <f t="shared" si="47"/>
+        <v>384.58647282074782</v>
+      </c>
+      <c r="CL22" s="2">
+        <f t="shared" si="47"/>
+        <v>365.3571491797104</v>
+      </c>
+      <c r="CM22" s="2">
+        <f t="shared" si="47"/>
+        <v>347.08929172072487</v>
+      </c>
+      <c r="CN22" s="2">
+        <f t="shared" si="47"/>
+        <v>329.7348271346886</v>
+      </c>
+      <c r="CO22" s="2">
+        <f t="shared" si="47"/>
+        <v>313.24808577795415</v>
+      </c>
+      <c r="CP22" s="2">
+        <f t="shared" si="47"/>
+        <v>297.58568148905641</v>
+      </c>
+      <c r="CQ22" s="2">
+        <f t="shared" si="47"/>
+        <v>282.7063974146036</v>
+      </c>
+      <c r="CR22" s="2">
+        <f t="shared" si="47"/>
+        <v>268.5710775438734</v>
+      </c>
+      <c r="CS22" s="2">
+        <f t="shared" si="47"/>
+        <v>255.14252366667972</v>
+      </c>
+      <c r="CT22" s="2">
+        <f t="shared" si="47"/>
+        <v>242.38539748334571</v>
+      </c>
+      <c r="CU22" s="2">
+        <f t="shared" si="47"/>
+        <v>230.26612760917843</v>
+      </c>
+      <c r="CV22" s="2">
+        <f t="shared" si="47"/>
+        <v>218.75282122871948</v>
+      </c>
+      <c r="CW22" s="2">
+        <f t="shared" si="47"/>
+        <v>207.8151801672835</v>
+      </c>
+      <c r="CX22" s="2">
+        <f t="shared" si="47"/>
+        <v>197.42442115891933</v>
+      </c>
+      <c r="CY22" s="2">
+        <f t="shared" si="47"/>
+        <v>187.55320010097336</v>
+      </c>
+      <c r="CZ22" s="2">
+        <f t="shared" si="47"/>
+        <v>178.17554009592467</v>
+      </c>
+    </row>
+    <row r="23" spans="2:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25">
+        <f t="shared" ref="F23:J23" si="48">+F22/F24</f>
+        <v>2.5575826681870013</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="48"/>
+        <v>2.9774723176785032</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25">
+        <f t="shared" si="48"/>
+        <v>3.3801556420233454</v>
+      </c>
+      <c r="K23" s="25">
+        <f>+K22/K24</f>
+        <v>3.8867778208607993</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" ref="L23:N23" si="49">+L22/L24</f>
+        <v>4.1584645211322222</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="49"/>
+        <v>4.582376890267545</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="49"/>
+        <v>4.9321636293136875</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>+Z22/Z24</f>
+        <v>17.559782861574256</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" ref="AA23:AM23" si="50">+AA22/AA24</f>
+        <v>27.318127274137254</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="50"/>
+        <v>30.621772315595198</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="50"/>
+        <v>32.39734852219285</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="50"/>
+        <v>35.512489453638324</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="50"/>
+        <v>38.430570234280914</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="50"/>
+        <v>40.916020676076052</v>
+      </c>
+      <c r="AG23" s="1">
+        <f t="shared" si="50"/>
+        <v>43.452796111739879</v>
+      </c>
+      <c r="AH23" s="1">
+        <f t="shared" si="50"/>
+        <v>45.310891525354727</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="50"/>
+        <v>46.233988807039765</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="50"/>
+        <v>47.192090738861033</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="50"/>
+        <v>48.184254539996815</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="50"/>
+        <v>33.060423673525541</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="50"/>
+        <v>19.380384900133826</v>
+      </c>
+    </row>
+    <row r="24" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="G24" s="15">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15">
+        <v>257</v>
+      </c>
+      <c r="K24" s="15">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="L24" s="15">
+        <f>+K24</f>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" ref="M24:N24" si="51">+L24</f>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="51"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>AVERAGE(K24:N24)</f>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>+Z24</f>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" ref="AB24:AM24" si="52">+AA24</f>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="52"/>
+        <v>257.89999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" ref="F26:G26" si="53">F14/F12</f>
+        <v>0.87516902274124164</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" ref="G26:K26" si="54">G14/G12</f>
+        <v>0.888411768119306</v>
+      </c>
+      <c r="H26" s="23" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="23" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="23">
+        <f t="shared" si="54"/>
+        <v>0.88059845559845551</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" ref="K26:L26" si="55">K14/K12</f>
+        <v>0.93048867699642435</v>
+      </c>
+      <c r="L26" s="23">
+        <f t="shared" si="55"/>
+        <v>0.93</v>
+      </c>
+      <c r="M26" s="23">
+        <f>M14/M12</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="N26" s="23">
+        <f>N14/N12</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="Y26" s="23">
+        <f t="shared" ref="Y26:Z26" si="56">Y14/Y12</f>
+        <v>0.88414618080257157</v>
+      </c>
+      <c r="Z26" s="23">
+        <f t="shared" si="56"/>
+        <v>0.93011424431564871</v>
+      </c>
+      <c r="AA26" s="23">
+        <f t="shared" ref="AA26:AM26" si="57">AA14/AA12</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AB26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AC26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AD26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AE26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AF26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AG26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AH26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AI26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AJ26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AK26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AL26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.93</v>
+      </c>
+      <c r="AM26" s="23">
+        <f t="shared" si="57"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP26" s="27">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23">
+        <f>+Z15/Z12</f>
+        <v>7.4453856442264821E-2</v>
+      </c>
+      <c r="AA27" s="23">
+        <f t="shared" ref="AA27:AM27" si="58">+AA15/AA12</f>
+        <v>0.1</v>
+      </c>
+      <c r="AB27" s="23">
+        <f t="shared" si="58"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AC27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL27" s="23">
+        <f t="shared" si="58"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM27" s="23">
+        <f t="shared" si="58"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP27" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="23">
+        <f t="shared" ref="F28:G28" si="59">F21/F20</f>
+        <v>0.22735101619014811</v>
+      </c>
+      <c r="G28" s="23">
+        <f>G21/G20</f>
+        <v>0.20896733617366606</v>
+      </c>
+      <c r="H28" s="23" t="e">
+        <f t="shared" ref="H28:N28" si="60">H21/H20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="23" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" si="60"/>
+        <v>0.21576239053895463</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="60"/>
+        <v>0.19897714559693142</v>
+      </c>
+      <c r="L28" s="23">
+        <f t="shared" si="60"/>
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" si="60"/>
+        <v>0.17402912366900922</v>
+      </c>
+      <c r="N28" s="23">
+        <f t="shared" si="60"/>
+        <v>0.16370754862738782</v>
+      </c>
+      <c r="Z28" s="27">
+        <f>+Z21/Z20</f>
+        <v>0.18310901306598287</v>
+      </c>
+      <c r="AA28" s="27">
+        <f t="shared" ref="AA28:AM28" si="61">+AA21/AA20</f>
+        <v>0.2</v>
+      </c>
+      <c r="AB28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AD28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM28" s="27">
+        <f t="shared" si="61"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP28" s="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:104" x14ac:dyDescent="0.2">
+      <c r="AO29" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP29" s="2">
+        <f>NPV(AP27,AA22:BX22)+Main!M5-Main!M6</f>
+        <v>104060.75684749277</v>
+      </c>
+    </row>
+    <row r="30" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15">
+        <f>7600.1+638</f>
+        <v>8238.1</v>
+      </c>
+      <c r="L30" s="15">
+        <f>+K30+L22</f>
+        <v>9310.5680000000011</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" ref="M30:N30" si="62">+L30+M22</f>
+        <v>10492.363000000001</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="62"/>
+        <v>11764.368</v>
+      </c>
+      <c r="Z30" s="2">
+        <f>+N30</f>
+        <v>11764.368</v>
+      </c>
+      <c r="AA30" s="2">
+        <f>+Z30+AA22</f>
+        <v>18809.713023999997</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" ref="AB30:AM30" si="63">+AA30+AB22</f>
+        <v>26707.068104191996</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="63"/>
+        <v>35062.344288065535</v>
+      </c>
+      <c r="AD30" s="2">
+        <f t="shared" si="63"/>
+        <v>44221.015318158854</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="63"/>
+        <v>54132.259381579905</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="63"/>
+        <v>64684.501113939914</v>
+      </c>
+      <c r="AG30" s="2">
+        <f t="shared" si="63"/>
+        <v>75890.977231157623</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="63"/>
+        <v>87576.656155546603</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="63"/>
+        <v>99500.401868882152</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="63"/>
+        <v>111671.24207043441</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="63"/>
+        <v>124097.9613162996</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="63"/>
+        <v>132624.24458170185</v>
+      </c>
+      <c r="AM30" s="2">
+        <f t="shared" si="63"/>
+        <v>137622.44584744636</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP30" s="1">
+        <f>AP29/Main!M3</f>
+        <v>406.87519634192518</v>
+      </c>
+    </row>
+    <row r="31" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
+        <v>1292.8</v>
+      </c>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15">
+        <v>338.9</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
+        <v>491.5</v>
+      </c>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15">
+        <v>1107.4000000000001</v>
+      </c>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15">
+        <f>1002.2+400</f>
+        <v>1402.2</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15">
+        <v>945.5</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15">
+        <v>329</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15">
+        <v>110.7</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15">
+        <f>SUM(K30:K38)</f>
+        <v>14256.1</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15">
+        <v>173.6</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15">
+        <v>1720.5</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15">
+        <f>495.5+377</f>
+        <v>872.5</v>
+      </c>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15">
+        <v>179</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15">
+        <v>117.4</v>
+      </c>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15">
+        <v>10907</v>
+      </c>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15">
+        <f>SUM(K41:K47)</f>
+        <v>14256.1</v>
+      </c>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15">
+        <f>+K22</f>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
+        <v>762.1</v>
+      </c>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+    </row>
+    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+    </row>
+    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15">
+        <v>35.9</v>
+      </c>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+    </row>
+    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
+        <v>-7.5</v>
+      </c>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15">
+        <v>-12.3</v>
+      </c>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15">
+        <f>-165.2+2+67.6-14.5+61.6+15.7</f>
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15">
+        <f>SUM(K51:K58)</f>
+        <v>956.20000000000016</v>
+      </c>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15">
+        <v>-63.6</v>
+      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15">
+        <f>-117.1+129.7</f>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15">
+        <f>K61+K62</f>
+        <v>-51.000000000000007</v>
+      </c>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+    </row>
+    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+    </row>
+    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15">
+        <v>-117.5</v>
+      </c>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15">
+        <v>-12.9</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+    </row>
+    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15">
+        <f>SUM(K65:K68)</f>
+        <v>-95.4</v>
+      </c>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15">
+        <v>-5.9</v>
+      </c>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+    </row>
+    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15">
+        <f>+K69+K70+K63+K59</f>
+        <v>803.90000000000009</v>
+      </c>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+    </row>
+    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2110,18 +6717,20 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD65BEA-589C-4679-9414-3940926A76D9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,7 +6759,70 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2162,14 +6834,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D4BF29-0A94-4770-AA68-CFDB5D68D6D1}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E6387-11D8-4B2C-A093-43065AD20DB4}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,33 +6855,28 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00432356-2035-497F-B68F-E19036CF21B5}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2558785C-ADB2-4095-9A7B-C13C6F6F08D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2266,15 +6934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E64667-B707-436E-8242-61F1E098F287}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D4BF29-0A94-4770-AA68-CFDB5D68D6D1}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2287,122 +6954,204 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00432356-2035-497F-B68F-E19036CF21B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E64667-B707-436E-8242-61F1E098F287}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="21" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="22" t="s">
-        <v>161</v>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="21" t="s">
-        <v>158</v>
+      <c r="C20" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="21" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B7375EF0-5582-4E12-AC44-5AB9BFB39A26}"/>
+    <hyperlink ref="I11" r:id="rId1" location="!*menu=16*browseby=9*sortby=1*trend=4016" xr:uid="{5FC3E2BD-FEEC-4C40-834C-9C4DE1F9CFCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680057B1-62FF-469A-BFF1-F8D2D83B9698}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2461,17 +7210,27 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>145</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2482,11 +7241,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3500169-374E-454F-AD84-2EA69EF52EB1}">
-  <dimension ref="A1:C6"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF238714-88C7-42B3-B2FD-3531313A58EB}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2495,7 +7256,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2504,298 +7265,38 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>141</v>
+      <c r="C5" s="21" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="21" t="s">
-        <v>172</v>
+      <c r="C6" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8E17983A-F281-41DE-94AE-3C971B03D303}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0003B-178C-466F-BE10-E90BCC8A1B78}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>11390600</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18">
-        <v>44019</v>
-      </c>
-      <c r="H3" s="18">
-        <v>44761</v>
-      </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>11370798</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="18">
-        <v>44074</v>
-      </c>
-      <c r="H4" s="18">
-        <v>44740</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>11369692</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18">
-        <v>42671</v>
-      </c>
-      <c r="H5" s="18">
-        <v>44740</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>11358977</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6" s="18">
-        <v>43236</v>
-      </c>
-      <c r="H6" s="18">
-        <v>44726</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>11345700</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
-        <v>43899</v>
-      </c>
-      <c r="H7" s="18">
-        <v>44712</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>11291662</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18">
-        <v>43804</v>
-      </c>
-      <c r="H8" s="18">
-        <v>44656</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>11268077</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>43501</v>
-      </c>
-      <c r="H9" s="18">
-        <v>44628</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>11253509</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="18">
-        <v>43259</v>
-      </c>
-      <c r="H10" s="18">
-        <v>44614</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{28B9CEB8-4D0A-4224-9448-513A0C99A972}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1B6A91-A038-487E-8D78-A1A8C1C909B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9C228-C007-421C-8FCF-2775E28E4812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="390" windowWidth="19320" windowHeight="14700" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="53610" yWindow="6735" windowWidth="24495" windowHeight="13590" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <author>tc={40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}</author>
   </authors>
   <commentList>
-    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="310">
   <si>
     <t>Price</t>
   </si>
@@ -980,6 +980,21 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
@@ -987,9 +1002,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1023,12 +1038,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1155,12 +1164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1173,16 +1180,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1205,16 +1218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1229,8 +1242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="66675"/>
-          <a:ext cx="0" cy="10972800"/>
+          <a:off x="7610475" y="0"/>
+          <a:ext cx="0" cy="11782425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1255,15 +1268,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1802,7 +1815,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z12" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+  <threadedComment ref="AA13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
     <text>Q122: reiterates 8.4-8.6B guidance</text>
   </threadedComment>
 </ThreadedComments>
@@ -1812,7 +1825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1850,49 +1865,43 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>263.08999999999997</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>255.75596100000001</v>
+        <v>256</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L4" t="s">
@@ -1900,55 +1909,50 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>67286.835779489993</v>
+        <v>73728</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>7600.1+638</f>
-        <v>8238.1</v>
+        <v>9253.4</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
@@ -1958,34 +1962,24 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>59048.735779489994</v>
+        <v>64474.6</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -1999,23 +1993,22 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2023,107 +2016,95 @@
       <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
       <c r="J13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
       <c r="J14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
@@ -2132,177 +2113,170 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" t="s">
         <v>244</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
       <c r="J17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2337,7 +2311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2384,29 +2358,29 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="21"/>
+      <c r="C9" s="19"/>
       <c r="D9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="22" t="s">
+      <c r="C10" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="s">
+      <c r="C11" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="23">
         <v>137.80000000000001</v>
       </c>
       <c r="E11" t="s">
@@ -2414,10 +2388,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="22" t="s">
+      <c r="C12" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="23">
         <v>86.9</v>
       </c>
       <c r="E12" t="s">
@@ -2425,10 +2399,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="22" t="s">
+      <c r="C13" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <v>112.9</v>
       </c>
       <c r="E13" t="s">
@@ -2436,10 +2410,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="22" t="s">
+      <c r="C14" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>115.6</v>
       </c>
       <c r="E14" t="s">
@@ -2447,15 +2421,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="22"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="22"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2473,7 +2445,7 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="22" t="s">
+      <c r="C20" t="s">
         <v>250</v>
       </c>
       <c r="D20">
@@ -2484,7 +2456,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="22" t="s">
+      <c r="C21" t="s">
         <v>252</v>
       </c>
       <c r="D21">
@@ -2495,7 +2467,7 @@
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="22" t="s">
+      <c r="C22" t="s">
         <v>254</v>
       </c>
       <c r="D22">
@@ -2526,7 +2498,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2568,7 +2540,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2605,7 +2577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2651,10 +2623,10 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>44019</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>44761</v>
       </c>
       <c r="I3" t="s">
@@ -2677,10 +2649,10 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>44074</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>44740</v>
       </c>
       <c r="I4" t="s">
@@ -2703,10 +2675,10 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>42671</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>44740</v>
       </c>
       <c r="I5" t="s">
@@ -2729,10 +2701,10 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>43236</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>44726</v>
       </c>
       <c r="I6" t="s">
@@ -2755,10 +2727,10 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>43899</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>44712</v>
       </c>
       <c r="I7" t="s">
@@ -2781,10 +2753,10 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>43804</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>44656</v>
       </c>
       <c r="I8" t="s">
@@ -2807,10 +2779,10 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>43501</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>44628</v>
       </c>
       <c r="I9" t="s">
@@ -2833,10 +2805,10 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>43259</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>44614</v>
       </c>
     </row>
@@ -2856,10 +2828,10 @@
       <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>41835</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>44551</v>
       </c>
       <c r="I11" t="s">
@@ -2882,10 +2854,10 @@
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>43803</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>44530</v>
       </c>
       <c r="I12" t="s">
@@ -2908,10 +2880,10 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>42172</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>44523</v>
       </c>
       <c r="I13" t="s">
@@ -2934,10 +2906,10 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>43500</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>44523</v>
       </c>
       <c r="I14" t="s">
@@ -2960,10 +2932,10 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>43915</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>44495</v>
       </c>
       <c r="I15" t="s">
@@ -2986,10 +2958,10 @@
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>43536</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>44488</v>
       </c>
       <c r="I16" t="s">
@@ -3012,10 +2984,10 @@
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>42929</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>44460</v>
       </c>
       <c r="I17" t="s">
@@ -3038,10 +3010,10 @@
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>43683</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>44453</v>
       </c>
     </row>
@@ -3061,10 +3033,10 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>43005</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>44446</v>
       </c>
     </row>
@@ -3084,10 +3056,10 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>43656</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>44446</v>
       </c>
     </row>
@@ -3107,10 +3079,10 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="16">
         <v>43874</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>44418</v>
       </c>
       <c r="I21" t="s">
@@ -3133,10 +3105,10 @@
       <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>43510</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>44397</v>
       </c>
     </row>
@@ -3156,10 +3128,10 @@
       <c r="F23">
         <v>5</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>43578</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>44390</v>
       </c>
       <c r="I23" t="s">
@@ -3179,10 +3151,10 @@
       <c r="E24" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>43679</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <v>44383</v>
       </c>
       <c r="I24" t="s">
@@ -3215,7 +3187,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3249,7 +3221,7 @@
       <c r="E3" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>40686</v>
       </c>
     </row>
@@ -3266,7 +3238,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>42187</v>
       </c>
     </row>
@@ -3380,29 +3352,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:CZ72"/>
+  <dimension ref="A1:DA74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="9.140625" style="3"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
@@ -3439,3277 +3411,3549 @@
       <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S3">
+      <c r="O3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T3">
         <v>2015</v>
       </c>
-      <c r="T3">
-        <f>+S3+1</f>
+      <c r="U3">
+        <f>+T3+1</f>
         <v>2016</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:AM3" si="0">+T3+1</f>
+      <c r="V3">
+        <f t="shared" ref="V3:AN3" si="0">+U3+1</f>
         <v>2017</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>200</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>400</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AG4" s="2">
         <v>600</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>800</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>1000</v>
       </c>
-      <c r="AI4" s="2">
-        <f>+AH4*1.01</f>
+      <c r="AJ4" s="2">
+        <f>+AI4*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AJ4" s="2">
-        <f t="shared" ref="AJ4:AM6" si="1">+AI4*1.01</f>
+      <c r="AK4" s="2">
+        <f t="shared" ref="AK4:AN6" si="1">+AJ4*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <f t="shared" si="1"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="1"/>
         <v>1040.60401</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AN4" s="2">
         <f t="shared" si="1"/>
         <v>1051.0100500999999</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="AB5" s="2">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="AC5" s="2">
         <v>200</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>500</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>800</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AF5" s="2">
         <v>1100</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AG5" s="2">
         <v>1400</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>1700</v>
       </c>
-      <c r="AH5" s="2">
-        <f>+AG5*1.01</f>
+      <c r="AI5" s="2">
+        <f>+AH5*1.01</f>
         <v>1717</v>
       </c>
-      <c r="AI5" s="2">
-        <f t="shared" ref="AI5:AM5" si="2">+AH5*1.01</f>
+      <c r="AJ5" s="2">
+        <f t="shared" ref="AJ5:AN5" si="2">+AI5*1.01</f>
         <v>1734.17</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AK5" s="2">
         <f t="shared" si="2"/>
         <v>1751.5117</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL5" s="2">
         <f t="shared" si="2"/>
         <v>1769.0268169999999</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AM5" s="2">
         <f t="shared" si="2"/>
         <v>1786.71708517</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AN5" s="2">
         <f t="shared" si="2"/>
         <v>1804.5842560217</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="AD6" s="2">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="AE6" s="2">
         <v>200</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AF6" s="2">
         <v>400</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AG6" s="2">
         <v>600</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>800</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>1000</v>
       </c>
-      <c r="AI6" s="2">
-        <f>+AH6*1.01</f>
+      <c r="AJ6" s="2">
+        <f>+AI6*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <f t="shared" si="1"/>
         <v>1020.1</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="1"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="1"/>
         <v>1040.60401</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <f t="shared" si="1"/>
         <v>1051.0100500999999</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="AA7" s="2">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="AB7" s="2">
         <v>100</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>300</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>500</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>800</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>1000</v>
       </c>
-      <c r="AF7" s="2">
-        <f>+AE7*1.01</f>
+      <c r="AG7" s="2">
+        <f>+AF7*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AG7" s="2">
-        <f t="shared" ref="AG7:AM7" si="3">+AF7*1.01</f>
+      <c r="AH7" s="2">
+        <f t="shared" ref="AH7:AN7" si="3">+AG7*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <f t="shared" si="3"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <f t="shared" si="3"/>
         <v>1040.60401</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AK7" s="2">
         <f t="shared" si="3"/>
         <v>1051.0100500999999</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AL7" s="2">
         <f t="shared" si="3"/>
         <v>1061.5201506009998</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AM7" s="2">
         <f t="shared" si="3"/>
         <v>1072.1353521070098</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <f t="shared" si="3"/>
         <v>1082.8567056280799</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>960</v>
+      </c>
+      <c r="F9" s="13">
         <v>1091</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="13">
         <v>1193.2</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15">
+      <c r="H9" s="13">
+        <v>1256</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1556</v>
+      </c>
+      <c r="J9" s="13">
         <v>1693</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="13">
         <v>1761.6</v>
       </c>
-      <c r="L8" s="15">
-        <f>+K8+100</f>
-        <v>1861.6</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" ref="M8:N8" si="4">+L8+100</f>
-        <v>1961.6</v>
-      </c>
-      <c r="N8" s="15">
+      <c r="L9" s="13">
+        <v>1893</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" ref="M9:N9" si="4">+L9+100</f>
+        <v>1993</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
-        <v>2061.6</v>
-      </c>
-      <c r="Y8" s="2">
-        <f>SUM(G8:J8)</f>
-        <v>2886.2</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" ref="Z8:Z10" si="5">SUM(K8:N8)</f>
-        <v>7646.4</v>
-      </c>
-      <c r="AA8" s="2">
-        <f>+Z8*1.2</f>
-        <v>9175.6799999999985</v>
-      </c>
-      <c r="AB8" s="2">
-        <f>+AA8*1.1</f>
-        <v>10093.248</v>
-      </c>
-      <c r="AC8" s="2">
-        <f>+AB8*1.02</f>
-        <v>10295.11296</v>
-      </c>
-      <c r="AD8" s="2">
-        <f t="shared" ref="AD8:AK8" si="6">+AC8*1.02</f>
-        <v>10501.015219200001</v>
-      </c>
-      <c r="AE8" s="2">
+        <v>2093</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="Z9" s="2">
+        <f>SUM(G9:J9)</f>
+        <v>5698.2</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" ref="AA9:AA11" si="5">SUM(K9:N9)</f>
+        <v>7740.6</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>+AA9*1.2</f>
+        <v>9288.7199999999993</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>+AB9*1.1</f>
+        <v>10217.592000000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>+AC9*1.02</f>
+        <v>10421.94384</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" ref="AE9:AL9" si="6">+AD9*1.02</f>
+        <v>10630.382716800001</v>
+      </c>
+      <c r="AF9" s="2">
         <f t="shared" si="6"/>
-        <v>10711.035523584002</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>10842.990371136</v>
+      </c>
+      <c r="AG9" s="2">
         <f t="shared" si="6"/>
-        <v>10925.256234055681</v>
-      </c>
-      <c r="AG8" s="2">
+        <v>11059.85017855872</v>
+      </c>
+      <c r="AH9" s="2">
         <f t="shared" si="6"/>
-        <v>11143.761358736796</v>
-      </c>
-      <c r="AH8" s="2">
+        <v>11281.047182129894</v>
+      </c>
+      <c r="AI9" s="2">
         <f t="shared" si="6"/>
-        <v>11366.636585911532</v>
-      </c>
-      <c r="AI8" s="2">
+        <v>11506.668125772492</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="6"/>
-        <v>11593.969317629762</v>
-      </c>
-      <c r="AJ8" s="2">
+        <v>11736.801488287942</v>
+      </c>
+      <c r="AK9" s="2">
         <f t="shared" si="6"/>
-        <v>11825.848703982358</v>
-      </c>
-      <c r="AK8" s="2">
+        <v>11971.537518053701</v>
+      </c>
+      <c r="AL9" s="2">
         <f t="shared" si="6"/>
-        <v>12062.365678062006</v>
-      </c>
-      <c r="AL8" s="2">
-        <f>+AK8*0.5</f>
-        <v>6031.1828390310029</v>
-      </c>
-      <c r="AM8" s="2">
-        <f>+AL8*0.1</f>
-        <v>603.11828390310029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+        <v>12210.968268414776</v>
+      </c>
+      <c r="AM9" s="2">
+        <f>+AL9*0.5</f>
+        <v>6105.4841342073878</v>
+      </c>
+      <c r="AN9" s="2">
+        <f>+AM9*0.1</f>
+        <v>610.54841342073883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
+        <v>156</v>
+      </c>
+      <c r="F10" s="13">
         <v>128</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="13">
         <v>125.1</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="H10" s="13">
+        <v>134</v>
+      </c>
+      <c r="I10" s="13">
+        <v>81</v>
+      </c>
+      <c r="J10" s="13">
         <v>80</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="13">
         <v>64.8</v>
       </c>
-      <c r="L9" s="15">
-        <f>K9-1</f>
-        <v>63.8</v>
-      </c>
-      <c r="M9" s="15">
-        <f t="shared" ref="M9:N9" si="7">L9-1</f>
-        <v>62.8</v>
-      </c>
-      <c r="N9" s="15">
+      <c r="L10" s="13">
+        <v>43</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" ref="M10:N10" si="7">L10-1</f>
+        <v>42</v>
+      </c>
+      <c r="N10" s="13">
         <f t="shared" si="7"/>
-        <v>61.8</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" ref="Y9:Y13" si="8">SUM(G9:J9)</f>
-        <v>205.1</v>
-      </c>
-      <c r="Z9" s="2">
+        <v>41</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="Z10" s="2">
+        <f t="shared" ref="Z10:Z14" si="8">SUM(G10:J10)</f>
+        <v>420.1</v>
+      </c>
+      <c r="AA10" s="2">
         <f t="shared" si="5"/>
-        <v>253.2</v>
-      </c>
-      <c r="AA9" s="2">
-        <f>+Z9*0.9</f>
-        <v>227.88</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" ref="AB9:AM9" si="9">+AA9*0.9</f>
-        <v>205.09200000000001</v>
-      </c>
-      <c r="AC9" s="2">
+        <v>190.8</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>+AA10*0.9</f>
+        <v>171.72000000000003</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" ref="AC10:AN10" si="9">+AB10*0.9</f>
+        <v>154.54800000000003</v>
+      </c>
+      <c r="AD10" s="2">
         <f t="shared" si="9"/>
-        <v>184.58280000000002</v>
-      </c>
-      <c r="AD9" s="2">
+        <v>139.09320000000002</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="9"/>
-        <v>166.12452000000002</v>
-      </c>
-      <c r="AE9" s="2">
+        <v>125.18388000000003</v>
+      </c>
+      <c r="AF10" s="2">
         <f t="shared" si="9"/>
-        <v>149.51206800000003</v>
-      </c>
-      <c r="AF9" s="2">
+        <v>112.66549200000003</v>
+      </c>
+      <c r="AG10" s="2">
         <f t="shared" si="9"/>
-        <v>134.56086120000003</v>
-      </c>
-      <c r="AG9" s="2">
+        <v>101.39894280000003</v>
+      </c>
+      <c r="AH10" s="2">
         <f t="shared" si="9"/>
-        <v>121.10477508000004</v>
-      </c>
-      <c r="AH9" s="2">
+        <v>91.259048520000022</v>
+      </c>
+      <c r="AI10" s="2">
         <f t="shared" si="9"/>
-        <v>108.99429757200004</v>
-      </c>
-      <c r="AI9" s="2">
+        <v>82.133143668000017</v>
+      </c>
+      <c r="AJ10" s="2">
         <f t="shared" si="9"/>
-        <v>98.09486781480004</v>
-      </c>
-      <c r="AJ9" s="2">
+        <v>73.919829301200011</v>
+      </c>
+      <c r="AK10" s="2">
         <f t="shared" si="9"/>
-        <v>88.285381033320036</v>
-      </c>
-      <c r="AK9" s="2">
+        <v>66.527846371080017</v>
+      </c>
+      <c r="AL10" s="2">
         <f t="shared" si="9"/>
-        <v>79.456842929988028</v>
-      </c>
-      <c r="AL9" s="2">
+        <v>59.875061733972018</v>
+      </c>
+      <c r="AM10" s="2">
         <f t="shared" si="9"/>
-        <v>71.511158636989222</v>
-      </c>
-      <c r="AM9" s="2">
+        <v>53.887555560574818</v>
+      </c>
+      <c r="AN10" s="2">
         <f t="shared" si="9"/>
-        <v>64.360042773290303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+        <v>48.498800004517335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
+        <v>226</v>
+      </c>
+      <c r="F11" s="13">
         <v>215</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="13">
         <v>218.7</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15">
+      <c r="H11" s="13">
+        <v>221</v>
+      </c>
+      <c r="I11" s="13">
+        <v>185</v>
+      </c>
+      <c r="J11" s="13">
         <v>147</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="13">
         <v>132.1</v>
       </c>
-      <c r="L10" s="15">
-        <f t="shared" ref="L10:N10" si="10">K10-1</f>
-        <v>131.1</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="L11" s="13">
+        <v>122</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" ref="M11:N11" si="10">L11-1</f>
+        <v>121</v>
+      </c>
+      <c r="N11" s="13">
         <f t="shared" si="10"/>
-        <v>130.1</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="10"/>
-        <v>129.1</v>
-      </c>
-      <c r="Y10" s="2">
+        <v>120</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="Z11" s="2">
         <f t="shared" si="8"/>
-        <v>365.7</v>
-      </c>
-      <c r="Z10" s="2">
+        <v>771.7</v>
+      </c>
+      <c r="AA11" s="2">
         <f t="shared" si="5"/>
-        <v>522.4</v>
-      </c>
-      <c r="AA10" s="2">
-        <f t="shared" ref="AA10:AM10" si="11">+Z10*0.9</f>
-        <v>470.15999999999997</v>
-      </c>
-      <c r="AB10" s="2">
+        <v>495.1</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" ref="AB11:AN11" si="11">+AA11*0.9</f>
+        <v>445.59000000000003</v>
+      </c>
+      <c r="AC11" s="2">
         <f t="shared" si="11"/>
-        <v>423.14400000000001</v>
-      </c>
-      <c r="AC10" s="2">
+        <v>401.03100000000006</v>
+      </c>
+      <c r="AD11" s="2">
         <f t="shared" si="11"/>
-        <v>380.82960000000003</v>
-      </c>
-      <c r="AD10" s="2">
+        <v>360.92790000000008</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="11"/>
-        <v>342.74664000000001</v>
-      </c>
-      <c r="AE10" s="2">
+        <v>324.8351100000001</v>
+      </c>
+      <c r="AF11" s="2">
         <f t="shared" si="11"/>
-        <v>308.47197600000004</v>
-      </c>
-      <c r="AF10" s="2">
+        <v>292.35159900000008</v>
+      </c>
+      <c r="AG11" s="2">
         <f t="shared" si="11"/>
-        <v>277.62477840000003</v>
-      </c>
-      <c r="AG10" s="2">
+        <v>263.11643910000009</v>
+      </c>
+      <c r="AH11" s="2">
         <f t="shared" si="11"/>
-        <v>249.86230056000002</v>
-      </c>
-      <c r="AH10" s="2">
+        <v>236.80479519000008</v>
+      </c>
+      <c r="AI11" s="2">
         <f t="shared" si="11"/>
-        <v>224.87607050400001</v>
-      </c>
-      <c r="AI10" s="2">
+        <v>213.12431567100006</v>
+      </c>
+      <c r="AJ11" s="2">
         <f t="shared" si="11"/>
-        <v>202.38846345360002</v>
-      </c>
-      <c r="AJ10" s="2">
+        <v>191.81188410390007</v>
+      </c>
+      <c r="AK11" s="2">
         <f t="shared" si="11"/>
-        <v>182.14961710824002</v>
-      </c>
-      <c r="AK10" s="2">
+        <v>172.63069569351006</v>
+      </c>
+      <c r="AL11" s="2">
         <f t="shared" si="11"/>
-        <v>163.93465539741604</v>
-      </c>
-      <c r="AL10" s="2">
+        <v>155.36762612415907</v>
+      </c>
+      <c r="AM11" s="2">
         <f t="shared" si="11"/>
-        <v>147.54118985767442</v>
-      </c>
-      <c r="AM10" s="2">
+        <v>139.83086351174316</v>
+      </c>
+      <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>132.78707087190699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+        <v>125.84777716056885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
+        <v>194</v>
+      </c>
+      <c r="F12" s="13">
         <v>193</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G12" s="13">
         <v>186.3</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
+      <c r="H12" s="13">
+        <v>183</v>
+      </c>
+      <c r="I12" s="13">
+        <v>162</v>
+      </c>
+      <c r="J12" s="13">
         <v>152</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="13">
         <v>139</v>
       </c>
-      <c r="L11" s="15">
-        <f t="shared" ref="L11:N11" si="12">K11-1</f>
+      <c r="L12" s="13">
+        <v>139</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" ref="M12:N12" si="12">L12-1</f>
         <v>138</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N12" s="13">
         <f t="shared" si="12"/>
         <v>137</v>
       </c>
-      <c r="N11" s="15">
-        <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="O12" s="13"/>
+      <c r="Z12" s="2">
         <f t="shared" si="8"/>
-        <v>338.3</v>
-      </c>
-      <c r="Z11" s="2">
-        <f>SUM(K11:N11)</f>
-        <v>550</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" ref="AA11:AM11" si="13">+Z11*0.9</f>
-        <v>495</v>
-      </c>
-      <c r="AB11" s="2">
+        <v>683.3</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>SUM(K12:N12)</f>
+        <v>553</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" ref="AB12:AN12" si="13">+AA12*0.9</f>
+        <v>497.7</v>
+      </c>
+      <c r="AC12" s="2">
         <f t="shared" si="13"/>
-        <v>445.5</v>
-      </c>
-      <c r="AC11" s="2">
+        <v>447.93</v>
+      </c>
+      <c r="AD12" s="2">
         <f t="shared" si="13"/>
-        <v>400.95</v>
-      </c>
-      <c r="AD11" s="2">
+        <v>403.137</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="13"/>
-        <v>360.85500000000002</v>
-      </c>
-      <c r="AE11" s="2">
+        <v>362.82330000000002</v>
+      </c>
+      <c r="AF12" s="2">
         <f t="shared" si="13"/>
-        <v>324.76950000000005</v>
-      </c>
-      <c r="AF11" s="2">
+        <v>326.54097000000002</v>
+      </c>
+      <c r="AG12" s="2">
         <f t="shared" si="13"/>
-        <v>292.29255000000006</v>
-      </c>
-      <c r="AG11" s="2">
+        <v>293.88687300000004</v>
+      </c>
+      <c r="AH12" s="2">
         <f t="shared" si="13"/>
-        <v>263.06329500000004</v>
-      </c>
-      <c r="AH11" s="2">
+        <v>264.49818570000002</v>
+      </c>
+      <c r="AI12" s="2">
         <f t="shared" si="13"/>
-        <v>236.75696550000004</v>
-      </c>
-      <c r="AI11" s="2">
+        <v>238.04836713000003</v>
+      </c>
+      <c r="AJ12" s="2">
         <f t="shared" si="13"/>
-        <v>213.08126895000004</v>
-      </c>
-      <c r="AJ11" s="2">
+        <v>214.24353041700004</v>
+      </c>
+      <c r="AK12" s="2">
         <f t="shared" si="13"/>
-        <v>191.77314205500005</v>
-      </c>
-      <c r="AK11" s="2">
+        <v>192.81917737530006</v>
+      </c>
+      <c r="AL12" s="2">
         <f t="shared" si="13"/>
-        <v>172.59582784950004</v>
-      </c>
-      <c r="AL11" s="2">
+        <v>173.53725963777006</v>
+      </c>
+      <c r="AM12" s="2">
         <f t="shared" si="13"/>
-        <v>155.33624506455004</v>
-      </c>
-      <c r="AM11" s="2">
+        <v>156.18353367399305</v>
+      </c>
+      <c r="AN12" s="2">
         <f t="shared" si="13"/>
-        <v>139.80262055809504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+        <v>140.56518030659376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
-        <f t="shared" ref="F12:J12" si="14">SUM(F8:F11)</f>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
+        <f>SUM(E9:E12)+E8</f>
+        <v>1538</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" ref="E13:J13" si="14">SUM(F9:F12)</f>
         <v>1627</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="15">
         <f t="shared" si="14"/>
         <v>1723.3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="15">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
+        <v>1794</v>
+      </c>
+      <c r="I13" s="15">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
+        <v>1984</v>
+      </c>
+      <c r="J13" s="15">
         <f t="shared" si="14"/>
         <v>2072</v>
       </c>
-      <c r="K12" s="17">
-        <f>SUM(K8:K11)</f>
+      <c r="K13" s="15">
+        <f>SUM(K9:K12)</f>
         <v>2097.5</v>
       </c>
-      <c r="L12" s="17">
-        <f t="shared" ref="L12:N12" si="15">SUM(L8:L11)</f>
-        <v>2194.5</v>
-      </c>
-      <c r="M12" s="17">
+      <c r="L13" s="15">
+        <f t="shared" ref="L13:R13" si="15">SUM(L9:L12)</f>
+        <v>2197</v>
+      </c>
+      <c r="M13" s="15">
         <f t="shared" si="15"/>
-        <v>2291.5</v>
-      </c>
-      <c r="N12" s="17">
+        <v>2294</v>
+      </c>
+      <c r="N13" s="15">
         <f t="shared" si="15"/>
-        <v>2388.5</v>
-      </c>
-      <c r="X12" s="16">
-        <f t="shared" ref="X12" si="16">SUM(X8:X11)</f>
+        <v>2391</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="16">
-        <f>SUM(Y8:Y11)</f>
-        <v>3795.2999999999997</v>
-      </c>
-      <c r="Z12" s="16">
-        <f>SUM(Z8:Z11)</f>
-        <v>8972</v>
-      </c>
-      <c r="AA12" s="16">
-        <f>SUM(AA4:AA11)</f>
-        <v>10468.719999999998</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" ref="AB12:AM12" si="17">SUM(AB4:AB11)</f>
-        <v>11666.984</v>
-      </c>
-      <c r="AC12" s="16">
+      <c r="P13" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" ref="Y13" si="16">SUM(Y9:Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <f>SUM(Z9:Z12)</f>
+        <v>7573.3</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>SUM(AA9:AA12)</f>
+        <v>8979.5</v>
+      </c>
+      <c r="AB13" s="14">
+        <f>SUM(AB4:AB12)</f>
+        <v>10503.73</v>
+      </c>
+      <c r="AC13" s="14">
+        <f t="shared" ref="AC13:AN13" si="17">SUM(AC4:AC12)</f>
+        <v>11721.101000000002</v>
+      </c>
+      <c r="AD13" s="14">
         <f t="shared" si="17"/>
-        <v>12261.47536</v>
-      </c>
-      <c r="AD12" s="16">
+        <v>12325.10194</v>
+      </c>
+      <c r="AE13" s="14">
         <f t="shared" si="17"/>
-        <v>13370.741379199999</v>
-      </c>
-      <c r="AE12" s="16">
+        <v>13443.225006800001</v>
+      </c>
+      <c r="AF13" s="14">
         <f t="shared" si="17"/>
-        <v>14393.789067584003</v>
-      </c>
-      <c r="AF12" s="16">
+        <v>14474.548432136</v>
+      </c>
+      <c r="AG13" s="14">
         <f t="shared" si="17"/>
-        <v>15239.734423655682</v>
-      </c>
-      <c r="AG12" s="16">
+        <v>15328.25243345872</v>
+      </c>
+      <c r="AH13" s="14">
         <f t="shared" si="17"/>
-        <v>16097.891729376797</v>
-      </c>
-      <c r="AH12" s="16">
+        <v>16193.709211539895</v>
+      </c>
+      <c r="AI13" s="14">
         <f t="shared" si="17"/>
-        <v>16684.564919487533</v>
-      </c>
-      <c r="AI12" s="16">
+        <v>16787.274952241489</v>
+      </c>
+      <c r="AJ13" s="14">
         <f t="shared" si="17"/>
-        <v>16902.307927848167</v>
-      </c>
-      <c r="AJ12" s="16">
+        <v>17011.550742110041</v>
+      </c>
+      <c r="AK13" s="14">
         <f t="shared" si="17"/>
-        <v>17130.77859427892</v>
-      </c>
-      <c r="AK12" s="16">
+        <v>17246.236987593587</v>
+      </c>
+      <c r="AL13" s="14">
         <f t="shared" si="17"/>
-        <v>17369.501971839913</v>
-      </c>
-      <c r="AL12" s="16">
+        <v>17490.897183511679</v>
+      </c>
+      <c r="AM13" s="14">
         <f t="shared" si="17"/>
-        <v>11345.631889867229</v>
-      </c>
-      <c r="AM12" s="16">
+        <v>11395.44654423071</v>
+      </c>
+      <c r="AN13" s="14">
         <f t="shared" si="17"/>
-        <v>5929.5290799561726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+        <v>5914.9212327421992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
+        <v>186.18199999999999</v>
+      </c>
+      <c r="F14" s="13">
         <v>203.1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="13">
         <v>192.3</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15">
+      <c r="H14" s="13">
+        <v>228</v>
+      </c>
+      <c r="I14" s="13">
+        <v>236.512</v>
+      </c>
+      <c r="J14" s="13">
         <v>247.4</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="13">
         <v>145.80000000000001</v>
       </c>
-      <c r="L13" s="15">
-        <f>L12*0.07</f>
-        <v>153.61500000000001</v>
-      </c>
-      <c r="M13" s="15">
-        <f>M12*0.07</f>
-        <v>160.405</v>
-      </c>
-      <c r="N13" s="15">
-        <f>N12*0.07</f>
-        <v>167.19500000000002</v>
-      </c>
-      <c r="Y13" s="2">
+      <c r="L14" s="13">
+        <v>261.8</v>
+      </c>
+      <c r="M14" s="13">
+        <f>M13*0.07</f>
+        <v>160.58000000000001</v>
+      </c>
+      <c r="N14" s="13">
+        <f>N13*0.07</f>
+        <v>167.37</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="Z14" s="2">
         <f t="shared" si="8"/>
-        <v>439.70000000000005</v>
-      </c>
-      <c r="Z13" s="2">
-        <f>SUM(K13:N13)</f>
-        <v>627.0150000000001</v>
-      </c>
-      <c r="AA13" s="2">
-        <f>+AA12*0.07</f>
-        <v>732.81039999999985</v>
-      </c>
-      <c r="AB13" s="2">
-        <f t="shared" ref="AB13:AM13" si="18">+AB12*0.07</f>
-        <v>816.68888000000015</v>
-      </c>
-      <c r="AC13" s="2">
+        <v>904.21199999999999</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>SUM(K14:N14)</f>
+        <v>735.55000000000007</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>+AB13*0.07</f>
+        <v>735.26110000000006</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" ref="AC14:AN14" si="18">+AC13*0.07</f>
+        <v>820.47707000000025</v>
+      </c>
+      <c r="AD14" s="2">
         <f t="shared" si="18"/>
-        <v>858.30327520000014</v>
-      </c>
-      <c r="AD13" s="2">
+        <v>862.75713580000013</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="18"/>
-        <v>935.95189654399996</v>
-      </c>
-      <c r="AE13" s="2">
+        <v>941.02575047600021</v>
+      </c>
+      <c r="AF14" s="2">
         <f t="shared" si="18"/>
-        <v>1007.5652347308803</v>
-      </c>
-      <c r="AF13" s="2">
+        <v>1013.2183902495201</v>
+      </c>
+      <c r="AG14" s="2">
         <f t="shared" si="18"/>
-        <v>1066.7814096558977</v>
-      </c>
-      <c r="AG13" s="2">
+        <v>1072.9776703421105</v>
+      </c>
+      <c r="AH14" s="2">
         <f t="shared" si="18"/>
-        <v>1126.852421056376</v>
-      </c>
-      <c r="AH13" s="2">
+        <v>1133.5596448077929</v>
+      </c>
+      <c r="AI14" s="2">
         <f t="shared" si="18"/>
-        <v>1167.9195443641274</v>
-      </c>
-      <c r="AI13" s="2">
+        <v>1175.1092466569044</v>
+      </c>
+      <c r="AJ14" s="2">
         <f t="shared" si="18"/>
-        <v>1183.1615549493717</v>
-      </c>
-      <c r="AJ13" s="2">
+        <v>1190.8085519477029</v>
+      </c>
+      <c r="AK14" s="2">
         <f t="shared" si="18"/>
-        <v>1199.1545015995246</v>
-      </c>
-      <c r="AK13" s="2">
+        <v>1207.2365891315512</v>
+      </c>
+      <c r="AL14" s="2">
         <f t="shared" si="18"/>
-        <v>1215.865138028794</v>
-      </c>
-      <c r="AL13" s="2">
+        <v>1224.3628028458177</v>
+      </c>
+      <c r="AM14" s="2">
         <f t="shared" si="18"/>
-        <v>794.19423229070605</v>
-      </c>
-      <c r="AM13" s="2">
+        <v>797.6812580961498</v>
+      </c>
+      <c r="AN14" s="2">
         <f t="shared" si="18"/>
-        <v>415.0670355969321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+        <v>414.044486291954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14" si="19">+F12-F13</f>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <f t="shared" ref="E15:F15" si="19">+E13-E14</f>
+        <v>1351.818</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="19"/>
         <v>1423.9</v>
       </c>
-      <c r="G14" s="15">
-        <f>+G12-G13</f>
+      <c r="G15" s="13">
+        <f>+G13-G14</f>
         <v>1531</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="13">
+        <f>+H13-H14</f>
+        <v>1566</v>
+      </c>
+      <c r="I15" s="13">
+        <f>+I13-I14</f>
+        <v>1747.4880000000001</v>
+      </c>
+      <c r="J15" s="13">
+        <f>+J13-J14</f>
+        <v>1824.6</v>
+      </c>
+      <c r="K15" s="13">
+        <f>+K13-K14</f>
+        <v>1951.7</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" ref="L15:N15" si="20">+L13-L14</f>
+        <v>1935.2</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="20"/>
+        <v>2133.42</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="20"/>
+        <v>2223.63</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="Y15" s="2">
+        <f t="shared" ref="Y15" si="21">+Y13-Y14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f>+J12-J13</f>
-        <v>1824.6</v>
-      </c>
-      <c r="K14" s="15">
-        <f>+K12-K13</f>
-        <v>1951.7</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" ref="L14:N14" si="20">+L12-L13</f>
-        <v>2040.885</v>
-      </c>
-      <c r="M14" s="15">
-        <f t="shared" si="20"/>
-        <v>2131.0949999999998</v>
-      </c>
-      <c r="N14" s="15">
-        <f t="shared" si="20"/>
-        <v>2221.3049999999998</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" ref="X14" si="21">+X12-X13</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <f>+Y12-Y13</f>
-        <v>3355.5999999999995</v>
-      </c>
-      <c r="Z14" s="2">
-        <f>+Z12-Z13</f>
-        <v>8344.9850000000006</v>
-      </c>
-      <c r="AA14" s="2">
-        <f>+AA12-AA13</f>
-        <v>9735.9095999999972</v>
-      </c>
-      <c r="AB14" s="2">
-        <f t="shared" ref="AB14:AM14" si="22">+AB12-AB13</f>
-        <v>10850.295120000001</v>
-      </c>
-      <c r="AC14" s="2">
+      <c r="Z15" s="2">
+        <f>+Z13-Z14</f>
+        <v>6669.0879999999997</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>+AA13-AA14</f>
+        <v>8243.9500000000007</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>+AB13-AB14</f>
+        <v>9768.4688999999998</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" ref="AC15:AN15" si="22">+AC13-AC14</f>
+        <v>10900.623930000002</v>
+      </c>
+      <c r="AD15" s="2">
         <f t="shared" si="22"/>
-        <v>11403.1720848</v>
-      </c>
-      <c r="AD14" s="2">
+        <v>11462.3448042</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="22"/>
-        <v>12434.789482655999</v>
-      </c>
-      <c r="AE14" s="2">
+        <v>12502.199256324002</v>
+      </c>
+      <c r="AF15" s="2">
         <f t="shared" si="22"/>
-        <v>13386.223832853122</v>
-      </c>
-      <c r="AF14" s="2">
+        <v>13461.33004188648</v>
+      </c>
+      <c r="AG15" s="2">
         <f t="shared" si="22"/>
-        <v>14172.953013999784</v>
-      </c>
-      <c r="AG14" s="2">
+        <v>14255.274763116609</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="22"/>
-        <v>14971.039308320422</v>
-      </c>
-      <c r="AH14" s="2">
+        <v>15060.149566732103</v>
+      </c>
+      <c r="AI15" s="2">
         <f t="shared" si="22"/>
-        <v>15516.645375123406</v>
-      </c>
-      <c r="AI14" s="2">
+        <v>15612.165705584584</v>
+      </c>
+      <c r="AJ15" s="2">
         <f t="shared" si="22"/>
-        <v>15719.146372898795</v>
-      </c>
-      <c r="AJ14" s="2">
+        <v>15820.742190162338</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="22"/>
-        <v>15931.624092679394</v>
-      </c>
-      <c r="AK14" s="2">
+        <v>16039.000398462036</v>
+      </c>
+      <c r="AL15" s="2">
         <f t="shared" si="22"/>
-        <v>16153.636833811119</v>
-      </c>
-      <c r="AL14" s="2">
+        <v>16266.534380665862</v>
+      </c>
+      <c r="AM15" s="2">
         <f t="shared" si="22"/>
-        <v>10551.437657576524</v>
-      </c>
-      <c r="AM14" s="2">
+        <v>10597.76528613456</v>
+      </c>
+      <c r="AN15" s="2">
         <f t="shared" si="22"/>
-        <v>5514.4620443592403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+        <v>5500.8767464502453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>184.55099999999999</v>
+      </c>
+      <c r="F16" s="13">
         <v>175</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="13">
         <v>151</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15">
+      <c r="H16" s="13">
+        <v>194.6</v>
+      </c>
+      <c r="I16" s="13">
+        <v>198.18899999999999</v>
+      </c>
+      <c r="J16" s="13">
         <v>210</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K16" s="13">
         <v>167</v>
       </c>
-      <c r="L15" s="15">
-        <f>+K15</f>
-        <v>167</v>
-      </c>
-      <c r="M15" s="15">
-        <f t="shared" ref="M15:N15" si="23">+L15</f>
-        <v>167</v>
-      </c>
-      <c r="N15" s="15">
+      <c r="L16" s="13">
+        <v>215.3</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" ref="M16:N16" si="23">+L16</f>
+        <v>215.3</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="23"/>
-        <v>167</v>
-      </c>
-      <c r="X15" s="2">
+        <v>215.3</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="Y16" s="2">
         <v>609</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z16" s="2">
         <v>673</v>
       </c>
-      <c r="Z15" s="2">
-        <f t="shared" ref="Z15:Z16" si="24">SUM(K15:N15)</f>
-        <v>668</v>
-      </c>
-      <c r="AA15" s="2">
-        <f>+AA12*0.1</f>
-        <v>1046.8719999999998</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" ref="AB15:AM15" si="25">+AB12*0.1</f>
-        <v>1166.6984</v>
-      </c>
-      <c r="AC15" s="2">
+      <c r="AA16" s="2">
+        <f t="shared" ref="AA16:AA17" si="24">SUM(K16:N16)</f>
+        <v>812.90000000000009</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>+AB13*0.1</f>
+        <v>1050.373</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" ref="AC16:AN16" si="25">+AC13*0.1</f>
+        <v>1172.1101000000003</v>
+      </c>
+      <c r="AD16" s="2">
         <f t="shared" si="25"/>
-        <v>1226.1475360000002</v>
-      </c>
-      <c r="AD15" s="2">
+        <v>1232.5101940000002</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="25"/>
-        <v>1337.0741379199999</v>
-      </c>
-      <c r="AE15" s="2">
+        <v>1344.3225006800003</v>
+      </c>
+      <c r="AF16" s="2">
         <f t="shared" si="25"/>
-        <v>1439.3789067584003</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>1447.4548432136</v>
+      </c>
+      <c r="AG16" s="2">
         <f t="shared" si="25"/>
-        <v>1523.9734423655682</v>
-      </c>
-      <c r="AG15" s="2">
+        <v>1532.825243345872</v>
+      </c>
+      <c r="AH16" s="2">
         <f t="shared" si="25"/>
-        <v>1609.7891729376797</v>
-      </c>
-      <c r="AH15" s="2">
+        <v>1619.3709211539897</v>
+      </c>
+      <c r="AI16" s="2">
         <f t="shared" si="25"/>
-        <v>1668.4564919487534</v>
-      </c>
-      <c r="AI15" s="2">
+        <v>1678.7274952241489</v>
+      </c>
+      <c r="AJ16" s="2">
         <f t="shared" si="25"/>
-        <v>1690.2307927848169</v>
-      </c>
-      <c r="AJ15" s="2">
+        <v>1701.1550742110041</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="25"/>
-        <v>1713.077859427892</v>
-      </c>
-      <c r="AK15" s="2">
+        <v>1724.6236987593588</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="25"/>
-        <v>1736.9501971839913</v>
-      </c>
-      <c r="AL15" s="2">
+        <v>1749.0897183511679</v>
+      </c>
+      <c r="AM16" s="2">
         <f t="shared" si="25"/>
-        <v>1134.5631889867229</v>
-      </c>
-      <c r="AM15" s="2">
+        <v>1139.5446544230711</v>
+      </c>
+      <c r="AN16" s="2">
         <f t="shared" si="25"/>
-        <v>592.95290799561724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+        <v>591.49212327421992</v>
+      </c>
+    </row>
+    <row r="17" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>493.49700000000001</v>
+      </c>
+      <c r="F17" s="13">
         <v>364</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G17" s="13">
         <v>380</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15">
+      <c r="H17" s="13">
+        <v>448.7</v>
+      </c>
+      <c r="I17" s="13">
+        <v>493.75099999999998</v>
+      </c>
+      <c r="J17" s="13">
         <v>493</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="13">
         <v>520</v>
       </c>
-      <c r="L16" s="15">
-        <f>+K16</f>
-        <v>520</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" ref="M16:N16" si="26">+L16</f>
-        <v>520</v>
-      </c>
-      <c r="N16" s="15">
+      <c r="L17" s="13">
+        <v>600.1</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" ref="M17:N17" si="26">+L17</f>
+        <v>600.1</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="26"/>
-        <v>520</v>
-      </c>
-      <c r="X16" s="2">
+        <v>600.1</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="Y17" s="2">
         <v>1372</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z17" s="2">
         <v>1658</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA17" s="2">
         <f t="shared" si="24"/>
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="17" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+        <v>2320.2999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15">
-        <f t="shared" ref="F17" si="27">SUM(F15:F16)</f>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <f t="shared" ref="E18:F18" si="27">SUM(E16:E17)</f>
+        <v>678.048</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="27"/>
         <v>539</v>
       </c>
-      <c r="G17" s="15">
-        <f>SUM(G15:G16)</f>
+      <c r="G18" s="13">
+        <f>SUM(G16:G17)</f>
         <v>531</v>
       </c>
-      <c r="H17" s="15">
-        <f t="shared" ref="H17:K17" si="28">SUM(H15:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="H18" s="13">
+        <f t="shared" ref="H18:K18" si="28">SUM(H16:H17)</f>
+        <v>643.29999999999995</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <f>SUM(J15:J16)</f>
+        <v>691.93999999999994</v>
+      </c>
+      <c r="J18" s="13">
+        <f>SUM(J16:J17)</f>
         <v>703</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="13">
         <f t="shared" si="28"/>
         <v>687</v>
       </c>
-      <c r="L17" s="15">
-        <f t="shared" ref="L17:N17" si="29">SUM(L15:L16)</f>
-        <v>687</v>
-      </c>
-      <c r="M17" s="15">
+      <c r="L18" s="13">
+        <f>SUM(L16:L17)</f>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" ref="M18:N18" si="29">SUM(M16:M17)</f>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="N18" s="13">
         <f t="shared" si="29"/>
-        <v>687</v>
-      </c>
-      <c r="N17" s="15">
-        <f t="shared" si="29"/>
-        <v>687</v>
-      </c>
-      <c r="X17" s="15">
-        <f t="shared" ref="X17:Z17" si="30">SUM(X15:X16)</f>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="Y18" s="13">
+        <f t="shared" ref="Y18:AA18" si="30">SUM(Y16:Y17)</f>
         <v>1981</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Z18" s="13">
         <f t="shared" si="30"/>
         <v>2331</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="AA18" s="13">
         <f t="shared" si="30"/>
-        <v>2748</v>
-      </c>
-      <c r="AA17" s="15">
-        <f t="shared" ref="AA17:AM17" si="31">SUM(AA15:AA16)</f>
-        <v>1046.8719999999998</v>
-      </c>
-      <c r="AB17" s="15">
+        <v>3133.2</v>
+      </c>
+      <c r="AB18" s="13">
+        <f t="shared" ref="AB18:AN18" si="31">SUM(AB16:AB17)</f>
+        <v>1050.373</v>
+      </c>
+      <c r="AC18" s="13">
         <f t="shared" si="31"/>
-        <v>1166.6984</v>
-      </c>
-      <c r="AC17" s="15">
+        <v>1172.1101000000003</v>
+      </c>
+      <c r="AD18" s="13">
         <f t="shared" si="31"/>
-        <v>1226.1475360000002</v>
-      </c>
-      <c r="AD17" s="15">
+        <v>1232.5101940000002</v>
+      </c>
+      <c r="AE18" s="13">
         <f t="shared" si="31"/>
-        <v>1337.0741379199999</v>
-      </c>
-      <c r="AE17" s="15">
+        <v>1344.3225006800003</v>
+      </c>
+      <c r="AF18" s="13">
         <f t="shared" si="31"/>
-        <v>1439.3789067584003</v>
-      </c>
-      <c r="AF17" s="15">
+        <v>1447.4548432136</v>
+      </c>
+      <c r="AG18" s="13">
         <f t="shared" si="31"/>
-        <v>1523.9734423655682</v>
-      </c>
-      <c r="AG17" s="15">
+        <v>1532.825243345872</v>
+      </c>
+      <c r="AH18" s="13">
         <f t="shared" si="31"/>
-        <v>1609.7891729376797</v>
-      </c>
-      <c r="AH17" s="15">
+        <v>1619.3709211539897</v>
+      </c>
+      <c r="AI18" s="13">
         <f t="shared" si="31"/>
-        <v>1668.4564919487534</v>
-      </c>
-      <c r="AI17" s="15">
+        <v>1678.7274952241489</v>
+      </c>
+      <c r="AJ18" s="13">
         <f t="shared" si="31"/>
-        <v>1690.2307927848169</v>
-      </c>
-      <c r="AJ17" s="15">
+        <v>1701.1550742110041</v>
+      </c>
+      <c r="AK18" s="13">
         <f t="shared" si="31"/>
-        <v>1713.077859427892</v>
-      </c>
-      <c r="AK17" s="15">
+        <v>1724.6236987593588</v>
+      </c>
+      <c r="AL18" s="13">
         <f t="shared" si="31"/>
-        <v>1736.9501971839913</v>
-      </c>
-      <c r="AL17" s="15">
+        <v>1749.0897183511679</v>
+      </c>
+      <c r="AM18" s="13">
         <f t="shared" si="31"/>
-        <v>1134.5631889867229</v>
-      </c>
-      <c r="AM17" s="15">
+        <v>1139.5446544230711</v>
+      </c>
+      <c r="AN18" s="13">
         <f t="shared" si="31"/>
-        <v>592.95290799561724</v>
-      </c>
-    </row>
-    <row r="18" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+        <v>591.49212327421992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" ref="F18" si="32">F14-F17</f>
+      <c r="E19" s="13">
+        <f t="shared" ref="E19:F19" si="32">E15-E18</f>
+        <v>673.77</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="32"/>
         <v>884.90000000000009</v>
       </c>
-      <c r="G18" s="15">
-        <f>G14-G17</f>
+      <c r="G19" s="13">
+        <f>G15-G18</f>
         <v>1000</v>
       </c>
-      <c r="H18" s="15">
-        <f t="shared" ref="H18:K18" si="33">H14-H17</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H19" s="13">
+        <f t="shared" ref="H19:K19" si="33">H15-H18</f>
+        <v>922.7</v>
+      </c>
+      <c r="I19" s="13">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <f>J14-J17</f>
+        <v>1055.5480000000002</v>
+      </c>
+      <c r="J19" s="13">
+        <f>J15-J18</f>
         <v>1121.5999999999999</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="13">
         <f t="shared" si="33"/>
         <v>1264.7</v>
       </c>
-      <c r="L18" s="15">
-        <f t="shared" ref="L18:N18" si="34">L14-L17</f>
-        <v>1353.885</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="L19" s="13">
+        <f>L15-L18</f>
+        <v>1119.8</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19:N19" si="34">M15-M18</f>
+        <v>1318.02</v>
+      </c>
+      <c r="N19" s="13">
         <f t="shared" si="34"/>
-        <v>1444.0949999999998</v>
-      </c>
-      <c r="N18" s="15">
-        <f t="shared" si="34"/>
-        <v>1534.3049999999998</v>
-      </c>
-      <c r="X18" s="15">
-        <f t="shared" ref="X18:Z18" si="35">X14-X17</f>
+        <v>1408.23</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="Y19" s="13">
+        <f t="shared" ref="Y19:AA19" si="35">Y15-Y18</f>
         <v>-1981</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Z19" s="13">
         <f t="shared" si="35"/>
-        <v>1024.5999999999995</v>
-      </c>
-      <c r="Z18" s="15">
+        <v>4338.0879999999997</v>
+      </c>
+      <c r="AA19" s="13">
         <f t="shared" si="35"/>
-        <v>5596.9850000000006</v>
-      </c>
-      <c r="AA18" s="15">
-        <f t="shared" ref="AA18:AM18" si="36">AA14-AA17</f>
-        <v>8689.0375999999978</v>
-      </c>
-      <c r="AB18" s="15">
+        <v>5110.7500000000009</v>
+      </c>
+      <c r="AB19" s="13">
+        <f t="shared" ref="AB19:AN19" si="36">AB15-AB18</f>
+        <v>8718.0959000000003</v>
+      </c>
+      <c r="AC19" s="13">
         <f t="shared" si="36"/>
-        <v>9683.5967200000014</v>
-      </c>
-      <c r="AC18" s="15">
+        <v>9728.5138300000017</v>
+      </c>
+      <c r="AD19" s="13">
         <f t="shared" si="36"/>
-        <v>10177.0245488</v>
-      </c>
-      <c r="AD18" s="15">
+        <v>10229.8346102</v>
+      </c>
+      <c r="AE19" s="13">
         <f t="shared" si="36"/>
-        <v>11097.715344736</v>
-      </c>
-      <c r="AE18" s="15">
+        <v>11157.876755644002</v>
+      </c>
+      <c r="AF19" s="13">
         <f t="shared" si="36"/>
-        <v>11946.844926094722</v>
-      </c>
-      <c r="AF18" s="15">
+        <v>12013.87519867288</v>
+      </c>
+      <c r="AG19" s="13">
         <f t="shared" si="36"/>
-        <v>12648.979571634216</v>
-      </c>
-      <c r="AG18" s="15">
+        <v>12722.449519770737</v>
+      </c>
+      <c r="AH19" s="13">
         <f t="shared" si="36"/>
-        <v>13361.250135382743</v>
-      </c>
-      <c r="AH18" s="15">
+        <v>13440.778645578113</v>
+      </c>
+      <c r="AI19" s="13">
         <f t="shared" si="36"/>
-        <v>13848.188883174653</v>
-      </c>
-      <c r="AI18" s="15">
+        <v>13933.438210360435</v>
+      </c>
+      <c r="AJ19" s="13">
         <f t="shared" si="36"/>
-        <v>14028.915580113979</v>
-      </c>
-      <c r="AJ18" s="15">
+        <v>14119.587115951334</v>
+      </c>
+      <c r="AK19" s="13">
         <f t="shared" si="36"/>
-        <v>14218.546233251502</v>
-      </c>
-      <c r="AK18" s="15">
+        <v>14314.376699702678</v>
+      </c>
+      <c r="AL19" s="13">
         <f t="shared" si="36"/>
-        <v>14416.686636627128</v>
-      </c>
-      <c r="AL18" s="15">
+        <v>14517.444662314694</v>
+      </c>
+      <c r="AM19" s="13">
         <f t="shared" si="36"/>
-        <v>9416.8744685898</v>
-      </c>
-      <c r="AM18" s="15">
+        <v>9458.2206317114887</v>
+      </c>
+      <c r="AN19" s="13">
         <f t="shared" si="36"/>
-        <v>4921.5091363636229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+        <v>4909.3846231760253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <f>3.1-13.856</f>
+        <v>-10.756</v>
+      </c>
+      <c r="F20" s="13">
         <f>2.3-16.3</f>
         <v>-14</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="13">
         <f>1.5-15.7</f>
         <v>-14.2</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15">
+      <c r="H20" s="13">
+        <f>1.1-15.5</f>
+        <v>-14.4</v>
+      </c>
+      <c r="I20" s="13">
+        <f>1.116-15.255</f>
+        <v>-14.139000000000001</v>
+      </c>
+      <c r="J20" s="13">
         <f>1.2-15.1</f>
         <v>-13.9</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="13">
         <f>1.6-14.9</f>
         <v>-13.3</v>
       </c>
-      <c r="L19" s="15">
-        <f>+K19</f>
-        <v>-13.3</v>
-      </c>
-      <c r="M19" s="15">
-        <f t="shared" ref="M19:N19" si="37">+L19</f>
-        <v>-13.3</v>
-      </c>
-      <c r="N19" s="15">
+      <c r="L20" s="13">
+        <f>10.8-14.6</f>
+        <v>-3.7999999999999989</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" ref="M20:N20" si="37">+L20</f>
+        <v>-3.7999999999999989</v>
+      </c>
+      <c r="N20" s="13">
         <f t="shared" si="37"/>
-        <v>-13.3</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" ref="Z19:Z21" si="38">SUM(K19:N19)</f>
-        <v>-53.2</v>
-      </c>
-      <c r="AA19" s="2">
-        <f>+Z30*$AP$28</f>
-        <v>117.64368</v>
-      </c>
-      <c r="AB19" s="2">
-        <f>+AA30*$AP$28</f>
-        <v>188.09713023999998</v>
-      </c>
-      <c r="AC19" s="2">
-        <f>+AB30*$AP$28</f>
-        <v>267.07068104191995</v>
-      </c>
-      <c r="AD19" s="2">
-        <f>+AC30*$AP$28</f>
-        <v>350.62344288065538</v>
-      </c>
-      <c r="AE19" s="2">
-        <f>+AD30*$AP$28</f>
-        <v>442.21015318158857</v>
-      </c>
-      <c r="AF19" s="2">
-        <f>+AE30*$AP$28</f>
-        <v>541.32259381579911</v>
-      </c>
-      <c r="AG19" s="2">
-        <f>+AF30*$AP$28</f>
-        <v>646.84501113939916</v>
-      </c>
-      <c r="AH19" s="2">
-        <f>+AG30*$AP$28</f>
-        <v>758.90977231157626</v>
-      </c>
-      <c r="AI19" s="2">
-        <f>+AH30*$AP$28</f>
-        <v>875.76656155546607</v>
-      </c>
-      <c r="AJ19" s="2">
-        <f>+AI30*$AP$28</f>
-        <v>995.00401868882159</v>
-      </c>
-      <c r="AK19" s="2">
-        <f>+AJ30*$AP$28</f>
-        <v>1116.7124207043441</v>
-      </c>
-      <c r="AL19" s="2">
-        <f>+AK30*$AP$28</f>
-        <v>1240.979613162996</v>
-      </c>
-      <c r="AM19" s="2">
-        <f>+AL30*$AP$28</f>
-        <v>1326.2424458170185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+        <v>-3.7999999999999989</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="AA20" s="2">
+        <f t="shared" ref="AA20:AA22" si="38">SUM(K20:N20)</f>
+        <v>-24.699999999999996</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" ref="AB20:AN20" si="39">+AA32*$AQ$30</f>
+        <v>114.73649999999999</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="39"/>
+        <v>185.39915919999999</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" si="39"/>
+        <v>264.71046311360004</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="39"/>
+        <v>348.66682370010881</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="39"/>
+        <v>440.71917233486164</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="39"/>
+        <v>540.35592730292365</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="39"/>
+        <v>646.45837087951293</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="39"/>
+        <v>759.1562670111739</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="39"/>
+        <v>876.69702283014681</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="39"/>
+        <v>996.66729594039862</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="39"/>
+        <v>1119.1556479055432</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="39"/>
+        <v>1244.2484503873052</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="39"/>
+        <v>1329.8682030440955</v>
+      </c>
+    </row>
+    <row r="21" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="15">
-        <f>+F18+F19</f>
+      <c r="E21" s="13">
+        <f>+E19+E20</f>
+        <v>663.01400000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <f>+F19+F20</f>
         <v>870.90000000000009</v>
       </c>
-      <c r="G20" s="15">
-        <f>+G18+G19</f>
+      <c r="G21" s="13">
+        <f>+G19+G20</f>
         <v>985.8</v>
       </c>
-      <c r="H20" s="15">
-        <f t="shared" ref="H20:K20" si="39">+H18+H19</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="39"/>
+      <c r="H21" s="13">
+        <f t="shared" ref="H21:K21" si="40">+H19+H20</f>
+        <v>908.30000000000007</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="40"/>
+        <v>1041.4090000000003</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="40"/>
         <v>1107.6999999999998</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" si="39"/>
+      <c r="K21" s="13">
+        <f t="shared" si="40"/>
         <v>1251.4000000000001</v>
       </c>
-      <c r="L20" s="15">
-        <f t="shared" ref="L20" si="40">+L18+L19</f>
-        <v>1340.585</v>
-      </c>
-      <c r="M20" s="15">
-        <f t="shared" ref="M20" si="41">+M18+M19</f>
-        <v>1430.7949999999998</v>
-      </c>
-      <c r="N20" s="15">
-        <f t="shared" ref="N20" si="42">+N18+N19</f>
-        <v>1521.0049999999999</v>
-      </c>
-      <c r="Z20" s="2">
-        <f>+Z18+Z19</f>
-        <v>5543.7850000000008</v>
-      </c>
-      <c r="AA20" s="2">
-        <f t="shared" ref="AA20:AM20" si="43">+AA18+AA19</f>
-        <v>8806.6812799999971</v>
-      </c>
-      <c r="AB20" s="2">
-        <f t="shared" si="43"/>
-        <v>9871.6938502400008</v>
-      </c>
-      <c r="AC20" s="2">
-        <f t="shared" si="43"/>
-        <v>10444.09522984192</v>
-      </c>
-      <c r="AD20" s="2">
-        <f t="shared" si="43"/>
-        <v>11448.338787616654</v>
-      </c>
-      <c r="AE20" s="2">
-        <f t="shared" si="43"/>
-        <v>12389.05507927631</v>
-      </c>
-      <c r="AF20" s="2">
-        <f t="shared" si="43"/>
-        <v>13190.302165450015</v>
-      </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="43"/>
-        <v>14008.095146522142</v>
-      </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="43"/>
-        <v>14607.098655486228</v>
-      </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="43"/>
-        <v>14904.682141669444</v>
-      </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="43"/>
-        <v>15213.550251940324</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="43"/>
-        <v>15533.399057331471</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="43"/>
-        <v>10657.854081752796</v>
-      </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="43"/>
-        <v>6247.751582180641</v>
-      </c>
-    </row>
-    <row r="21" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15">
-        <v>198</v>
-      </c>
-      <c r="G21" s="15">
-        <v>206</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15">
-        <v>239</v>
-      </c>
-      <c r="K21" s="15">
-        <v>249</v>
-      </c>
-      <c r="L21" s="15">
-        <f>+L20*0.2</f>
-        <v>268.11700000000002</v>
-      </c>
-      <c r="M21" s="15">
-        <v>249</v>
-      </c>
-      <c r="N21" s="15">
-        <v>249</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="38"/>
-        <v>1015.117</v>
-      </c>
+      <c r="L21" s="13">
+        <f t="shared" ref="L21" si="41">+L19+L20</f>
+        <v>1116</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" ref="M21" si="42">+M19+M20</f>
+        <v>1314.22</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" ref="N21" si="43">+N19+N20</f>
+        <v>1404.43</v>
+      </c>
+      <c r="O21" s="13"/>
       <c r="AA21" s="2">
-        <f>+AA20*0.2</f>
-        <v>1761.3362559999996</v>
+        <f>+AA19+AA20</f>
+        <v>5086.0500000000011</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" ref="AB21:AM21" si="44">+AB20*0.2</f>
-        <v>1974.3387700480002</v>
+        <f t="shared" ref="AB21:AN21" si="44">+AB19+AB20</f>
+        <v>8832.8324000000011</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="44"/>
-        <v>2088.8190459683842</v>
+        <v>9913.9129892000019</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="44"/>
-        <v>2289.6677575233311</v>
+        <v>10494.5450733136</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="44"/>
-        <v>2477.8110158552622</v>
+        <v>11506.54357934411</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="44"/>
-        <v>2638.0604330900032</v>
+        <v>12454.594371007743</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="44"/>
-        <v>2801.6190293044288</v>
+        <v>13262.805447073661</v>
       </c>
       <c r="AH21" s="2">
         <f t="shared" si="44"/>
-        <v>2921.4197310972459</v>
+        <v>14087.237016457626</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="44"/>
-        <v>2980.9364283338891</v>
+        <v>14692.594477371609</v>
       </c>
       <c r="AJ21" s="2">
         <f t="shared" si="44"/>
-        <v>3042.7100503880647</v>
+        <v>14996.284138781481</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="44"/>
-        <v>3106.6798114662943</v>
+        <v>15311.043995643076</v>
       </c>
       <c r="AL21" s="2">
         <f t="shared" si="44"/>
-        <v>2131.5708163505592</v>
+        <v>15636.600310220238</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="44"/>
-        <v>1249.5503164361282</v>
-      </c>
-    </row>
-    <row r="22" spans="2:104" x14ac:dyDescent="0.2">
+        <v>10702.469082098794</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="44"/>
+        <v>6239.2528262201213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
+        <v>78.436999999999998</v>
+      </c>
+      <c r="F22" s="13">
+        <v>198</v>
+      </c>
+      <c r="G22" s="13">
+        <v>206</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="I22" s="13">
+        <v>230.81299999999999</v>
+      </c>
+      <c r="J22" s="13">
+        <v>239</v>
+      </c>
+      <c r="K22" s="13">
+        <v>249</v>
+      </c>
+      <c r="L22" s="13">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="M22" s="13">
+        <v>249</v>
+      </c>
+      <c r="N22" s="13">
+        <v>249</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="AA22" s="2">
+        <f t="shared" si="38"/>
+        <v>1005.6</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>+AB21*0.2</f>
+        <v>1766.5664800000004</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" ref="AC22:AN22" si="45">+AC21*0.2</f>
+        <v>1982.7825978400006</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" si="45"/>
+        <v>2098.90901466272</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="45"/>
+        <v>2301.3087158688222</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="45"/>
+        <v>2490.9188742015485</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="45"/>
+        <v>2652.5610894147321</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="45"/>
+        <v>2817.4474032915255</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="45"/>
+        <v>2938.5188954743221</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="45"/>
+        <v>2999.2568277562964</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="45"/>
+        <v>3062.2087991286153</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="45"/>
+        <v>3127.3200620440475</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="45"/>
+        <v>2140.4938164197588</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="45"/>
+        <v>1247.8505652440244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="15">
-        <f>+F20-F21</f>
+      <c r="E23" s="13">
+        <f>+E21-E22</f>
+        <v>584.577</v>
+      </c>
+      <c r="F23" s="13">
+        <f>+F21-F22</f>
         <v>672.90000000000009</v>
       </c>
-      <c r="G22" s="15">
-        <f>+G20-G21</f>
+      <c r="G23" s="13">
+        <f>+G21-G22</f>
         <v>779.8</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" ref="H22:N22" si="45">+H20-H21</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="45"/>
+      <c r="H23" s="13">
+        <f t="shared" ref="H23:N23" si="46">+H21-H22</f>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="46"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="46"/>
         <v>868.69999999999982</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="45"/>
+      <c r="K23" s="13">
+        <f t="shared" si="46"/>
         <v>1002.4000000000001</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="45"/>
-        <v>1072.4680000000001</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="45"/>
-        <v>1181.7949999999998</v>
-      </c>
-      <c r="N22" s="15">
-        <f t="shared" si="45"/>
-        <v>1272.0049999999999</v>
-      </c>
-      <c r="Z22" s="2">
-        <f>+Z20-Z21</f>
-        <v>4528.6680000000006</v>
-      </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22:AM22" si="46">+AA20-AA21</f>
-        <v>7045.3450239999975</v>
-      </c>
-      <c r="AB22" s="2">
+      <c r="L23" s="13">
         <f t="shared" si="46"/>
-        <v>7897.355080192001</v>
-      </c>
-      <c r="AC22" s="2">
+        <v>857.4</v>
+      </c>
+      <c r="M23" s="13">
         <f t="shared" si="46"/>
-        <v>8355.276183873535</v>
-      </c>
-      <c r="AD22" s="2">
+        <v>1065.22</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="46"/>
-        <v>9158.6710300933228</v>
-      </c>
-      <c r="AE22" s="2">
-        <f t="shared" si="46"/>
-        <v>9911.244063421047</v>
-      </c>
-      <c r="AF22" s="2">
-        <f t="shared" si="46"/>
-        <v>10552.241732360013</v>
-      </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="46"/>
-        <v>11206.476117217713</v>
-      </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="46"/>
-        <v>11685.678924388983</v>
-      </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="46"/>
-        <v>11923.745713335555</v>
-      </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="46"/>
-        <v>12170.840201552259</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="46"/>
-        <v>12426.719245865177</v>
-      </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="46"/>
-        <v>8526.2832654022368</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="46"/>
-        <v>4998.201265744513</v>
-      </c>
-      <c r="AN22" s="2">
-        <f>+AM22*(1+$AP$26)</f>
-        <v>4748.291202457287</v>
-      </c>
-      <c r="AO22" s="2">
-        <f t="shared" ref="AO22:CZ22" si="47">+AN22*(1+$AP$26)</f>
-        <v>4510.8766423344223</v>
-      </c>
-      <c r="AP22" s="2">
+        <v>1155.43</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="AA23" s="2">
+        <f>+AA21-AA22</f>
+        <v>4080.4500000000012</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" ref="AB23:AN23" si="47">+AB21-AB22</f>
+        <v>7066.2659200000007</v>
+      </c>
+      <c r="AC23" s="2">
         <f t="shared" si="47"/>
-        <v>4285.3328102177011</v>
-      </c>
-      <c r="AQ22" s="2">
+        <v>7931.1303913600013</v>
+      </c>
+      <c r="AD23" s="2">
         <f t="shared" si="47"/>
-        <v>4071.0661697068158</v>
-      </c>
-      <c r="AR22" s="2">
+        <v>8395.6360586508799</v>
+      </c>
+      <c r="AE23" s="2">
         <f t="shared" si="47"/>
-        <v>3867.5128612214749</v>
-      </c>
-      <c r="AS22" s="2">
+        <v>9205.2348634752889</v>
+      </c>
+      <c r="AF23" s="2">
         <f t="shared" si="47"/>
-        <v>3674.1372181604011</v>
-      </c>
-      <c r="AT22" s="2">
+        <v>9963.6754968061941</v>
+      </c>
+      <c r="AG23" s="2">
         <f t="shared" si="47"/>
-        <v>3490.4303572523809</v>
-      </c>
-      <c r="AU22" s="2">
+        <v>10610.244357658928</v>
+      </c>
+      <c r="AH23" s="2">
         <f t="shared" si="47"/>
-        <v>3315.9088393897619</v>
-      </c>
-      <c r="AV22" s="2">
+        <v>11269.7896131661</v>
+      </c>
+      <c r="AI23" s="2">
         <f t="shared" si="47"/>
-        <v>3150.1133974202735</v>
-      </c>
-      <c r="AW22" s="2">
+        <v>11754.075581897287</v>
+      </c>
+      <c r="AJ23" s="2">
         <f t="shared" si="47"/>
-        <v>2992.6077275492598</v>
-      </c>
-      <c r="AX22" s="2">
+        <v>11997.027311025184</v>
+      </c>
+      <c r="AK23" s="2">
         <f t="shared" si="47"/>
-        <v>2842.9773411717965</v>
-      </c>
-      <c r="AY22" s="2">
+        <v>12248.835196514461</v>
+      </c>
+      <c r="AL23" s="2">
         <f t="shared" si="47"/>
-        <v>2700.8284741132065</v>
-      </c>
-      <c r="AZ22" s="2">
+        <v>12509.28024817619</v>
+      </c>
+      <c r="AM23" s="2">
         <f t="shared" si="47"/>
-        <v>2565.7870504075463</v>
-      </c>
-      <c r="BA22" s="2">
+        <v>8561.9752656790351</v>
+      </c>
+      <c r="AN23" s="2">
         <f t="shared" si="47"/>
-        <v>2437.4976978871687</v>
-      </c>
-      <c r="BB22" s="2">
-        <f t="shared" si="47"/>
-        <v>2315.6228129928099</v>
-      </c>
-      <c r="BC22" s="2">
-        <f t="shared" si="47"/>
-        <v>2199.8416723431692</v>
-      </c>
-      <c r="BD22" s="2">
-        <f t="shared" si="47"/>
-        <v>2089.8495887260106</v>
-      </c>
-      <c r="BE22" s="2">
-        <f t="shared" si="47"/>
-        <v>1985.35710928971</v>
-      </c>
-      <c r="BF22" s="2">
-        <f t="shared" si="47"/>
-        <v>1886.0892538252244</v>
-      </c>
-      <c r="BG22" s="2">
-        <f t="shared" si="47"/>
-        <v>1791.7847911339632</v>
-      </c>
-      <c r="BH22" s="2">
-        <f t="shared" si="47"/>
-        <v>1702.195551577265</v>
-      </c>
-      <c r="BI22" s="2">
-        <f t="shared" si="47"/>
-        <v>1617.0857739984017</v>
-      </c>
-      <c r="BJ22" s="2">
-        <f t="shared" si="47"/>
-        <v>1536.2314852984816</v>
-      </c>
-      <c r="BK22" s="2">
-        <f t="shared" si="47"/>
-        <v>1459.4199110335576</v>
-      </c>
-      <c r="BL22" s="2">
-        <f t="shared" si="47"/>
-        <v>1386.4489154818796</v>
-      </c>
-      <c r="BM22" s="2">
-        <f t="shared" si="47"/>
-        <v>1317.1264697077854</v>
-      </c>
-      <c r="BN22" s="2">
-        <f t="shared" si="47"/>
-        <v>1251.2701462223961</v>
-      </c>
-      <c r="BO22" s="2">
-        <f t="shared" si="47"/>
-        <v>1188.7066389112763</v>
-      </c>
-      <c r="BP22" s="2">
-        <f t="shared" si="47"/>
-        <v>1129.2713069657125</v>
-      </c>
-      <c r="BQ22" s="2">
-        <f t="shared" si="47"/>
-        <v>1072.8077416174267</v>
-      </c>
-      <c r="BR22" s="2">
-        <f t="shared" si="47"/>
-        <v>1019.1673545365553</v>
-      </c>
-      <c r="BS22" s="2">
-        <f t="shared" si="47"/>
-        <v>968.20898680972755</v>
-      </c>
-      <c r="BT22" s="2">
-        <f t="shared" si="47"/>
-        <v>919.79853746924118</v>
-      </c>
-      <c r="BU22" s="2">
-        <f t="shared" si="47"/>
-        <v>873.8086105957791</v>
-      </c>
-      <c r="BV22" s="2">
-        <f t="shared" si="47"/>
-        <v>830.11818006599015</v>
-      </c>
-      <c r="BW22" s="2">
-        <f t="shared" si="47"/>
-        <v>788.61227106269064</v>
-      </c>
-      <c r="BX22" s="2">
-        <f t="shared" si="47"/>
-        <v>749.18165750955609</v>
-      </c>
-      <c r="BY22" s="2">
-        <f t="shared" si="47"/>
-        <v>711.72257463407823</v>
-      </c>
-      <c r="BZ22" s="2">
-        <f t="shared" si="47"/>
-        <v>676.13644590237425</v>
-      </c>
-      <c r="CA22" s="2">
-        <f t="shared" si="47"/>
-        <v>642.32962360725548</v>
-      </c>
-      <c r="CB22" s="2">
-        <f t="shared" si="47"/>
-        <v>610.21314242689266</v>
-      </c>
-      <c r="CC22" s="2">
-        <f t="shared" si="47"/>
-        <v>579.70248530554795</v>
-      </c>
-      <c r="CD22" s="2">
-        <f t="shared" si="47"/>
-        <v>550.71736104027048</v>
-      </c>
-      <c r="CE22" s="2">
-        <f t="shared" si="47"/>
-        <v>523.18149298825688</v>
-      </c>
-      <c r="CF22" s="2">
-        <f t="shared" si="47"/>
-        <v>497.02241833884403</v>
-      </c>
-      <c r="CG22" s="2">
-        <f t="shared" si="47"/>
-        <v>472.17129742190178</v>
-      </c>
-      <c r="CH22" s="2">
-        <f t="shared" si="47"/>
-        <v>448.56273255080669</v>
-      </c>
-      <c r="CI22" s="2">
-        <f t="shared" si="47"/>
-        <v>426.13459592326632</v>
-      </c>
-      <c r="CJ22" s="2">
-        <f t="shared" si="47"/>
-        <v>404.82786612710299</v>
-      </c>
-      <c r="CK22" s="2">
-        <f t="shared" si="47"/>
-        <v>384.58647282074782</v>
-      </c>
-      <c r="CL22" s="2">
-        <f t="shared" si="47"/>
-        <v>365.3571491797104</v>
-      </c>
-      <c r="CM22" s="2">
-        <f t="shared" si="47"/>
-        <v>347.08929172072487</v>
-      </c>
-      <c r="CN22" s="2">
-        <f t="shared" si="47"/>
-        <v>329.7348271346886</v>
-      </c>
-      <c r="CO22" s="2">
-        <f t="shared" si="47"/>
-        <v>313.24808577795415</v>
-      </c>
-      <c r="CP22" s="2">
-        <f t="shared" si="47"/>
-        <v>297.58568148905641</v>
-      </c>
-      <c r="CQ22" s="2">
-        <f t="shared" si="47"/>
-        <v>282.7063974146036</v>
-      </c>
-      <c r="CR22" s="2">
-        <f t="shared" si="47"/>
-        <v>268.5710775438734</v>
-      </c>
-      <c r="CS22" s="2">
-        <f t="shared" si="47"/>
-        <v>255.14252366667972</v>
-      </c>
-      <c r="CT22" s="2">
-        <f t="shared" si="47"/>
-        <v>242.38539748334571</v>
-      </c>
-      <c r="CU22" s="2">
-        <f t="shared" si="47"/>
-        <v>230.26612760917843</v>
-      </c>
-      <c r="CV22" s="2">
-        <f t="shared" si="47"/>
-        <v>218.75282122871948</v>
-      </c>
-      <c r="CW22" s="2">
-        <f t="shared" si="47"/>
-        <v>207.8151801672835</v>
-      </c>
-      <c r="CX22" s="2">
-        <f t="shared" si="47"/>
-        <v>197.42442115891933</v>
-      </c>
-      <c r="CY22" s="2">
-        <f t="shared" si="47"/>
-        <v>187.55320010097336</v>
-      </c>
-      <c r="CZ22" s="2">
-        <f t="shared" si="47"/>
-        <v>178.17554009592467</v>
-      </c>
-    </row>
-    <row r="23" spans="2:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+        <v>4991.4022609760968</v>
+      </c>
+      <c r="AO23" s="2">
+        <f>+AN23*(1+$AQ$28)</f>
+        <v>4741.8321479272918</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" ref="AP23:DA23" si="48">+AO23*(1+$AQ$28)</f>
+        <v>4504.7405405309273</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="48"/>
+        <v>4279.5035135043809</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="48"/>
+        <v>4065.5283378291615</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="48"/>
+        <v>3862.2519209377033</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="48"/>
+        <v>3669.139324890818</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="48"/>
+        <v>3485.682358646277</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="48"/>
+        <v>3311.3982407139629</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="48"/>
+        <v>3145.8283286782644</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="48"/>
+        <v>2988.5369122443508</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="48"/>
+        <v>2839.1100666321331</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="48"/>
+        <v>2697.1545633005262</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="48"/>
+        <v>2562.2968351354998</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="48"/>
+        <v>2434.1819933787247</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="48"/>
+        <v>2312.4728937097884</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" si="48"/>
+        <v>2196.8492490242988</v>
+      </c>
+      <c r="BE23" s="2">
+        <f t="shared" si="48"/>
+        <v>2087.0067865730839</v>
+      </c>
+      <c r="BF23" s="2">
+        <f t="shared" si="48"/>
+        <v>1982.6564472444295</v>
+      </c>
+      <c r="BG23" s="2">
+        <f t="shared" si="48"/>
+        <v>1883.523624882208</v>
+      </c>
+      <c r="BH23" s="2">
+        <f t="shared" si="48"/>
+        <v>1789.3474436380975</v>
+      </c>
+      <c r="BI23" s="2">
+        <f t="shared" si="48"/>
+        <v>1699.8800714561926</v>
+      </c>
+      <c r="BJ23" s="2">
+        <f t="shared" si="48"/>
+        <v>1614.8860678833828</v>
+      </c>
+      <c r="BK23" s="2">
+        <f t="shared" si="48"/>
+        <v>1534.1417644892135</v>
+      </c>
+      <c r="BL23" s="2">
+        <f t="shared" si="48"/>
+        <v>1457.4346762647529</v>
+      </c>
+      <c r="BM23" s="2">
+        <f t="shared" si="48"/>
+        <v>1384.5629424515153</v>
+      </c>
+      <c r="BN23" s="2">
+        <f t="shared" si="48"/>
+        <v>1315.3347953289394</v>
+      </c>
+      <c r="BO23" s="2">
+        <f t="shared" si="48"/>
+        <v>1249.5680555624924</v>
+      </c>
+      <c r="BP23" s="2">
+        <f t="shared" si="48"/>
+        <v>1187.0896527843677</v>
+      </c>
+      <c r="BQ23" s="2">
+        <f t="shared" si="48"/>
+        <v>1127.7351701451491</v>
+      </c>
+      <c r="BR23" s="2">
+        <f t="shared" si="48"/>
+        <v>1071.3484116378916</v>
+      </c>
+      <c r="BS23" s="2">
+        <f t="shared" si="48"/>
+        <v>1017.7809910559969</v>
+      </c>
+      <c r="BT23" s="2">
+        <f t="shared" si="48"/>
+        <v>966.89194150319702</v>
+      </c>
+      <c r="BU23" s="2">
+        <f t="shared" si="48"/>
+        <v>918.54734442803715</v>
+      </c>
+      <c r="BV23" s="2">
+        <f t="shared" si="48"/>
+        <v>872.61997720663521</v>
+      </c>
+      <c r="BW23" s="2">
+        <f t="shared" si="48"/>
+        <v>828.98897834630338</v>
+      </c>
+      <c r="BX23" s="2">
+        <f t="shared" si="48"/>
+        <v>787.5395294289882</v>
+      </c>
+      <c r="BY23" s="2">
+        <f t="shared" si="48"/>
+        <v>748.16255295753876</v>
+      </c>
+      <c r="BZ23" s="2">
+        <f t="shared" si="48"/>
+        <v>710.75442530966177</v>
+      </c>
+      <c r="CA23" s="2">
+        <f t="shared" si="48"/>
+        <v>675.21670404417864</v>
+      </c>
+      <c r="CB23" s="2">
+        <f t="shared" si="48"/>
+        <v>641.45586884196973</v>
+      </c>
+      <c r="CC23" s="2">
+        <f t="shared" si="48"/>
+        <v>609.38307539987125</v>
+      </c>
+      <c r="CD23" s="2">
+        <f t="shared" si="48"/>
+        <v>578.91392162987768</v>
+      </c>
+      <c r="CE23" s="2">
+        <f t="shared" si="48"/>
+        <v>549.96822554838377</v>
+      </c>
+      <c r="CF23" s="2">
+        <f t="shared" si="48"/>
+        <v>522.46981427096455</v>
+      </c>
+      <c r="CG23" s="2">
+        <f t="shared" si="48"/>
+        <v>496.34632355741627</v>
+      </c>
+      <c r="CH23" s="2">
+        <f t="shared" si="48"/>
+        <v>471.52900737954542</v>
+      </c>
+      <c r="CI23" s="2">
+        <f t="shared" si="48"/>
+        <v>447.95255701056811</v>
+      </c>
+      <c r="CJ23" s="2">
+        <f t="shared" si="48"/>
+        <v>425.55492916003971</v>
+      </c>
+      <c r="CK23" s="2">
+        <f t="shared" si="48"/>
+        <v>404.27718270203769</v>
+      </c>
+      <c r="CL23" s="2">
+        <f t="shared" si="48"/>
+        <v>384.06332356693576</v>
+      </c>
+      <c r="CM23" s="2">
+        <f t="shared" si="48"/>
+        <v>364.86015738858896</v>
+      </c>
+      <c r="CN23" s="2">
+        <f t="shared" si="48"/>
+        <v>346.61714951915951</v>
+      </c>
+      <c r="CO23" s="2">
+        <f t="shared" si="48"/>
+        <v>329.28629204320151</v>
+      </c>
+      <c r="CP23" s="2">
+        <f t="shared" si="48"/>
+        <v>312.82197744104144</v>
+      </c>
+      <c r="CQ23" s="2">
+        <f t="shared" si="48"/>
+        <v>297.18087856898933</v>
+      </c>
+      <c r="CR23" s="2">
+        <f t="shared" si="48"/>
+        <v>282.32183464053986</v>
+      </c>
+      <c r="CS23" s="2">
+        <f t="shared" si="48"/>
+        <v>268.20574290851283</v>
+      </c>
+      <c r="CT23" s="2">
+        <f t="shared" si="48"/>
+        <v>254.79545576308718</v>
+      </c>
+      <c r="CU23" s="2">
+        <f t="shared" si="48"/>
+        <v>242.05568297493281</v>
+      </c>
+      <c r="CV23" s="2">
+        <f t="shared" si="48"/>
+        <v>229.95289882618616</v>
+      </c>
+      <c r="CW23" s="2">
+        <f t="shared" si="48"/>
+        <v>218.45525388487684</v>
+      </c>
+      <c r="CX23" s="2">
+        <f t="shared" si="48"/>
+        <v>207.53249119063298</v>
+      </c>
+      <c r="CY23" s="2">
+        <f t="shared" si="48"/>
+        <v>197.15586663110133</v>
+      </c>
+      <c r="CZ23" s="2">
+        <f t="shared" si="48"/>
+        <v>187.29807329954625</v>
+      </c>
+      <c r="DA23" s="2">
+        <f t="shared" si="48"/>
+        <v>177.93316963456891</v>
+      </c>
+    </row>
+    <row r="24" spans="2:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25">
-        <f t="shared" ref="F23:J23" si="48">+F22/F24</f>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22">
+        <f t="shared" ref="E24" si="49">+E23/E25</f>
+        <v>2.2136444018645935</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" ref="F24:J24" si="50">+F23/F25</f>
         <v>2.5575826681870013</v>
       </c>
-      <c r="G23" s="25">
-        <f t="shared" si="48"/>
+      <c r="G24" s="22">
+        <f t="shared" si="50"/>
         <v>2.9774723176785032</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25">
-        <f t="shared" si="48"/>
+      <c r="H24" s="22">
+        <f t="shared" si="50"/>
+        <v>3.438314176245211</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="50"/>
+        <v>3.1211942689261374</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="50"/>
         <v>3.3801556420233454</v>
       </c>
-      <c r="K23" s="25">
-        <f>+K22/K24</f>
+      <c r="K24" s="22">
+        <f>+K23/K25</f>
         <v>3.8867778208607993</v>
       </c>
-      <c r="L23" s="25">
-        <f t="shared" ref="L23:N23" si="49">+L22/L24</f>
-        <v>4.1584645211322222</v>
-      </c>
-      <c r="M23" s="25">
-        <f t="shared" si="49"/>
-        <v>4.582376890267545</v>
-      </c>
-      <c r="N23" s="25">
-        <f t="shared" si="49"/>
-        <v>4.9321636293136875</v>
-      </c>
-      <c r="Z23" s="1">
-        <f>+Z22/Z24</f>
-        <v>17.559782861574256</v>
-      </c>
-      <c r="AA23" s="1">
-        <f t="shared" ref="AA23:AM23" si="50">+AA22/AA24</f>
-        <v>27.318127274137254</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="50"/>
-        <v>30.621772315595198</v>
-      </c>
-      <c r="AC23" s="1">
-        <f t="shared" si="50"/>
-        <v>32.39734852219285</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" si="50"/>
-        <v>35.512489453638324</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="50"/>
-        <v>38.430570234280914</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" si="50"/>
-        <v>40.916020676076052</v>
-      </c>
-      <c r="AG23" s="1">
-        <f t="shared" si="50"/>
-        <v>43.452796111739879</v>
-      </c>
-      <c r="AH23" s="1">
-        <f t="shared" si="50"/>
-        <v>45.310891525354727</v>
-      </c>
-      <c r="AI23" s="1">
-        <f t="shared" si="50"/>
-        <v>46.233988807039765</v>
-      </c>
-      <c r="AJ23" s="1">
-        <f t="shared" si="50"/>
-        <v>47.192090738861033</v>
-      </c>
-      <c r="AK23" s="1">
-        <f t="shared" si="50"/>
-        <v>48.184254539996815</v>
-      </c>
-      <c r="AL23" s="1">
-        <f t="shared" si="50"/>
-        <v>33.060423673525541</v>
-      </c>
-      <c r="AM23" s="1">
-        <f t="shared" si="50"/>
-        <v>19.380384900133826</v>
-      </c>
-    </row>
-    <row r="24" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="L24" s="22">
+        <f t="shared" ref="L24:N24" si="51">+L23/L25</f>
+        <v>3.3142636258214146</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="51"/>
+        <v>4.1175879396984927</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="51"/>
+        <v>4.4662930034789339</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="AA24" s="1">
+        <f>+AA23/AA25</f>
+        <v>15.785106382978729</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24:AN24" si="52">+AB23/AB25</f>
+        <v>27.335651528046423</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="52"/>
+        <v>30.681355479148941</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="52"/>
+        <v>32.478282625341897</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="52"/>
+        <v>35.610192895455661</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="52"/>
+        <v>38.544199213950463</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="52"/>
+        <v>41.045432718216361</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="52"/>
+        <v>43.596865041261509</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="52"/>
+        <v>45.470311728809619</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="52"/>
+        <v>46.410163679014254</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="52"/>
+        <v>47.384275421719387</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="52"/>
+        <v>48.391799799521046</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="52"/>
+        <v>33.121761182510774</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="52"/>
+        <v>19.309099655613526</v>
+      </c>
+    </row>
+    <row r="25" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13">
+        <v>264.07900000000001</v>
+      </c>
+      <c r="F25" s="13">
         <v>263.10000000000002</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="13">
         <v>261.89999999999998</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15">
+      <c r="H25" s="13">
+        <v>261</v>
+      </c>
+      <c r="I25" s="13">
+        <v>259.70699999999999</v>
+      </c>
+      <c r="J25" s="13">
         <v>257</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="13">
         <v>257.89999999999998</v>
       </c>
-      <c r="L24" s="15">
-        <f>+K24</f>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="M24" s="15">
-        <f t="shared" ref="M24:N24" si="51">+L24</f>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="N24" s="15">
-        <f t="shared" si="51"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="Z24" s="2">
-        <f>AVERAGE(K24:N24)</f>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AA24" s="2">
-        <f>+Z24</f>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" ref="AB24:AM24" si="52">+AA24</f>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AD24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AE24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AI24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AJ24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AL24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="52"/>
-        <v>257.89999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+      <c r="L25" s="13">
+        <v>258.7</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" ref="M25:N25" si="53">+L25</f>
+        <v>258.7</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="53"/>
+        <v>258.7</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="AA25" s="2">
+        <f>AVERAGE(K25:N25)</f>
+        <v>258.5</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>+AA25</f>
+        <v>258.5</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25:AN25" si="54">+AB25</f>
+        <v>258.5</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AM25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+      <c r="AN25" s="2">
+        <f t="shared" si="54"/>
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:105" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26">
+        <f>+I13/E13-1</f>
+        <v>0.28998699609882972</v>
+      </c>
+      <c r="J27" s="26">
+        <f>+J13/F13-1</f>
+        <v>0.27350952673632456</v>
+      </c>
+      <c r="K27" s="26">
+        <f t="shared" ref="K27:N27" si="55">+K13/G13-1</f>
+        <v>0.21714153078396103</v>
+      </c>
+      <c r="L27" s="26">
+        <f t="shared" si="55"/>
+        <v>0.2246376811594204</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="55"/>
+        <v>0.15625</v>
+      </c>
+      <c r="N27" s="26">
+        <f t="shared" si="55"/>
+        <v>0.15395752895752901</v>
+      </c>
+      <c r="O27" s="25"/>
+    </row>
+    <row r="28" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="23">
-        <f t="shared" ref="F26:G26" si="53">F14/F12</f>
+      <c r="E28" s="20">
+        <f t="shared" ref="E28:F28" si="56">E15/E13</f>
+        <v>0.87894538361508456</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="56"/>
         <v>0.87516902274124164</v>
       </c>
-      <c r="G26" s="23">
-        <f t="shared" ref="G26:K26" si="54">G14/G12</f>
+      <c r="G28" s="20">
+        <f t="shared" ref="G28:J28" si="57">G15/G13</f>
         <v>0.888411768119306</v>
       </c>
-      <c r="H26" s="23" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="23" t="e">
-        <f t="shared" si="54"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="54"/>
+      <c r="H28" s="20">
+        <f t="shared" si="57"/>
+        <v>0.87290969899665549</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="57"/>
+        <v>0.88079032258064516</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="57"/>
         <v>0.88059845559845551</v>
       </c>
-      <c r="K26" s="23">
-        <f t="shared" ref="K26:L26" si="55">K14/K12</f>
+      <c r="K28" s="20">
+        <f t="shared" ref="K28:L28" si="58">K15/K13</f>
         <v>0.93048867699642435</v>
       </c>
-      <c r="L26" s="23">
-        <f t="shared" si="55"/>
+      <c r="L28" s="20">
+        <f t="shared" si="58"/>
+        <v>0.88083750568957675</v>
+      </c>
+      <c r="M28" s="20">
+        <f>M15/M13</f>
         <v>0.93</v>
       </c>
-      <c r="M26" s="23">
-        <f>M14/M12</f>
+      <c r="N28" s="20">
+        <f>N15/N13</f>
+        <v>0.93</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="Z28" s="20">
+        <f t="shared" ref="Z28:AA28" si="59">Z15/Z13</f>
+        <v>0.88060528435424446</v>
+      </c>
+      <c r="AA28" s="20">
+        <f t="shared" si="59"/>
+        <v>0.91808563951222233</v>
+      </c>
+      <c r="AB28" s="20">
+        <f t="shared" ref="AB28:AN28" si="60">AB15/AB13</f>
+        <v>0.93</v>
+      </c>
+      <c r="AC28" s="20">
+        <f t="shared" si="60"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="N26" s="23">
-        <f>N14/N12</f>
+      <c r="AD28" s="20">
+        <f t="shared" si="60"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="Y26" s="23">
-        <f t="shared" ref="Y26:Z26" si="56">Y14/Y12</f>
-        <v>0.88414618080257157</v>
-      </c>
-      <c r="Z26" s="23">
-        <f t="shared" si="56"/>
-        <v>0.93011424431564871</v>
-      </c>
-      <c r="AA26" s="23">
-        <f t="shared" ref="AA26:AM26" si="57">AA14/AA12</f>
+      <c r="AE28" s="20">
+        <f t="shared" si="60"/>
+        <v>0.93</v>
+      </c>
+      <c r="AF28" s="20">
+        <f t="shared" si="60"/>
+        <v>0.93</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="60"/>
+        <v>0.93</v>
+      </c>
+      <c r="AH28" s="20">
+        <f t="shared" si="60"/>
+        <v>0.93</v>
+      </c>
+      <c r="AI28" s="20">
+        <f t="shared" si="60"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AB26" s="23">
-        <f t="shared" si="57"/>
+      <c r="AJ28" s="20">
+        <f t="shared" si="60"/>
         <v>0.93</v>
       </c>
-      <c r="AC26" s="23">
-        <f t="shared" si="57"/>
+      <c r="AK28" s="20">
+        <f t="shared" si="60"/>
         <v>0.93</v>
       </c>
-      <c r="AD26" s="23">
-        <f t="shared" si="57"/>
+      <c r="AL28" s="20">
+        <f t="shared" si="60"/>
+        <v>0.93</v>
+      </c>
+      <c r="AM28" s="20">
+        <f t="shared" si="60"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AE26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AF26" s="23">
-        <f t="shared" si="57"/>
+      <c r="AN28" s="20">
+        <f t="shared" si="60"/>
         <v>0.93</v>
       </c>
-      <c r="AG26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.93</v>
-      </c>
-      <c r="AH26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.93</v>
-      </c>
-      <c r="AI26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AJ26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AK26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.93</v>
-      </c>
-      <c r="AL26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.93</v>
-      </c>
-      <c r="AM26" s="23">
-        <f t="shared" si="57"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="AP28" t="s">
         <v>303</v>
       </c>
-      <c r="AP26" s="27">
+      <c r="AQ28" s="24">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="27" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23">
-        <f>+Z15/Z12</f>
-        <v>7.4453856442264821E-2</v>
-      </c>
-      <c r="AA27" s="23">
-        <f t="shared" ref="AA27:AM27" si="58">+AA15/AA12</f>
+      <c r="E29" s="20">
+        <f t="shared" ref="E29:N29" si="61">+E16/E13</f>
+        <v>0.11999414824447334</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="61"/>
+        <v>0.107559926244622</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="61"/>
+        <v>8.7622584576103987E-2</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="61"/>
+        <v>0.1084726867335563</v>
+      </c>
+      <c r="I29" s="20">
+        <f t="shared" si="61"/>
+        <v>9.9893649193548387E-2</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="61"/>
+        <v>0.10135135135135136</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="61"/>
+        <v>7.9618593563766382E-2</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="61"/>
+        <v>9.7997269003186172E-2</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="61"/>
+        <v>9.3853530950305145E-2</v>
+      </c>
+      <c r="N29" s="20">
+        <f>+N16/N13</f>
+        <v>9.0046005855290684E-2</v>
+      </c>
+      <c r="O29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20">
+        <f>+AA16/AA13</f>
+        <v>9.0528425858900835E-2</v>
+      </c>
+      <c r="AB29" s="20">
+        <f t="shared" ref="AB29:AN29" si="62">+AB16/AB13</f>
         <v>0.1</v>
       </c>
-      <c r="AB27" s="23">
-        <f t="shared" si="58"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AC27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AC29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AD27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AD29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AE27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AE29" s="20">
+        <f t="shared" si="62"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AF29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AF27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AG29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AG27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AH29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AH27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AI29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AI27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AJ29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AJ27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AK29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AK27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AL29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AL27" s="23">
-        <f t="shared" si="58"/>
+      <c r="AM29" s="20">
+        <f t="shared" si="62"/>
         <v>0.1</v>
       </c>
-      <c r="AM27" s="23">
-        <f t="shared" si="58"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AO27" t="s">
+      <c r="AN29" s="20">
+        <f t="shared" si="62"/>
+        <v>0.1</v>
+      </c>
+      <c r="AP29" t="s">
         <v>301</v>
       </c>
-      <c r="AP27" s="27">
+      <c r="AQ29" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="23">
-        <f t="shared" ref="F28:G28" si="59">F21/F20</f>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30:F30" si="63">E22/E21</f>
+        <v>0.1183036858950188</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="63"/>
         <v>0.22735101619014811</v>
       </c>
-      <c r="G28" s="23">
-        <f>G21/G20</f>
+      <c r="G30" s="20">
+        <f>G22/G21</f>
         <v>0.20896733617366606</v>
       </c>
-      <c r="H28" s="23" t="e">
-        <f t="shared" ref="H28:N28" si="60">H21/H20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="23" t="e">
-        <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="60"/>
+      <c r="H30" s="20">
+        <f t="shared" ref="H30:N30" si="64">H22/H21</f>
+        <v>1.2000440383133325E-2</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="64"/>
+        <v>0.22163530370872531</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" si="64"/>
         <v>0.21576239053895463</v>
       </c>
-      <c r="K28" s="23">
-        <f t="shared" si="60"/>
+      <c r="K30" s="20">
+        <f t="shared" si="64"/>
         <v>0.19897714559693142</v>
       </c>
-      <c r="L28" s="23">
-        <f t="shared" si="60"/>
+      <c r="L30" s="20">
+        <f t="shared" si="64"/>
+        <v>0.23172043010752691</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" si="64"/>
+        <v>0.18946599503888237</v>
+      </c>
+      <c r="N30" s="20">
+        <f t="shared" si="64"/>
+        <v>0.17729612725447333</v>
+      </c>
+      <c r="O30" s="20"/>
+      <c r="AA30" s="24">
+        <f>+AA22/AA21</f>
+        <v>0.19771728551626505</v>
+      </c>
+      <c r="AB30" s="24">
+        <f t="shared" ref="AB30:AN30" si="65">+AB22/AB21</f>
         <v>0.2</v>
       </c>
-      <c r="M28" s="23">
-        <f t="shared" si="60"/>
-        <v>0.17402912366900922</v>
-      </c>
-      <c r="N28" s="23">
-        <f t="shared" si="60"/>
-        <v>0.16370754862738782</v>
-      </c>
-      <c r="Z28" s="27">
-        <f>+Z21/Z20</f>
-        <v>0.18310901306598287</v>
-      </c>
-      <c r="AA28" s="27">
-        <f t="shared" ref="AA28:AM28" si="61">+AA21/AA20</f>
+      <c r="AC30" s="24">
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
-      <c r="AB28" s="27">
-        <f t="shared" si="61"/>
+      <c r="AD30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AE30" s="24">
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
-      <c r="AC28" s="27">
-        <f t="shared" si="61"/>
+      <c r="AF30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM30" s="24">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AN30" s="24">
+        <f t="shared" si="65"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AD28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AH28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AI28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AJ28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AK28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AL28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AM28" s="27">
-        <f t="shared" si="61"/>
-        <v>0.2</v>
-      </c>
-      <c r="AO28" t="s">
+      <c r="AP30" t="s">
         <v>300</v>
       </c>
-      <c r="AP28" s="27">
+      <c r="AQ30" s="24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:104" x14ac:dyDescent="0.2">
-      <c r="AO29" t="s">
+    <row r="31" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="AP31" t="s">
         <v>302</v>
       </c>
-      <c r="AP29" s="2">
-        <f>NPV(AP27,AA22:BX22)+Main!M5-Main!M6</f>
-        <v>104060.75684749277</v>
-      </c>
-    </row>
-    <row r="30" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+      <c r="AQ31" s="2">
+        <f>NPV(AQ29,AB23:BY23)+Main!M5-Main!M6</f>
+        <v>105458.5449224412</v>
+      </c>
+    </row>
+    <row r="32" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13">
         <f>7600.1+638</f>
         <v>8238.1</v>
       </c>
-      <c r="L30" s="15">
-        <f>+K30+L22</f>
-        <v>9310.5680000000011</v>
-      </c>
-      <c r="M30" s="15">
-        <f t="shared" ref="M30:N30" si="62">+L30+M22</f>
-        <v>10492.363000000001</v>
-      </c>
-      <c r="N30" s="15">
-        <f t="shared" si="62"/>
-        <v>11764.368</v>
-      </c>
-      <c r="Z30" s="2">
-        <f>+N30</f>
-        <v>11764.368</v>
-      </c>
-      <c r="AA30" s="2">
-        <f>+Z30+AA22</f>
-        <v>18809.713023999997</v>
-      </c>
-      <c r="AB30" s="2">
-        <f t="shared" ref="AB30:AM30" si="63">+AA30+AB22</f>
-        <v>26707.068104191996</v>
-      </c>
-      <c r="AC30" s="2">
-        <f t="shared" si="63"/>
-        <v>35062.344288065535</v>
-      </c>
-      <c r="AD30" s="2">
-        <f t="shared" si="63"/>
-        <v>44221.015318158854</v>
-      </c>
-      <c r="AE30" s="2">
-        <f t="shared" si="63"/>
-        <v>54132.259381579905</v>
-      </c>
-      <c r="AF30" s="2">
-        <f t="shared" si="63"/>
-        <v>64684.501113939914</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="63"/>
-        <v>75890.977231157623</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="63"/>
-        <v>87576.656155546603</v>
-      </c>
-      <c r="AI30" s="2">
-        <f t="shared" si="63"/>
-        <v>99500.401868882152</v>
-      </c>
-      <c r="AJ30" s="2">
-        <f t="shared" si="63"/>
-        <v>111671.24207043441</v>
-      </c>
-      <c r="AK30" s="2">
-        <f t="shared" si="63"/>
-        <v>124097.9613162996</v>
-      </c>
-      <c r="AL30" s="2">
-        <f t="shared" si="63"/>
-        <v>132624.24458170185</v>
-      </c>
-      <c r="AM30" s="2">
-        <f t="shared" si="63"/>
-        <v>137622.44584744636</v>
-      </c>
-      <c r="AO30" s="2" t="s">
+      <c r="L32" s="13">
+        <v>9253</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" ref="M32:N32" si="66">+L32+M23</f>
+        <v>10318.219999999999</v>
+      </c>
+      <c r="N32" s="13">
+        <f t="shared" si="66"/>
+        <v>11473.65</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="AA32" s="2">
+        <f>+N32</f>
+        <v>11473.65</v>
+      </c>
+      <c r="AB32" s="2">
+        <f>+AA32+AB23</f>
+        <v>18539.915919999999</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" ref="AC32:AN32" si="67">+AB32+AC23</f>
+        <v>26471.046311360002</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" si="67"/>
+        <v>34866.68237001088</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" si="67"/>
+        <v>44071.917233486165</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="67"/>
+        <v>54035.592730292359</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" si="67"/>
+        <v>64645.837087951288</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="67"/>
+        <v>75915.626701117391</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="67"/>
+        <v>87669.702283014674</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="67"/>
+        <v>99666.729594039862</v>
+      </c>
+      <c r="AK32" s="2">
+        <f t="shared" si="67"/>
+        <v>111915.56479055432</v>
+      </c>
+      <c r="AL32" s="2">
+        <f t="shared" si="67"/>
+        <v>124424.84503873051</v>
+      </c>
+      <c r="AM32" s="2">
+        <f t="shared" si="67"/>
+        <v>132986.82030440954</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" si="67"/>
+        <v>137978.22256538563</v>
+      </c>
+      <c r="AP32" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AP30" s="1">
-        <f>AP29/Main!M3</f>
-        <v>406.87519634192518</v>
-      </c>
-    </row>
-    <row r="31" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="AQ32" s="1">
+        <f>AQ31/Main!M3</f>
+        <v>411.94744110328594</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13">
         <v>1292.8</v>
       </c>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="2:104" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13">
         <v>338.9</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13">
         <v>491.5</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13">
         <v>1107.4000000000001</v>
       </c>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13">
         <f>1002.2+400</f>
         <v>1402.2</v>
       </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13">
         <v>945.5</v>
       </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13">
         <v>329</v>
       </c>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13">
         <v>110.7</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15">
-        <f>SUM(K30:K38)</f>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13">
+        <f>SUM(K32:K40)</f>
         <v>14256.1</v>
       </c>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="L41" s="13">
+        <f t="shared" ref="L41" si="68">SUM(L32:L40)</f>
+        <v>9253</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="43" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13">
         <v>173.6</v>
       </c>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13">
         <v>1720.5</v>
       </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13">
         <v>286.10000000000002</v>
       </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13">
         <f>495.5+377</f>
         <v>872.5</v>
       </c>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13">
         <v>179</v>
       </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13">
         <v>117.4</v>
       </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-    </row>
-    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13">
         <v>10907</v>
       </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-    </row>
-    <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15">
-        <f>SUM(K41:K47)</f>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13">
+        <f>SUM(K43:K49)</f>
         <v>14256.1</v>
       </c>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15">
-        <f>+K22</f>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13">
+        <f>+K23</f>
         <v>1002.4000000000001</v>
       </c>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13">
         <v>762.1</v>
       </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13">
         <v>130.30000000000001</v>
       </c>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-    </row>
-    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13">
         <v>35.9</v>
       </c>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-    </row>
-    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13">
         <v>-7.5</v>
       </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-    </row>
-    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+    </row>
+    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13">
         <v>-12.3</v>
       </c>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13">
         <v>75.599999999999994</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-    </row>
-    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13">
         <f>-165.2+2+67.6-14.5+61.6+15.7</f>
         <v>-32.799999999999997</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15">
-        <f>SUM(K51:K58)</f>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13">
+        <f>SUM(K53:K60)</f>
         <v>956.20000000000016</v>
       </c>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13">
         <v>-63.6</v>
       </c>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-    </row>
-    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+    </row>
+    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13">
         <f>-117.1+129.7</f>
         <v>12.599999999999994</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-    </row>
-    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15">
-        <f>K61+K62</f>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13">
+        <f>K63+K64</f>
         <v>-51.000000000000007</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-    </row>
-    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13">
         <v>33.700000000000003</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-    </row>
-    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13">
         <v>-117.5</v>
       </c>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-    </row>
-    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15">
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13">
         <v>-12.9</v>
       </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-    </row>
-    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15">
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13">
         <v>1.3</v>
       </c>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-    </row>
-    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15">
-        <f>SUM(K65:K68)</f>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13">
+        <f>SUM(K67:K70)</f>
         <v>-95.4</v>
       </c>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-    </row>
-    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15">
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13">
         <v>-5.9</v>
       </c>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-    </row>
-    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15">
-        <f>+K69+K70+K63+K59</f>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13">
+        <f>+K71+K72+K65+K61</f>
         <v>803.90000000000009</v>
       </c>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-    </row>
-    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6734,7 +6978,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6816,7 +7060,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6846,7 +7090,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6895,7 +7139,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6945,7 +7189,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7007,7 +7251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7073,70 +7317,70 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="s">
+      <c r="C11" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="22" t="s">
+      <c r="C12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="22" t="s">
+      <c r="C13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="22" t="s">
+      <c r="C14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="s">
+      <c r="C15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="22" t="s">
+      <c r="C16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="s">
+      <c r="C17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="22" t="s">
+      <c r="C20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7162,7 +7406,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7204,7 +7448,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7282,12 +7526,12 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="22" t="s">
+      <c r="C6" t="s">
         <v>203</v>
       </c>
     </row>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9C228-C007-421C-8FCF-2775E28E4812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1CEB1-E600-43F9-8C1D-24DD1B4DCF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53610" yWindow="6735" windowWidth="24495" windowHeight="13590" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="VX-121" sheetId="12" r:id="rId9"/>
     <sheet name="VX-548" sheetId="13" r:id="rId10"/>
     <sheet name="inaxaplin" sheetId="10" r:id="rId11"/>
-    <sheet name="IP" sheetId="4" r:id="rId12"/>
-    <sheet name="Compounds" sheetId="5" r:id="rId13"/>
+    <sheet name="VX-634" sheetId="14" r:id="rId12"/>
+    <sheet name="IP" sheetId="4" r:id="rId13"/>
+    <sheet name="Compounds" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
     <author>tc={40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}</author>
   </authors>
   <commentList>
-    <comment ref="AA13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <comment ref="AG13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="321">
   <si>
     <t>Price</t>
   </si>
@@ -238,9 +239,6 @@
     <t>cell therapy</t>
   </si>
   <si>
-    <t>AAT</t>
-  </si>
-  <si>
     <t>corrector</t>
   </si>
   <si>
@@ -472,9 +470,6 @@
     <t>7/18/22: Q2 earnings date.</t>
   </si>
   <si>
-    <t>8/4/22: Q2 earnings date.</t>
-  </si>
-  <si>
     <t>7/11/22: To acquire Viacyte for $320m.</t>
   </si>
   <si>
@@ -995,6 +990,45 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>VX-634</t>
+  </si>
+  <si>
+    <t>AATD</t>
+  </si>
+  <si>
+    <t>IND clearance PR 10/11/2022</t>
+  </si>
+  <si>
+    <t>VX-864</t>
+  </si>
+  <si>
+    <t>CSO: David Altshuler</t>
+  </si>
+  <si>
+    <t>Alpha-1 antitrypsin deficiency. SERPINA1 gene mutations.</t>
+  </si>
+  <si>
+    <t>10/11/22: VX-634 IND approved.</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q318</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1196,6 +1229,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1218,13 +1252,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1268,13 +1302,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1815,7 +1849,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AA13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+  <threadedComment ref="AG13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
     <text>Q122: reiterates 8.4-8.6B guidance</text>
   </threadedComment>
 </ThreadedComments>
@@ -1823,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
-  <dimension ref="B2:N43"/>
+  <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1869,11 +1903,11 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1892,11 +1926,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1914,17 +1948,17 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1940,7 +1974,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -1993,11 +2027,11 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2025,11 +2059,11 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -2040,7 +2074,7 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
@@ -2054,11 +2088,11 @@
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D14" t="s">
@@ -2068,30 +2102,33 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
-        <v>204</v>
+      <c r="B15" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="8"/>
+      <c r="J15" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
@@ -2108,35 +2145,35 @@
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H17" s="8"/>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
@@ -2145,139 +2182,158 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="18" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="18" t="s">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="18" t="s">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="18" t="s">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="18" t="s">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="18" t="s">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="18" t="s">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="18" t="s">
-        <v>265</v>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="17" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2290,6 +2346,7 @@
     <hyperlink ref="B10" location="'CTX001'!A1" display="CTX001" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
     <hyperlink ref="B5" location="Orkambi!A1" display="Orkambi" xr:uid="{5B227DE1-747D-41D9-AFFC-27BF0DF44345}"/>
     <hyperlink ref="B13" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
+    <hyperlink ref="B21" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2311,7 +2368,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2346,99 +2403,99 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="19" t="s">
-        <v>258</v>
+      <c r="C8" s="18" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="23">
+        <v>246</v>
+      </c>
+      <c r="D10" s="22">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="23">
+        <v>248</v>
+      </c>
+      <c r="D11" s="22">
         <v>137.80000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="23">
+        <v>250</v>
+      </c>
+      <c r="D12" s="22">
         <v>86.9</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="23">
+        <v>251</v>
+      </c>
+      <c r="D13" s="22">
         <v>112.9</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="22">
+        <v>115.6</v>
+      </c>
+      <c r="E14" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="23">
-        <v>115.6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="23"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="23"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="19" t="s">
-        <v>257</v>
+      <c r="C17" s="18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19">
         <v>72.7</v>
@@ -2446,35 +2503,35 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D20">
         <v>110.5</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D21">
         <v>95.1</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22">
         <v>85.2</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2555,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2515,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,27 +2588,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="19" t="s">
-        <v>242</v>
+      <c r="C7" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2564,6 +2621,55 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9D23D-12F6-4A5D-93D1-1862668A41BC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0A34DDFA-7AD8-4524-8897-4C2FF35B4CE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0003B-178C-466F-BE10-E90BCC8A1B78}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2577,34 +2683,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2612,25 +2718,25 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>44019</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2638,25 +2744,25 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>44074</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,25 +2770,25 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>42671</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2690,21 +2796,21 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>43236</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>44726</v>
       </c>
       <c r="I6" t="s">
@@ -2716,25 +2822,25 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>43899</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2742,21 +2848,21 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>43804</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>44656</v>
       </c>
       <c r="I8" t="s">
@@ -2768,25 +2874,25 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>43501</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,21 +2900,21 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>103</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>43259</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>44614</v>
       </c>
     </row>
@@ -2817,21 +2923,21 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>41835</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>44551</v>
       </c>
       <c r="I11" t="s">
@@ -2843,25 +2949,25 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>43803</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,25 +2975,25 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>42172</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2895,25 +3001,25 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>43500</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2921,25 +3027,25 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>43915</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2947,25 +3053,25 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>43536</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -2973,25 +3079,25 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>42929</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -2999,21 +3105,21 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>43683</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>44453</v>
       </c>
     </row>
@@ -3022,21 +3128,21 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>43005</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>44446</v>
       </c>
     </row>
@@ -3045,21 +3151,21 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>43656</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>44446</v>
       </c>
     </row>
@@ -3068,25 +3174,25 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>43874</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -3094,21 +3200,21 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>43510</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>44397</v>
       </c>
     </row>
@@ -3117,25 +3223,25 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>43578</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -3143,22 +3249,22 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="16">
+        <v>239</v>
+      </c>
+      <c r="G24" s="15">
         <v>43679</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4728C55-E312-4CB5-A877-7A6998D5236F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3187,7 +3293,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3205,49 +3311,49 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>40686</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>42187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3258,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -3271,52 +3377,52 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -3325,21 +3431,21 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
         <v>109</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
         <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3352,3608 +3458,4462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:DA74"/>
+  <dimension ref="A1:DG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="15" width="9.140625" style="3"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="21" width="9.140625" style="3"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T3">
+      <c r="Z3">
         <v>2015</v>
       </c>
-      <c r="U3">
-        <f>+T3+1</f>
+      <c r="AA3">
+        <f>+Z3+1</f>
         <v>2016</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:AN3" si="0">+U3+1</f>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AT3" si="0">+AA3+1</f>
         <v>2017</v>
       </c>
-      <c r="W3">
+      <c r="AC3">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AA3">
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AD3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AE3">
+      <c r="AK3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AF3">
+      <c r="AL3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AG3">
+      <c r="AM3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AH3">
+      <c r="AN3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AI3">
+      <c r="AO3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AJ3">
+      <c r="AP3">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AK3">
+      <c r="AQ3">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AL3">
+      <c r="AR3">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AM3">
+      <c r="AS3">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AN3">
+      <c r="AT3">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AK4" s="2">
         <v>200</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AL4" s="2">
         <v>400</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AM4" s="2">
         <v>600</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AN4" s="2">
         <v>800</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AO4" s="2">
         <v>1000</v>
       </c>
-      <c r="AJ4" s="2">
-        <f>+AI4*1.01</f>
+      <c r="AP4" s="2">
+        <f>+AO4*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AK4" s="2">
-        <f t="shared" ref="AK4:AN6" si="1">+AJ4*1.01</f>
+      <c r="AQ4" s="2">
+        <f t="shared" ref="AQ4:AT6" si="1">+AP4*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AR4" s="2">
         <f t="shared" si="1"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AS4" s="2">
         <f t="shared" si="1"/>
         <v>1040.60401</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AT4" s="2">
         <f t="shared" si="1"/>
         <v>1051.0100500999999</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="AC5" s="2">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="AI5" s="2">
         <v>200</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AJ5" s="2">
         <v>500</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AK5" s="2">
         <v>800</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AL5" s="2">
         <v>1100</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AM5" s="2">
         <v>1400</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AN5" s="2">
         <v>1700</v>
       </c>
-      <c r="AI5" s="2">
-        <f>+AH5*1.01</f>
+      <c r="AO5" s="2">
+        <f>+AN5*1.01</f>
         <v>1717</v>
       </c>
-      <c r="AJ5" s="2">
-        <f t="shared" ref="AJ5:AN5" si="2">+AI5*1.01</f>
+      <c r="AP5" s="2">
+        <f t="shared" ref="AP5:AT5" si="2">+AO5*1.01</f>
         <v>1734.17</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AQ5" s="2">
         <f t="shared" si="2"/>
         <v>1751.5117</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AR5" s="2">
         <f t="shared" si="2"/>
         <v>1769.0268169999999</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AS5" s="2">
         <f t="shared" si="2"/>
         <v>1786.71708517</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AT5" s="2">
         <f t="shared" si="2"/>
         <v>1804.5842560217</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="AE6" s="2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="AK6" s="2">
         <v>200</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AL6" s="2">
         <v>400</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AM6" s="2">
         <v>600</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AN6" s="2">
         <v>800</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AO6" s="2">
         <v>1000</v>
       </c>
-      <c r="AJ6" s="2">
-        <f>+AI6*1.01</f>
+      <c r="AP6" s="2">
+        <f>+AO6*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AQ6" s="2">
         <f t="shared" si="1"/>
         <v>1020.1</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AR6" s="2">
         <f t="shared" si="1"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AS6" s="2">
         <f t="shared" si="1"/>
         <v>1040.60401</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AT6" s="2">
         <f t="shared" si="1"/>
         <v>1051.0100500999999</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="AB7" s="2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="AH7" s="2">
         <v>100</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AI7" s="2">
         <v>300</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AJ7" s="2">
         <v>500</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AK7" s="2">
         <v>800</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AL7" s="2">
         <v>1000</v>
       </c>
-      <c r="AG7" s="2">
-        <f>+AF7*1.01</f>
+      <c r="AM7" s="2">
+        <f>+AL7*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AH7" s="2">
-        <f t="shared" ref="AH7:AN7" si="3">+AG7*1.01</f>
+      <c r="AN7" s="2">
+        <f t="shared" ref="AN7:AT7" si="3">+AM7*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AO7" s="2">
         <f t="shared" si="3"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AP7" s="2">
         <f t="shared" si="3"/>
         <v>1040.60401</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AQ7" s="2">
         <f t="shared" si="3"/>
         <v>1051.0100500999999</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AR7" s="2">
         <f t="shared" si="3"/>
         <v>1061.5201506009998</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AS7" s="2">
         <f t="shared" si="3"/>
         <v>1072.1353521070098</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AT7" s="2">
         <f t="shared" si="3"/>
         <v>1082.8567056280799</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+        <v>273</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>420</v>
+      </c>
+      <c r="I9" s="12">
+        <v>895</v>
+      </c>
+      <c r="J9" s="12">
+        <v>918</v>
+      </c>
+      <c r="K9" s="12">
         <v>960</v>
       </c>
-      <c r="F9" s="13">
+      <c r="L9" s="12">
         <v>1091</v>
       </c>
-      <c r="G9" s="13">
+      <c r="M9" s="12">
         <v>1193.2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="N9" s="12">
         <v>1256</v>
       </c>
-      <c r="I9" s="13">
+      <c r="O9" s="12">
         <v>1556</v>
       </c>
-      <c r="J9" s="13">
+      <c r="P9" s="12">
         <v>1693</v>
       </c>
-      <c r="K9" s="13">
+      <c r="Q9" s="12">
         <v>1761.6</v>
       </c>
-      <c r="L9" s="13">
+      <c r="R9" s="12">
         <v>1893</v>
       </c>
-      <c r="M9" s="13">
-        <f t="shared" ref="M9:N9" si="4">+L9+100</f>
+      <c r="S9" s="12">
+        <f t="shared" ref="S9:T9" si="4">+R9+100</f>
         <v>1993</v>
       </c>
-      <c r="N9" s="13">
+      <c r="T9" s="12">
         <f t="shared" si="4"/>
         <v>2093</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="Z9" s="2">
-        <f>SUM(G9:J9)</f>
+      <c r="U9" s="12"/>
+      <c r="AF9" s="2">
+        <f>SUM(M9:P9)</f>
         <v>5698.2</v>
       </c>
-      <c r="AA9" s="2">
-        <f t="shared" ref="AA9:AA11" si="5">SUM(K9:N9)</f>
+      <c r="AG9" s="2">
+        <f t="shared" ref="AG9:AG11" si="5">SUM(Q9:T9)</f>
         <v>7740.6</v>
       </c>
-      <c r="AB9" s="2">
-        <f>+AA9*1.2</f>
+      <c r="AH9" s="2">
+        <f>+AG9*1.2</f>
         <v>9288.7199999999993</v>
       </c>
-      <c r="AC9" s="2">
-        <f>+AB9*1.1</f>
+      <c r="AI9" s="2">
+        <f>+AH9*1.1</f>
         <v>10217.592000000001</v>
       </c>
-      <c r="AD9" s="2">
-        <f>+AC9*1.02</f>
+      <c r="AJ9" s="2">
+        <f>+AI9*1.02</f>
         <v>10421.94384</v>
       </c>
-      <c r="AE9" s="2">
-        <f t="shared" ref="AE9:AL9" si="6">+AD9*1.02</f>
+      <c r="AK9" s="2">
+        <f t="shared" ref="AK9:AR9" si="6">+AJ9*1.02</f>
         <v>10630.382716800001</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AL9" s="2">
         <f t="shared" si="6"/>
         <v>10842.990371136</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AM9" s="2">
         <f t="shared" si="6"/>
         <v>11059.85017855872</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AN9" s="2">
         <f t="shared" si="6"/>
         <v>11281.047182129894</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AO9" s="2">
         <f t="shared" si="6"/>
         <v>11506.668125772492</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AP9" s="2">
         <f t="shared" si="6"/>
         <v>11736.801488287942</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AQ9" s="2">
         <f t="shared" si="6"/>
         <v>11971.537518053701</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AR9" s="2">
         <f t="shared" si="6"/>
         <v>12210.968268414776</v>
       </c>
-      <c r="AM9" s="2">
-        <f>+AL9*0.5</f>
+      <c r="AS9" s="2">
+        <f>+AR9*0.5</f>
         <v>6105.4841342073878</v>
       </c>
-      <c r="AN9" s="2">
-        <f>+AM9*0.1</f>
+      <c r="AT9" s="2">
+        <f>+AS9*0.1</f>
         <v>610.54841342073883</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
+      <c r="C10" s="12">
+        <v>255</v>
+      </c>
+      <c r="D10" s="12">
+        <v>294</v>
+      </c>
+      <c r="E10" s="12">
+        <v>320</v>
+      </c>
+      <c r="F10" s="12">
+        <v>362</v>
+      </c>
+      <c r="G10" s="12">
+        <v>404</v>
+      </c>
+      <c r="H10" s="12">
+        <v>331.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>173</v>
+      </c>
+      <c r="J10" s="12">
+        <v>172</v>
+      </c>
+      <c r="K10" s="12">
         <v>156</v>
       </c>
-      <c r="F10" s="13">
+      <c r="L10" s="12">
         <v>128</v>
       </c>
-      <c r="G10" s="13">
+      <c r="M10" s="12">
         <v>125.1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="N10" s="12">
         <v>134</v>
       </c>
-      <c r="I10" s="13">
+      <c r="O10" s="12">
         <v>81</v>
       </c>
-      <c r="J10" s="13">
+      <c r="P10" s="12">
         <v>80</v>
       </c>
-      <c r="K10" s="13">
+      <c r="Q10" s="12">
         <v>64.8</v>
       </c>
-      <c r="L10" s="13">
+      <c r="R10" s="12">
         <v>43</v>
       </c>
-      <c r="M10" s="13">
-        <f t="shared" ref="M10:N10" si="7">L10-1</f>
+      <c r="S10" s="12">
+        <f t="shared" ref="S10:T10" si="7">R10-1</f>
         <v>42</v>
       </c>
-      <c r="N10" s="13">
+      <c r="T10" s="12">
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="Z10" s="2">
-        <f t="shared" ref="Z10:Z14" si="8">SUM(G10:J10)</f>
+      <c r="U10" s="12"/>
+      <c r="AF10" s="2">
+        <f t="shared" ref="AF10:AF14" si="8">SUM(M10:P10)</f>
         <v>420.1</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AG10" s="2">
         <f t="shared" si="5"/>
         <v>190.8</v>
       </c>
-      <c r="AB10" s="2">
-        <f>+AA10*0.9</f>
+      <c r="AH10" s="2">
+        <f>+AG10*0.9</f>
         <v>171.72000000000003</v>
       </c>
-      <c r="AC10" s="2">
-        <f t="shared" ref="AC10:AN10" si="9">+AB10*0.9</f>
+      <c r="AI10" s="2">
+        <f t="shared" ref="AI10:AT10" si="9">+AH10*0.9</f>
         <v>154.54800000000003</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AJ10" s="2">
         <f t="shared" si="9"/>
         <v>139.09320000000002</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AK10" s="2">
         <f t="shared" si="9"/>
         <v>125.18388000000003</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AL10" s="2">
         <f t="shared" si="9"/>
         <v>112.66549200000003</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AM10" s="2">
         <f t="shared" si="9"/>
         <v>101.39894280000003</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AN10" s="2">
         <f t="shared" si="9"/>
         <v>91.259048520000022</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AO10" s="2">
         <f t="shared" si="9"/>
         <v>82.133143668000017</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AP10" s="2">
         <f t="shared" si="9"/>
         <v>73.919829301200011</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AQ10" s="2">
         <f t="shared" si="9"/>
         <v>66.527846371080017</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AR10" s="2">
         <f t="shared" si="9"/>
         <v>59.875061733972018</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AS10" s="2">
         <f t="shared" si="9"/>
         <v>53.887555560574818</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AT10" s="2">
         <f t="shared" si="9"/>
         <v>48.498800004517335</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="C11" s="12">
+        <v>282</v>
+      </c>
+      <c r="D11" s="12">
+        <v>315</v>
+      </c>
+      <c r="E11" s="12">
+        <v>293</v>
+      </c>
+      <c r="F11" s="12">
+        <v>316</v>
+      </c>
+      <c r="G11" s="12">
+        <v>297</v>
+      </c>
+      <c r="H11" s="12">
+        <v>269.8</v>
+      </c>
+      <c r="I11" s="12">
+        <v>234</v>
+      </c>
+      <c r="J11" s="12">
+        <v>231.7</v>
+      </c>
+      <c r="K11" s="12">
         <v>226</v>
       </c>
-      <c r="F11" s="13">
+      <c r="L11" s="12">
         <v>215</v>
       </c>
-      <c r="G11" s="13">
+      <c r="M11" s="12">
         <v>218.7</v>
       </c>
-      <c r="H11" s="13">
+      <c r="N11" s="12">
         <v>221</v>
       </c>
-      <c r="I11" s="13">
+      <c r="O11" s="12">
         <v>185</v>
       </c>
-      <c r="J11" s="13">
+      <c r="P11" s="12">
         <v>147</v>
       </c>
-      <c r="K11" s="13">
+      <c r="Q11" s="12">
         <v>132.1</v>
       </c>
-      <c r="L11" s="13">
+      <c r="R11" s="12">
         <v>122</v>
       </c>
-      <c r="M11" s="13">
-        <f t="shared" ref="M11:N11" si="10">L11-1</f>
+      <c r="S11" s="12">
+        <f t="shared" ref="S11:T11" si="10">R11-1</f>
         <v>121</v>
       </c>
-      <c r="N11" s="13">
+      <c r="T11" s="12">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="Z11" s="2">
+      <c r="U11" s="12"/>
+      <c r="AF11" s="2">
         <f t="shared" si="8"/>
         <v>771.7</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AG11" s="2">
         <f t="shared" si="5"/>
         <v>495.1</v>
       </c>
-      <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AN11" si="11">+AA11*0.9</f>
+      <c r="AH11" s="2">
+        <f t="shared" ref="AH11:AT11" si="11">+AG11*0.9</f>
         <v>445.59000000000003</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AI11" s="2">
         <f t="shared" si="11"/>
         <v>401.03100000000006</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AJ11" s="2">
         <f t="shared" si="11"/>
         <v>360.92790000000008</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AK11" s="2">
         <f t="shared" si="11"/>
         <v>324.8351100000001</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AL11" s="2">
         <f t="shared" si="11"/>
         <v>292.35159900000008</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AM11" s="2">
         <f t="shared" si="11"/>
         <v>263.11643910000009</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AN11" s="2">
         <f t="shared" si="11"/>
         <v>236.80479519000008</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AO11" s="2">
         <f t="shared" si="11"/>
         <v>213.12431567100006</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AP11" s="2">
         <f t="shared" si="11"/>
         <v>191.81188410390007</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AQ11" s="2">
         <f t="shared" si="11"/>
         <v>172.63069569351006</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AR11" s="2">
         <f t="shared" si="11"/>
         <v>155.36762612415907</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AS11" s="2">
         <f t="shared" si="11"/>
         <v>139.83086351174316</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AT11" s="2">
         <f t="shared" si="11"/>
         <v>125.84777716056885</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="C12" s="12">
+        <v>246</v>
+      </c>
+      <c r="D12" s="12">
+        <v>259</v>
+      </c>
+      <c r="E12" s="12">
+        <v>244</v>
+      </c>
+      <c r="F12" s="12">
+        <v>262</v>
+      </c>
+      <c r="G12" s="12">
+        <v>249</v>
+      </c>
+      <c r="H12" s="12">
+        <v>235.7</v>
+      </c>
+      <c r="I12" s="12">
+        <v>213</v>
+      </c>
+      <c r="J12" s="12">
+        <v>202.7</v>
+      </c>
+      <c r="K12" s="12">
         <v>194</v>
       </c>
-      <c r="F12" s="13">
+      <c r="L12" s="12">
         <v>193</v>
       </c>
-      <c r="G12" s="13">
+      <c r="M12" s="12">
         <v>186.3</v>
       </c>
-      <c r="H12" s="13">
+      <c r="N12" s="12">
         <v>183</v>
       </c>
-      <c r="I12" s="13">
+      <c r="O12" s="12">
         <v>162</v>
       </c>
-      <c r="J12" s="13">
+      <c r="P12" s="12">
         <v>152</v>
       </c>
-      <c r="K12" s="13">
+      <c r="Q12" s="12">
         <v>139</v>
       </c>
-      <c r="L12" s="13">
+      <c r="R12" s="12">
         <v>139</v>
       </c>
-      <c r="M12" s="13">
-        <f t="shared" ref="M12:N12" si="12">L12-1</f>
+      <c r="S12" s="12">
+        <f t="shared" ref="S12:T12" si="12">R12-1</f>
         <v>138</v>
       </c>
-      <c r="N12" s="13">
+      <c r="T12" s="12">
         <f t="shared" si="12"/>
         <v>137</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="Z12" s="2">
+      <c r="U12" s="12"/>
+      <c r="AF12" s="2">
         <f t="shared" si="8"/>
         <v>683.3</v>
       </c>
-      <c r="AA12" s="2">
-        <f>SUM(K12:N12)</f>
+      <c r="AG12" s="2">
+        <f>SUM(Q12:T12)</f>
         <v>553</v>
       </c>
-      <c r="AB12" s="2">
-        <f t="shared" ref="AB12:AN12" si="13">+AA12*0.9</f>
+      <c r="AH12" s="2">
+        <f t="shared" ref="AH12:AT12" si="13">+AG12*0.9</f>
         <v>497.7</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AI12" s="2">
         <f t="shared" si="13"/>
         <v>447.93</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AJ12" s="2">
         <f t="shared" si="13"/>
         <v>403.137</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AK12" s="2">
         <f t="shared" si="13"/>
         <v>362.82330000000002</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AL12" s="2">
         <f t="shared" si="13"/>
         <v>326.54097000000002</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AM12" s="2">
         <f t="shared" si="13"/>
         <v>293.88687300000004</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AN12" s="2">
         <f t="shared" si="13"/>
         <v>264.49818570000002</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AO12" s="2">
         <f t="shared" si="13"/>
         <v>238.04836713000003</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AP12" s="2">
         <f t="shared" si="13"/>
         <v>214.24353041700004</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AQ12" s="2">
         <f t="shared" si="13"/>
         <v>192.81917737530006</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AR12" s="2">
         <f t="shared" si="13"/>
         <v>173.53725963777006</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AS12" s="2">
         <f t="shared" si="13"/>
         <v>156.18353367399305</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AT12" s="2">
         <f t="shared" si="13"/>
         <v>140.56518030659376</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="C13" s="14">
+        <f>SUM(C9:C12)+C8</f>
+        <v>783</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(D9:D12)+D8</f>
+        <v>869.93299999999999</v>
+      </c>
+      <c r="E13" s="14">
         <f>SUM(E9:E12)+E8</f>
+        <v>858.18200000000002</v>
+      </c>
+      <c r="F13" s="14">
+        <f>SUM(F9:F12)+F8</f>
+        <v>940.91300000000001</v>
+      </c>
+      <c r="G13" s="14">
+        <f>SUM(G9:G12)+G8</f>
+        <v>950</v>
+      </c>
+      <c r="H13" s="14">
+        <f>SUM(H9:H12)+H8</f>
+        <v>1257</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SUM(I9:I12)+I8</f>
+        <v>1515</v>
+      </c>
+      <c r="J13" s="14">
+        <f>SUM(J9:J12)+J8</f>
+        <v>1524.4</v>
+      </c>
+      <c r="K13" s="14">
+        <f>SUM(K9:K12)+K8</f>
         <v>1538</v>
       </c>
-      <c r="F13" s="15">
-        <f t="shared" ref="E13:J13" si="14">SUM(F9:F12)</f>
+      <c r="L13" s="14">
+        <f t="shared" ref="L13:P13" si="14">SUM(L9:L12)</f>
         <v>1627</v>
       </c>
-      <c r="G13" s="15">
+      <c r="M13" s="14">
         <f t="shared" si="14"/>
         <v>1723.3</v>
       </c>
-      <c r="H13" s="15">
+      <c r="N13" s="14">
         <f t="shared" si="14"/>
         <v>1794</v>
       </c>
-      <c r="I13" s="15">
+      <c r="O13" s="14">
         <f t="shared" si="14"/>
         <v>1984</v>
       </c>
-      <c r="J13" s="15">
+      <c r="P13" s="14">
         <f t="shared" si="14"/>
         <v>2072</v>
       </c>
-      <c r="K13" s="15">
-        <f>SUM(K9:K12)</f>
+      <c r="Q13" s="14">
+        <f>SUM(Q9:Q12)</f>
         <v>2097.5</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13:R13" si="15">SUM(L9:L12)</f>
+      <c r="R13" s="14">
+        <f t="shared" ref="R13:X13" si="15">SUM(R9:R12)</f>
         <v>2197</v>
       </c>
-      <c r="M13" s="15">
+      <c r="S13" s="14">
         <f t="shared" si="15"/>
         <v>2294</v>
       </c>
-      <c r="N13" s="15">
+      <c r="T13" s="14">
         <f t="shared" si="15"/>
         <v>2391</v>
       </c>
-      <c r="O13" s="15">
+      <c r="U13" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P13" s="15">
+      <c r="V13" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="W13" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R13" s="15">
+      <c r="X13" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="14">
-        <f t="shared" ref="Y13" si="16">SUM(Y9:Y12)</f>
+      <c r="AE13" s="13">
+        <f t="shared" ref="AE13" si="16">SUM(AE9:AE12)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="14">
-        <f>SUM(Z9:Z12)</f>
+      <c r="AF13" s="13">
+        <f>SUM(AF9:AF12)</f>
         <v>7573.3</v>
       </c>
-      <c r="AA13" s="14">
-        <f>SUM(AA9:AA12)</f>
+      <c r="AG13" s="13">
+        <f>SUM(AG9:AG12)</f>
         <v>8979.5</v>
       </c>
-      <c r="AB13" s="14">
-        <f>SUM(AB4:AB12)</f>
+      <c r="AH13" s="13">
+        <f>SUM(AH4:AH12)</f>
         <v>10503.73</v>
       </c>
-      <c r="AC13" s="14">
-        <f t="shared" ref="AC13:AN13" si="17">SUM(AC4:AC12)</f>
+      <c r="AI13" s="13">
+        <f t="shared" ref="AI13:AT13" si="17">SUM(AI4:AI12)</f>
         <v>11721.101000000002</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AJ13" s="13">
         <f t="shared" si="17"/>
         <v>12325.10194</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AK13" s="13">
         <f t="shared" si="17"/>
         <v>13443.225006800001</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AL13" s="13">
         <f t="shared" si="17"/>
         <v>14474.548432136</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AM13" s="13">
         <f t="shared" si="17"/>
         <v>15328.25243345872</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AN13" s="13">
         <f t="shared" si="17"/>
         <v>16193.709211539895</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AO13" s="13">
         <f t="shared" si="17"/>
         <v>16787.274952241489</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AP13" s="13">
         <f t="shared" si="17"/>
         <v>17011.550742110041</v>
       </c>
-      <c r="AK13" s="14">
+      <c r="AQ13" s="13">
         <f t="shared" si="17"/>
         <v>17246.236987593587</v>
       </c>
-      <c r="AL13" s="14">
+      <c r="AR13" s="13">
         <f t="shared" si="17"/>
         <v>17490.897183511679</v>
       </c>
-      <c r="AM13" s="14">
+      <c r="AS13" s="13">
         <f t="shared" si="17"/>
         <v>11395.44654423071</v>
       </c>
-      <c r="AN13" s="14">
+      <c r="AT13" s="13">
         <f t="shared" si="17"/>
         <v>5914.9212327421992</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12">
+        <v>111.255</v>
+      </c>
+      <c r="D14" s="12">
+        <v>122.289</v>
+      </c>
+      <c r="E14" s="12">
+        <v>95.091999999999999</v>
+      </c>
+      <c r="F14" s="12">
+        <v>135.74</v>
+      </c>
+      <c r="G14" s="12">
+        <v>131.91399999999999</v>
+      </c>
+      <c r="H14" s="12">
+        <v>185.012</v>
+      </c>
+      <c r="I14" s="12">
+        <v>162.49700000000001</v>
+      </c>
+      <c r="J14" s="12">
+        <v>184.5</v>
+      </c>
+      <c r="K14" s="12">
         <v>186.18199999999999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="L14" s="12">
         <v>203.1</v>
       </c>
-      <c r="G14" s="13">
+      <c r="M14" s="12">
         <v>192.3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="N14" s="12">
         <v>228</v>
       </c>
-      <c r="I14" s="13">
+      <c r="O14" s="12">
         <v>236.512</v>
       </c>
-      <c r="J14" s="13">
+      <c r="P14" s="12">
         <v>247.4</v>
       </c>
-      <c r="K14" s="13">
+      <c r="Q14" s="12">
         <v>145.80000000000001</v>
       </c>
-      <c r="L14" s="13">
+      <c r="R14" s="12">
         <v>261.8</v>
       </c>
-      <c r="M14" s="13">
-        <f>M13*0.07</f>
+      <c r="S14" s="12">
+        <f>S13*0.07</f>
         <v>160.58000000000001</v>
       </c>
-      <c r="N14" s="13">
-        <f>N13*0.07</f>
+      <c r="T14" s="12">
+        <f>T13*0.07</f>
         <v>167.37</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="Z14" s="2">
+      <c r="U14" s="12"/>
+      <c r="AF14" s="2">
         <f t="shared" si="8"/>
         <v>904.21199999999999</v>
       </c>
-      <c r="AA14" s="2">
-        <f>SUM(K14:N14)</f>
+      <c r="AG14" s="2">
+        <f>SUM(Q14:T14)</f>
         <v>735.55000000000007</v>
       </c>
-      <c r="AB14" s="2">
-        <f>+AB13*0.07</f>
+      <c r="AH14" s="2">
+        <f>+AH13*0.07</f>
         <v>735.26110000000006</v>
       </c>
-      <c r="AC14" s="2">
-        <f t="shared" ref="AC14:AN14" si="18">+AC13*0.07</f>
+      <c r="AI14" s="2">
+        <f t="shared" ref="AI14:AT14" si="18">+AI13*0.07</f>
         <v>820.47707000000025</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AJ14" s="2">
         <f t="shared" si="18"/>
         <v>862.75713580000013</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="18"/>
         <v>941.02575047600021</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="18"/>
         <v>1013.2183902495201</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AM14" s="2">
         <f t="shared" si="18"/>
         <v>1072.9776703421105</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AN14" s="2">
         <f t="shared" si="18"/>
         <v>1133.5596448077929</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AO14" s="2">
         <f t="shared" si="18"/>
         <v>1175.1092466569044</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AP14" s="2">
         <f t="shared" si="18"/>
         <v>1190.8085519477029</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AQ14" s="2">
         <f t="shared" si="18"/>
         <v>1207.2365891315512</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AR14" s="2">
         <f t="shared" si="18"/>
         <v>1224.3628028458177</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AS14" s="2">
         <f t="shared" si="18"/>
         <v>797.6812580961498</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="AT14" s="2">
         <f t="shared" si="18"/>
         <v>414.044486291954</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <f t="shared" ref="E15:F15" si="19">+E13-E14</f>
+        <v>62</v>
+      </c>
+      <c r="C15" s="12">
+        <f>+C13-C14</f>
+        <v>671.745</v>
+      </c>
+      <c r="D15" s="12">
+        <f>+D13-D14</f>
+        <v>747.64400000000001</v>
+      </c>
+      <c r="E15" s="12">
+        <f>+E13-E14</f>
+        <v>763.09</v>
+      </c>
+      <c r="F15" s="12">
+        <f>+F13-F14</f>
+        <v>805.173</v>
+      </c>
+      <c r="G15" s="12">
+        <f>+G13-G14</f>
+        <v>818.08600000000001</v>
+      </c>
+      <c r="H15" s="12">
+        <f>+H13-H14</f>
+        <v>1071.9880000000001</v>
+      </c>
+      <c r="I15" s="12">
+        <f>+I13-I14</f>
+        <v>1352.5029999999999</v>
+      </c>
+      <c r="J15" s="12">
+        <f>+J13-J14</f>
+        <v>1339.9</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" ref="K15:L15" si="19">+K13-K14</f>
         <v>1351.818</v>
       </c>
-      <c r="F15" s="13">
+      <c r="L15" s="12">
         <f t="shared" si="19"/>
         <v>1423.9</v>
       </c>
-      <c r="G15" s="13">
-        <f>+G13-G14</f>
+      <c r="M15" s="12">
+        <f>+M13-M14</f>
         <v>1531</v>
       </c>
-      <c r="H15" s="13">
-        <f>+H13-H14</f>
+      <c r="N15" s="12">
+        <f>+N13-N14</f>
         <v>1566</v>
       </c>
-      <c r="I15" s="13">
-        <f>+I13-I14</f>
+      <c r="O15" s="12">
+        <f>+O13-O14</f>
         <v>1747.4880000000001</v>
       </c>
-      <c r="J15" s="13">
-        <f>+J13-J14</f>
+      <c r="P15" s="12">
+        <f>+P13-P14</f>
         <v>1824.6</v>
       </c>
-      <c r="K15" s="13">
-        <f>+K13-K14</f>
+      <c r="Q15" s="12">
+        <f>+Q13-Q14</f>
         <v>1951.7</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" ref="L15:N15" si="20">+L13-L14</f>
+      <c r="R15" s="12">
+        <f t="shared" ref="R15:T15" si="20">+R13-R14</f>
         <v>1935.2</v>
       </c>
-      <c r="M15" s="13">
+      <c r="S15" s="12">
         <f t="shared" si="20"/>
         <v>2133.42</v>
       </c>
-      <c r="N15" s="13">
+      <c r="T15" s="12">
         <f t="shared" si="20"/>
         <v>2223.63</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="Y15" s="2">
-        <f t="shared" ref="Y15" si="21">+Y13-Y14</f>
+      <c r="U15" s="12"/>
+      <c r="AE15" s="2">
+        <f t="shared" ref="AE15" si="21">+AE13-AE14</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="2">
-        <f>+Z13-Z14</f>
+      <c r="AF15" s="2">
+        <f>+AF13-AF14</f>
         <v>6669.0879999999997</v>
       </c>
-      <c r="AA15" s="2">
-        <f>+AA13-AA14</f>
+      <c r="AG15" s="2">
+        <f>+AG13-AG14</f>
         <v>8243.9500000000007</v>
       </c>
-      <c r="AB15" s="2">
-        <f>+AB13-AB14</f>
+      <c r="AH15" s="2">
+        <f>+AH13-AH14</f>
         <v>9768.4688999999998</v>
       </c>
-      <c r="AC15" s="2">
-        <f t="shared" ref="AC15:AN15" si="22">+AC13-AC14</f>
+      <c r="AI15" s="2">
+        <f t="shared" ref="AI15:AT15" si="22">+AI13-AI14</f>
         <v>10900.623930000002</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AJ15" s="2">
         <f t="shared" si="22"/>
         <v>11462.3448042</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AK15" s="2">
         <f t="shared" si="22"/>
         <v>12502.199256324002</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AL15" s="2">
         <f t="shared" si="22"/>
         <v>13461.33004188648</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AM15" s="2">
         <f t="shared" si="22"/>
         <v>14255.274763116609</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AN15" s="2">
         <f t="shared" si="22"/>
         <v>15060.149566732103</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AO15" s="2">
         <f t="shared" si="22"/>
         <v>15612.165705584584</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AP15" s="2">
         <f t="shared" si="22"/>
         <v>15820.742190162338</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AQ15" s="2">
         <f t="shared" si="22"/>
         <v>16039.000398462036</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AR15" s="2">
         <f t="shared" si="22"/>
         <v>16266.534380665862</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AS15" s="2">
         <f t="shared" si="22"/>
         <v>10597.76528613456</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AT15" s="2">
         <f t="shared" si="22"/>
         <v>5500.8767464502453</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12">
+        <v>137.29499999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <v>153.21</v>
+      </c>
+      <c r="E16" s="12">
+        <v>147.04499999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>156.50200000000001</v>
+      </c>
+      <c r="G16" s="12">
+        <v>159.67400000000001</v>
+      </c>
+      <c r="H16" s="12">
+        <v>195.27699999999999</v>
+      </c>
+      <c r="I16" s="12">
+        <v>182.25800000000001</v>
+      </c>
+      <c r="J16" s="12">
+        <v>191.8</v>
+      </c>
+      <c r="K16" s="12">
         <v>184.55099999999999</v>
       </c>
-      <c r="F16" s="13">
+      <c r="L16" s="12">
         <v>175</v>
       </c>
-      <c r="G16" s="13">
+      <c r="M16" s="12">
         <v>151</v>
       </c>
-      <c r="H16" s="13">
+      <c r="N16" s="12">
         <v>194.6</v>
       </c>
-      <c r="I16" s="13">
+      <c r="O16" s="12">
         <v>198.18899999999999</v>
       </c>
-      <c r="J16" s="13">
+      <c r="P16" s="12">
         <v>210</v>
       </c>
-      <c r="K16" s="13">
+      <c r="Q16" s="12">
         <v>167</v>
       </c>
-      <c r="L16" s="13">
+      <c r="R16" s="12">
         <v>215.3</v>
       </c>
-      <c r="M16" s="13">
-        <f t="shared" ref="M16:N16" si="23">+L16</f>
+      <c r="S16" s="12">
+        <f t="shared" ref="S16:T16" si="23">+R16</f>
         <v>215.3</v>
       </c>
-      <c r="N16" s="13">
+      <c r="T16" s="12">
         <f t="shared" si="23"/>
         <v>215.3</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="Y16" s="2">
+      <c r="U16" s="12"/>
+      <c r="AE16" s="2">
         <v>609</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AF16" s="2">
         <v>673</v>
       </c>
-      <c r="AA16" s="2">
-        <f t="shared" ref="AA16:AA17" si="24">SUM(K16:N16)</f>
+      <c r="AG16" s="2">
+        <f t="shared" ref="AG16:AG17" si="24">SUM(Q16:T16)</f>
         <v>812.90000000000009</v>
       </c>
-      <c r="AB16" s="2">
-        <f>+AB13*0.1</f>
+      <c r="AH16" s="2">
+        <f>+AH13*0.1</f>
         <v>1050.373</v>
       </c>
-      <c r="AC16" s="2">
-        <f t="shared" ref="AC16:AN16" si="25">+AC13*0.1</f>
+      <c r="AI16" s="2">
+        <f t="shared" ref="AI16:AT16" si="25">+AI13*0.1</f>
         <v>1172.1101000000003</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AJ16" s="2">
         <f t="shared" si="25"/>
         <v>1232.5101940000002</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AK16" s="2">
         <f t="shared" si="25"/>
         <v>1344.3225006800003</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AL16" s="2">
         <f t="shared" si="25"/>
         <v>1447.4548432136</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AM16" s="2">
         <f t="shared" si="25"/>
         <v>1532.825243345872</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AN16" s="2">
         <f t="shared" si="25"/>
         <v>1619.3709211539897</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AO16" s="2">
         <f t="shared" si="25"/>
         <v>1678.7274952241489</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AP16" s="2">
         <f t="shared" si="25"/>
         <v>1701.1550742110041</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AQ16" s="2">
         <f t="shared" si="25"/>
         <v>1724.6236987593588</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AR16" s="2">
         <f t="shared" si="25"/>
         <v>1749.0897183511679</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="AS16" s="2">
         <f t="shared" si="25"/>
         <v>1139.5446544230711</v>
       </c>
-      <c r="AN16" s="2">
+      <c r="AT16" s="2">
         <f t="shared" si="25"/>
         <v>591.49212327421992</v>
       </c>
     </row>
-    <row r="17" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+        <v>64</v>
+      </c>
+      <c r="C17" s="12">
+        <v>330.51</v>
+      </c>
+      <c r="D17" s="12">
+        <v>437.88099999999997</v>
+      </c>
+      <c r="E17" s="12">
+        <v>339.49</v>
+      </c>
+      <c r="F17" s="12">
+        <v>379.09100000000001</v>
+      </c>
+      <c r="G17" s="12">
+        <v>555.94799999999998</v>
+      </c>
+      <c r="H17" s="12">
+        <v>480.01100000000002</v>
+      </c>
+      <c r="I17" s="12">
+        <v>448.52800000000002</v>
+      </c>
+      <c r="J17" s="12">
+        <v>420.9</v>
+      </c>
+      <c r="K17" s="12">
         <v>493.49700000000001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="L17" s="12">
         <v>364</v>
       </c>
-      <c r="G17" s="13">
+      <c r="M17" s="12">
         <v>380</v>
       </c>
-      <c r="H17" s="13">
+      <c r="N17" s="12">
         <v>448.7</v>
       </c>
-      <c r="I17" s="13">
+      <c r="O17" s="12">
         <v>493.75099999999998</v>
       </c>
-      <c r="J17" s="13">
+      <c r="P17" s="12">
         <v>493</v>
       </c>
-      <c r="K17" s="13">
+      <c r="Q17" s="12">
         <v>520</v>
       </c>
-      <c r="L17" s="13">
+      <c r="R17" s="12">
         <v>600.1</v>
       </c>
-      <c r="M17" s="13">
-        <f t="shared" ref="M17:N17" si="26">+L17</f>
+      <c r="S17" s="12">
+        <f t="shared" ref="S17:T17" si="26">+R17</f>
         <v>600.1</v>
       </c>
-      <c r="N17" s="13">
+      <c r="T17" s="12">
         <f t="shared" si="26"/>
         <v>600.1</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="Y17" s="2">
+      <c r="U17" s="12"/>
+      <c r="AE17" s="2">
         <v>1372</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AF17" s="2">
         <v>1658</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AG17" s="2">
         <f t="shared" si="24"/>
         <v>2320.2999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" ref="C18:D18" si="27">SUM(C16:C17)</f>
+        <v>467.80499999999995</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="27"/>
+        <v>591.09100000000001</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:G18" si="28">SUM(E16:E17)</f>
+        <v>486.53499999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="28"/>
+        <v>535.59300000000007</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="28"/>
+        <v>715.62199999999996</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" ref="H18:I18" si="29">SUM(H16:H17)</f>
+        <v>675.28800000000001</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="29"/>
+        <v>630.78600000000006</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" ref="J18:K18" si="30">SUM(J16:J17)</f>
+        <v>612.70000000000005</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" ref="K18:L18" si="31">SUM(K16:K17)</f>
+        <v>678.048</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="31"/>
+        <v>539</v>
+      </c>
+      <c r="M18" s="12">
+        <f>SUM(M16:M17)</f>
+        <v>531</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" ref="N18:Q18" si="32">SUM(N16:N17)</f>
+        <v>643.29999999999995</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="32"/>
+        <v>691.93999999999994</v>
+      </c>
+      <c r="P18" s="12">
+        <f>SUM(P16:P17)</f>
+        <v>703</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="32"/>
+        <v>687</v>
+      </c>
+      <c r="R18" s="12">
+        <f>SUM(R16:R17)</f>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="S18" s="12">
+        <f t="shared" ref="S18:T18" si="33">SUM(S16:S17)</f>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" si="33"/>
+        <v>815.40000000000009</v>
+      </c>
+      <c r="U18" s="12"/>
+      <c r="AE18" s="12">
+        <f t="shared" ref="AE18:AG18" si="34">SUM(AE16:AE17)</f>
+        <v>1981</v>
+      </c>
+      <c r="AF18" s="12">
+        <f t="shared" si="34"/>
+        <v>2331</v>
+      </c>
+      <c r="AG18" s="12">
+        <f t="shared" si="34"/>
+        <v>3133.2</v>
+      </c>
+      <c r="AH18" s="12">
+        <f t="shared" ref="AH18:AT18" si="35">SUM(AH16:AH17)</f>
+        <v>1050.373</v>
+      </c>
+      <c r="AI18" s="12">
+        <f t="shared" si="35"/>
+        <v>1172.1101000000003</v>
+      </c>
+      <c r="AJ18" s="12">
+        <f t="shared" si="35"/>
+        <v>1232.5101940000002</v>
+      </c>
+      <c r="AK18" s="12">
+        <f t="shared" si="35"/>
+        <v>1344.3225006800003</v>
+      </c>
+      <c r="AL18" s="12">
+        <f t="shared" si="35"/>
+        <v>1447.4548432136</v>
+      </c>
+      <c r="AM18" s="12">
+        <f t="shared" si="35"/>
+        <v>1532.825243345872</v>
+      </c>
+      <c r="AN18" s="12">
+        <f t="shared" si="35"/>
+        <v>1619.3709211539897</v>
+      </c>
+      <c r="AO18" s="12">
+        <f t="shared" si="35"/>
+        <v>1678.7274952241489</v>
+      </c>
+      <c r="AP18" s="12">
+        <f t="shared" si="35"/>
+        <v>1701.1550742110041</v>
+      </c>
+      <c r="AQ18" s="12">
+        <f t="shared" si="35"/>
+        <v>1724.6236987593588</v>
+      </c>
+      <c r="AR18" s="12">
+        <f t="shared" si="35"/>
+        <v>1749.0897183511679</v>
+      </c>
+      <c r="AS18" s="12">
+        <f t="shared" si="35"/>
+        <v>1139.5446544230711</v>
+      </c>
+      <c r="AT18" s="12">
+        <f t="shared" si="35"/>
+        <v>591.49212327421992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:111" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18:F18" si="27">SUM(E16:E17)</f>
-        <v>678.048</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="27"/>
-        <v>539</v>
-      </c>
-      <c r="G18" s="13">
-        <f>SUM(G16:G17)</f>
-        <v>531</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" ref="H18:K18" si="28">SUM(H16:H17)</f>
-        <v>643.29999999999995</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="28"/>
-        <v>691.93999999999994</v>
-      </c>
-      <c r="J18" s="13">
-        <f>SUM(J16:J17)</f>
-        <v>703</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="28"/>
-        <v>687</v>
-      </c>
-      <c r="L18" s="13">
-        <f>SUM(L16:L17)</f>
-        <v>815.40000000000009</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" ref="M18:N18" si="29">SUM(M16:M17)</f>
-        <v>815.40000000000009</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="29"/>
-        <v>815.40000000000009</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="Y18" s="13">
-        <f t="shared" ref="Y18:AA18" si="30">SUM(Y16:Y17)</f>
-        <v>1981</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="30"/>
-        <v>2331</v>
-      </c>
-      <c r="AA18" s="13">
-        <f t="shared" si="30"/>
-        <v>3133.2</v>
-      </c>
-      <c r="AB18" s="13">
-        <f t="shared" ref="AB18:AN18" si="31">SUM(AB16:AB17)</f>
-        <v>1050.373</v>
-      </c>
-      <c r="AC18" s="13">
-        <f t="shared" si="31"/>
-        <v>1172.1101000000003</v>
-      </c>
-      <c r="AD18" s="13">
-        <f t="shared" si="31"/>
-        <v>1232.5101940000002</v>
-      </c>
-      <c r="AE18" s="13">
-        <f t="shared" si="31"/>
-        <v>1344.3225006800003</v>
-      </c>
-      <c r="AF18" s="13">
-        <f t="shared" si="31"/>
-        <v>1447.4548432136</v>
-      </c>
-      <c r="AG18" s="13">
-        <f t="shared" si="31"/>
-        <v>1532.825243345872</v>
-      </c>
-      <c r="AH18" s="13">
-        <f t="shared" si="31"/>
-        <v>1619.3709211539897</v>
-      </c>
-      <c r="AI18" s="13">
-        <f t="shared" si="31"/>
-        <v>1678.7274952241489</v>
-      </c>
-      <c r="AJ18" s="13">
-        <f t="shared" si="31"/>
-        <v>1701.1550742110041</v>
-      </c>
-      <c r="AK18" s="13">
-        <f t="shared" si="31"/>
-        <v>1724.6236987593588</v>
-      </c>
-      <c r="AL18" s="13">
-        <f t="shared" si="31"/>
-        <v>1749.0897183511679</v>
-      </c>
-      <c r="AM18" s="13">
-        <f t="shared" si="31"/>
-        <v>1139.5446544230711</v>
-      </c>
-      <c r="AN18" s="13">
-        <f t="shared" si="31"/>
-        <v>591.49212327421992</v>
-      </c>
-    </row>
-    <row r="19" spans="2:105" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19:F19" si="32">E15-E18</f>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:D19" si="36">C15-C18</f>
+        <v>203.94000000000005</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="36"/>
+        <v>156.553</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:G19" si="37">E15-E18</f>
+        <v>276.55500000000006</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="37"/>
+        <v>269.57999999999993</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="37"/>
+        <v>102.46400000000006</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ref="H19:I19" si="38">H15-H18</f>
+        <v>396.70000000000005</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="38"/>
+        <v>721.71699999999987</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" ref="J19:K19" si="39">J15-J18</f>
+        <v>727.2</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19:L19" si="40">K15-K18</f>
         <v>673.77</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" si="32"/>
+      <c r="L19" s="12">
+        <f t="shared" si="40"/>
         <v>884.90000000000009</v>
       </c>
-      <c r="G19" s="13">
-        <f>G15-G18</f>
+      <c r="M19" s="12">
+        <f>M15-M18</f>
         <v>1000</v>
       </c>
-      <c r="H19" s="13">
-        <f t="shared" ref="H19:K19" si="33">H15-H18</f>
+      <c r="N19" s="12">
+        <f t="shared" ref="N19:Q19" si="41">N15-N18</f>
         <v>922.7</v>
       </c>
-      <c r="I19" s="13">
-        <f t="shared" si="33"/>
+      <c r="O19" s="12">
+        <f t="shared" si="41"/>
         <v>1055.5480000000002</v>
       </c>
-      <c r="J19" s="13">
-        <f>J15-J18</f>
+      <c r="P19" s="12">
+        <f>P15-P18</f>
         <v>1121.5999999999999</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="33"/>
+      <c r="Q19" s="12">
+        <f t="shared" si="41"/>
         <v>1264.7</v>
       </c>
-      <c r="L19" s="13">
-        <f>L15-L18</f>
+      <c r="R19" s="12">
+        <f>R15-R18</f>
         <v>1119.8</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" ref="M19:N19" si="34">M15-M18</f>
+      <c r="S19" s="12">
+        <f t="shared" ref="S19:T19" si="42">S15-S18</f>
         <v>1318.02</v>
       </c>
-      <c r="N19" s="13">
-        <f t="shared" si="34"/>
+      <c r="T19" s="12">
+        <f t="shared" si="42"/>
         <v>1408.23</v>
       </c>
-      <c r="O19" s="13"/>
-      <c r="Y19" s="13">
-        <f t="shared" ref="Y19:AA19" si="35">Y15-Y18</f>
+      <c r="U19" s="12"/>
+      <c r="AE19" s="12">
+        <f t="shared" ref="AE19:AG19" si="43">AE15-AE18</f>
         <v>-1981</v>
       </c>
-      <c r="Z19" s="13">
-        <f t="shared" si="35"/>
+      <c r="AF19" s="12">
+        <f t="shared" si="43"/>
         <v>4338.0879999999997</v>
       </c>
-      <c r="AA19" s="13">
-        <f t="shared" si="35"/>
+      <c r="AG19" s="12">
+        <f t="shared" si="43"/>
         <v>5110.7500000000009</v>
       </c>
-      <c r="AB19" s="13">
-        <f t="shared" ref="AB19:AN19" si="36">AB15-AB18</f>
+      <c r="AH19" s="12">
+        <f t="shared" ref="AH19:AT19" si="44">AH15-AH18</f>
         <v>8718.0959000000003</v>
       </c>
-      <c r="AC19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AI19" s="12">
+        <f t="shared" si="44"/>
         <v>9728.5138300000017</v>
       </c>
-      <c r="AD19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AJ19" s="12">
+        <f t="shared" si="44"/>
         <v>10229.8346102</v>
       </c>
-      <c r="AE19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AK19" s="12">
+        <f t="shared" si="44"/>
         <v>11157.876755644002</v>
       </c>
-      <c r="AF19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AL19" s="12">
+        <f t="shared" si="44"/>
         <v>12013.87519867288</v>
       </c>
-      <c r="AG19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AM19" s="12">
+        <f t="shared" si="44"/>
         <v>12722.449519770737</v>
       </c>
-      <c r="AH19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AN19" s="12">
+        <f t="shared" si="44"/>
         <v>13440.778645578113</v>
       </c>
-      <c r="AI19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AO19" s="12">
+        <f t="shared" si="44"/>
         <v>13933.438210360435</v>
       </c>
-      <c r="AJ19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AP19" s="12">
+        <f t="shared" si="44"/>
         <v>14119.587115951334</v>
       </c>
-      <c r="AK19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AQ19" s="12">
+        <f t="shared" si="44"/>
         <v>14314.376699702678</v>
       </c>
-      <c r="AL19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AR19" s="12">
+        <f t="shared" si="44"/>
         <v>14517.444662314694</v>
       </c>
-      <c r="AM19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AS19" s="12">
+        <f t="shared" si="44"/>
         <v>9458.2206317114887</v>
       </c>
-      <c r="AN19" s="13">
-        <f t="shared" si="36"/>
+      <c r="AT19" s="12">
+        <f t="shared" si="44"/>
         <v>4909.3846231760253</v>
       </c>
     </row>
-    <row r="20" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+        <v>125</v>
+      </c>
+      <c r="C20" s="12">
+        <f>10.543-18.686</f>
+        <v>-8.1430000000000007</v>
+      </c>
+      <c r="D20" s="12">
+        <f>13.971-18.744</f>
+        <v>-4.7729999999999997</v>
+      </c>
+      <c r="E20" s="12">
+        <f>15.615-14.868</f>
+        <v>0.74699999999999989</v>
+      </c>
+      <c r="F20" s="12">
+        <f>18.076-14.837</f>
+        <v>3.2390000000000008</v>
+      </c>
+      <c r="G20" s="12">
+        <f>17.628-14.548</f>
+        <v>3.08</v>
+      </c>
+      <c r="H20" s="12">
+        <f>12.359-14.249</f>
+        <v>-1.8900000000000006</v>
+      </c>
+      <c r="I20" s="12">
+        <f>12.576-14.136</f>
+        <v>-1.5599999999999987</v>
+      </c>
+      <c r="J20" s="12">
+        <f>4.243-13.871</f>
+        <v>-9.6280000000000001</v>
+      </c>
+      <c r="K20" s="12">
         <f>3.1-13.856</f>
         <v>-10.756</v>
       </c>
-      <c r="F20" s="13">
+      <c r="L20" s="12">
         <f>2.3-16.3</f>
         <v>-14</v>
       </c>
-      <c r="G20" s="13">
+      <c r="M20" s="12">
         <f>1.5-15.7</f>
         <v>-14.2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="N20" s="12">
         <f>1.1-15.5</f>
         <v>-14.4</v>
       </c>
-      <c r="I20" s="13">
+      <c r="O20" s="12">
         <f>1.116-15.255</f>
         <v>-14.139000000000001</v>
       </c>
-      <c r="J20" s="13">
+      <c r="P20" s="12">
         <f>1.2-15.1</f>
         <v>-13.9</v>
       </c>
-      <c r="K20" s="13">
+      <c r="Q20" s="12">
         <f>1.6-14.9</f>
         <v>-13.3</v>
       </c>
-      <c r="L20" s="13">
+      <c r="R20" s="12">
         <f>10.8-14.6</f>
         <v>-3.7999999999999989</v>
       </c>
-      <c r="M20" s="13">
-        <f t="shared" ref="M20:N20" si="37">+L20</f>
+      <c r="S20" s="12">
+        <f t="shared" ref="S20:T20" si="45">+R20</f>
         <v>-3.7999999999999989</v>
       </c>
-      <c r="N20" s="13">
-        <f t="shared" si="37"/>
+      <c r="T20" s="12">
+        <f t="shared" si="45"/>
         <v>-3.7999999999999989</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="AA20" s="2">
-        <f t="shared" ref="AA20:AA22" si="38">SUM(K20:N20)</f>
+      <c r="U20" s="12"/>
+      <c r="AG20" s="2">
+        <f t="shared" ref="AG20:AG22" si="46">SUM(Q20:T20)</f>
         <v>-24.699999999999996</v>
       </c>
-      <c r="AB20" s="2">
-        <f t="shared" ref="AB20:AN20" si="39">+AA32*$AQ$30</f>
+      <c r="AH20" s="2">
+        <f t="shared" ref="AH20:AT20" si="47">+AG32*$AW$30</f>
         <v>114.73649999999999</v>
       </c>
-      <c r="AC20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AI20" s="2">
+        <f t="shared" si="47"/>
         <v>185.39915919999999</v>
       </c>
-      <c r="AD20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AJ20" s="2">
+        <f t="shared" si="47"/>
         <v>264.71046311360004</v>
       </c>
-      <c r="AE20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AK20" s="2">
+        <f t="shared" si="47"/>
         <v>348.66682370010881</v>
       </c>
-      <c r="AF20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AL20" s="2">
+        <f t="shared" si="47"/>
         <v>440.71917233486164</v>
       </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AM20" s="2">
+        <f t="shared" si="47"/>
         <v>540.35592730292365</v>
       </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AN20" s="2">
+        <f t="shared" si="47"/>
         <v>646.45837087951293</v>
       </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AO20" s="2">
+        <f t="shared" si="47"/>
         <v>759.1562670111739</v>
       </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AP20" s="2">
+        <f t="shared" si="47"/>
         <v>876.69702283014681</v>
       </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AQ20" s="2">
+        <f t="shared" si="47"/>
         <v>996.66729594039862</v>
       </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AR20" s="2">
+        <f t="shared" si="47"/>
         <v>1119.1556479055432</v>
       </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AS20" s="2">
+        <f t="shared" si="47"/>
         <v>1244.2484503873052</v>
       </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="39"/>
+      <c r="AT20" s="2">
+        <f t="shared" si="47"/>
         <v>1329.8682030440955</v>
       </c>
     </row>
-    <row r="21" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" ref="C21:D21" si="48">+C19+C20</f>
+        <v>195.79700000000005</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="48"/>
+        <v>151.78</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" ref="E21:F21" si="49">+E19+E20</f>
+        <v>277.30200000000008</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="49"/>
+        <v>272.8189999999999</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" ref="G21:J21" si="50">+G19+G20</f>
+        <v>105.54400000000005</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="50"/>
+        <v>394.81000000000006</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="50"/>
+        <v>720.15699999999993</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="50"/>
+        <v>717.572</v>
+      </c>
+      <c r="K21" s="12">
+        <f>+K19+K20</f>
+        <v>663.01400000000001</v>
+      </c>
+      <c r="L21" s="12">
+        <f>+L19+L20</f>
+        <v>870.90000000000009</v>
+      </c>
+      <c r="M21" s="12">
+        <f>+M19+M20</f>
+        <v>985.8</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" ref="N21:Q21" si="51">+N19+N20</f>
+        <v>908.30000000000007</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="51"/>
+        <v>1041.4090000000003</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="51"/>
+        <v>1107.6999999999998</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="51"/>
+        <v>1251.4000000000001</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" ref="R21" si="52">+R19+R20</f>
+        <v>1116</v>
+      </c>
+      <c r="S21" s="12">
+        <f t="shared" ref="S21" si="53">+S19+S20</f>
+        <v>1314.22</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" ref="T21" si="54">+T19+T20</f>
+        <v>1404.43</v>
+      </c>
+      <c r="U21" s="12"/>
+      <c r="AG21" s="2">
+        <f>+AG19+AG20</f>
+        <v>5086.0500000000011</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" ref="AH21:AT21" si="55">+AH19+AH20</f>
+        <v>8832.8324000000011</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="55"/>
+        <v>9913.9129892000019</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="55"/>
+        <v>10494.5450733136</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="55"/>
+        <v>11506.54357934411</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="55"/>
+        <v>12454.594371007743</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" si="55"/>
+        <v>13262.805447073661</v>
+      </c>
+      <c r="AN21" s="2">
+        <f t="shared" si="55"/>
+        <v>14087.237016457626</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="55"/>
+        <v>14692.594477371609</v>
+      </c>
+      <c r="AP21" s="2">
+        <f t="shared" si="55"/>
+        <v>14996.284138781481</v>
+      </c>
+      <c r="AQ21" s="2">
+        <f t="shared" si="55"/>
+        <v>15311.043995643076</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" si="55"/>
+        <v>15636.600310220238</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" si="55"/>
+        <v>10702.469082098794</v>
+      </c>
+      <c r="AT21" s="2">
+        <f t="shared" si="55"/>
+        <v>6239.2528262201213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="13">
-        <f>+E19+E20</f>
-        <v>663.01400000000001</v>
-      </c>
-      <c r="F21" s="13">
-        <f>+F19+F20</f>
-        <v>870.90000000000009</v>
-      </c>
-      <c r="G21" s="13">
-        <f>+G19+G20</f>
-        <v>985.8</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" ref="H21:K21" si="40">+H19+H20</f>
-        <v>908.30000000000007</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" si="40"/>
-        <v>1041.4090000000003</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="40"/>
-        <v>1107.6999999999998</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="40"/>
-        <v>1251.4000000000001</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" ref="L21" si="41">+L19+L20</f>
-        <v>1116</v>
-      </c>
-      <c r="M21" s="13">
-        <f t="shared" ref="M21" si="42">+M19+M20</f>
-        <v>1314.22</v>
-      </c>
-      <c r="N21" s="13">
-        <f t="shared" ref="N21" si="43">+N19+N20</f>
-        <v>1404.43</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="AA21" s="2">
-        <f>+AA19+AA20</f>
-        <v>5086.0500000000011</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" ref="AB21:AN21" si="44">+AB19+AB20</f>
-        <v>8832.8324000000011</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="44"/>
-        <v>9913.9129892000019</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="44"/>
-        <v>10494.5450733136</v>
-      </c>
-      <c r="AE21" s="2">
-        <f t="shared" si="44"/>
-        <v>11506.54357934411</v>
-      </c>
-      <c r="AF21" s="2">
-        <f t="shared" si="44"/>
-        <v>12454.594371007743</v>
-      </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="44"/>
-        <v>13262.805447073661</v>
-      </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="44"/>
-        <v>14087.237016457626</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="44"/>
-        <v>14692.594477371609</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="44"/>
-        <v>14996.284138781481</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="44"/>
-        <v>15311.043995643076</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="44"/>
-        <v>15636.600310220238</v>
-      </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="44"/>
-        <v>10702.469082098794</v>
-      </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="44"/>
-        <v>6239.2528262201213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="12">
+        <v>8.0549999999999997</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>51.533999999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <v>59.710999999999999</v>
+      </c>
+      <c r="G22" s="12">
+        <v>13.148</v>
+      </c>
+      <c r="H22" s="12">
+        <v>93.715999999999994</v>
+      </c>
+      <c r="I22" s="12">
+        <v>54.780999999999999</v>
+      </c>
+      <c r="J22" s="12">
+        <v>-12.5</v>
+      </c>
+      <c r="K22" s="12">
+        <v>78.436999999999998</v>
+      </c>
+      <c r="L22" s="12">
+        <v>198</v>
+      </c>
+      <c r="M22" s="12">
+        <v>206</v>
+      </c>
+      <c r="N22" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="O22" s="12">
+        <v>230.81299999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>239</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>249</v>
+      </c>
+      <c r="R22" s="12">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="S22" s="12">
+        <v>249</v>
+      </c>
+      <c r="T22" s="12">
+        <v>249</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="AG22" s="2">
+        <f t="shared" si="46"/>
+        <v>1005.6</v>
+      </c>
+      <c r="AH22" s="2">
+        <f>+AH21*0.2</f>
+        <v>1766.5664800000004</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" ref="AI22:AT22" si="56">+AI21*0.2</f>
+        <v>1982.7825978400006</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="56"/>
+        <v>2098.90901466272</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="56"/>
+        <v>2301.3087158688222</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="56"/>
+        <v>2490.9188742015485</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="56"/>
+        <v>2652.5610894147321</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="56"/>
+        <v>2817.4474032915255</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="56"/>
+        <v>2938.5188954743221</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="56"/>
+        <v>2999.2568277562964</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="56"/>
+        <v>3062.2087991286153</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="56"/>
+        <v>3127.3200620440475</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="56"/>
+        <v>2140.4938164197588</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" si="56"/>
+        <v>1247.8505652440244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:111" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13">
-        <v>78.436999999999998</v>
-      </c>
-      <c r="F22" s="13">
-        <v>198</v>
-      </c>
-      <c r="G22" s="13">
-        <v>206</v>
-      </c>
-      <c r="H22" s="13">
-        <v>10.9</v>
-      </c>
-      <c r="I22" s="13">
-        <v>230.81299999999999</v>
-      </c>
-      <c r="J22" s="13">
-        <v>239</v>
-      </c>
-      <c r="K22" s="13">
-        <v>249</v>
-      </c>
-      <c r="L22" s="13">
-        <v>258.60000000000002</v>
-      </c>
-      <c r="M22" s="13">
-        <v>249</v>
-      </c>
-      <c r="N22" s="13">
-        <v>249</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="AA22" s="2">
-        <f t="shared" si="38"/>
-        <v>1005.6</v>
-      </c>
-      <c r="AB22" s="2">
-        <f>+AB21*0.2</f>
-        <v>1766.5664800000004</v>
-      </c>
-      <c r="AC22" s="2">
-        <f t="shared" ref="AC22:AN22" si="45">+AC21*0.2</f>
-        <v>1982.7825978400006</v>
-      </c>
-      <c r="AD22" s="2">
-        <f t="shared" si="45"/>
-        <v>2098.90901466272</v>
-      </c>
-      <c r="AE22" s="2">
-        <f t="shared" si="45"/>
-        <v>2301.3087158688222</v>
-      </c>
-      <c r="AF22" s="2">
-        <f t="shared" si="45"/>
-        <v>2490.9188742015485</v>
-      </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="45"/>
-        <v>2652.5610894147321</v>
-      </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="45"/>
-        <v>2817.4474032915255</v>
-      </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="45"/>
-        <v>2938.5188954743221</v>
-      </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="45"/>
-        <v>2999.2568277562964</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="45"/>
-        <v>3062.2087991286153</v>
-      </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="45"/>
-        <v>3127.3200620440475</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="45"/>
-        <v>2140.4938164197588</v>
-      </c>
-      <c r="AN22" s="2">
-        <f t="shared" si="45"/>
-        <v>1247.8505652440244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:105" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="12">
+        <f t="shared" ref="C23:D23" si="57">+C21-C22</f>
+        <v>187.74200000000005</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="57"/>
+        <v>151.78</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" ref="E23:F23" si="58">+E21-E22</f>
+        <v>225.76800000000009</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="58"/>
+        <v>213.10799999999989</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23:J23" si="59">+G21-G22</f>
+        <v>92.396000000000058</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="59"/>
+        <v>301.09400000000005</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="59"/>
+        <v>665.37599999999998</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="59"/>
+        <v>730.072</v>
+      </c>
+      <c r="K23" s="12">
+        <f>+K21-K22</f>
+        <v>584.577</v>
+      </c>
+      <c r="L23" s="12">
+        <f>+L21-L22</f>
+        <v>672.90000000000009</v>
+      </c>
+      <c r="M23" s="12">
+        <f>+M21-M22</f>
+        <v>779.8</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" ref="N23:T23" si="60">+N21-N22</f>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="60"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="60"/>
+        <v>868.69999999999982</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="60"/>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="60"/>
+        <v>857.4</v>
+      </c>
+      <c r="S23" s="12">
+        <f t="shared" si="60"/>
+        <v>1065.22</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="60"/>
+        <v>1155.43</v>
+      </c>
+      <c r="U23" s="12"/>
+      <c r="AG23" s="2">
+        <f>+AG21-AG22</f>
+        <v>4080.4500000000012</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" ref="AH23:AT23" si="61">+AH21-AH22</f>
+        <v>7066.2659200000007</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="61"/>
+        <v>7931.1303913600013</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="61"/>
+        <v>8395.6360586508799</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="61"/>
+        <v>9205.2348634752889</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="61"/>
+        <v>9963.6754968061941</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="61"/>
+        <v>10610.244357658928</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="61"/>
+        <v>11269.7896131661</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="61"/>
+        <v>11754.075581897287</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="61"/>
+        <v>11997.027311025184</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="61"/>
+        <v>12248.835196514461</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="61"/>
+        <v>12509.28024817619</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="61"/>
+        <v>8561.9752656790351</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="61"/>
+        <v>4991.4022609760968</v>
+      </c>
+      <c r="AU23" s="2">
+        <f>+AT23*(1+$AW$28)</f>
+        <v>4741.8321479272918</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" ref="AV23:DG23" si="62">+AU23*(1+$AW$28)</f>
+        <v>4504.7405405309273</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="62"/>
+        <v>4279.5035135043809</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="62"/>
+        <v>4065.5283378291615</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="62"/>
+        <v>3862.2519209377033</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="62"/>
+        <v>3669.139324890818</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="62"/>
+        <v>3485.682358646277</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="62"/>
+        <v>3311.3982407139629</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="62"/>
+        <v>3145.8283286782644</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" si="62"/>
+        <v>2988.5369122443508</v>
+      </c>
+      <c r="BE23" s="2">
+        <f t="shared" si="62"/>
+        <v>2839.1100666321331</v>
+      </c>
+      <c r="BF23" s="2">
+        <f t="shared" si="62"/>
+        <v>2697.1545633005262</v>
+      </c>
+      <c r="BG23" s="2">
+        <f t="shared" si="62"/>
+        <v>2562.2968351354998</v>
+      </c>
+      <c r="BH23" s="2">
+        <f t="shared" si="62"/>
+        <v>2434.1819933787247</v>
+      </c>
+      <c r="BI23" s="2">
+        <f t="shared" si="62"/>
+        <v>2312.4728937097884</v>
+      </c>
+      <c r="BJ23" s="2">
+        <f t="shared" si="62"/>
+        <v>2196.8492490242988</v>
+      </c>
+      <c r="BK23" s="2">
+        <f t="shared" si="62"/>
+        <v>2087.0067865730839</v>
+      </c>
+      <c r="BL23" s="2">
+        <f t="shared" si="62"/>
+        <v>1982.6564472444295</v>
+      </c>
+      <c r="BM23" s="2">
+        <f t="shared" si="62"/>
+        <v>1883.523624882208</v>
+      </c>
+      <c r="BN23" s="2">
+        <f t="shared" si="62"/>
+        <v>1789.3474436380975</v>
+      </c>
+      <c r="BO23" s="2">
+        <f t="shared" si="62"/>
+        <v>1699.8800714561926</v>
+      </c>
+      <c r="BP23" s="2">
+        <f t="shared" si="62"/>
+        <v>1614.8860678833828</v>
+      </c>
+      <c r="BQ23" s="2">
+        <f t="shared" si="62"/>
+        <v>1534.1417644892135</v>
+      </c>
+      <c r="BR23" s="2">
+        <f t="shared" si="62"/>
+        <v>1457.4346762647529</v>
+      </c>
+      <c r="BS23" s="2">
+        <f t="shared" si="62"/>
+        <v>1384.5629424515153</v>
+      </c>
+      <c r="BT23" s="2">
+        <f t="shared" si="62"/>
+        <v>1315.3347953289394</v>
+      </c>
+      <c r="BU23" s="2">
+        <f t="shared" si="62"/>
+        <v>1249.5680555624924</v>
+      </c>
+      <c r="BV23" s="2">
+        <f t="shared" si="62"/>
+        <v>1187.0896527843677</v>
+      </c>
+      <c r="BW23" s="2">
+        <f t="shared" si="62"/>
+        <v>1127.7351701451491</v>
+      </c>
+      <c r="BX23" s="2">
+        <f t="shared" si="62"/>
+        <v>1071.3484116378916</v>
+      </c>
+      <c r="BY23" s="2">
+        <f t="shared" si="62"/>
+        <v>1017.7809910559969</v>
+      </c>
+      <c r="BZ23" s="2">
+        <f t="shared" si="62"/>
+        <v>966.89194150319702</v>
+      </c>
+      <c r="CA23" s="2">
+        <f t="shared" si="62"/>
+        <v>918.54734442803715</v>
+      </c>
+      <c r="CB23" s="2">
+        <f t="shared" si="62"/>
+        <v>872.61997720663521</v>
+      </c>
+      <c r="CC23" s="2">
+        <f t="shared" si="62"/>
+        <v>828.98897834630338</v>
+      </c>
+      <c r="CD23" s="2">
+        <f t="shared" si="62"/>
+        <v>787.5395294289882</v>
+      </c>
+      <c r="CE23" s="2">
+        <f t="shared" si="62"/>
+        <v>748.16255295753876</v>
+      </c>
+      <c r="CF23" s="2">
+        <f t="shared" si="62"/>
+        <v>710.75442530966177</v>
+      </c>
+      <c r="CG23" s="2">
+        <f t="shared" si="62"/>
+        <v>675.21670404417864</v>
+      </c>
+      <c r="CH23" s="2">
+        <f t="shared" si="62"/>
+        <v>641.45586884196973</v>
+      </c>
+      <c r="CI23" s="2">
+        <f t="shared" si="62"/>
+        <v>609.38307539987125</v>
+      </c>
+      <c r="CJ23" s="2">
+        <f t="shared" si="62"/>
+        <v>578.91392162987768</v>
+      </c>
+      <c r="CK23" s="2">
+        <f t="shared" si="62"/>
+        <v>549.96822554838377</v>
+      </c>
+      <c r="CL23" s="2">
+        <f t="shared" si="62"/>
+        <v>522.46981427096455</v>
+      </c>
+      <c r="CM23" s="2">
+        <f t="shared" si="62"/>
+        <v>496.34632355741627</v>
+      </c>
+      <c r="CN23" s="2">
+        <f t="shared" si="62"/>
+        <v>471.52900737954542</v>
+      </c>
+      <c r="CO23" s="2">
+        <f t="shared" si="62"/>
+        <v>447.95255701056811</v>
+      </c>
+      <c r="CP23" s="2">
+        <f t="shared" si="62"/>
+        <v>425.55492916003971</v>
+      </c>
+      <c r="CQ23" s="2">
+        <f t="shared" si="62"/>
+        <v>404.27718270203769</v>
+      </c>
+      <c r="CR23" s="2">
+        <f t="shared" si="62"/>
+        <v>384.06332356693576</v>
+      </c>
+      <c r="CS23" s="2">
+        <f t="shared" si="62"/>
+        <v>364.86015738858896</v>
+      </c>
+      <c r="CT23" s="2">
+        <f t="shared" si="62"/>
+        <v>346.61714951915951</v>
+      </c>
+      <c r="CU23" s="2">
+        <f t="shared" si="62"/>
+        <v>329.28629204320151</v>
+      </c>
+      <c r="CV23" s="2">
+        <f t="shared" si="62"/>
+        <v>312.82197744104144</v>
+      </c>
+      <c r="CW23" s="2">
+        <f t="shared" si="62"/>
+        <v>297.18087856898933</v>
+      </c>
+      <c r="CX23" s="2">
+        <f t="shared" si="62"/>
+        <v>282.32183464053986</v>
+      </c>
+      <c r="CY23" s="2">
+        <f t="shared" si="62"/>
+        <v>268.20574290851283</v>
+      </c>
+      <c r="CZ23" s="2">
+        <f t="shared" si="62"/>
+        <v>254.79545576308718</v>
+      </c>
+      <c r="DA23" s="2">
+        <f t="shared" si="62"/>
+        <v>242.05568297493281</v>
+      </c>
+      <c r="DB23" s="2">
+        <f t="shared" si="62"/>
+        <v>229.95289882618616</v>
+      </c>
+      <c r="DC23" s="2">
+        <f t="shared" si="62"/>
+        <v>218.45525388487684</v>
+      </c>
+      <c r="DD23" s="2">
+        <f t="shared" si="62"/>
+        <v>207.53249119063298</v>
+      </c>
+      <c r="DE23" s="2">
+        <f t="shared" si="62"/>
+        <v>197.15586663110133</v>
+      </c>
+      <c r="DF23" s="2">
+        <f t="shared" si="62"/>
+        <v>187.29807329954625</v>
+      </c>
+      <c r="DG23" s="2">
+        <f t="shared" si="62"/>
+        <v>177.93316963456891</v>
+      </c>
+    </row>
+    <row r="24" spans="2:111" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="13">
-        <f>+E21-E22</f>
-        <v>584.577</v>
-      </c>
-      <c r="F23" s="13">
-        <f>+F21-F22</f>
-        <v>672.90000000000009</v>
-      </c>
-      <c r="G23" s="13">
-        <f>+G21-G22</f>
-        <v>779.8</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" ref="H23:N23" si="46">+H21-H22</f>
-        <v>897.40000000000009</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="46"/>
-        <v>810.59600000000034</v>
-      </c>
-      <c r="J23" s="13">
-        <f t="shared" si="46"/>
-        <v>868.69999999999982</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="shared" si="46"/>
-        <v>1002.4000000000001</v>
-      </c>
-      <c r="L23" s="13">
-        <f t="shared" si="46"/>
-        <v>857.4</v>
-      </c>
-      <c r="M23" s="13">
-        <f t="shared" si="46"/>
-        <v>1065.22</v>
-      </c>
-      <c r="N23" s="13">
-        <f t="shared" si="46"/>
-        <v>1155.43</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="AA23" s="2">
-        <f>+AA21-AA22</f>
-        <v>4080.4500000000012</v>
-      </c>
-      <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AN23" si="47">+AB21-AB22</f>
-        <v>7066.2659200000007</v>
-      </c>
-      <c r="AC23" s="2">
-        <f t="shared" si="47"/>
-        <v>7931.1303913600013</v>
-      </c>
-      <c r="AD23" s="2">
-        <f t="shared" si="47"/>
-        <v>8395.6360586508799</v>
-      </c>
-      <c r="AE23" s="2">
-        <f t="shared" si="47"/>
-        <v>9205.2348634752889</v>
-      </c>
-      <c r="AF23" s="2">
-        <f t="shared" si="47"/>
-        <v>9963.6754968061941</v>
-      </c>
-      <c r="AG23" s="2">
-        <f t="shared" si="47"/>
-        <v>10610.244357658928</v>
-      </c>
-      <c r="AH23" s="2">
-        <f t="shared" si="47"/>
-        <v>11269.7896131661</v>
-      </c>
-      <c r="AI23" s="2">
-        <f t="shared" si="47"/>
-        <v>11754.075581897287</v>
-      </c>
-      <c r="AJ23" s="2">
-        <f t="shared" si="47"/>
-        <v>11997.027311025184</v>
-      </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="47"/>
-        <v>12248.835196514461</v>
-      </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="47"/>
-        <v>12509.28024817619</v>
-      </c>
-      <c r="AM23" s="2">
-        <f t="shared" si="47"/>
-        <v>8561.9752656790351</v>
-      </c>
-      <c r="AN23" s="2">
-        <f t="shared" si="47"/>
-        <v>4991.4022609760968</v>
-      </c>
-      <c r="AO23" s="2">
-        <f>+AN23*(1+$AQ$28)</f>
-        <v>4741.8321479272918</v>
-      </c>
-      <c r="AP23" s="2">
-        <f t="shared" ref="AP23:DA23" si="48">+AO23*(1+$AQ$28)</f>
-        <v>4504.7405405309273</v>
-      </c>
-      <c r="AQ23" s="2">
-        <f t="shared" si="48"/>
-        <v>4279.5035135043809</v>
-      </c>
-      <c r="AR23" s="2">
-        <f t="shared" si="48"/>
-        <v>4065.5283378291615</v>
-      </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="48"/>
-        <v>3862.2519209377033</v>
-      </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="48"/>
-        <v>3669.139324890818</v>
-      </c>
-      <c r="AU23" s="2">
-        <f t="shared" si="48"/>
-        <v>3485.682358646277</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="48"/>
-        <v>3311.3982407139629</v>
-      </c>
-      <c r="AW23" s="2">
-        <f t="shared" si="48"/>
-        <v>3145.8283286782644</v>
-      </c>
-      <c r="AX23" s="2">
-        <f t="shared" si="48"/>
-        <v>2988.5369122443508</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="48"/>
-        <v>2839.1100666321331</v>
-      </c>
-      <c r="AZ23" s="2">
-        <f t="shared" si="48"/>
-        <v>2697.1545633005262</v>
-      </c>
-      <c r="BA23" s="2">
-        <f t="shared" si="48"/>
-        <v>2562.2968351354998</v>
-      </c>
-      <c r="BB23" s="2">
-        <f t="shared" si="48"/>
-        <v>2434.1819933787247</v>
-      </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="48"/>
-        <v>2312.4728937097884</v>
-      </c>
-      <c r="BD23" s="2">
-        <f t="shared" si="48"/>
-        <v>2196.8492490242988</v>
-      </c>
-      <c r="BE23" s="2">
-        <f t="shared" si="48"/>
-        <v>2087.0067865730839</v>
-      </c>
-      <c r="BF23" s="2">
-        <f t="shared" si="48"/>
-        <v>1982.6564472444295</v>
-      </c>
-      <c r="BG23" s="2">
-        <f t="shared" si="48"/>
-        <v>1883.523624882208</v>
-      </c>
-      <c r="BH23" s="2">
-        <f t="shared" si="48"/>
-        <v>1789.3474436380975</v>
-      </c>
-      <c r="BI23" s="2">
-        <f t="shared" si="48"/>
-        <v>1699.8800714561926</v>
-      </c>
-      <c r="BJ23" s="2">
-        <f t="shared" si="48"/>
-        <v>1614.8860678833828</v>
-      </c>
-      <c r="BK23" s="2">
-        <f t="shared" si="48"/>
-        <v>1534.1417644892135</v>
-      </c>
-      <c r="BL23" s="2">
-        <f t="shared" si="48"/>
-        <v>1457.4346762647529</v>
-      </c>
-      <c r="BM23" s="2">
-        <f t="shared" si="48"/>
-        <v>1384.5629424515153</v>
-      </c>
-      <c r="BN23" s="2">
-        <f t="shared" si="48"/>
-        <v>1315.3347953289394</v>
-      </c>
-      <c r="BO23" s="2">
-        <f t="shared" si="48"/>
-        <v>1249.5680555624924</v>
-      </c>
-      <c r="BP23" s="2">
-        <f t="shared" si="48"/>
-        <v>1187.0896527843677</v>
-      </c>
-      <c r="BQ23" s="2">
-        <f t="shared" si="48"/>
-        <v>1127.7351701451491</v>
-      </c>
-      <c r="BR23" s="2">
-        <f t="shared" si="48"/>
-        <v>1071.3484116378916</v>
-      </c>
-      <c r="BS23" s="2">
-        <f t="shared" si="48"/>
-        <v>1017.7809910559969</v>
-      </c>
-      <c r="BT23" s="2">
-        <f t="shared" si="48"/>
-        <v>966.89194150319702</v>
-      </c>
-      <c r="BU23" s="2">
-        <f t="shared" si="48"/>
-        <v>918.54734442803715</v>
-      </c>
-      <c r="BV23" s="2">
-        <f t="shared" si="48"/>
-        <v>872.61997720663521</v>
-      </c>
-      <c r="BW23" s="2">
-        <f t="shared" si="48"/>
-        <v>828.98897834630338</v>
-      </c>
-      <c r="BX23" s="2">
-        <f t="shared" si="48"/>
-        <v>787.5395294289882</v>
-      </c>
-      <c r="BY23" s="2">
-        <f t="shared" si="48"/>
-        <v>748.16255295753876</v>
-      </c>
-      <c r="BZ23" s="2">
-        <f t="shared" si="48"/>
-        <v>710.75442530966177</v>
-      </c>
-      <c r="CA23" s="2">
-        <f t="shared" si="48"/>
-        <v>675.21670404417864</v>
-      </c>
-      <c r="CB23" s="2">
-        <f t="shared" si="48"/>
-        <v>641.45586884196973</v>
-      </c>
-      <c r="CC23" s="2">
-        <f t="shared" si="48"/>
-        <v>609.38307539987125</v>
-      </c>
-      <c r="CD23" s="2">
-        <f t="shared" si="48"/>
-        <v>578.91392162987768</v>
-      </c>
-      <c r="CE23" s="2">
-        <f t="shared" si="48"/>
-        <v>549.96822554838377</v>
-      </c>
-      <c r="CF23" s="2">
-        <f t="shared" si="48"/>
-        <v>522.46981427096455</v>
-      </c>
-      <c r="CG23" s="2">
-        <f t="shared" si="48"/>
-        <v>496.34632355741627</v>
-      </c>
-      <c r="CH23" s="2">
-        <f t="shared" si="48"/>
-        <v>471.52900737954542</v>
-      </c>
-      <c r="CI23" s="2">
-        <f t="shared" si="48"/>
-        <v>447.95255701056811</v>
-      </c>
-      <c r="CJ23" s="2">
-        <f t="shared" si="48"/>
-        <v>425.55492916003971</v>
-      </c>
-      <c r="CK23" s="2">
-        <f t="shared" si="48"/>
-        <v>404.27718270203769</v>
-      </c>
-      <c r="CL23" s="2">
-        <f t="shared" si="48"/>
-        <v>384.06332356693576</v>
-      </c>
-      <c r="CM23" s="2">
-        <f t="shared" si="48"/>
-        <v>364.86015738858896</v>
-      </c>
-      <c r="CN23" s="2">
-        <f t="shared" si="48"/>
-        <v>346.61714951915951</v>
-      </c>
-      <c r="CO23" s="2">
-        <f t="shared" si="48"/>
-        <v>329.28629204320151</v>
-      </c>
-      <c r="CP23" s="2">
-        <f t="shared" si="48"/>
-        <v>312.82197744104144</v>
-      </c>
-      <c r="CQ23" s="2">
-        <f t="shared" si="48"/>
-        <v>297.18087856898933</v>
-      </c>
-      <c r="CR23" s="2">
-        <f t="shared" si="48"/>
-        <v>282.32183464053986</v>
-      </c>
-      <c r="CS23" s="2">
-        <f t="shared" si="48"/>
-        <v>268.20574290851283</v>
-      </c>
-      <c r="CT23" s="2">
-        <f t="shared" si="48"/>
-        <v>254.79545576308718</v>
-      </c>
-      <c r="CU23" s="2">
-        <f t="shared" si="48"/>
-        <v>242.05568297493281</v>
-      </c>
-      <c r="CV23" s="2">
-        <f t="shared" si="48"/>
-        <v>229.95289882618616</v>
-      </c>
-      <c r="CW23" s="2">
-        <f t="shared" si="48"/>
-        <v>218.45525388487684</v>
-      </c>
-      <c r="CX23" s="2">
-        <f t="shared" si="48"/>
-        <v>207.53249119063298</v>
-      </c>
-      <c r="CY23" s="2">
-        <f t="shared" si="48"/>
-        <v>197.15586663110133</v>
-      </c>
-      <c r="CZ23" s="2">
-        <f t="shared" si="48"/>
-        <v>187.29807329954625</v>
-      </c>
-      <c r="DA23" s="2">
-        <f t="shared" si="48"/>
-        <v>177.93316963456891</v>
-      </c>
-    </row>
-    <row r="24" spans="2:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22">
-        <f t="shared" ref="E24" si="49">+E23/E25</f>
+      <c r="C24" s="21">
+        <f t="shared" ref="C24:D24" si="63">+C23/C25</f>
+        <v>0.72267387254222692</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="63"/>
+        <v>0.58419164626730091</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" ref="E24:G24" si="64">+E23/E25</f>
+        <v>0.86775439607956217</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="64"/>
+        <v>0.82020768064290128</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="64"/>
+        <v>0.35472390612462734</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:I24" si="65">+H23/H25</f>
+        <v>1.1487402139576055</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="65"/>
+        <v>2.5250023717814924</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" ref="J24:K24" si="66">+J23/J25</f>
+        <v>2.771692046028329</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="66"/>
         <v>2.2136444018645935</v>
       </c>
-      <c r="F24" s="22">
-        <f t="shared" ref="F24:J24" si="50">+F23/F25</f>
+      <c r="L24" s="21">
+        <f t="shared" ref="L24:P24" si="67">+L23/L25</f>
         <v>2.5575826681870013</v>
       </c>
-      <c r="G24" s="22">
-        <f t="shared" si="50"/>
+      <c r="M24" s="21">
+        <f t="shared" si="67"/>
         <v>2.9774723176785032</v>
       </c>
-      <c r="H24" s="22">
-        <f t="shared" si="50"/>
+      <c r="N24" s="21">
+        <f t="shared" si="67"/>
         <v>3.438314176245211</v>
       </c>
-      <c r="I24" s="22">
-        <f t="shared" si="50"/>
+      <c r="O24" s="21">
+        <f t="shared" si="67"/>
         <v>3.1211942689261374</v>
       </c>
-      <c r="J24" s="22">
-        <f t="shared" si="50"/>
+      <c r="P24" s="21">
+        <f t="shared" si="67"/>
         <v>3.3801556420233454</v>
       </c>
-      <c r="K24" s="22">
-        <f>+K23/K25</f>
+      <c r="Q24" s="21">
+        <f>+Q23/Q25</f>
         <v>3.8867778208607993</v>
       </c>
-      <c r="L24" s="22">
-        <f t="shared" ref="L24:N24" si="51">+L23/L25</f>
+      <c r="R24" s="21">
+        <f t="shared" ref="R24:T24" si="68">+R23/R25</f>
         <v>3.3142636258214146</v>
       </c>
-      <c r="M24" s="22">
-        <f t="shared" si="51"/>
+      <c r="S24" s="21">
+        <f t="shared" si="68"/>
         <v>4.1175879396984927</v>
       </c>
-      <c r="N24" s="22">
-        <f t="shared" si="51"/>
+      <c r="T24" s="21">
+        <f t="shared" si="68"/>
         <v>4.4662930034789339</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="AA24" s="1">
-        <f>+AA23/AA25</f>
+      <c r="U24" s="21"/>
+      <c r="AG24" s="1">
+        <f>+AG23/AG25</f>
         <v>15.785106382978729</v>
       </c>
-      <c r="AB24" s="1">
-        <f t="shared" ref="AB24:AN24" si="52">+AB23/AB25</f>
+      <c r="AH24" s="1">
+        <f t="shared" ref="AH24:AT24" si="69">+AH23/AH25</f>
         <v>27.335651528046423</v>
       </c>
-      <c r="AC24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AI24" s="1">
+        <f t="shared" si="69"/>
         <v>30.681355479148941</v>
       </c>
-      <c r="AD24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AJ24" s="1">
+        <f t="shared" si="69"/>
         <v>32.478282625341897</v>
       </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AK24" s="1">
+        <f t="shared" si="69"/>
         <v>35.610192895455661</v>
       </c>
-      <c r="AF24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AL24" s="1">
+        <f t="shared" si="69"/>
         <v>38.544199213950463</v>
       </c>
-      <c r="AG24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AM24" s="1">
+        <f t="shared" si="69"/>
         <v>41.045432718216361</v>
       </c>
-      <c r="AH24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AN24" s="1">
+        <f t="shared" si="69"/>
         <v>43.596865041261509</v>
       </c>
-      <c r="AI24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AO24" s="1">
+        <f t="shared" si="69"/>
         <v>45.470311728809619</v>
       </c>
-      <c r="AJ24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AP24" s="1">
+        <f t="shared" si="69"/>
         <v>46.410163679014254</v>
       </c>
-      <c r="AK24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AQ24" s="1">
+        <f t="shared" si="69"/>
         <v>47.384275421719387</v>
       </c>
-      <c r="AL24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AR24" s="1">
+        <f t="shared" si="69"/>
         <v>48.391799799521046</v>
       </c>
-      <c r="AM24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AS24" s="1">
+        <f t="shared" si="69"/>
         <v>33.121761182510774</v>
       </c>
-      <c r="AN24" s="1">
-        <f t="shared" si="52"/>
+      <c r="AT24" s="1">
+        <f t="shared" si="69"/>
         <v>19.309099655613526</v>
       </c>
     </row>
-    <row r="25" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13">
+      <c r="C25" s="12">
+        <v>259.78800000000001</v>
+      </c>
+      <c r="D25" s="12">
+        <v>259.81200000000001</v>
+      </c>
+      <c r="E25" s="12">
+        <v>260.17500000000001</v>
+      </c>
+      <c r="F25" s="12">
+        <v>259.822</v>
+      </c>
+      <c r="G25" s="12">
+        <v>260.47300000000001</v>
+      </c>
+      <c r="H25" s="12">
+        <v>262.108</v>
+      </c>
+      <c r="I25" s="12">
+        <v>263.51499999999999</v>
+      </c>
+      <c r="J25" s="12">
+        <v>263.40300000000002</v>
+      </c>
+      <c r="K25" s="12">
         <v>264.07900000000001</v>
       </c>
-      <c r="F25" s="13">
+      <c r="L25" s="12">
         <v>263.10000000000002</v>
       </c>
-      <c r="G25" s="13">
+      <c r="M25" s="12">
         <v>261.89999999999998</v>
       </c>
-      <c r="H25" s="13">
+      <c r="N25" s="12">
         <v>261</v>
       </c>
-      <c r="I25" s="13">
+      <c r="O25" s="12">
         <v>259.70699999999999</v>
       </c>
-      <c r="J25" s="13">
+      <c r="P25" s="12">
         <v>257</v>
       </c>
-      <c r="K25" s="13">
+      <c r="Q25" s="12">
         <v>257.89999999999998</v>
       </c>
-      <c r="L25" s="13">
+      <c r="R25" s="12">
         <v>258.7</v>
       </c>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25:N25" si="53">+L25</f>
+      <c r="S25" s="12">
+        <f t="shared" ref="S25:T25" si="70">+R25</f>
         <v>258.7</v>
       </c>
-      <c r="N25" s="13">
-        <f t="shared" si="53"/>
+      <c r="T25" s="12">
+        <f t="shared" si="70"/>
         <v>258.7</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="AA25" s="2">
-        <f>AVERAGE(K25:N25)</f>
+      <c r="U25" s="12"/>
+      <c r="AG25" s="2">
+        <f>AVERAGE(Q25:T25)</f>
         <v>258.5</v>
       </c>
-      <c r="AB25" s="2">
-        <f>+AA25</f>
+      <c r="AH25" s="2">
+        <f>+AG25</f>
         <v>258.5</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" ref="AC25:AN25" si="54">+AB25</f>
+      <c r="AI25" s="2">
+        <f t="shared" ref="AI25:AT25" si="71">+AH25</f>
         <v>258.5</v>
       </c>
-      <c r="AD25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AJ25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AK25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AF25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AL25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AM25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AN25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AI25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AO25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AJ25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AP25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AQ25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AL25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AR25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AS25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="54"/>
+      <c r="AT25" s="2">
+        <f t="shared" si="71"/>
         <v>258.5</v>
       </c>
     </row>
-    <row r="27" spans="2:105" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26">
+    <row r="27" spans="2:111" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25">
+        <f>+G13/C13-1</f>
+        <v>0.21328224776500648</v>
+      </c>
+      <c r="H27" s="25">
+        <f>+H13/D13-1</f>
+        <v>0.44493886310784858</v>
+      </c>
+      <c r="I27" s="25">
         <f>+I13/E13-1</f>
+        <v>0.76535979547461963</v>
+      </c>
+      <c r="J27" s="25">
+        <f>+J13/F13-1</f>
+        <v>0.62012853473169161</v>
+      </c>
+      <c r="K27" s="25">
+        <f>+K13/G13-1</f>
+        <v>0.61894736842105269</v>
+      </c>
+      <c r="L27" s="25">
+        <f>+L13/H13-1</f>
+        <v>0.29435163086714389</v>
+      </c>
+      <c r="M27" s="25">
+        <f>+M13/I13-1</f>
+        <v>0.13749174917491747</v>
+      </c>
+      <c r="N27" s="25">
+        <f>+N13/J13-1</f>
+        <v>0.176856468118604</v>
+      </c>
+      <c r="O27" s="25">
+        <f>+O13/K13-1</f>
         <v>0.28998699609882972</v>
       </c>
-      <c r="J27" s="26">
-        <f>+J13/F13-1</f>
+      <c r="P27" s="25">
+        <f>+P13/L13-1</f>
         <v>0.27350952673632456</v>
       </c>
-      <c r="K27" s="26">
-        <f t="shared" ref="K27:N27" si="55">+K13/G13-1</f>
+      <c r="Q27" s="25">
+        <f t="shared" ref="Q27:T27" si="72">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
-      <c r="L27" s="26">
-        <f t="shared" si="55"/>
+      <c r="R27" s="25">
+        <f t="shared" si="72"/>
         <v>0.2246376811594204</v>
       </c>
-      <c r="M27" s="26">
-        <f t="shared" si="55"/>
+      <c r="S27" s="25">
+        <f t="shared" si="72"/>
         <v>0.15625</v>
       </c>
-      <c r="N27" s="26">
-        <f t="shared" si="55"/>
+      <c r="T27" s="25">
+        <f t="shared" si="72"/>
         <v>0.15395752895752901</v>
       </c>
-      <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="2:105" x14ac:dyDescent="0.2">
+      <c r="U27" s="24"/>
+    </row>
+    <row r="28" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" ref="E28:F28" si="56">E15/E13</f>
+        <v>183</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" ref="C28" si="73">C15/C13</f>
+        <v>0.85791187739463604</v>
+      </c>
+      <c r="D28" s="19">
+        <f t="shared" ref="D28:I28" si="74">D15/D13</f>
+        <v>0.8594271053058109</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="74"/>
+        <v>0.88919366754371454</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="74"/>
+        <v>0.8557358650587249</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" si="74"/>
+        <v>0.86114315789473683</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="74"/>
+        <v>0.8528146380270486</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" ref="I28:J28" si="75">I15/I13</f>
+        <v>0.8927412541254125</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="75"/>
+        <v>0.87896877459984257</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" ref="K28:L28" si="76">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
-      <c r="F28" s="20">
-        <f t="shared" si="56"/>
+      <c r="L28" s="19">
+        <f t="shared" si="76"/>
         <v>0.87516902274124164</v>
       </c>
-      <c r="G28" s="20">
-        <f t="shared" ref="G28:J28" si="57">G15/G13</f>
+      <c r="M28" s="19">
+        <f t="shared" ref="M28:P28" si="77">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" si="57"/>
+      <c r="N28" s="19">
+        <f t="shared" si="77"/>
         <v>0.87290969899665549</v>
       </c>
-      <c r="I28" s="20">
-        <f t="shared" si="57"/>
+      <c r="O28" s="19">
+        <f t="shared" si="77"/>
         <v>0.88079032258064516</v>
       </c>
-      <c r="J28" s="20">
-        <f t="shared" si="57"/>
+      <c r="P28" s="19">
+        <f t="shared" si="77"/>
         <v>0.88059845559845551</v>
       </c>
-      <c r="K28" s="20">
-        <f t="shared" ref="K28:L28" si="58">K15/K13</f>
+      <c r="Q28" s="19">
+        <f t="shared" ref="Q28:R28" si="78">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
-      <c r="L28" s="20">
-        <f t="shared" si="58"/>
+      <c r="R28" s="19">
+        <f t="shared" si="78"/>
         <v>0.88083750568957675</v>
       </c>
-      <c r="M28" s="20">
-        <f>M15/M13</f>
+      <c r="S28" s="19">
+        <f>S15/S13</f>
         <v>0.93</v>
       </c>
-      <c r="N28" s="20">
-        <f>N15/N13</f>
+      <c r="T28" s="19">
+        <f>T15/T13</f>
         <v>0.93</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="Z28" s="20">
-        <f t="shared" ref="Z28:AA28" si="59">Z15/Z13</f>
+      <c r="U28" s="19"/>
+      <c r="AF28" s="19">
+        <f t="shared" ref="AF28:AG28" si="79">AF15/AF13</f>
         <v>0.88060528435424446</v>
       </c>
-      <c r="AA28" s="20">
-        <f t="shared" si="59"/>
+      <c r="AG28" s="19">
+        <f t="shared" si="79"/>
         <v>0.91808563951222233</v>
       </c>
-      <c r="AB28" s="20">
-        <f t="shared" ref="AB28:AN28" si="60">AB15/AB13</f>
+      <c r="AH28" s="19">
+        <f t="shared" ref="AH28:AT28" si="80">AH15/AH13</f>
         <v>0.93</v>
       </c>
-      <c r="AC28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AI28" s="19">
+        <f t="shared" si="80"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AD28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AJ28" s="19">
+        <f t="shared" si="80"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AE28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AK28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AF28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AL28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AG28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AM28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AH28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AN28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AI28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AO28" s="19">
+        <f t="shared" si="80"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AJ28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AP28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AK28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AQ28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AL28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AR28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AM28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AS28" s="19">
+        <f t="shared" si="80"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AN28" s="20">
-        <f t="shared" si="60"/>
+      <c r="AT28" s="19">
+        <f t="shared" si="80"/>
         <v>0.93</v>
       </c>
-      <c r="AP28" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ28" s="24">
+      <c r="AV28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW28" s="23">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="19">
+        <f t="shared" ref="C29" si="81">+C16/C13</f>
+        <v>0.17534482758620687</v>
+      </c>
+      <c r="D29" s="19">
+        <f t="shared" ref="D29:I29" si="82">+D16/D13</f>
+        <v>0.17611701131006641</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="82"/>
+        <v>0.1713447730201752</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="82"/>
+        <v>0.16632993698673523</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="82"/>
+        <v>0.16807789473684212</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="82"/>
+        <v>0.15535163086714399</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" ref="I29:J29" si="83">+I16/I13</f>
+        <v>0.12030231023102311</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="83"/>
+        <v>0.12581999475203359</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" ref="K29:S29" si="84">+K16/K13</f>
+        <v>0.11999414824447334</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" si="84"/>
+        <v>0.107559926244622</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="84"/>
+        <v>8.7622584576103987E-2</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="84"/>
+        <v>0.1084726867335563</v>
+      </c>
+      <c r="O29" s="19">
+        <f t="shared" si="84"/>
+        <v>9.9893649193548387E-2</v>
+      </c>
+      <c r="P29" s="19">
+        <f t="shared" si="84"/>
+        <v>0.10135135135135136</v>
+      </c>
+      <c r="Q29" s="19">
+        <f t="shared" si="84"/>
+        <v>7.9618593563766382E-2</v>
+      </c>
+      <c r="R29" s="19">
+        <f t="shared" si="84"/>
+        <v>9.7997269003186172E-2</v>
+      </c>
+      <c r="S29" s="19">
+        <f t="shared" si="84"/>
+        <v>9.3853530950305145E-2</v>
+      </c>
+      <c r="T29" s="19">
+        <f>+T16/T13</f>
+        <v>9.0046005855290684E-2</v>
+      </c>
+      <c r="U29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19">
+        <f>+AG16/AG13</f>
+        <v>9.0528425858900835E-2</v>
+      </c>
+      <c r="AH29" s="19">
+        <f t="shared" ref="AH29:AT29" si="85">+AH16/AH13</f>
+        <v>0.1</v>
+      </c>
+      <c r="AI29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AL29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AP29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AR29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AS29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AT29" s="19">
+        <f t="shared" si="85"/>
+        <v>0.1</v>
+      </c>
+      <c r="AV29" t="s">
         <v>299</v>
       </c>
-      <c r="E29" s="20">
-        <f t="shared" ref="E29:N29" si="61">+E16/E13</f>
-        <v>0.11999414824447334</v>
-      </c>
-      <c r="F29" s="20">
-        <f t="shared" si="61"/>
-        <v>0.107559926244622</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="61"/>
-        <v>8.7622584576103987E-2</v>
-      </c>
-      <c r="H29" s="20">
-        <f t="shared" si="61"/>
-        <v>0.1084726867335563</v>
-      </c>
-      <c r="I29" s="20">
-        <f t="shared" si="61"/>
-        <v>9.9893649193548387E-2</v>
-      </c>
-      <c r="J29" s="20">
-        <f t="shared" si="61"/>
-        <v>0.10135135135135136</v>
-      </c>
-      <c r="K29" s="20">
-        <f t="shared" si="61"/>
-        <v>7.9618593563766382E-2</v>
-      </c>
-      <c r="L29" s="20">
-        <f t="shared" si="61"/>
-        <v>9.7997269003186172E-2</v>
-      </c>
-      <c r="M29" s="20">
-        <f t="shared" si="61"/>
-        <v>9.3853530950305145E-2</v>
-      </c>
-      <c r="N29" s="20">
-        <f>+N16/N13</f>
-        <v>9.0046005855290684E-2</v>
-      </c>
-      <c r="O29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20">
-        <f>+AA16/AA13</f>
-        <v>9.0528425858900835E-2</v>
-      </c>
-      <c r="AB29" s="20">
-        <f t="shared" ref="AB29:AN29" si="62">+AB16/AB13</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AE29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="AF29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AG29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AH29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AI29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AJ29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AK29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AL29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AM29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AN29" s="20">
-        <f t="shared" si="62"/>
-        <v>0.1</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ29" s="24">
+      <c r="AW29" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" ref="E30:F30" si="63">E22/E21</f>
+        <v>186</v>
+      </c>
+      <c r="C30" s="19">
+        <f t="shared" ref="C30" si="86">C22/C21</f>
+        <v>4.1139547592659732E-2</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" ref="D30:I30" si="87">D22/D21</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="87"/>
+        <v>0.18584070796460173</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="87"/>
+        <v>0.21886672115945011</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="87"/>
+        <v>0.1245736375350564</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="87"/>
+        <v>0.23736987411666366</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" ref="I30:J30" si="88">I22/I21</f>
+        <v>7.6068135142753596E-2</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="88"/>
+        <v>-1.7419854732347417E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" ref="K30:L30" si="89">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
-      <c r="F30" s="20">
-        <f t="shared" si="63"/>
+      <c r="L30" s="19">
+        <f t="shared" si="89"/>
         <v>0.22735101619014811</v>
       </c>
-      <c r="G30" s="20">
-        <f>G22/G21</f>
+      <c r="M30" s="19">
+        <f>M22/M21</f>
         <v>0.20896733617366606</v>
       </c>
-      <c r="H30" s="20">
-        <f t="shared" ref="H30:N30" si="64">H22/H21</f>
+      <c r="N30" s="19">
+        <f t="shared" ref="N30:T30" si="90">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
-      <c r="I30" s="20">
-        <f t="shared" si="64"/>
+      <c r="O30" s="19">
+        <f t="shared" si="90"/>
         <v>0.22163530370872531</v>
       </c>
-      <c r="J30" s="20">
-        <f t="shared" si="64"/>
+      <c r="P30" s="19">
+        <f t="shared" si="90"/>
         <v>0.21576239053895463</v>
       </c>
-      <c r="K30" s="20">
-        <f t="shared" si="64"/>
+      <c r="Q30" s="19">
+        <f t="shared" si="90"/>
         <v>0.19897714559693142</v>
       </c>
-      <c r="L30" s="20">
-        <f t="shared" si="64"/>
+      <c r="R30" s="19">
+        <f t="shared" si="90"/>
         <v>0.23172043010752691</v>
       </c>
-      <c r="M30" s="20">
-        <f t="shared" si="64"/>
+      <c r="S30" s="19">
+        <f t="shared" si="90"/>
         <v>0.18946599503888237</v>
       </c>
-      <c r="N30" s="20">
-        <f t="shared" si="64"/>
+      <c r="T30" s="19">
+        <f t="shared" si="90"/>
         <v>0.17729612725447333</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="AA30" s="24">
-        <f>+AA22/AA21</f>
+      <c r="U30" s="19"/>
+      <c r="AG30" s="23">
+        <f>+AG22/AG21</f>
         <v>0.19771728551626505</v>
       </c>
-      <c r="AB30" s="24">
-        <f t="shared" ref="AB30:AN30" si="65">+AB22/AB21</f>
+      <c r="AH30" s="23">
+        <f t="shared" ref="AH30:AT30" si="91">+AH22/AH21</f>
         <v>0.2</v>
       </c>
-      <c r="AC30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AI30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AD30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AJ30" s="23">
+        <f t="shared" si="91"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AE30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AK30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AF30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AL30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AG30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AM30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AH30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AN30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AI30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AO30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AJ30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AP30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AK30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AQ30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AL30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AR30" s="23">
+        <f t="shared" si="91"/>
         <v>0.2</v>
       </c>
-      <c r="AM30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AS30" s="23">
+        <f t="shared" si="91"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AN30" s="24">
-        <f t="shared" si="65"/>
+      <c r="AT30" s="23">
+        <f t="shared" si="91"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AV30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW30" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:111" x14ac:dyDescent="0.2">
+      <c r="AV31" t="s">
         <v>300</v>
       </c>
-      <c r="AQ30" s="24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:105" x14ac:dyDescent="0.2">
-      <c r="AP31" t="s">
-        <v>302</v>
-      </c>
-      <c r="AQ31" s="2">
-        <f>NPV(AQ29,AB23:BY23)+Main!M5-Main!M6</f>
+      <c r="AW31" s="2">
+        <f>NPV(AW29,AH23:CE23)+Main!M5-Main!M6</f>
         <v>105458.5449224412</v>
       </c>
     </row>
-    <row r="32" spans="2:105" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12">
         <f>7600.1+638</f>
         <v>8238.1</v>
       </c>
-      <c r="L32" s="13">
+      <c r="R32" s="12">
         <v>9253</v>
       </c>
-      <c r="M32" s="13">
-        <f t="shared" ref="M32:N32" si="66">+L32+M23</f>
+      <c r="S32" s="12">
+        <f t="shared" ref="S32:T32" si="92">+R32+S23</f>
         <v>10318.219999999999</v>
       </c>
-      <c r="N32" s="13">
-        <f t="shared" si="66"/>
+      <c r="T32" s="12">
+        <f t="shared" si="92"/>
         <v>11473.65</v>
       </c>
-      <c r="O32" s="13"/>
-      <c r="AA32" s="2">
-        <f>+N32</f>
+      <c r="U32" s="12"/>
+      <c r="AG32" s="2">
+        <f>+T32</f>
         <v>11473.65</v>
       </c>
-      <c r="AB32" s="2">
-        <f>+AA32+AB23</f>
+      <c r="AH32" s="2">
+        <f>+AG32+AH23</f>
         <v>18539.915919999999</v>
       </c>
-      <c r="AC32" s="2">
-        <f t="shared" ref="AC32:AN32" si="67">+AB32+AC23</f>
+      <c r="AI32" s="2">
+        <f t="shared" ref="AI32:AT32" si="93">+AH32+AI23</f>
         <v>26471.046311360002</v>
       </c>
-      <c r="AD32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AJ32" s="2">
+        <f t="shared" si="93"/>
         <v>34866.68237001088</v>
       </c>
-      <c r="AE32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AK32" s="2">
+        <f t="shared" si="93"/>
         <v>44071.917233486165</v>
       </c>
-      <c r="AF32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AL32" s="2">
+        <f t="shared" si="93"/>
         <v>54035.592730292359</v>
       </c>
-      <c r="AG32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AM32" s="2">
+        <f t="shared" si="93"/>
         <v>64645.837087951288</v>
       </c>
-      <c r="AH32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AN32" s="2">
+        <f t="shared" si="93"/>
         <v>75915.626701117391</v>
       </c>
-      <c r="AI32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AO32" s="2">
+        <f t="shared" si="93"/>
         <v>87669.702283014674</v>
       </c>
-      <c r="AJ32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AP32" s="2">
+        <f t="shared" si="93"/>
         <v>99666.729594039862</v>
       </c>
-      <c r="AK32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AQ32" s="2">
+        <f t="shared" si="93"/>
         <v>111915.56479055432</v>
       </c>
-      <c r="AL32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AR32" s="2">
+        <f t="shared" si="93"/>
         <v>124424.84503873051</v>
       </c>
-      <c r="AM32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AS32" s="2">
+        <f t="shared" si="93"/>
         <v>132986.82030440954</v>
       </c>
-      <c r="AN32" s="2">
-        <f t="shared" si="67"/>
+      <c r="AT32" s="2">
+        <f t="shared" si="93"/>
         <v>137978.22256538563</v>
       </c>
-      <c r="AP32" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ32" s="1">
-        <f>AQ31/Main!M3</f>
+      <c r="AV32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW32" s="1">
+        <f>AW31/Main!M3</f>
         <v>411.94744110328594</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12">
+        <v>1292.8</v>
+      </c>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+    </row>
+    <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12">
+        <v>338.9</v>
+      </c>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+    </row>
+    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13">
-        <v>1292.8</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12">
+        <v>491.5</v>
+      </c>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+    </row>
+    <row r="36" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13">
-        <v>338.9</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12">
+        <v>1107.4000000000001</v>
+      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13">
-        <v>491.5</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
-        <v>1107.4000000000001</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12">
         <f>1002.2+400</f>
         <v>1402.2</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+    </row>
+    <row r="38" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13">
+        <v>127</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12">
         <v>945.5</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+    </row>
+    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12">
+        <v>329</v>
+      </c>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12">
+        <v>110.7</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12">
+        <f>SUM(Q32:Q40)</f>
+        <v>14256.1</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" ref="R41" si="94">SUM(R32:R40)</f>
+        <v>9253</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+    </row>
+    <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13">
-        <v>329</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12">
+        <v>173.6</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+    </row>
+    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13">
-        <v>110.7</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13">
-        <f>SUM(K32:K40)</f>
-        <v>14256.1</v>
-      </c>
-      <c r="L41" s="13">
-        <f t="shared" ref="L41" si="68">SUM(L32:L40)</f>
-        <v>9253</v>
-      </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="43" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12">
+        <v>1720.5</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13">
-        <v>173.6</v>
-      </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13">
-        <v>1720.5</v>
-      </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12">
         <v>286.10000000000002</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13">
+        <v>272</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12">
         <f>495.5+377</f>
         <v>872.5</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12">
+        <v>179</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12">
+        <v>117.4</v>
+      </c>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+    </row>
+    <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12">
+        <v>10907</v>
+      </c>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13">
-        <v>179</v>
-      </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13">
-        <v>117.4</v>
-      </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-    </row>
-    <row r="49" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12">
+        <f>SUM(Q43:Q49)</f>
+        <v>14256.1</v>
+      </c>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+    </row>
+    <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12">
+        <f>+Q23</f>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+    </row>
+    <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13">
-        <v>10907</v>
-      </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13">
-        <f>SUM(K43:K49)</f>
-        <v>14256.1</v>
-      </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12">
+        <v>762.1</v>
+      </c>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+    </row>
+    <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13">
-        <f>+K23</f>
-        <v>1002.4000000000001</v>
-      </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+    </row>
+    <row r="55" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13">
-        <v>762.1</v>
-      </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12">
+        <v>35.9</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+    </row>
+    <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12">
+        <v>-7.5</v>
+      </c>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12">
+        <v>-12.3</v>
+      </c>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+    </row>
+    <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13">
-        <v>130.30000000000001</v>
-      </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+    </row>
+    <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13">
-        <v>35.9</v>
-      </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-    </row>
-    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13">
-        <v>-7.5</v>
-      </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-    </row>
-    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13">
-        <v>-12.3</v>
-      </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-    </row>
-    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+    </row>
+    <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-    </row>
-    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-    </row>
-    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12">
         <f>-165.2+2+67.6-14.5+61.6+15.7</f>
         <v>-32.799999999999997</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-    </row>
-    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+    </row>
+    <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13">
-        <f>SUM(K53:K60)</f>
+        <v>291</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12">
+        <f>SUM(Q53:Q60)</f>
         <v>956.20000000000016</v>
       </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-    </row>
-    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+    </row>
+    <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13">
+        <v>288</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12">
         <v>-63.6</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-    </row>
-    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+    </row>
+    <row r="64" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13">
+        <v>289</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12">
         <f>-117.1+129.7</f>
         <v>12.599999999999994</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-    </row>
-    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+    </row>
+    <row r="65" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12">
+        <f>Q63+Q64</f>
+        <v>-51.000000000000007</v>
+      </c>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+    </row>
+    <row r="67" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+    </row>
+    <row r="68" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12">
+        <v>-117.5</v>
+      </c>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+    </row>
+    <row r="69" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12">
+        <v>-12.9</v>
+      </c>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+    </row>
+    <row r="70" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+    </row>
+    <row r="71" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12">
+        <f>SUM(Q67:Q70)</f>
+        <v>-95.4</v>
+      </c>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+    </row>
+    <row r="72" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12">
+        <v>-5.9</v>
+      </c>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+    </row>
+    <row r="73" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13">
-        <f>K63+K64</f>
-        <v>-51.000000000000007</v>
-      </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-    </row>
-    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13">
-        <v>-117.5</v>
-      </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-    </row>
-    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13">
-        <v>-12.9</v>
-      </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-    </row>
-    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13">
-        <f>SUM(K67:K70)</f>
-        <v>-95.4</v>
-      </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-    </row>
-    <row r="72" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13">
-        <v>-5.9</v>
-      </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13">
-        <f>+K71+K72+K65+K61</f>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12">
+        <f>+Q71+Q72+Q65+Q61</f>
         <v>803.90000000000009</v>
       </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+    </row>
+    <row r="74" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6978,7 +7938,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6995,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7003,70 +7963,70 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="19" t="s">
-        <v>193</v>
+      <c r="C12" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7090,7 +8050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7107,15 +8067,15 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7139,7 +8099,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7161,7 +8121,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7189,7 +8149,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7216,10 +8176,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7251,7 +8211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7268,7 +8228,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7276,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7292,96 +8252,96 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="19" t="s">
-        <v>159</v>
+      <c r="C10" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="19" t="s">
-        <v>158</v>
+      <c r="C19" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="18" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7406,7 +8366,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7423,7 +8383,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7431,50 +8391,50 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="19" t="s">
-        <v>142</v>
+      <c r="C7" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7522,22 +8482,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
-        <v>201</v>
+      <c r="C5" s="18" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1CEB1-E600-43F9-8C1D-24DD1B4DCF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1072497A-F9A4-46C3-B36F-30C4AE8C4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-29205" yWindow="1350" windowWidth="27645" windowHeight="18960" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q122: reiterates 8.4-8.6B guidance</t>
+    Q122: reiterates 8.4-8.6B guidance
+Q222: increases to 8.6-8.8B
+Q322: increases full year product guidance to 8.8-8.9B</t>
       </text>
     </comment>
   </commentList>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="324">
   <si>
     <t>Price</t>
   </si>
@@ -215,9 +217,6 @@
     <t>VX-548</t>
   </si>
   <si>
-    <t>III in 2H22</t>
-  </si>
-  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -794,9 +793,6 @@
     <t>PE of Phase III portion is 2 year eGFR slope</t>
   </si>
   <si>
-    <t>IND-enabling</t>
-  </si>
-  <si>
     <t>4/21/22: Q1 results day.</t>
   </si>
   <si>
@@ -1029,6 +1025,21 @@
   </si>
   <si>
     <t>Q318</t>
+  </si>
+  <si>
+    <t>VX-522</t>
+  </si>
+  <si>
+    <t>Filing</t>
+  </si>
+  <si>
+    <t>vanzacaftor/tezacaftor/deutivacaftor</t>
+  </si>
+  <si>
+    <t>Phase III bunionectomy or abdominoplasty n=2000</t>
+  </si>
+  <si>
+    <t>IND-enabling, IND in 2023</t>
   </si>
 </sst>
 </file>
@@ -1252,14 +1263,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29231</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>29231</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1276,8 +1287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7610475" y="0"/>
-          <a:ext cx="0" cy="11782425"/>
+          <a:off x="11919059" y="0"/>
+          <a:ext cx="0" cy="12276411"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1850,7 +1861,9 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="AG13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
-    <text>Q122: reiterates 8.4-8.6B guidance</text>
+    <text>Q122: reiterates 8.4-8.6B guidance
+Q222: increases to 8.6-8.8B
+Q322: increases full year product guidance to 8.8-8.9B</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1859,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>288</v>
+        <v>293.92</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -1907,7 +1920,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1919,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>256</v>
+        <v>259.5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1930,7 +1943,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1943,7 +1956,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>73728</v>
+        <v>76272.240000000005</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1952,13 +1965,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1967,10 +1980,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>9253.4</v>
+        <v>9771</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1996,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2007,7 +2020,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>64474.6</v>
+        <v>66501.240000000005</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -2031,16 +2044,16 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>38</v>
@@ -2050,6 +2063,9 @@
       <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2079,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -2078,65 +2094,67 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
         <v>202</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
@@ -2145,75 +2163,75 @@
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="H17" s="8"/>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>58</v>
@@ -2223,117 +2241,117 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E23" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E25" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E26" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E27" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E28" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E29" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E30" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E31" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E32" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2355,16 +2373,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB47AF-768E-4B06-9E84-BC4ABCFB8ABD}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2390,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2398,140 +2415,145 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="18"/>
-      <c r="D9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="22">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="22">
-        <v>86.9</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="18" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="22">
-        <v>112.9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>254</v>
+      <c r="C13" s="18"/>
+      <c r="D13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="22">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="22">
+        <v>86.9</v>
+      </c>
+      <c r="E16" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="22">
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="22">
+        <v>112.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="22">
         <v>115.6</v>
       </c>
-      <c r="E14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="18" t="s">
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24">
+        <v>110.5</v>
+      </c>
+      <c r="E24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>248</v>
       </c>
-      <c r="D20">
-        <v>110.5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="D25">
+        <v>95.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>250</v>
       </c>
-      <c r="D21">
-        <v>95.1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="D26">
+        <v>85.2</v>
+      </c>
+      <c r="E26" t="s">
         <v>252</v>
-      </c>
-      <c r="D22">
-        <v>85.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2580,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2588,27 +2610,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2650,15 +2672,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2711,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,13 +2740,13 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2736,7 +2758,7 @@
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2744,13 +2766,13 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2762,7 +2784,7 @@
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2770,13 +2792,13 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2788,7 +2810,7 @@
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2796,13 +2818,13 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -2814,7 +2836,7 @@
         <v>44726</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2822,13 +2844,13 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2840,7 +2862,7 @@
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2848,13 +2870,13 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2874,13 +2896,13 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2892,7 +2914,7 @@
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2900,13 +2922,13 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2923,13 +2945,13 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
         <v>208</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>209</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -2941,7 +2963,7 @@
         <v>44551</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2949,13 +2971,13 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
         <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>211</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2967,7 +2989,7 @@
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2975,13 +2997,13 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
         <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>214</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2993,7 +3015,7 @@
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3001,13 +3023,13 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
         <v>216</v>
-      </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
-        <v>217</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3019,7 +3041,7 @@
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3027,13 +3049,13 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
         <v>219</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>220</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3045,7 +3067,7 @@
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,13 +3075,13 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
         <v>222</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>223</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3071,7 +3093,7 @@
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -3079,13 +3101,13 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>224</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>225</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -3097,7 +3119,7 @@
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -3105,13 +3127,13 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
         <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3128,13 +3150,13 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
         <v>227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>228</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3151,13 +3173,13 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>230</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3174,13 +3196,13 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>231</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>232</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3192,7 +3214,7 @@
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -3200,13 +3222,13 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3223,13 +3245,13 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
         <v>235</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>236</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3241,7 +3263,7 @@
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -3249,13 +3271,13 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
         <v>238</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>239</v>
       </c>
       <c r="G24" s="15">
         <v>43679</v>
@@ -3264,7 +3286,7 @@
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3311,21 +3333,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
       </c>
       <c r="F3" s="15">
         <v>40686</v>
@@ -3333,13 +3355,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3350,10 +3372,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3364,7 +3386,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -3377,75 +3399,75 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
         <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3460,11 +3482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
   <dimension ref="A1:DG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3482,22 +3504,22 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>25</v>
@@ -3536,16 +3558,16 @@
         <v>35</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="Z3">
         <v>2015</v>
@@ -3633,7 +3655,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK4" s="2">
         <v>200</v>
@@ -3869,7 +3891,7 @@
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
@@ -3954,12 +3976,11 @@
         <v>1893</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" ref="S9:T9" si="4">+R9+100</f>
-        <v>1993</v>
+        <v>2010.5</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="4"/>
-        <v>2093</v>
+        <f t="shared" ref="T9" si="4">+S9+100</f>
+        <v>2110.5</v>
       </c>
       <c r="U9" s="12"/>
       <c r="AF9" s="2">
@@ -3968,59 +3989,59 @@
       </c>
       <c r="AG9" s="2">
         <f t="shared" ref="AG9:AG11" si="5">SUM(Q9:T9)</f>
-        <v>7740.6</v>
+        <v>7775.6</v>
       </c>
       <c r="AH9" s="2">
         <f>+AG9*1.2</f>
-        <v>9288.7199999999993</v>
+        <v>9330.7199999999993</v>
       </c>
       <c r="AI9" s="2">
         <f>+AH9*1.1</f>
-        <v>10217.592000000001</v>
+        <v>10263.791999999999</v>
       </c>
       <c r="AJ9" s="2">
         <f>+AI9*1.02</f>
-        <v>10421.94384</v>
+        <v>10469.06784</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" ref="AK9:AR9" si="6">+AJ9*1.02</f>
-        <v>10630.382716800001</v>
+        <v>10678.4491968</v>
       </c>
       <c r="AL9" s="2">
         <f t="shared" si="6"/>
-        <v>10842.990371136</v>
+        <v>10892.018180736</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="6"/>
-        <v>11059.85017855872</v>
+        <v>11109.85854435072</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="6"/>
-        <v>11281.047182129894</v>
+        <v>11332.055715237735</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" si="6"/>
-        <v>11506.668125772492</v>
+        <v>11558.69682954249</v>
       </c>
       <c r="AP9" s="2">
         <f t="shared" si="6"/>
-        <v>11736.801488287942</v>
+        <v>11789.870766133341</v>
       </c>
       <c r="AQ9" s="2">
         <f t="shared" si="6"/>
-        <v>11971.537518053701</v>
+        <v>12025.668181456009</v>
       </c>
       <c r="AR9" s="2">
         <f t="shared" si="6"/>
-        <v>12210.968268414776</v>
+        <v>12266.18154508513</v>
       </c>
       <c r="AS9" s="2">
         <f>+AR9*0.5</f>
-        <v>6105.4841342073878</v>
+        <v>6133.090772542565</v>
       </c>
       <c r="AT9" s="2">
         <f>+AS9*0.1</f>
-        <v>610.54841342073883</v>
+        <v>613.30907725425652</v>
       </c>
     </row>
     <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4076,12 +4097,11 @@
         <v>43</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10:T10" si="7">R10-1</f>
-        <v>42</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <f t="shared" ref="T10" si="7">S10-1</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="U10" s="12"/>
       <c r="AF10" s="2">
@@ -4090,59 +4110,59 @@
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="5"/>
-        <v>190.8</v>
+        <v>183.2</v>
       </c>
       <c r="AH10" s="2">
         <f>+AG10*0.9</f>
-        <v>171.72000000000003</v>
+        <v>164.88</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" ref="AI10:AT10" si="9">+AH10*0.9</f>
-        <v>154.54800000000003</v>
+        <v>148.392</v>
       </c>
       <c r="AJ10" s="2">
         <f t="shared" si="9"/>
-        <v>139.09320000000002</v>
+        <v>133.55279999999999</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="9"/>
-        <v>125.18388000000003</v>
+        <v>120.19752</v>
       </c>
       <c r="AL10" s="2">
         <f t="shared" si="9"/>
-        <v>112.66549200000003</v>
+        <v>108.177768</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="9"/>
-        <v>101.39894280000003</v>
+        <v>97.359991199999996</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="9"/>
-        <v>91.259048520000022</v>
+        <v>87.623992079999994</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" si="9"/>
-        <v>82.133143668000017</v>
+        <v>78.861592872000003</v>
       </c>
       <c r="AP10" s="2">
         <f t="shared" si="9"/>
-        <v>73.919829301200011</v>
+        <v>70.975433584800001</v>
       </c>
       <c r="AQ10" s="2">
         <f t="shared" si="9"/>
-        <v>66.527846371080017</v>
+        <v>63.877890226320005</v>
       </c>
       <c r="AR10" s="2">
         <f t="shared" si="9"/>
-        <v>59.875061733972018</v>
+        <v>57.490101203688006</v>
       </c>
       <c r="AS10" s="2">
         <f t="shared" si="9"/>
-        <v>53.887555560574818</v>
+        <v>51.741091083319205</v>
       </c>
       <c r="AT10" s="2">
         <f t="shared" si="9"/>
-        <v>48.498800004517335</v>
+        <v>46.566981974987286</v>
       </c>
     </row>
     <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4198,12 +4218,11 @@
         <v>122</v>
       </c>
       <c r="S11" s="12">
-        <f t="shared" ref="S11:T11" si="10">R11-1</f>
-        <v>121</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f t="shared" ref="T11" si="10">S11-1</f>
+        <v>145.19999999999999</v>
       </c>
       <c r="U11" s="12"/>
       <c r="AF11" s="2">
@@ -4212,59 +4231,59 @@
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="5"/>
-        <v>495.1</v>
+        <v>545.5</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" ref="AH11:AT11" si="11">+AG11*0.9</f>
-        <v>445.59000000000003</v>
+        <v>490.95</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="11"/>
-        <v>401.03100000000006</v>
+        <v>441.85500000000002</v>
       </c>
       <c r="AJ11" s="2">
         <f t="shared" si="11"/>
-        <v>360.92790000000008</v>
+        <v>397.66950000000003</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="11"/>
-        <v>324.8351100000001</v>
+        <v>357.90255000000002</v>
       </c>
       <c r="AL11" s="2">
         <f t="shared" si="11"/>
-        <v>292.35159900000008</v>
+        <v>322.11229500000002</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="11"/>
-        <v>263.11643910000009</v>
+        <v>289.90106550000002</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>236.80479519000008</v>
+        <v>260.91095895000001</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="11"/>
-        <v>213.12431567100006</v>
+        <v>234.81986305500001</v>
       </c>
       <c r="AP11" s="2">
         <f t="shared" si="11"/>
-        <v>191.81188410390007</v>
+        <v>211.33787674950003</v>
       </c>
       <c r="AQ11" s="2">
         <f t="shared" si="11"/>
-        <v>172.63069569351006</v>
+        <v>190.20408907455004</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" si="11"/>
-        <v>155.36762612415907</v>
+        <v>171.18368016709505</v>
       </c>
       <c r="AS11" s="2">
         <f t="shared" si="11"/>
-        <v>139.83086351174316</v>
+        <v>154.06531215038555</v>
       </c>
       <c r="AT11" s="2">
         <f t="shared" si="11"/>
-        <v>125.84777716056885</v>
+        <v>138.65878093534701</v>
       </c>
     </row>
     <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4320,12 +4339,11 @@
         <v>139</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" ref="S12:T12" si="12">R12-1</f>
-        <v>138</v>
+        <v>139.4</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" si="12"/>
-        <v>137</v>
+        <f t="shared" ref="T12" si="12">S12-1</f>
+        <v>138.4</v>
       </c>
       <c r="U12" s="12"/>
       <c r="AF12" s="2">
@@ -4334,59 +4352,59 @@
       </c>
       <c r="AG12" s="2">
         <f>SUM(Q12:T12)</f>
-        <v>553</v>
+        <v>555.79999999999995</v>
       </c>
       <c r="AH12" s="2">
         <f t="shared" ref="AH12:AT12" si="13">+AG12*0.9</f>
-        <v>497.7</v>
+        <v>500.21999999999997</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="13"/>
-        <v>447.93</v>
+        <v>450.19799999999998</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" si="13"/>
-        <v>403.137</v>
+        <v>405.1782</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="13"/>
-        <v>362.82330000000002</v>
+        <v>364.66038000000003</v>
       </c>
       <c r="AL12" s="2">
         <f t="shared" si="13"/>
-        <v>326.54097000000002</v>
+        <v>328.19434200000006</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="13"/>
-        <v>293.88687300000004</v>
+        <v>295.37490780000007</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="13"/>
-        <v>264.49818570000002</v>
+        <v>265.83741702000009</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="13"/>
-        <v>238.04836713000003</v>
+        <v>239.25367531800009</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" si="13"/>
-        <v>214.24353041700004</v>
+        <v>215.3283077862001</v>
       </c>
       <c r="AQ12" s="2">
         <f t="shared" si="13"/>
-        <v>192.81917737530006</v>
+        <v>193.7954770075801</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" si="13"/>
-        <v>173.53725963777006</v>
+        <v>174.41592930682211</v>
       </c>
       <c r="AS12" s="2">
         <f t="shared" si="13"/>
-        <v>156.18353367399305</v>
+        <v>156.97433637613989</v>
       </c>
       <c r="AT12" s="2">
         <f t="shared" si="13"/>
-        <v>140.56518030659376</v>
+        <v>141.27690273852591</v>
       </c>
     </row>
     <row r="13" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4394,59 +4412,59 @@
         <v>24</v>
       </c>
       <c r="C13" s="14">
-        <f>SUM(C9:C12)+C8</f>
+        <f t="shared" ref="C13:K13" si="14">SUM(C9:C12)+C8</f>
         <v>783</v>
       </c>
       <c r="D13" s="14">
-        <f>SUM(D9:D12)+D8</f>
+        <f t="shared" si="14"/>
         <v>869.93299999999999</v>
       </c>
       <c r="E13" s="14">
-        <f>SUM(E9:E12)+E8</f>
+        <f t="shared" si="14"/>
         <v>858.18200000000002</v>
       </c>
       <c r="F13" s="14">
-        <f>SUM(F9:F12)+F8</f>
+        <f t="shared" si="14"/>
         <v>940.91300000000001</v>
       </c>
       <c r="G13" s="14">
-        <f>SUM(G9:G12)+G8</f>
+        <f t="shared" si="14"/>
         <v>950</v>
       </c>
       <c r="H13" s="14">
-        <f>SUM(H9:H12)+H8</f>
+        <f t="shared" si="14"/>
         <v>1257</v>
       </c>
       <c r="I13" s="14">
-        <f>SUM(I9:I12)+I8</f>
+        <f t="shared" si="14"/>
         <v>1515</v>
       </c>
       <c r="J13" s="14">
-        <f>SUM(J9:J12)+J8</f>
+        <f t="shared" si="14"/>
         <v>1524.4</v>
       </c>
       <c r="K13" s="14">
-        <f>SUM(K9:K12)+K8</f>
+        <f t="shared" si="14"/>
         <v>1538</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" ref="L13:P13" si="14">SUM(L9:L12)</f>
+        <f t="shared" ref="L13:P13" si="15">SUM(L9:L12)</f>
         <v>1627</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1723.3</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1794</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1984</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2072</v>
       </c>
       <c r="Q13" s="14">
@@ -4454,35 +4472,35 @@
         <v>2097.5</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:X13" si="15">SUM(R9:R12)</f>
+        <f t="shared" ref="R13:X13" si="16">SUM(R9:R12)</f>
         <v>2197</v>
       </c>
       <c r="S13" s="14">
-        <f t="shared" si="15"/>
-        <v>2294</v>
+        <f t="shared" si="16"/>
+        <v>2334.2999999999997</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="15"/>
-        <v>2391</v>
+        <f t="shared" si="16"/>
+        <v>2431.2999999999997</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE13" s="13">
-        <f t="shared" ref="AE13" si="16">SUM(AE9:AE12)</f>
+        <f t="shared" ref="AE13" si="17">SUM(AE9:AE12)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -4491,64 +4509,64 @@
       </c>
       <c r="AG13" s="13">
         <f>SUM(AG9:AG12)</f>
-        <v>8979.5</v>
+        <v>9060.0999999999985</v>
       </c>
       <c r="AH13" s="13">
         <f>SUM(AH4:AH12)</f>
-        <v>10503.73</v>
+        <v>10586.769999999999</v>
       </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13:AT13" si="17">SUM(AI4:AI12)</f>
-        <v>11721.101000000002</v>
+        <f t="shared" ref="AI13:AT13" si="18">SUM(AI4:AI12)</f>
+        <v>11804.236999999999</v>
       </c>
       <c r="AJ13" s="13">
-        <f t="shared" si="17"/>
-        <v>12325.10194</v>
+        <f t="shared" si="18"/>
+        <v>12405.468339999999</v>
       </c>
       <c r="AK13" s="13">
-        <f t="shared" si="17"/>
-        <v>13443.225006800001</v>
+        <f t="shared" si="18"/>
+        <v>13521.2096468</v>
       </c>
       <c r="AL13" s="13">
-        <f t="shared" si="17"/>
-        <v>14474.548432136</v>
+        <f t="shared" si="18"/>
+        <v>14550.502585736001</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="17"/>
-        <v>15328.25243345872</v>
+        <f t="shared" si="18"/>
+        <v>15402.494508850721</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="17"/>
-        <v>16193.709211539895</v>
+        <f t="shared" si="18"/>
+        <v>16266.528083287736</v>
       </c>
       <c r="AO13" s="13">
-        <f t="shared" si="17"/>
-        <v>16787.274952241489</v>
+        <f t="shared" si="18"/>
+        <v>16858.93296078749</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="17"/>
-        <v>17011.550742110041</v>
+        <f t="shared" si="18"/>
+        <v>17082.286394253842</v>
       </c>
       <c r="AQ13" s="13">
-        <f t="shared" si="17"/>
-        <v>17246.236987593587</v>
+        <f t="shared" si="18"/>
+        <v>17316.267387864456</v>
       </c>
       <c r="AR13" s="13">
-        <f t="shared" si="17"/>
-        <v>17490.897183511679</v>
+        <f t="shared" si="18"/>
+        <v>17560.420223363733</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="17"/>
-        <v>11395.44654423071</v>
+        <f t="shared" si="18"/>
+        <v>11435.931969429417</v>
       </c>
       <c r="AT13" s="13">
-        <f t="shared" si="17"/>
-        <v>5914.9212327421992</v>
+        <f t="shared" si="18"/>
+        <v>5929.2728047528963</v>
       </c>
     </row>
     <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12">
         <v>111.255</v>
@@ -4599,12 +4617,11 @@
         <v>261.8</v>
       </c>
       <c r="S14" s="12">
-        <f>S13*0.07</f>
-        <v>160.58000000000001</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="T14" s="12">
         <f>T13*0.07</f>
-        <v>167.37</v>
+        <v>170.191</v>
       </c>
       <c r="U14" s="12"/>
       <c r="AF14" s="2">
@@ -4613,103 +4630,103 @@
       </c>
       <c r="AG14" s="2">
         <f>SUM(Q14:T14)</f>
-        <v>735.55000000000007</v>
+        <v>867.19100000000003</v>
       </c>
       <c r="AH14" s="2">
         <f>+AH13*0.07</f>
-        <v>735.26110000000006</v>
+        <v>741.07389999999998</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AT14" si="18">+AI13*0.07</f>
-        <v>820.47707000000025</v>
+        <f t="shared" ref="AI14:AT14" si="19">+AI13*0.07</f>
+        <v>826.29659000000004</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="18"/>
-        <v>862.75713580000013</v>
+        <f t="shared" si="19"/>
+        <v>868.38278380000008</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="18"/>
-        <v>941.02575047600021</v>
+        <f t="shared" si="19"/>
+        <v>946.48467527600008</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="18"/>
-        <v>1013.2183902495201</v>
+        <f t="shared" si="19"/>
+        <v>1018.5351810015202</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="18"/>
-        <v>1072.9776703421105</v>
+        <f t="shared" si="19"/>
+        <v>1078.1746156195507</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="18"/>
-        <v>1133.5596448077929</v>
+        <f t="shared" si="19"/>
+        <v>1138.6569658301416</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="18"/>
-        <v>1175.1092466569044</v>
+        <f t="shared" si="19"/>
+        <v>1180.1253072551244</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="18"/>
-        <v>1190.8085519477029</v>
+        <f t="shared" si="19"/>
+        <v>1195.760047597769</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="18"/>
-        <v>1207.2365891315512</v>
+        <f t="shared" si="19"/>
+        <v>1212.1387171505121</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="18"/>
-        <v>1224.3628028458177</v>
+        <f t="shared" si="19"/>
+        <v>1229.2294156354615</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="18"/>
-        <v>797.6812580961498</v>
+        <f t="shared" si="19"/>
+        <v>800.5152378600593</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="18"/>
-        <v>414.044486291954</v>
+        <f t="shared" si="19"/>
+        <v>415.04909633270279</v>
       </c>
     </row>
     <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="12">
-        <f>+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="20">+C13-C14</f>
         <v>671.745</v>
       </c>
       <c r="D15" s="12">
-        <f>+D13-D14</f>
+        <f t="shared" si="20"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E15" s="12">
-        <f>+E13-E14</f>
+        <f t="shared" si="20"/>
         <v>763.09</v>
       </c>
       <c r="F15" s="12">
-        <f>+F13-F14</f>
+        <f t="shared" si="20"/>
         <v>805.173</v>
       </c>
       <c r="G15" s="12">
-        <f>+G13-G14</f>
+        <f t="shared" si="20"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H15" s="12">
-        <f>+H13-H14</f>
+        <f t="shared" si="20"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I15" s="12">
-        <f>+I13-I14</f>
+        <f t="shared" si="20"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J15" s="12">
-        <f>+J13-J14</f>
+        <f t="shared" si="20"/>
         <v>1339.9</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:L15" si="19">+K13-K14</f>
+        <f t="shared" ref="K15:L15" si="21">+K13-K14</f>
         <v>1351.818</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1423.9</v>
       </c>
       <c r="M15" s="12">
@@ -4733,20 +4750,20 @@
         <v>1951.7</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:T15" si="20">+R13-R14</f>
+        <f t="shared" ref="R15:T15" si="22">+R13-R14</f>
         <v>1935.2</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="20"/>
-        <v>2133.42</v>
+        <f>+S13-S14</f>
+        <v>2044.8999999999996</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="20"/>
-        <v>2223.63</v>
+        <f t="shared" si="22"/>
+        <v>2261.1089999999999</v>
       </c>
       <c r="U15" s="12"/>
       <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="21">+AE13-AE14</f>
+        <f t="shared" ref="AE15" si="23">+AE13-AE14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="2">
@@ -4755,64 +4772,64 @@
       </c>
       <c r="AG15" s="2">
         <f>+AG13-AG14</f>
-        <v>8243.9500000000007</v>
+        <v>8192.9089999999978</v>
       </c>
       <c r="AH15" s="2">
         <f>+AH13-AH14</f>
-        <v>9768.4688999999998</v>
+        <v>9845.6960999999992</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" ref="AI15:AT15" si="22">+AI13-AI14</f>
-        <v>10900.623930000002</v>
+        <f t="shared" ref="AI15:AT15" si="24">+AI13-AI14</f>
+        <v>10977.940409999999</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="22"/>
-        <v>11462.3448042</v>
+        <f t="shared" si="24"/>
+        <v>11537.0855562</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="22"/>
-        <v>12502.199256324002</v>
+        <f t="shared" si="24"/>
+        <v>12574.724971524</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="22"/>
-        <v>13461.33004188648</v>
+        <f t="shared" si="24"/>
+        <v>13531.967404734482</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="22"/>
-        <v>14255.274763116609</v>
+        <f t="shared" si="24"/>
+        <v>14324.31989323117</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="22"/>
-        <v>15060.149566732103</v>
+        <f t="shared" si="24"/>
+        <v>15127.871117457595</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="22"/>
-        <v>15612.165705584584</v>
+        <f t="shared" si="24"/>
+        <v>15678.807653532365</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="22"/>
-        <v>15820.742190162338</v>
+        <f t="shared" si="24"/>
+        <v>15886.526346656074</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="22"/>
-        <v>16039.000398462036</v>
+        <f t="shared" si="24"/>
+        <v>16104.128670713944</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="22"/>
-        <v>16266.534380665862</v>
+        <f t="shared" si="24"/>
+        <v>16331.190807728271</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="22"/>
-        <v>10597.76528613456</v>
+        <f t="shared" si="24"/>
+        <v>10635.416731569358</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="22"/>
-        <v>5500.8767464502453</v>
+        <f t="shared" si="24"/>
+        <v>5514.2237084201934</v>
       </c>
     </row>
     <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="12">
         <v>137.29499999999999</v>
@@ -4863,12 +4880,11 @@
         <v>215.3</v>
       </c>
       <c r="S16" s="12">
-        <f t="shared" ref="S16:T16" si="23">+R16</f>
-        <v>215.3</v>
+        <v>246.8</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" si="23"/>
-        <v>215.3</v>
+        <f t="shared" ref="T16" si="25">+S16</f>
+        <v>246.8</v>
       </c>
       <c r="U16" s="12"/>
       <c r="AE16" s="2">
@@ -4878,65 +4894,65 @@
         <v>673</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AG17" si="24">SUM(Q16:T16)</f>
-        <v>812.90000000000009</v>
+        <f t="shared" ref="AG16:AG17" si="26">SUM(Q16:T16)</f>
+        <v>875.90000000000009</v>
       </c>
       <c r="AH16" s="2">
         <f>+AH13*0.1</f>
-        <v>1050.373</v>
+        <v>1058.6769999999999</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" ref="AI16:AT16" si="25">+AI13*0.1</f>
-        <v>1172.1101000000003</v>
+        <f t="shared" ref="AI16:AT16" si="27">+AI13*0.1</f>
+        <v>1180.4237000000001</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="25"/>
-        <v>1232.5101940000002</v>
+        <f t="shared" si="27"/>
+        <v>1240.546834</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="25"/>
-        <v>1344.3225006800003</v>
+        <f t="shared" si="27"/>
+        <v>1352.12096468</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="25"/>
-        <v>1447.4548432136</v>
+        <f t="shared" si="27"/>
+        <v>1455.0502585736003</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="25"/>
-        <v>1532.825243345872</v>
+        <f t="shared" si="27"/>
+        <v>1540.2494508850723</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="25"/>
-        <v>1619.3709211539897</v>
+        <f t="shared" si="27"/>
+        <v>1626.6528083287737</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="25"/>
-        <v>1678.7274952241489</v>
+        <f t="shared" si="27"/>
+        <v>1685.893296078749</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="25"/>
-        <v>1701.1550742110041</v>
+        <f t="shared" si="27"/>
+        <v>1708.2286394253842</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="25"/>
-        <v>1724.6236987593588</v>
+        <f t="shared" si="27"/>
+        <v>1731.6267387864457</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="25"/>
-        <v>1749.0897183511679</v>
+        <f t="shared" si="27"/>
+        <v>1756.0420223363735</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="25"/>
-        <v>1139.5446544230711</v>
+        <f t="shared" si="27"/>
+        <v>1143.5931969429419</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="25"/>
-        <v>591.49212327421992</v>
+        <f t="shared" si="27"/>
+        <v>592.92728047528965</v>
       </c>
     </row>
     <row r="17" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12">
         <v>330.51</v>
@@ -4987,12 +5003,11 @@
         <v>600.1</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" ref="S17:T17" si="26">+R17</f>
-        <v>600.1</v>
+        <v>645</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="26"/>
-        <v>600.1</v>
+        <f t="shared" ref="T17" si="28">+S17</f>
+        <v>645</v>
       </c>
       <c r="U17" s="12"/>
       <c r="AE17" s="2">
@@ -5002,52 +5017,52 @@
         <v>1658</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="24"/>
-        <v>2320.2999999999997</v>
+        <f t="shared" si="26"/>
+        <v>2410.1</v>
       </c>
     </row>
     <row r="18" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:D18" si="27">SUM(C16:C17)</f>
+        <f t="shared" ref="C18:D18" si="29">SUM(C16:C17)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>591.09100000000001</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:G18" si="28">SUM(E16:E17)</f>
+        <f t="shared" ref="E18:G18" si="30">SUM(E16:E17)</f>
         <v>486.53499999999997</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>535.59300000000007</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>715.62199999999996</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ref="H18:I18" si="29">SUM(H16:H17)</f>
+        <f t="shared" ref="H18:I18" si="31">SUM(H16:H17)</f>
         <v>675.28800000000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18:K18" si="30">SUM(J16:J17)</f>
+        <f t="shared" ref="J18" si="32">SUM(J16:J17)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:L18" si="31">SUM(K16:K17)</f>
+        <f t="shared" ref="K18:L18" si="33">SUM(K16:K17)</f>
         <v>678.048</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>539</v>
       </c>
       <c r="M18" s="12">
@@ -5055,11 +5070,11 @@
         <v>531</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ref="N18:Q18" si="32">SUM(N16:N17)</f>
+        <f t="shared" ref="N18:Q18" si="34">SUM(N16:N17)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P18" s="12">
@@ -5067,7 +5082,7 @@
         <v>703</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>687</v>
       </c>
       <c r="R18" s="12">
@@ -5075,121 +5090,121 @@
         <v>815.40000000000009</v>
       </c>
       <c r="S18" s="12">
-        <f t="shared" ref="S18:T18" si="33">SUM(S16:S17)</f>
-        <v>815.40000000000009</v>
+        <f>SUM(S16:S17)</f>
+        <v>891.8</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" si="33"/>
-        <v>815.40000000000009</v>
+        <f t="shared" ref="T18" si="35">SUM(T16:T17)</f>
+        <v>891.8</v>
       </c>
       <c r="U18" s="12"/>
       <c r="AE18" s="12">
-        <f t="shared" ref="AE18:AG18" si="34">SUM(AE16:AE17)</f>
+        <f t="shared" ref="AE18:AG18" si="36">SUM(AE16:AE17)</f>
         <v>1981</v>
       </c>
       <c r="AF18" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2331</v>
       </c>
       <c r="AG18" s="12">
-        <f t="shared" si="34"/>
-        <v>3133.2</v>
+        <f t="shared" si="36"/>
+        <v>3286</v>
       </c>
       <c r="AH18" s="12">
-        <f t="shared" ref="AH18:AT18" si="35">SUM(AH16:AH17)</f>
-        <v>1050.373</v>
+        <f t="shared" ref="AH18:AT18" si="37">SUM(AH16:AH17)</f>
+        <v>1058.6769999999999</v>
       </c>
       <c r="AI18" s="12">
-        <f t="shared" si="35"/>
-        <v>1172.1101000000003</v>
+        <f t="shared" si="37"/>
+        <v>1180.4237000000001</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" si="35"/>
-        <v>1232.5101940000002</v>
+        <f t="shared" si="37"/>
+        <v>1240.546834</v>
       </c>
       <c r="AK18" s="12">
-        <f t="shared" si="35"/>
-        <v>1344.3225006800003</v>
+        <f t="shared" si="37"/>
+        <v>1352.12096468</v>
       </c>
       <c r="AL18" s="12">
-        <f t="shared" si="35"/>
-        <v>1447.4548432136</v>
+        <f t="shared" si="37"/>
+        <v>1455.0502585736003</v>
       </c>
       <c r="AM18" s="12">
-        <f t="shared" si="35"/>
-        <v>1532.825243345872</v>
+        <f t="shared" si="37"/>
+        <v>1540.2494508850723</v>
       </c>
       <c r="AN18" s="12">
-        <f t="shared" si="35"/>
-        <v>1619.3709211539897</v>
+        <f t="shared" si="37"/>
+        <v>1626.6528083287737</v>
       </c>
       <c r="AO18" s="12">
-        <f t="shared" si="35"/>
-        <v>1678.7274952241489</v>
+        <f t="shared" si="37"/>
+        <v>1685.893296078749</v>
       </c>
       <c r="AP18" s="12">
-        <f t="shared" si="35"/>
-        <v>1701.1550742110041</v>
+        <f t="shared" si="37"/>
+        <v>1708.2286394253842</v>
       </c>
       <c r="AQ18" s="12">
-        <f t="shared" si="35"/>
-        <v>1724.6236987593588</v>
+        <f t="shared" si="37"/>
+        <v>1731.6267387864457</v>
       </c>
       <c r="AR18" s="12">
-        <f t="shared" si="35"/>
-        <v>1749.0897183511679</v>
+        <f t="shared" si="37"/>
+        <v>1756.0420223363735</v>
       </c>
       <c r="AS18" s="12">
-        <f t="shared" si="35"/>
-        <v>1139.5446544230711</v>
+        <f t="shared" si="37"/>
+        <v>1143.5931969429419</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="35"/>
-        <v>591.49212327421992</v>
+        <f t="shared" si="37"/>
+        <v>592.92728047528965</v>
       </c>
     </row>
     <row r="19" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:D19" si="36">C15-C18</f>
+        <f t="shared" ref="C19:D19" si="38">C15-C18</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>156.553</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" ref="E19:G19" si="37">E15-E18</f>
+        <f t="shared" ref="E19:G19" si="39">E15-E18</f>
         <v>276.55500000000006</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>269.57999999999993</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>102.46400000000006</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19:I19" si="38">H15-H18</f>
+        <f t="shared" ref="H19:I19" si="40">H15-H18</f>
         <v>396.70000000000005</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19:K19" si="39">J15-J18</f>
+        <f t="shared" ref="J19" si="41">J15-J18</f>
         <v>727.2</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:L19" si="40">K15-K18</f>
+        <f t="shared" ref="K19:L19" si="42">K15-K18</f>
         <v>673.77</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M19" s="12">
@@ -5197,11 +5212,11 @@
         <v>1000</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ref="N19:Q19" si="41">N15-N18</f>
+        <f t="shared" ref="N19:Q19" si="43">N15-N18</f>
         <v>922.7</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P19" s="12">
@@ -5209,7 +5224,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1264.7</v>
       </c>
       <c r="R19" s="12">
@@ -5217,82 +5232,82 @@
         <v>1119.8</v>
       </c>
       <c r="S19" s="12">
-        <f t="shared" ref="S19:T19" si="42">S15-S18</f>
-        <v>1318.02</v>
+        <f>S15-S18</f>
+        <v>1153.0999999999997</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" si="42"/>
-        <v>1408.23</v>
+        <f t="shared" ref="T19" si="44">T15-T18</f>
+        <v>1369.309</v>
       </c>
       <c r="U19" s="12"/>
       <c r="AE19" s="12">
-        <f t="shared" ref="AE19:AG19" si="43">AE15-AE18</f>
+        <f t="shared" ref="AE19:AG19" si="45">AE15-AE18</f>
         <v>-1981</v>
       </c>
       <c r="AF19" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4338.0879999999997</v>
       </c>
       <c r="AG19" s="12">
-        <f t="shared" si="43"/>
-        <v>5110.7500000000009</v>
+        <f t="shared" si="45"/>
+        <v>4906.9089999999978</v>
       </c>
       <c r="AH19" s="12">
-        <f t="shared" ref="AH19:AT19" si="44">AH15-AH18</f>
-        <v>8718.0959000000003</v>
+        <f t="shared" ref="AH19:AT19" si="46">AH15-AH18</f>
+        <v>8787.0190999999995</v>
       </c>
       <c r="AI19" s="12">
-        <f t="shared" si="44"/>
-        <v>9728.5138300000017</v>
+        <f t="shared" si="46"/>
+        <v>9797.5167099999999</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="44"/>
-        <v>10229.8346102</v>
+        <f t="shared" si="46"/>
+        <v>10296.538722199999</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" si="44"/>
-        <v>11157.876755644002</v>
+        <f t="shared" si="46"/>
+        <v>11222.604006844</v>
       </c>
       <c r="AL19" s="12">
-        <f t="shared" si="44"/>
-        <v>12013.87519867288</v>
+        <f t="shared" si="46"/>
+        <v>12076.917146160882</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" si="44"/>
-        <v>12722.449519770737</v>
+        <f t="shared" si="46"/>
+        <v>12784.070442346097</v>
       </c>
       <c r="AN19" s="12">
-        <f t="shared" si="44"/>
-        <v>13440.778645578113</v>
+        <f t="shared" si="46"/>
+        <v>13501.218309128821</v>
       </c>
       <c r="AO19" s="12">
-        <f t="shared" si="44"/>
-        <v>13933.438210360435</v>
+        <f t="shared" si="46"/>
+        <v>13992.914357453616</v>
       </c>
       <c r="AP19" s="12">
-        <f t="shared" si="44"/>
-        <v>14119.587115951334</v>
+        <f t="shared" si="46"/>
+        <v>14178.297707230689</v>
       </c>
       <c r="AQ19" s="12">
-        <f t="shared" si="44"/>
-        <v>14314.376699702678</v>
+        <f t="shared" si="46"/>
+        <v>14372.501931927498</v>
       </c>
       <c r="AR19" s="12">
-        <f t="shared" si="44"/>
-        <v>14517.444662314694</v>
+        <f t="shared" si="46"/>
+        <v>14575.148785391899</v>
       </c>
       <c r="AS19" s="12">
-        <f t="shared" si="44"/>
-        <v>9458.2206317114887</v>
+        <f t="shared" si="46"/>
+        <v>9491.8235346264155</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="44"/>
-        <v>4909.3846231760253</v>
+        <f t="shared" si="46"/>
+        <v>4921.2964279449034</v>
       </c>
     </row>
     <row r="20" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="12">
         <f>10.543-18.686</f>
@@ -5359,105 +5374,105 @@
         <v>-3.7999999999999989</v>
       </c>
       <c r="S20" s="12">
-        <f t="shared" ref="S20:T20" si="45">+R20</f>
-        <v>-3.7999999999999989</v>
+        <f>46-13.7</f>
+        <v>32.299999999999997</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" si="45"/>
-        <v>-3.7999999999999989</v>
+        <f t="shared" ref="T20" si="47">+S20</f>
+        <v>32.299999999999997</v>
       </c>
       <c r="U20" s="12"/>
       <c r="AG20" s="2">
-        <f t="shared" ref="AG20:AG22" si="46">SUM(Q20:T20)</f>
-        <v>-24.699999999999996</v>
+        <f t="shared" ref="AG20:AG22" si="48">SUM(Q20:T20)</f>
+        <v>47.499999999999993</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" ref="AH20:AT20" si="47">+AG32*$AW$30</f>
-        <v>114.73649999999999</v>
+        <f t="shared" ref="AH20:AT20" si="49">+AG32*$AW$30</f>
+        <v>109.23309000000002</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="47"/>
-        <v>185.39915919999999</v>
+        <f t="shared" si="49"/>
+        <v>180.40310752000002</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="47"/>
-        <v>264.71046311360004</v>
+        <f t="shared" si="49"/>
+        <v>260.22646606016002</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="47"/>
-        <v>348.66682370010881</v>
+        <f t="shared" si="49"/>
+        <v>344.68058756624129</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="47"/>
-        <v>440.71917233486164</v>
+        <f t="shared" si="49"/>
+        <v>437.2188643215232</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="47"/>
-        <v>540.35592730292365</v>
+        <f t="shared" si="49"/>
+        <v>537.33195240538248</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="47"/>
-        <v>646.45837087951293</v>
+        <f t="shared" si="49"/>
+        <v>643.90317156339427</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="47"/>
-        <v>759.1562670111739</v>
+        <f t="shared" si="49"/>
+        <v>757.06414340893195</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" si="47"/>
-        <v>876.69702283014681</v>
+        <f t="shared" si="49"/>
+        <v>875.06397141583238</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="47"/>
-        <v>996.66729594039862</v>
+        <f t="shared" si="49"/>
+        <v>995.49086484500458</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="47"/>
-        <v>1119.1556479055432</v>
+        <f t="shared" si="49"/>
+        <v>1118.4348072191847</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="47"/>
-        <v>1244.2484503873052</v>
+        <f t="shared" si="49"/>
+        <v>1243.9834759600733</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="47"/>
-        <v>1329.8682030440955</v>
+        <f t="shared" si="49"/>
+        <v>1329.8699320447652</v>
       </c>
     </row>
     <row r="21" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="48">+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="50">+C19+C20</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>151.78</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:F21" si="49">+E19+E20</f>
+        <f t="shared" ref="E21:F21" si="51">+E19+E20</f>
         <v>277.30200000000008</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>272.8189999999999</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="50">+G19+G20</f>
+        <f t="shared" ref="G21:J21" si="52">+G19+G20</f>
         <v>105.54400000000005</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>717.572</v>
       </c>
       <c r="K21" s="12">
@@ -5473,94 +5488,94 @@
         <v>985.8</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="51">+N19+N20</f>
+        <f t="shared" ref="N21:Q21" si="53">+N19+N20</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ref="R21" si="52">+R19+R20</f>
+        <f t="shared" ref="R21" si="54">+R19+R20</f>
         <v>1116</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" ref="S21" si="53">+S19+S20</f>
-        <v>1314.22</v>
+        <f t="shared" ref="S21" si="55">+S19+S20</f>
+        <v>1185.3999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21" si="54">+T19+T20</f>
-        <v>1404.43</v>
+        <f t="shared" ref="T21" si="56">+T19+T20</f>
+        <v>1401.6089999999999</v>
       </c>
       <c r="U21" s="12"/>
       <c r="AG21" s="2">
         <f>+AG19+AG20</f>
-        <v>5086.0500000000011</v>
+        <v>4954.4089999999978</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21:AT21" si="55">+AH19+AH20</f>
-        <v>8832.8324000000011</v>
+        <f t="shared" ref="AH21:AT21" si="57">+AH19+AH20</f>
+        <v>8896.2521899999992</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="55"/>
-        <v>9913.9129892000019</v>
+        <f t="shared" si="57"/>
+        <v>9977.9198175199999</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="55"/>
-        <v>10494.5450733136</v>
+        <f t="shared" si="57"/>
+        <v>10556.765188260159</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="55"/>
-        <v>11506.54357934411</v>
+        <f t="shared" si="57"/>
+        <v>11567.284594410241</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="55"/>
-        <v>12454.594371007743</v>
+        <f t="shared" si="57"/>
+        <v>12514.136010482405</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="55"/>
-        <v>13262.805447073661</v>
+        <f t="shared" si="57"/>
+        <v>13321.40239475148</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="55"/>
-        <v>14087.237016457626</v>
+        <f t="shared" si="57"/>
+        <v>14145.121480692214</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="55"/>
-        <v>14692.594477371609</v>
+        <f t="shared" si="57"/>
+        <v>14749.978500862548</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="55"/>
-        <v>14996.284138781481</v>
+        <f t="shared" si="57"/>
+        <v>15053.361678646521</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="55"/>
-        <v>15311.043995643076</v>
+        <f t="shared" si="57"/>
+        <v>15367.992796772502</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="55"/>
-        <v>15636.600310220238</v>
+        <f t="shared" si="57"/>
+        <v>15693.583592611083</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="55"/>
-        <v>10702.469082098794</v>
+        <f t="shared" si="57"/>
+        <v>10735.807010586488</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="55"/>
-        <v>6239.2528262201213</v>
+        <f t="shared" si="57"/>
+        <v>6251.1663599896683</v>
       </c>
     </row>
     <row r="22" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12">
         <v>8.0549999999999997</v>
@@ -5611,103 +5626,103 @@
         <v>258.60000000000002</v>
       </c>
       <c r="S22" s="12">
-        <v>249</v>
+        <v>245.9</v>
       </c>
       <c r="T22" s="12">
         <v>249</v>
       </c>
       <c r="U22" s="12"/>
       <c r="AG22" s="2">
-        <f t="shared" si="46"/>
-        <v>1005.6</v>
+        <f t="shared" si="48"/>
+        <v>1002.5</v>
       </c>
       <c r="AH22" s="2">
         <f>+AH21*0.2</f>
-        <v>1766.5664800000004</v>
+        <v>1779.250438</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AT22" si="56">+AI21*0.2</f>
-        <v>1982.7825978400006</v>
+        <f t="shared" ref="AI22:AT22" si="58">+AI21*0.2</f>
+        <v>1995.5839635040002</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="56"/>
-        <v>2098.90901466272</v>
+        <f t="shared" si="58"/>
+        <v>2111.3530376520316</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="56"/>
-        <v>2301.3087158688222</v>
+        <f t="shared" si="58"/>
+        <v>2313.4569188820483</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="56"/>
-        <v>2490.9188742015485</v>
+        <f t="shared" si="58"/>
+        <v>2502.8272020964814</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="56"/>
-        <v>2652.5610894147321</v>
+        <f t="shared" si="58"/>
+        <v>2664.2804789502961</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="56"/>
-        <v>2817.4474032915255</v>
+        <f t="shared" si="58"/>
+        <v>2829.0242961384429</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="56"/>
-        <v>2938.5188954743221</v>
+        <f t="shared" si="58"/>
+        <v>2949.9957001725097</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" si="56"/>
-        <v>2999.2568277562964</v>
+        <f t="shared" si="58"/>
+        <v>3010.6723357293045</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="56"/>
-        <v>3062.2087991286153</v>
+        <f t="shared" si="58"/>
+        <v>3073.5985593545006</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" si="56"/>
-        <v>3127.3200620440475</v>
+        <f t="shared" si="58"/>
+        <v>3138.716718522217</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="56"/>
-        <v>2140.4938164197588</v>
+        <f t="shared" si="58"/>
+        <v>2147.1614021172977</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="56"/>
-        <v>1247.8505652440244</v>
+        <f t="shared" si="58"/>
+        <v>1250.2332719979338</v>
       </c>
     </row>
     <row r="23" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="57">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="59">+C21-C22</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>151.78</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="58">+E21-E22</f>
+        <f t="shared" ref="E23:F23" si="60">+E21-E22</f>
         <v>225.76800000000009</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>213.10799999999989</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="59">+G21-G22</f>
+        <f t="shared" ref="G23:J23" si="61">+G21-G22</f>
         <v>92.396000000000058</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>730.072</v>
       </c>
       <c r="K23" s="12">
@@ -5723,409 +5738,409 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:T23" si="60">+N21-N22</f>
+        <f t="shared" ref="N23:T23" si="62">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1002.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>857.4</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="60"/>
-        <v>1065.22</v>
+        <f t="shared" si="62"/>
+        <v>939.49999999999966</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="60"/>
-        <v>1155.43</v>
+        <f t="shared" si="62"/>
+        <v>1152.6089999999999</v>
       </c>
       <c r="U23" s="12"/>
       <c r="AG23" s="2">
         <f>+AG21-AG22</f>
-        <v>4080.4500000000012</v>
+        <v>3951.9089999999978</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" ref="AH23:AT23" si="61">+AH21-AH22</f>
-        <v>7066.2659200000007</v>
+        <f t="shared" ref="AH23:AT23" si="63">+AH21-AH22</f>
+        <v>7117.0017519999992</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="61"/>
-        <v>7931.1303913600013</v>
+        <f t="shared" si="63"/>
+        <v>7982.3358540159998</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="61"/>
-        <v>8395.6360586508799</v>
+        <f t="shared" si="63"/>
+        <v>8445.4121506081265</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="61"/>
-        <v>9205.2348634752889</v>
+        <f t="shared" si="63"/>
+        <v>9253.8276755281931</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="61"/>
-        <v>9963.6754968061941</v>
+        <f t="shared" si="63"/>
+        <v>10011.308808385924</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="61"/>
-        <v>10610.244357658928</v>
+        <f t="shared" si="63"/>
+        <v>10657.121915801185</v>
       </c>
       <c r="AN23" s="2">
-        <f t="shared" si="61"/>
-        <v>11269.7896131661</v>
+        <f t="shared" si="63"/>
+        <v>11316.097184553772</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="61"/>
-        <v>11754.075581897287</v>
+        <f t="shared" si="63"/>
+        <v>11799.982800690039</v>
       </c>
       <c r="AP23" s="2">
-        <f t="shared" si="61"/>
-        <v>11997.027311025184</v>
+        <f t="shared" si="63"/>
+        <v>12042.689342917216</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="61"/>
-        <v>12248.835196514461</v>
+        <f t="shared" si="63"/>
+        <v>12294.394237418001</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="61"/>
-        <v>12509.28024817619</v>
+        <f t="shared" si="63"/>
+        <v>12554.866874088866</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="61"/>
-        <v>8561.9752656790351</v>
+        <f t="shared" si="63"/>
+        <v>8588.6456084691908</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="61"/>
-        <v>4991.4022609760968</v>
+        <f t="shared" si="63"/>
+        <v>5000.9330879917343</v>
       </c>
       <c r="AU23" s="2">
         <f>+AT23*(1+$AW$28)</f>
-        <v>4741.8321479272918</v>
+        <v>4750.8864335921471</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" ref="AV23:DG23" si="62">+AU23*(1+$AW$28)</f>
-        <v>4504.7405405309273</v>
+        <f t="shared" ref="AV23:DG23" si="64">+AU23*(1+$AW$28)</f>
+        <v>4513.3421119125396</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="62"/>
-        <v>4279.5035135043809</v>
+        <f t="shared" si="64"/>
+        <v>4287.675006316912</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="62"/>
-        <v>4065.5283378291615</v>
+        <f t="shared" si="64"/>
+        <v>4073.2912560010664</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" si="62"/>
-        <v>3862.2519209377033</v>
+        <f t="shared" si="64"/>
+        <v>3869.626693201013</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="62"/>
-        <v>3669.139324890818</v>
+        <f t="shared" si="64"/>
+        <v>3676.1453585409622</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="62"/>
-        <v>3485.682358646277</v>
+        <f t="shared" si="64"/>
+        <v>3492.3380906139141</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="62"/>
-        <v>3311.3982407139629</v>
+        <f t="shared" si="64"/>
+        <v>3317.7211860832181</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="62"/>
-        <v>3145.8283286782644</v>
+        <f t="shared" si="64"/>
+        <v>3151.8351267790572</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="62"/>
-        <v>2988.5369122443508</v>
+        <f t="shared" si="64"/>
+        <v>2994.2433704401042</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="62"/>
-        <v>2839.1100666321331</v>
+        <f t="shared" si="64"/>
+        <v>2844.5312019180988</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="62"/>
-        <v>2697.1545633005262</v>
+        <f t="shared" si="64"/>
+        <v>2702.3046418221938</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="62"/>
-        <v>2562.2968351354998</v>
+        <f t="shared" si="64"/>
+        <v>2567.1894097310842</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="62"/>
-        <v>2434.1819933787247</v>
+        <f t="shared" si="64"/>
+        <v>2438.8299392445297</v>
       </c>
       <c r="BI23" s="2">
-        <f t="shared" si="62"/>
-        <v>2312.4728937097884</v>
+        <f t="shared" si="64"/>
+        <v>2316.888442282303</v>
       </c>
       <c r="BJ23" s="2">
-        <f t="shared" si="62"/>
-        <v>2196.8492490242988</v>
+        <f t="shared" si="64"/>
+        <v>2201.0440201681877</v>
       </c>
       <c r="BK23" s="2">
-        <f t="shared" si="62"/>
-        <v>2087.0067865730839</v>
+        <f t="shared" si="64"/>
+        <v>2090.9918191597781</v>
       </c>
       <c r="BL23" s="2">
-        <f t="shared" si="62"/>
-        <v>1982.6564472444295</v>
+        <f t="shared" si="64"/>
+        <v>1986.442228201789</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" si="62"/>
-        <v>1883.523624882208</v>
+        <f t="shared" si="64"/>
+        <v>1887.1201167916995</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="62"/>
-        <v>1789.3474436380975</v>
+        <f t="shared" si="64"/>
+        <v>1792.7641109521144</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="62"/>
-        <v>1699.8800714561926</v>
+        <f t="shared" si="64"/>
+        <v>1703.1259054045086</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="62"/>
-        <v>1614.8860678833828</v>
+        <f t="shared" si="64"/>
+        <v>1617.9696101342831</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="62"/>
-        <v>1534.1417644892135</v>
+        <f t="shared" si="64"/>
+        <v>1537.071129627569</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="62"/>
-        <v>1457.4346762647529</v>
+        <f t="shared" si="64"/>
+        <v>1460.2175731461905</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="62"/>
-        <v>1384.5629424515153</v>
+        <f t="shared" si="64"/>
+        <v>1387.2066944888809</v>
       </c>
       <c r="BT23" s="2">
-        <f t="shared" si="62"/>
-        <v>1315.3347953289394</v>
+        <f t="shared" si="64"/>
+        <v>1317.8463597644368</v>
       </c>
       <c r="BU23" s="2">
-        <f t="shared" si="62"/>
-        <v>1249.5680555624924</v>
+        <f t="shared" si="64"/>
+        <v>1251.9540417762148</v>
       </c>
       <c r="BV23" s="2">
-        <f t="shared" si="62"/>
-        <v>1187.0896527843677</v>
+        <f t="shared" si="64"/>
+        <v>1189.356339687404</v>
       </c>
       <c r="BW23" s="2">
-        <f t="shared" si="62"/>
-        <v>1127.7351701451491</v>
+        <f t="shared" si="64"/>
+        <v>1129.8885227030337</v>
       </c>
       <c r="BX23" s="2">
-        <f t="shared" si="62"/>
-        <v>1071.3484116378916</v>
+        <f t="shared" si="64"/>
+        <v>1073.3940965678819</v>
       </c>
       <c r="BY23" s="2">
-        <f t="shared" si="62"/>
-        <v>1017.7809910559969</v>
+        <f t="shared" si="64"/>
+        <v>1019.7243917394877</v>
       </c>
       <c r="BZ23" s="2">
-        <f t="shared" si="62"/>
-        <v>966.89194150319702</v>
+        <f t="shared" si="64"/>
+        <v>968.73817215251324</v>
       </c>
       <c r="CA23" s="2">
-        <f t="shared" si="62"/>
-        <v>918.54734442803715</v>
+        <f t="shared" si="64"/>
+        <v>920.30126354488755</v>
       </c>
       <c r="CB23" s="2">
-        <f t="shared" si="62"/>
-        <v>872.61997720663521</v>
+        <f t="shared" si="64"/>
+        <v>874.28620036764312</v>
       </c>
       <c r="CC23" s="2">
-        <f t="shared" si="62"/>
-        <v>828.98897834630338</v>
+        <f t="shared" si="64"/>
+        <v>830.57189034926091</v>
       </c>
       <c r="CD23" s="2">
-        <f t="shared" si="62"/>
-        <v>787.5395294289882</v>
+        <f t="shared" si="64"/>
+        <v>789.04329583179788</v>
       </c>
       <c r="CE23" s="2">
-        <f t="shared" si="62"/>
-        <v>748.16255295753876</v>
+        <f t="shared" si="64"/>
+        <v>749.59113104020798</v>
       </c>
       <c r="CF23" s="2">
-        <f t="shared" si="62"/>
-        <v>710.75442530966177</v>
+        <f t="shared" si="64"/>
+        <v>712.11157448819756</v>
       </c>
       <c r="CG23" s="2">
-        <f t="shared" si="62"/>
-        <v>675.21670404417864</v>
+        <f t="shared" si="64"/>
+        <v>676.50599576378761</v>
       </c>
       <c r="CH23" s="2">
-        <f t="shared" si="62"/>
-        <v>641.45586884196973</v>
+        <f t="shared" si="64"/>
+        <v>642.68069597559816</v>
       </c>
       <c r="CI23" s="2">
-        <f t="shared" si="62"/>
-        <v>609.38307539987125</v>
+        <f t="shared" si="64"/>
+        <v>610.54666117681825</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" si="62"/>
-        <v>578.91392162987768</v>
+        <f t="shared" si="64"/>
+        <v>580.01932811797735</v>
       </c>
       <c r="CK23" s="2">
-        <f t="shared" si="62"/>
-        <v>549.96822554838377</v>
+        <f t="shared" si="64"/>
+        <v>551.01836171207844</v>
       </c>
       <c r="CL23" s="2">
-        <f t="shared" si="62"/>
-        <v>522.46981427096455</v>
+        <f t="shared" si="64"/>
+        <v>523.46744362647451</v>
       </c>
       <c r="CM23" s="2">
-        <f t="shared" si="62"/>
-        <v>496.34632355741627</v>
+        <f t="shared" si="64"/>
+        <v>497.29407144515073</v>
       </c>
       <c r="CN23" s="2">
-        <f t="shared" si="62"/>
-        <v>471.52900737954542</v>
+        <f t="shared" si="64"/>
+        <v>472.42936787289318</v>
       </c>
       <c r="CO23" s="2">
-        <f t="shared" si="62"/>
-        <v>447.95255701056811</v>
+        <f t="shared" si="64"/>
+        <v>448.80789947924848</v>
       </c>
       <c r="CP23" s="2">
-        <f t="shared" si="62"/>
-        <v>425.55492916003971</v>
+        <f t="shared" si="64"/>
+        <v>426.36750450528604</v>
       </c>
       <c r="CQ23" s="2">
-        <f t="shared" si="62"/>
-        <v>404.27718270203769</v>
+        <f t="shared" si="64"/>
+        <v>405.0491292800217</v>
       </c>
       <c r="CR23" s="2">
-        <f t="shared" si="62"/>
-        <v>384.06332356693576</v>
+        <f t="shared" si="64"/>
+        <v>384.79667281602059</v>
       </c>
       <c r="CS23" s="2">
-        <f t="shared" si="62"/>
-        <v>364.86015738858896</v>
+        <f t="shared" si="64"/>
+        <v>365.55683917521952</v>
       </c>
       <c r="CT23" s="2">
-        <f t="shared" si="62"/>
-        <v>346.61714951915951</v>
+        <f t="shared" si="64"/>
+        <v>347.27899721645855</v>
       </c>
       <c r="CU23" s="2">
-        <f t="shared" si="62"/>
-        <v>329.28629204320151</v>
+        <f t="shared" si="64"/>
+        <v>329.91504735563558</v>
       </c>
       <c r="CV23" s="2">
-        <f t="shared" si="62"/>
-        <v>312.82197744104144</v>
+        <f t="shared" si="64"/>
+        <v>313.41929498785379</v>
       </c>
       <c r="CW23" s="2">
-        <f t="shared" si="62"/>
-        <v>297.18087856898933</v>
+        <f t="shared" si="64"/>
+        <v>297.74833023846111</v>
       </c>
       <c r="CX23" s="2">
-        <f t="shared" si="62"/>
-        <v>282.32183464053986</v>
+        <f t="shared" si="64"/>
+        <v>282.86091372653806</v>
       </c>
       <c r="CY23" s="2">
-        <f t="shared" si="62"/>
-        <v>268.20574290851283</v>
+        <f t="shared" si="64"/>
+        <v>268.71786804021116</v>
       </c>
       <c r="CZ23" s="2">
-        <f t="shared" si="62"/>
-        <v>254.79545576308718</v>
+        <f t="shared" si="64"/>
+        <v>255.28197463820058</v>
       </c>
       <c r="DA23" s="2">
-        <f t="shared" si="62"/>
-        <v>242.05568297493281</v>
+        <f t="shared" si="64"/>
+        <v>242.51787590629053</v>
       </c>
       <c r="DB23" s="2">
-        <f t="shared" si="62"/>
-        <v>229.95289882618616</v>
+        <f t="shared" si="64"/>
+        <v>230.39198211097599</v>
       </c>
       <c r="DC23" s="2">
-        <f t="shared" si="62"/>
-        <v>218.45525388487684</v>
+        <f t="shared" si="64"/>
+        <v>218.87238300542717</v>
       </c>
       <c r="DD23" s="2">
-        <f t="shared" si="62"/>
-        <v>207.53249119063298</v>
+        <f t="shared" si="64"/>
+        <v>207.92876385515581</v>
       </c>
       <c r="DE23" s="2">
-        <f t="shared" si="62"/>
-        <v>197.15586663110133</v>
+        <f t="shared" si="64"/>
+        <v>197.53232566239799</v>
       </c>
       <c r="DF23" s="2">
-        <f t="shared" si="62"/>
-        <v>187.29807329954625</v>
+        <f t="shared" si="64"/>
+        <v>187.65570937927808</v>
       </c>
       <c r="DG23" s="2">
-        <f t="shared" si="62"/>
-        <v>177.93316963456891</v>
+        <f t="shared" si="64"/>
+        <v>178.27292391031418</v>
       </c>
     </row>
     <row r="24" spans="2:111" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:D24" si="63">+C23/C25</f>
+        <f t="shared" ref="C24:D24" si="65">+C23/C25</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>0.58419164626730091</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" ref="E24:G24" si="64">+E23/E25</f>
+        <f t="shared" ref="E24:G24" si="66">+E23/E25</f>
         <v>0.86775439607956217</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.82020768064290128</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.35472390612462734</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" ref="H24:I24" si="65">+H23/H25</f>
+        <f t="shared" ref="H24:I24" si="67">+H23/H25</f>
         <v>1.1487402139576055</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.5250023717814924</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" ref="J24:K24" si="66">+J23/J25</f>
+        <f t="shared" ref="J24:K24" si="68">+J23/J25</f>
         <v>2.771692046028329</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2.2136444018645935</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:P24" si="67">+L23/L25</f>
+        <f t="shared" ref="L24:P24" si="69">+L23/L25</f>
         <v>2.5575826681870013</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>2.9774723176785032</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q24" s="21">
@@ -6133,73 +6148,73 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:T24" si="68">+R23/R25</f>
+        <f t="shared" ref="R24:T24" si="70">+R23/R25</f>
         <v>3.3142636258214146</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="68"/>
-        <v>4.1175879396984927</v>
+        <f t="shared" si="70"/>
+        <v>3.6204238921001912</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="68"/>
-        <v>4.4662930034789339</v>
+        <f t="shared" si="70"/>
+        <v>4.4416531791907508</v>
       </c>
       <c r="U24" s="21"/>
       <c r="AG24" s="1">
         <f>+AG23/AG25</f>
-        <v>15.785106382978729</v>
+        <v>15.264229432213202</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AT24" si="69">+AH23/AH25</f>
-        <v>27.335651528046423</v>
+        <f t="shared" ref="AH24:AT24" si="71">+AH23/AH25</f>
+        <v>27.489384905368869</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="69"/>
-        <v>30.681355479148941</v>
+        <f t="shared" si="71"/>
+        <v>30.83173369646968</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="69"/>
-        <v>32.478282625341897</v>
+        <f t="shared" si="71"/>
+        <v>32.620363656269319</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="69"/>
-        <v>35.610192895455661</v>
+        <f t="shared" si="71"/>
+        <v>35.742864718146748</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="69"/>
-        <v>38.544199213950463</v>
+        <f t="shared" si="71"/>
+        <v>38.668631936600711</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="69"/>
-        <v>41.045432718216361</v>
+        <f t="shared" si="71"/>
+        <v>41.163081945929648</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="69"/>
-        <v>43.596865041261509</v>
+        <f t="shared" si="71"/>
+        <v>43.708370739875519</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="69"/>
-        <v>45.470311728809619</v>
+        <f t="shared" si="71"/>
+        <v>45.577376595944536</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="69"/>
-        <v>46.410163679014254</v>
+        <f t="shared" si="71"/>
+        <v>46.514829443480949</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="69"/>
-        <v>47.384275421719387</v>
+        <f t="shared" si="71"/>
+        <v>47.487038383229056</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="69"/>
-        <v>48.391799799521046</v>
+        <f t="shared" si="71"/>
+        <v>48.493112684777394</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="69"/>
-        <v>33.121761182510774</v>
+        <f t="shared" si="71"/>
+        <v>33.173602195709506</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="69"/>
-        <v>19.309099655613526</v>
+        <f t="shared" si="71"/>
+        <v>19.31607990726819</v>
       </c>
     </row>
     <row r="25" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6255,208 +6270,207 @@
         <v>258.7</v>
       </c>
       <c r="S25" s="12">
-        <f t="shared" ref="S25:T25" si="70">+R25</f>
-        <v>258.7</v>
+        <v>259.5</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" si="70"/>
-        <v>258.7</v>
+        <f t="shared" ref="T25" si="72">+S25</f>
+        <v>259.5</v>
       </c>
       <c r="U25" s="12"/>
       <c r="AG25" s="2">
         <f>AVERAGE(Q25:T25)</f>
-        <v>258.5</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AH25" s="2">
         <f>+AG25</f>
-        <v>258.5</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="71">+AH25</f>
-        <v>258.5</v>
+        <f t="shared" ref="AI25:AT25" si="73">+AH25</f>
+        <v>258.89999999999998</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="71"/>
-        <v>258.5</v>
+        <f t="shared" si="73"/>
+        <v>258.89999999999998</v>
       </c>
     </row>
     <row r="27" spans="2:111" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <f>+G13/C13-1</f>
+        <f t="shared" ref="G27:P27" si="74">+G13/C13-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H27" s="25">
-        <f>+H13/D13-1</f>
+        <f t="shared" si="74"/>
         <v>0.44493886310784858</v>
       </c>
       <c r="I27" s="25">
-        <f>+I13/E13-1</f>
+        <f t="shared" si="74"/>
         <v>0.76535979547461963</v>
       </c>
       <c r="J27" s="25">
-        <f>+J13/F13-1</f>
+        <f t="shared" si="74"/>
         <v>0.62012853473169161</v>
       </c>
       <c r="K27" s="25">
-        <f>+K13/G13-1</f>
+        <f t="shared" si="74"/>
         <v>0.61894736842105269</v>
       </c>
       <c r="L27" s="25">
-        <f>+L13/H13-1</f>
+        <f t="shared" si="74"/>
         <v>0.29435163086714389</v>
       </c>
       <c r="M27" s="25">
-        <f>+M13/I13-1</f>
+        <f t="shared" si="74"/>
         <v>0.13749174917491747</v>
       </c>
       <c r="N27" s="25">
-        <f>+N13/J13-1</f>
+        <f t="shared" si="74"/>
         <v>0.176856468118604</v>
       </c>
       <c r="O27" s="25">
-        <f>+O13/K13-1</f>
+        <f t="shared" si="74"/>
         <v>0.28998699609882972</v>
       </c>
       <c r="P27" s="25">
-        <f>+P13/L13-1</f>
+        <f t="shared" si="74"/>
         <v>0.27350952673632456</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:T27" si="72">+Q13/M13-1</f>
+        <f t="shared" ref="Q27:T27" si="75">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.2246376811594204</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="72"/>
-        <v>0.15625</v>
+        <f t="shared" si="75"/>
+        <v>0.17656249999999996</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" si="72"/>
-        <v>0.15395752895752901</v>
+        <f t="shared" si="75"/>
+        <v>0.17340733590733581</v>
       </c>
       <c r="U27" s="24"/>
     </row>
     <row r="28" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="73">C15/C13</f>
+        <f t="shared" ref="C28" si="76">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:I28" si="74">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="77">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.88919366754371454</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.8557358650587249</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.86114315789473683</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.8528146380270486</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="75">I15/I13</f>
+        <f t="shared" ref="I28:J28" si="78">I15/I13</f>
         <v>0.8927412541254125</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.87896877459984257</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="76">K15/K13</f>
+        <f t="shared" ref="K28:L28" si="79">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.87516902274124164</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="77">M15/M13</f>
+        <f t="shared" ref="M28:P28" si="80">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.87290969899665549</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.88079032258064516</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0.88059845559845551</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="78">Q15/Q13</f>
+        <f t="shared" ref="Q28:R28" si="81">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
         <f>S15/S13</f>
-        <v>0.93</v>
+        <v>0.87602279055819732</v>
       </c>
       <c r="T28" s="19">
         <f>T15/T13</f>
@@ -6464,67 +6478,67 @@
       </c>
       <c r="U28" s="19"/>
       <c r="AF28" s="19">
-        <f t="shared" ref="AF28:AG28" si="79">AF15/AF13</f>
+        <f t="shared" ref="AF28:AG28" si="82">AF15/AF13</f>
         <v>0.88060528435424446</v>
       </c>
       <c r="AG28" s="19">
-        <f t="shared" si="79"/>
-        <v>0.91808563951222233</v>
+        <f t="shared" si="82"/>
+        <v>0.90428461054513742</v>
       </c>
       <c r="AH28" s="19">
-        <f t="shared" ref="AH28:AT28" si="80">AH15/AH13</f>
+        <f t="shared" ref="AH28:AT28" si="83">AH15/AH13</f>
         <v>0.93</v>
       </c>
       <c r="AI28" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
+        <v>0.93</v>
+      </c>
+      <c r="AJ28" s="19">
+        <f t="shared" si="83"/>
+        <v>0.93</v>
+      </c>
+      <c r="AK28" s="19">
+        <f t="shared" si="83"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AJ28" s="19">
-        <f t="shared" si="80"/>
+      <c r="AL28" s="19">
+        <f t="shared" si="83"/>
+        <v>0.93</v>
+      </c>
+      <c r="AM28" s="19">
+        <f t="shared" si="83"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AK28" s="19">
-        <f t="shared" si="80"/>
+      <c r="AN28" s="19">
+        <f t="shared" si="83"/>
         <v>0.93</v>
       </c>
-      <c r="AL28" s="19">
-        <f t="shared" si="80"/>
+      <c r="AO28" s="19">
+        <f t="shared" si="83"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AP28" s="19">
+        <f t="shared" si="83"/>
         <v>0.93</v>
       </c>
-      <c r="AM28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
-      </c>
-      <c r="AN28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
-      </c>
-      <c r="AO28" s="19">
-        <f t="shared" si="80"/>
+      <c r="AQ28" s="19">
+        <f t="shared" si="83"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AP28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
-      </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
-      </c>
       <c r="AR28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
+        <f t="shared" si="83"/>
+        <v>0.92999999999999994</v>
       </c>
       <c r="AS28" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AT28" s="19">
-        <f t="shared" si="80"/>
-        <v>0.93</v>
+        <f t="shared" si="83"/>
+        <v>0.92999999999999994</v>
       </c>
       <c r="AV28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AW28" s="23">
         <v>-0.05</v>
@@ -6532,140 +6546,140 @@
     </row>
     <row r="29" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="81">+C16/C13</f>
+        <f t="shared" ref="C29" si="84">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:I29" si="82">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="85">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="83">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="86">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="84">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="87">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>9.7997269003186172E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="84"/>
-        <v>9.3853530950305145E-2</v>
+        <f t="shared" si="87"/>
+        <v>0.105727627125905</v>
       </c>
       <c r="T29" s="19">
         <f>+T16/T13</f>
-        <v>9.0046005855290684E-2</v>
+        <v>0.10150948052482213</v>
       </c>
       <c r="U29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19">
         <f>+AG16/AG13</f>
-        <v>9.0528425858900835E-2</v>
+        <v>9.667663712321059E-2</v>
       </c>
       <c r="AH29" s="19">
-        <f t="shared" ref="AH29:AT29" si="85">+AH16/AH13</f>
+        <f t="shared" ref="AH29:AT29" si="88">+AH16/AH13</f>
         <v>0.1</v>
       </c>
       <c r="AI29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="AJ29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="AK29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL29" s="19">
+        <f t="shared" si="88"/>
         <v>0.10000000000000002</v>
       </c>
-      <c r="AL29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AM29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AM29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AN29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AN29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AO29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AO29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AP29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AP29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AQ29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AQ29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AR29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AR29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AS29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AS29" s="19">
-        <f t="shared" si="85"/>
+      <c r="AT29" s="19">
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-      <c r="AT29" s="19">
-        <f t="shared" si="85"/>
-        <v>0.1</v>
-      </c>
       <c r="AV29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AW29" s="23">
         <v>7.0000000000000007E-2</v>
@@ -6673,46 +6687,46 @@
     </row>
     <row r="30" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="86">C22/C21</f>
+        <f t="shared" ref="C30" si="89">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:I30" si="87">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="90">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="88">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="91">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="89">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="92">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -6720,92 +6734,92 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="90">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="93">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.23172043010752691</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="90"/>
-        <v>0.18946599503888237</v>
+        <f t="shared" si="93"/>
+        <v>0.20744052640458924</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="90"/>
-        <v>0.17729612725447333</v>
+        <f t="shared" si="93"/>
+        <v>0.17765296883795695</v>
       </c>
       <c r="U30" s="19"/>
       <c r="AG30" s="23">
         <f>+AG22/AG21</f>
-        <v>0.19771728551626505</v>
+        <v>0.20234502238309363</v>
       </c>
       <c r="AH30" s="23">
-        <f t="shared" ref="AH30:AT30" si="91">+AH22/AH21</f>
+        <f t="shared" ref="AH30:AT30" si="94">+AH22/AH21</f>
         <v>0.2</v>
       </c>
       <c r="AI30" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
       <c r="AJ30" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AK30" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
       <c r="AL30" s="23">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AM30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AM30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AN30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AN30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AO30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AO30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AP30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AP30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AQ30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AQ30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AR30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AR30" s="23">
-        <f t="shared" si="91"/>
+      <c r="AS30" s="23">
+        <f t="shared" si="94"/>
         <v>0.2</v>
       </c>
-      <c r="AS30" s="23">
-        <f t="shared" si="91"/>
-        <v>0.19999999999999998</v>
-      </c>
       <c r="AT30" s="23">
-        <f t="shared" si="91"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="94"/>
+        <v>0.2</v>
       </c>
       <c r="AV30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AW30" s="23">
         <v>0.01</v>
@@ -6813,11 +6827,11 @@
     </row>
     <row r="31" spans="2:111" x14ac:dyDescent="0.2">
       <c r="AV31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AW31" s="2">
         <f>NPV(AW29,AH23:CE23)+Main!M5-Main!M6</f>
-        <v>105458.5449224412</v>
+        <v>106383.12253034985</v>
       </c>
     </row>
     <row r="32" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6842,85 +6856,83 @@
         <f>7600.1+638</f>
         <v>8238.1</v>
       </c>
-      <c r="R32" s="12">
-        <v>9253</v>
-      </c>
+      <c r="R32" s="12"/>
       <c r="S32" s="12">
-        <f t="shared" ref="S32:T32" si="92">+R32+S23</f>
-        <v>10318.219999999999</v>
+        <f>9171.5+599.2</f>
+        <v>9770.7000000000007</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="92"/>
-        <v>11473.65</v>
+        <f t="shared" ref="T32" si="95">+S32+T23</f>
+        <v>10923.309000000001</v>
       </c>
       <c r="U32" s="12"/>
       <c r="AG32" s="2">
         <f>+T32</f>
-        <v>11473.65</v>
+        <v>10923.309000000001</v>
       </c>
       <c r="AH32" s="2">
         <f>+AG32+AH23</f>
-        <v>18539.915919999999</v>
+        <v>18040.310752000001</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AT32" si="93">+AH32+AI23</f>
-        <v>26471.046311360002</v>
+        <f t="shared" ref="AI32:AT32" si="96">+AH32+AI23</f>
+        <v>26022.646606016002</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="93"/>
-        <v>34866.68237001088</v>
+        <f t="shared" si="96"/>
+        <v>34468.05875662413</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" si="93"/>
-        <v>44071.917233486165</v>
+        <f t="shared" si="96"/>
+        <v>43721.886432152322</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="93"/>
-        <v>54035.592730292359</v>
+        <f t="shared" si="96"/>
+        <v>53733.195240538247</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="93"/>
-        <v>64645.837087951288</v>
+        <f t="shared" si="96"/>
+        <v>64390.317156339428</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="93"/>
-        <v>75915.626701117391</v>
+        <f t="shared" si="96"/>
+        <v>75706.4143408932</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="93"/>
-        <v>87669.702283014674</v>
+        <f t="shared" si="96"/>
+        <v>87506.397141583235</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="93"/>
-        <v>99666.729594039862</v>
+        <f t="shared" si="96"/>
+        <v>99549.086484500454</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="93"/>
-        <v>111915.56479055432</v>
+        <f t="shared" si="96"/>
+        <v>111843.48072191846</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="93"/>
-        <v>124424.84503873051</v>
+        <f t="shared" si="96"/>
+        <v>124398.34759600733</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="93"/>
-        <v>132986.82030440954</v>
+        <f t="shared" si="96"/>
+        <v>132986.99320447652</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="93"/>
-        <v>137978.22256538563</v>
+        <f t="shared" si="96"/>
+        <v>137987.92629246824</v>
       </c>
       <c r="AV32" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AW32" s="1">
         <f>AW31/Main!M3</f>
-        <v>411.94744110328594</v>
+        <v>409.95422940404569</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -6940,13 +6952,15 @@
         <v>1292.8</v>
       </c>
       <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
+      <c r="S33" s="12">
+        <v>1385.2</v>
+      </c>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
     <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -6966,13 +6980,15 @@
         <v>338.9</v>
       </c>
       <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
+      <c r="S34" s="12">
+        <v>388.2</v>
+      </c>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
     <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -6992,13 +7008,15 @@
         <v>491.5</v>
       </c>
       <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="S35" s="12">
+        <v>726.9</v>
+      </c>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
     <row r="36" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7018,13 +7036,15 @@
         <v>1107.4000000000001</v>
       </c>
       <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+      <c r="S36" s="12">
+        <v>1118.7</v>
+      </c>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
     <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7045,13 +7065,16 @@
         <v>1402.2</v>
       </c>
       <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="S37" s="12">
+        <f>1075.2+603.6</f>
+        <v>1678.8000000000002</v>
+      </c>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
     <row r="38" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7071,13 +7094,15 @@
         <v>945.5</v>
       </c>
       <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
+      <c r="S38" s="12">
+        <v>1162.7</v>
+      </c>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
     <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7097,13 +7122,15 @@
         <v>329</v>
       </c>
       <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
+      <c r="S39" s="12">
+        <v>342.7</v>
+      </c>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
     <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7123,13 +7150,15 @@
         <v>110.7</v>
       </c>
       <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="12">
+        <v>132.5</v>
+      </c>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
     <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7149,17 +7178,17 @@
         <f>SUM(Q32:Q40)</f>
         <v>14256.1</v>
       </c>
-      <c r="R41" s="12">
-        <f t="shared" ref="R41" si="94">SUM(R32:R40)</f>
-        <v>9253</v>
-      </c>
-      <c r="S41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12">
+        <f t="shared" ref="S41" si="97">SUM(S32:S40)</f>
+        <v>16706.400000000005</v>
+      </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
     <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7179,13 +7208,15 @@
         <v>173.6</v>
       </c>
       <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
+      <c r="S43" s="12">
+        <v>126.9</v>
+      </c>
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
     </row>
     <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7205,13 +7236,15 @@
         <v>1720.5</v>
       </c>
       <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
+      <c r="S44" s="12">
+        <v>2264.4</v>
+      </c>
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
     </row>
     <row r="45" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7231,13 +7264,15 @@
         <v>286.10000000000002</v>
       </c>
       <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
+      <c r="S45" s="12">
+        <v>218</v>
+      </c>
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
     </row>
     <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7258,13 +7293,16 @@
         <v>872.5</v>
       </c>
       <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
+      <c r="S46" s="12">
+        <f>442.3+382.3</f>
+        <v>824.6</v>
+      </c>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
     </row>
     <row r="47" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7284,13 +7322,15 @@
         <v>179</v>
       </c>
       <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
+      <c r="S47" s="12">
+        <v>127.2</v>
+      </c>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
     </row>
     <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -7310,13 +7350,15 @@
         <v>117.4</v>
       </c>
       <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
+      <c r="S48" s="12">
+        <v>115.7</v>
+      </c>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7336,13 +7378,15 @@
         <v>10907</v>
       </c>
       <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
+      <c r="S49" s="12">
+        <v>13029.6</v>
+      </c>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7363,13 +7407,16 @@
         <v>14256.1</v>
       </c>
       <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
+      <c r="S50" s="12">
+        <f t="shared" ref="S50" si="98">SUM(S43:S49)</f>
+        <v>16706.400000000001</v>
+      </c>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
     </row>
     <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7390,13 +7437,16 @@
         <v>1002.4000000000001</v>
       </c>
       <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
+      <c r="S52" s="12">
+        <f>+S23</f>
+        <v>939.49999999999966</v>
+      </c>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
     </row>
     <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -7422,7 +7472,7 @@
     </row>
     <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -7448,7 +7498,7 @@
     </row>
     <row r="55" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -7474,7 +7524,7 @@
     </row>
     <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -7500,7 +7550,7 @@
     </row>
     <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -7526,7 +7576,7 @@
     </row>
     <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -7552,7 +7602,7 @@
     </row>
     <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -7578,7 +7628,7 @@
     </row>
     <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -7605,7 +7655,7 @@
     </row>
     <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -7632,7 +7682,7 @@
     </row>
     <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -7658,7 +7708,7 @@
     </row>
     <row r="64" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -7685,7 +7735,7 @@
     </row>
     <row r="65" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -7712,7 +7762,7 @@
     </row>
     <row r="67" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -7738,7 +7788,7 @@
     </row>
     <row r="68" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -7764,7 +7814,7 @@
     </row>
     <row r="69" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -7790,7 +7840,7 @@
     </row>
     <row r="70" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -7816,7 +7866,7 @@
     </row>
     <row r="71" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -7843,7 +7893,7 @@
     </row>
     <row r="72" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -7869,7 +7919,7 @@
     </row>
     <row r="73" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -7955,7 +8005,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7963,70 +8013,70 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" t="s">
         <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
         <v>187</v>
-      </c>
-      <c r="C7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
         <v>189</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8067,15 +8117,15 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8121,7 +8171,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8176,10 +8226,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8228,7 +8278,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8236,7 +8286,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8252,96 +8302,96 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8375,7 +8425,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8383,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8391,50 +8441,50 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8482,22 +8532,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1072497A-F9A4-46C3-B36F-30C4AE8C4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628469B9-D1BD-402D-9033-A60343B4B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29205" yWindow="1350" windowWidth="27645" windowHeight="18960" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-39945" yWindow="1785" windowWidth="28200" windowHeight="18270" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,9 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3482,11 +3480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
   <dimension ref="A1:DG74"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="BB28" sqref="BB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3497,12 +3495,12 @@
     <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>318</v>
       </c>
@@ -3652,8 +3650,28 @@
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AU3">
+        <f t="shared" ref="AU3" si="1">+AT3+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3" si="2">+AU3+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" ref="AW3" si="3">+AV3+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" ref="AX3" si="4">+AW3+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3" si="5">+AX3+1</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -3677,23 +3695,43 @@
         <v>1010</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AT6" si="1">+AP4*1.01</f>
+        <f t="shared" ref="AQ4:AT5" si="6">+AP4*1.01</f>
         <v>1020.1</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1030.3009999999999</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1040.60401</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1051.0100500999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU4" s="2">
+        <f t="shared" ref="AU4:AU6" si="7">+AT4*1.01</f>
+        <v>1061.5201506009998</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" ref="AV4:AV6" si="8">+AU4*1.01</f>
+        <v>1072.1353521070098</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" ref="AW4:AW6" si="9">+AV4*1.01</f>
+        <v>1082.8567056280799</v>
+      </c>
+      <c r="AX4" s="2">
+        <f t="shared" ref="AX4:AX5" si="10">+AW4*1.01</f>
+        <v>1093.6852726843608</v>
+      </c>
+      <c r="AY4" s="2">
+        <f t="shared" ref="AY4" si="11">+AX4*1.01</f>
+        <v>1104.6221254112045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -3720,46 +3758,66 @@
         <v>200</v>
       </c>
       <c r="AJ5" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AK5" s="2">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="AL5" s="2">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="AM5" s="2">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="AN5" s="2">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="AO5" s="2">
         <f>+AN5*1.01</f>
-        <v>1717</v>
+        <v>6060</v>
       </c>
       <c r="AP5" s="2">
-        <f t="shared" ref="AP5:AT5" si="2">+AO5*1.01</f>
-        <v>1734.17</v>
+        <f t="shared" ref="AP5:AS5" si="12">+AO5*1.01</f>
+        <v>6120.6</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="shared" si="2"/>
-        <v>1751.5117</v>
+        <f t="shared" si="12"/>
+        <v>6181.8060000000005</v>
       </c>
       <c r="AR5" s="2">
-        <f t="shared" si="2"/>
-        <v>1769.0268169999999</v>
+        <f t="shared" si="12"/>
+        <v>6243.624060000001</v>
       </c>
       <c r="AS5" s="2">
-        <f t="shared" si="2"/>
-        <v>1786.71708517</v>
+        <f t="shared" si="12"/>
+        <v>6306.060300600001</v>
       </c>
       <c r="AT5" s="2">
-        <f t="shared" si="2"/>
-        <v>1804.5842560217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>6369.1209036060009</v>
+      </c>
+      <c r="AU5" s="2">
+        <f t="shared" si="7"/>
+        <v>6432.812112642061</v>
+      </c>
+      <c r="AV5" s="2">
+        <f t="shared" si="8"/>
+        <v>6497.1402337684813</v>
+      </c>
+      <c r="AW5" s="2">
+        <f t="shared" si="9"/>
+        <v>6562.1116361061659</v>
+      </c>
+      <c r="AX5" s="2">
+        <f t="shared" si="10"/>
+        <v>6627.7327524672273</v>
+      </c>
+      <c r="AY5" s="2">
+        <f t="shared" ref="AY5" si="13">+AX5*0.1</f>
+        <v>662.77327524672273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3782,43 +3840,8 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-      <c r="AK6" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>800</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AP6" s="2">
-        <f>+AO6*1.01</f>
-        <v>1010</v>
-      </c>
-      <c r="AQ6" s="2">
-        <f t="shared" si="1"/>
-        <v>1020.1</v>
-      </c>
-      <c r="AR6" s="2">
-        <f t="shared" si="1"/>
-        <v>1030.3009999999999</v>
-      </c>
-      <c r="AS6" s="2">
-        <f t="shared" si="1"/>
-        <v>1040.60401</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="1"/>
-        <v>1051.0100500999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
@@ -3861,35 +3884,55 @@
         <v>1010</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" ref="AN7:AT7" si="3">+AM7*1.01</f>
+        <f t="shared" ref="AN7:AT7" si="14">+AM7*1.01</f>
         <v>1020.1</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1030.3009999999999</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1040.60401</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1051.0100500999999</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1061.5201506009998</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1072.1353521070098</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>1082.8567056280799</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU7" s="2">
+        <f t="shared" ref="AU7" si="15">+AT7*1.01</f>
+        <v>1093.6852726843608</v>
+      </c>
+      <c r="AV7" s="2">
+        <f t="shared" ref="AV7" si="16">+AU7*1.01</f>
+        <v>1104.6221254112045</v>
+      </c>
+      <c r="AW7" s="2">
+        <f t="shared" ref="AW7" si="17">+AV7*1.01</f>
+        <v>1115.6683466653164</v>
+      </c>
+      <c r="AX7" s="2">
+        <f t="shared" ref="AX7" si="18">+AW7*1.01</f>
+        <v>1126.8250301319697</v>
+      </c>
+      <c r="AY7" s="2">
+        <f t="shared" ref="AY7" si="19">+AX7*1.01</f>
+        <v>1138.0932804332895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>271</v>
       </c>
@@ -3923,7 +3966,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +4022,7 @@
         <v>2010.5</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" ref="T9" si="4">+S9+100</f>
+        <f t="shared" ref="T9" si="20">+S9+100</f>
         <v>2110.5</v>
       </c>
       <c r="U9" s="12"/>
@@ -3988,7 +4031,7 @@
         <v>5698.2</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AG11" si="5">SUM(Q9:T9)</f>
+        <f t="shared" ref="AG9:AG11" si="21">SUM(Q9:T9)</f>
         <v>7775.6</v>
       </c>
       <c r="AH9" s="2">
@@ -4004,35 +4047,35 @@
         <v>10469.06784</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" ref="AK9:AR9" si="6">+AJ9*1.02</f>
+        <f t="shared" ref="AK9:AR9" si="22">+AJ9*1.02</f>
         <v>10678.4491968</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>10892.018180736</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>11109.85854435072</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>11332.055715237735</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>11558.69682954249</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>11789.870766133341</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>12025.668181456009</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>12266.18154508513</v>
       </c>
       <c r="AS9" s="2">
@@ -4043,8 +4086,28 @@
         <f>+AS9*0.1</f>
         <v>613.30907725425652</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU9" s="2">
+        <f t="shared" ref="AU9:AY9" si="23">+AT9*0.1</f>
+        <v>61.330907725425654</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="23"/>
+        <v>6.1330907725425661</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="23"/>
+        <v>0.61330907725425665</v>
+      </c>
+      <c r="AX9" s="2">
+        <f t="shared" si="23"/>
+        <v>6.1330907725425668E-2</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="23"/>
+        <v>6.1330907725425671E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -4100,16 +4163,16 @@
         <v>38.200000000000003</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" ref="T10" si="7">S10-1</f>
+        <f t="shared" ref="T10" si="24">S10-1</f>
         <v>37.200000000000003</v>
       </c>
       <c r="U10" s="12"/>
       <c r="AF10" s="2">
-        <f t="shared" ref="AF10:AF14" si="8">SUM(M10:P10)</f>
+        <f t="shared" ref="AF10:AF14" si="25">SUM(M10:P10)</f>
         <v>420.1</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>183.2</v>
       </c>
       <c r="AH10" s="2">
@@ -4117,55 +4180,75 @@
         <v>164.88</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" ref="AI10:AT10" si="9">+AH10*0.9</f>
+        <f t="shared" ref="AI10:AT10" si="26">+AH10*0.9</f>
         <v>148.392</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>133.55279999999999</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>120.19752</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>108.177768</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>97.359991199999996</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>87.623992079999994</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>78.861592872000003</v>
       </c>
       <c r="AP10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>70.975433584800001</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>63.877890226320005</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>57.490101203688006</v>
       </c>
       <c r="AS10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>51.741091083319205</v>
       </c>
       <c r="AT10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>46.566981974987286</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU10" s="2">
+        <f t="shared" ref="AU10:AU12" si="27">+AT10*0.9</f>
+        <v>41.910283777488559</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" ref="AV10:AV12" si="28">+AU10*0.9</f>
+        <v>37.719255399739701</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" ref="AW10:AW12" si="29">+AV10*0.9</f>
+        <v>33.94732985976573</v>
+      </c>
+      <c r="AX10" s="2">
+        <f t="shared" ref="AX10:AX12" si="30">+AW10*0.9</f>
+        <v>30.55259687378916</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" ref="AY10:AY12" si="31">+AX10*0.9</f>
+        <v>27.497337186410245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
@@ -4221,72 +4304,92 @@
         <v>146.19999999999999</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" ref="T11" si="10">S11-1</f>
+        <f t="shared" ref="T11" si="32">S11-1</f>
         <v>145.19999999999999</v>
       </c>
       <c r="U11" s="12"/>
       <c r="AF11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>771.7</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>545.5</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AT11" si="11">+AG11*0.9</f>
+        <f t="shared" ref="AH11:AT11" si="33">+AG11*0.9</f>
         <v>490.95</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>441.85500000000002</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>397.66950000000003</v>
       </c>
       <c r="AK11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>357.90255000000002</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>322.11229500000002</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>289.90106550000002</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>260.91095895000001</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>234.81986305500001</v>
       </c>
       <c r="AP11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>211.33787674950003</v>
       </c>
       <c r="AQ11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>190.20408907455004</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>171.18368016709505</v>
       </c>
       <c r="AS11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>154.06531215038555</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="33"/>
         <v>138.65878093534701</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU11" s="2">
+        <f t="shared" si="27"/>
+        <v>124.79290284181231</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="28"/>
+        <v>112.31361255763107</v>
+      </c>
+      <c r="AW11" s="2">
+        <f t="shared" si="29"/>
+        <v>101.08225130186797</v>
+      </c>
+      <c r="AX11" s="2">
+        <f t="shared" si="30"/>
+        <v>90.974026171681174</v>
+      </c>
+      <c r="AY11" s="2">
+        <f t="shared" si="31"/>
+        <v>81.87662355451306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4342,12 +4445,12 @@
         <v>139.4</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" ref="T12" si="12">S12-1</f>
+        <f t="shared" ref="T12" si="34">S12-1</f>
         <v>138.4</v>
       </c>
       <c r="U12" s="12"/>
       <c r="AF12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>683.3</v>
       </c>
       <c r="AG12" s="2">
@@ -4355,116 +4458,136 @@
         <v>555.79999999999995</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AT12" si="13">+AG12*0.9</f>
+        <f t="shared" ref="AH12:AT12" si="35">+AG12*0.9</f>
         <v>500.21999999999997</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>450.19799999999998</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>405.1782</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>364.66038000000003</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>328.19434200000006</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>295.37490780000007</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>265.83741702000009</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>239.25367531800009</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>215.3283077862001</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>193.7954770075801</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>174.41592930682211</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>156.97433637613989</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>141.27690273852591</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AU12" s="2">
+        <f t="shared" si="27"/>
+        <v>127.14921246467331</v>
+      </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="28"/>
+        <v>114.43429121820598</v>
+      </c>
+      <c r="AW12" s="2">
+        <f t="shared" si="29"/>
+        <v>102.99086209638538</v>
+      </c>
+      <c r="AX12" s="2">
+        <f t="shared" si="30"/>
+        <v>92.691775886746854</v>
+      </c>
+      <c r="AY12" s="2">
+        <f t="shared" si="31"/>
+        <v>83.422598298072174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" ref="C13:K13" si="14">SUM(C9:C12)+C8</f>
+        <f t="shared" ref="C13:K13" si="36">SUM(C9:C12)+C8</f>
         <v>783</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>869.93299999999999</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>858.18200000000002</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>940.91300000000001</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>950</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>1257</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>1515</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>1524.4</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="36"/>
         <v>1538</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" ref="L13:P13" si="15">SUM(L9:L12)</f>
+        <f t="shared" ref="L13:P13" si="37">SUM(L9:L12)</f>
         <v>1627</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>1723.3</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>1794</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>1984</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>2072</v>
       </c>
       <c r="Q13" s="14">
@@ -4472,35 +4595,35 @@
         <v>2097.5</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:X13" si="16">SUM(R9:R12)</f>
+        <f t="shared" ref="R13:X13" si="38">SUM(R9:R12)</f>
         <v>2197</v>
       </c>
       <c r="S13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>2334.2999999999997</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>2431.2999999999997</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AE13" s="13">
-        <f t="shared" ref="AE13" si="17">SUM(AE9:AE12)</f>
+        <f t="shared" ref="AE13" si="39">SUM(AE9:AE12)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -4516,55 +4639,75 @@
         <v>10586.769999999999</v>
       </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13:AT13" si="18">SUM(AI4:AI12)</f>
+        <f t="shared" ref="AI13:AT13" si="40">SUM(AI4:AI12)</f>
         <v>11804.236999999999</v>
       </c>
       <c r="AJ13" s="13">
-        <f t="shared" si="18"/>
-        <v>12405.468339999999</v>
+        <f t="shared" si="40"/>
+        <v>13405.468339999999</v>
       </c>
       <c r="AK13" s="13">
-        <f t="shared" si="18"/>
-        <v>13521.2096468</v>
+        <f t="shared" si="40"/>
+        <v>15521.2096468</v>
       </c>
       <c r="AL13" s="13">
-        <f t="shared" si="18"/>
-        <v>14550.502585736001</v>
+        <f t="shared" si="40"/>
+        <v>17050.502585735998</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="18"/>
-        <v>15402.494508850721</v>
+        <f t="shared" si="40"/>
+        <v>18402.494508850716</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="18"/>
-        <v>16266.528083287736</v>
+        <f t="shared" si="40"/>
+        <v>19766.528083287736</v>
       </c>
       <c r="AO13" s="13">
-        <f t="shared" si="18"/>
-        <v>16858.93296078749</v>
+        <f>SUM(AO4:AO12)</f>
+        <v>20201.932960787486</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="18"/>
-        <v>17082.286394253842</v>
+        <f t="shared" si="40"/>
+        <v>20458.716394253843</v>
       </c>
       <c r="AQ13" s="13">
-        <f t="shared" si="18"/>
-        <v>17316.267387864456</v>
+        <f t="shared" si="40"/>
+        <v>20726.461687864456</v>
       </c>
       <c r="AR13" s="13">
-        <f t="shared" si="18"/>
-        <v>17560.420223363733</v>
+        <f t="shared" si="40"/>
+        <v>21004.716466363734</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="18"/>
-        <v>11435.931969429417</v>
+        <f t="shared" si="40"/>
+        <v>14914.671174859421</v>
       </c>
       <c r="AT13" s="13">
-        <f t="shared" si="18"/>
-        <v>5929.2728047528963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>9442.7994022371986</v>
+      </c>
+      <c r="AU13" s="13">
+        <f t="shared" ref="AU13:AY13" si="41">SUM(AU4:AU12)</f>
+        <v>8943.2008427368219</v>
+      </c>
+      <c r="AV13" s="13">
+        <f t="shared" si="41"/>
+        <v>8944.4979612348143</v>
+      </c>
+      <c r="AW13" s="13">
+        <f t="shared" si="41"/>
+        <v>8999.2704407348356</v>
+      </c>
+      <c r="AX13" s="13">
+        <f t="shared" si="41"/>
+        <v>9062.5227851235013</v>
+      </c>
+      <c r="AY13" s="13">
+        <f t="shared" si="41"/>
+        <v>3098.2913732209845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -4625,7 +4768,7 @@
       </c>
       <c r="U14" s="12"/>
       <c r="AF14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>904.21199999999999</v>
       </c>
       <c r="AG14" s="2">
@@ -4637,96 +4780,116 @@
         <v>741.07389999999998</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AT14" si="19">+AI13*0.07</f>
+        <f t="shared" ref="AI14:AT14" si="42">+AI13*0.07</f>
         <v>826.29659000000004</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="19"/>
-        <v>868.38278380000008</v>
+        <f t="shared" si="42"/>
+        <v>938.38278380000008</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="19"/>
-        <v>946.48467527600008</v>
+        <f t="shared" si="42"/>
+        <v>1086.4846752760002</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="19"/>
-        <v>1018.5351810015202</v>
+        <f t="shared" si="42"/>
+        <v>1193.53518100152</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="19"/>
-        <v>1078.1746156195507</v>
+        <f t="shared" si="42"/>
+        <v>1288.1746156195502</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="19"/>
-        <v>1138.6569658301416</v>
+        <f t="shared" si="42"/>
+        <v>1383.6569658301416</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="19"/>
-        <v>1180.1253072551244</v>
+        <f t="shared" si="42"/>
+        <v>1414.1353072551242</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="19"/>
-        <v>1195.760047597769</v>
+        <f t="shared" si="42"/>
+        <v>1432.1101475977691</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="19"/>
-        <v>1212.1387171505121</v>
+        <f t="shared" si="42"/>
+        <v>1450.852318150512</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="19"/>
-        <v>1229.2294156354615</v>
+        <f t="shared" si="42"/>
+        <v>1470.3301526454616</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="19"/>
-        <v>800.5152378600593</v>
+        <f t="shared" si="42"/>
+        <v>1044.0269822401594</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="19"/>
-        <v>415.04909633270279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>660.99595815660393</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" ref="AU14:AY14" si="43">+AU13*0.07</f>
+        <v>626.02405899157759</v>
+      </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="43"/>
+        <v>626.11485728643709</v>
+      </c>
+      <c r="AW14" s="2">
+        <f t="shared" si="43"/>
+        <v>629.9489308514386</v>
+      </c>
+      <c r="AX14" s="2">
+        <f t="shared" si="43"/>
+        <v>634.37659495864511</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" si="43"/>
+        <v>216.88039612546893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:J15" si="20">+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="44">+C13-C14</f>
         <v>671.745</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>763.09</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>805.173</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>1339.9</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:L15" si="21">+K13-K14</f>
+        <f t="shared" ref="K15:L15" si="45">+K13-K14</f>
         <v>1351.818</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>1423.9</v>
       </c>
       <c r="M15" s="12">
@@ -4750,7 +4913,7 @@
         <v>1951.7</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:T15" si="22">+R13-R14</f>
+        <f t="shared" ref="R15:T15" si="46">+R13-R14</f>
         <v>1935.2</v>
       </c>
       <c r="S15" s="12">
@@ -4758,12 +4921,12 @@
         <v>2044.8999999999996</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>2261.1089999999999</v>
       </c>
       <c r="U15" s="12"/>
       <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="23">+AE13-AE14</f>
+        <f t="shared" ref="AE15" si="47">+AE13-AE14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="2">
@@ -4779,55 +4942,75 @@
         <v>9845.6960999999992</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" ref="AI15:AT15" si="24">+AI13-AI14</f>
+        <f t="shared" ref="AI15:AT15" si="48">+AI13-AI14</f>
         <v>10977.940409999999</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="24"/>
-        <v>11537.0855562</v>
+        <f t="shared" si="48"/>
+        <v>12467.0855562</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="24"/>
-        <v>12574.724971524</v>
+        <f t="shared" si="48"/>
+        <v>14434.724971524</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="24"/>
-        <v>13531.967404734482</v>
+        <f t="shared" si="48"/>
+        <v>15856.967404734478</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="24"/>
-        <v>14324.31989323117</v>
+        <f t="shared" si="48"/>
+        <v>17114.319893231164</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="24"/>
-        <v>15127.871117457595</v>
+        <f t="shared" si="48"/>
+        <v>18382.871117457595</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="24"/>
-        <v>15678.807653532365</v>
+        <f t="shared" si="48"/>
+        <v>18787.797653532361</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="24"/>
-        <v>15886.526346656074</v>
+        <f t="shared" si="48"/>
+        <v>19026.606246656072</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="24"/>
-        <v>16104.128670713944</v>
+        <f t="shared" si="48"/>
+        <v>19275.609369713944</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="24"/>
-        <v>16331.190807728271</v>
+        <f t="shared" si="48"/>
+        <v>19534.386313718271</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="24"/>
-        <v>10635.416731569358</v>
+        <f t="shared" si="48"/>
+        <v>13870.644192619262</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="24"/>
-        <v>5514.2237084201934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>8781.803444080595</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" ref="AU15:AY15" si="49">+AU13-AU14</f>
+        <v>8317.1767837452444</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" si="49"/>
+        <v>8318.3831039483775</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" si="49"/>
+        <v>8369.3215098833971</v>
+      </c>
+      <c r="AX15" s="2">
+        <f t="shared" si="49"/>
+        <v>8428.1461901648563</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" si="49"/>
+        <v>2881.4109770955156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
@@ -4883,7 +5066,7 @@
         <v>246.8</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" ref="T16" si="25">+S16</f>
+        <f t="shared" ref="T16" si="50">+S16</f>
         <v>246.8</v>
       </c>
       <c r="U16" s="12"/>
@@ -4894,7 +5077,7 @@
         <v>673</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AG17" si="26">SUM(Q16:T16)</f>
+        <f t="shared" ref="AG16:AG17" si="51">SUM(Q16:T16)</f>
         <v>875.90000000000009</v>
       </c>
       <c r="AH16" s="2">
@@ -4902,52 +5085,72 @@
         <v>1058.6769999999999</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" ref="AI16:AT16" si="27">+AI13*0.1</f>
+        <f t="shared" ref="AI16:AT16" si="52">+AI13*0.1</f>
         <v>1180.4237000000001</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="27"/>
-        <v>1240.546834</v>
+        <f t="shared" si="52"/>
+        <v>1340.546834</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="27"/>
-        <v>1352.12096468</v>
+        <f t="shared" si="52"/>
+        <v>1552.12096468</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="27"/>
-        <v>1455.0502585736003</v>
+        <f t="shared" si="52"/>
+        <v>1705.0502585735999</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="27"/>
-        <v>1540.2494508850723</v>
+        <f t="shared" si="52"/>
+        <v>1840.2494508850716</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="27"/>
-        <v>1626.6528083287737</v>
+        <f t="shared" si="52"/>
+        <v>1976.6528083287737</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="27"/>
-        <v>1685.893296078749</v>
+        <f t="shared" si="52"/>
+        <v>2020.1932960787487</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="27"/>
-        <v>1708.2286394253842</v>
+        <f t="shared" si="52"/>
+        <v>2045.8716394253843</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="27"/>
-        <v>1731.6267387864457</v>
+        <f t="shared" si="52"/>
+        <v>2072.6461687864457</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="27"/>
-        <v>1756.0420223363735</v>
+        <f t="shared" si="52"/>
+        <v>2100.4716466363734</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="27"/>
-        <v>1143.5931969429419</v>
+        <f t="shared" si="52"/>
+        <v>1491.4671174859423</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="27"/>
-        <v>592.92728047528965</v>
+        <f t="shared" si="52"/>
+        <v>944.2799402237199</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" ref="AU16:AY16" si="53">+AU13*0.1</f>
+        <v>894.32008427368226</v>
+      </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="53"/>
+        <v>894.44979612348152</v>
+      </c>
+      <c r="AW16" s="2">
+        <f t="shared" si="53"/>
+        <v>899.92704407348356</v>
+      </c>
+      <c r="AX16" s="2">
+        <f t="shared" si="53"/>
+        <v>906.25227851235013</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" si="53"/>
+        <v>309.82913732209846</v>
       </c>
     </row>
     <row r="17" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5006,7 +5209,7 @@
         <v>645</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" ref="T17" si="28">+S17</f>
+        <f t="shared" ref="T17" si="54">+S17</f>
         <v>645</v>
       </c>
       <c r="U17" s="12"/>
@@ -5017,7 +5220,7 @@
         <v>1658</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>2410.1</v>
       </c>
     </row>
@@ -5026,43 +5229,43 @@
         <v>64</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:D18" si="29">SUM(C16:C17)</f>
+        <f t="shared" ref="C18:D18" si="55">SUM(C16:C17)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v>591.09100000000001</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:G18" si="30">SUM(E16:E17)</f>
+        <f t="shared" ref="E18:G18" si="56">SUM(E16:E17)</f>
         <v>486.53499999999997</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v>535.59300000000007</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v>715.62199999999996</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ref="H18:I18" si="31">SUM(H16:H17)</f>
+        <f t="shared" ref="H18:I18" si="57">SUM(H16:H17)</f>
         <v>675.28800000000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18" si="32">SUM(J16:J17)</f>
+        <f t="shared" ref="J18" si="58">SUM(J16:J17)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:L18" si="33">SUM(K16:K17)</f>
+        <f t="shared" ref="K18:L18" si="59">SUM(K16:K17)</f>
         <v>678.048</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="59"/>
         <v>539</v>
       </c>
       <c r="M18" s="12">
@@ -5070,11 +5273,11 @@
         <v>531</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ref="N18:Q18" si="34">SUM(N16:N17)</f>
+        <f t="shared" ref="N18:Q18" si="60">SUM(N16:N17)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P18" s="12">
@@ -5082,7 +5285,7 @@
         <v>703</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>687</v>
       </c>
       <c r="R18" s="12">
@@ -5094,73 +5297,93 @@
         <v>891.8</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" ref="T18" si="35">SUM(T16:T17)</f>
+        <f t="shared" ref="T18" si="61">SUM(T16:T17)</f>
         <v>891.8</v>
       </c>
       <c r="U18" s="12"/>
       <c r="AE18" s="12">
-        <f t="shared" ref="AE18:AG18" si="36">SUM(AE16:AE17)</f>
+        <f t="shared" ref="AE18:AG18" si="62">SUM(AE16:AE17)</f>
         <v>1981</v>
       </c>
       <c r="AF18" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v>2331</v>
       </c>
       <c r="AG18" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v>3286</v>
       </c>
       <c r="AH18" s="12">
-        <f t="shared" ref="AH18:AT18" si="37">SUM(AH16:AH17)</f>
+        <f t="shared" ref="AH18:AT18" si="63">SUM(AH16:AH17)</f>
         <v>1058.6769999999999</v>
       </c>
       <c r="AI18" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>1180.4237000000001</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" si="37"/>
-        <v>1240.546834</v>
+        <f t="shared" si="63"/>
+        <v>1340.546834</v>
       </c>
       <c r="AK18" s="12">
-        <f t="shared" si="37"/>
-        <v>1352.12096468</v>
+        <f t="shared" si="63"/>
+        <v>1552.12096468</v>
       </c>
       <c r="AL18" s="12">
-        <f t="shared" si="37"/>
-        <v>1455.0502585736003</v>
+        <f t="shared" si="63"/>
+        <v>1705.0502585735999</v>
       </c>
       <c r="AM18" s="12">
-        <f t="shared" si="37"/>
-        <v>1540.2494508850723</v>
+        <f t="shared" si="63"/>
+        <v>1840.2494508850716</v>
       </c>
       <c r="AN18" s="12">
-        <f t="shared" si="37"/>
-        <v>1626.6528083287737</v>
+        <f t="shared" si="63"/>
+        <v>1976.6528083287737</v>
       </c>
       <c r="AO18" s="12">
-        <f t="shared" si="37"/>
-        <v>1685.893296078749</v>
+        <f t="shared" si="63"/>
+        <v>2020.1932960787487</v>
       </c>
       <c r="AP18" s="12">
-        <f t="shared" si="37"/>
-        <v>1708.2286394253842</v>
+        <f t="shared" si="63"/>
+        <v>2045.8716394253843</v>
       </c>
       <c r="AQ18" s="12">
-        <f t="shared" si="37"/>
-        <v>1731.6267387864457</v>
+        <f t="shared" si="63"/>
+        <v>2072.6461687864457</v>
       </c>
       <c r="AR18" s="12">
-        <f t="shared" si="37"/>
-        <v>1756.0420223363735</v>
+        <f t="shared" si="63"/>
+        <v>2100.4716466363734</v>
       </c>
       <c r="AS18" s="12">
-        <f t="shared" si="37"/>
-        <v>1143.5931969429419</v>
+        <f t="shared" si="63"/>
+        <v>1491.4671174859423</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="37"/>
-        <v>592.92728047528965</v>
+        <f t="shared" si="63"/>
+        <v>944.2799402237199</v>
+      </c>
+      <c r="AU18" s="12">
+        <f t="shared" ref="AU18:AY18" si="64">SUM(AU16:AU17)</f>
+        <v>894.32008427368226</v>
+      </c>
+      <c r="AV18" s="12">
+        <f t="shared" si="64"/>
+        <v>894.44979612348152</v>
+      </c>
+      <c r="AW18" s="12">
+        <f t="shared" si="64"/>
+        <v>899.92704407348356</v>
+      </c>
+      <c r="AX18" s="12">
+        <f t="shared" si="64"/>
+        <v>906.25227851235013</v>
+      </c>
+      <c r="AY18" s="12">
+        <f t="shared" si="64"/>
+        <v>309.82913732209846</v>
       </c>
     </row>
     <row r="19" spans="2:111" x14ac:dyDescent="0.2">
@@ -5168,43 +5391,43 @@
         <v>65</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:D19" si="38">C15-C18</f>
+        <f t="shared" ref="C19:D19" si="65">C15-C18</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="65"/>
         <v>156.553</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" ref="E19:G19" si="39">E15-E18</f>
+        <f t="shared" ref="E19:G19" si="66">E15-E18</f>
         <v>276.55500000000006</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>269.57999999999993</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>102.46400000000006</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19:I19" si="40">H15-H18</f>
+        <f t="shared" ref="H19:I19" si="67">H15-H18</f>
         <v>396.70000000000005</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="67"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19" si="41">J15-J18</f>
+        <f t="shared" ref="J19" si="68">J15-J18</f>
         <v>727.2</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:L19" si="42">K15-K18</f>
+        <f t="shared" ref="K19:L19" si="69">K15-K18</f>
         <v>673.77</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="69"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M19" s="12">
@@ -5212,11 +5435,11 @@
         <v>1000</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ref="N19:Q19" si="43">N15-N18</f>
+        <f t="shared" ref="N19:Q19" si="70">N15-N18</f>
         <v>922.7</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="70"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P19" s="12">
@@ -5224,7 +5447,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="70"/>
         <v>1264.7</v>
       </c>
       <c r="R19" s="12">
@@ -5236,73 +5459,93 @@
         <v>1153.0999999999997</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" ref="T19" si="44">T15-T18</f>
+        <f t="shared" ref="T19" si="71">T15-T18</f>
         <v>1369.309</v>
       </c>
       <c r="U19" s="12"/>
       <c r="AE19" s="12">
-        <f t="shared" ref="AE19:AG19" si="45">AE15-AE18</f>
+        <f t="shared" ref="AE19:AG19" si="72">AE15-AE18</f>
         <v>-1981</v>
       </c>
       <c r="AF19" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="72"/>
         <v>4338.0879999999997</v>
       </c>
       <c r="AG19" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="72"/>
         <v>4906.9089999999978</v>
       </c>
       <c r="AH19" s="12">
-        <f t="shared" ref="AH19:AT19" si="46">AH15-AH18</f>
+        <f t="shared" ref="AH19:AT19" si="73">AH15-AH18</f>
         <v>8787.0190999999995</v>
       </c>
       <c r="AI19" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="73"/>
         <v>9797.5167099999999</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="46"/>
-        <v>10296.538722199999</v>
+        <f t="shared" si="73"/>
+        <v>11126.538722199999</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" si="46"/>
-        <v>11222.604006844</v>
+        <f t="shared" si="73"/>
+        <v>12882.604006844</v>
       </c>
       <c r="AL19" s="12">
-        <f t="shared" si="46"/>
-        <v>12076.917146160882</v>
+        <f t="shared" si="73"/>
+        <v>14151.917146160878</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" si="46"/>
-        <v>12784.070442346097</v>
+        <f t="shared" si="73"/>
+        <v>15274.070442346092</v>
       </c>
       <c r="AN19" s="12">
-        <f t="shared" si="46"/>
-        <v>13501.218309128821</v>
+        <f t="shared" si="73"/>
+        <v>16406.218309128821</v>
       </c>
       <c r="AO19" s="12">
-        <f t="shared" si="46"/>
-        <v>13992.914357453616</v>
+        <f t="shared" si="73"/>
+        <v>16767.604357453612</v>
       </c>
       <c r="AP19" s="12">
-        <f t="shared" si="46"/>
-        <v>14178.297707230689</v>
+        <f t="shared" si="73"/>
+        <v>16980.73460723069</v>
       </c>
       <c r="AQ19" s="12">
-        <f t="shared" si="46"/>
-        <v>14372.501931927498</v>
+        <f t="shared" si="73"/>
+        <v>17202.963200927497</v>
       </c>
       <c r="AR19" s="12">
-        <f t="shared" si="46"/>
-        <v>14575.148785391899</v>
+        <f t="shared" si="73"/>
+        <v>17433.914667081895</v>
       </c>
       <c r="AS19" s="12">
-        <f t="shared" si="46"/>
-        <v>9491.8235346264155</v>
+        <f t="shared" si="73"/>
+        <v>12379.177075133321</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="46"/>
-        <v>4921.2964279449034</v>
+        <f t="shared" si="73"/>
+        <v>7837.5235038568753</v>
+      </c>
+      <c r="AU19" s="12">
+        <f t="shared" ref="AU19:AY19" si="74">AU15-AU18</f>
+        <v>7422.856699471562</v>
+      </c>
+      <c r="AV19" s="12">
+        <f t="shared" si="74"/>
+        <v>7423.9333078248965</v>
+      </c>
+      <c r="AW19" s="12">
+        <f t="shared" si="74"/>
+        <v>7469.3944658099135</v>
+      </c>
+      <c r="AX19" s="12">
+        <f t="shared" si="74"/>
+        <v>7521.8939116525062</v>
+      </c>
+      <c r="AY19" s="12">
+        <f t="shared" si="74"/>
+        <v>2571.581839773417</v>
       </c>
     </row>
     <row r="20" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5378,65 +5621,85 @@
         <v>32.299999999999997</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" ref="T20" si="47">+S20</f>
+        <f t="shared" ref="T20" si="75">+S20</f>
         <v>32.299999999999997</v>
       </c>
       <c r="U20" s="12"/>
       <c r="AG20" s="2">
-        <f t="shared" ref="AG20:AG22" si="48">SUM(Q20:T20)</f>
+        <f t="shared" ref="AG20:AG22" si="76">SUM(Q20:T20)</f>
         <v>47.499999999999993</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" ref="AH20:AT20" si="49">+AG32*$AW$30</f>
+        <f>+AG32*$BB$30</f>
         <v>109.23309000000002</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="49"/>
+        <f>+AH32*$BB$30</f>
         <v>180.40310752000002</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="49"/>
+        <f>+AI32*$BB$30</f>
         <v>260.22646606016002</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="49"/>
-        <v>344.68058756624129</v>
+        <f>+AJ32*$BB$30</f>
+        <v>351.32058756624133</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="49"/>
-        <v>437.2188643215232</v>
+        <f>+AK32*$BB$30</f>
+        <v>457.19198432152319</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="49"/>
-        <v>537.33195240538248</v>
+        <f>+AL32*$BB$30</f>
+        <v>574.06485736538241</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="49"/>
-        <v>643.90317156339427</v>
+        <f>+AM32*$BB$30</f>
+        <v>700.84993976307419</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="49"/>
-        <v>757.06414340893195</v>
+        <f>+AN32*$BB$30</f>
+        <v>837.70648575420944</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" si="49"/>
-        <v>875.06397141583238</v>
+        <f>+AO32*$BB$30</f>
+        <v>978.54897249987209</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="49"/>
-        <v>995.49086484500458</v>
+        <f>+AP32*$BB$30</f>
+        <v>1122.2232411377165</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="49"/>
-        <v>1118.4348072191847</v>
+        <f>+AQ32*$BB$30</f>
+        <v>1268.8247326742382</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="49"/>
-        <v>1243.9834759600733</v>
+        <f>+AR32*$BB$30</f>
+        <v>1418.4466478722873</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="49"/>
-        <v>1329.8699320447652</v>
+        <f>+AS32*$BB$30</f>
+        <v>1528.8276376563319</v>
+      </c>
+      <c r="AU20" s="2">
+        <f>+AT32*$BB$30</f>
+        <v>1603.7584467884378</v>
+      </c>
+      <c r="AV20" s="2">
+        <f>+AU32*$BB$30</f>
+        <v>1675.9713679585179</v>
+      </c>
+      <c r="AW20" s="2">
+        <f t="shared" ref="AW20:AY20" si="77">+AV32*$BB$30</f>
+        <v>1748.7706053647851</v>
+      </c>
+      <c r="AX20" s="2">
+        <f t="shared" si="77"/>
+        <v>1822.5159259341826</v>
+      </c>
+      <c r="AY20" s="2">
+        <f t="shared" si="77"/>
+        <v>1897.2712046348761</v>
       </c>
     </row>
     <row r="21" spans="2:111" x14ac:dyDescent="0.2">
@@ -5444,35 +5707,35 @@
         <v>125</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="50">+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="78">+C19+C20</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="78"/>
         <v>151.78</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:F21" si="51">+E19+E20</f>
+        <f t="shared" ref="E21:F21" si="79">+E19+E20</f>
         <v>277.30200000000008</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="79"/>
         <v>272.8189999999999</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="52">+G19+G20</f>
+        <f t="shared" ref="G21:J21" si="80">+G19+G20</f>
         <v>105.54400000000005</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="80"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="80"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="80"/>
         <v>717.572</v>
       </c>
       <c r="K21" s="12">
@@ -5488,31 +5751,31 @@
         <v>985.8</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="53">+N19+N20</f>
+        <f t="shared" ref="N21:Q21" si="81">+N19+N20</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="81"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ref="R21" si="54">+R19+R20</f>
+        <f t="shared" ref="R21" si="82">+R19+R20</f>
         <v>1116</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" ref="S21" si="55">+S19+S20</f>
+        <f t="shared" ref="S21" si="83">+S19+S20</f>
         <v>1185.3999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21" si="56">+T19+T20</f>
+        <f t="shared" ref="T21" si="84">+T19+T20</f>
         <v>1401.6089999999999</v>
       </c>
       <c r="U21" s="12"/>
@@ -5521,56 +5784,76 @@
         <v>4954.4089999999978</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21:AT21" si="57">+AH19+AH20</f>
+        <f t="shared" ref="AH21:AT21" si="85">+AH19+AH20</f>
         <v>8896.2521899999992</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="85"/>
         <v>9977.9198175199999</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="57"/>
-        <v>10556.765188260159</v>
+        <f t="shared" si="85"/>
+        <v>11386.765188260159</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="57"/>
-        <v>11567.284594410241</v>
+        <f t="shared" si="85"/>
+        <v>13233.92459441024</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="57"/>
-        <v>12514.136010482405</v>
+        <f t="shared" si="85"/>
+        <v>14609.109130482402</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="57"/>
-        <v>13321.40239475148</v>
+        <f t="shared" si="85"/>
+        <v>15848.135299711474</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="57"/>
-        <v>14145.121480692214</v>
+        <f t="shared" si="85"/>
+        <v>17107.068248891894</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="57"/>
-        <v>14749.978500862548</v>
+        <f t="shared" si="85"/>
+        <v>17605.310843207822</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="57"/>
-        <v>15053.361678646521</v>
+        <f t="shared" si="85"/>
+        <v>17959.283579730563</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="57"/>
-        <v>15367.992796772502</v>
+        <f t="shared" si="85"/>
+        <v>18325.186442065213</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="57"/>
-        <v>15693.583592611083</v>
+        <f t="shared" si="85"/>
+        <v>18702.739399756134</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="57"/>
-        <v>10735.807010586488</v>
+        <f t="shared" si="85"/>
+        <v>13797.623723005609</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="57"/>
-        <v>6251.1663599896683</v>
+        <f t="shared" si="85"/>
+        <v>9366.351141513207</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" ref="AU21:AY21" si="86">+AU19+AU20</f>
+        <v>9026.6151462599992</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" si="86"/>
+        <v>9099.9046757834149</v>
+      </c>
+      <c r="AW21" s="2">
+        <f t="shared" si="86"/>
+        <v>9218.1650711746988</v>
+      </c>
+      <c r="AX21" s="2">
+        <f t="shared" si="86"/>
+        <v>9344.4098375866888</v>
+      </c>
+      <c r="AY21" s="2">
+        <f t="shared" si="86"/>
+        <v>4468.8530444082935</v>
       </c>
     </row>
     <row r="22" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5633,7 +5916,7 @@
       </c>
       <c r="U22" s="12"/>
       <c r="AG22" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>1002.5</v>
       </c>
       <c r="AH22" s="2">
@@ -5641,52 +5924,72 @@
         <v>1779.250438</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AT22" si="58">+AI21*0.2</f>
+        <f t="shared" ref="AI22:AT22" si="87">+AI21*0.2</f>
         <v>1995.5839635040002</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="58"/>
-        <v>2111.3530376520316</v>
+        <f t="shared" si="87"/>
+        <v>2277.3530376520316</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="58"/>
-        <v>2313.4569188820483</v>
+        <f t="shared" si="87"/>
+        <v>2646.7849188820483</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="58"/>
-        <v>2502.8272020964814</v>
+        <f t="shared" si="87"/>
+        <v>2921.8218260964804</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="58"/>
-        <v>2664.2804789502961</v>
+        <f t="shared" si="87"/>
+        <v>3169.6270599422951</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="58"/>
-        <v>2829.0242961384429</v>
+        <f t="shared" si="87"/>
+        <v>3421.4136497783788</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="58"/>
-        <v>2949.9957001725097</v>
+        <f t="shared" si="87"/>
+        <v>3521.0621686415648</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" si="58"/>
-        <v>3010.6723357293045</v>
+        <f t="shared" si="87"/>
+        <v>3591.8567159461127</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="58"/>
-        <v>3073.5985593545006</v>
+        <f t="shared" si="87"/>
+        <v>3665.0372884130429</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" si="58"/>
-        <v>3138.716718522217</v>
+        <f t="shared" si="87"/>
+        <v>3740.5478799512271</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="58"/>
-        <v>2147.1614021172977</v>
+        <f t="shared" si="87"/>
+        <v>2759.5247446011217</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="58"/>
-        <v>1250.2332719979338</v>
+        <f t="shared" si="87"/>
+        <v>1873.2702283026415</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" ref="AU22:AY22" si="88">+AU21*0.2</f>
+        <v>1805.323029252</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" si="88"/>
+        <v>1819.980935156683</v>
+      </c>
+      <c r="AW22" s="2">
+        <f>+AW21*0.2</f>
+        <v>1843.6330142349398</v>
+      </c>
+      <c r="AX22" s="2">
+        <f>+AX21*0.2</f>
+        <v>1868.8819675173379</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" si="88"/>
+        <v>893.77060888165875</v>
       </c>
     </row>
     <row r="23" spans="2:111" x14ac:dyDescent="0.2">
@@ -5694,35 +5997,35 @@
         <v>127</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="59">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="89">+C21-C22</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="89"/>
         <v>151.78</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="60">+E21-E22</f>
+        <f t="shared" ref="E23:F23" si="90">+E21-E22</f>
         <v>225.76800000000009</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="90"/>
         <v>213.10799999999989</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="61">+G21-G22</f>
+        <f t="shared" ref="G23:J23" si="91">+G21-G22</f>
         <v>92.396000000000058</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="91"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="91"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="91"/>
         <v>730.072</v>
       </c>
       <c r="K23" s="12">
@@ -5738,31 +6041,31 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:T23" si="62">+N21-N22</f>
+        <f t="shared" ref="N23:T23" si="92">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>1002.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>857.4</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>939.49999999999966</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="92"/>
         <v>1152.6089999999999</v>
       </c>
       <c r="U23" s="12"/>
@@ -5771,316 +6074,316 @@
         <v>3951.9089999999978</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" ref="AH23:AT23" si="63">+AH21-AH22</f>
+        <f t="shared" ref="AH23:AN23" si="93">+AH21-AH22</f>
         <v>7117.0017519999992</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="93"/>
         <v>7982.3358540159998</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="63"/>
-        <v>8445.4121506081265</v>
+        <f t="shared" si="93"/>
+        <v>9109.4121506081265</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="63"/>
-        <v>9253.8276755281931</v>
+        <f t="shared" si="93"/>
+        <v>10587.139675528193</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="63"/>
-        <v>10011.308808385924</v>
+        <f t="shared" si="93"/>
+        <v>11687.287304385922</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="63"/>
-        <v>10657.121915801185</v>
+        <f t="shared" si="93"/>
+        <v>12678.508239769179</v>
       </c>
       <c r="AN23" s="2">
-        <f t="shared" si="63"/>
-        <v>11316.097184553772</v>
+        <f t="shared" si="93"/>
+        <v>13685.654599113515</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="63"/>
-        <v>11799.982800690039</v>
+        <f>+AO21-AO22</f>
+        <v>14084.248674566257</v>
       </c>
       <c r="AP23" s="2">
-        <f t="shared" si="63"/>
-        <v>12042.689342917216</v>
+        <f>+AP21-AP22</f>
+        <v>14367.426863784451</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="63"/>
-        <v>12294.394237418001</v>
+        <f>+AQ21-AQ22</f>
+        <v>14660.14915365217</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="63"/>
-        <v>12554.866874088866</v>
+        <f>+AR21-AR22</f>
+        <v>14962.191519804906</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="63"/>
-        <v>8588.6456084691908</v>
+        <f>+AS21-AS22</f>
+        <v>11038.098978404487</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="63"/>
-        <v>5000.9330879917343</v>
+        <f>+AT21-AT22</f>
+        <v>7493.080913210566</v>
       </c>
       <c r="AU23" s="2">
-        <f>+AT23*(1+$AW$28)</f>
-        <v>4750.8864335921471</v>
+        <f t="shared" ref="AU23:AY23" si="94">+AU21-AU22</f>
+        <v>7221.292117007999</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" ref="AV23:DG23" si="64">+AU23*(1+$AW$28)</f>
-        <v>4513.3421119125396</v>
+        <f t="shared" si="94"/>
+        <v>7279.9237406267321</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="64"/>
-        <v>4287.675006316912</v>
+        <f t="shared" si="94"/>
+        <v>7374.5320569397591</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="64"/>
-        <v>4073.2912560010664</v>
+        <f t="shared" si="94"/>
+        <v>7475.5278700693507</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" si="64"/>
-        <v>3869.626693201013</v>
+        <f t="shared" si="94"/>
+        <v>3575.082435526635</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="64"/>
-        <v>3676.1453585409622</v>
+        <f>+AY23*(1+$BB$28)</f>
+        <v>3396.3283137503031</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="64"/>
-        <v>3492.3380906139141</v>
+        <f>+AZ23*(1+$BB$28)</f>
+        <v>3226.5118980627876</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="64"/>
-        <v>3317.7211860832181</v>
+        <f>+BA23*(1+$BB$28)</f>
+        <v>3065.1863031596481</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="64"/>
-        <v>3151.8351267790572</v>
+        <f>+BB23*(1+$BB$28)</f>
+        <v>2911.9269880016654</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="64"/>
-        <v>2994.2433704401042</v>
+        <f>+BC23*(1+$BB$28)</f>
+        <v>2766.330638601582</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="64"/>
-        <v>2844.5312019180988</v>
+        <f>+BD23*(1+$BB$28)</f>
+        <v>2628.0141066715028</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="64"/>
-        <v>2702.3046418221938</v>
+        <f>+BE23*(1+$BB$28)</f>
+        <v>2496.6134013379274</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="64"/>
-        <v>2567.1894097310842</v>
+        <f>+BF23*(1+$BB$28)</f>
+        <v>2371.782731271031</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="64"/>
-        <v>2438.8299392445297</v>
+        <f>+BG23*(1+$BB$28)</f>
+        <v>2253.1935947074794</v>
       </c>
       <c r="BI23" s="2">
-        <f t="shared" si="64"/>
-        <v>2316.888442282303</v>
+        <f>+BH23*(1+$BB$28)</f>
+        <v>2140.5339149721053</v>
       </c>
       <c r="BJ23" s="2">
-        <f t="shared" si="64"/>
-        <v>2201.0440201681877</v>
+        <f>+BI23*(1+$BB$28)</f>
+        <v>2033.5072192235</v>
       </c>
       <c r="BK23" s="2">
-        <f t="shared" si="64"/>
-        <v>2090.9918191597781</v>
+        <f>+BJ23*(1+$BB$28)</f>
+        <v>1931.8318582623249</v>
       </c>
       <c r="BL23" s="2">
-        <f t="shared" si="64"/>
-        <v>1986.442228201789</v>
+        <f>+BK23*(1+$BB$28)</f>
+        <v>1835.2402653492086</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" si="64"/>
-        <v>1887.1201167916995</v>
+        <f>+BL23*(1+$BB$28)</f>
+        <v>1743.478252081748</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="64"/>
-        <v>1792.7641109521144</v>
+        <f>+BM23*(1+$BB$28)</f>
+        <v>1656.3043394776605</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="64"/>
-        <v>1703.1259054045086</v>
+        <f>+BN23*(1+$BB$28)</f>
+        <v>1573.4891225037775</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="64"/>
-        <v>1617.9696101342831</v>
+        <f>+BO23*(1+$BB$28)</f>
+        <v>1494.8146663785885</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="64"/>
-        <v>1537.071129627569</v>
+        <f>+BP23*(1+$BB$28)</f>
+        <v>1420.0739330596591</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="64"/>
-        <v>1460.2175731461905</v>
+        <f>+BQ23*(1+$BB$28)</f>
+        <v>1349.070236406676</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="64"/>
-        <v>1387.2066944888809</v>
+        <f>+BR23*(1+$BB$28)</f>
+        <v>1281.6167245863421</v>
       </c>
       <c r="BT23" s="2">
-        <f t="shared" si="64"/>
-        <v>1317.8463597644368</v>
+        <f>+BS23*(1+$BB$28)</f>
+        <v>1217.535888357025</v>
       </c>
       <c r="BU23" s="2">
-        <f t="shared" si="64"/>
-        <v>1251.9540417762148</v>
+        <f>+BT23*(1+$BB$28)</f>
+        <v>1156.6590939391738</v>
       </c>
       <c r="BV23" s="2">
-        <f t="shared" si="64"/>
-        <v>1189.356339687404</v>
+        <f>+BU23*(1+$BB$28)</f>
+        <v>1098.826139242215</v>
       </c>
       <c r="BW23" s="2">
-        <f t="shared" si="64"/>
-        <v>1129.8885227030337</v>
+        <f>+BV23*(1+$BB$28)</f>
+        <v>1043.8848322801043</v>
       </c>
       <c r="BX23" s="2">
-        <f t="shared" si="64"/>
-        <v>1073.3940965678819</v>
+        <f>+BW23*(1+$BB$28)</f>
+        <v>991.69059066609907</v>
       </c>
       <c r="BY23" s="2">
-        <f t="shared" si="64"/>
-        <v>1019.7243917394877</v>
+        <f>+BX23*(1+$BB$28)</f>
+        <v>942.10606113279403</v>
       </c>
       <c r="BZ23" s="2">
-        <f t="shared" si="64"/>
-        <v>968.73817215251324</v>
+        <f>+BY23*(1+$BB$28)</f>
+        <v>895.00075807615428</v>
       </c>
       <c r="CA23" s="2">
-        <f t="shared" si="64"/>
-        <v>920.30126354488755</v>
+        <f>+BZ23*(1+$BB$28)</f>
+        <v>850.25072017234652</v>
       </c>
       <c r="CB23" s="2">
-        <f t="shared" si="64"/>
-        <v>874.28620036764312</v>
+        <f>+CA23*(1+$BB$28)</f>
+        <v>807.7381841637291</v>
       </c>
       <c r="CC23" s="2">
-        <f t="shared" si="64"/>
-        <v>830.57189034926091</v>
+        <f>+CB23*(1+$BB$28)</f>
+        <v>767.35127495554264</v>
       </c>
       <c r="CD23" s="2">
-        <f t="shared" si="64"/>
-        <v>789.04329583179788</v>
+        <f>+CC23*(1+$BB$28)</f>
+        <v>728.98371120776551</v>
       </c>
       <c r="CE23" s="2">
-        <f t="shared" si="64"/>
-        <v>749.59113104020798</v>
+        <f>+CD23*(1+$BB$28)</f>
+        <v>692.53452564737722</v>
       </c>
       <c r="CF23" s="2">
-        <f t="shared" si="64"/>
-        <v>712.11157448819756</v>
+        <f>+CE23*(1+$BB$28)</f>
+        <v>657.90779936500837</v>
       </c>
       <c r="CG23" s="2">
-        <f t="shared" si="64"/>
-        <v>676.50599576378761</v>
+        <f>+CF23*(1+$BB$28)</f>
+        <v>625.0124093967579</v>
       </c>
       <c r="CH23" s="2">
-        <f t="shared" si="64"/>
-        <v>642.68069597559816</v>
+        <f>+CG23*(1+$BB$28)</f>
+        <v>593.76178892691996</v>
       </c>
       <c r="CI23" s="2">
-        <f t="shared" si="64"/>
-        <v>610.54666117681825</v>
+        <f>+CH23*(1+$BB$28)</f>
+        <v>564.07369948057396</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" si="64"/>
-        <v>580.01932811797735</v>
+        <f>+CI23*(1+$BB$28)</f>
+        <v>535.8700145065452</v>
       </c>
       <c r="CK23" s="2">
-        <f t="shared" si="64"/>
-        <v>551.01836171207844</v>
+        <f>+CJ23*(1+$BB$28)</f>
+        <v>509.0765137812179</v>
       </c>
       <c r="CL23" s="2">
-        <f t="shared" si="64"/>
-        <v>523.46744362647451</v>
+        <f>+CK23*(1+$BB$28)</f>
+        <v>483.62268809215698</v>
       </c>
       <c r="CM23" s="2">
-        <f t="shared" si="64"/>
-        <v>497.29407144515073</v>
+        <f>+CL23*(1+$BB$28)</f>
+        <v>459.44155368754912</v>
       </c>
       <c r="CN23" s="2">
-        <f t="shared" si="64"/>
-        <v>472.42936787289318</v>
+        <f>+CM23*(1+$BB$28)</f>
+        <v>436.46947600317162</v>
       </c>
       <c r="CO23" s="2">
-        <f t="shared" si="64"/>
-        <v>448.80789947924848</v>
+        <f>+CN23*(1+$BB$28)</f>
+        <v>414.64600220301304</v>
       </c>
       <c r="CP23" s="2">
-        <f t="shared" si="64"/>
-        <v>426.36750450528604</v>
+        <f>+CO23*(1+$BB$28)</f>
+        <v>393.91370209286237</v>
       </c>
       <c r="CQ23" s="2">
-        <f t="shared" si="64"/>
-        <v>405.0491292800217</v>
+        <f>+CP23*(1+$BB$28)</f>
+        <v>374.21801698821923</v>
       </c>
       <c r="CR23" s="2">
-        <f t="shared" si="64"/>
-        <v>384.79667281602059</v>
+        <f>+CQ23*(1+$BB$28)</f>
+        <v>355.50711613880827</v>
       </c>
       <c r="CS23" s="2">
-        <f t="shared" si="64"/>
-        <v>365.55683917521952</v>
+        <f>+CR23*(1+$BB$28)</f>
+        <v>337.73176033186786</v>
       </c>
       <c r="CT23" s="2">
-        <f t="shared" si="64"/>
-        <v>347.27899721645855</v>
+        <f>+CS23*(1+$BB$28)</f>
+        <v>320.84517231527445</v>
       </c>
       <c r="CU23" s="2">
-        <f t="shared" si="64"/>
-        <v>329.91504735563558</v>
+        <f>+CT23*(1+$BB$28)</f>
+        <v>304.80291369951073</v>
       </c>
       <c r="CV23" s="2">
-        <f t="shared" si="64"/>
-        <v>313.41929498785379</v>
+        <f>+CU23*(1+$BB$28)</f>
+        <v>289.56276801453515</v>
       </c>
       <c r="CW23" s="2">
-        <f t="shared" si="64"/>
-        <v>297.74833023846111</v>
+        <f>+CV23*(1+$BB$28)</f>
+        <v>275.08462961380837</v>
       </c>
       <c r="CX23" s="2">
-        <f t="shared" si="64"/>
-        <v>282.86091372653806</v>
+        <f>+CW23*(1+$BB$28)</f>
+        <v>261.33039813311797</v>
       </c>
       <c r="CY23" s="2">
-        <f t="shared" si="64"/>
-        <v>268.71786804021116</v>
+        <f>+CX23*(1+$BB$28)</f>
+        <v>248.26387822646205</v>
       </c>
       <c r="CZ23" s="2">
-        <f t="shared" si="64"/>
-        <v>255.28197463820058</v>
+        <f>+CY23*(1+$BB$28)</f>
+        <v>235.85068431513895</v>
       </c>
       <c r="DA23" s="2">
-        <f t="shared" si="64"/>
-        <v>242.51787590629053</v>
+        <f>+CZ23*(1+$BB$28)</f>
+        <v>224.058150099382</v>
       </c>
       <c r="DB23" s="2">
-        <f t="shared" si="64"/>
-        <v>230.39198211097599</v>
+        <f>+DA23*(1+$BB$28)</f>
+        <v>212.85524259441289</v>
       </c>
       <c r="DC23" s="2">
-        <f t="shared" si="64"/>
-        <v>218.87238300542717</v>
+        <f>+DB23*(1+$BB$28)</f>
+        <v>202.21248046469222</v>
       </c>
       <c r="DD23" s="2">
-        <f t="shared" si="64"/>
-        <v>207.92876385515581</v>
+        <f>+DC23*(1+$BB$28)</f>
+        <v>192.10185644145761</v>
       </c>
       <c r="DE23" s="2">
-        <f t="shared" si="64"/>
-        <v>197.53232566239799</v>
+        <f>+DD23*(1+$BB$28)</f>
+        <v>182.49676361938472</v>
       </c>
       <c r="DF23" s="2">
-        <f t="shared" si="64"/>
-        <v>187.65570937927808</v>
+        <f>+DE23*(1+$BB$28)</f>
+        <v>173.37192543841547</v>
       </c>
       <c r="DG23" s="2">
-        <f t="shared" si="64"/>
-        <v>178.27292391031418</v>
+        <f>+DF23*(1+$BB$28)</f>
+        <v>164.70332916649468</v>
       </c>
     </row>
     <row r="24" spans="2:111" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6088,59 +6391,59 @@
         <v>128</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:D24" si="65">+C23/C25</f>
+        <f t="shared" ref="C24:D24" si="95">+C23/C25</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="95"/>
         <v>0.58419164626730091</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" ref="E24:G24" si="66">+E23/E25</f>
+        <f t="shared" ref="E24:G24" si="96">+E23/E25</f>
         <v>0.86775439607956217</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="96"/>
         <v>0.82020768064290128</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="96"/>
         <v>0.35472390612462734</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" ref="H24:I24" si="67">+H23/H25</f>
+        <f t="shared" ref="H24:I24" si="97">+H23/H25</f>
         <v>1.1487402139576055</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="97"/>
         <v>2.5250023717814924</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" ref="J24:K24" si="68">+J23/J25</f>
+        <f t="shared" ref="J24:K24" si="98">+J23/J25</f>
         <v>2.771692046028329</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="98"/>
         <v>2.2136444018645935</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:P24" si="69">+L23/L25</f>
+        <f t="shared" ref="L24:P24" si="99">+L23/L25</f>
         <v>2.5575826681870013</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="99"/>
         <v>2.9774723176785032</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="99"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="99"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="99"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q24" s="21">
@@ -6148,15 +6451,15 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:T24" si="70">+R23/R25</f>
+        <f t="shared" ref="R24:T24" si="100">+R23/R25</f>
         <v>3.3142636258214146</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="100"/>
         <v>3.6204238921001912</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="100"/>
         <v>4.4416531791907508</v>
       </c>
       <c r="U24" s="21"/>
@@ -6165,56 +6468,76 @@
         <v>15.264229432213202</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AT24" si="71">+AH23/AH25</f>
+        <f t="shared" ref="AH24:AT24" si="101">+AH23/AH25</f>
         <v>27.489384905368869</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="101"/>
         <v>30.83173369646968</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="71"/>
-        <v>32.620363656269319</v>
+        <f t="shared" si="101"/>
+        <v>35.185060450398332</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="71"/>
-        <v>35.742864718146748</v>
+        <f t="shared" si="101"/>
+        <v>40.892775880757796</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="71"/>
-        <v>38.668631936600711</v>
+        <f t="shared" si="101"/>
+        <v>45.142090785577146</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="71"/>
-        <v>41.163081945929648</v>
+        <f t="shared" si="101"/>
+        <v>48.970676862762375</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="71"/>
-        <v>43.708370739875519</v>
+        <f t="shared" si="101"/>
+        <v>52.86077481310744</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="71"/>
-        <v>45.577376595944536</v>
+        <f t="shared" si="101"/>
+        <v>54.400342505084041</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="71"/>
-        <v>46.514829443480949</v>
+        <f t="shared" si="101"/>
+        <v>55.494116893721326</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="71"/>
-        <v>47.487038383229056</v>
+        <f t="shared" si="101"/>
+        <v>56.624755325037356</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="71"/>
-        <v>48.493112684777394</v>
+        <f t="shared" si="101"/>
+        <v>57.79139250600582</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="71"/>
-        <v>33.173602195709506</v>
+        <f t="shared" si="101"/>
+        <v>42.634604010832319</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="71"/>
-        <v>19.31607990726819</v>
+        <f t="shared" si="101"/>
+        <v>28.941988849789752</v>
+      </c>
+      <c r="AU24" s="1">
+        <f t="shared" ref="AU24:AY24" si="102">+AU23/AU25</f>
+        <v>27.892205936685979</v>
+      </c>
+      <c r="AV24" s="1">
+        <f t="shared" si="102"/>
+        <v>28.118670299832882</v>
+      </c>
+      <c r="AW24" s="1">
+        <f t="shared" si="102"/>
+        <v>28.48409446481174</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="102"/>
+        <v>28.874190305404987</v>
+      </c>
+      <c r="AY24" s="1">
+        <f t="shared" si="102"/>
+        <v>13.808738646298321</v>
       </c>
     </row>
     <row r="25" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6273,7 +6596,7 @@
         <v>259.5</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" ref="T25" si="72">+S25</f>
+        <f t="shared" ref="T25" si="103">+S25</f>
         <v>259.5</v>
       </c>
       <c r="U25" s="12"/>
@@ -6286,51 +6609,71 @@
         <v>258.89999999999998</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="73">+AH25</f>
+        <f t="shared" ref="AI25:AT25" si="104">+AH25</f>
         <v>258.89999999999998</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
         <v>258.89999999999998</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="104"/>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" ref="AU25" si="105">+AT25</f>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" ref="AV25" si="106">+AU25</f>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="AW25" s="2">
+        <f t="shared" ref="AW25" si="107">+AV25</f>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="AX25" s="2">
+        <f t="shared" ref="AX25" si="108">+AW25</f>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="AY25" s="2">
+        <f t="shared" ref="AY25" si="109">+AX25</f>
         <v>258.89999999999998</v>
       </c>
     </row>
@@ -6343,59 +6686,59 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <f t="shared" ref="G27:P27" si="74">+G13/C13-1</f>
+        <f t="shared" ref="G27:P27" si="110">+G13/C13-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.44493886310784858</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.76535979547461963</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.62012853473169161</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.61894736842105269</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.29435163086714389</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.13749174917491747</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.176856468118604</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.28998699609882972</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="74"/>
+        <f t="shared" si="110"/>
         <v>0.27350952673632456</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:T27" si="75">+Q13/M13-1</f>
+        <f t="shared" ref="Q27:T27" si="111">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="111"/>
         <v>0.2246376811594204</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="111"/>
         <v>0.17656249999999996</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="111"/>
         <v>0.17340733590733581</v>
       </c>
       <c r="U27" s="24"/>
@@ -6405,67 +6748,67 @@
         <v>182</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="76">C15/C13</f>
+        <f t="shared" ref="C28" si="112">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:H28" si="77">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="113">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="113"/>
         <v>0.88919366754371454</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="113"/>
         <v>0.8557358650587249</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="113"/>
         <v>0.86114315789473683</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="113"/>
         <v>0.8528146380270486</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="78">I15/I13</f>
+        <f t="shared" ref="I28:J28" si="114">I15/I13</f>
         <v>0.8927412541254125</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="78"/>
+        <f t="shared" si="114"/>
         <v>0.87896877459984257</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="79">K15/K13</f>
+        <f t="shared" ref="K28:L28" si="115">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="115"/>
         <v>0.87516902274124164</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="80">M15/M13</f>
+        <f t="shared" ref="M28:P28" si="116">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="116"/>
         <v>0.87290969899665549</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="116"/>
         <v>0.88079032258064516</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="116"/>
         <v>0.88059845559845551</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="81">Q15/Q13</f>
+        <f t="shared" ref="Q28:R28" si="117">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="117"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
@@ -6478,69 +6821,69 @@
       </c>
       <c r="U28" s="19"/>
       <c r="AF28" s="19">
-        <f t="shared" ref="AF28:AG28" si="82">AF15/AF13</f>
+        <f t="shared" ref="AF28:AG28" si="118">AF15/AF13</f>
         <v>0.88060528435424446</v>
       </c>
       <c r="AG28" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="118"/>
         <v>0.90428461054513742</v>
       </c>
       <c r="AH28" s="19">
-        <f t="shared" ref="AH28:AT28" si="83">AH15/AH13</f>
+        <f t="shared" ref="AH28:AT28" si="119">AH15/AH13</f>
         <v>0.93</v>
       </c>
       <c r="AI28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.93</v>
       </c>
       <c r="AJ28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.93</v>
       </c>
       <c r="AK28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AL28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.93</v>
       </c>
       <c r="AM28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AN28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.93</v>
       </c>
       <c r="AO28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AP28" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="119"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f t="shared" si="119"/>
         <v>0.93</v>
       </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="83"/>
+      <c r="AR28" s="19">
+        <f t="shared" si="119"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AR28" s="19">
-        <f t="shared" si="83"/>
-        <v>0.92999999999999994</v>
-      </c>
       <c r="AS28" s="19">
-        <f t="shared" si="83"/>
-        <v>0.92999999999999994</v>
+        <f t="shared" si="119"/>
+        <v>0.93</v>
       </c>
       <c r="AT28" s="19">
-        <f t="shared" si="83"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AV28" t="s">
+        <f t="shared" si="119"/>
+        <v>0.93</v>
+      </c>
+      <c r="BA28" t="s">
         <v>299</v>
       </c>
-      <c r="AW28" s="23">
+      <c r="BB28" s="23">
         <v>-0.05</v>
       </c>
     </row>
@@ -6549,71 +6892,71 @@
         <v>295</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="84">+C16/C13</f>
+        <f t="shared" ref="C29" si="120">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="85">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="121">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="121"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="121"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="121"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="121"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="86">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="122">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="122"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="87">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="123">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>9.7997269003186172E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="123"/>
         <v>0.105727627125905</v>
       </c>
       <c r="T29" s="19">
@@ -6627,61 +6970,61 @@
         <v>9.667663712321059E-2</v>
       </c>
       <c r="AH29" s="19">
-        <f t="shared" ref="AH29:AT29" si="88">+AH16/AH13</f>
+        <f t="shared" ref="AH29:AT29" si="124">+AH16/AH13</f>
         <v>0.1</v>
       </c>
       <c r="AI29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AJ29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AK29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AL29" s="19">
-        <f t="shared" si="88"/>
-        <v>0.10000000000000002</v>
+        <f t="shared" si="124"/>
+        <v>0.1</v>
       </c>
       <c r="AM29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AN29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AO29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AP29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AQ29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AR29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AS29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
       <c r="AT29" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="124"/>
         <v>0.1</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="BA29" t="s">
         <v>297</v>
       </c>
-      <c r="AW29" s="23">
+      <c r="BB29" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6690,43 +7033,43 @@
         <v>185</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="89">C22/C21</f>
+        <f t="shared" ref="C30" si="125">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="90">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="126">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="126"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="126"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="126"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="126"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="91">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="127">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="127"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="92">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="128">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="92"/>
+        <f t="shared" si="128"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -6734,31 +7077,31 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="93">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="129">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.23172043010752691</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.20744052640458924</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="129"/>
         <v>0.17765296883795695</v>
       </c>
       <c r="U30" s="19"/>
@@ -6767,71 +7110,71 @@
         <v>0.20234502238309363</v>
       </c>
       <c r="AH30" s="23">
-        <f t="shared" ref="AH30:AT30" si="94">+AH22/AH21</f>
+        <f t="shared" ref="AH30:AT30" si="130">+AH22/AH21</f>
         <v>0.2</v>
       </c>
       <c r="AI30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AJ30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="AK30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AL30" s="23">
-        <f t="shared" si="94"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="130"/>
+        <v>0.2</v>
       </c>
       <c r="AM30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AN30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AO30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AP30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AQ30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AR30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AS30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="AT30" s="23">
-        <f t="shared" si="94"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="BA30" t="s">
         <v>296</v>
       </c>
-      <c r="AW30" s="23">
+      <c r="BB30" s="23">
         <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="2:111" x14ac:dyDescent="0.2">
-      <c r="AV31" t="s">
+      <c r="BA31" t="s">
         <v>298</v>
       </c>
-      <c r="AW31" s="2">
-        <f>NPV(AW29,AH23:CE23)+Main!M5-Main!M6</f>
-        <v>106383.12253034985</v>
+      <c r="BB31" s="2">
+        <f>NPV(BB29,AH23:CE23)+Main!M5-Main!M6</f>
+        <v>122343.66572516075</v>
       </c>
     </row>
     <row r="32" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6862,7 +7205,7 @@
         <v>9770.7000000000007</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" ref="T32" si="95">+S32+T23</f>
+        <f t="shared" ref="T32" si="131">+S32+T23</f>
         <v>10923.309000000001</v>
       </c>
       <c r="U32" s="12"/>
@@ -6875,59 +7218,79 @@
         <v>18040.310752000001</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AT32" si="96">+AH32+AI23</f>
+        <f t="shared" ref="AI32:AT32" si="132">+AH32+AI23</f>
         <v>26022.646606016002</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="96"/>
-        <v>34468.05875662413</v>
+        <f t="shared" si="132"/>
+        <v>35132.05875662413</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" si="96"/>
-        <v>43721.886432152322</v>
+        <f t="shared" si="132"/>
+        <v>45719.19843215232</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="96"/>
-        <v>53733.195240538247</v>
+        <f t="shared" si="132"/>
+        <v>57406.485736538241</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="96"/>
-        <v>64390.317156339428</v>
+        <f t="shared" si="132"/>
+        <v>70084.993976307422</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="96"/>
-        <v>75706.4143408932</v>
+        <f t="shared" si="132"/>
+        <v>83770.648575420943</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="96"/>
-        <v>87506.397141583235</v>
+        <f t="shared" si="132"/>
+        <v>97854.897249987203</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="96"/>
-        <v>99549.086484500454</v>
+        <f t="shared" si="132"/>
+        <v>112222.32411377165</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="96"/>
-        <v>111843.48072191846</v>
+        <f t="shared" si="132"/>
+        <v>126882.47326742382</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="96"/>
-        <v>124398.34759600733</v>
+        <f t="shared" si="132"/>
+        <v>141844.66478722871</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="96"/>
-        <v>132986.99320447652</v>
+        <f t="shared" si="132"/>
+        <v>152882.76376563319</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="96"/>
-        <v>137987.92629246824</v>
-      </c>
-      <c r="AV32" s="2" t="s">
+        <f t="shared" si="132"/>
+        <v>160375.84467884377</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" ref="AU32" si="133">+AT32+AU23</f>
+        <v>167597.13679585178</v>
+      </c>
+      <c r="AV32" s="2">
+        <f t="shared" ref="AV32" si="134">+AU32+AV23</f>
+        <v>174877.0605364785</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" ref="AW32" si="135">+AV32+AW23</f>
+        <v>182251.59259341826</v>
+      </c>
+      <c r="AX32" s="2">
+        <f t="shared" ref="AX32" si="136">+AW32+AX23</f>
+        <v>189727.1204634876</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" ref="AY32" si="137">+AX32+AY23</f>
+        <v>193302.20289901423</v>
+      </c>
+      <c r="BA32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="AW32" s="1">
-        <f>AW31/Main!M3</f>
-        <v>409.95422940404569</v>
+      <c r="BB32" s="1">
+        <f>BB31/Main!M3</f>
+        <v>471.45921281372159</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7180,7 +7543,7 @@
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="12">
-        <f t="shared" ref="S41" si="97">SUM(S32:S40)</f>
+        <f t="shared" ref="S41" si="138">SUM(S32:S40)</f>
         <v>16706.400000000005</v>
       </c>
       <c r="T41" s="12"/>
@@ -7408,7 +7771,7 @@
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12">
-        <f t="shared" ref="S50" si="98">SUM(S43:S49)</f>
+        <f t="shared" ref="S50" si="139">SUM(S43:S49)</f>
         <v>16706.400000000001</v>
       </c>
       <c r="T50" s="12"/>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628469B9-D1BD-402D-9033-A60343B4B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F5D5E-50C1-4867-8D5E-4A0C4CD33089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39945" yWindow="1785" windowWidth="28200" windowHeight="18270" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="19950" yWindow="465" windowWidth="28410" windowHeight="20415" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="322">
   <si>
     <t>Price</t>
   </si>
@@ -208,9 +208,6 @@
     <t>MRNA</t>
   </si>
   <si>
-    <t>IND 2H22</t>
-  </si>
-  <si>
     <t>VX-121</t>
   </si>
   <si>
@@ -1028,9 +1025,6 @@
   </si>
   <si>
     <t>VX-522</t>
-  </si>
-  <si>
-    <t>Filing</t>
   </si>
   <si>
     <t>vanzacaftor/tezacaftor/deutivacaftor</t>
@@ -1049,7 +1043,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1087,6 +1081,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1198,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1241,6 +1243,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1263,16 +1266,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>29231</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>62077</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>29231</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>62077</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>130394</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1287,7 +1290,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11919059" y="0"/>
+          <a:off x="13173732" y="6569"/>
           <a:ext cx="0" cy="12276411"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1852,7 +1855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1872,7 +1875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1910,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>293.92</v>
+        <v>333.78</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -1918,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1930,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>259.5</v>
+        <v>257.55160000000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1941,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1954,7 +1959,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>76272.240000000005</v>
+        <v>85965.573047999991</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1963,13 +1968,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1978,10 +1983,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>9771</v>
+        <f>9289.9+1124.2+1081.5</f>
+        <v>11495.6</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2018,7 +2024,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>66501.240000000005</v>
+        <v>74469.973047999985</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -2042,314 +2048,314 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
       </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
         <v>201</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H17" s="8"/>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E23" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E25" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E26" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E27" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E28" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E29" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E30" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E31" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E32" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2358,10 +2364,10 @@
     <hyperlink ref="B6" location="Kalydeco!A1" display="Kalydeco" xr:uid="{EEBD4082-1D83-43E3-A2D1-75DBB6BD2997}"/>
     <hyperlink ref="B14" location="'VX-880'!A1" display="VX-880" xr:uid="{E8018D7F-9B73-4E6B-A79D-A97660AF55C8}"/>
     <hyperlink ref="B3" location="Trikafta!A1" display="Trikafta" xr:uid="{FCEBE0EB-001B-4AF7-8302-88E3A55A88B1}"/>
-    <hyperlink ref="B12" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
+    <hyperlink ref="B13" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
     <hyperlink ref="B10" location="'CTX001'!A1" display="CTX001" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
     <hyperlink ref="B5" location="Orkambi!A1" display="Orkambi" xr:uid="{5B227DE1-747D-41D9-AFFC-27BF0DF44345}"/>
-    <hyperlink ref="B13" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
+    <hyperlink ref="B11" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
     <hyperlink ref="B21" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2405,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,41 +2419,41 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="18"/>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="22">
         <v>101</v>
@@ -2455,46 +2461,46 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="22">
         <v>137.80000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="22">
         <v>86.9</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="22">
         <v>112.9</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D18" s="22">
         <v>115.6</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -2505,17 +2511,17 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D23">
         <v>72.7</v>
@@ -2523,35 +2529,35 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24">
         <v>110.5</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D25">
         <v>95.1</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26">
         <v>85.2</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2608,27 +2614,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2670,15 +2676,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2709,28 +2715,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2738,13 +2744,13 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2756,7 +2762,7 @@
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2764,13 +2770,13 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2782,7 +2788,7 @@
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2790,13 +2796,13 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2808,7 +2814,7 @@
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2816,13 +2822,13 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -2834,7 +2840,7 @@
         <v>44726</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2842,13 +2848,13 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2860,7 +2866,7 @@
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,13 +2874,13 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
         <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2894,13 +2900,13 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
         <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2912,7 +2918,7 @@
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2920,13 +2926,13 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2943,13 +2949,13 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
         <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>208</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -2961,7 +2967,7 @@
         <v>44551</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2969,13 +2975,13 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
         <v>209</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>210</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2987,7 +2993,7 @@
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2995,13 +3001,13 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>213</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3013,7 +3019,7 @@
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3021,13 +3027,13 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>216</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3039,7 +3045,7 @@
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3047,13 +3053,13 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
         <v>218</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>219</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3065,7 +3071,7 @@
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3073,13 +3079,13 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
         <v>221</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>222</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3091,7 +3097,7 @@
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -3099,13 +3105,13 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>223</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>224</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -3117,7 +3123,7 @@
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -3125,13 +3131,13 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3148,13 +3154,13 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
         <v>226</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>227</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3171,13 +3177,13 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
         <v>228</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>229</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3194,13 +3200,13 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
         <v>230</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>231</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3212,7 +3218,7 @@
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -3220,13 +3226,13 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3243,13 +3249,13 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
         <v>234</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>235</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3261,7 +3267,7 @@
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -3269,13 +3275,13 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
         <v>237</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>238</v>
       </c>
       <c r="G24" s="15">
         <v>43679</v>
@@ -3284,7 +3290,7 @@
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3331,21 +3337,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
       </c>
       <c r="F3" s="15">
         <v>40686</v>
@@ -3353,13 +3359,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3370,10 +3376,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3384,7 +3390,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -3397,75 +3403,75 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
         <v>262</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
         <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3480,11 +3486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
   <dimension ref="A1:DG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BB28" sqref="BB28"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3502,22 +3508,22 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>25</v>
@@ -3556,16 +3562,16 @@
         <v>35</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="Z3">
         <v>2015</v>
@@ -3673,7 +3679,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK4" s="2">
         <v>200</v>
@@ -3711,15 +3717,15 @@
         <v>1051.0100500999999</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" ref="AU4:AU6" si="7">+AT4*1.01</f>
+        <f t="shared" ref="AU4:AU5" si="7">+AT4*1.01</f>
         <v>1061.5201506009998</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" ref="AV4:AV6" si="8">+AU4*1.01</f>
+        <f t="shared" ref="AV4:AV5" si="8">+AU4*1.01</f>
         <v>1072.1353521070098</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" ref="AW4:AW6" si="9">+AV4*1.01</f>
+        <f t="shared" ref="AW4:AW5" si="9">+AV4*1.01</f>
         <v>1082.8567056280799</v>
       </c>
       <c r="AX4" s="2">
@@ -3733,7 +3739,7 @@
     </row>
     <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
@@ -4022,89 +4028,102 @@
         <v>2010.5</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" ref="T9" si="20">+S9+100</f>
-        <v>2110.5</v>
-      </c>
-      <c r="U9" s="12"/>
+        <v>2022</v>
+      </c>
+      <c r="U9" s="12">
+        <v>2096.6999999999998</v>
+      </c>
+      <c r="V9" s="2">
+        <f>+U9+25</f>
+        <v>2121.6999999999998</v>
+      </c>
+      <c r="W9" s="2">
+        <f>+V9+25</f>
+        <v>2146.6999999999998</v>
+      </c>
+      <c r="X9" s="2">
+        <f>+W9+25</f>
+        <v>2171.6999999999998</v>
+      </c>
       <c r="AF9" s="2">
         <f>SUM(M9:P9)</f>
         <v>5698.2</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AG11" si="21">SUM(Q9:T9)</f>
-        <v>7775.6</v>
+        <f t="shared" ref="AG9:AG11" si="20">SUM(Q9:T9)</f>
+        <v>7687.1</v>
       </c>
       <c r="AH9" s="2">
         <f>+AG9*1.2</f>
-        <v>9330.7199999999993</v>
+        <v>9224.52</v>
       </c>
       <c r="AI9" s="2">
         <f>+AH9*1.1</f>
-        <v>10263.791999999999</v>
+        <v>10146.972000000002</v>
       </c>
       <c r="AJ9" s="2">
         <f>+AI9*1.02</f>
-        <v>10469.06784</v>
+        <v>10349.911440000002</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" ref="AK9:AR9" si="22">+AJ9*1.02</f>
-        <v>10678.4491968</v>
+        <f t="shared" ref="AK9:AR9" si="21">+AJ9*1.02</f>
+        <v>10556.909668800003</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="22"/>
-        <v>10892.018180736</v>
+        <f t="shared" si="21"/>
+        <v>10768.047862176003</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="22"/>
-        <v>11109.85854435072</v>
+        <f t="shared" si="21"/>
+        <v>10983.408819419523</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="22"/>
-        <v>11332.055715237735</v>
+        <f t="shared" si="21"/>
+        <v>11203.076995807913</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="22"/>
-        <v>11558.69682954249</v>
+        <f t="shared" si="21"/>
+        <v>11427.138535724071</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="22"/>
-        <v>11789.870766133341</v>
+        <f t="shared" si="21"/>
+        <v>11655.681306438551</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="22"/>
-        <v>12025.668181456009</v>
+        <f t="shared" si="21"/>
+        <v>11888.794932567323</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="22"/>
-        <v>12266.18154508513</v>
+        <f t="shared" si="21"/>
+        <v>12126.570831218671</v>
       </c>
       <c r="AS9" s="2">
         <f>+AR9*0.5</f>
-        <v>6133.090772542565</v>
+        <v>6063.2854156093354</v>
       </c>
       <c r="AT9" s="2">
         <f>+AS9*0.1</f>
-        <v>613.30907725425652</v>
+        <v>606.32854156093356</v>
       </c>
       <c r="AU9" s="2">
-        <f t="shared" ref="AU9:AY9" si="23">+AT9*0.1</f>
-        <v>61.330907725425654</v>
+        <f t="shared" ref="AU9:AY9" si="22">+AT9*0.1</f>
+        <v>60.632854156093359</v>
       </c>
       <c r="AV9" s="2">
-        <f t="shared" si="23"/>
-        <v>6.1330907725425661</v>
+        <f t="shared" si="22"/>
+        <v>6.0632854156093359</v>
       </c>
       <c r="AW9" s="2">
-        <f t="shared" si="23"/>
-        <v>0.61330907725425665</v>
+        <f t="shared" si="22"/>
+        <v>0.60632854156093363</v>
       </c>
       <c r="AX9" s="2">
-        <f t="shared" si="23"/>
-        <v>6.1330907725425668E-2</v>
+        <f t="shared" si="22"/>
+        <v>6.0632854156093367E-2</v>
       </c>
       <c r="AY9" s="2">
-        <f t="shared" si="23"/>
-        <v>6.1330907725425671E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.0632854156093367E-3</v>
       </c>
     </row>
     <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4163,89 +4182,102 @@
         <v>38.200000000000003</v>
       </c>
       <c r="T10" s="12">
-        <f t="shared" ref="T10" si="24">S10-1</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="U10" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="U10" s="12">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="V10" s="2">
+        <f>+U10</f>
+        <v>278.10000000000002</v>
+      </c>
+      <c r="W10" s="2">
+        <f>+V10</f>
+        <v>278.10000000000002</v>
+      </c>
+      <c r="X10" s="2">
+        <f>+W10</f>
+        <v>278.10000000000002</v>
+      </c>
       <c r="AF10" s="2">
-        <f t="shared" ref="AF10:AF14" si="25">SUM(M10:P10)</f>
+        <f t="shared" ref="AF10:AF14" si="23">SUM(M10:P10)</f>
         <v>420.1</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="21"/>
-        <v>183.2</v>
+        <f t="shared" si="20"/>
+        <v>180</v>
       </c>
       <c r="AH10" s="2">
         <f>+AG10*0.9</f>
-        <v>164.88</v>
+        <v>162</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" ref="AI10:AT10" si="26">+AH10*0.9</f>
-        <v>148.392</v>
+        <f t="shared" ref="AI10:AT10" si="24">+AH10*0.9</f>
+        <v>145.80000000000001</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="26"/>
-        <v>133.55279999999999</v>
+        <f t="shared" si="24"/>
+        <v>131.22000000000003</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="26"/>
-        <v>120.19752</v>
+        <f t="shared" si="24"/>
+        <v>118.09800000000003</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="26"/>
-        <v>108.177768</v>
+        <f t="shared" si="24"/>
+        <v>106.28820000000003</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="26"/>
-        <v>97.359991199999996</v>
+        <f t="shared" si="24"/>
+        <v>95.659380000000027</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="26"/>
-        <v>87.623992079999994</v>
+        <f t="shared" si="24"/>
+        <v>86.093442000000024</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="26"/>
-        <v>78.861592872000003</v>
+        <f t="shared" si="24"/>
+        <v>77.484097800000029</v>
       </c>
       <c r="AP10" s="2">
-        <f t="shared" si="26"/>
-        <v>70.975433584800001</v>
+        <f t="shared" si="24"/>
+        <v>69.735688020000026</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="26"/>
-        <v>63.877890226320005</v>
+        <f t="shared" si="24"/>
+        <v>62.762119218000024</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="26"/>
-        <v>57.490101203688006</v>
+        <f t="shared" si="24"/>
+        <v>56.485907296200025</v>
       </c>
       <c r="AS10" s="2">
-        <f t="shared" si="26"/>
-        <v>51.741091083319205</v>
+        <f t="shared" si="24"/>
+        <v>50.837316566580022</v>
       </c>
       <c r="AT10" s="2">
-        <f t="shared" si="26"/>
-        <v>46.566981974987286</v>
+        <f t="shared" si="24"/>
+        <v>45.753584909922019</v>
       </c>
       <c r="AU10" s="2">
-        <f t="shared" ref="AU10:AU12" si="27">+AT10*0.9</f>
-        <v>41.910283777488559</v>
+        <f t="shared" ref="AU10:AU12" si="25">+AT10*0.9</f>
+        <v>41.178226418929817</v>
       </c>
       <c r="AV10" s="2">
-        <f t="shared" ref="AV10:AV12" si="28">+AU10*0.9</f>
-        <v>37.719255399739701</v>
+        <f t="shared" ref="AV10:AV12" si="26">+AU10*0.9</f>
+        <v>37.060403777036839</v>
       </c>
       <c r="AW10" s="2">
-        <f t="shared" ref="AW10:AW12" si="29">+AV10*0.9</f>
-        <v>33.94732985976573</v>
+        <f t="shared" ref="AW10:AW12" si="27">+AV10*0.9</f>
+        <v>33.35436339933316</v>
       </c>
       <c r="AX10" s="2">
-        <f t="shared" ref="AX10:AX12" si="30">+AW10*0.9</f>
-        <v>30.55259687378916</v>
+        <f t="shared" ref="AX10:AX12" si="28">+AW10*0.9</f>
+        <v>30.018927059399843</v>
       </c>
       <c r="AY10" s="2">
-        <f t="shared" ref="AY10:AY12" si="31">+AX10*0.9</f>
-        <v>27.497337186410245</v>
+        <f t="shared" ref="AY10:AY12" si="29">+AX10*0.9</f>
+        <v>27.017034353459859</v>
       </c>
     </row>
     <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4304,89 +4336,88 @@
         <v>146.19999999999999</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" ref="T11" si="32">S11-1</f>
-        <v>145.19999999999999</v>
+        <v>111</v>
       </c>
       <c r="U11" s="12"/>
       <c r="AF11" s="2">
+        <f t="shared" si="23"/>
+        <v>771.7</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="20"/>
+        <v>511.29999999999995</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" ref="AH11:AT11" si="30">+AG11*0.9</f>
+        <v>460.16999999999996</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="30"/>
+        <v>414.15299999999996</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="30"/>
+        <v>372.73769999999996</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="30"/>
+        <v>335.46392999999995</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="30"/>
+        <v>301.91753699999998</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="30"/>
+        <v>271.72578329999999</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="30"/>
+        <v>244.55320497</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="30"/>
+        <v>220.09788447299999</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="30"/>
+        <v>198.0880960257</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="30"/>
+        <v>178.27928642313</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="30"/>
+        <v>160.45135778081701</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="30"/>
+        <v>144.40622200273532</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="30"/>
+        <v>129.96559980246178</v>
+      </c>
+      <c r="AU11" s="2">
         <f t="shared" si="25"/>
-        <v>771.7</v>
-      </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="21"/>
-        <v>545.5</v>
-      </c>
-      <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AT11" si="33">+AG11*0.9</f>
-        <v>490.95</v>
-      </c>
-      <c r="AI11" s="2">
-        <f t="shared" si="33"/>
-        <v>441.85500000000002</v>
-      </c>
-      <c r="AJ11" s="2">
-        <f t="shared" si="33"/>
-        <v>397.66950000000003</v>
-      </c>
-      <c r="AK11" s="2">
-        <f t="shared" si="33"/>
-        <v>357.90255000000002</v>
-      </c>
-      <c r="AL11" s="2">
-        <f t="shared" si="33"/>
-        <v>322.11229500000002</v>
-      </c>
-      <c r="AM11" s="2">
-        <f t="shared" si="33"/>
-        <v>289.90106550000002</v>
-      </c>
-      <c r="AN11" s="2">
-        <f t="shared" si="33"/>
-        <v>260.91095895000001</v>
-      </c>
-      <c r="AO11" s="2">
-        <f t="shared" si="33"/>
-        <v>234.81986305500001</v>
-      </c>
-      <c r="AP11" s="2">
-        <f t="shared" si="33"/>
-        <v>211.33787674950003</v>
-      </c>
-      <c r="AQ11" s="2">
-        <f t="shared" si="33"/>
-        <v>190.20408907455004</v>
-      </c>
-      <c r="AR11" s="2">
-        <f t="shared" si="33"/>
-        <v>171.18368016709505</v>
-      </c>
-      <c r="AS11" s="2">
-        <f t="shared" si="33"/>
-        <v>154.06531215038555</v>
-      </c>
-      <c r="AT11" s="2">
-        <f t="shared" si="33"/>
-        <v>138.65878093534701</v>
-      </c>
-      <c r="AU11" s="2">
+        <v>116.96903982221561</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="26"/>
+        <v>105.27213583999405</v>
+      </c>
+      <c r="AW11" s="2">
         <f t="shared" si="27"/>
-        <v>124.79290284181231</v>
-      </c>
-      <c r="AV11" s="2">
+        <v>94.744922255994652</v>
+      </c>
+      <c r="AX11" s="2">
         <f t="shared" si="28"/>
-        <v>112.31361255763107</v>
-      </c>
-      <c r="AW11" s="2">
+        <v>85.27043003039519</v>
+      </c>
+      <c r="AY11" s="2">
         <f t="shared" si="29"/>
-        <v>101.08225130186797</v>
-      </c>
-      <c r="AX11" s="2">
-        <f t="shared" si="30"/>
-        <v>90.974026171681174</v>
-      </c>
-      <c r="AY11" s="2">
-        <f t="shared" si="31"/>
-        <v>81.87662355451306</v>
+        <v>76.743387027355666</v>
       </c>
     </row>
     <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4445,89 +4476,88 @@
         <v>139.4</v>
       </c>
       <c r="T12" s="12">
-        <f t="shared" ref="T12" si="34">S12-1</f>
-        <v>138.4</v>
+        <v>136</v>
       </c>
       <c r="U12" s="12"/>
       <c r="AF12" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>683.3</v>
       </c>
       <c r="AG12" s="2">
         <f>SUM(Q12:T12)</f>
-        <v>555.79999999999995</v>
+        <v>553.4</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AT12" si="35">+AG12*0.9</f>
-        <v>500.21999999999997</v>
+        <f t="shared" ref="AH12:AT12" si="31">+AG12*0.9</f>
+        <v>498.06</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="35"/>
-        <v>450.19799999999998</v>
+        <f t="shared" si="31"/>
+        <v>448.25400000000002</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="35"/>
-        <v>405.1782</v>
+        <f t="shared" si="31"/>
+        <v>403.42860000000002</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="35"/>
-        <v>364.66038000000003</v>
+        <f t="shared" si="31"/>
+        <v>363.08574000000004</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="35"/>
-        <v>328.19434200000006</v>
+        <f t="shared" si="31"/>
+        <v>326.77716600000002</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="35"/>
-        <v>295.37490780000007</v>
+        <f t="shared" si="31"/>
+        <v>294.09944940000003</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="35"/>
-        <v>265.83741702000009</v>
+        <f t="shared" si="31"/>
+        <v>264.68950446000002</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="35"/>
-        <v>239.25367531800009</v>
+        <f t="shared" si="31"/>
+        <v>238.22055401400002</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="35"/>
-        <v>215.3283077862001</v>
+        <f t="shared" si="31"/>
+        <v>214.39849861260001</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="35"/>
-        <v>193.7954770075801</v>
+        <f t="shared" si="31"/>
+        <v>192.95864875134001</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="35"/>
-        <v>174.41592930682211</v>
+        <f t="shared" si="31"/>
+        <v>173.66278387620602</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="35"/>
-        <v>156.97433637613989</v>
+        <f t="shared" si="31"/>
+        <v>156.29650548858541</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" si="35"/>
-        <v>141.27690273852591</v>
+        <f t="shared" si="31"/>
+        <v>140.66685493972687</v>
       </c>
       <c r="AU12" s="2">
+        <f t="shared" si="25"/>
+        <v>126.60016944575419</v>
+      </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="26"/>
+        <v>113.94015250117877</v>
+      </c>
+      <c r="AW12" s="2">
         <f t="shared" si="27"/>
-        <v>127.14921246467331</v>
-      </c>
-      <c r="AV12" s="2">
+        <v>102.5461372510609</v>
+      </c>
+      <c r="AX12" s="2">
         <f t="shared" si="28"/>
-        <v>114.43429121820598</v>
-      </c>
-      <c r="AW12" s="2">
+        <v>92.291523525954815</v>
+      </c>
+      <c r="AY12" s="2">
         <f t="shared" si="29"/>
-        <v>102.99086209638538</v>
-      </c>
-      <c r="AX12" s="2">
-        <f t="shared" si="30"/>
-        <v>92.691775886746854</v>
-      </c>
-      <c r="AY12" s="2">
-        <f t="shared" si="31"/>
-        <v>83.422598298072174</v>
+        <v>83.062371173359338</v>
       </c>
     </row>
     <row r="13" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4535,59 +4565,59 @@
         <v>24</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" ref="C13:K13" si="36">SUM(C9:C12)+C8</f>
+        <f t="shared" ref="C13:K13" si="32">SUM(C9:C12)+C8</f>
         <v>783</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>869.93299999999999</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>858.18200000000002</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>940.91300000000001</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>950</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>1257</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>1515</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>1524.4</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>1538</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" ref="L13:P13" si="37">SUM(L9:L12)</f>
+        <f t="shared" ref="L13:P13" si="33">SUM(L9:L12)</f>
         <v>1627</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>1723.3</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>1794</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>1984</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>2072</v>
       </c>
       <c r="Q13" s="14">
@@ -4595,35 +4625,35 @@
         <v>2097.5</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:X13" si="38">SUM(R9:R12)</f>
+        <f t="shared" ref="R13:X13" si="34">SUM(R9:R12)</f>
         <v>2197</v>
       </c>
       <c r="S13" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>2334.2999999999997</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="38"/>
-        <v>2431.2999999999997</v>
+        <f t="shared" si="34"/>
+        <v>2303</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2374.7999999999997</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2399.7999999999997</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2424.7999999999997</v>
       </c>
       <c r="X13" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2449.7999999999997</v>
       </c>
       <c r="AE13" s="13">
-        <f t="shared" ref="AE13" si="39">SUM(AE9:AE12)</f>
+        <f t="shared" ref="AE13" si="35">SUM(AE9:AE12)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -4632,84 +4662,84 @@
       </c>
       <c r="AG13" s="13">
         <f>SUM(AG9:AG12)</f>
-        <v>9060.0999999999985</v>
+        <v>8931.7999999999993</v>
       </c>
       <c r="AH13" s="13">
         <f>SUM(AH4:AH12)</f>
-        <v>10586.769999999999</v>
+        <v>10444.75</v>
       </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13:AT13" si="40">SUM(AI4:AI12)</f>
-        <v>11804.236999999999</v>
+        <f t="shared" ref="AI13:AT13" si="36">SUM(AI4:AI12)</f>
+        <v>11655.179000000002</v>
       </c>
       <c r="AJ13" s="13">
-        <f t="shared" si="40"/>
-        <v>13405.468339999999</v>
+        <f t="shared" si="36"/>
+        <v>13257.29774</v>
       </c>
       <c r="AK13" s="13">
-        <f t="shared" si="40"/>
-        <v>15521.2096468</v>
+        <f t="shared" si="36"/>
+        <v>15373.557338800003</v>
       </c>
       <c r="AL13" s="13">
-        <f t="shared" si="40"/>
-        <v>17050.502585735998</v>
+        <f t="shared" si="36"/>
+        <v>16903.030765176005</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="40"/>
-        <v>18402.494508850716</v>
+        <f t="shared" si="36"/>
+        <v>18254.893432119523</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="40"/>
-        <v>19766.528083287736</v>
+        <f t="shared" si="36"/>
+        <v>19618.513147237914</v>
       </c>
       <c r="AO13" s="13">
         <f>SUM(AO4:AO12)</f>
-        <v>20201.932960787486</v>
+        <v>20053.242072011071</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="40"/>
-        <v>20458.716394253843</v>
+        <f t="shared" si="36"/>
+        <v>20309.107599096853</v>
       </c>
       <c r="AQ13" s="13">
-        <f t="shared" si="40"/>
-        <v>20726.461687864456</v>
+        <f t="shared" si="36"/>
+        <v>20575.711037059798</v>
       </c>
       <c r="AR13" s="13">
-        <f t="shared" si="40"/>
-        <v>21004.716466363734</v>
+        <f t="shared" si="36"/>
+        <v>20852.616090772895</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="40"/>
-        <v>14914.671174859421</v>
+        <f t="shared" si="36"/>
+        <v>14833.625122374249</v>
       </c>
       <c r="AT13" s="13">
-        <f t="shared" si="40"/>
-        <v>9442.7994022371986</v>
+        <f t="shared" si="36"/>
+        <v>9425.7022405471253</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" ref="AU13:AY13" si="41">SUM(AU4:AU12)</f>
-        <v>8943.2008427368219</v>
+        <f t="shared" ref="AU13:AY13" si="37">SUM(AU4:AU12)</f>
+        <v>8933.3978257704148</v>
       </c>
       <c r="AV13" s="13">
-        <f t="shared" si="41"/>
-        <v>8944.4979612348143</v>
+        <f t="shared" si="37"/>
+        <v>8936.2336888205155</v>
       </c>
       <c r="AW13" s="13">
-        <f t="shared" si="41"/>
-        <v>8999.2704407348356</v>
+        <f t="shared" si="37"/>
+        <v>8991.8884398475129</v>
       </c>
       <c r="AX13" s="13">
-        <f t="shared" si="41"/>
-        <v>9062.5227851235013</v>
+        <f t="shared" si="37"/>
+        <v>9055.8845687534649</v>
       </c>
       <c r="AY13" s="13">
-        <f t="shared" si="41"/>
-        <v>3098.2913732209845</v>
+        <f t="shared" si="37"/>
+        <v>3092.3175369308074</v>
       </c>
     </row>
     <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="12">
         <v>111.255</v>
@@ -4763,133 +4793,146 @@
         <v>289.39999999999998</v>
       </c>
       <c r="T14" s="12">
-        <f>T13*0.07</f>
-        <v>170.191</v>
-      </c>
-      <c r="U14" s="12"/>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="U14" s="12">
+        <v>265</v>
+      </c>
+      <c r="V14" s="2">
+        <f>+V13-V15</f>
+        <v>239.98000000000002</v>
+      </c>
+      <c r="W14" s="2">
+        <f>+W13-W15</f>
+        <v>242.48000000000002</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+X13-X15</f>
+        <v>244.98000000000002</v>
+      </c>
       <c r="AF14" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>904.21199999999999</v>
       </c>
       <c r="AG14" s="2">
         <f>SUM(Q14:T14)</f>
-        <v>867.19100000000003</v>
+        <v>977.9</v>
       </c>
       <c r="AH14" s="2">
         <f>+AH13*0.07</f>
-        <v>741.07389999999998</v>
+        <v>731.13250000000005</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AT14" si="42">+AI13*0.07</f>
-        <v>826.29659000000004</v>
+        <f t="shared" ref="AI14:AT14" si="38">+AI13*0.07</f>
+        <v>815.86253000000022</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="42"/>
-        <v>938.38278380000008</v>
+        <f t="shared" si="38"/>
+        <v>928.01084180000009</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="42"/>
-        <v>1086.4846752760002</v>
+        <f t="shared" si="38"/>
+        <v>1076.1490137160004</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="42"/>
-        <v>1193.53518100152</v>
+        <f t="shared" si="38"/>
+        <v>1183.2121535623205</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="42"/>
-        <v>1288.1746156195502</v>
+        <f t="shared" si="38"/>
+        <v>1277.8425402483667</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="42"/>
-        <v>1383.6569658301416</v>
+        <f t="shared" si="38"/>
+        <v>1373.2959203066541</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="42"/>
-        <v>1414.1353072551242</v>
+        <f t="shared" si="38"/>
+        <v>1403.726945040775</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="42"/>
-        <v>1432.1101475977691</v>
+        <f t="shared" si="38"/>
+        <v>1421.6375319367799</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="42"/>
-        <v>1450.852318150512</v>
+        <f t="shared" si="38"/>
+        <v>1440.2997725941859</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="42"/>
-        <v>1470.3301526454616</v>
+        <f t="shared" si="38"/>
+        <v>1459.6831263541028</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="42"/>
-        <v>1044.0269822401594</v>
+        <f t="shared" si="38"/>
+        <v>1038.3537585661975</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="42"/>
-        <v>660.99595815660393</v>
+        <f t="shared" si="38"/>
+        <v>659.79915683829881</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" ref="AU14:AY14" si="43">+AU13*0.07</f>
-        <v>626.02405899157759</v>
+        <f t="shared" ref="AU14:AY14" si="39">+AU13*0.07</f>
+        <v>625.33784780392909</v>
       </c>
       <c r="AV14" s="2">
-        <f t="shared" si="43"/>
-        <v>626.11485728643709</v>
+        <f t="shared" si="39"/>
+        <v>625.53635821743615</v>
       </c>
       <c r="AW14" s="2">
-        <f t="shared" si="43"/>
-        <v>629.9489308514386</v>
+        <f t="shared" si="39"/>
+        <v>629.432190789326</v>
       </c>
       <c r="AX14" s="2">
-        <f t="shared" si="43"/>
-        <v>634.37659495864511</v>
+        <f t="shared" si="39"/>
+        <v>633.91191981274255</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" si="43"/>
-        <v>216.88039612546893</v>
+        <f t="shared" si="39"/>
+        <v>216.46222758515654</v>
       </c>
     </row>
     <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:J15" si="44">+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="40">+C13-C14</f>
         <v>671.745</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>763.09</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>805.173</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>1339.9</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:L15" si="45">+K13-K14</f>
+        <f t="shared" ref="K15:L15" si="41">+K13-K14</f>
         <v>1351.818</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>1423.9</v>
       </c>
       <c r="M15" s="12">
@@ -4913,7 +4956,7 @@
         <v>1951.7</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:T15" si="46">+R13-R14</f>
+        <f t="shared" ref="R15:T15" si="42">+R13-R14</f>
         <v>1935.2</v>
       </c>
       <c r="S15" s="12">
@@ -4921,12 +4964,27 @@
         <v>2044.8999999999996</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="46"/>
-        <v>2261.1089999999999</v>
-      </c>
-      <c r="U15" s="12"/>
+        <f t="shared" si="42"/>
+        <v>2022.1</v>
+      </c>
+      <c r="U15" s="12">
+        <f>+U13-U14</f>
+        <v>2109.7999999999997</v>
+      </c>
+      <c r="V15" s="2">
+        <f>+V13*0.9</f>
+        <v>2159.8199999999997</v>
+      </c>
+      <c r="W15" s="2">
+        <f>+W13*0.9</f>
+        <v>2182.3199999999997</v>
+      </c>
+      <c r="X15" s="2">
+        <f>+X13*0.9</f>
+        <v>2204.8199999999997</v>
+      </c>
       <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="47">+AE13-AE14</f>
+        <f t="shared" ref="AE15" si="43">+AE13-AE14</f>
         <v>0</v>
       </c>
       <c r="AF15" s="2">
@@ -4935,84 +4993,84 @@
       </c>
       <c r="AG15" s="2">
         <f>+AG13-AG14</f>
-        <v>8192.9089999999978</v>
+        <v>7953.9</v>
       </c>
       <c r="AH15" s="2">
         <f>+AH13-AH14</f>
-        <v>9845.6960999999992</v>
+        <v>9713.6175000000003</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" ref="AI15:AT15" si="48">+AI13-AI14</f>
-        <v>10977.940409999999</v>
+        <f t="shared" ref="AI15:AT15" si="44">+AI13-AI14</f>
+        <v>10839.316470000002</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="48"/>
-        <v>12467.0855562</v>
+        <f t="shared" si="44"/>
+        <v>12329.2868982</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="48"/>
-        <v>14434.724971524</v>
+        <f t="shared" si="44"/>
+        <v>14297.408325084003</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="48"/>
-        <v>15856.967404734478</v>
+        <f t="shared" si="44"/>
+        <v>15719.818611613684</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="48"/>
-        <v>17114.319893231164</v>
+        <f t="shared" si="44"/>
+        <v>16977.050891871157</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="48"/>
-        <v>18382.871117457595</v>
+        <f t="shared" si="44"/>
+        <v>18245.217226931261</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="48"/>
-        <v>18787.797653532361</v>
+        <f t="shared" si="44"/>
+        <v>18649.515126970295</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="48"/>
-        <v>19026.606246656072</v>
+        <f t="shared" si="44"/>
+        <v>18887.470067160073</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="48"/>
-        <v>19275.609369713944</v>
+        <f t="shared" si="44"/>
+        <v>19135.411264465612</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="48"/>
-        <v>19534.386313718271</v>
+        <f t="shared" si="44"/>
+        <v>19392.932964418793</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="48"/>
-        <v>13870.644192619262</v>
+        <f t="shared" si="44"/>
+        <v>13795.271363808051</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="48"/>
-        <v>8781.803444080595</v>
+        <f t="shared" si="44"/>
+        <v>8765.9030837088267</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" ref="AU15:AY15" si="49">+AU13-AU14</f>
-        <v>8317.1767837452444</v>
+        <f t="shared" ref="AU15:AY15" si="45">+AU13-AU14</f>
+        <v>8308.0599779664863</v>
       </c>
       <c r="AV15" s="2">
-        <f t="shared" si="49"/>
-        <v>8318.3831039483775</v>
+        <f t="shared" si="45"/>
+        <v>8310.6973306030795</v>
       </c>
       <c r="AW15" s="2">
-        <f t="shared" si="49"/>
-        <v>8369.3215098833971</v>
+        <f t="shared" si="45"/>
+        <v>8362.4562490581866</v>
       </c>
       <c r="AX15" s="2">
-        <f t="shared" si="49"/>
-        <v>8428.1461901648563</v>
+        <f t="shared" si="45"/>
+        <v>8421.9726489407221</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" si="49"/>
-        <v>2881.4109770955156</v>
+        <f t="shared" si="45"/>
+        <v>2875.8553093456508</v>
       </c>
     </row>
     <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="12">
         <v>137.29499999999999</v>
@@ -5066,10 +5124,23 @@
         <v>246.8</v>
       </c>
       <c r="T16" s="12">
-        <f t="shared" ref="T16" si="50">+S16</f>
+        <v>225.6</v>
+      </c>
+      <c r="U16" s="12">
+        <v>196.9</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+R16</f>
+        <v>215.3</v>
+      </c>
+      <c r="W16" s="2">
+        <f>+S16</f>
         <v>246.8</v>
       </c>
-      <c r="U16" s="12"/>
+      <c r="X16" s="2">
+        <f>+T16</f>
+        <v>225.6</v>
+      </c>
       <c r="AE16" s="2">
         <v>609</v>
       </c>
@@ -5077,85 +5148,85 @@
         <v>673</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AG17" si="51">SUM(Q16:T16)</f>
-        <v>875.90000000000009</v>
+        <f t="shared" ref="AG16:AG17" si="46">SUM(Q16:T16)</f>
+        <v>854.7</v>
       </c>
       <c r="AH16" s="2">
         <f>+AH13*0.1</f>
-        <v>1058.6769999999999</v>
+        <v>1044.4750000000001</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" ref="AI16:AT16" si="52">+AI13*0.1</f>
-        <v>1180.4237000000001</v>
+        <f t="shared" ref="AI16:AT16" si="47">+AI13*0.1</f>
+        <v>1165.5179000000003</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="52"/>
-        <v>1340.546834</v>
+        <f t="shared" si="47"/>
+        <v>1325.7297740000001</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="52"/>
-        <v>1552.12096468</v>
+        <f t="shared" si="47"/>
+        <v>1537.3557338800003</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="52"/>
-        <v>1705.0502585735999</v>
+        <f t="shared" si="47"/>
+        <v>1690.3030765176006</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="52"/>
-        <v>1840.2494508850716</v>
+        <f t="shared" si="47"/>
+        <v>1825.4893432119525</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="52"/>
-        <v>1976.6528083287737</v>
+        <f t="shared" si="47"/>
+        <v>1961.8513147237916</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="52"/>
-        <v>2020.1932960787487</v>
+        <f t="shared" si="47"/>
+        <v>2005.3242072011071</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="52"/>
-        <v>2045.8716394253843</v>
+        <f t="shared" si="47"/>
+        <v>2030.9107599096853</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="52"/>
-        <v>2072.6461687864457</v>
+        <f t="shared" si="47"/>
+        <v>2057.57110370598</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="52"/>
-        <v>2100.4716466363734</v>
+        <f t="shared" si="47"/>
+        <v>2085.2616090772894</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="52"/>
-        <v>1491.4671174859423</v>
+        <f t="shared" si="47"/>
+        <v>1483.3625122374251</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="52"/>
-        <v>944.2799402237199</v>
+        <f t="shared" si="47"/>
+        <v>942.57022405471253</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" ref="AU16:AY16" si="53">+AU13*0.1</f>
-        <v>894.32008427368226</v>
+        <f t="shared" ref="AU16:AY16" si="48">+AU13*0.1</f>
+        <v>893.33978257704155</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="53"/>
-        <v>894.44979612348152</v>
+        <f t="shared" si="48"/>
+        <v>893.62336888205164</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="53"/>
-        <v>899.92704407348356</v>
+        <f t="shared" si="48"/>
+        <v>899.18884398475132</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="53"/>
-        <v>906.25227851235013</v>
+        <f t="shared" si="48"/>
+        <v>905.58845687534654</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="53"/>
-        <v>309.82913732209846</v>
+        <f t="shared" si="48"/>
+        <v>309.23175369308075</v>
       </c>
     </row>
     <row r="17" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12">
         <v>330.51</v>
@@ -5209,10 +5280,23 @@
         <v>645</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" ref="T17" si="54">+S17</f>
-        <v>645</v>
-      </c>
-      <c r="U17" s="12"/>
+        <v>623.20000000000005</v>
+      </c>
+      <c r="U17" s="12">
+        <v>663.5</v>
+      </c>
+      <c r="V17" s="2">
+        <f>+U17</f>
+        <v>663.5</v>
+      </c>
+      <c r="W17" s="2">
+        <f>+V17</f>
+        <v>663.5</v>
+      </c>
+      <c r="X17" s="2">
+        <f>+W17</f>
+        <v>663.5</v>
+      </c>
       <c r="AE17" s="2">
         <v>1372</v>
       </c>
@@ -5220,52 +5304,52 @@
         <v>1658</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="51"/>
-        <v>2410.1</v>
+        <f t="shared" si="46"/>
+        <v>2388.3000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:D18" si="55">SUM(C16:C17)</f>
+        <f t="shared" ref="C18:D18" si="49">SUM(C16:C17)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>591.09100000000001</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:G18" si="56">SUM(E16:E17)</f>
+        <f t="shared" ref="E18:G18" si="50">SUM(E16:E17)</f>
         <v>486.53499999999997</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>535.59300000000007</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>715.62199999999996</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ref="H18:I18" si="57">SUM(H16:H17)</f>
+        <f t="shared" ref="H18:I18" si="51">SUM(H16:H17)</f>
         <v>675.28800000000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="51"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18" si="58">SUM(J16:J17)</f>
+        <f t="shared" ref="J18" si="52">SUM(J16:J17)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:L18" si="59">SUM(K16:K17)</f>
+        <f t="shared" ref="K18:L18" si="53">SUM(K16:K17)</f>
         <v>678.048</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="53"/>
         <v>539</v>
       </c>
       <c r="M18" s="12">
@@ -5273,11 +5357,11 @@
         <v>531</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ref="N18:Q18" si="60">SUM(N16:N17)</f>
+        <f t="shared" ref="N18:Q18" si="54">SUM(N16:N17)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P18" s="12">
@@ -5285,7 +5369,7 @@
         <v>703</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="54"/>
         <v>687</v>
       </c>
       <c r="R18" s="12">
@@ -5297,137 +5381,152 @@
         <v>891.8</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" ref="T18" si="61">SUM(T16:T17)</f>
-        <v>891.8</v>
-      </c>
-      <c r="U18" s="12"/>
+        <f t="shared" ref="T18:U18" si="55">SUM(T16:T17)</f>
+        <v>848.80000000000007</v>
+      </c>
+      <c r="U18" s="12">
+        <f t="shared" si="55"/>
+        <v>860.4</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" ref="V18:X18" si="56">SUM(V16:V17)</f>
+        <v>878.8</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="56"/>
+        <v>910.3</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" si="56"/>
+        <v>889.1</v>
+      </c>
       <c r="AE18" s="12">
-        <f t="shared" ref="AE18:AG18" si="62">SUM(AE16:AE17)</f>
+        <f t="shared" ref="AE18:AG18" si="57">SUM(AE16:AE17)</f>
         <v>1981</v>
       </c>
       <c r="AF18" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>2331</v>
       </c>
       <c r="AG18" s="12">
-        <f t="shared" si="62"/>
-        <v>3286</v>
+        <f t="shared" si="57"/>
+        <v>3243</v>
       </c>
       <c r="AH18" s="12">
-        <f t="shared" ref="AH18:AT18" si="63">SUM(AH16:AH17)</f>
-        <v>1058.6769999999999</v>
+        <f t="shared" ref="AH18:AT18" si="58">SUM(AH16:AH17)</f>
+        <v>1044.4750000000001</v>
       </c>
       <c r="AI18" s="12">
-        <f t="shared" si="63"/>
-        <v>1180.4237000000001</v>
+        <f t="shared" si="58"/>
+        <v>1165.5179000000003</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" si="63"/>
-        <v>1340.546834</v>
+        <f t="shared" si="58"/>
+        <v>1325.7297740000001</v>
       </c>
       <c r="AK18" s="12">
-        <f t="shared" si="63"/>
-        <v>1552.12096468</v>
+        <f t="shared" si="58"/>
+        <v>1537.3557338800003</v>
       </c>
       <c r="AL18" s="12">
-        <f t="shared" si="63"/>
-        <v>1705.0502585735999</v>
+        <f t="shared" si="58"/>
+        <v>1690.3030765176006</v>
       </c>
       <c r="AM18" s="12">
-        <f t="shared" si="63"/>
-        <v>1840.2494508850716</v>
+        <f t="shared" si="58"/>
+        <v>1825.4893432119525</v>
       </c>
       <c r="AN18" s="12">
-        <f t="shared" si="63"/>
-        <v>1976.6528083287737</v>
+        <f t="shared" si="58"/>
+        <v>1961.8513147237916</v>
       </c>
       <c r="AO18" s="12">
-        <f t="shared" si="63"/>
-        <v>2020.1932960787487</v>
+        <f t="shared" si="58"/>
+        <v>2005.3242072011071</v>
       </c>
       <c r="AP18" s="12">
-        <f t="shared" si="63"/>
-        <v>2045.8716394253843</v>
+        <f t="shared" si="58"/>
+        <v>2030.9107599096853</v>
       </c>
       <c r="AQ18" s="12">
-        <f t="shared" si="63"/>
-        <v>2072.6461687864457</v>
+        <f t="shared" si="58"/>
+        <v>2057.57110370598</v>
       </c>
       <c r="AR18" s="12">
-        <f t="shared" si="63"/>
-        <v>2100.4716466363734</v>
+        <f t="shared" si="58"/>
+        <v>2085.2616090772894</v>
       </c>
       <c r="AS18" s="12">
-        <f t="shared" si="63"/>
-        <v>1491.4671174859423</v>
+        <f t="shared" si="58"/>
+        <v>1483.3625122374251</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="63"/>
-        <v>944.2799402237199</v>
+        <f t="shared" si="58"/>
+        <v>942.57022405471253</v>
       </c>
       <c r="AU18" s="12">
-        <f t="shared" ref="AU18:AY18" si="64">SUM(AU16:AU17)</f>
-        <v>894.32008427368226</v>
+        <f t="shared" ref="AU18:AY18" si="59">SUM(AU16:AU17)</f>
+        <v>893.33978257704155</v>
       </c>
       <c r="AV18" s="12">
-        <f t="shared" si="64"/>
-        <v>894.44979612348152</v>
+        <f t="shared" si="59"/>
+        <v>893.62336888205164</v>
       </c>
       <c r="AW18" s="12">
-        <f t="shared" si="64"/>
-        <v>899.92704407348356</v>
+        <f t="shared" si="59"/>
+        <v>899.18884398475132</v>
       </c>
       <c r="AX18" s="12">
-        <f t="shared" si="64"/>
-        <v>906.25227851235013</v>
+        <f t="shared" si="59"/>
+        <v>905.58845687534654</v>
       </c>
       <c r="AY18" s="12">
-        <f t="shared" si="64"/>
-        <v>309.82913732209846</v>
+        <f t="shared" si="59"/>
+        <v>309.23175369308075</v>
       </c>
     </row>
     <row r="19" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:D19" si="65">C15-C18</f>
+        <f t="shared" ref="C19:D19" si="60">C15-C18</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>156.553</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" ref="E19:G19" si="66">E15-E18</f>
+        <f t="shared" ref="E19:G19" si="61">E15-E18</f>
         <v>276.55500000000006</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>269.57999999999993</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>102.46400000000006</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19:I19" si="67">H15-H18</f>
+        <f t="shared" ref="H19:I19" si="62">H15-H18</f>
         <v>396.70000000000005</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19" si="68">J15-J18</f>
+        <f t="shared" ref="J19" si="63">J15-J18</f>
         <v>727.2</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:L19" si="69">K15-K18</f>
+        <f t="shared" ref="K19:L19" si="64">K15-K18</f>
         <v>673.77</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M19" s="12">
@@ -5435,11 +5534,11 @@
         <v>1000</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ref="N19:Q19" si="70">N15-N18</f>
+        <f t="shared" ref="N19:Q19" si="65">N15-N18</f>
         <v>922.7</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P19" s="12">
@@ -5447,7 +5546,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>1264.7</v>
       </c>
       <c r="R19" s="12">
@@ -5459,98 +5558,113 @@
         <v>1153.0999999999997</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" ref="T19" si="71">T15-T18</f>
-        <v>1369.309</v>
-      </c>
-      <c r="U19" s="12"/>
+        <f t="shared" ref="T19:U19" si="66">T15-T18</f>
+        <v>1173.2999999999997</v>
+      </c>
+      <c r="U19" s="12">
+        <f t="shared" si="66"/>
+        <v>1249.3999999999996</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" ref="V19:X19" si="67">V15-V18</f>
+        <v>1281.0199999999998</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="67"/>
+        <v>1272.0199999999998</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" si="67"/>
+        <v>1315.7199999999998</v>
+      </c>
       <c r="AE19" s="12">
-        <f t="shared" ref="AE19:AG19" si="72">AE15-AE18</f>
+        <f t="shared" ref="AE19:AG19" si="68">AE15-AE18</f>
         <v>-1981</v>
       </c>
       <c r="AF19" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>4338.0879999999997</v>
       </c>
       <c r="AG19" s="12">
-        <f t="shared" si="72"/>
-        <v>4906.9089999999978</v>
+        <f t="shared" si="68"/>
+        <v>4710.8999999999996</v>
       </c>
       <c r="AH19" s="12">
-        <f t="shared" ref="AH19:AT19" si="73">AH15-AH18</f>
-        <v>8787.0190999999995</v>
+        <f t="shared" ref="AH19:AT19" si="69">AH15-AH18</f>
+        <v>8669.1424999999999</v>
       </c>
       <c r="AI19" s="12">
-        <f t="shared" si="73"/>
-        <v>9797.5167099999999</v>
+        <f t="shared" si="69"/>
+        <v>9673.7985700000008</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="73"/>
-        <v>11126.538722199999</v>
+        <f t="shared" si="69"/>
+        <v>11003.557124200001</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" si="73"/>
-        <v>12882.604006844</v>
+        <f t="shared" si="69"/>
+        <v>12760.052591204003</v>
       </c>
       <c r="AL19" s="12">
-        <f t="shared" si="73"/>
-        <v>14151.917146160878</v>
+        <f t="shared" si="69"/>
+        <v>14029.515535096083</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" si="73"/>
-        <v>15274.070442346092</v>
+        <f t="shared" si="69"/>
+        <v>15151.561548659203</v>
       </c>
       <c r="AN19" s="12">
-        <f t="shared" si="73"/>
-        <v>16406.218309128821</v>
+        <f t="shared" si="69"/>
+        <v>16283.36591220747</v>
       </c>
       <c r="AO19" s="12">
-        <f t="shared" si="73"/>
-        <v>16767.604357453612</v>
+        <f t="shared" si="69"/>
+        <v>16644.190919769186</v>
       </c>
       <c r="AP19" s="12">
-        <f t="shared" si="73"/>
-        <v>16980.73460723069</v>
+        <f t="shared" si="69"/>
+        <v>16856.559307250387</v>
       </c>
       <c r="AQ19" s="12">
-        <f t="shared" si="73"/>
-        <v>17202.963200927497</v>
+        <f t="shared" si="69"/>
+        <v>17077.840160759632</v>
       </c>
       <c r="AR19" s="12">
-        <f t="shared" si="73"/>
-        <v>17433.914667081895</v>
+        <f t="shared" si="69"/>
+        <v>17307.671355341503</v>
       </c>
       <c r="AS19" s="12">
-        <f t="shared" si="73"/>
-        <v>12379.177075133321</v>
+        <f t="shared" si="69"/>
+        <v>12311.908851570626</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="73"/>
-        <v>7837.5235038568753</v>
+        <f t="shared" si="69"/>
+        <v>7823.3328596541141</v>
       </c>
       <c r="AU19" s="12">
-        <f t="shared" ref="AU19:AY19" si="74">AU15-AU18</f>
-        <v>7422.856699471562</v>
+        <f t="shared" ref="AU19:AY19" si="70">AU15-AU18</f>
+        <v>7414.7201953894446</v>
       </c>
       <c r="AV19" s="12">
-        <f t="shared" si="74"/>
-        <v>7423.9333078248965</v>
+        <f t="shared" si="70"/>
+        <v>7417.0739617210274</v>
       </c>
       <c r="AW19" s="12">
-        <f t="shared" si="74"/>
-        <v>7469.3944658099135</v>
+        <f t="shared" si="70"/>
+        <v>7463.2674050734349</v>
       </c>
       <c r="AX19" s="12">
-        <f t="shared" si="74"/>
-        <v>7521.8939116525062</v>
+        <f t="shared" si="70"/>
+        <v>7516.3841920653758</v>
       </c>
       <c r="AY19" s="12">
-        <f t="shared" si="74"/>
-        <v>2571.581839773417</v>
+        <f t="shared" si="70"/>
+        <v>2566.6235556525698</v>
       </c>
     </row>
     <row r="20" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="12">
         <f>10.543-18.686</f>
@@ -5621,121 +5735,135 @@
         <v>32.299999999999997</v>
       </c>
       <c r="T20" s="12">
-        <f t="shared" ref="T20" si="75">+S20</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="U20" s="12"/>
+        <f>86-11.6</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="U20" s="12">
+        <v>122.6</v>
+      </c>
+      <c r="V20" s="2">
+        <f>+U20</f>
+        <v>122.6</v>
+      </c>
+      <c r="W20" s="2">
+        <f>+V20</f>
+        <v>122.6</v>
+      </c>
+      <c r="X20" s="2">
+        <f>+W20</f>
+        <v>122.6</v>
+      </c>
       <c r="AG20" s="2">
-        <f t="shared" ref="AG20:AG22" si="76">SUM(Q20:T20)</f>
-        <v>47.499999999999993</v>
+        <f t="shared" ref="AG20:AG22" si="71">SUM(Q20:T20)</f>
+        <v>89.6</v>
       </c>
       <c r="AH20" s="2">
-        <f>+AG32*$BB$30</f>
-        <v>109.23309000000002</v>
+        <f t="shared" ref="AH20:AV20" si="72">+AG32*$BB$30</f>
+        <v>0</v>
       </c>
       <c r="AI20" s="2">
-        <f>+AH32*$BB$30</f>
-        <v>180.40310752000002</v>
+        <f t="shared" si="72"/>
+        <v>69.35314000000001</v>
       </c>
       <c r="AJ20" s="2">
-        <f>+AI32*$BB$30</f>
-        <v>260.22646606016002</v>
+        <f t="shared" si="72"/>
+        <v>147.29835367999999</v>
       </c>
       <c r="AK20" s="2">
-        <f>+AJ32*$BB$30</f>
-        <v>351.32058756624133</v>
+        <f t="shared" si="72"/>
+        <v>236.50519750303999</v>
       </c>
       <c r="AL20" s="2">
-        <f>+AK32*$BB$30</f>
-        <v>457.19198432152319</v>
+        <f t="shared" si="72"/>
+        <v>340.47765981269634</v>
       </c>
       <c r="AM20" s="2">
-        <f>+AL32*$BB$30</f>
-        <v>574.06485736538241</v>
+        <f t="shared" si="72"/>
+        <v>455.43760537196664</v>
       </c>
       <c r="AN20" s="2">
-        <f>+AM32*$BB$30</f>
-        <v>700.84993976307419</v>
+        <f t="shared" si="72"/>
+        <v>580.29359860421596</v>
       </c>
       <c r="AO20" s="2">
-        <f>+AN32*$BB$30</f>
-        <v>837.70648575420944</v>
+        <f t="shared" si="72"/>
+        <v>715.20287469070945</v>
       </c>
       <c r="AP20" s="2">
-        <f>+AO32*$BB$30</f>
-        <v>978.54897249987209</v>
+        <f t="shared" si="72"/>
+        <v>854.07802504638869</v>
       </c>
       <c r="AQ20" s="2">
-        <f>+AP32*$BB$30</f>
-        <v>1122.2232411377165</v>
+        <f t="shared" si="72"/>
+        <v>995.76312370476285</v>
       </c>
       <c r="AR20" s="2">
-        <f>+AQ32*$BB$30</f>
-        <v>1268.8247326742382</v>
+        <f t="shared" si="72"/>
+        <v>1140.3519499804779</v>
       </c>
       <c r="AS20" s="2">
-        <f>+AR32*$BB$30</f>
-        <v>1418.4466478722873</v>
+        <f t="shared" si="72"/>
+        <v>1287.9361364230538</v>
       </c>
       <c r="AT20" s="2">
-        <f>+AS32*$BB$30</f>
-        <v>1528.8276376563319</v>
+        <f t="shared" si="72"/>
+        <v>1396.7348963270033</v>
       </c>
       <c r="AU20" s="2">
-        <f>+AT32*$BB$30</f>
-        <v>1603.7584467884378</v>
+        <f t="shared" si="72"/>
+        <v>1470.4954383748523</v>
       </c>
       <c r="AV20" s="2">
-        <f>+AU32*$BB$30</f>
-        <v>1675.9713679585179</v>
+        <f t="shared" si="72"/>
+        <v>1541.5771634449668</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" ref="AW20:AY20" si="77">+AV32*$BB$30</f>
-        <v>1748.7706053647851</v>
+        <f t="shared" ref="AW20:AY20" si="73">+AV32*$BB$30</f>
+        <v>1613.2463724462948</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="77"/>
-        <v>1822.5159259341826</v>
+        <f t="shared" si="73"/>
+        <v>1685.8584826664526</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="77"/>
-        <v>1897.2712046348761</v>
+        <f t="shared" si="73"/>
+        <v>1759.4764240643071</v>
       </c>
     </row>
     <row r="21" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="78">+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="74">+C19+C20</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>151.78</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:F21" si="79">+E19+E20</f>
+        <f t="shared" ref="E21:F21" si="75">+E19+E20</f>
         <v>277.30200000000008</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>272.8189999999999</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="80">+G19+G20</f>
+        <f t="shared" ref="G21:J21" si="76">+G19+G20</f>
         <v>105.54400000000005</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>717.572</v>
       </c>
       <c r="K21" s="12">
@@ -5751,114 +5879,129 @@
         <v>985.8</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="81">+N19+N20</f>
+        <f t="shared" ref="N21:Q21" si="77">+N19+N20</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ref="R21" si="82">+R19+R20</f>
+        <f t="shared" ref="R21" si="78">+R19+R20</f>
         <v>1116</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" ref="S21" si="83">+S19+S20</f>
+        <f t="shared" ref="S21" si="79">+S19+S20</f>
         <v>1185.3999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21" si="84">+T19+T20</f>
-        <v>1401.6089999999999</v>
-      </c>
-      <c r="U21" s="12"/>
+        <f t="shared" ref="T21:X21" si="80">+T19+T20</f>
+        <v>1247.6999999999998</v>
+      </c>
+      <c r="U21" s="12">
+        <f t="shared" si="80"/>
+        <v>1371.9999999999995</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" si="80"/>
+        <v>1403.6199999999997</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="80"/>
+        <v>1394.6199999999997</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="80"/>
+        <v>1438.3199999999997</v>
+      </c>
       <c r="AG21" s="2">
         <f>+AG19+AG20</f>
-        <v>4954.4089999999978</v>
+        <v>4800.5</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21:AT21" si="85">+AH19+AH20</f>
-        <v>8896.2521899999992</v>
+        <f t="shared" ref="AH21:AT21" si="81">+AH19+AH20</f>
+        <v>8669.1424999999999</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="85"/>
-        <v>9977.9198175199999</v>
+        <f t="shared" si="81"/>
+        <v>9743.1517100000001</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="85"/>
-        <v>11386.765188260159</v>
+        <f t="shared" si="81"/>
+        <v>11150.855477880001</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="85"/>
-        <v>13233.92459441024</v>
+        <f t="shared" si="81"/>
+        <v>12996.557788707043</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="85"/>
-        <v>14609.109130482402</v>
+        <f t="shared" si="81"/>
+        <v>14369.993194908779</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="85"/>
-        <v>15848.135299711474</v>
+        <f t="shared" si="81"/>
+        <v>15606.999154031169</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="85"/>
-        <v>17107.068248891894</v>
+        <f t="shared" si="81"/>
+        <v>16863.659510811685</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="85"/>
-        <v>17605.310843207822</v>
+        <f t="shared" si="81"/>
+        <v>17359.393794459895</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="85"/>
-        <v>17959.283579730563</v>
+        <f t="shared" si="81"/>
+        <v>17710.637332296777</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="85"/>
-        <v>18325.186442065213</v>
+        <f t="shared" si="81"/>
+        <v>18073.603284464396</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="85"/>
-        <v>18702.739399756134</v>
+        <f t="shared" si="81"/>
+        <v>18448.023305321982</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="85"/>
-        <v>13797.623723005609</v>
+        <f t="shared" si="81"/>
+        <v>13599.84498799368</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="85"/>
-        <v>9366.351141513207</v>
+        <f t="shared" si="81"/>
+        <v>9220.0677559811174</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" ref="AU21:AY21" si="86">+AU19+AU20</f>
-        <v>9026.6151462599992</v>
+        <f t="shared" ref="AU21:AY21" si="82">+AU19+AU20</f>
+        <v>8885.2156337642973</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="86"/>
-        <v>9099.9046757834149</v>
+        <f t="shared" si="82"/>
+        <v>8958.651125165994</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="86"/>
-        <v>9218.1650711746988</v>
+        <f t="shared" si="82"/>
+        <v>9076.513777519729</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="86"/>
-        <v>9344.4098375866888</v>
+        <f t="shared" si="82"/>
+        <v>9202.2426747318277</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="86"/>
-        <v>4468.8530444082935</v>
+        <f t="shared" si="82"/>
+        <v>4326.099979716877</v>
       </c>
     </row>
     <row r="22" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="12">
         <v>8.0549999999999997</v>
@@ -5912,120 +6055,134 @@
         <v>245.9</v>
       </c>
       <c r="T22" s="12">
-        <v>249</v>
-      </c>
-      <c r="U22" s="12"/>
+        <v>257.89999999999998</v>
+      </c>
+      <c r="U22" s="12">
+        <v>191.7</v>
+      </c>
+      <c r="V22" s="2">
+        <f>+V21*0.15</f>
+        <v>210.54299999999995</v>
+      </c>
+      <c r="W22" s="2">
+        <f>+W21*0.15</f>
+        <v>209.19299999999996</v>
+      </c>
+      <c r="X22" s="2">
+        <f>+X21*0.15</f>
+        <v>215.74799999999996</v>
+      </c>
       <c r="AG22" s="2">
-        <f t="shared" si="76"/>
-        <v>1002.5</v>
+        <f t="shared" si="71"/>
+        <v>1011.4</v>
       </c>
       <c r="AH22" s="2">
         <f>+AH21*0.2</f>
-        <v>1779.250438</v>
+        <v>1733.8285000000001</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AT22" si="87">+AI21*0.2</f>
-        <v>1995.5839635040002</v>
+        <f t="shared" ref="AI22:AT22" si="83">+AI21*0.2</f>
+        <v>1948.6303420000002</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="87"/>
-        <v>2277.3530376520316</v>
+        <f t="shared" si="83"/>
+        <v>2230.1710955760004</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="87"/>
-        <v>2646.7849188820483</v>
+        <f t="shared" si="83"/>
+        <v>2599.3115577414087</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="87"/>
-        <v>2921.8218260964804</v>
+        <f t="shared" si="83"/>
+        <v>2873.9986389817559</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="87"/>
-        <v>3169.6270599422951</v>
+        <f t="shared" si="83"/>
+        <v>3121.3998308062341</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="87"/>
-        <v>3421.4136497783788</v>
+        <f t="shared" si="83"/>
+        <v>3372.7319021623371</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="87"/>
-        <v>3521.0621686415648</v>
+        <f t="shared" si="83"/>
+        <v>3471.878758891979</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" si="87"/>
-        <v>3591.8567159461127</v>
+        <f t="shared" si="83"/>
+        <v>3542.1274664593557</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="87"/>
-        <v>3665.0372884130429</v>
+        <f t="shared" si="83"/>
+        <v>3614.7206568928796</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" si="87"/>
-        <v>3740.5478799512271</v>
+        <f t="shared" si="83"/>
+        <v>3689.6046610643966</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="87"/>
-        <v>2759.5247446011217</v>
+        <f t="shared" si="83"/>
+        <v>2719.9689975987362</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="87"/>
-        <v>1873.2702283026415</v>
+        <f t="shared" si="83"/>
+        <v>1844.0135511962235</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" ref="AU22:AY22" si="88">+AU21*0.2</f>
-        <v>1805.323029252</v>
+        <f t="shared" ref="AU22:AY22" si="84">+AU21*0.2</f>
+        <v>1777.0431267528595</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="88"/>
-        <v>1819.980935156683</v>
+        <f t="shared" si="84"/>
+        <v>1791.7302250331988</v>
       </c>
       <c r="AW22" s="2">
         <f>+AW21*0.2</f>
-        <v>1843.6330142349398</v>
+        <v>1815.3027555039459</v>
       </c>
       <c r="AX22" s="2">
         <f>+AX21*0.2</f>
-        <v>1868.8819675173379</v>
+        <v>1840.4485349463657</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" si="88"/>
-        <v>893.77060888165875</v>
+        <f t="shared" si="84"/>
+        <v>865.21999594337547</v>
       </c>
     </row>
     <row r="23" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="89">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="85">+C21-C22</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>151.78</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="90">+E21-E22</f>
+        <f t="shared" ref="E23:F23" si="86">+E21-E22</f>
         <v>225.76800000000009</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>213.10799999999989</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="91">+G21-G22</f>
+        <f t="shared" ref="G23:J23" si="87">+G21-G22</f>
         <v>92.396000000000058</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>730.072</v>
       </c>
       <c r="K23" s="12">
@@ -6041,409 +6198,424 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:T23" si="92">+N21-N22</f>
+        <f t="shared" ref="N23:X23" si="88">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>1002.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>857.4</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>939.49999999999966</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="92"/>
-        <v>1152.6089999999999</v>
-      </c>
-      <c r="U23" s="12"/>
+        <f t="shared" si="88"/>
+        <v>989.79999999999984</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="88"/>
+        <v>1180.2999999999995</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" si="88"/>
+        <v>1193.0769999999998</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="88"/>
+        <v>1185.4269999999997</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" si="88"/>
+        <v>1222.5719999999997</v>
+      </c>
       <c r="AG23" s="2">
         <f>+AG21-AG22</f>
-        <v>3951.9089999999978</v>
+        <v>3789.1</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" ref="AH23:AN23" si="93">+AH21-AH22</f>
-        <v>7117.0017519999992</v>
+        <f t="shared" ref="AH23:AN23" si="89">+AH21-AH22</f>
+        <v>6935.3140000000003</v>
       </c>
       <c r="AI23" s="2">
+        <f t="shared" si="89"/>
+        <v>7794.5213679999997</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="89"/>
+        <v>8920.6843823039999</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="89"/>
+        <v>10397.246230965635</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="89"/>
+        <v>11495.994555927024</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="89"/>
+        <v>12485.599323224935</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="89"/>
+        <v>13490.927608649348</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" ref="AO23:AT23" si="90">+AO21-AO22</f>
+        <v>13887.515035567916</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="90"/>
+        <v>14168.509865837423</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="90"/>
+        <v>14458.882627571516</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="90"/>
+        <v>14758.418644257585</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="90"/>
+        <v>10879.875990394943</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="90"/>
+        <v>7376.054204784894</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" ref="AU23:AY23" si="91">+AU21-AU22</f>
+        <v>7108.172507011438</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="91"/>
+        <v>7166.9209001327954</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="91"/>
+        <v>7261.2110220157829</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="91"/>
+        <v>7361.794139785462</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="91"/>
+        <v>3460.8799837735014</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" ref="AZ23:CE23" si="92">+AY23*(1+$BB$28)</f>
+        <v>3287.8359845848263</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="92"/>
+        <v>3123.444185355585</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="92"/>
+        <v>2967.2719760878058</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="92"/>
+        <v>2818.9083772834156</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" si="92"/>
+        <v>2677.9629584192448</v>
+      </c>
+      <c r="BE23" s="2">
+        <f t="shared" si="92"/>
+        <v>2544.0648104982824</v>
+      </c>
+      <c r="BF23" s="2">
+        <f t="shared" si="92"/>
+        <v>2416.8615699733682</v>
+      </c>
+      <c r="BG23" s="2">
+        <f t="shared" si="92"/>
+        <v>2296.0184914746997</v>
+      </c>
+      <c r="BH23" s="2">
+        <f t="shared" si="92"/>
+        <v>2181.2175669009644</v>
+      </c>
+      <c r="BI23" s="2">
+        <f t="shared" si="92"/>
+        <v>2072.1566885559159</v>
+      </c>
+      <c r="BJ23" s="2">
+        <f t="shared" si="92"/>
+        <v>1968.54885412812</v>
+      </c>
+      <c r="BK23" s="2">
+        <f t="shared" si="92"/>
+        <v>1870.1214114217139</v>
+      </c>
+      <c r="BL23" s="2">
+        <f t="shared" si="92"/>
+        <v>1776.6153408506282</v>
+      </c>
+      <c r="BM23" s="2">
+        <f t="shared" si="92"/>
+        <v>1687.7845738080966</v>
+      </c>
+      <c r="BN23" s="2">
+        <f t="shared" si="92"/>
+        <v>1603.3953451176917</v>
+      </c>
+      <c r="BO23" s="2">
+        <f t="shared" si="92"/>
+        <v>1523.2255778618071</v>
+      </c>
+      <c r="BP23" s="2">
+        <f t="shared" si="92"/>
+        <v>1447.0642989687167</v>
+      </c>
+      <c r="BQ23" s="2">
+        <f t="shared" si="92"/>
+        <v>1374.7110840202809</v>
+      </c>
+      <c r="BR23" s="2">
+        <f t="shared" si="92"/>
+        <v>1305.9755298192667</v>
+      </c>
+      <c r="BS23" s="2">
+        <f t="shared" si="92"/>
+        <v>1240.6767533283034</v>
+      </c>
+      <c r="BT23" s="2">
+        <f t="shared" si="92"/>
+        <v>1178.6429156618883</v>
+      </c>
+      <c r="BU23" s="2">
+        <f t="shared" si="92"/>
+        <v>1119.7107698787938</v>
+      </c>
+      <c r="BV23" s="2">
+        <f t="shared" si="92"/>
+        <v>1063.7252313848542</v>
+      </c>
+      <c r="BW23" s="2">
+        <f t="shared" si="92"/>
+        <v>1010.5389698156114</v>
+      </c>
+      <c r="BX23" s="2">
+        <f t="shared" si="92"/>
+        <v>960.01202132483081</v>
+      </c>
+      <c r="BY23" s="2">
+        <f t="shared" si="92"/>
+        <v>912.01142025858928</v>
+      </c>
+      <c r="BZ23" s="2">
+        <f t="shared" si="92"/>
+        <v>866.41084924565973</v>
+      </c>
+      <c r="CA23" s="2">
+        <f t="shared" si="92"/>
+        <v>823.09030678337672</v>
+      </c>
+      <c r="CB23" s="2">
+        <f t="shared" si="92"/>
+        <v>781.93579144420789</v>
+      </c>
+      <c r="CC23" s="2">
+        <f t="shared" si="92"/>
+        <v>742.83900187199743</v>
+      </c>
+      <c r="CD23" s="2">
+        <f t="shared" si="92"/>
+        <v>705.69705177839751</v>
+      </c>
+      <c r="CE23" s="2">
+        <f t="shared" si="92"/>
+        <v>670.41219918947763</v>
+      </c>
+      <c r="CF23" s="2">
+        <f t="shared" ref="CF23:DG23" si="93">+CE23*(1+$BB$28)</f>
+        <v>636.89158923000377</v>
+      </c>
+      <c r="CG23" s="2">
         <f t="shared" si="93"/>
-        <v>7982.3358540159998</v>
-      </c>
-      <c r="AJ23" s="2">
+        <v>605.04700976850359</v>
+      </c>
+      <c r="CH23" s="2">
         <f t="shared" si="93"/>
-        <v>9109.4121506081265</v>
-      </c>
-      <c r="AK23" s="2">
+        <v>574.79465928007835</v>
+      </c>
+      <c r="CI23" s="2">
         <f t="shared" si="93"/>
-        <v>10587.139675528193</v>
-      </c>
-      <c r="AL23" s="2">
+        <v>546.05492631607444</v>
+      </c>
+      <c r="CJ23" s="2">
         <f t="shared" si="93"/>
-        <v>11687.287304385922</v>
-      </c>
-      <c r="AM23" s="2">
+        <v>518.75218000027064</v>
+      </c>
+      <c r="CK23" s="2">
         <f t="shared" si="93"/>
-        <v>12678.508239769179</v>
-      </c>
-      <c r="AN23" s="2">
+        <v>492.8145710002571</v>
+      </c>
+      <c r="CL23" s="2">
         <f t="shared" si="93"/>
-        <v>13685.654599113515</v>
-      </c>
-      <c r="AO23" s="2">
-        <f>+AO21-AO22</f>
-        <v>14084.248674566257</v>
-      </c>
-      <c r="AP23" s="2">
-        <f>+AP21-AP22</f>
-        <v>14367.426863784451</v>
-      </c>
-      <c r="AQ23" s="2">
-        <f>+AQ21-AQ22</f>
-        <v>14660.14915365217</v>
-      </c>
-      <c r="AR23" s="2">
-        <f>+AR21-AR22</f>
-        <v>14962.191519804906</v>
-      </c>
-      <c r="AS23" s="2">
-        <f>+AS21-AS22</f>
-        <v>11038.098978404487</v>
-      </c>
-      <c r="AT23" s="2">
-        <f>+AT21-AT22</f>
-        <v>7493.080913210566</v>
-      </c>
-      <c r="AU23" s="2">
-        <f t="shared" ref="AU23:AY23" si="94">+AU21-AU22</f>
-        <v>7221.292117007999</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="94"/>
-        <v>7279.9237406267321</v>
-      </c>
-      <c r="AW23" s="2">
-        <f t="shared" si="94"/>
-        <v>7374.5320569397591</v>
-      </c>
-      <c r="AX23" s="2">
-        <f t="shared" si="94"/>
-        <v>7475.5278700693507</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="94"/>
-        <v>3575.082435526635</v>
-      </c>
-      <c r="AZ23" s="2">
-        <f>+AY23*(1+$BB$28)</f>
-        <v>3396.3283137503031</v>
-      </c>
-      <c r="BA23" s="2">
-        <f>+AZ23*(1+$BB$28)</f>
-        <v>3226.5118980627876</v>
-      </c>
-      <c r="BB23" s="2">
-        <f>+BA23*(1+$BB$28)</f>
-        <v>3065.1863031596481</v>
-      </c>
-      <c r="BC23" s="2">
-        <f>+BB23*(1+$BB$28)</f>
-        <v>2911.9269880016654</v>
-      </c>
-      <c r="BD23" s="2">
-        <f>+BC23*(1+$BB$28)</f>
-        <v>2766.330638601582</v>
-      </c>
-      <c r="BE23" s="2">
-        <f>+BD23*(1+$BB$28)</f>
-        <v>2628.0141066715028</v>
-      </c>
-      <c r="BF23" s="2">
-        <f>+BE23*(1+$BB$28)</f>
-        <v>2496.6134013379274</v>
-      </c>
-      <c r="BG23" s="2">
-        <f>+BF23*(1+$BB$28)</f>
-        <v>2371.782731271031</v>
-      </c>
-      <c r="BH23" s="2">
-        <f>+BG23*(1+$BB$28)</f>
-        <v>2253.1935947074794</v>
-      </c>
-      <c r="BI23" s="2">
-        <f>+BH23*(1+$BB$28)</f>
-        <v>2140.5339149721053</v>
-      </c>
-      <c r="BJ23" s="2">
-        <f>+BI23*(1+$BB$28)</f>
-        <v>2033.5072192235</v>
-      </c>
-      <c r="BK23" s="2">
-        <f>+BJ23*(1+$BB$28)</f>
-        <v>1931.8318582623249</v>
-      </c>
-      <c r="BL23" s="2">
-        <f>+BK23*(1+$BB$28)</f>
-        <v>1835.2402653492086</v>
-      </c>
-      <c r="BM23" s="2">
-        <f>+BL23*(1+$BB$28)</f>
-        <v>1743.478252081748</v>
-      </c>
-      <c r="BN23" s="2">
-        <f>+BM23*(1+$BB$28)</f>
-        <v>1656.3043394776605</v>
-      </c>
-      <c r="BO23" s="2">
-        <f>+BN23*(1+$BB$28)</f>
-        <v>1573.4891225037775</v>
-      </c>
-      <c r="BP23" s="2">
-        <f>+BO23*(1+$BB$28)</f>
-        <v>1494.8146663785885</v>
-      </c>
-      <c r="BQ23" s="2">
-        <f>+BP23*(1+$BB$28)</f>
-        <v>1420.0739330596591</v>
-      </c>
-      <c r="BR23" s="2">
-        <f>+BQ23*(1+$BB$28)</f>
-        <v>1349.070236406676</v>
-      </c>
-      <c r="BS23" s="2">
-        <f>+BR23*(1+$BB$28)</f>
-        <v>1281.6167245863421</v>
-      </c>
-      <c r="BT23" s="2">
-        <f>+BS23*(1+$BB$28)</f>
-        <v>1217.535888357025</v>
-      </c>
-      <c r="BU23" s="2">
-        <f>+BT23*(1+$BB$28)</f>
-        <v>1156.6590939391738</v>
-      </c>
-      <c r="BV23" s="2">
-        <f>+BU23*(1+$BB$28)</f>
-        <v>1098.826139242215</v>
-      </c>
-      <c r="BW23" s="2">
-        <f>+BV23*(1+$BB$28)</f>
-        <v>1043.8848322801043</v>
-      </c>
-      <c r="BX23" s="2">
-        <f>+BW23*(1+$BB$28)</f>
-        <v>991.69059066609907</v>
-      </c>
-      <c r="BY23" s="2">
-        <f>+BX23*(1+$BB$28)</f>
-        <v>942.10606113279403</v>
-      </c>
-      <c r="BZ23" s="2">
-        <f>+BY23*(1+$BB$28)</f>
-        <v>895.00075807615428</v>
-      </c>
-      <c r="CA23" s="2">
-        <f>+BZ23*(1+$BB$28)</f>
-        <v>850.25072017234652</v>
-      </c>
-      <c r="CB23" s="2">
-        <f>+CA23*(1+$BB$28)</f>
-        <v>807.7381841637291</v>
-      </c>
-      <c r="CC23" s="2">
-        <f>+CB23*(1+$BB$28)</f>
-        <v>767.35127495554264</v>
-      </c>
-      <c r="CD23" s="2">
-        <f>+CC23*(1+$BB$28)</f>
-        <v>728.98371120776551</v>
-      </c>
-      <c r="CE23" s="2">
-        <f>+CD23*(1+$BB$28)</f>
-        <v>692.53452564737722</v>
-      </c>
-      <c r="CF23" s="2">
-        <f>+CE23*(1+$BB$28)</f>
-        <v>657.90779936500837</v>
-      </c>
-      <c r="CG23" s="2">
-        <f>+CF23*(1+$BB$28)</f>
-        <v>625.0124093967579</v>
-      </c>
-      <c r="CH23" s="2">
-        <f>+CG23*(1+$BB$28)</f>
-        <v>593.76178892691996</v>
-      </c>
-      <c r="CI23" s="2">
-        <f>+CH23*(1+$BB$28)</f>
-        <v>564.07369948057396</v>
-      </c>
-      <c r="CJ23" s="2">
-        <f>+CI23*(1+$BB$28)</f>
-        <v>535.8700145065452</v>
-      </c>
-      <c r="CK23" s="2">
-        <f>+CJ23*(1+$BB$28)</f>
-        <v>509.0765137812179</v>
-      </c>
-      <c r="CL23" s="2">
-        <f>+CK23*(1+$BB$28)</f>
-        <v>483.62268809215698</v>
+        <v>468.17384245024425</v>
       </c>
       <c r="CM23" s="2">
-        <f>+CL23*(1+$BB$28)</f>
-        <v>459.44155368754912</v>
+        <f t="shared" si="93"/>
+        <v>444.76515032773204</v>
       </c>
       <c r="CN23" s="2">
-        <f>+CM23*(1+$BB$28)</f>
-        <v>436.46947600317162</v>
+        <f t="shared" si="93"/>
+        <v>422.52689281134542</v>
       </c>
       <c r="CO23" s="2">
-        <f>+CN23*(1+$BB$28)</f>
-        <v>414.64600220301304</v>
+        <f t="shared" si="93"/>
+        <v>401.40054817077811</v>
       </c>
       <c r="CP23" s="2">
-        <f>+CO23*(1+$BB$28)</f>
-        <v>393.91370209286237</v>
+        <f t="shared" si="93"/>
+        <v>381.33052076223919</v>
       </c>
       <c r="CQ23" s="2">
-        <f>+CP23*(1+$BB$28)</f>
-        <v>374.21801698821923</v>
+        <f t="shared" si="93"/>
+        <v>362.2639947241272</v>
       </c>
       <c r="CR23" s="2">
-        <f>+CQ23*(1+$BB$28)</f>
-        <v>355.50711613880827</v>
+        <f t="shared" si="93"/>
+        <v>344.15079498792085</v>
       </c>
       <c r="CS23" s="2">
-        <f>+CR23*(1+$BB$28)</f>
-        <v>337.73176033186786</v>
+        <f t="shared" si="93"/>
+        <v>326.94325523852478</v>
       </c>
       <c r="CT23" s="2">
-        <f>+CS23*(1+$BB$28)</f>
-        <v>320.84517231527445</v>
+        <f t="shared" si="93"/>
+        <v>310.59609247659853</v>
       </c>
       <c r="CU23" s="2">
-        <f>+CT23*(1+$BB$28)</f>
-        <v>304.80291369951073</v>
+        <f t="shared" si="93"/>
+        <v>295.0662878527686</v>
       </c>
       <c r="CV23" s="2">
-        <f>+CU23*(1+$BB$28)</f>
-        <v>289.56276801453515</v>
+        <f t="shared" si="93"/>
+        <v>280.31297346013014</v>
       </c>
       <c r="CW23" s="2">
-        <f>+CV23*(1+$BB$28)</f>
-        <v>275.08462961380837</v>
+        <f t="shared" si="93"/>
+        <v>266.29732478712361</v>
       </c>
       <c r="CX23" s="2">
-        <f>+CW23*(1+$BB$28)</f>
-        <v>261.33039813311797</v>
+        <f t="shared" si="93"/>
+        <v>252.98245854776741</v>
       </c>
       <c r="CY23" s="2">
-        <f>+CX23*(1+$BB$28)</f>
-        <v>248.26387822646205</v>
+        <f t="shared" si="93"/>
+        <v>240.33333562037902</v>
       </c>
       <c r="CZ23" s="2">
-        <f>+CY23*(1+$BB$28)</f>
-        <v>235.85068431513895</v>
+        <f t="shared" si="93"/>
+        <v>228.31666883936006</v>
       </c>
       <c r="DA23" s="2">
-        <f>+CZ23*(1+$BB$28)</f>
-        <v>224.058150099382</v>
+        <f t="shared" si="93"/>
+        <v>216.90083539739206</v>
       </c>
       <c r="DB23" s="2">
-        <f>+DA23*(1+$BB$28)</f>
-        <v>212.85524259441289</v>
+        <f t="shared" si="93"/>
+        <v>206.05579362752243</v>
       </c>
       <c r="DC23" s="2">
-        <f>+DB23*(1+$BB$28)</f>
-        <v>202.21248046469222</v>
+        <f t="shared" si="93"/>
+        <v>195.75300394614629</v>
       </c>
       <c r="DD23" s="2">
-        <f>+DC23*(1+$BB$28)</f>
-        <v>192.10185644145761</v>
+        <f t="shared" si="93"/>
+        <v>185.96535374883896</v>
       </c>
       <c r="DE23" s="2">
-        <f>+DD23*(1+$BB$28)</f>
-        <v>182.49676361938472</v>
+        <f t="shared" si="93"/>
+        <v>176.66708606139701</v>
       </c>
       <c r="DF23" s="2">
-        <f>+DE23*(1+$BB$28)</f>
-        <v>173.37192543841547</v>
+        <f t="shared" si="93"/>
+        <v>167.83373175832716</v>
       </c>
       <c r="DG23" s="2">
-        <f>+DF23*(1+$BB$28)</f>
-        <v>164.70332916649468</v>
+        <f t="shared" si="93"/>
+        <v>159.44204517041081</v>
       </c>
     </row>
     <row r="24" spans="2:111" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:D24" si="95">+C23/C25</f>
+        <f t="shared" ref="C24:D24" si="94">+C23/C25</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D24" s="21">
+        <f t="shared" si="94"/>
+        <v>0.58419164626730091</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" ref="E24:G24" si="95">+E23/E25</f>
+        <v>0.86775439607956217</v>
+      </c>
+      <c r="F24" s="21">
         <f t="shared" si="95"/>
-        <v>0.58419164626730091</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" ref="E24:G24" si="96">+E23/E25</f>
-        <v>0.86775439607956217</v>
-      </c>
-      <c r="F24" s="21">
+        <v>0.82020768064290128</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="95"/>
+        <v>0.35472390612462734</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:I24" si="96">+H23/H25</f>
+        <v>1.1487402139576055</v>
+      </c>
+      <c r="I24" s="21">
         <f t="shared" si="96"/>
-        <v>0.82020768064290128</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="96"/>
-        <v>0.35472390612462734</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" ref="H24:I24" si="97">+H23/H25</f>
-        <v>1.1487402139576055</v>
-      </c>
-      <c r="I24" s="21">
+        <v>2.5250023717814924</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" ref="J24:K24" si="97">+J23/J25</f>
+        <v>2.771692046028329</v>
+      </c>
+      <c r="K24" s="21">
         <f t="shared" si="97"/>
-        <v>2.5250023717814924</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" ref="J24:K24" si="98">+J23/J25</f>
-        <v>2.771692046028329</v>
-      </c>
-      <c r="K24" s="21">
+        <v>2.2136444018645935</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" ref="L24:P24" si="98">+L23/L25</f>
+        <v>2.5575826681870013</v>
+      </c>
+      <c r="M24" s="21">
         <f t="shared" si="98"/>
-        <v>2.2136444018645935</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" ref="L24:P24" si="99">+L23/L25</f>
-        <v>2.5575826681870013</v>
-      </c>
-      <c r="M24" s="21">
-        <f t="shared" si="99"/>
         <v>2.9774723176785032</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q24" s="21">
@@ -6451,93 +6623,108 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:T24" si="100">+R23/R25</f>
+        <f t="shared" ref="R24:X24" si="99">+R23/R25</f>
         <v>3.3142636258214146</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>3.6204238921001912</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="100"/>
-        <v>4.4416531791907508</v>
-      </c>
-      <c r="U24" s="21"/>
+        <f t="shared" si="99"/>
+        <v>3.8025355359200916</v>
+      </c>
+      <c r="U24" s="21">
+        <f t="shared" si="99"/>
+        <v>4.5343834037648847</v>
+      </c>
+      <c r="V24" s="21">
+        <f t="shared" si="99"/>
+        <v>4.5834690741452162</v>
+      </c>
+      <c r="W24" s="21">
+        <f t="shared" si="99"/>
+        <v>4.554079907798692</v>
+      </c>
+      <c r="X24" s="21">
+        <f t="shared" si="99"/>
+        <v>4.6967806377256993</v>
+      </c>
       <c r="AG24" s="1">
         <f>+AG23/AG25</f>
-        <v>15.264229432213202</v>
+        <v>14.624083365495949</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AT24" si="101">+AH23/AH25</f>
-        <v>27.489384905368869</v>
+        <f t="shared" ref="AH24:AT24" si="100">+AH23/AH25</f>
+        <v>26.766939405634893</v>
       </c>
       <c r="AI24" s="1">
+        <f t="shared" si="100"/>
+        <v>30.083062014666154</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="100"/>
+        <v>34.429503598240068</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="100"/>
+        <v>40.12831428392758</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="100"/>
+        <v>44.368948498367523</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="100"/>
+        <v>48.188341656599526</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="100"/>
+        <v>52.068419948472986</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="100"/>
+        <v>53.599054556418054</v>
+      </c>
+      <c r="AP24" s="1">
+        <f t="shared" si="100"/>
+        <v>54.683557953830274</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" si="100"/>
+        <v>55.804255606219677</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" si="100"/>
+        <v>56.960318966644486</v>
+      </c>
+      <c r="AS24" s="1">
+        <f t="shared" si="100"/>
+        <v>41.991030453087397</v>
+      </c>
+      <c r="AT24" s="1">
+        <f t="shared" si="100"/>
+        <v>28.467982264704343</v>
+      </c>
+      <c r="AU24" s="1">
+        <f t="shared" ref="AU24:AY24" si="101">+AU23/AU25</f>
+        <v>27.434089181827243</v>
+      </c>
+      <c r="AV24" s="1">
         <f t="shared" si="101"/>
-        <v>30.83173369646968</v>
-      </c>
-      <c r="AJ24" s="1">
+        <v>27.660829410006933</v>
+      </c>
+      <c r="AW24" s="1">
         <f t="shared" si="101"/>
-        <v>35.185060450398332</v>
-      </c>
-      <c r="AK24" s="1">
+        <v>28.024743427309083</v>
+      </c>
+      <c r="AX24" s="1">
         <f t="shared" si="101"/>
-        <v>40.892775880757796</v>
-      </c>
-      <c r="AL24" s="1">
+        <v>28.412945348457981</v>
+      </c>
+      <c r="AY24" s="1">
         <f t="shared" si="101"/>
-        <v>45.142090785577146</v>
-      </c>
-      <c r="AM24" s="1">
-        <f t="shared" si="101"/>
-        <v>48.970676862762375</v>
-      </c>
-      <c r="AN24" s="1">
-        <f t="shared" si="101"/>
-        <v>52.86077481310744</v>
-      </c>
-      <c r="AO24" s="1">
-        <f t="shared" si="101"/>
-        <v>54.400342505084041</v>
-      </c>
-      <c r="AP24" s="1">
-        <f t="shared" si="101"/>
-        <v>55.494116893721326</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="101"/>
-        <v>56.624755325037356</v>
-      </c>
-      <c r="AR24" s="1">
-        <f t="shared" si="101"/>
-        <v>57.79139250600582</v>
-      </c>
-      <c r="AS24" s="1">
-        <f t="shared" si="101"/>
-        <v>42.634604010832319</v>
-      </c>
-      <c r="AT24" s="1">
-        <f t="shared" si="101"/>
-        <v>28.941988849789752</v>
-      </c>
-      <c r="AU24" s="1">
-        <f t="shared" ref="AU24:AY24" si="102">+AU23/AU25</f>
-        <v>27.892205936685979</v>
-      </c>
-      <c r="AV24" s="1">
-        <f t="shared" si="102"/>
-        <v>28.118670299832882</v>
-      </c>
-      <c r="AW24" s="1">
-        <f t="shared" si="102"/>
-        <v>28.48409446481174</v>
-      </c>
-      <c r="AX24" s="1">
-        <f t="shared" si="102"/>
-        <v>28.874190305404987</v>
-      </c>
-      <c r="AY24" s="1">
-        <f t="shared" si="102"/>
-        <v>13.808738646298321</v>
+        <v>13.357313715837522</v>
       </c>
     </row>
     <row r="25" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6596,219 +6783,247 @@
         <v>259.5</v>
       </c>
       <c r="T25" s="12">
-        <f t="shared" ref="T25" si="103">+S25</f>
-        <v>259.5</v>
-      </c>
-      <c r="U25" s="12"/>
+        <v>260.3</v>
+      </c>
+      <c r="U25" s="12">
+        <v>260.3</v>
+      </c>
+      <c r="V25" s="2">
+        <f>+U25</f>
+        <v>260.3</v>
+      </c>
+      <c r="W25" s="2">
+        <f>+V25</f>
+        <v>260.3</v>
+      </c>
+      <c r="X25" s="2">
+        <f>+W25</f>
+        <v>260.3</v>
+      </c>
       <c r="AG25" s="2">
         <f>AVERAGE(Q25:T25)</f>
-        <v>258.89999999999998</v>
+        <v>259.09999999999997</v>
       </c>
       <c r="AH25" s="2">
         <f>+AG25</f>
-        <v>258.89999999999998</v>
+        <v>259.09999999999997</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="104">+AH25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AI25:AT25" si="102">+AH25</f>
+        <v>259.09999999999997</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="104"/>
-        <v>258.89999999999998</v>
+        <f t="shared" si="102"/>
+        <v>259.09999999999997</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" ref="AU25" si="105">+AT25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AU25" si="103">+AT25</f>
+        <v>259.09999999999997</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" ref="AV25" si="106">+AU25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AV25" si="104">+AU25</f>
+        <v>259.09999999999997</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" ref="AW25" si="107">+AV25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AW25" si="105">+AV25</f>
+        <v>259.09999999999997</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" ref="AX25" si="108">+AW25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AX25" si="106">+AW25</f>
+        <v>259.09999999999997</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" ref="AY25" si="109">+AX25</f>
-        <v>258.89999999999998</v>
+        <f t="shared" ref="AY25" si="107">+AX25</f>
+        <v>259.09999999999997</v>
       </c>
     </row>
     <row r="27" spans="2:111" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <f t="shared" ref="G27:P27" si="110">+G13/C13-1</f>
+        <f t="shared" ref="G27:P27" si="108">+G13/C13-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.44493886310784858</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.76535979547461963</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.62012853473169161</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.61894736842105269</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.29435163086714389</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.13749174917491747</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.176856468118604</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.28998699609882972</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="110"/>
+        <f t="shared" si="108"/>
         <v>0.27350952673632456</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:T27" si="111">+Q13/M13-1</f>
+        <f t="shared" ref="Q27:T27" si="109">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="111"/>
+        <f t="shared" si="109"/>
         <v>0.2246376811594204</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="111"/>
+        <f t="shared" si="109"/>
         <v>0.17656249999999996</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" si="111"/>
-        <v>0.17340733590733581</v>
-      </c>
-      <c r="U27" s="24"/>
+        <f t="shared" si="109"/>
+        <v>0.1114864864864864</v>
+      </c>
+      <c r="U27" s="25">
+        <f t="shared" ref="U27" si="110">+U13/Q13-1</f>
+        <v>0.13220500595947549</v>
+      </c>
+      <c r="V27" s="25">
+        <f t="shared" ref="V27" si="111">+V13/R13-1</f>
+        <v>9.2307692307692202E-2</v>
+      </c>
+      <c r="W27" s="25">
+        <f t="shared" ref="W27" si="112">+W13/S13-1</f>
+        <v>3.8769652572505642E-2</v>
+      </c>
+      <c r="X27" s="25">
+        <f t="shared" ref="X27" si="113">+X13/T13-1</f>
+        <v>6.3742943986105027E-2</v>
+      </c>
     </row>
     <row r="28" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="112">C15/C13</f>
+        <f t="shared" ref="C28" si="114">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:H28" si="113">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="115">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.88919366754371454</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.8557358650587249</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.86114315789473683</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>0.8528146380270486</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="114">I15/I13</f>
+        <f t="shared" ref="I28:J28" si="116">I15/I13</f>
         <v>0.8927412541254125</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>0.87896877459984257</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="115">K15/K13</f>
+        <f t="shared" ref="K28:L28" si="117">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.87516902274124164</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="116">M15/M13</f>
+        <f t="shared" ref="M28:P28" si="118">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.87290969899665549</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.88079032258064516</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.88059845559845551</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="117">Q15/Q13</f>
+        <f t="shared" ref="Q28:R28" si="119">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
@@ -6817,71 +7032,86 @@
       </c>
       <c r="T28" s="19">
         <f>T15/T13</f>
+        <v>0.87802865827181931</v>
+      </c>
+      <c r="U28" s="19">
+        <f t="shared" ref="U28:X28" si="120">U15/U13</f>
+        <v>0.88841165571837633</v>
+      </c>
+      <c r="V28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.9</v>
+      </c>
+      <c r="W28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.9</v>
+      </c>
+      <c r="X28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.9</v>
+      </c>
+      <c r="AF28" s="19">
+        <f t="shared" ref="AF28:AG28" si="121">AF15/AF13</f>
+        <v>0.88060528435424446</v>
+      </c>
+      <c r="AG28" s="19">
+        <f t="shared" si="121"/>
+        <v>0.89051478985198951</v>
+      </c>
+      <c r="AH28" s="19">
+        <f t="shared" ref="AH28:AT28" si="122">AH15/AH13</f>
         <v>0.93</v>
       </c>
-      <c r="U28" s="19"/>
-      <c r="AF28" s="19">
-        <f t="shared" ref="AF28:AG28" si="118">AF15/AF13</f>
-        <v>0.88060528435424446</v>
-      </c>
-      <c r="AG28" s="19">
-        <f t="shared" si="118"/>
-        <v>0.90428461054513742</v>
-      </c>
-      <c r="AH28" s="19">
-        <f t="shared" ref="AH28:AT28" si="119">AH15/AH13</f>
+      <c r="AI28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AJ28" s="19">
+        <f t="shared" si="122"/>
         <v>0.93</v>
       </c>
-      <c r="AI28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AK28" s="19">
+        <f t="shared" si="122"/>
         <v>0.93</v>
       </c>
-      <c r="AJ28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AL28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AM28" s="19">
+        <f t="shared" si="122"/>
         <v>0.93</v>
       </c>
-      <c r="AK28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AN28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.93</v>
+      </c>
+      <c r="AO28" s="19">
+        <f t="shared" si="122"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AL28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AP28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f t="shared" si="122"/>
         <v>0.93</v>
       </c>
-      <c r="AM28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AR28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.93</v>
+      </c>
+      <c r="AS28" s="19">
+        <f t="shared" si="122"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AN28" s="19">
-        <f t="shared" si="119"/>
+      <c r="AT28" s="19">
+        <f t="shared" si="122"/>
         <v>0.93</v>
       </c>
-      <c r="AO28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AP28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.93</v>
-      </c>
-      <c r="AR28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AS28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.93</v>
-      </c>
-      <c r="AT28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.93</v>
-      </c>
       <c r="BA28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB28" s="23">
         <v>-0.05</v>
@@ -6889,140 +7119,155 @@
     </row>
     <row r="29" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="120">+C16/C13</f>
+        <f t="shared" ref="C29" si="123">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="121">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="124">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="122">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="125">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="123">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="126">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>9.7997269003186172E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>0.105727627125905</v>
       </c>
       <c r="T29" s="19">
         <f>+T16/T13</f>
-        <v>0.10150948052482213</v>
-      </c>
-      <c r="U29" s="19"/>
+        <v>9.7959183673469383E-2</v>
+      </c>
+      <c r="U29" s="19">
+        <f t="shared" ref="U29:X29" si="127">+U16/U13</f>
+        <v>8.2912245241704582E-2</v>
+      </c>
+      <c r="V29" s="19">
+        <f t="shared" si="127"/>
+        <v>8.9715809650804251E-2</v>
+      </c>
+      <c r="W29" s="19">
+        <f t="shared" si="127"/>
+        <v>0.10178159023424614</v>
+      </c>
+      <c r="X29" s="19">
+        <f t="shared" si="127"/>
+        <v>9.2089150134704881E-2</v>
+      </c>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19">
         <f>+AG16/AG13</f>
-        <v>9.667663712321059E-2</v>
+        <v>9.5691797845898929E-2</v>
       </c>
       <c r="AH29" s="19">
-        <f t="shared" ref="AH29:AT29" si="124">+AH16/AH13</f>
+        <f t="shared" ref="AH29:AT29" si="128">+AH16/AH13</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AI29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AI29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AJ29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AJ29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AK29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AK29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AL29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AL29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AM29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AM29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AN29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AN29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AO29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AO29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AP29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AP29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AQ29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AQ29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AR29" s="19">
+        <f t="shared" si="128"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AS29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AR29" s="19">
-        <f t="shared" si="124"/>
+      <c r="AT29" s="19">
+        <f t="shared" si="128"/>
         <v>0.1</v>
       </c>
-      <c r="AS29" s="19">
-        <f t="shared" si="124"/>
-        <v>0.1</v>
-      </c>
-      <c r="AT29" s="19">
-        <f t="shared" si="124"/>
-        <v>0.1</v>
-      </c>
       <c r="BA29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BB29" s="23">
         <v>7.0000000000000007E-2</v>
@@ -7030,46 +7275,46 @@
     </row>
     <row r="30" spans="2:111" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="125">C22/C21</f>
+        <f t="shared" ref="C30" si="129">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="126">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="130">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="127">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="131">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="128">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="132">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -7077,92 +7322,107 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="129">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="133">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>0.23172043010752691</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>0.20744052640458924</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="129"/>
-        <v>0.17765296883795695</v>
-      </c>
-      <c r="U30" s="19"/>
+        <f t="shared" si="133"/>
+        <v>0.20670032860463253</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" ref="U30:X30" si="134">U22/U21</f>
+        <v>0.13972303206997089</v>
+      </c>
+      <c r="V30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.15</v>
+      </c>
+      <c r="W30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.15</v>
+      </c>
+      <c r="X30" s="19">
+        <f t="shared" si="134"/>
+        <v>0.15</v>
+      </c>
       <c r="AG30" s="23">
         <f>+AG22/AG21</f>
-        <v>0.20234502238309363</v>
+        <v>0.21068638683470473</v>
       </c>
       <c r="AH30" s="23">
-        <f t="shared" ref="AH30:AT30" si="130">+AH22/AH21</f>
+        <f t="shared" ref="AH30:AT30" si="135">+AH22/AH21</f>
         <v>0.2</v>
       </c>
       <c r="AI30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AJ30" s="23">
-        <f t="shared" si="130"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="135"/>
+        <v>0.2</v>
       </c>
       <c r="AK30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AL30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AM30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AN30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AO30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AP30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AQ30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AR30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AS30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="AT30" s="23">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.2</v>
       </c>
       <c r="BA30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BB30" s="23">
         <v>0.01</v>
@@ -7170,11 +7430,11 @@
     </row>
     <row r="31" spans="2:111" x14ac:dyDescent="0.2">
       <c r="BA31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BB31" s="2">
         <f>NPV(BB29,AH23:CE23)+Main!M5-Main!M6</f>
-        <v>122343.66572516075</v>
+        <v>122054.10373487382</v>
       </c>
     </row>
     <row r="32" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7204,98 +7464,98 @@
         <f>9171.5+599.2</f>
         <v>9770.7000000000007</v>
       </c>
-      <c r="T32" s="12">
-        <f t="shared" ref="T32" si="131">+S32+T23</f>
-        <v>10923.309000000001</v>
-      </c>
-      <c r="U32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12">
+        <f>9289.9+1124.2+1081.5</f>
+        <v>11495.6</v>
+      </c>
       <c r="AG32" s="2">
         <f>+T32</f>
-        <v>10923.309000000001</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="2">
         <f>+AG32+AH23</f>
-        <v>18040.310752000001</v>
+        <v>6935.3140000000003</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AT32" si="132">+AH32+AI23</f>
-        <v>26022.646606016002</v>
+        <f t="shared" ref="AI32:AT32" si="136">+AH32+AI23</f>
+        <v>14729.835368</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="132"/>
-        <v>35132.05875662413</v>
+        <f t="shared" si="136"/>
+        <v>23650.519750304</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" si="132"/>
-        <v>45719.19843215232</v>
+        <f t="shared" si="136"/>
+        <v>34047.765981269637</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="132"/>
-        <v>57406.485736538241</v>
+        <f t="shared" si="136"/>
+        <v>45543.760537196664</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="132"/>
-        <v>70084.993976307422</v>
+        <f t="shared" si="136"/>
+        <v>58029.359860421595</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="132"/>
-        <v>83770.648575420943</v>
+        <f t="shared" si="136"/>
+        <v>71520.287469070943</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="132"/>
-        <v>97854.897249987203</v>
+        <f t="shared" si="136"/>
+        <v>85407.802504638865</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="132"/>
-        <v>112222.32411377165</v>
+        <f t="shared" si="136"/>
+        <v>99576.312370476284</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="132"/>
-        <v>126882.47326742382</v>
+        <f t="shared" si="136"/>
+        <v>114035.19499804779</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="132"/>
-        <v>141844.66478722871</v>
+        <f t="shared" si="136"/>
+        <v>128793.61364230538</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="132"/>
-        <v>152882.76376563319</v>
+        <f t="shared" si="136"/>
+        <v>139673.48963270034</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="132"/>
-        <v>160375.84467884377</v>
+        <f t="shared" si="136"/>
+        <v>147049.54383748522</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" ref="AU32" si="133">+AT32+AU23</f>
-        <v>167597.13679585178</v>
+        <f t="shared" ref="AU32" si="137">+AT32+AU23</f>
+        <v>154157.71634449667</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" ref="AV32" si="134">+AU32+AV23</f>
-        <v>174877.0605364785</v>
+        <f t="shared" ref="AV32" si="138">+AU32+AV23</f>
+        <v>161324.63724462947</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" ref="AW32" si="135">+AV32+AW23</f>
-        <v>182251.59259341826</v>
+        <f t="shared" ref="AW32" si="139">+AV32+AW23</f>
+        <v>168585.84826664525</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" ref="AX32" si="136">+AW32+AX23</f>
-        <v>189727.1204634876</v>
+        <f t="shared" ref="AX32" si="140">+AW32+AX23</f>
+        <v>175947.64240643071</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" ref="AY32" si="137">+AX32+AY23</f>
-        <v>193302.20289901423</v>
+        <f t="shared" ref="AY32" si="141">+AX32+AY23</f>
+        <v>179408.52239020422</v>
       </c>
       <c r="BA32" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BB32" s="1">
         <f>BB31/Main!M3</f>
-        <v>471.45921281372159</v>
+        <v>473.90155500829275</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -7319,11 +7579,13 @@
         <v>1385.2</v>
       </c>
       <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
+      <c r="U33" s="12">
+        <v>1547.8</v>
+      </c>
     </row>
     <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7347,11 +7609,13 @@
         <v>388.2</v>
       </c>
       <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
+      <c r="U34" s="12">
+        <v>535.1</v>
+      </c>
     </row>
     <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7375,11 +7639,13 @@
         <v>726.9</v>
       </c>
       <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
+      <c r="U35" s="12">
+        <v>468.7</v>
+      </c>
     </row>
     <row r="36" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7403,11 +7669,13 @@
         <v>1118.7</v>
       </c>
       <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
+      <c r="U36" s="12">
+        <v>1111.7</v>
+      </c>
     </row>
     <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7433,11 +7701,14 @@
         <v>1678.8000000000002</v>
       </c>
       <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
+      <c r="U37" s="12">
+        <f>1088+603.6</f>
+        <v>1691.6</v>
+      </c>
     </row>
     <row r="38" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7461,11 +7732,13 @@
         <v>1162.7</v>
       </c>
       <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
+      <c r="U38" s="12">
+        <v>1359.9</v>
+      </c>
     </row>
     <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7489,11 +7762,13 @@
         <v>342.7</v>
       </c>
       <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
+      <c r="U39" s="12">
+        <v>336.3</v>
+      </c>
     </row>
     <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7517,11 +7792,13 @@
         <v>132.5</v>
       </c>
       <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
+      <c r="U40" s="12">
+        <v>427.5</v>
+      </c>
     </row>
     <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7543,15 +7820,18 @@
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="12">
-        <f t="shared" ref="S41" si="138">SUM(S32:S40)</f>
+        <f t="shared" ref="S41:U41" si="142">SUM(S32:S40)</f>
         <v>16706.400000000005</v>
       </c>
       <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
+      <c r="U41" s="12">
+        <f t="shared" si="142"/>
+        <v>18974.2</v>
+      </c>
     </row>
     <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7575,11 +7855,13 @@
         <v>126.9</v>
       </c>
       <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
+      <c r="U43" s="12">
+        <v>323.2</v>
+      </c>
     </row>
     <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7603,11 +7885,13 @@
         <v>2264.4</v>
       </c>
       <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
+      <c r="U44" s="12">
+        <v>2326</v>
+      </c>
     </row>
     <row r="45" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7631,11 +7915,13 @@
         <v>218</v>
       </c>
       <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
+      <c r="U45" s="12">
+        <v>377</v>
+      </c>
     </row>
     <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7661,11 +7947,14 @@
         <v>824.6</v>
       </c>
       <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
+      <c r="U46" s="12">
+        <f>417.6+371.6</f>
+        <v>789.2</v>
+      </c>
     </row>
     <row r="47" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7689,11 +7978,13 @@
         <v>127.2</v>
       </c>
       <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -7717,11 +8008,13 @@
         <v>115.7</v>
       </c>
       <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
+      <c r="U48" s="12">
+        <v>726.5</v>
+      </c>
     </row>
     <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -7745,11 +8038,13 @@
         <v>13029.6</v>
       </c>
       <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
+      <c r="U49" s="12">
+        <v>14432.3</v>
+      </c>
     </row>
     <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -7771,15 +8066,18 @@
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12">
-        <f t="shared" ref="S50" si="139">SUM(S43:S49)</f>
+        <f t="shared" ref="S50:U50" si="143">SUM(S43:S49)</f>
         <v>16706.400000000001</v>
       </c>
       <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
+      <c r="U50" s="12">
+        <f t="shared" si="143"/>
+        <v>18974.199999999997</v>
+      </c>
     </row>
     <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -7809,7 +8107,7 @@
     </row>
     <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -7835,7 +8133,7 @@
     </row>
     <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -7861,7 +8159,7 @@
     </row>
     <row r="55" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -7887,7 +8185,7 @@
     </row>
     <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -7913,7 +8211,7 @@
     </row>
     <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -7939,7 +8237,7 @@
     </row>
     <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -7965,7 +8263,7 @@
     </row>
     <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -7991,7 +8289,7 @@
     </row>
     <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -8018,7 +8316,7 @@
     </row>
     <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -8045,7 +8343,7 @@
     </row>
     <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -8071,7 +8369,7 @@
     </row>
     <row r="64" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -8098,7 +8396,7 @@
     </row>
     <row r="65" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -8125,7 +8423,7 @@
     </row>
     <row r="67" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -8151,7 +8449,7 @@
     </row>
     <row r="68" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8177,7 +8475,7 @@
     </row>
     <row r="69" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -8203,7 +8501,7 @@
     </row>
     <row r="70" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -8229,7 +8527,7 @@
     </row>
     <row r="71" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -8256,7 +8554,7 @@
     </row>
     <row r="72" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -8282,7 +8580,7 @@
     </row>
     <row r="73" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -8368,7 +8666,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8376,70 +8674,70 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
         <v>196</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
         <v>186</v>
-      </c>
-      <c r="C7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
         <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
         <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8480,15 +8778,15 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8534,7 +8832,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8589,10 +8887,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8641,7 +8939,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8649,7 +8947,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8665,96 +8963,96 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8788,7 +9086,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8796,7 +9094,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8804,50 +9102,50 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8882,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8895,22 +9193,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F5D5E-50C1-4867-8D5E-4A0C4CD33089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15481511-A747-45CF-88F3-18D5CFEF86DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19950" yWindow="465" windowWidth="28410" windowHeight="20415" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-26475" yWindow="0" windowWidth="25635" windowHeight="20985" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="Orkambi" sheetId="11" r:id="rId4"/>
     <sheet name="Symdeko" sheetId="6" r:id="rId5"/>
     <sheet name="Kalydeco" sheetId="2" r:id="rId6"/>
-    <sheet name="CTX001" sheetId="8" r:id="rId7"/>
+    <sheet name="Casgevy" sheetId="8" r:id="rId7"/>
     <sheet name="VX-880" sheetId="7" r:id="rId8"/>
-    <sheet name="VX-121" sheetId="12" r:id="rId9"/>
+    <sheet name="vanzacaftor" sheetId="12" r:id="rId9"/>
     <sheet name="VX-548" sheetId="13" r:id="rId10"/>
-    <sheet name="inaxaplin" sheetId="10" r:id="rId11"/>
-    <sheet name="VX-634" sheetId="14" r:id="rId12"/>
-    <sheet name="IP" sheetId="4" r:id="rId13"/>
-    <sheet name="Compounds" sheetId="5" r:id="rId14"/>
+    <sheet name="VX-522" sheetId="15" r:id="rId11"/>
+    <sheet name="inaxaplin" sheetId="10" r:id="rId12"/>
+    <sheet name="VX-634" sheetId="14" r:id="rId13"/>
+    <sheet name="IP" sheetId="4" r:id="rId14"/>
+    <sheet name="Compounds" sheetId="5" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,9 +52,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}</author>
+    <author>tc={1C045D63-D9FC-44DC-A757-A0BD3F5361CF}</author>
   </authors>
   <commentList>
-    <comment ref="AG13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <comment ref="AK13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,12 +65,21 @@
 Q322: increases full year product guidance to 8.8-8.9B</t>
       </text>
     </comment>
+    <comment ref="AM13" authorId="1" shapeId="0" xr:uid="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q124: Product 10.55-10.75, reiterated from last quarter
+Q423: Product 10.55-10.75</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="352">
   <si>
     <t>Price</t>
   </si>
@@ -238,9 +249,6 @@
     <t>corrector</t>
   </si>
   <si>
-    <t>IND 2022</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -844,9 +852,6 @@
     <t>3/22/22: VX-147 Phase II/III initiation</t>
   </si>
   <si>
-    <t>interim analysis at 1 year</t>
-  </si>
-  <si>
     <t>3/1/22: investor conference</t>
   </si>
   <si>
@@ -1034,16 +1039,112 @@
   </si>
   <si>
     <t>IND-enabling, IND in 2023</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Other CF</t>
+  </si>
+  <si>
+    <t>vanzacaftor</t>
+  </si>
+  <si>
+    <t>suzetrigine</t>
+  </si>
+  <si>
+    <t>Alpine acquisition.</t>
+  </si>
+  <si>
+    <t>Casgevy, fka CTX001</t>
+  </si>
+  <si>
+    <t>Casgevy</t>
+  </si>
+  <si>
+    <t>Phase III RIDGELINE</t>
+  </si>
+  <si>
+    <t>nebulized</t>
+  </si>
+  <si>
+    <t>Nebulized</t>
+  </si>
+  <si>
+    <t>Phase I/II</t>
+  </si>
+  <si>
+    <t>MAD portion - results late 2024-early 2025</t>
+  </si>
+  <si>
+    <t>VX-993</t>
+  </si>
+  <si>
+    <t>Phase III DPN - initiate in 2H24</t>
+  </si>
+  <si>
+    <t>Phase II LSR (painful lumbosacral radiculopathy)</t>
+  </si>
+  <si>
+    <t>interim analysis at 1 year - advanced into Phase III portion after IDMC unblinded review</t>
+  </si>
+  <si>
+    <t>Study was halted -- why?</t>
+  </si>
+  <si>
+    <t>Dosing has resumed</t>
+  </si>
+  <si>
+    <t>VX-264</t>
+  </si>
+  <si>
+    <t>DM1</t>
+  </si>
+  <si>
+    <t>VX-670</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>ADPKD</t>
+  </si>
+  <si>
+    <t>VX-407</t>
+  </si>
+  <si>
+    <t>Phase III moderate-to-severe acute pain</t>
+  </si>
+  <si>
+    <t>NPRS time-weighted sum 48 hours primary endpoint</t>
+  </si>
+  <si>
+    <t>VX-548 vs. placebo: 48.4, p&lt;0.0001 and 29.3 in study 2?, p=0.0002.</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>80k opioid deaths in the US in 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1090,6 +1191,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1250,7 +1357,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1A487D97-2DDB-40D2-9372-F4A400794B21}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1316,16 +1425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>610101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>43113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>610101</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>14538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1340,8 +1449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15106650" y="38100"/>
-          <a:ext cx="0" cy="7743825"/>
+          <a:off x="23525246" y="43113"/>
+          <a:ext cx="0" cy="8794583"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1498,6 +1607,72 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608093</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571497</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="undefined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE4B835-17E9-AA59-F3FD-C7002BFE93EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5861497" y="820615"/>
+          <a:ext cx="4828481" cy="3164498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1567,9 +1742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1607,7 +1782,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1713,7 +1888,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1855,7 +2030,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1863,20 +2038,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AG13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+  <threadedComment ref="AK13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
     <text>Q122: reiterates 8.4-8.6B guidance
 Q222: increases to 8.6-8.8B
 Q322: increases full year product guidance to 8.8-8.9B</text>
+  </threadedComment>
+  <threadedComment ref="AM13" dT="2024-05-23T16:04:58.44" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+    <text>Q124: Product 10.55-10.75, reiterated from last quarter
+Q423: Product 10.55-10.75</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
-  <dimension ref="B2:N46"/>
+  <dimension ref="B2:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1915,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>333.78</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -1923,7 +2102,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1935,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>257.55160000000001</v>
+        <v>261</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1946,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1959,7 +2138,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>85965.573047999991</v>
+        <v>117711</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1968,13 +2147,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1983,11 +2162,11 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>9289.9+1124.2+1081.5</f>
-        <v>11495.6</v>
+        <f>10171.3+4381.4</f>
+        <v>14552.699999999999</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -2013,18 +2192,34 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>74469.973047999985</v>
+        <v>103158.3</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -2044,331 +2239,361 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
-        <v>36</v>
+      <c r="B10" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>44</v>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>46</v>
+      <c r="B12" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="8"/>
+      <c r="J12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>52</v>
+      <c r="B14" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
-        <v>200</v>
+      <c r="B15" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="J16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="J17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
+      <c r="H17" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>341</v>
+      </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E20" t="s">
         <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="9" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
       <c r="E25" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="17" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="17" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E32" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="17" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="17" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="17" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="17" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="17" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="Symdeko!A1" display="Symdeko" xr:uid="{C2ABB3C4-317B-4C42-B59A-79B30666B3E0}"/>
     <hyperlink ref="B6" location="Kalydeco!A1" display="Kalydeco" xr:uid="{EEBD4082-1D83-43E3-A2D1-75DBB6BD2997}"/>
-    <hyperlink ref="B14" location="'VX-880'!A1" display="VX-880" xr:uid="{E8018D7F-9B73-4E6B-A79D-A97660AF55C8}"/>
+    <hyperlink ref="B13" location="'VX-880'!A1" display="VX-880" xr:uid="{E8018D7F-9B73-4E6B-A79D-A97660AF55C8}"/>
     <hyperlink ref="B3" location="Trikafta!A1" display="Trikafta" xr:uid="{FCEBE0EB-001B-4AF7-8302-88E3A55A88B1}"/>
-    <hyperlink ref="B13" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
-    <hyperlink ref="B10" location="'CTX001'!A1" display="CTX001" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
+    <hyperlink ref="B12" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
+    <hyperlink ref="B7" location="Casgevy!A1" display="Casgevy" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
     <hyperlink ref="B5" location="Orkambi!A1" display="Orkambi" xr:uid="{5B227DE1-747D-41D9-AFFC-27BF0DF44345}"/>
-    <hyperlink ref="B11" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
-    <hyperlink ref="B21" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
+    <hyperlink ref="B10" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
+    <hyperlink ref="B23" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
+    <hyperlink ref="B11" location="'VX-121'!A1" display="VX-121" xr:uid="{ECC6416F-1E64-4473-A6C6-D23E81B80E70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2377,9 +2602,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB47AF-768E-4B06-9E84-BC4ABCFB8ABD}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2405,6 +2632,9 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2424,140 +2654,173 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="18" t="s">
-        <v>253</v>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="18" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="18"/>
-      <c r="D13" t="s">
-        <v>244</v>
+      <c r="C13" s="18" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" t="s">
         <v>243</v>
-      </c>
-      <c r="D14" s="22">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D15" s="22">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D16" s="22">
-        <v>86.9</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="22">
-        <v>112.9</v>
+        <v>86.9</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="22">
+        <v>112.9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="22">
         <v>115.6</v>
       </c>
-      <c r="E18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="22"/>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="18" t="s">
-        <v>252</v>
-      </c>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>244</v>
+      <c r="C22" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>243</v>
-      </c>
-      <c r="D23">
-        <v>72.7</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D24">
-        <v>110.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>254</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D25">
-        <v>95.1</v>
+        <v>110.5</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D26">
+        <v>95.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27">
         <v>85.2</v>
       </c>
-      <c r="E26" t="s">
-        <v>251</v>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2565,14 +2828,81 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9F1444FB-1FC7-4AF6-9D19-F860F1DDD4D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA6AB23-686C-478E-AA6A-03F37C9331A3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C0D50ABE-2133-4DD7-AC00-5588FBC472DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3500169-374E-454F-AD84-2EA69EF52EB1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2598,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2606,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2614,27 +2944,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +2976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9D23D-12F6-4A5D-93D1-1862668A41BC}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2668,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2676,15 +3006,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0003B-178C-466F-BE10-E90BCC8A1B78}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2715,28 +3045,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2744,13 +3074,13 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2762,7 +3092,7 @@
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2770,13 +3100,13 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2788,7 +3118,7 @@
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2796,13 +3126,13 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2814,7 +3144,7 @@
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2822,13 +3152,13 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
         <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -2848,13 +3178,13 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2866,7 +3196,7 @@
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2874,13 +3204,13 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2900,13 +3230,13 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
         <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2918,7 +3248,7 @@
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,13 +3256,13 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2949,13 +3279,13 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>206</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>207</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -2975,13 +3305,13 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
         <v>208</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>209</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2993,7 +3323,7 @@
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3001,13 +3331,13 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>212</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3019,7 +3349,7 @@
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3027,13 +3357,13 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>215</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3045,7 +3375,7 @@
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,13 +3383,13 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
         <v>217</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>218</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3071,7 +3401,7 @@
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3079,13 +3409,13 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
         <v>220</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>221</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3097,7 +3427,7 @@
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -3105,13 +3435,13 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
         <v>222</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>223</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -3123,7 +3453,7 @@
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -3131,13 +3461,13 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3154,13 +3484,13 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
         <v>225</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>226</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3177,13 +3507,13 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>227</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>228</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3200,13 +3530,13 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>229</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>230</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3218,7 +3548,7 @@
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -3226,13 +3556,13 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3249,13 +3579,13 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
         <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>234</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3267,7 +3597,7 @@
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -3275,13 +3605,13 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>237</v>
       </c>
       <c r="G24" s="15">
         <v>43679</v>
@@ -3290,7 +3620,7 @@
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4728C55-E312-4CB5-A877-7A6998D5236F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3337,21 +3667,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
       </c>
       <c r="F3" s="15">
         <v>40686</v>
@@ -3359,13 +3689,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3376,10 +3706,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3390,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -3403,52 +3733,52 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -3457,21 +3787,21 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
         <v>106</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
         <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3484,13 +3814,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:DG74"/>
+  <dimension ref="A1:DK74"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3498,248 +3828,344 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="21" width="9.140625" style="3"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z3">
+      <c r="Y2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD2">
         <v>2015</v>
       </c>
-      <c r="AA3">
-        <f>+Z3+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2016</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AT3" si="0">+AA3+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AX2" si="0">+AE2+1</f>
         <v>2017</v>
       </c>
-      <c r="AC3">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AD3">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AE3">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AF3">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AG3">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AH3">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AI3">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AJ3">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AK3">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AL3">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AM3">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AN3">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AO3">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AP3">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AQ3">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AR3">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AS3">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AT3">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AU3">
-        <f t="shared" ref="AU3" si="1">+AT3+1</f>
+      <c r="AY2">
+        <f t="shared" ref="AY2" si="1">+AX2+1</f>
         <v>2036</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3" si="2">+AU3+1</f>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2" si="2">+AY2+1</f>
         <v>2037</v>
       </c>
-      <c r="AW3">
-        <f t="shared" ref="AW3" si="3">+AV3+1</f>
+      <c r="BA2">
+        <f t="shared" ref="BA2" si="3">+AZ2+1</f>
         <v>2038</v>
       </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3" si="4">+AW3+1</f>
+      <c r="BB2">
+        <f t="shared" ref="BB2" si="4">+BA2+1</f>
         <v>2039</v>
       </c>
-      <c r="AY3">
-        <f t="shared" ref="AY3" si="5">+AX3+1</f>
+      <c r="BC2">
+        <f t="shared" ref="BC2" si="5">+BB2+1</f>
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AO3" s="2">
         <v>200</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AP3" s="2">
         <v>400</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AQ3" s="2">
         <v>600</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AR3" s="2">
         <v>800</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AS3" s="2">
         <v>1000</v>
       </c>
-      <c r="AP4" s="2">
-        <f>+AO4*1.01</f>
+      <c r="AT3" s="2">
+        <f>+AS3*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AT5" si="6">+AP4*1.01</f>
+      <c r="AU3" s="2">
+        <f t="shared" ref="AU3:AX4" si="6">+AT3*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AV3" s="2">
         <f t="shared" si="6"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AW3" s="2">
         <f t="shared" si="6"/>
         <v>1040.60401</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AX3" s="2">
         <f t="shared" si="6"/>
         <v>1051.0100500999999</v>
       </c>
+      <c r="AY3" s="2">
+        <f t="shared" ref="AY3:AY4" si="7">+AX3*1.01</f>
+        <v>1061.5201506009998</v>
+      </c>
+      <c r="AZ3" s="2">
+        <f t="shared" ref="AZ3:AZ4" si="8">+AY3*1.01</f>
+        <v>1072.1353521070098</v>
+      </c>
+      <c r="BA3" s="2">
+        <f t="shared" ref="BA3:BA4" si="9">+AZ3*1.01</f>
+        <v>1082.8567056280799</v>
+      </c>
+      <c r="BB3" s="2">
+        <f t="shared" ref="BB3:BB4" si="10">+BA3*1.01</f>
+        <v>1093.6852726843608</v>
+      </c>
+      <c r="BC3" s="2">
+        <f t="shared" ref="BC3" si="11">+BB3*1.01</f>
+        <v>1104.6221254112045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="AM4" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>7500</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>12500</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>18500</v>
+      </c>
       <c r="AU4" s="2">
-        <f t="shared" ref="AU4:AU5" si="7">+AT4*1.01</f>
-        <v>1061.5201506009998</v>
+        <f t="shared" ref="AT4:AW4" si="12">+AT4*1.01</f>
+        <v>18685</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" ref="AV4:AV5" si="8">+AU4*1.01</f>
-        <v>1072.1353521070098</v>
+        <f t="shared" si="12"/>
+        <v>18871.849999999999</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" ref="AW4:AW5" si="9">+AV4*1.01</f>
-        <v>1082.8567056280799</v>
+        <f t="shared" si="12"/>
+        <v>19060.568499999998</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" ref="AX4:AX5" si="10">+AW4*1.01</f>
-        <v>1093.6852726843608</v>
+        <f t="shared" si="6"/>
+        <v>19251.174184999996</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" ref="AY4" si="11">+AX4*1.01</f>
-        <v>1104.6221254112045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>19443.685926849997</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f t="shared" si="8"/>
+        <v>19638.122786118496</v>
+      </c>
+      <c r="BA4" s="2">
+        <f t="shared" si="9"/>
+        <v>19834.50401397968</v>
+      </c>
+      <c r="BB4" s="2">
+        <f t="shared" si="10"/>
+        <v>20032.849054119477</v>
+      </c>
+      <c r="BC4" s="2">
+        <f t="shared" ref="BC4" si="13">+BB4*0.1</f>
+        <v>2003.2849054119479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3760,72 +4186,10 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
-      <c r="AI5" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>1500</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>6000</v>
-      </c>
-      <c r="AO5" s="2">
-        <f>+AN5*1.01</f>
-        <v>6060</v>
-      </c>
-      <c r="AP5" s="2">
-        <f t="shared" ref="AP5:AS5" si="12">+AO5*1.01</f>
-        <v>6120.6</v>
-      </c>
-      <c r="AQ5" s="2">
-        <f t="shared" si="12"/>
-        <v>6181.8060000000005</v>
-      </c>
-      <c r="AR5" s="2">
-        <f t="shared" si="12"/>
-        <v>6243.624060000001</v>
-      </c>
-      <c r="AS5" s="2">
-        <f t="shared" si="12"/>
-        <v>6306.060300600001</v>
-      </c>
-      <c r="AT5" s="2">
-        <f t="shared" si="6"/>
-        <v>6369.1209036060009</v>
-      </c>
-      <c r="AU5" s="2">
-        <f t="shared" si="7"/>
-        <v>6432.812112642061</v>
-      </c>
-      <c r="AV5" s="2">
-        <f t="shared" si="8"/>
-        <v>6497.1402337684813</v>
-      </c>
-      <c r="AW5" s="2">
-        <f t="shared" si="9"/>
-        <v>6562.1116361061659</v>
-      </c>
-      <c r="AX5" s="2">
-        <f t="shared" si="10"/>
-        <v>6627.7327524672273</v>
-      </c>
-      <c r="AY5" s="2">
-        <f t="shared" ref="AY5" si="13">+AX5*0.1</f>
-        <v>662.77327524672273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3846,20 +4210,94 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>+AP6*1.01</f>
+        <v>20.2</v>
+      </c>
+      <c r="AR6" s="2">
+        <f t="shared" ref="AR6:AX6" si="14">+AQ6*1.01</f>
+        <v>20.402000000000001</v>
+      </c>
+      <c r="AS6" s="2">
+        <f t="shared" si="14"/>
+        <v>20.606020000000001</v>
+      </c>
+      <c r="AT6" s="2">
+        <f t="shared" si="14"/>
+        <v>20.8120802</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="14"/>
+        <v>21.020201002</v>
+      </c>
+      <c r="AV6" s="2">
+        <f t="shared" si="14"/>
+        <v>21.230403012020002</v>
+      </c>
+      <c r="AW6" s="2">
+        <f t="shared" si="14"/>
+        <v>21.442707042140203</v>
+      </c>
+      <c r="AX6" s="2">
+        <f t="shared" si="14"/>
+        <v>21.657134112561604</v>
+      </c>
+      <c r="AY6" s="2">
+        <f t="shared" ref="AY6" si="15">+AX6*1.01</f>
+        <v>21.873705453687219</v>
+      </c>
+      <c r="AZ6" s="2">
+        <f t="shared" ref="AZ6" si="16">+AY6*1.01</f>
+        <v>22.092442508224092</v>
+      </c>
+      <c r="BA6" s="2">
+        <f t="shared" ref="BA6" si="17">+AZ6*1.01</f>
+        <v>22.313366933306334</v>
+      </c>
+      <c r="BB6" s="2">
+        <f t="shared" ref="BB6" si="18">+BA6*1.01</f>
+        <v>22.536500602639396</v>
+      </c>
+      <c r="BC6" s="2">
+        <f t="shared" ref="BC6" si="19">+BB6*1.01</f>
+        <v>22.76186560866579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="12">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.91300000000000003</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -3870,557 +4308,476 @@
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
-      <c r="AH7" s="2">
-        <v>100</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>300</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>500</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>800</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AM7" s="2">
-        <f>+AL7*1.01</f>
-        <v>1010</v>
-      </c>
-      <c r="AN7" s="2">
-        <f t="shared" ref="AN7:AT7" si="14">+AM7*1.01</f>
-        <v>1020.1</v>
-      </c>
-      <c r="AO7" s="2">
-        <f t="shared" si="14"/>
-        <v>1030.3009999999999</v>
-      </c>
-      <c r="AP7" s="2">
-        <f t="shared" si="14"/>
-        <v>1040.60401</v>
-      </c>
-      <c r="AQ7" s="2">
-        <f t="shared" si="14"/>
-        <v>1051.0100500999999</v>
-      </c>
-      <c r="AR7" s="2">
-        <f t="shared" si="14"/>
-        <v>1061.5201506009998</v>
-      </c>
-      <c r="AS7" s="2">
-        <f t="shared" si="14"/>
-        <v>1072.1353521070098</v>
-      </c>
-      <c r="AT7" s="2">
-        <f t="shared" si="14"/>
-        <v>1082.8567056280799</v>
-      </c>
-      <c r="AU7" s="2">
-        <f t="shared" ref="AU7" si="15">+AT7*1.01</f>
-        <v>1093.6852726843608</v>
-      </c>
-      <c r="AV7" s="2">
-        <f t="shared" ref="AV7" si="16">+AU7*1.01</f>
-        <v>1104.6221254112045</v>
-      </c>
-      <c r="AW7" s="2">
-        <f t="shared" ref="AW7" si="17">+AV7*1.01</f>
-        <v>1115.6683466653164</v>
-      </c>
-      <c r="AX7" s="2">
-        <f t="shared" ref="AX7" si="18">+AW7*1.01</f>
-        <v>1126.8250301319697</v>
-      </c>
-      <c r="AY7" s="2">
-        <f t="shared" ref="AY7" si="19">+AX7*1.01</f>
-        <v>1138.0932804332895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
       <c r="D8" s="12">
-        <v>1.9330000000000001</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
-        <v>1.1819999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>420</v>
+      </c>
       <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12"/>
+        <v>895</v>
+      </c>
+      <c r="J8" s="12">
+        <v>918</v>
+      </c>
       <c r="K8" s="12">
-        <v>2</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>420</v>
-      </c>
-      <c r="I9" s="12">
-        <v>895</v>
-      </c>
-      <c r="J9" s="12">
-        <v>918</v>
-      </c>
-      <c r="K9" s="12">
         <v>960</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L8" s="12">
         <v>1091</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M8" s="12">
         <v>1193.2</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N8" s="12">
         <v>1256</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O8" s="12">
         <v>1556</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P8" s="12">
         <v>1693</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q8" s="12">
         <v>1761.6</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R8" s="12">
         <v>1893</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S8" s="12">
         <v>2010.5</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T8" s="12">
         <v>2022</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U8" s="12">
         <v>2096.6999999999998</v>
       </c>
-      <c r="V9" s="2">
-        <f>+U9+25</f>
+      <c r="V8" s="2">
+        <f>+U8+25</f>
         <v>2121.6999999999998</v>
       </c>
-      <c r="W9" s="2">
-        <f>+V9+25</f>
+      <c r="W8" s="2">
+        <f>+V8+25</f>
         <v>2146.6999999999998</v>
       </c>
-      <c r="X9" s="2">
-        <f>+W9+25</f>
-        <v>2171.6999999999998</v>
-      </c>
-      <c r="AF9" s="2">
-        <f>SUM(M9:P9)</f>
+      <c r="X8" s="2">
+        <v>2333.3000000000002</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>2483.6</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f>SUM(M8:P8)</f>
         <v>5698.2</v>
       </c>
-      <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AG11" si="20">SUM(Q9:T9)</f>
+      <c r="AK8" s="2">
+        <f t="shared" ref="AK8:AK10" si="20">SUM(Q8:T8)</f>
         <v>7687.1</v>
       </c>
-      <c r="AH9" s="2">
-        <f>+AG9*1.2</f>
+      <c r="AL8" s="2">
+        <f>+AK8*1.2</f>
         <v>9224.52</v>
       </c>
-      <c r="AI9" s="2">
-        <f>+AH9*1.1</f>
+      <c r="AM8" s="2">
+        <f>+AL8*1.1</f>
         <v>10146.972000000002</v>
       </c>
-      <c r="AJ9" s="2">
-        <f>+AI9*1.02</f>
+      <c r="AN8" s="2">
+        <f>+AM8*1.02</f>
         <v>10349.911440000002</v>
       </c>
-      <c r="AK9" s="2">
-        <f t="shared" ref="AK9:AR9" si="21">+AJ9*1.02</f>
+      <c r="AO8" s="2">
+        <f t="shared" ref="AO8:AV8" si="21">+AN8*1.02</f>
         <v>10556.909668800003</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AP8" s="2">
         <f t="shared" si="21"/>
         <v>10768.047862176003</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AQ8" s="2">
         <f t="shared" si="21"/>
         <v>10983.408819419523</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AR8" s="2">
         <f t="shared" si="21"/>
         <v>11203.076995807913</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AS8" s="2">
         <f t="shared" si="21"/>
         <v>11427.138535724071</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AT8" s="2">
         <f t="shared" si="21"/>
         <v>11655.681306438551</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AU8" s="2">
         <f t="shared" si="21"/>
         <v>11888.794932567323</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AV8" s="2">
         <f t="shared" si="21"/>
         <v>12126.570831218671</v>
       </c>
-      <c r="AS9" s="2">
-        <f>+AR9*0.5</f>
+      <c r="AW8" s="2">
+        <f>+AV8*0.5</f>
         <v>6063.2854156093354</v>
       </c>
-      <c r="AT9" s="2">
-        <f>+AS9*0.1</f>
+      <c r="AX8" s="2">
+        <f>+AW8*0.1</f>
         <v>606.32854156093356</v>
       </c>
-      <c r="AU9" s="2">
-        <f t="shared" ref="AU9:AY9" si="22">+AT9*0.1</f>
+      <c r="AY8" s="2">
+        <f t="shared" ref="AY8:BC8" si="22">+AX8*0.1</f>
         <v>60.632854156093359</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AZ8" s="2">
         <f t="shared" si="22"/>
         <v>6.0632854156093359</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="BA8" s="2">
         <f t="shared" si="22"/>
         <v>0.60632854156093363</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BB8" s="2">
         <f t="shared" si="22"/>
         <v>6.0632854156093367E-2</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="BC8" s="2">
         <f t="shared" si="22"/>
         <v>6.0632854156093367E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C9" s="12">
         <v>255</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D9" s="12">
         <v>294</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E9" s="12">
         <v>320</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F9" s="12">
         <v>362</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G9" s="12">
         <v>404</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H9" s="12">
         <v>331.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I9" s="12">
         <v>173</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J9" s="12">
         <v>172</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K9" s="12">
         <v>156</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L9" s="12">
         <v>128</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M9" s="12">
         <v>125.1</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N9" s="12">
         <v>134</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O9" s="12">
         <v>81</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P9" s="12">
         <v>80</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q9" s="12">
         <v>64.8</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R9" s="12">
         <v>43</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S9" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T9" s="12">
         <v>34</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U9" s="12">
         <v>278.10000000000002</v>
       </c>
-      <c r="V10" s="2">
-        <f>+U10</f>
-        <v>278.10000000000002</v>
-      </c>
-      <c r="W10" s="2">
-        <f>+V10</f>
-        <v>278.10000000000002</v>
-      </c>
-      <c r="X10" s="2">
-        <f>+W10</f>
-        <v>278.10000000000002</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" ref="AF10:AF14" si="23">SUM(M10:P10)</f>
+      <c r="AJ9" s="2">
+        <f t="shared" ref="AJ9:AJ14" si="23">SUM(M9:P9)</f>
         <v>420.1</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AK9" s="2">
         <f t="shared" si="20"/>
         <v>180</v>
       </c>
-      <c r="AH10" s="2">
-        <f>+AG10*0.9</f>
+      <c r="AL9" s="2">
+        <f>+AK9*0.9</f>
         <v>162</v>
       </c>
-      <c r="AI10" s="2">
-        <f t="shared" ref="AI10:AT10" si="24">+AH10*0.9</f>
+      <c r="AM9" s="2">
+        <f t="shared" ref="AM9:AX9" si="24">+AL9*0.9</f>
         <v>145.80000000000001</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AN9" s="2">
         <f t="shared" si="24"/>
         <v>131.22000000000003</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AO9" s="2">
         <f t="shared" si="24"/>
         <v>118.09800000000003</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AP9" s="2">
         <f t="shared" si="24"/>
         <v>106.28820000000003</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AQ9" s="2">
         <f t="shared" si="24"/>
         <v>95.659380000000027</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AR9" s="2">
         <f t="shared" si="24"/>
         <v>86.093442000000024</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AS9" s="2">
         <f t="shared" si="24"/>
         <v>77.484097800000029</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AT9" s="2">
         <f t="shared" si="24"/>
         <v>69.735688020000026</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AU9" s="2">
         <f t="shared" si="24"/>
         <v>62.762119218000024</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AV9" s="2">
         <f t="shared" si="24"/>
         <v>56.485907296200025</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AW9" s="2">
         <f t="shared" si="24"/>
         <v>50.837316566580022</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AX9" s="2">
         <f t="shared" si="24"/>
         <v>45.753584909922019</v>
       </c>
-      <c r="AU10" s="2">
-        <f t="shared" ref="AU10:AU12" si="25">+AT10*0.9</f>
+      <c r="AY9" s="2">
+        <f t="shared" ref="AY9:AY12" si="25">+AX9*0.9</f>
         <v>41.178226418929817</v>
       </c>
-      <c r="AV10" s="2">
-        <f t="shared" ref="AV10:AV12" si="26">+AU10*0.9</f>
+      <c r="AZ9" s="2">
+        <f t="shared" ref="AZ9:AZ12" si="26">+AY9*0.9</f>
         <v>37.060403777036839</v>
       </c>
-      <c r="AW10" s="2">
-        <f t="shared" ref="AW10:AW12" si="27">+AV10*0.9</f>
+      <c r="BA9" s="2">
+        <f t="shared" ref="BA9:BA12" si="27">+AZ9*0.9</f>
         <v>33.35436339933316</v>
       </c>
-      <c r="AX10" s="2">
-        <f t="shared" ref="AX10:AX12" si="28">+AW10*0.9</f>
+      <c r="BB9" s="2">
+        <f t="shared" ref="BB9:BB12" si="28">+BA9*0.9</f>
         <v>30.018927059399843</v>
       </c>
-      <c r="AY10" s="2">
-        <f t="shared" ref="AY10:AY12" si="29">+AX10*0.9</f>
+      <c r="BC9" s="2">
+        <f t="shared" ref="BC9:BC12" si="29">+BB9*0.9</f>
         <v>27.017034353459859</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C10" s="12">
         <v>282</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>315</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E10" s="12">
         <v>293</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>316</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G10" s="12">
         <v>297</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H10" s="12">
         <v>269.8</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I10" s="12">
         <v>234</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J10" s="12">
         <v>231.7</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K10" s="12">
         <v>226</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L10" s="12">
         <v>215</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M10" s="12">
         <v>218.7</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N10" s="12">
         <v>221</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O10" s="12">
         <v>185</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P10" s="12">
         <v>147</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q10" s="12">
         <v>132.1</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R10" s="12">
         <v>122</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S10" s="12">
         <v>146.19999999999999</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T10" s="12">
         <v>111</v>
       </c>
-      <c r="U11" s="12"/>
-      <c r="AF11" s="2">
+      <c r="U10" s="12"/>
+      <c r="AJ10" s="2">
         <f t="shared" si="23"/>
         <v>771.7</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AK10" s="2">
         <f t="shared" si="20"/>
         <v>511.29999999999995</v>
       </c>
-      <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AT11" si="30">+AG11*0.9</f>
+      <c r="AL10" s="2">
+        <f t="shared" ref="AL10:AX10" si="30">+AK10*0.9</f>
         <v>460.16999999999996</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AM10" s="2">
         <f t="shared" si="30"/>
         <v>414.15299999999996</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AN10" s="2">
         <f t="shared" si="30"/>
         <v>372.73769999999996</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AO10" s="2">
         <f t="shared" si="30"/>
         <v>335.46392999999995</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AP10" s="2">
         <f t="shared" si="30"/>
         <v>301.91753699999998</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AQ10" s="2">
         <f t="shared" si="30"/>
         <v>271.72578329999999</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AR10" s="2">
         <f t="shared" si="30"/>
         <v>244.55320497</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AS10" s="2">
         <f t="shared" si="30"/>
         <v>220.09788447299999</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AT10" s="2">
         <f t="shared" si="30"/>
         <v>198.0880960257</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AU10" s="2">
         <f t="shared" si="30"/>
         <v>178.27928642313</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AV10" s="2">
         <f t="shared" si="30"/>
         <v>160.45135778081701</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AW10" s="2">
         <f t="shared" si="30"/>
         <v>144.40622200273532</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AX10" s="2">
         <f t="shared" si="30"/>
         <v>129.96559980246178</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AY10" s="2">
         <f t="shared" si="25"/>
         <v>116.96903982221561</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AZ10" s="2">
         <f t="shared" si="26"/>
         <v>105.27213583999405</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="BA10" s="2">
         <f t="shared" si="27"/>
         <v>94.744922255994652</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BB10" s="2">
         <f t="shared" si="28"/>
         <v>85.27043003039519</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="BC10" s="2">
         <f t="shared" si="29"/>
         <v>76.743387027355666</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="X11" s="2">
+        <v>184.4</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4479,93 +4836,89 @@
         <v>136</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="AF12" s="2">
+      <c r="AJ12" s="2">
         <f t="shared" si="23"/>
         <v>683.3</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AK12" s="2">
         <f>SUM(Q12:T12)</f>
         <v>553.4</v>
       </c>
-      <c r="AH12" s="2">
-        <f t="shared" ref="AH12:AT12" si="31">+AG12*0.9</f>
+      <c r="AL12" s="2">
+        <f t="shared" ref="AL12:AX12" si="31">+AK12*0.9</f>
         <v>498.06</v>
-      </c>
-      <c r="AI12" s="2">
-        <f t="shared" si="31"/>
-        <v>448.25400000000002</v>
-      </c>
-      <c r="AJ12" s="2">
-        <f t="shared" si="31"/>
-        <v>403.42860000000002</v>
-      </c>
-      <c r="AK12" s="2">
-        <f t="shared" si="31"/>
-        <v>363.08574000000004</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" si="31"/>
-        <v>326.77716600000002</v>
-      </c>
-      <c r="AM12" s="2">
-        <f t="shared" si="31"/>
-        <v>294.09944940000003</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="31"/>
-        <v>264.68950446000002</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="31"/>
-        <v>238.22055401400002</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" si="31"/>
-        <v>214.39849861260001</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="2">
         <f t="shared" si="31"/>
-        <v>192.95864875134001</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" si="31"/>
-        <v>173.66278387620602</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="2">
         <f t="shared" si="31"/>
-        <v>156.29650548858541</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="2">
         <f t="shared" si="31"/>
-        <v>140.66685493972687</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2">
         <f t="shared" si="25"/>
-        <v>126.60016944575419</v>
-      </c>
-      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2">
         <f t="shared" si="26"/>
-        <v>113.94015250117877</v>
-      </c>
-      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
         <f t="shared" si="27"/>
-        <v>102.5461372510609</v>
-      </c>
-      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
         <f t="shared" si="28"/>
-        <v>92.291523525954815</v>
-      </c>
-      <c r="AY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
         <f t="shared" si="29"/>
-        <v>83.062371173359338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" ref="C13:K13" si="32">SUM(C9:C12)+C8</f>
+        <f t="shared" ref="C13:K13" si="32">SUM(C8:C12)+C7</f>
         <v>783</v>
       </c>
       <c r="D13" s="14">
@@ -4601,7 +4954,7 @@
         <v>1538</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" ref="L13:P13" si="33">SUM(L9:L12)</f>
+        <f t="shared" ref="L13:P13" si="33">SUM(L8:L12)</f>
         <v>1627</v>
       </c>
       <c r="M13" s="14">
@@ -4621,11 +4974,11 @@
         <v>2072</v>
       </c>
       <c r="Q13" s="14">
-        <f>SUM(Q9:Q12)</f>
+        <f>SUM(Q8:Q12)</f>
         <v>2097.5</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:X13" si="34">SUM(R9:R12)</f>
+        <f t="shared" ref="R13:X13" si="34">SUM(R8:R12)</f>
         <v>2197</v>
       </c>
       <c r="S13" s="14">
@@ -4642,104 +4995,111 @@
       </c>
       <c r="V13" s="14">
         <f t="shared" si="34"/>
-        <v>2399.7999999999997</v>
+        <v>2121.6999999999998</v>
       </c>
       <c r="W13" s="14">
         <f t="shared" si="34"/>
-        <v>2424.7999999999997</v>
+        <v>2146.6999999999998</v>
       </c>
       <c r="X13" s="14">
-        <f t="shared" si="34"/>
-        <v>2449.7999999999997</v>
-      </c>
-      <c r="AE13" s="13">
-        <f t="shared" ref="AE13" si="35">SUM(AE9:AE12)</f>
+        <f>+X11+X8</f>
+        <v>2517.7000000000003</v>
+      </c>
+      <c r="Y13" s="14">
+        <f>SUM(Y8:Y12)</f>
+        <v>2690.6</v>
+      </c>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AI13" s="13">
+        <f t="shared" ref="AI13" si="35">SUM(AI8:AI12)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="13">
-        <f>SUM(AF9:AF12)</f>
+      <c r="AJ13" s="13">
+        <f>SUM(AJ8:AJ12)</f>
         <v>7573.3</v>
       </c>
-      <c r="AG13" s="13">
-        <f>SUM(AG9:AG12)</f>
+      <c r="AK13" s="13">
+        <f>SUM(AK8:AK12)</f>
         <v>8931.7999999999993</v>
       </c>
-      <c r="AH13" s="13">
-        <f>SUM(AH4:AH12)</f>
-        <v>10444.75</v>
-      </c>
-      <c r="AI13" s="13">
-        <f t="shared" ref="AI13:AT13" si="36">SUM(AI4:AI12)</f>
-        <v>11655.179000000002</v>
-      </c>
-      <c r="AJ13" s="13">
-        <f t="shared" si="36"/>
-        <v>13257.29774</v>
-      </c>
-      <c r="AK13" s="13">
-        <f t="shared" si="36"/>
-        <v>15373.557338800003</v>
-      </c>
       <c r="AL13" s="13">
-        <f t="shared" si="36"/>
-        <v>16903.030765176005</v>
+        <f>SUM(AL3:AL12)</f>
+        <v>10344.75</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="36"/>
-        <v>18254.893432119523</v>
+        <f t="shared" ref="AM13:AX13" si="36">SUM(AM3:AM12)</f>
+        <v>10911.925000000001</v>
       </c>
       <c r="AN13" s="13">
         <f t="shared" si="36"/>
-        <v>19618.513147237914</v>
+        <v>13863.869140000001</v>
       </c>
       <c r="AO13" s="13">
-        <f>SUM(AO4:AO12)</f>
-        <v>20053.242072011071</v>
+        <f t="shared" si="36"/>
+        <v>18725.471598800006</v>
       </c>
       <c r="AP13" s="13">
         <f t="shared" si="36"/>
-        <v>20309.107599096853</v>
+        <v>21596.253599176005</v>
       </c>
       <c r="AQ13" s="13">
         <f t="shared" si="36"/>
-        <v>20575.711037059798</v>
+        <v>24470.993982719527</v>
       </c>
       <c r="AR13" s="13">
         <f t="shared" si="36"/>
-        <v>20852.616090772895</v>
+        <v>27354.125642777915</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="36"/>
-        <v>14833.625122374249</v>
+        <f>SUM(AS3:AS12)</f>
+        <v>30245.326537997073</v>
       </c>
       <c r="AT13" s="13">
         <f t="shared" si="36"/>
-        <v>9425.7022405471253</v>
+        <v>31454.317170684255</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" ref="AU13:AY13" si="37">SUM(AU4:AU12)</f>
-        <v>8933.3978257704148</v>
+        <f t="shared" si="36"/>
+        <v>31855.956539210456</v>
       </c>
       <c r="AV13" s="13">
+        <f t="shared" si="36"/>
+        <v>32266.889499307705</v>
+      </c>
+      <c r="AW13" s="13">
+        <f t="shared" si="36"/>
+        <v>26381.144171220785</v>
+      </c>
+      <c r="AX13" s="13">
+        <f t="shared" si="36"/>
+        <v>21105.889095485876</v>
+      </c>
+      <c r="AY13" s="13">
+        <f t="shared" ref="AY13:BC13" si="37">SUM(AY3:AY12)</f>
+        <v>20745.859903301924</v>
+      </c>
+      <c r="AZ13" s="13">
         <f t="shared" si="37"/>
-        <v>8936.2336888205155</v>
-      </c>
-      <c r="AW13" s="13">
+        <v>20880.746405766367</v>
+      </c>
+      <c r="BA13" s="13">
         <f t="shared" si="37"/>
-        <v>8991.8884398475129</v>
-      </c>
-      <c r="AX13" s="13">
+        <v>21068.379700737958</v>
+      </c>
+      <c r="BB13" s="13">
         <f t="shared" si="37"/>
-        <v>9055.8845687534649</v>
-      </c>
-      <c r="AY13" s="13">
+        <v>21264.420817350427</v>
+      </c>
+      <c r="BC13" s="13">
         <f t="shared" si="37"/>
-        <v>3092.3175369308074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3234.4353810980492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="12">
         <v>111.255</v>
@@ -4800,100 +5160,102 @@
       </c>
       <c r="V14" s="2">
         <f>+V13-V15</f>
-        <v>239.98000000000002</v>
+        <v>212.16999999999985</v>
       </c>
       <c r="W14" s="2">
         <f>+W13-W15</f>
-        <v>242.48000000000002</v>
+        <v>214.66999999999985</v>
       </c>
       <c r="X14" s="2">
-        <f>+X13-X15</f>
-        <v>244.98000000000002</v>
-      </c>
-      <c r="AF14" s="2">
+        <v>364.2</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>335.8</v>
+      </c>
+      <c r="AJ14" s="2">
         <f t="shared" si="23"/>
         <v>904.21199999999999</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AK14" s="2">
         <f>SUM(Q14:T14)</f>
         <v>977.9</v>
       </c>
-      <c r="AH14" s="2">
-        <f>+AH13*0.07</f>
-        <v>731.13250000000005</v>
-      </c>
-      <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AT14" si="38">+AI13*0.07</f>
-        <v>815.86253000000022</v>
-      </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="38"/>
-        <v>928.01084180000009</v>
-      </c>
-      <c r="AK14" s="2">
-        <f t="shared" si="38"/>
-        <v>1076.1490137160004</v>
-      </c>
       <c r="AL14" s="2">
-        <f t="shared" si="38"/>
-        <v>1183.2121535623205</v>
+        <f>+AL13*0.07</f>
+        <v>724.13250000000005</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="38"/>
-        <v>1277.8425402483667</v>
+        <f t="shared" ref="AM14:AX14" si="38">+AM13*0.07</f>
+        <v>763.8347500000001</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="38"/>
-        <v>1373.2959203066541</v>
+        <v>970.47083980000014</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="38"/>
-        <v>1403.726945040775</v>
+        <v>1310.7830119160005</v>
       </c>
       <c r="AP14" s="2">
         <f t="shared" si="38"/>
-        <v>1421.6375319367799</v>
+        <v>1511.7377519423205</v>
       </c>
       <c r="AQ14" s="2">
         <f t="shared" si="38"/>
-        <v>1440.2997725941859</v>
+        <v>1712.969578790367</v>
       </c>
       <c r="AR14" s="2">
         <f t="shared" si="38"/>
-        <v>1459.6831263541028</v>
+        <v>1914.7887949944543</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" si="38"/>
-        <v>1038.3537585661975</v>
+        <v>2117.1728576597952</v>
       </c>
       <c r="AT14" s="2">
         <f t="shared" si="38"/>
-        <v>659.79915683829881</v>
+        <v>2201.8022019478981</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" ref="AU14:AY14" si="39">+AU13*0.07</f>
-        <v>625.33784780392909</v>
+        <f t="shared" si="38"/>
+        <v>2229.9169577447319</v>
       </c>
       <c r="AV14" s="2">
+        <f t="shared" si="38"/>
+        <v>2258.6822649515398</v>
+      </c>
+      <c r="AW14" s="2">
+        <f t="shared" si="38"/>
+        <v>1846.6800919854552</v>
+      </c>
+      <c r="AX14" s="2">
+        <f t="shared" si="38"/>
+        <v>1477.4122366840115</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" ref="AY14:BC14" si="39">+AY13*0.07</f>
+        <v>1452.2101932311348</v>
+      </c>
+      <c r="AZ14" s="2">
         <f t="shared" si="39"/>
-        <v>625.53635821743615</v>
-      </c>
-      <c r="AW14" s="2">
+        <v>1461.6522484036459</v>
+      </c>
+      <c r="BA14" s="2">
         <f t="shared" si="39"/>
-        <v>629.432190789326</v>
-      </c>
-      <c r="AX14" s="2">
+        <v>1474.7865790516571</v>
+      </c>
+      <c r="BB14" s="2">
         <f t="shared" si="39"/>
-        <v>633.91191981274255</v>
-      </c>
-      <c r="AY14" s="2">
+        <v>1488.5094572145299</v>
+      </c>
+      <c r="BC14" s="2">
         <f t="shared" si="39"/>
-        <v>216.46222758515654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>226.41047667686345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" ref="C15:J15" si="40">+C13-C14</f>
@@ -4973,104 +5335,108 @@
       </c>
       <c r="V15" s="2">
         <f>+V13*0.9</f>
-        <v>2159.8199999999997</v>
+        <v>1909.53</v>
       </c>
       <c r="W15" s="2">
         <f>+W13*0.9</f>
-        <v>2182.3199999999997</v>
+        <v>1932.03</v>
       </c>
       <c r="X15" s="2">
-        <f>+X13*0.9</f>
-        <v>2204.8199999999997</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="43">+AE13-AE14</f>
+        <f>+X13-X14</f>
+        <v>2153.5000000000005</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+Y13-Y14</f>
+        <v>2354.7999999999997</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" ref="AI15" si="43">+AI13-AI14</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="2">
-        <f>+AF13-AF14</f>
+      <c r="AJ15" s="2">
+        <f>+AJ13-AJ14</f>
         <v>6669.0879999999997</v>
       </c>
-      <c r="AG15" s="2">
-        <f>+AG13-AG14</f>
+      <c r="AK15" s="2">
+        <f>+AK13-AK14</f>
         <v>7953.9</v>
       </c>
-      <c r="AH15" s="2">
-        <f>+AH13-AH14</f>
-        <v>9713.6175000000003</v>
-      </c>
-      <c r="AI15" s="2">
-        <f t="shared" ref="AI15:AT15" si="44">+AI13-AI14</f>
-        <v>10839.316470000002</v>
-      </c>
-      <c r="AJ15" s="2">
-        <f t="shared" si="44"/>
-        <v>12329.2868982</v>
-      </c>
-      <c r="AK15" s="2">
-        <f t="shared" si="44"/>
-        <v>14297.408325084003</v>
-      </c>
       <c r="AL15" s="2">
-        <f t="shared" si="44"/>
-        <v>15719.818611613684</v>
+        <f>+AL13-AL14</f>
+        <v>9620.6175000000003</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="44"/>
-        <v>16977.050891871157</v>
+        <f t="shared" ref="AM15:AX15" si="44">+AM13-AM14</f>
+        <v>10148.090250000001</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="44"/>
-        <v>18245.217226931261</v>
+        <v>12893.3983002</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="44"/>
-        <v>18649.515126970295</v>
+        <v>17414.688586884007</v>
       </c>
       <c r="AP15" s="2">
         <f t="shared" si="44"/>
-        <v>18887.470067160073</v>
+        <v>20084.515847233684</v>
       </c>
       <c r="AQ15" s="2">
         <f t="shared" si="44"/>
-        <v>19135.411264465612</v>
+        <v>22758.024403929161</v>
       </c>
       <c r="AR15" s="2">
         <f t="shared" si="44"/>
-        <v>19392.932964418793</v>
+        <v>25439.336847783459</v>
       </c>
       <c r="AS15" s="2">
         <f t="shared" si="44"/>
-        <v>13795.271363808051</v>
+        <v>28128.153680337276</v>
       </c>
       <c r="AT15" s="2">
         <f t="shared" si="44"/>
-        <v>8765.9030837088267</v>
+        <v>29252.514968736356</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" ref="AU15:AY15" si="45">+AU13-AU14</f>
-        <v>8308.0599779664863</v>
+        <f t="shared" si="44"/>
+        <v>29626.039581465724</v>
       </c>
       <c r="AV15" s="2">
+        <f t="shared" si="44"/>
+        <v>30008.207234356167</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" si="44"/>
+        <v>24534.464079235331</v>
+      </c>
+      <c r="AX15" s="2">
+        <f t="shared" si="44"/>
+        <v>19628.476858801863</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" ref="AY15:BC15" si="45">+AY13-AY14</f>
+        <v>19293.649710070789</v>
+      </c>
+      <c r="AZ15" s="2">
         <f t="shared" si="45"/>
-        <v>8310.6973306030795</v>
-      </c>
-      <c r="AW15" s="2">
+        <v>19419.094157362721</v>
+      </c>
+      <c r="BA15" s="2">
         <f t="shared" si="45"/>
-        <v>8362.4562490581866</v>
-      </c>
-      <c r="AX15" s="2">
+        <v>19593.593121686303</v>
+      </c>
+      <c r="BB15" s="2">
         <f t="shared" si="45"/>
-        <v>8421.9726489407221</v>
-      </c>
-      <c r="AY15" s="2">
+        <v>19775.911360135899</v>
+      </c>
+      <c r="BC15" s="2">
         <f t="shared" si="45"/>
-        <v>2875.8553093456508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3008.024904421186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12">
         <v>137.29499999999999</v>
@@ -5138,95 +5504,97 @@
         <v>246.8</v>
       </c>
       <c r="X16" s="2">
-        <f>+T16</f>
-        <v>225.6</v>
-      </c>
-      <c r="AE16" s="2">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>272</v>
+      </c>
+      <c r="AI16" s="2">
         <v>609</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AJ16" s="2">
         <v>673</v>
       </c>
-      <c r="AG16" s="2">
-        <f t="shared" ref="AG16:AG17" si="46">SUM(Q16:T16)</f>
+      <c r="AK16" s="2">
+        <f t="shared" ref="AK16:AK17" si="46">SUM(Q16:T16)</f>
         <v>854.7</v>
       </c>
-      <c r="AH16" s="2">
-        <f>+AH13*0.1</f>
-        <v>1044.4750000000001</v>
-      </c>
-      <c r="AI16" s="2">
-        <f t="shared" ref="AI16:AT16" si="47">+AI13*0.1</f>
-        <v>1165.5179000000003</v>
-      </c>
-      <c r="AJ16" s="2">
-        <f t="shared" si="47"/>
-        <v>1325.7297740000001</v>
-      </c>
-      <c r="AK16" s="2">
-        <f t="shared" si="47"/>
-        <v>1537.3557338800003</v>
-      </c>
       <c r="AL16" s="2">
-        <f t="shared" si="47"/>
-        <v>1690.3030765176006</v>
+        <f>+AL13*0.1</f>
+        <v>1034.4750000000001</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="47"/>
-        <v>1825.4893432119525</v>
+        <f t="shared" ref="AM16:AX16" si="47">+AM13*0.1</f>
+        <v>1091.1925000000001</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="47"/>
-        <v>1961.8513147237916</v>
+        <v>1386.3869140000002</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="47"/>
-        <v>2005.3242072011071</v>
+        <v>1872.5471598800007</v>
       </c>
       <c r="AP16" s="2">
         <f t="shared" si="47"/>
-        <v>2030.9107599096853</v>
+        <v>2159.6253599176007</v>
       </c>
       <c r="AQ16" s="2">
         <f t="shared" si="47"/>
-        <v>2057.57110370598</v>
+        <v>2447.0993982719529</v>
       </c>
       <c r="AR16" s="2">
         <f t="shared" si="47"/>
-        <v>2085.2616090772894</v>
+        <v>2735.4125642777917</v>
       </c>
       <c r="AS16" s="2">
         <f t="shared" si="47"/>
-        <v>1483.3625122374251</v>
+        <v>3024.5326537997075</v>
       </c>
       <c r="AT16" s="2">
         <f t="shared" si="47"/>
-        <v>942.57022405471253</v>
+        <v>3145.4317170684258</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" ref="AU16:AY16" si="48">+AU13*0.1</f>
-        <v>893.33978257704155</v>
+        <f t="shared" si="47"/>
+        <v>3185.5956539210456</v>
       </c>
       <c r="AV16" s="2">
+        <f t="shared" si="47"/>
+        <v>3226.6889499307708</v>
+      </c>
+      <c r="AW16" s="2">
+        <f t="shared" si="47"/>
+        <v>2638.1144171220785</v>
+      </c>
+      <c r="AX16" s="2">
+        <f t="shared" si="47"/>
+        <v>2110.5889095485877</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" ref="AY16:BC16" si="48">+AY13*0.1</f>
+        <v>2074.5859903301925</v>
+      </c>
+      <c r="AZ16" s="2">
         <f t="shared" si="48"/>
-        <v>893.62336888205164</v>
-      </c>
-      <c r="AW16" s="2">
+        <v>2088.0746405766367</v>
+      </c>
+      <c r="BA16" s="2">
         <f t="shared" si="48"/>
-        <v>899.18884398475132</v>
-      </c>
-      <c r="AX16" s="2">
+        <v>2106.837970073796</v>
+      </c>
+      <c r="BB16" s="2">
         <f t="shared" si="48"/>
-        <v>905.58845687534654</v>
-      </c>
-      <c r="AY16" s="2">
+        <v>2126.4420817350428</v>
+      </c>
+      <c r="BC16" s="2">
         <f t="shared" si="48"/>
-        <v>309.23175369308075</v>
-      </c>
-    </row>
-    <row r="17" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>323.44353810980493</v>
+      </c>
+    </row>
+    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="12">
         <v>330.51</v>
@@ -5294,23 +5662,25 @@
         <v>663.5</v>
       </c>
       <c r="X17" s="2">
-        <f>+W17</f>
-        <v>663.5</v>
-      </c>
-      <c r="AE17" s="2">
+        <v>698.8</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>669.7</v>
+      </c>
+      <c r="AI17" s="2">
         <v>1372</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AJ17" s="2">
         <v>1658</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AK17" s="2">
         <f t="shared" si="46"/>
         <v>2388.3000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" ref="C18:D18" si="49">SUM(C16:C17)</f>
@@ -5389,7 +5759,7 @@
         <v>860.4</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" ref="V18:X18" si="56">SUM(V16:V17)</f>
+        <f t="shared" ref="V18:Y18" si="56">SUM(V16:V17)</f>
         <v>878.8</v>
       </c>
       <c r="W18" s="12">
@@ -5398,96 +5768,103 @@
       </c>
       <c r="X18" s="12">
         <f t="shared" si="56"/>
-        <v>889.1</v>
-      </c>
-      <c r="AE18" s="12">
-        <f t="shared" ref="AE18:AG18" si="57">SUM(AE16:AE17)</f>
+        <v>984.4</v>
+      </c>
+      <c r="Y18" s="12">
+        <f t="shared" si="56"/>
+        <v>941.7</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AI18" s="12">
+        <f t="shared" ref="AI18:AK18" si="57">SUM(AI16:AI17)</f>
         <v>1981</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AJ18" s="12">
         <f t="shared" si="57"/>
         <v>2331</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AK18" s="12">
         <f t="shared" si="57"/>
         <v>3243</v>
       </c>
-      <c r="AH18" s="12">
-        <f t="shared" ref="AH18:AT18" si="58">SUM(AH16:AH17)</f>
-        <v>1044.4750000000001</v>
-      </c>
-      <c r="AI18" s="12">
-        <f t="shared" si="58"/>
-        <v>1165.5179000000003</v>
-      </c>
-      <c r="AJ18" s="12">
-        <f t="shared" si="58"/>
-        <v>1325.7297740000001</v>
-      </c>
-      <c r="AK18" s="12">
-        <f t="shared" si="58"/>
-        <v>1537.3557338800003</v>
-      </c>
       <c r="AL18" s="12">
-        <f t="shared" si="58"/>
-        <v>1690.3030765176006</v>
+        <f t="shared" ref="AL18:AX18" si="58">SUM(AL16:AL17)</f>
+        <v>1034.4750000000001</v>
       </c>
       <c r="AM18" s="12">
         <f t="shared" si="58"/>
-        <v>1825.4893432119525</v>
+        <v>1091.1925000000001</v>
       </c>
       <c r="AN18" s="12">
         <f t="shared" si="58"/>
-        <v>1961.8513147237916</v>
+        <v>1386.3869140000002</v>
       </c>
       <c r="AO18" s="12">
         <f t="shared" si="58"/>
-        <v>2005.3242072011071</v>
+        <v>1872.5471598800007</v>
       </c>
       <c r="AP18" s="12">
         <f t="shared" si="58"/>
-        <v>2030.9107599096853</v>
+        <v>2159.6253599176007</v>
       </c>
       <c r="AQ18" s="12">
         <f t="shared" si="58"/>
-        <v>2057.57110370598</v>
+        <v>2447.0993982719529</v>
       </c>
       <c r="AR18" s="12">
         <f t="shared" si="58"/>
-        <v>2085.2616090772894</v>
+        <v>2735.4125642777917</v>
       </c>
       <c r="AS18" s="12">
         <f t="shared" si="58"/>
-        <v>1483.3625122374251</v>
+        <v>3024.5326537997075</v>
       </c>
       <c r="AT18" s="12">
         <f t="shared" si="58"/>
-        <v>942.57022405471253</v>
+        <v>3145.4317170684258</v>
       </c>
       <c r="AU18" s="12">
-        <f t="shared" ref="AU18:AY18" si="59">SUM(AU16:AU17)</f>
-        <v>893.33978257704155</v>
+        <f t="shared" si="58"/>
+        <v>3185.5956539210456</v>
       </c>
       <c r="AV18" s="12">
+        <f t="shared" si="58"/>
+        <v>3226.6889499307708</v>
+      </c>
+      <c r="AW18" s="12">
+        <f t="shared" si="58"/>
+        <v>2638.1144171220785</v>
+      </c>
+      <c r="AX18" s="12">
+        <f t="shared" si="58"/>
+        <v>2110.5889095485877</v>
+      </c>
+      <c r="AY18" s="12">
+        <f t="shared" ref="AY18:BC18" si="59">SUM(AY16:AY17)</f>
+        <v>2074.5859903301925</v>
+      </c>
+      <c r="AZ18" s="12">
         <f t="shared" si="59"/>
-        <v>893.62336888205164</v>
-      </c>
-      <c r="AW18" s="12">
+        <v>2088.0746405766367</v>
+      </c>
+      <c r="BA18" s="12">
         <f t="shared" si="59"/>
-        <v>899.18884398475132</v>
-      </c>
-      <c r="AX18" s="12">
+        <v>2106.837970073796</v>
+      </c>
+      <c r="BB18" s="12">
         <f t="shared" si="59"/>
-        <v>905.58845687534654</v>
-      </c>
-      <c r="AY18" s="12">
+        <v>2126.4420817350428</v>
+      </c>
+      <c r="BC18" s="12">
         <f t="shared" si="59"/>
-        <v>309.23175369308075</v>
-      </c>
-    </row>
-    <row r="19" spans="2:111" x14ac:dyDescent="0.2">
+        <v>323.44353810980493</v>
+      </c>
+    </row>
+    <row r="19" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" ref="C19:D19" si="60">C15-C18</f>
@@ -5566,105 +5943,112 @@
         <v>1249.3999999999996</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" ref="V19:X19" si="67">V15-V18</f>
-        <v>1281.0199999999998</v>
+        <f t="shared" ref="V19:Y19" si="67">V15-V18</f>
+        <v>1030.73</v>
       </c>
       <c r="W19" s="12">
         <f t="shared" si="67"/>
-        <v>1272.0199999999998</v>
+        <v>1021.73</v>
       </c>
       <c r="X19" s="12">
+        <f>X15-X18</f>
+        <v>1169.1000000000004</v>
+      </c>
+      <c r="Y19" s="12">
         <f t="shared" si="67"/>
-        <v>1315.7199999999998</v>
-      </c>
-      <c r="AE19" s="12">
-        <f t="shared" ref="AE19:AG19" si="68">AE15-AE18</f>
+        <v>1413.0999999999997</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AI19" s="12">
+        <f t="shared" ref="AI19:AK19" si="68">AI15-AI18</f>
         <v>-1981</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AJ19" s="12">
         <f t="shared" si="68"/>
         <v>4338.0879999999997</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AK19" s="12">
         <f t="shared" si="68"/>
         <v>4710.8999999999996</v>
       </c>
-      <c r="AH19" s="12">
-        <f t="shared" ref="AH19:AT19" si="69">AH15-AH18</f>
-        <v>8669.1424999999999</v>
-      </c>
-      <c r="AI19" s="12">
-        <f t="shared" si="69"/>
-        <v>9673.7985700000008</v>
-      </c>
-      <c r="AJ19" s="12">
-        <f t="shared" si="69"/>
-        <v>11003.557124200001</v>
-      </c>
-      <c r="AK19" s="12">
-        <f t="shared" si="69"/>
-        <v>12760.052591204003</v>
-      </c>
       <c r="AL19" s="12">
-        <f t="shared" si="69"/>
-        <v>14029.515535096083</v>
+        <f t="shared" ref="AL19:AX19" si="69">AL15-AL18</f>
+        <v>8586.1424999999999</v>
       </c>
       <c r="AM19" s="12">
         <f t="shared" si="69"/>
-        <v>15151.561548659203</v>
+        <v>9056.8977500000001</v>
       </c>
       <c r="AN19" s="12">
         <f t="shared" si="69"/>
-        <v>16283.36591220747</v>
+        <v>11507.0113862</v>
       </c>
       <c r="AO19" s="12">
         <f t="shared" si="69"/>
-        <v>16644.190919769186</v>
+        <v>15542.141427004006</v>
       </c>
       <c r="AP19" s="12">
         <f t="shared" si="69"/>
-        <v>16856.559307250387</v>
+        <v>17924.890487316083</v>
       </c>
       <c r="AQ19" s="12">
         <f t="shared" si="69"/>
-        <v>17077.840160759632</v>
+        <v>20310.925005657209</v>
       </c>
       <c r="AR19" s="12">
         <f t="shared" si="69"/>
-        <v>17307.671355341503</v>
+        <v>22703.924283505668</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" si="69"/>
-        <v>12311.908851570626</v>
+        <v>25103.62102653757</v>
       </c>
       <c r="AT19" s="12">
         <f t="shared" si="69"/>
-        <v>7823.3328596541141</v>
+        <v>26107.083251667929</v>
       </c>
       <c r="AU19" s="12">
-        <f t="shared" ref="AU19:AY19" si="70">AU15-AU18</f>
-        <v>7414.7201953894446</v>
+        <f t="shared" si="69"/>
+        <v>26440.443927544678</v>
       </c>
       <c r="AV19" s="12">
+        <f t="shared" si="69"/>
+        <v>26781.518284425394</v>
+      </c>
+      <c r="AW19" s="12">
+        <f t="shared" si="69"/>
+        <v>21896.349662113251</v>
+      </c>
+      <c r="AX19" s="12">
+        <f t="shared" si="69"/>
+        <v>17517.887949253276</v>
+      </c>
+      <c r="AY19" s="12">
+        <f t="shared" ref="AY19:BC19" si="70">AY15-AY18</f>
+        <v>17219.063719740596</v>
+      </c>
+      <c r="AZ19" s="12">
         <f t="shared" si="70"/>
-        <v>7417.0739617210274</v>
-      </c>
-      <c r="AW19" s="12">
+        <v>17331.019516786084</v>
+      </c>
+      <c r="BA19" s="12">
         <f t="shared" si="70"/>
-        <v>7463.2674050734349</v>
-      </c>
-      <c r="AX19" s="12">
+        <v>17486.755151612506</v>
+      </c>
+      <c r="BB19" s="12">
         <f t="shared" si="70"/>
-        <v>7516.3841920653758</v>
-      </c>
-      <c r="AY19" s="12">
+        <v>17649.469278400855</v>
+      </c>
+      <c r="BC19" s="12">
         <f t="shared" si="70"/>
-        <v>2566.6235556525698</v>
-      </c>
-    </row>
-    <row r="20" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2684.5813663113809</v>
+      </c>
+    </row>
+    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="12">
         <f>10.543-18.686</f>
@@ -5750,89 +6134,92 @@
         <v>122.6</v>
       </c>
       <c r="X20" s="2">
-        <f>+W20</f>
-        <v>122.6</v>
-      </c>
-      <c r="AG20" s="2">
-        <f t="shared" ref="AG20:AG22" si="71">SUM(Q20:T20)</f>
+        <f>179.5-10.6-9.8</f>
+        <v>159.1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>-4.2</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" ref="AK20:AK22" si="71">SUM(Q20:T20)</f>
         <v>89.6</v>
       </c>
-      <c r="AH20" s="2">
-        <f t="shared" ref="AH20:AV20" si="72">+AG32*$BB$30</f>
+      <c r="AL20" s="2">
+        <f t="shared" ref="AL20:AZ20" si="72">+AK32*$BF$30</f>
         <v>0</v>
-      </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="72"/>
-        <v>69.35314000000001</v>
-      </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="72"/>
-        <v>147.29835367999999</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="72"/>
-        <v>236.50519750303999</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="72"/>
-        <v>340.47765981269634</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="72"/>
-        <v>455.43760537196664</v>
+        <v>68.689139999999995</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="72"/>
-        <v>580.29359860421596</v>
+        <v>141.69383512000002</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="72"/>
-        <v>715.20287469070945</v>
+        <v>234.88347689056002</v>
       </c>
       <c r="AP20" s="2">
         <f t="shared" si="72"/>
-        <v>854.07802504638869</v>
+        <v>361.09967612171653</v>
       </c>
       <c r="AQ20" s="2">
         <f t="shared" si="72"/>
-        <v>995.76312370476285</v>
+        <v>507.38759742921894</v>
       </c>
       <c r="AR20" s="2">
         <f t="shared" si="72"/>
-        <v>1140.3519499804779</v>
+        <v>673.93409825391041</v>
       </c>
       <c r="AS20" s="2">
         <f t="shared" si="72"/>
-        <v>1287.9361364230538</v>
+        <v>860.95696530798705</v>
       </c>
       <c r="AT20" s="2">
         <f t="shared" si="72"/>
-        <v>1396.7348963270033</v>
+        <v>1068.6735892427514</v>
       </c>
       <c r="AU20" s="2">
         <f t="shared" si="72"/>
-        <v>1470.4954383748523</v>
+        <v>1286.0796439700371</v>
       </c>
       <c r="AV20" s="2">
         <f t="shared" si="72"/>
-        <v>1541.5771634449668</v>
+        <v>1507.8918325421546</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" ref="AW20:AY20" si="73">+AV32*$BB$30</f>
-        <v>1613.2463724462948</v>
+        <f t="shared" si="72"/>
+        <v>1734.2071134778951</v>
       </c>
       <c r="AX20" s="2">
+        <f t="shared" si="72"/>
+        <v>1923.2515676826242</v>
+      </c>
+      <c r="AY20" s="2">
+        <f t="shared" si="72"/>
+        <v>2078.7806838181114</v>
+      </c>
+      <c r="AZ20" s="2">
+        <f t="shared" si="72"/>
+        <v>2233.1634390465811</v>
+      </c>
+      <c r="BA20" s="2">
+        <f t="shared" ref="BA20:BC20" si="73">+AZ32*$BF$30</f>
+        <v>2389.6769026932425</v>
+      </c>
+      <c r="BB20" s="2">
+        <f>+BA32*$BF$30</f>
+        <v>2548.6883591276883</v>
+      </c>
+      <c r="BC20" s="2">
         <f t="shared" si="73"/>
-        <v>1685.8584826664526</v>
-      </c>
-      <c r="AY20" s="2">
-        <f t="shared" si="73"/>
-        <v>1759.4764240643071</v>
-      </c>
-    </row>
-    <row r="21" spans="2:111" x14ac:dyDescent="0.2">
+        <v>2710.2736202279166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="12">
         <f t="shared" ref="C21:D21" si="74">+C19+C20</f>
@@ -5903,7 +6290,7 @@
         <v>1185.3999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21:X21" si="80">+T19+T20</f>
+        <f t="shared" ref="T21:Y21" si="80">+T19+T20</f>
         <v>1247.6999999999998</v>
       </c>
       <c r="U21" s="12">
@@ -5912,96 +6299,103 @@
       </c>
       <c r="V21" s="12">
         <f t="shared" si="80"/>
-        <v>1403.6199999999997</v>
+        <v>1153.33</v>
       </c>
       <c r="W21" s="12">
         <f t="shared" si="80"/>
-        <v>1394.6199999999997</v>
+        <v>1144.33</v>
       </c>
       <c r="X21" s="12">
         <f t="shared" si="80"/>
-        <v>1438.3199999999997</v>
-      </c>
-      <c r="AG21" s="2">
-        <f>+AG19+AG20</f>
+        <v>1328.2000000000003</v>
+      </c>
+      <c r="Y21" s="12">
+        <f t="shared" si="80"/>
+        <v>1408.8999999999996</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AK21" s="2">
+        <f>+AK19+AK20</f>
         <v>4800.5</v>
       </c>
-      <c r="AH21" s="2">
-        <f t="shared" ref="AH21:AT21" si="81">+AH19+AH20</f>
-        <v>8669.1424999999999</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="81"/>
-        <v>9743.1517100000001</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="81"/>
-        <v>11150.855477880001</v>
-      </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="81"/>
-        <v>12996.557788707043</v>
-      </c>
       <c r="AL21" s="2">
-        <f t="shared" si="81"/>
-        <v>14369.993194908779</v>
+        <f t="shared" ref="AL21:AX21" si="81">+AL19+AL20</f>
+        <v>8586.1424999999999</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="81"/>
-        <v>15606.999154031169</v>
+        <v>9125.5868900000005</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="81"/>
-        <v>16863.659510811685</v>
+        <v>11648.70522132</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="81"/>
-        <v>17359.393794459895</v>
+        <v>15777.024903894566</v>
       </c>
       <c r="AP21" s="2">
         <f t="shared" si="81"/>
-        <v>17710.637332296777</v>
+        <v>18285.9901634378</v>
       </c>
       <c r="AQ21" s="2">
         <f t="shared" si="81"/>
-        <v>18073.603284464396</v>
+        <v>20818.31260308643</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" si="81"/>
-        <v>18448.023305321982</v>
+        <v>23377.858381759579</v>
       </c>
       <c r="AS21" s="2">
         <f t="shared" si="81"/>
-        <v>13599.84498799368</v>
+        <v>25964.577991845559</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" si="81"/>
-        <v>9220.0677559811174</v>
+        <v>27175.756840910683</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" ref="AU21:AY21" si="82">+AU19+AU20</f>
-        <v>8885.2156337642973</v>
+        <f t="shared" si="81"/>
+        <v>27726.523571514714</v>
       </c>
       <c r="AV21" s="2">
+        <f t="shared" si="81"/>
+        <v>28289.410116967549</v>
+      </c>
+      <c r="AW21" s="2">
+        <f t="shared" si="81"/>
+        <v>23630.556775591147</v>
+      </c>
+      <c r="AX21" s="2">
+        <f t="shared" si="81"/>
+        <v>19441.139516935902</v>
+      </c>
+      <c r="AY21" s="2">
+        <f t="shared" ref="AY21:BC21" si="82">+AY19+AY20</f>
+        <v>19297.844403558709</v>
+      </c>
+      <c r="AZ21" s="2">
         <f t="shared" si="82"/>
-        <v>8958.651125165994</v>
-      </c>
-      <c r="AW21" s="2">
+        <v>19564.182955832664</v>
+      </c>
+      <c r="BA21" s="2">
         <f t="shared" si="82"/>
-        <v>9076.513777519729</v>
-      </c>
-      <c r="AX21" s="2">
+        <v>19876.432054305747</v>
+      </c>
+      <c r="BB21" s="2">
         <f t="shared" si="82"/>
-        <v>9202.2426747318277</v>
-      </c>
-      <c r="AY21" s="2">
+        <v>20198.157637528544</v>
+      </c>
+      <c r="BC21" s="2">
         <f t="shared" si="82"/>
-        <v>4326.099979716877</v>
-      </c>
-    </row>
-    <row r="22" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5394.8549865392979</v>
+      </c>
+    </row>
+    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="12">
         <v>8.0549999999999997</v>
@@ -6062,96 +6456,98 @@
       </c>
       <c r="V22" s="2">
         <f>+V21*0.15</f>
-        <v>210.54299999999995</v>
+        <v>172.99949999999998</v>
       </c>
       <c r="W22" s="2">
         <f>+W21*0.15</f>
-        <v>209.19299999999996</v>
+        <v>171.64949999999999</v>
       </c>
       <c r="X22" s="2">
-        <f>+X21*0.15</f>
-        <v>215.74799999999996</v>
-      </c>
-      <c r="AG22" s="2">
+        <v>178.8</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AK22" s="2">
         <f t="shared" si="71"/>
         <v>1011.4</v>
       </c>
-      <c r="AH22" s="2">
-        <f>+AH21*0.2</f>
-        <v>1733.8285000000001</v>
-      </c>
-      <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AT22" si="83">+AI21*0.2</f>
-        <v>1948.6303420000002</v>
-      </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="83"/>
-        <v>2230.1710955760004</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="83"/>
-        <v>2599.3115577414087</v>
-      </c>
       <c r="AL22" s="2">
-        <f t="shared" si="83"/>
-        <v>2873.9986389817559</v>
+        <f>+AL21*0.2</f>
+        <v>1717.2285000000002</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="83"/>
-        <v>3121.3998308062341</v>
+        <f t="shared" ref="AM22:AX22" si="83">+AM21*0.2</f>
+        <v>1825.1173780000001</v>
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="83"/>
-        <v>3372.7319021623371</v>
+        <v>2329.7410442640003</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="83"/>
-        <v>3471.878758891979</v>
+        <v>3155.4049807789133</v>
       </c>
       <c r="AP22" s="2">
         <f t="shared" si="83"/>
-        <v>3542.1274664593557</v>
+        <v>3657.19803268756</v>
       </c>
       <c r="AQ22" s="2">
         <f t="shared" si="83"/>
-        <v>3614.7206568928796</v>
+        <v>4163.6625206172857</v>
       </c>
       <c r="AR22" s="2">
         <f t="shared" si="83"/>
-        <v>3689.6046610643966</v>
+        <v>4675.5716763519158</v>
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="83"/>
-        <v>2719.9689975987362</v>
+        <v>5192.9155983691126</v>
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="83"/>
-        <v>1844.0135511962235</v>
+        <v>5435.151368182137</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" ref="AU22:AY22" si="84">+AU21*0.2</f>
-        <v>1777.0431267528595</v>
+        <f t="shared" si="83"/>
+        <v>5545.3047143029435</v>
       </c>
       <c r="AV22" s="2">
+        <f t="shared" si="83"/>
+        <v>5657.8820233935103</v>
+      </c>
+      <c r="AW22" s="2">
+        <f t="shared" si="83"/>
+        <v>4726.1113551182298</v>
+      </c>
+      <c r="AX22" s="2">
+        <f t="shared" si="83"/>
+        <v>3888.2279033871805</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" ref="AY22:BC22" si="84">+AY21*0.2</f>
+        <v>3859.5688807117422</v>
+      </c>
+      <c r="AZ22" s="2">
         <f t="shared" si="84"/>
-        <v>1791.7302250331988</v>
-      </c>
-      <c r="AW22" s="2">
-        <f>+AW21*0.2</f>
-        <v>1815.3027555039459</v>
-      </c>
-      <c r="AX22" s="2">
-        <f>+AX21*0.2</f>
-        <v>1840.4485349463657</v>
-      </c>
-      <c r="AY22" s="2">
+        <v>3912.8365911665333</v>
+      </c>
+      <c r="BA22" s="2">
+        <f>+BA21*0.2</f>
+        <v>3975.2864108611498</v>
+      </c>
+      <c r="BB22" s="2">
+        <f>+BB21*0.2</f>
+        <v>4039.6315275057091</v>
+      </c>
+      <c r="BC22" s="2">
         <f t="shared" si="84"/>
-        <v>865.21999594337547</v>
-      </c>
-    </row>
-    <row r="23" spans="2:111" x14ac:dyDescent="0.2">
+        <v>1078.9709973078595</v>
+      </c>
+    </row>
+    <row r="23" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="12">
         <f t="shared" ref="C23:D23" si="85">+C21-C22</f>
@@ -6198,7 +6594,7 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:X23" si="88">+N21-N22</f>
+        <f t="shared" ref="N23:Y23" si="88">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
@@ -6231,336 +6627,343 @@
       </c>
       <c r="V23" s="12">
         <f t="shared" si="88"/>
-        <v>1193.0769999999998</v>
+        <v>980.33049999999992</v>
       </c>
       <c r="W23" s="12">
         <f t="shared" si="88"/>
-        <v>1185.4269999999997</v>
+        <v>972.68049999999994</v>
       </c>
       <c r="X23" s="12">
         <f t="shared" si="88"/>
-        <v>1222.5719999999997</v>
-      </c>
-      <c r="AG23" s="2">
-        <f>+AG21-AG22</f>
+        <v>1149.4000000000003</v>
+      </c>
+      <c r="Y23" s="12">
+        <f t="shared" si="88"/>
+        <v>1147.7999999999997</v>
+      </c>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AK23" s="2">
+        <f>+AK21-AK22</f>
         <v>3789.1</v>
       </c>
-      <c r="AH23" s="2">
-        <f t="shared" ref="AH23:AN23" si="89">+AH21-AH22</f>
-        <v>6935.3140000000003</v>
-      </c>
-      <c r="AI23" s="2">
-        <f t="shared" si="89"/>
-        <v>7794.5213679999997</v>
-      </c>
-      <c r="AJ23" s="2">
-        <f t="shared" si="89"/>
-        <v>8920.6843823039999</v>
-      </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="89"/>
-        <v>10397.246230965635</v>
-      </c>
       <c r="AL23" s="2">
-        <f t="shared" si="89"/>
-        <v>11495.994555927024</v>
+        <f t="shared" ref="AL23:AR23" si="89">+AL21-AL22</f>
+        <v>6868.9139999999998</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="89"/>
-        <v>12485.599323224935</v>
+        <v>7300.4695120000006</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="89"/>
-        <v>13490.927608649348</v>
+        <v>9318.9641770560011</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" ref="AO23:AT23" si="90">+AO21-AO22</f>
-        <v>13887.515035567916</v>
+        <f t="shared" si="89"/>
+        <v>12621.619923115653</v>
       </c>
       <c r="AP23" s="2">
-        <f t="shared" si="90"/>
-        <v>14168.509865837423</v>
+        <f t="shared" si="89"/>
+        <v>14628.79213075024</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="90"/>
-        <v>14458.882627571516</v>
+        <f t="shared" si="89"/>
+        <v>16654.650082469143</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="90"/>
-        <v>14758.418644257585</v>
+        <f t="shared" si="89"/>
+        <v>18702.286705407663</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="90"/>
-        <v>10879.875990394943</v>
+        <f t="shared" ref="AS23:AX23" si="90">+AS21-AS22</f>
+        <v>20771.662393476447</v>
       </c>
       <c r="AT23" s="2">
         <f t="shared" si="90"/>
-        <v>7376.054204784894</v>
+        <v>21740.605472728545</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" ref="AU23:AY23" si="91">+AU21-AU22</f>
-        <v>7108.172507011438</v>
+        <f t="shared" si="90"/>
+        <v>22181.21885721177</v>
       </c>
       <c r="AV23" s="2">
+        <f t="shared" si="90"/>
+        <v>22631.528093574037</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="90"/>
+        <v>18904.445420472919</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="90"/>
+        <v>15552.911613548722</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" ref="AY23:BC23" si="91">+AY21-AY22</f>
+        <v>15438.275522846967</v>
+      </c>
+      <c r="AZ23" s="2">
         <f t="shared" si="91"/>
-        <v>7166.9209001327954</v>
-      </c>
-      <c r="AW23" s="2">
+        <v>15651.346364666131</v>
+      </c>
+      <c r="BA23" s="2">
         <f t="shared" si="91"/>
-        <v>7261.2110220157829</v>
-      </c>
-      <c r="AX23" s="2">
+        <v>15901.145643444597</v>
+      </c>
+      <c r="BB23" s="2">
         <f t="shared" si="91"/>
-        <v>7361.794139785462</v>
-      </c>
-      <c r="AY23" s="2">
+        <v>16158.526110022834</v>
+      </c>
+      <c r="BC23" s="2">
         <f t="shared" si="91"/>
-        <v>3460.8799837735014</v>
-      </c>
-      <c r="AZ23" s="2">
-        <f t="shared" ref="AZ23:CE23" si="92">+AY23*(1+$BB$28)</f>
-        <v>3287.8359845848263</v>
-      </c>
-      <c r="BA23" s="2">
-        <f t="shared" si="92"/>
-        <v>3123.444185355585</v>
-      </c>
-      <c r="BB23" s="2">
-        <f t="shared" si="92"/>
-        <v>2967.2719760878058</v>
-      </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="92"/>
-        <v>2818.9083772834156</v>
+        <v>4315.8839892314381</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="92"/>
-        <v>2677.9629584192448</v>
+        <f t="shared" ref="BD23:CI23" si="92">+BC23*(1+$BF$28)</f>
+        <v>4100.089789769866</v>
       </c>
       <c r="BE23" s="2">
         <f t="shared" si="92"/>
-        <v>2544.0648104982824</v>
+        <v>3895.0853002813724</v>
       </c>
       <c r="BF23" s="2">
         <f t="shared" si="92"/>
-        <v>2416.8615699733682</v>
+        <v>3700.3310352673034</v>
       </c>
       <c r="BG23" s="2">
         <f t="shared" si="92"/>
-        <v>2296.0184914746997</v>
+        <v>3515.3144835039379</v>
       </c>
       <c r="BH23" s="2">
         <f t="shared" si="92"/>
-        <v>2181.2175669009644</v>
+        <v>3339.5487593287407</v>
       </c>
       <c r="BI23" s="2">
         <f t="shared" si="92"/>
-        <v>2072.1566885559159</v>
+        <v>3172.5713213623035</v>
       </c>
       <c r="BJ23" s="2">
         <f t="shared" si="92"/>
-        <v>1968.54885412812</v>
+        <v>3013.9427552941884</v>
       </c>
       <c r="BK23" s="2">
         <f t="shared" si="92"/>
-        <v>1870.1214114217139</v>
+        <v>2863.2456175294787</v>
       </c>
       <c r="BL23" s="2">
         <f t="shared" si="92"/>
-        <v>1776.6153408506282</v>
+        <v>2720.0833366530046</v>
       </c>
       <c r="BM23" s="2">
         <f t="shared" si="92"/>
-        <v>1687.7845738080966</v>
+        <v>2584.0791698203543</v>
       </c>
       <c r="BN23" s="2">
         <f t="shared" si="92"/>
-        <v>1603.3953451176917</v>
+        <v>2454.8752113293363</v>
       </c>
       <c r="BO23" s="2">
         <f t="shared" si="92"/>
-        <v>1523.2255778618071</v>
+        <v>2332.1314507628695</v>
       </c>
       <c r="BP23" s="2">
         <f t="shared" si="92"/>
-        <v>1447.0642989687167</v>
+        <v>2215.5248782247259</v>
       </c>
       <c r="BQ23" s="2">
         <f t="shared" si="92"/>
-        <v>1374.7110840202809</v>
+        <v>2104.7486343134897</v>
       </c>
       <c r="BR23" s="2">
         <f t="shared" si="92"/>
-        <v>1305.9755298192667</v>
+        <v>1999.5112025978151</v>
       </c>
       <c r="BS23" s="2">
         <f t="shared" si="92"/>
-        <v>1240.6767533283034</v>
+        <v>1899.5356424679242</v>
       </c>
       <c r="BT23" s="2">
         <f t="shared" si="92"/>
-        <v>1178.6429156618883</v>
+        <v>1804.5588603445278</v>
       </c>
       <c r="BU23" s="2">
         <f t="shared" si="92"/>
-        <v>1119.7107698787938</v>
+        <v>1714.3309173273014</v>
       </c>
       <c r="BV23" s="2">
         <f t="shared" si="92"/>
-        <v>1063.7252313848542</v>
+        <v>1628.6143714609364</v>
       </c>
       <c r="BW23" s="2">
         <f t="shared" si="92"/>
-        <v>1010.5389698156114</v>
+        <v>1547.1836528878894</v>
       </c>
       <c r="BX23" s="2">
         <f t="shared" si="92"/>
-        <v>960.01202132483081</v>
+        <v>1469.8244702434947</v>
       </c>
       <c r="BY23" s="2">
         <f t="shared" si="92"/>
-        <v>912.01142025858928</v>
+        <v>1396.3332467313198</v>
       </c>
       <c r="BZ23" s="2">
         <f t="shared" si="92"/>
-        <v>866.41084924565973</v>
+        <v>1326.5165843947539</v>
       </c>
       <c r="CA23" s="2">
         <f t="shared" si="92"/>
-        <v>823.09030678337672</v>
+        <v>1260.1907551750162</v>
       </c>
       <c r="CB23" s="2">
         <f t="shared" si="92"/>
-        <v>781.93579144420789</v>
+        <v>1197.1812174162653</v>
       </c>
       <c r="CC23" s="2">
         <f t="shared" si="92"/>
-        <v>742.83900187199743</v>
+        <v>1137.3221565454521</v>
       </c>
       <c r="CD23" s="2">
         <f t="shared" si="92"/>
-        <v>705.69705177839751</v>
+        <v>1080.4560487181795</v>
       </c>
       <c r="CE23" s="2">
         <f t="shared" si="92"/>
-        <v>670.41219918947763</v>
+        <v>1026.4332462822706</v>
       </c>
       <c r="CF23" s="2">
-        <f t="shared" ref="CF23:DG23" si="93">+CE23*(1+$BB$28)</f>
-        <v>636.89158923000377</v>
+        <f t="shared" si="92"/>
+        <v>975.11158396815699</v>
       </c>
       <c r="CG23" s="2">
-        <f t="shared" si="93"/>
-        <v>605.04700976850359</v>
+        <f t="shared" si="92"/>
+        <v>926.35600476974912</v>
       </c>
       <c r="CH23" s="2">
-        <f t="shared" si="93"/>
-        <v>574.79465928007835</v>
+        <f t="shared" si="92"/>
+        <v>880.03820453126161</v>
       </c>
       <c r="CI23" s="2">
-        <f t="shared" si="93"/>
-        <v>546.05492631607444</v>
+        <f t="shared" si="92"/>
+        <v>836.03629430469846</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" si="93"/>
-        <v>518.75218000027064</v>
+        <f t="shared" ref="CJ23:DK23" si="93">+CI23*(1+$BF$28)</f>
+        <v>794.23447958946349</v>
       </c>
       <c r="CK23" s="2">
         <f t="shared" si="93"/>
-        <v>492.8145710002571</v>
+        <v>754.52275560999033</v>
       </c>
       <c r="CL23" s="2">
         <f t="shared" si="93"/>
-        <v>468.17384245024425</v>
+        <v>716.79661782949074</v>
       </c>
       <c r="CM23" s="2">
         <f t="shared" si="93"/>
-        <v>444.76515032773204</v>
+        <v>680.95678693801619</v>
       </c>
       <c r="CN23" s="2">
         <f t="shared" si="93"/>
-        <v>422.52689281134542</v>
+        <v>646.90894759111541</v>
       </c>
       <c r="CO23" s="2">
         <f t="shared" si="93"/>
-        <v>401.40054817077811</v>
+        <v>614.56350021155959</v>
       </c>
       <c r="CP23" s="2">
         <f t="shared" si="93"/>
-        <v>381.33052076223919</v>
+        <v>583.83532520098163</v>
       </c>
       <c r="CQ23" s="2">
         <f t="shared" si="93"/>
-        <v>362.2639947241272</v>
+        <v>554.64355894093251</v>
       </c>
       <c r="CR23" s="2">
         <f t="shared" si="93"/>
-        <v>344.15079498792085</v>
+        <v>526.91138099388581</v>
       </c>
       <c r="CS23" s="2">
         <f t="shared" si="93"/>
-        <v>326.94325523852478</v>
+        <v>500.56581194419152</v>
       </c>
       <c r="CT23" s="2">
         <f t="shared" si="93"/>
-        <v>310.59609247659853</v>
+        <v>475.53752134698192</v>
       </c>
       <c r="CU23" s="2">
         <f t="shared" si="93"/>
-        <v>295.0662878527686</v>
+        <v>451.7606452796328</v>
       </c>
       <c r="CV23" s="2">
         <f t="shared" si="93"/>
-        <v>280.31297346013014</v>
+        <v>429.17261301565111</v>
       </c>
       <c r="CW23" s="2">
         <f t="shared" si="93"/>
-        <v>266.29732478712361</v>
+        <v>407.71398236486851</v>
       </c>
       <c r="CX23" s="2">
         <f t="shared" si="93"/>
-        <v>252.98245854776741</v>
+        <v>387.32828324662506</v>
       </c>
       <c r="CY23" s="2">
         <f t="shared" si="93"/>
-        <v>240.33333562037902</v>
+        <v>367.96186908429377</v>
       </c>
       <c r="CZ23" s="2">
         <f t="shared" si="93"/>
-        <v>228.31666883936006</v>
+        <v>349.56377563007908</v>
       </c>
       <c r="DA23" s="2">
         <f t="shared" si="93"/>
-        <v>216.90083539739206</v>
+        <v>332.08558684857513</v>
       </c>
       <c r="DB23" s="2">
         <f t="shared" si="93"/>
-        <v>206.05579362752243</v>
+        <v>315.48130750614638</v>
       </c>
       <c r="DC23" s="2">
         <f t="shared" si="93"/>
-        <v>195.75300394614629</v>
+        <v>299.70724213083906</v>
       </c>
       <c r="DD23" s="2">
         <f t="shared" si="93"/>
-        <v>185.96535374883896</v>
+        <v>284.72188002429709</v>
       </c>
       <c r="DE23" s="2">
         <f t="shared" si="93"/>
-        <v>176.66708606139701</v>
+        <v>270.4857860230822</v>
       </c>
       <c r="DF23" s="2">
         <f t="shared" si="93"/>
-        <v>167.83373175832716</v>
+        <v>256.96149672192809</v>
       </c>
       <c r="DG23" s="2">
         <f t="shared" si="93"/>
-        <v>159.44204517041081</v>
-      </c>
-    </row>
-    <row r="24" spans="2:111" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>244.11342188583166</v>
+      </c>
+      <c r="DH23" s="2">
+        <f t="shared" si="93"/>
+        <v>231.90775079154005</v>
+      </c>
+      <c r="DI23" s="2">
+        <f t="shared" si="93"/>
+        <v>220.31236325196303</v>
+      </c>
+      <c r="DJ23" s="2">
+        <f t="shared" si="93"/>
+        <v>209.29674508936486</v>
+      </c>
+      <c r="DK23" s="2">
+        <f t="shared" si="93"/>
+        <v>198.83190783489661</v>
+      </c>
+    </row>
+    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="21">
         <f t="shared" ref="C24:D24" si="94">+C23/C25</f>
@@ -6623,7 +7026,7 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:X24" si="99">+R23/R25</f>
+        <f t="shared" ref="R24:Y24" si="99">+R23/R25</f>
         <v>3.3142636258214146</v>
       </c>
       <c r="S24" s="21">
@@ -6640,94 +7043,101 @@
       </c>
       <c r="V24" s="21">
         <f t="shared" si="99"/>
-        <v>4.5834690741452162</v>
+        <v>3.7661563580484052</v>
       </c>
       <c r="W24" s="21">
         <f t="shared" si="99"/>
-        <v>4.554079907798692</v>
+        <v>3.7367671917018819</v>
       </c>
       <c r="X24" s="21">
         <f t="shared" si="99"/>
-        <v>4.6967806377256993</v>
-      </c>
-      <c r="AG24" s="1">
-        <f>+AG23/AG25</f>
+        <v>4.4055193560751258</v>
+      </c>
+      <c r="Y24" s="21">
+        <f t="shared" si="99"/>
+        <v>4.3960168517809253</v>
+      </c>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AK24" s="1">
+        <f>+AK23/AK25</f>
         <v>14.624083365495949</v>
       </c>
-      <c r="AH24" s="1">
-        <f t="shared" ref="AH24:AT24" si="100">+AH23/AH25</f>
-        <v>26.766939405634893</v>
-      </c>
-      <c r="AI24" s="1">
-        <f t="shared" si="100"/>
-        <v>30.083062014666154</v>
-      </c>
-      <c r="AJ24" s="1">
-        <f t="shared" si="100"/>
-        <v>34.429503598240068</v>
-      </c>
-      <c r="AK24" s="1">
-        <f t="shared" si="100"/>
-        <v>40.12831428392758</v>
-      </c>
       <c r="AL24" s="1">
-        <f t="shared" si="100"/>
-        <v>44.368948498367523</v>
+        <f t="shared" ref="AL24:AX24" si="100">+AL23/AL25</f>
+        <v>26.510667695870325</v>
       </c>
       <c r="AM24" s="1">
         <f t="shared" si="100"/>
-        <v>48.188341656599526</v>
+        <v>28.176262107294487</v>
       </c>
       <c r="AN24" s="1">
         <f t="shared" si="100"/>
-        <v>52.068419948472986</v>
+        <v>35.966669923025869</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="100"/>
-        <v>53.599054556418054</v>
+        <v>48.713315025533213</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="100"/>
-        <v>54.683557953830274</v>
+        <v>56.460023661714558</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="100"/>
-        <v>55.804255606219677</v>
+        <v>64.278850183207823</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="100"/>
-        <v>56.960318966644486</v>
+        <v>72.181731784668727</v>
       </c>
       <c r="AS24" s="1">
         <f t="shared" si="100"/>
-        <v>41.991030453087397</v>
+        <v>80.168515605852761</v>
       </c>
       <c r="AT24" s="1">
         <f t="shared" si="100"/>
-        <v>28.467982264704343</v>
+        <v>83.908164695980503</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" ref="AU24:AY24" si="101">+AU23/AU25</f>
-        <v>27.434089181827243</v>
+        <f t="shared" si="100"/>
+        <v>85.608718090358053</v>
       </c>
       <c r="AV24" s="1">
+        <f t="shared" si="100"/>
+        <v>87.346692757908301</v>
+      </c>
+      <c r="AW24" s="1">
+        <f t="shared" si="100"/>
+        <v>72.961966115294956</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="100"/>
+        <v>60.026675467189207</v>
+      </c>
+      <c r="AY24" s="1">
+        <f t="shared" ref="AY24:BC24" si="101">+AY23/AY25</f>
+        <v>59.584235904465338</v>
+      </c>
+      <c r="AZ24" s="1">
         <f t="shared" si="101"/>
-        <v>27.660829410006933</v>
-      </c>
-      <c r="AW24" s="1">
+        <v>60.406585737808314</v>
+      </c>
+      <c r="BA24" s="1">
         <f t="shared" si="101"/>
-        <v>28.024743427309083</v>
-      </c>
-      <c r="AX24" s="1">
+        <v>61.370689476822072</v>
+      </c>
+      <c r="BB24" s="1">
         <f t="shared" si="101"/>
-        <v>28.412945348457981</v>
-      </c>
-      <c r="AY24" s="1">
+        <v>62.364052914020981</v>
+      </c>
+      <c r="BC24" s="1">
         <f t="shared" si="101"/>
-        <v>13.357313715837522</v>
-      </c>
-    </row>
-    <row r="25" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16.657213389546271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -6797,35 +7207,21 @@
         <v>260.3</v>
       </c>
       <c r="X25" s="2">
-        <f>+W25</f>
-        <v>260.3</v>
-      </c>
-      <c r="AG25" s="2">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AK25" s="2">
         <f>AVERAGE(Q25:T25)</f>
         <v>259.09999999999997</v>
       </c>
-      <c r="AH25" s="2">
-        <f>+AG25</f>
+      <c r="AL25" s="2">
+        <f>+AK25</f>
         <v>259.09999999999997</v>
       </c>
-      <c r="AI25" s="2">
-        <f t="shared" ref="AI25:AT25" si="102">+AH25</f>
-        <v>259.09999999999997</v>
-      </c>
-      <c r="AJ25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
-      </c>
-      <c r="AK25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
-      </c>
-      <c r="AL25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
-      </c>
       <c r="AM25" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="AM25:AX25" si="102">+AL25</f>
         <v>259.09999999999997</v>
       </c>
       <c r="AN25" s="2">
@@ -6857,29 +7253,45 @@
         <v>259.09999999999997</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" ref="AU25" si="103">+AT25</f>
+        <f t="shared" si="102"/>
         <v>259.09999999999997</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" ref="AV25" si="104">+AU25</f>
+        <f t="shared" si="102"/>
         <v>259.09999999999997</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" ref="AW25" si="105">+AV25</f>
+        <f t="shared" si="102"/>
         <v>259.09999999999997</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" ref="AX25" si="106">+AW25</f>
+        <f t="shared" si="102"/>
         <v>259.09999999999997</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" ref="AY25" si="107">+AX25</f>
+        <f t="shared" ref="AY25" si="103">+AX25</f>
         <v>259.09999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="2:111" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AZ25" s="2">
+        <f t="shared" ref="AZ25" si="104">+AY25</f>
+        <v>259.09999999999997</v>
+      </c>
+      <c r="BA25" s="2">
+        <f t="shared" ref="BA25" si="105">+AZ25</f>
+        <v>259.09999999999997</v>
+      </c>
+      <c r="BB25" s="2">
+        <f t="shared" ref="BB25" si="106">+BA25</f>
+        <v>259.09999999999997</v>
+      </c>
+      <c r="BC25" s="2">
+        <f t="shared" ref="BC25" si="107">+BB25</f>
+        <v>259.09999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -6947,20 +7359,27 @@
       </c>
       <c r="V27" s="25">
         <f t="shared" ref="V27" si="111">+V13/R13-1</f>
-        <v>9.2307692307692202E-2</v>
+        <v>-3.4274010013655043E-2</v>
       </c>
       <c r="W27" s="25">
         <f t="shared" ref="W27" si="112">+W13/S13-1</f>
-        <v>3.8769652572505642E-2</v>
+        <v>-8.0366705222122192E-2</v>
       </c>
       <c r="X27" s="25">
-        <f t="shared" ref="X27" si="113">+X13/T13-1</f>
-        <v>6.3742943986105027E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:111" x14ac:dyDescent="0.2">
+        <f t="shared" ref="X27:Y27" si="113">+X13/T13-1</f>
+        <v>9.3226226660877209E-2</v>
+      </c>
+      <c r="Y27" s="25">
+        <f t="shared" si="113"/>
+        <v>0.13297961933636526</v>
+      </c>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+    </row>
+    <row r="28" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="19">
         <f t="shared" ref="C28" si="114">C15/C13</f>
@@ -7048,145 +7467,152 @@
       </c>
       <c r="X28" s="19">
         <f t="shared" si="120"/>
-        <v>0.9</v>
-      </c>
-      <c r="AF28" s="19">
-        <f t="shared" ref="AF28:AG28" si="121">AF15/AF13</f>
+        <v>0.85534416332366847</v>
+      </c>
+      <c r="Y28" s="19">
+        <f t="shared" ref="Y28" si="121">Y15/Y13</f>
+        <v>0.87519512376421604</v>
+      </c>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AJ28" s="19">
+        <f t="shared" ref="AJ28:AK28" si="122">AJ15/AJ13</f>
         <v>0.88060528435424446</v>
-      </c>
-      <c r="AG28" s="19">
-        <f t="shared" si="121"/>
-        <v>0.89051478985198951</v>
-      </c>
-      <c r="AH28" s="19">
-        <f t="shared" ref="AH28:AT28" si="122">AH15/AH13</f>
-        <v>0.93</v>
-      </c>
-      <c r="AI28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AJ28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.93</v>
       </c>
       <c r="AK28" s="19">
         <f t="shared" si="122"/>
+        <v>0.89051478985198951</v>
+      </c>
+      <c r="AL28" s="19">
+        <f t="shared" ref="AL28:AX28" si="123">AL15/AL13</f>
         <v>0.93</v>
       </c>
-      <c r="AL28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AM28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.93</v>
+      </c>
+      <c r="AN28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AM28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AO28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AN28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AP28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AO28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AR28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AP28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AS28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AT28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AU28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AR28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AV28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AS28" s="19">
-        <f t="shared" si="122"/>
+      <c r="AW28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.93</v>
+      </c>
+      <c r="AX28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AT28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.93</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB28" s="23">
+      <c r="BE28" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF28" s="23">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:111" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="123">+C16/C13</f>
+        <f t="shared" ref="C29" si="124">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="124">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="125">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="125">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="126">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="126">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="127">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>9.7997269003186172E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.105727627125905</v>
       </c>
       <c r="T29" s="19">
@@ -7194,127 +7620,134 @@
         <v>9.7959183673469383E-2</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" ref="U29:X29" si="127">+U16/U13</f>
+        <f t="shared" ref="U29:X29" si="128">+U16/U13</f>
         <v>8.2912245241704582E-2</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="127"/>
-        <v>8.9715809650804251E-2</v>
+        <f t="shared" si="128"/>
+        <v>0.10147523212518265</v>
       </c>
       <c r="W29" s="19">
-        <f t="shared" si="127"/>
-        <v>0.10178159023424614</v>
+        <f t="shared" si="128"/>
+        <v>0.11496715889504823</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" si="127"/>
-        <v>9.2089150134704881E-2</v>
-      </c>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19">
-        <f>+AG16/AG13</f>
+        <f t="shared" si="128"/>
+        <v>0.11343686698176907</v>
+      </c>
+      <c r="Y29" s="19">
+        <f t="shared" ref="Y29" si="129">+Y16/Y13</f>
+        <v>0.1010926930796105</v>
+      </c>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19">
+        <f>+AK16/AK13</f>
         <v>9.5691797845898929E-2</v>
       </c>
-      <c r="AH29" s="19">
-        <f t="shared" ref="AH29:AT29" si="128">+AH16/AH13</f>
+      <c r="AL29" s="19">
+        <f t="shared" ref="AL29:AX29" si="130">+AL16/AL13</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="AI29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AM29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AJ29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AN29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AK29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AO29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AL29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AP29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AM29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AQ29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AN29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AR29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AO29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AS29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AP29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AT29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AQ29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AU29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AR29" s="19">
-        <f t="shared" si="128"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="AS29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AV29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AT29" s="19">
-        <f t="shared" si="128"/>
+      <c r="AW29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="BA29" t="s">
-        <v>296</v>
-      </c>
-      <c r="BB29" s="23">
+      <c r="AX29" s="19">
+        <f t="shared" si="130"/>
+        <v>0.1</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>294</v>
+      </c>
+      <c r="BF29" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:111" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="129">C22/C21</f>
+        <f t="shared" ref="C30" si="131">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="130">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="132">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="131">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="133">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="132">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="134">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -7322,122 +7755,129 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="133">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="135">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.23172043010752691</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.20744052640458924</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>0.20670032860463253</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30:X30" si="134">U22/U21</f>
+        <f t="shared" ref="U30:X30" si="136">U22/U21</f>
         <v>0.13972303206997089</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0.15</v>
       </c>
       <c r="W30" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0.15</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" si="134"/>
-        <v>0.15</v>
-      </c>
-      <c r="AG30" s="23">
-        <f>+AG22/AG21</f>
+        <f t="shared" si="136"/>
+        <v>0.13461828037946091</v>
+      </c>
+      <c r="Y30" s="19">
+        <f t="shared" ref="Y30" si="137">Y22/Y21</f>
+        <v>0.18532188231954014</v>
+      </c>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AK30" s="23">
+        <f>+AK22/AK21</f>
         <v>0.21068638683470473</v>
       </c>
-      <c r="AH30" s="23">
-        <f t="shared" ref="AH30:AT30" si="135">+AH22/AH21</f>
+      <c r="AL30" s="23">
+        <f t="shared" ref="AL30:AX30" si="138">+AL22/AL21</f>
         <v>0.2</v>
       </c>
-      <c r="AI30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AM30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AJ30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AN30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AK30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AO30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AL30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AP30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AM30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AQ30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AR30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AN30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AS30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AT30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AO30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AU30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AV30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AP30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AW30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AQ30" s="23">
-        <f t="shared" si="135"/>
+      <c r="AX30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AR30" s="23">
-        <f t="shared" si="135"/>
-        <v>0.2</v>
-      </c>
-      <c r="AS30" s="23">
-        <f t="shared" si="135"/>
-        <v>0.2</v>
-      </c>
-      <c r="AT30" s="23">
-        <f t="shared" si="135"/>
-        <v>0.2</v>
-      </c>
-      <c r="BA30" t="s">
+      <c r="BE30" t="s">
+        <v>293</v>
+      </c>
+      <c r="BF30" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:115" x14ac:dyDescent="0.2">
+      <c r="BE31" t="s">
         <v>295</v>
       </c>
-      <c r="BB30" s="23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:111" x14ac:dyDescent="0.2">
-      <c r="BA31" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB31" s="2">
-        <f>NPV(BB29,AH23:CE23)+Main!M5-Main!M6</f>
-        <v>122054.10373487382</v>
-      </c>
-    </row>
-    <row r="32" spans="2:111" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BF31" s="2">
+        <f>NPV(BF29,AN23:CK23)+Main!M5-Main!M6</f>
+        <v>180072.46127652677</v>
+      </c>
+    </row>
+    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -7469,93 +7909,93 @@
         <f>9289.9+1124.2+1081.5</f>
         <v>11495.6</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AK32" s="2">
         <f>+T32</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="2">
-        <f>+AG32+AH23</f>
-        <v>6935.3140000000003</v>
-      </c>
-      <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AT32" si="136">+AH32+AI23</f>
-        <v>14729.835368</v>
-      </c>
-      <c r="AJ32" s="2">
-        <f t="shared" si="136"/>
-        <v>23650.519750304</v>
-      </c>
-      <c r="AK32" s="2">
-        <f t="shared" si="136"/>
-        <v>34047.765981269637</v>
-      </c>
       <c r="AL32" s="2">
-        <f t="shared" si="136"/>
-        <v>45543.760537196664</v>
+        <f>+AK32+AL23</f>
+        <v>6868.9139999999998</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="136"/>
-        <v>58029.359860421595</v>
+        <f t="shared" ref="AM32:AX32" si="139">+AL32+AM23</f>
+        <v>14169.383512</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="136"/>
-        <v>71520.287469070943</v>
+        <f t="shared" si="139"/>
+        <v>23488.347689056001</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="136"/>
-        <v>85407.802504638865</v>
+        <f t="shared" si="139"/>
+        <v>36109.967612171655</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="136"/>
-        <v>99576.312370476284</v>
+        <f t="shared" si="139"/>
+        <v>50738.759742921895</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="136"/>
-        <v>114035.19499804779</v>
+        <f t="shared" si="139"/>
+        <v>67393.409825391034</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="136"/>
-        <v>128793.61364230538</v>
+        <f t="shared" si="139"/>
+        <v>86095.696530798697</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="136"/>
-        <v>139673.48963270034</v>
+        <f t="shared" si="139"/>
+        <v>106867.35892427515</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="136"/>
-        <v>147049.54383748522</v>
+        <f t="shared" si="139"/>
+        <v>128607.9643970037</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" ref="AU32" si="137">+AT32+AU23</f>
-        <v>154157.71634449667</v>
+        <f t="shared" si="139"/>
+        <v>150789.18325421546</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" ref="AV32" si="138">+AU32+AV23</f>
-        <v>161324.63724462947</v>
+        <f t="shared" si="139"/>
+        <v>173420.7113477895</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" ref="AW32" si="139">+AV32+AW23</f>
-        <v>168585.84826664525</v>
+        <f t="shared" si="139"/>
+        <v>192325.15676826242</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" ref="AX32" si="140">+AW32+AX23</f>
-        <v>175947.64240643071</v>
+        <f t="shared" si="139"/>
+        <v>207878.06838181114</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" ref="AY32" si="141">+AX32+AY23</f>
-        <v>179408.52239020422</v>
-      </c>
-      <c r="BA32" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="BB32" s="1">
-        <f>BB31/Main!M3</f>
-        <v>473.90155500829275</v>
+        <f t="shared" ref="AY32" si="140">+AX32+AY23</f>
+        <v>223316.3439046581</v>
+      </c>
+      <c r="AZ32" s="2">
+        <f t="shared" ref="AZ32" si="141">+AY32+AZ23</f>
+        <v>238967.69026932423</v>
+      </c>
+      <c r="BA32" s="2">
+        <f t="shared" ref="BA32" si="142">+AZ32+BA23</f>
+        <v>254868.83591276882</v>
+      </c>
+      <c r="BB32" s="2">
+        <f t="shared" ref="BB32" si="143">+BA32+BB23</f>
+        <v>271027.36202279164</v>
+      </c>
+      <c r="BC32" s="2">
+        <f t="shared" ref="BC32" si="144">+BB32+BC23</f>
+        <v>275343.24601202307</v>
+      </c>
+      <c r="BE32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BF32" s="1">
+        <f>BF31/Main!M3</f>
+        <v>689.93280182577303</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -7585,7 +8025,7 @@
     </row>
     <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7615,7 +8055,7 @@
     </row>
     <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7645,7 +8085,7 @@
     </row>
     <row r="36" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7675,7 +8115,7 @@
     </row>
     <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7708,7 +8148,7 @@
     </row>
     <row r="38" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7738,7 +8178,7 @@
     </row>
     <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7768,7 +8208,7 @@
     </row>
     <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7798,7 +8238,7 @@
     </row>
     <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -7820,18 +8260,18 @@
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="12">
-        <f t="shared" ref="S41:U41" si="142">SUM(S32:S40)</f>
+        <f t="shared" ref="S41:U41" si="145">SUM(S32:S40)</f>
         <v>16706.400000000005</v>
       </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>18974.2</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -7861,7 +8301,7 @@
     </row>
     <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -7891,7 +8331,7 @@
     </row>
     <row r="45" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -7921,7 +8361,7 @@
     </row>
     <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -7954,7 +8394,7 @@
     </row>
     <row r="47" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -7984,7 +8424,7 @@
     </row>
     <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -8014,7 +8454,7 @@
     </row>
     <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -8044,7 +8484,7 @@
     </row>
     <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -8066,18 +8506,18 @@
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12">
-        <f t="shared" ref="S50:U50" si="143">SUM(S43:S49)</f>
+        <f t="shared" ref="S50:U50" si="146">SUM(S43:S49)</f>
         <v>16706.400000000001</v>
       </c>
       <c r="T50" s="12"/>
       <c r="U50" s="12">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>18974.199999999997</v>
       </c>
     </row>
     <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -8107,7 +8547,7 @@
     </row>
     <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -8133,7 +8573,7 @@
     </row>
     <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -8159,7 +8599,7 @@
     </row>
     <row r="55" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -8185,7 +8625,7 @@
     </row>
     <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -8211,7 +8651,7 @@
     </row>
     <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -8237,7 +8677,7 @@
     </row>
     <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -8263,7 +8703,7 @@
     </row>
     <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -8289,7 +8729,7 @@
     </row>
     <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -8316,7 +8756,7 @@
     </row>
     <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -8343,7 +8783,7 @@
     </row>
     <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -8369,7 +8809,7 @@
     </row>
     <row r="64" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -8396,7 +8836,7 @@
     </row>
     <row r="65" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -8423,7 +8863,7 @@
     </row>
     <row r="67" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -8449,7 +8889,7 @@
     </row>
     <row r="68" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8475,7 +8915,7 @@
     </row>
     <row r="69" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -8501,7 +8941,7 @@
     </row>
     <row r="70" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -8527,7 +8967,7 @@
     </row>
     <row r="71" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -8554,7 +8994,7 @@
     </row>
     <row r="72" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -8580,7 +9020,7 @@
     </row>
     <row r="73" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -8666,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8674,70 +9114,70 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
         <v>195</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
         <v>187</v>
-      </c>
-      <c r="C8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
         <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8778,15 +9218,15 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8832,7 +9272,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8887,10 +9327,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -8911,9 +9351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E64667-B707-436E-8242-61F1E098F287}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8931,7 +9369,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8939,7 +9377,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8947,7 +9385,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8963,96 +9401,96 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9066,14 +9504,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680057B1-62FF-469A-BFF1-F8D2D83B9698}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -9094,7 +9532,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9102,50 +9540,60 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -9158,20 +9606,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF238714-88C7-42B3-B2FD-3531313A58EB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9185,33 +9632,49 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="18" t="s">
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>198</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="18" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D27BB88E-1A8F-41E5-B99C-BA493095DC2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15481511-A747-45CF-88F3-18D5CFEF86DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4396C83-E27E-432E-A219-D140E119EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="0" windowWidth="25635" windowHeight="20985" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-51360" yWindow="1125" windowWidth="22860" windowHeight="19560" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="358">
   <si>
     <t>Price</t>
   </si>
@@ -1135,6 +1135,24 @@
   </si>
   <si>
     <t>80k opioid deaths in the US in 2023</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>ViaCyte</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1191,12 +1209,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1307,7 +1319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1351,6 +1363,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1375,16 +1390,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62077</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>31998</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62077</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>130394</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>31998</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1399,8 +1414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13173732" y="6569"/>
-          <a:ext cx="0" cy="12276411"/>
+          <a:off x="15607880" y="0"/>
+          <a:ext cx="0" cy="14097000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2055,7 +2070,7 @@
   <dimension ref="B2:N48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,6 +2081,8 @@
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
@@ -2114,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>261</v>
+        <v>258.05338699999999</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>320</v>
@@ -2138,7 +2155,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>117711</v>
+        <v>116382.07753699999</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2219,7 +2236,7 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>103158.3</v>
+        <v>101829.37753699999</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -3814,13 +3831,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:DK74"/>
+  <dimension ref="A1:DK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4127,7 +4144,7 @@
         <v>18500</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" ref="AT4:AW4" si="12">+AT4*1.01</f>
+        <f t="shared" ref="AU4:AW4" si="12">+AT4*1.01</f>
         <v>18685</v>
       </c>
       <c r="AV4" s="2">
@@ -4371,18 +4388,28 @@
         <v>2096.6999999999998</v>
       </c>
       <c r="V8" s="2">
-        <f>+U8+25</f>
-        <v>2121.6999999999998</v>
+        <v>2240.4</v>
       </c>
       <c r="W8" s="2">
-        <f>+V8+25</f>
-        <v>2146.6999999999998</v>
+        <v>2274.3000000000002</v>
       </c>
       <c r="X8" s="2">
         <v>2333.3000000000002</v>
       </c>
       <c r="Y8" s="2">
         <v>2483.6</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>+V8*1.05</f>
+        <v>2352.42</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>+W8*1.05</f>
+        <v>2388.0150000000003</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>+X8*1.05</f>
+        <v>2449.9650000000001</v>
       </c>
       <c r="AJ8" s="2">
         <f>SUM(M8:P8)</f>
@@ -4393,76 +4420,76 @@
         <v>7687.1</v>
       </c>
       <c r="AL8" s="2">
-        <f>+AK8*1.2</f>
-        <v>9224.52</v>
+        <f>SUM(U8:X8)</f>
+        <v>8944.7000000000007</v>
       </c>
       <c r="AM8" s="2">
         <f>+AL8*1.1</f>
-        <v>10146.972000000002</v>
+        <v>9839.1700000000019</v>
       </c>
       <c r="AN8" s="2">
         <f>+AM8*1.02</f>
-        <v>10349.911440000002</v>
+        <v>10035.953400000002</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" ref="AO8:AV8" si="21">+AN8*1.02</f>
-        <v>10556.909668800003</v>
+        <v>10236.672468000002</v>
       </c>
       <c r="AP8" s="2">
         <f t="shared" si="21"/>
-        <v>10768.047862176003</v>
+        <v>10441.405917360004</v>
       </c>
       <c r="AQ8" s="2">
         <f t="shared" si="21"/>
-        <v>10983.408819419523</v>
+        <v>10650.234035707204</v>
       </c>
       <c r="AR8" s="2">
         <f t="shared" si="21"/>
-        <v>11203.076995807913</v>
+        <v>10863.238716421349</v>
       </c>
       <c r="AS8" s="2">
         <f t="shared" si="21"/>
-        <v>11427.138535724071</v>
+        <v>11080.503490749776</v>
       </c>
       <c r="AT8" s="2">
         <f t="shared" si="21"/>
-        <v>11655.681306438551</v>
+        <v>11302.113560564771</v>
       </c>
       <c r="AU8" s="2">
         <f t="shared" si="21"/>
-        <v>11888.794932567323</v>
+        <v>11528.155831776066</v>
       </c>
       <c r="AV8" s="2">
         <f t="shared" si="21"/>
-        <v>12126.570831218671</v>
+        <v>11758.718948411588</v>
       </c>
       <c r="AW8" s="2">
         <f>+AV8*0.5</f>
-        <v>6063.2854156093354</v>
+        <v>5879.359474205794</v>
       </c>
       <c r="AX8" s="2">
         <f>+AW8*0.1</f>
-        <v>606.32854156093356</v>
+        <v>587.9359474205794</v>
       </c>
       <c r="AY8" s="2">
         <f t="shared" ref="AY8:BC8" si="22">+AX8*0.1</f>
-        <v>60.632854156093359</v>
+        <v>58.793594742057941</v>
       </c>
       <c r="AZ8" s="2">
         <f t="shared" si="22"/>
-        <v>6.0632854156093359</v>
+        <v>5.8793594742057946</v>
       </c>
       <c r="BA8" s="2">
         <f t="shared" si="22"/>
-        <v>0.60632854156093363</v>
+        <v>0.58793594742057953</v>
       </c>
       <c r="BB8" s="2">
         <f t="shared" si="22"/>
-        <v>6.0632854156093367E-2</v>
+        <v>5.8793594742057954E-2</v>
       </c>
       <c r="BC8" s="2">
         <f t="shared" si="22"/>
-        <v>6.0632854156093367E-3</v>
+        <v>5.879359474205796E-3</v>
       </c>
     </row>
     <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4523,9 +4550,7 @@
       <c r="T9" s="12">
         <v>34</v>
       </c>
-      <c r="U9" s="12">
-        <v>278.10000000000002</v>
-      </c>
+      <c r="U9" s="12"/>
       <c r="AJ9" s="2">
         <f t="shared" ref="AJ9:AJ14" si="23">SUM(M9:P9)</f>
         <v>420.1</v>
@@ -4534,77 +4559,8 @@
         <f t="shared" si="20"/>
         <v>180</v>
       </c>
-      <c r="AL9" s="2">
-        <f>+AK9*0.9</f>
-        <v>162</v>
-      </c>
-      <c r="AM9" s="2">
-        <f t="shared" ref="AM9:AX9" si="24">+AL9*0.9</f>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="AN9" s="2">
-        <f t="shared" si="24"/>
-        <v>131.22000000000003</v>
-      </c>
-      <c r="AO9" s="2">
-        <f t="shared" si="24"/>
-        <v>118.09800000000003</v>
-      </c>
-      <c r="AP9" s="2">
-        <f t="shared" si="24"/>
-        <v>106.28820000000003</v>
-      </c>
-      <c r="AQ9" s="2">
-        <f t="shared" si="24"/>
-        <v>95.659380000000027</v>
-      </c>
-      <c r="AR9" s="2">
-        <f t="shared" si="24"/>
-        <v>86.093442000000024</v>
-      </c>
-      <c r="AS9" s="2">
-        <f t="shared" si="24"/>
-        <v>77.484097800000029</v>
-      </c>
-      <c r="AT9" s="2">
-        <f t="shared" si="24"/>
-        <v>69.735688020000026</v>
-      </c>
-      <c r="AU9" s="2">
-        <f t="shared" si="24"/>
-        <v>62.762119218000024</v>
-      </c>
-      <c r="AV9" s="2">
-        <f t="shared" si="24"/>
-        <v>56.485907296200025</v>
-      </c>
-      <c r="AW9" s="2">
-        <f t="shared" si="24"/>
-        <v>50.837316566580022</v>
-      </c>
-      <c r="AX9" s="2">
-        <f t="shared" si="24"/>
-        <v>45.753584909922019</v>
-      </c>
-      <c r="AY9" s="2">
-        <f t="shared" ref="AY9:AY12" si="25">+AX9*0.9</f>
-        <v>41.178226418929817</v>
-      </c>
-      <c r="AZ9" s="2">
-        <f t="shared" ref="AZ9:AZ12" si="26">+AY9*0.9</f>
-        <v>37.060403777036839</v>
-      </c>
-      <c r="BA9" s="2">
-        <f t="shared" ref="BA9:BA12" si="27">+AZ9*0.9</f>
-        <v>33.35436339933316</v>
-      </c>
-      <c r="BB9" s="2">
-        <f t="shared" ref="BB9:BB12" si="28">+BA9*0.9</f>
-        <v>30.018927059399843</v>
-      </c>
-      <c r="BC9" s="2">
-        <f t="shared" ref="BC9:BC12" si="29">+BB9*0.9</f>
-        <v>27.017034353459859</v>
+      <c r="AL9" s="29" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4674,77 +4630,8 @@
         <f t="shared" si="20"/>
         <v>511.29999999999995</v>
       </c>
-      <c r="AL10" s="2">
-        <f t="shared" ref="AL10:AX10" si="30">+AK10*0.9</f>
-        <v>460.16999999999996</v>
-      </c>
-      <c r="AM10" s="2">
-        <f t="shared" si="30"/>
-        <v>414.15299999999996</v>
-      </c>
-      <c r="AN10" s="2">
-        <f t="shared" si="30"/>
-        <v>372.73769999999996</v>
-      </c>
-      <c r="AO10" s="2">
-        <f t="shared" si="30"/>
-        <v>335.46392999999995</v>
-      </c>
-      <c r="AP10" s="2">
-        <f t="shared" si="30"/>
-        <v>301.91753699999998</v>
-      </c>
-      <c r="AQ10" s="2">
-        <f t="shared" si="30"/>
-        <v>271.72578329999999</v>
-      </c>
-      <c r="AR10" s="2">
-        <f t="shared" si="30"/>
-        <v>244.55320497</v>
-      </c>
-      <c r="AS10" s="2">
-        <f t="shared" si="30"/>
-        <v>220.09788447299999</v>
-      </c>
-      <c r="AT10" s="2">
-        <f t="shared" si="30"/>
-        <v>198.0880960257</v>
-      </c>
-      <c r="AU10" s="2">
-        <f t="shared" si="30"/>
-        <v>178.27928642313</v>
-      </c>
-      <c r="AV10" s="2">
-        <f t="shared" si="30"/>
-        <v>160.45135778081701</v>
-      </c>
-      <c r="AW10" s="2">
-        <f t="shared" si="30"/>
-        <v>144.40622200273532</v>
-      </c>
-      <c r="AX10" s="2">
-        <f t="shared" si="30"/>
-        <v>129.96559980246178</v>
-      </c>
-      <c r="AY10" s="2">
-        <f t="shared" si="25"/>
-        <v>116.96903982221561</v>
-      </c>
-      <c r="AZ10" s="2">
-        <f t="shared" si="26"/>
-        <v>105.27213583999405</v>
-      </c>
-      <c r="BA10" s="2">
-        <f t="shared" si="27"/>
-        <v>94.744922255994652</v>
-      </c>
-      <c r="BB10" s="2">
-        <f t="shared" si="28"/>
-        <v>85.27043003039519</v>
-      </c>
-      <c r="BC10" s="2">
-        <f t="shared" si="29"/>
-        <v>76.743387027355666</v>
+      <c r="AL10" s="29" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4769,12 +4656,80 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="12">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="V11" s="2">
+        <v>252.8</v>
+      </c>
+      <c r="W11" s="2">
+        <v>209.3</v>
+      </c>
       <c r="X11" s="2">
         <v>184.4</v>
       </c>
       <c r="Y11" s="2">
         <v>207</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>+Y11</f>
+        <v>207</v>
+      </c>
+      <c r="AA11" s="2">
+        <f>+Z11</f>
+        <v>207</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>+AA11</f>
+        <v>207</v>
+      </c>
+      <c r="AL11" s="2">
+        <f>SUM(U11:X11)</f>
+        <v>924.6</v>
+      </c>
+      <c r="AM11" s="2">
+        <f>+AL11*1.01</f>
+        <v>933.846</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" ref="AN11:AW11" si="24">+AM11*1.01</f>
+        <v>943.18446000000006</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="24"/>
+        <v>952.61630460000003</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="24"/>
+        <v>962.142467646</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="24"/>
+        <v>971.76389232246004</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="24"/>
+        <v>981.48153124568466</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="24"/>
+        <v>991.29634655814152</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="24"/>
+        <v>1001.209310023723</v>
+      </c>
+      <c r="AU11" s="2">
+        <f t="shared" si="24"/>
+        <v>1011.2214031239603</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="24"/>
+        <v>1021.3336171551999</v>
+      </c>
+      <c r="AW11" s="2">
+        <f t="shared" si="24"/>
+        <v>1031.5469533267519</v>
       </c>
     </row>
     <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4844,73 +4799,8 @@
         <f>SUM(Q12:T12)</f>
         <v>553.4</v>
       </c>
-      <c r="AL12" s="2">
-        <f t="shared" ref="AL12:AX12" si="31">+AK12*0.9</f>
-        <v>498.06</v>
-      </c>
-      <c r="AN12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AS12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AV12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AY12" s="2">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+      <c r="AL12" s="29" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -4918,59 +4808,59 @@
         <v>24</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" ref="C13:K13" si="32">SUM(C8:C12)+C7</f>
+        <f t="shared" ref="C13:K13" si="25">SUM(C8:C12)+C7</f>
         <v>783</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>869.93299999999999</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>858.18200000000002</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>940.91300000000001</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>950</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>1257</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>1515</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>1524.4</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>1538</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" ref="L13:P13" si="33">SUM(L8:L12)</f>
+        <f t="shared" ref="L13:P13" si="26">SUM(L8:L12)</f>
         <v>1627</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1723.3</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1794</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>1984</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>2072</v>
       </c>
       <c r="Q13" s="14">
@@ -4978,28 +4868,28 @@
         <v>2097.5</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" ref="R13:X13" si="34">SUM(R8:R12)</f>
+        <f t="shared" ref="R13:W13" si="27">SUM(R8:R12)</f>
         <v>2197</v>
       </c>
       <c r="S13" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>2334.2999999999997</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>2303</v>
       </c>
       <c r="U13" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>2374.7999999999997</v>
       </c>
       <c r="V13" s="14">
-        <f t="shared" si="34"/>
-        <v>2121.6999999999998</v>
+        <f t="shared" si="27"/>
+        <v>2493.2000000000003</v>
       </c>
       <c r="W13" s="14">
-        <f t="shared" si="34"/>
-        <v>2146.6999999999998</v>
+        <f t="shared" si="27"/>
+        <v>2483.6000000000004</v>
       </c>
       <c r="X13" s="14">
         <f>+X11+X8</f>
@@ -5009,11 +4899,20 @@
         <f>SUM(Y8:Y12)</f>
         <v>2690.6</v>
       </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
+      <c r="Z13" s="14">
+        <f>SUM(Z8:Z12)</f>
+        <v>2559.42</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>SUM(AA8:AA12)</f>
+        <v>2595.0150000000003</v>
+      </c>
+      <c r="AB13" s="14">
+        <f>SUM(AB8:AB12)</f>
+        <v>2656.9650000000001</v>
+      </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13" si="35">SUM(AI8:AI12)</f>
+        <f t="shared" ref="AI13" si="28">SUM(AI8:AI12)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="13">
@@ -5026,75 +4925,75 @@
       </c>
       <c r="AL13" s="13">
         <f>SUM(AL3:AL12)</f>
-        <v>10344.75</v>
+        <v>9869.3000000000011</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" ref="AM13:AX13" si="36">SUM(AM3:AM12)</f>
-        <v>10911.925000000001</v>
+        <f t="shared" ref="AM13:AX13" si="29">SUM(AM3:AM12)</f>
+        <v>10978.016000000001</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="36"/>
-        <v>13863.869140000001</v>
+        <f t="shared" si="29"/>
+        <v>13989.137860000003</v>
       </c>
       <c r="AO13" s="13">
-        <f t="shared" si="36"/>
-        <v>18725.471598800006</v>
+        <f t="shared" si="29"/>
+        <v>18904.288772600004</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="36"/>
-        <v>21596.253599176005</v>
+        <f t="shared" si="29"/>
+        <v>21823.548385006005</v>
       </c>
       <c r="AQ13" s="13">
-        <f t="shared" si="36"/>
-        <v>24470.993982719527</v>
+        <f t="shared" si="29"/>
+        <v>24742.197928029665</v>
       </c>
       <c r="AR13" s="13">
-        <f t="shared" si="36"/>
-        <v>27354.125642777915</v>
+        <f t="shared" si="29"/>
+        <v>27665.122247667034</v>
       </c>
       <c r="AS13" s="13">
         <f>SUM(AS3:AS12)</f>
-        <v>30245.326537997073</v>
+        <v>30592.405857307916</v>
       </c>
       <c r="AT13" s="13">
-        <f t="shared" si="36"/>
-        <v>31454.317170684255</v>
+        <f t="shared" si="29"/>
+        <v>31834.134950788492</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" si="36"/>
-        <v>31855.956539210456</v>
+        <f t="shared" si="29"/>
+        <v>32265.497435902023</v>
       </c>
       <c r="AV13" s="13">
-        <f t="shared" si="36"/>
-        <v>32266.889499307705</v>
+        <f t="shared" si="29"/>
+        <v>32703.433968578807</v>
       </c>
       <c r="AW13" s="13">
-        <f t="shared" si="36"/>
-        <v>26381.144171220785</v>
+        <f t="shared" si="29"/>
+        <v>27033.521644574685</v>
       </c>
       <c r="AX13" s="13">
-        <f t="shared" si="36"/>
-        <v>21105.889095485876</v>
+        <f t="shared" si="29"/>
+        <v>20911.777316633139</v>
       </c>
       <c r="AY13" s="13">
-        <f t="shared" ref="AY13:BC13" si="37">SUM(AY3:AY12)</f>
-        <v>20745.859903301924</v>
+        <f t="shared" ref="AY13:BC13" si="30">SUM(AY3:AY12)</f>
+        <v>20585.873377646742</v>
       </c>
       <c r="AZ13" s="13">
-        <f t="shared" si="37"/>
-        <v>20880.746405766367</v>
+        <f t="shared" si="30"/>
+        <v>20738.229940207933</v>
       </c>
       <c r="BA13" s="13">
-        <f t="shared" si="37"/>
-        <v>21068.379700737958</v>
+        <f t="shared" si="30"/>
+        <v>20940.262022488489</v>
       </c>
       <c r="BB13" s="13">
-        <f t="shared" si="37"/>
-        <v>21264.420817350427</v>
+        <f t="shared" si="30"/>
+        <v>21149.129621001219</v>
       </c>
       <c r="BC13" s="13">
-        <f t="shared" si="37"/>
-        <v>3234.4353810980492</v>
+        <f t="shared" si="30"/>
+        <v>3130.6747757912922</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5150,7 +5049,7 @@
         <v>261.8</v>
       </c>
       <c r="S14" s="12">
-        <v>289.39999999999998</v>
+        <v>287</v>
       </c>
       <c r="T14" s="12">
         <v>280.89999999999998</v>
@@ -5159,18 +5058,28 @@
         <v>265</v>
       </c>
       <c r="V14" s="2">
-        <f>+V13-V15</f>
-        <v>212.16999999999985</v>
+        <v>306.8</v>
       </c>
       <c r="W14" s="2">
-        <f>+W13-W15</f>
-        <v>214.66999999999985</v>
+        <v>317</v>
       </c>
       <c r="X14" s="2">
         <v>364.2</v>
       </c>
       <c r="Y14" s="2">
         <v>335.8</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>+Z13-Z15</f>
+        <v>307.13040000000001</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>+AA13-AA15</f>
+        <v>311.40180000000009</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>+AB13-AB15</f>
+        <v>318.83579999999984</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" si="23"/>
@@ -5178,79 +5087,79 @@
       </c>
       <c r="AK14" s="2">
         <f>SUM(Q14:T14)</f>
-        <v>977.9</v>
+        <v>975.5</v>
       </c>
       <c r="AL14" s="2">
-        <f>+AL13*0.07</f>
-        <v>724.13250000000005</v>
+        <f t="shared" ref="AL14:AL17" si="31">SUM(U14:X14)</f>
+        <v>1253</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" ref="AM14:AX14" si="38">+AM13*0.07</f>
-        <v>763.8347500000001</v>
+        <f t="shared" ref="AM14:AX14" si="32">+AM13*0.07</f>
+        <v>768.46112000000016</v>
       </c>
       <c r="AN14" s="2">
-        <f t="shared" si="38"/>
-        <v>970.47083980000014</v>
+        <f t="shared" si="32"/>
+        <v>979.23965020000026</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" si="38"/>
-        <v>1310.7830119160005</v>
+        <f t="shared" si="32"/>
+        <v>1323.3002140820004</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" si="38"/>
-        <v>1511.7377519423205</v>
+        <f t="shared" si="32"/>
+        <v>1527.6483869504204</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" si="38"/>
-        <v>1712.969578790367</v>
+        <f t="shared" si="32"/>
+        <v>1731.9538549620768</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="38"/>
-        <v>1914.7887949944543</v>
+        <f t="shared" si="32"/>
+        <v>1936.5585573366925</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="38"/>
-        <v>2117.1728576597952</v>
+        <f t="shared" si="32"/>
+        <v>2141.4684100115542</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="38"/>
-        <v>2201.8022019478981</v>
+        <f t="shared" si="32"/>
+        <v>2228.3894465551948</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" si="38"/>
-        <v>2229.9169577447319</v>
+        <f t="shared" si="32"/>
+        <v>2258.5848205131419</v>
       </c>
       <c r="AV14" s="2">
-        <f t="shared" si="38"/>
-        <v>2258.6822649515398</v>
+        <f t="shared" si="32"/>
+        <v>2289.2403778005169</v>
       </c>
       <c r="AW14" s="2">
-        <f t="shared" si="38"/>
-        <v>1846.6800919854552</v>
+        <f t="shared" si="32"/>
+        <v>1892.3465151202281</v>
       </c>
       <c r="AX14" s="2">
-        <f t="shared" si="38"/>
-        <v>1477.4122366840115</v>
+        <f t="shared" si="32"/>
+        <v>1463.8244121643199</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" ref="AY14:BC14" si="39">+AY13*0.07</f>
-        <v>1452.2101932311348</v>
+        <f t="shared" ref="AY14:BC14" si="33">+AY13*0.07</f>
+        <v>1441.011136435272</v>
       </c>
       <c r="AZ14" s="2">
-        <f t="shared" si="39"/>
-        <v>1461.6522484036459</v>
+        <f t="shared" si="33"/>
+        <v>1451.6760958145555</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" si="39"/>
-        <v>1474.7865790516571</v>
+        <f t="shared" si="33"/>
+        <v>1465.8183415741944</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="39"/>
-        <v>1488.5094572145299</v>
+        <f t="shared" si="33"/>
+        <v>1480.4390734700855</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="39"/>
-        <v>226.41047667686345</v>
+        <f t="shared" si="33"/>
+        <v>219.14723430539047</v>
       </c>
     </row>
     <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5258,43 +5167,43 @@
         <v>59</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:J15" si="40">+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="34">+C13-C14</f>
         <v>671.745</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>763.09</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>805.173</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1339.9</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:L15" si="41">+K13-K14</f>
+        <f t="shared" ref="K15:L15" si="35">+K13-K14</f>
         <v>1351.818</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v>1423.9</v>
       </c>
       <c r="M15" s="12">
@@ -5318,15 +5227,15 @@
         <v>1951.7</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:T15" si="42">+R13-R14</f>
+        <f t="shared" ref="R15:T15" si="36">+R13-R14</f>
         <v>1935.2</v>
       </c>
       <c r="S15" s="12">
         <f>+S13-S14</f>
-        <v>2044.8999999999996</v>
+        <v>2047.2999999999997</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>2022.1</v>
       </c>
       <c r="U15" s="12">
@@ -5334,12 +5243,12 @@
         <v>2109.7999999999997</v>
       </c>
       <c r="V15" s="2">
-        <f>+V13*0.9</f>
-        <v>1909.53</v>
+        <f>+V13-V14</f>
+        <v>2186.4</v>
       </c>
       <c r="W15" s="2">
-        <f>+W13*0.9</f>
-        <v>1932.03</v>
+        <f>+W13-W14</f>
+        <v>2166.6000000000004</v>
       </c>
       <c r="X15" s="2">
         <f>+X13-X14</f>
@@ -5349,8 +5258,20 @@
         <f>+Y13-Y14</f>
         <v>2354.7999999999997</v>
       </c>
+      <c r="Z15" s="2">
+        <f>+Z13*0.88</f>
+        <v>2252.2896000000001</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>+AA13*0.88</f>
+        <v>2283.6132000000002</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>+AB13*0.88</f>
+        <v>2338.1292000000003</v>
+      </c>
       <c r="AI15" s="2">
-        <f t="shared" ref="AI15" si="43">+AI13-AI14</f>
+        <f t="shared" ref="AI15" si="37">+AI13-AI14</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="2">
@@ -5359,79 +5280,79 @@
       </c>
       <c r="AK15" s="2">
         <f>+AK13-AK14</f>
-        <v>7953.9</v>
+        <v>7956.2999999999993</v>
       </c>
       <c r="AL15" s="2">
         <f>+AL13-AL14</f>
-        <v>9620.6175000000003</v>
+        <v>8616.3000000000011</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" ref="AM15:AX15" si="44">+AM13-AM14</f>
-        <v>10148.090250000001</v>
+        <f t="shared" ref="AM15:AX15" si="38">+AM13-AM14</f>
+        <v>10209.554880000002</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="44"/>
-        <v>12893.3983002</v>
+        <f t="shared" si="38"/>
+        <v>13009.898209800001</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="44"/>
-        <v>17414.688586884007</v>
+        <f t="shared" si="38"/>
+        <v>17580.988558518005</v>
       </c>
       <c r="AP15" s="2">
-        <f t="shared" si="44"/>
-        <v>20084.515847233684</v>
+        <f t="shared" si="38"/>
+        <v>20295.899998055585</v>
       </c>
       <c r="AQ15" s="2">
-        <f t="shared" si="44"/>
-        <v>22758.024403929161</v>
+        <f t="shared" si="38"/>
+        <v>23010.244073067588</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="44"/>
-        <v>25439.336847783459</v>
+        <f t="shared" si="38"/>
+        <v>25728.563690330342</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="44"/>
-        <v>28128.153680337276</v>
+        <f t="shared" si="38"/>
+        <v>28450.937447296361</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="44"/>
-        <v>29252.514968736356</v>
+        <f t="shared" si="38"/>
+        <v>29605.745504233295</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" si="44"/>
-        <v>29626.039581465724</v>
+        <f t="shared" si="38"/>
+        <v>30006.912615388883</v>
       </c>
       <c r="AV15" s="2">
-        <f t="shared" si="44"/>
-        <v>30008.207234356167</v>
+        <f t="shared" si="38"/>
+        <v>30414.19359077829</v>
       </c>
       <c r="AW15" s="2">
-        <f t="shared" si="44"/>
-        <v>24534.464079235331</v>
+        <f t="shared" si="38"/>
+        <v>25141.175129454456</v>
       </c>
       <c r="AX15" s="2">
-        <f t="shared" si="44"/>
-        <v>19628.476858801863</v>
+        <f t="shared" si="38"/>
+        <v>19447.952904468821</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" ref="AY15:BC15" si="45">+AY13-AY14</f>
-        <v>19293.649710070789</v>
+        <f t="shared" ref="AY15:BC15" si="39">+AY13-AY14</f>
+        <v>19144.862241211471</v>
       </c>
       <c r="AZ15" s="2">
-        <f t="shared" si="45"/>
-        <v>19419.094157362721</v>
+        <f t="shared" si="39"/>
+        <v>19286.553844393376</v>
       </c>
       <c r="BA15" s="2">
-        <f t="shared" si="45"/>
-        <v>19593.593121686303</v>
+        <f t="shared" si="39"/>
+        <v>19474.443680914294</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" si="45"/>
-        <v>19775.911360135899</v>
+        <f t="shared" si="39"/>
+        <v>19668.690547531132</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="45"/>
-        <v>3008.024904421186</v>
+        <f t="shared" si="39"/>
+        <v>2911.5275414859016</v>
       </c>
     </row>
     <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5484,10 +5405,10 @@
         <v>167</v>
       </c>
       <c r="R16" s="12">
-        <v>215.3</v>
+        <v>173.3</v>
       </c>
       <c r="S16" s="12">
-        <v>246.8</v>
+        <v>180.4</v>
       </c>
       <c r="T16" s="12">
         <v>225.6</v>
@@ -5496,12 +5417,10 @@
         <v>196.9</v>
       </c>
       <c r="V16" s="2">
-        <f>+R16</f>
-        <v>215.3</v>
+        <v>219.6</v>
       </c>
       <c r="W16" s="2">
-        <f>+S16</f>
-        <v>246.8</v>
+        <v>215.7</v>
       </c>
       <c r="X16" s="2">
         <v>285.60000000000002</v>
@@ -5509,6 +5428,18 @@
       <c r="Y16" s="2">
         <v>272</v>
       </c>
+      <c r="Z16" s="2">
+        <f>+V16</f>
+        <v>219.6</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>+W16</f>
+        <v>215.7</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>+X16</f>
+        <v>285.60000000000002</v>
+      </c>
       <c r="AI16" s="2">
         <v>609</v>
       </c>
@@ -5516,80 +5447,80 @@
         <v>673</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" ref="AK16:AK17" si="46">SUM(Q16:T16)</f>
-        <v>854.7</v>
+        <f t="shared" ref="AK16:AK17" si="40">SUM(Q16:T16)</f>
+        <v>746.30000000000007</v>
       </c>
       <c r="AL16" s="2">
-        <f>+AL13*0.1</f>
-        <v>1034.4750000000001</v>
+        <f t="shared" si="31"/>
+        <v>917.80000000000007</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" ref="AM16:AX16" si="47">+AM13*0.1</f>
-        <v>1091.1925000000001</v>
+        <f t="shared" ref="AM16:AX16" si="41">+AM13*0.1</f>
+        <v>1097.8016000000002</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="47"/>
-        <v>1386.3869140000002</v>
+        <f t="shared" si="41"/>
+        <v>1398.9137860000003</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="47"/>
-        <v>1872.5471598800007</v>
+        <f t="shared" si="41"/>
+        <v>1890.4288772600005</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="47"/>
-        <v>2159.6253599176007</v>
+        <f t="shared" si="41"/>
+        <v>2182.3548385006006</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="47"/>
-        <v>2447.0993982719529</v>
+        <f t="shared" si="41"/>
+        <v>2474.2197928029668</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="47"/>
-        <v>2735.4125642777917</v>
+        <f t="shared" si="41"/>
+        <v>2766.5122247667036</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="47"/>
-        <v>3024.5326537997075</v>
+        <f t="shared" si="41"/>
+        <v>3059.2405857307917</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="47"/>
-        <v>3145.4317170684258</v>
+        <f t="shared" si="41"/>
+        <v>3183.4134950788493</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="47"/>
-        <v>3185.5956539210456</v>
+        <f t="shared" si="41"/>
+        <v>3226.5497435902025</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="47"/>
-        <v>3226.6889499307708</v>
+        <f t="shared" si="41"/>
+        <v>3270.3433968578811</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="47"/>
-        <v>2638.1144171220785</v>
+        <f t="shared" si="41"/>
+        <v>2703.3521644574685</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="47"/>
-        <v>2110.5889095485877</v>
+        <f t="shared" si="41"/>
+        <v>2091.1777316633138</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" ref="AY16:BC16" si="48">+AY13*0.1</f>
-        <v>2074.5859903301925</v>
+        <f t="shared" ref="AY16:BC16" si="42">+AY13*0.1</f>
+        <v>2058.5873377646744</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="48"/>
-        <v>2088.0746405766367</v>
+        <f t="shared" si="42"/>
+        <v>2073.8229940207934</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="48"/>
-        <v>2106.837970073796</v>
+        <f t="shared" si="42"/>
+        <v>2094.0262022488491</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="48"/>
-        <v>2126.4420817350428</v>
+        <f t="shared" si="42"/>
+        <v>2114.9129621001221</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="48"/>
-        <v>323.44353810980493</v>
+        <f t="shared" si="42"/>
+        <v>313.06747757912922</v>
       </c>
     </row>
     <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5642,10 +5573,10 @@
         <v>520</v>
       </c>
       <c r="R17" s="12">
-        <v>600.1</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="S17" s="12">
-        <v>645</v>
+        <v>548.5</v>
       </c>
       <c r="T17" s="12">
         <v>623.20000000000005</v>
@@ -5654,12 +5585,10 @@
         <v>663.5</v>
       </c>
       <c r="V17" s="2">
-        <f>+U17</f>
-        <v>663.5</v>
+        <v>708.4</v>
       </c>
       <c r="W17" s="2">
-        <f>+V17</f>
-        <v>663.5</v>
+        <v>726</v>
       </c>
       <c r="X17" s="2">
         <v>698.8</v>
@@ -5667,6 +5596,18 @@
       <c r="Y17" s="2">
         <v>669.7</v>
       </c>
+      <c r="Z17" s="2">
+        <f>+V17*0.9</f>
+        <v>637.55999999999995</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>+W17*0.9</f>
+        <v>653.4</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>+X17*0.9</f>
+        <v>628.91999999999996</v>
+      </c>
       <c r="AI17" s="2">
         <v>1372</v>
       </c>
@@ -5674,8 +5615,12 @@
         <v>1658</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="46"/>
-        <v>2388.3000000000002</v>
+        <f t="shared" si="40"/>
+        <v>2206.5</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="31"/>
+        <v>2796.7</v>
       </c>
     </row>
     <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5683,43 +5628,43 @@
         <v>62</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:D18" si="49">SUM(C16:C17)</f>
+        <f t="shared" ref="C18:D18" si="43">SUM(C16:C17)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>591.09100000000001</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:G18" si="50">SUM(E16:E17)</f>
+        <f t="shared" ref="E18:G18" si="44">SUM(E16:E17)</f>
         <v>486.53499999999997</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>535.59300000000007</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="44"/>
         <v>715.62199999999996</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ref="H18:I18" si="51">SUM(H16:H17)</f>
+        <f t="shared" ref="H18:I18" si="45">SUM(H16:H17)</f>
         <v>675.28800000000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="45"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18" si="52">SUM(J16:J17)</f>
+        <f t="shared" ref="J18" si="46">SUM(J16:J17)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:L18" si="53">SUM(K16:K17)</f>
+        <f t="shared" ref="K18:L18" si="47">SUM(K16:K17)</f>
         <v>678.048</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>539</v>
       </c>
       <c r="M18" s="12">
@@ -5727,11 +5672,11 @@
         <v>531</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ref="N18:Q18" si="54">SUM(N16:N17)</f>
+        <f t="shared" ref="N18:Q18" si="48">SUM(N16:N17)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P18" s="12">
@@ -5739,127 +5684,136 @@
         <v>703</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>687</v>
       </c>
       <c r="R18" s="12">
         <f>SUM(R16:R17)</f>
-        <v>815.40000000000009</v>
+        <v>688.09999999999991</v>
       </c>
       <c r="S18" s="12">
         <f>SUM(S16:S17)</f>
-        <v>891.8</v>
+        <v>728.9</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" ref="T18:U18" si="55">SUM(T16:T17)</f>
+        <f t="shared" ref="T18:U18" si="49">SUM(T16:T17)</f>
         <v>848.80000000000007</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>860.4</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" ref="V18:Y18" si="56">SUM(V16:V17)</f>
-        <v>878.8</v>
+        <f t="shared" ref="V18:Y18" si="50">SUM(V16:V17)</f>
+        <v>928</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" si="56"/>
-        <v>910.3</v>
+        <f t="shared" si="50"/>
+        <v>941.7</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>984.4</v>
       </c>
       <c r="Y18" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>941.7</v>
       </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+      <c r="Z18" s="12">
+        <f t="shared" ref="Z18:AB18" si="51">SUM(Z16:Z17)</f>
+        <v>857.16</v>
+      </c>
+      <c r="AA18" s="12">
+        <f t="shared" si="51"/>
+        <v>869.09999999999991</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="51"/>
+        <v>914.52</v>
+      </c>
       <c r="AI18" s="12">
-        <f t="shared" ref="AI18:AK18" si="57">SUM(AI16:AI17)</f>
+        <f t="shared" ref="AI18:AK18" si="52">SUM(AI16:AI17)</f>
         <v>1981</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>2331</v>
       </c>
       <c r="AK18" s="12">
-        <f t="shared" si="57"/>
-        <v>3243</v>
+        <f t="shared" si="52"/>
+        <v>2952.8</v>
       </c>
       <c r="AL18" s="12">
-        <f t="shared" ref="AL18:AX18" si="58">SUM(AL16:AL17)</f>
-        <v>1034.4750000000001</v>
+        <f t="shared" ref="AL18:AX18" si="53">SUM(AL16:AL17)</f>
+        <v>3714.5</v>
       </c>
       <c r="AM18" s="12">
-        <f t="shared" si="58"/>
-        <v>1091.1925000000001</v>
+        <f t="shared" si="53"/>
+        <v>1097.8016000000002</v>
       </c>
       <c r="AN18" s="12">
-        <f t="shared" si="58"/>
-        <v>1386.3869140000002</v>
+        <f t="shared" si="53"/>
+        <v>1398.9137860000003</v>
       </c>
       <c r="AO18" s="12">
-        <f t="shared" si="58"/>
-        <v>1872.5471598800007</v>
+        <f t="shared" si="53"/>
+        <v>1890.4288772600005</v>
       </c>
       <c r="AP18" s="12">
-        <f t="shared" si="58"/>
-        <v>2159.6253599176007</v>
+        <f t="shared" si="53"/>
+        <v>2182.3548385006006</v>
       </c>
       <c r="AQ18" s="12">
-        <f t="shared" si="58"/>
-        <v>2447.0993982719529</v>
+        <f t="shared" si="53"/>
+        <v>2474.2197928029668</v>
       </c>
       <c r="AR18" s="12">
-        <f t="shared" si="58"/>
-        <v>2735.4125642777917</v>
+        <f t="shared" si="53"/>
+        <v>2766.5122247667036</v>
       </c>
       <c r="AS18" s="12">
-        <f t="shared" si="58"/>
-        <v>3024.5326537997075</v>
+        <f t="shared" si="53"/>
+        <v>3059.2405857307917</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="58"/>
-        <v>3145.4317170684258</v>
+        <f t="shared" si="53"/>
+        <v>3183.4134950788493</v>
       </c>
       <c r="AU18" s="12">
-        <f t="shared" si="58"/>
-        <v>3185.5956539210456</v>
+        <f t="shared" si="53"/>
+        <v>3226.5497435902025</v>
       </c>
       <c r="AV18" s="12">
-        <f t="shared" si="58"/>
-        <v>3226.6889499307708</v>
+        <f t="shared" si="53"/>
+        <v>3270.3433968578811</v>
       </c>
       <c r="AW18" s="12">
-        <f t="shared" si="58"/>
-        <v>2638.1144171220785</v>
+        <f t="shared" si="53"/>
+        <v>2703.3521644574685</v>
       </c>
       <c r="AX18" s="12">
-        <f t="shared" si="58"/>
-        <v>2110.5889095485877</v>
+        <f t="shared" si="53"/>
+        <v>2091.1777316633138</v>
       </c>
       <c r="AY18" s="12">
-        <f t="shared" ref="AY18:BC18" si="59">SUM(AY16:AY17)</f>
-        <v>2074.5859903301925</v>
+        <f t="shared" ref="AY18:BC18" si="54">SUM(AY16:AY17)</f>
+        <v>2058.5873377646744</v>
       </c>
       <c r="AZ18" s="12">
-        <f t="shared" si="59"/>
-        <v>2088.0746405766367</v>
+        <f t="shared" si="54"/>
+        <v>2073.8229940207934</v>
       </c>
       <c r="BA18" s="12">
-        <f t="shared" si="59"/>
-        <v>2106.837970073796</v>
+        <f t="shared" si="54"/>
+        <v>2094.0262022488491</v>
       </c>
       <c r="BB18" s="12">
-        <f t="shared" si="59"/>
-        <v>2126.4420817350428</v>
+        <f t="shared" si="54"/>
+        <v>2114.9129621001221</v>
       </c>
       <c r="BC18" s="12">
-        <f t="shared" si="59"/>
-        <v>323.44353810980493</v>
+        <f t="shared" si="54"/>
+        <v>313.06747757912922</v>
       </c>
     </row>
     <row r="19" spans="2:115" x14ac:dyDescent="0.2">
@@ -5867,43 +5821,43 @@
         <v>63</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:D19" si="60">C15-C18</f>
+        <f t="shared" ref="C19:D19" si="55">C15-C18</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>156.553</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" ref="E19:G19" si="61">E15-E18</f>
+        <f t="shared" ref="E19:G19" si="56">E15-E18</f>
         <v>276.55500000000006</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>269.57999999999993</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>102.46400000000006</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19:I19" si="62">H15-H18</f>
+        <f t="shared" ref="H19:I19" si="57">H15-H18</f>
         <v>396.70000000000005</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="57"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19" si="63">J15-J18</f>
+        <f t="shared" ref="J19" si="58">J15-J18</f>
         <v>727.2</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:L19" si="64">K15-K18</f>
+        <f t="shared" ref="K19:L19" si="59">K15-K18</f>
         <v>673.77</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M19" s="12">
@@ -5911,11 +5865,11 @@
         <v>1000</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ref="N19:Q19" si="65">N15-N18</f>
+        <f t="shared" ref="N19:Q19" si="60">N15-N18</f>
         <v>922.7</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P19" s="12">
@@ -5923,127 +5877,136 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="60"/>
         <v>1264.7</v>
       </c>
       <c r="R19" s="12">
         <f>R15-R18</f>
-        <v>1119.8</v>
+        <v>1247.1000000000001</v>
       </c>
       <c r="S19" s="12">
         <f>S15-S18</f>
-        <v>1153.0999999999997</v>
+        <v>1318.3999999999996</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" ref="T19:U19" si="66">T15-T18</f>
+        <f t="shared" ref="T19:U19" si="61">T15-T18</f>
         <v>1173.2999999999997</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>1249.3999999999996</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" ref="V19:Y19" si="67">V15-V18</f>
-        <v>1030.73</v>
+        <f t="shared" ref="V19:Y19" si="62">V15-V18</f>
+        <v>1258.4000000000001</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="67"/>
-        <v>1021.73</v>
+        <f t="shared" si="62"/>
+        <v>1224.9000000000003</v>
       </c>
       <c r="X19" s="12">
         <f>X15-X18</f>
         <v>1169.1000000000004</v>
       </c>
       <c r="Y19" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>1413.0999999999997</v>
       </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="Z19" s="12">
+        <f t="shared" ref="Z19:AB19" si="63">Z15-Z18</f>
+        <v>1395.1296000000002</v>
+      </c>
+      <c r="AA19" s="12">
+        <f t="shared" si="63"/>
+        <v>1414.5132000000003</v>
+      </c>
+      <c r="AB19" s="12">
+        <f t="shared" si="63"/>
+        <v>1423.6092000000003</v>
+      </c>
       <c r="AI19" s="12">
-        <f t="shared" ref="AI19:AK19" si="68">AI15-AI18</f>
+        <f t="shared" ref="AI19:AK19" si="64">AI15-AI18</f>
         <v>-1981</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>4338.0879999999997</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" si="68"/>
-        <v>4710.8999999999996</v>
+        <f t="shared" si="64"/>
+        <v>5003.4999999999991</v>
       </c>
       <c r="AL19" s="12">
-        <f t="shared" ref="AL19:AX19" si="69">AL15-AL18</f>
-        <v>8586.1424999999999</v>
+        <f t="shared" ref="AL19:AX19" si="65">AL15-AL18</f>
+        <v>4901.8000000000011</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" si="69"/>
-        <v>9056.8977500000001</v>
+        <f t="shared" si="65"/>
+        <v>9111.7532800000008</v>
       </c>
       <c r="AN19" s="12">
-        <f t="shared" si="69"/>
-        <v>11507.0113862</v>
+        <f t="shared" si="65"/>
+        <v>11610.984423800001</v>
       </c>
       <c r="AO19" s="12">
-        <f t="shared" si="69"/>
-        <v>15542.141427004006</v>
+        <f t="shared" si="65"/>
+        <v>15690.559681258004</v>
       </c>
       <c r="AP19" s="12">
-        <f t="shared" si="69"/>
-        <v>17924.890487316083</v>
+        <f t="shared" si="65"/>
+        <v>18113.545159554986</v>
       </c>
       <c r="AQ19" s="12">
-        <f t="shared" si="69"/>
-        <v>20310.925005657209</v>
+        <f t="shared" si="65"/>
+        <v>20536.024280264621</v>
       </c>
       <c r="AR19" s="12">
-        <f t="shared" si="69"/>
-        <v>22703.924283505668</v>
+        <f t="shared" si="65"/>
+        <v>22962.05146556364</v>
       </c>
       <c r="AS19" s="12">
-        <f t="shared" si="69"/>
-        <v>25103.62102653757</v>
+        <f t="shared" si="65"/>
+        <v>25391.696861565568</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="69"/>
-        <v>26107.083251667929</v>
+        <f t="shared" si="65"/>
+        <v>26422.332009154445</v>
       </c>
       <c r="AU19" s="12">
-        <f t="shared" si="69"/>
-        <v>26440.443927544678</v>
+        <f t="shared" si="65"/>
+        <v>26780.362871798679</v>
       </c>
       <c r="AV19" s="12">
-        <f t="shared" si="69"/>
-        <v>26781.518284425394</v>
+        <f t="shared" si="65"/>
+        <v>27143.850193920407</v>
       </c>
       <c r="AW19" s="12">
-        <f t="shared" si="69"/>
-        <v>21896.349662113251</v>
+        <f t="shared" si="65"/>
+        <v>22437.822964996987</v>
       </c>
       <c r="AX19" s="12">
-        <f t="shared" si="69"/>
-        <v>17517.887949253276</v>
+        <f t="shared" si="65"/>
+        <v>17356.775172805508</v>
       </c>
       <c r="AY19" s="12">
-        <f t="shared" ref="AY19:BC19" si="70">AY15-AY18</f>
-        <v>17219.063719740596</v>
+        <f t="shared" ref="AY19:BC19" si="66">AY15-AY18</f>
+        <v>17086.274903446796</v>
       </c>
       <c r="AZ19" s="12">
-        <f t="shared" si="70"/>
-        <v>17331.019516786084</v>
+        <f t="shared" si="66"/>
+        <v>17212.730850372584</v>
       </c>
       <c r="BA19" s="12">
-        <f t="shared" si="70"/>
-        <v>17486.755151612506</v>
+        <f t="shared" si="66"/>
+        <v>17380.417478665444</v>
       </c>
       <c r="BB19" s="12">
-        <f t="shared" si="70"/>
-        <v>17649.469278400855</v>
+        <f t="shared" si="66"/>
+        <v>17553.777585431009</v>
       </c>
       <c r="BC19" s="12">
-        <f t="shared" si="70"/>
-        <v>2684.5813663113809</v>
+        <f t="shared" si="66"/>
+        <v>2598.4600639067721</v>
       </c>
     </row>
     <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6123,98 +6086,112 @@
         <v>74.400000000000006</v>
       </c>
       <c r="U20" s="12">
-        <v>122.6</v>
+        <f>122.6-11.4-5.1</f>
+        <v>106.1</v>
       </c>
       <c r="V20" s="2">
-        <f>+U20</f>
-        <v>122.6</v>
+        <f>144.7-11.2+2</f>
+        <v>135.5</v>
       </c>
       <c r="W20" s="2">
-        <f>+V20</f>
-        <v>122.6</v>
+        <f>167.9-10.9-9.7</f>
+        <v>147.30000000000001</v>
       </c>
       <c r="X20" s="2">
         <f>179.5-10.6-9.8</f>
         <v>159.1</v>
       </c>
       <c r="Y20" s="2">
-        <v>-4.2</v>
+        <f>181.2-10.4-4.2</f>
+        <v>166.6</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>+Y20</f>
+        <v>166.6</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>+Z20</f>
+        <v>166.6</v>
+      </c>
+      <c r="AB20" s="2">
+        <f>+AA20</f>
+        <v>166.6</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" ref="AK20:AK22" si="71">SUM(Q20:T20)</f>
+        <f t="shared" ref="AK20:AK22" si="67">SUM(Q20:T20)</f>
         <v>89.6</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" ref="AL20:AZ20" si="72">+AK32*$BF$30</f>
-        <v>0</v>
+        <f>SUM(U20:X20)</f>
+        <v>548</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="72"/>
-        <v>68.689139999999995</v>
+        <f t="shared" ref="AM20:AZ20" si="68">+AL32*$BF$30</f>
+        <v>137.16100000000003</v>
       </c>
       <c r="AN20" s="2">
-        <f t="shared" si="72"/>
-        <v>141.69383512000002</v>
+        <f t="shared" si="68"/>
+        <v>211.15231424000007</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" si="72"/>
-        <v>234.88347689056002</v>
+        <f t="shared" si="68"/>
+        <v>305.72940814432008</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" si="72"/>
-        <v>361.09967612171653</v>
+        <f t="shared" si="68"/>
+        <v>433.69972085953867</v>
       </c>
       <c r="AQ20" s="2">
-        <f t="shared" si="72"/>
-        <v>507.38759742921894</v>
+        <f t="shared" si="68"/>
+        <v>582.07767990285492</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="72"/>
-        <v>673.93409825391041</v>
+        <f t="shared" si="68"/>
+        <v>751.02249558419476</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="72"/>
-        <v>860.95696530798705</v>
+        <f t="shared" si="68"/>
+        <v>940.72708727337738</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="72"/>
-        <v>1068.6735892427514</v>
+        <f t="shared" si="68"/>
+        <v>1151.386478864089</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="72"/>
-        <v>1286.0796439700371</v>
+        <f t="shared" si="68"/>
+        <v>1371.9762267682372</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="72"/>
-        <v>1507.8918325421546</v>
+        <f t="shared" si="68"/>
+        <v>1597.1949395567726</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" si="72"/>
-        <v>1734.2071134778951</v>
+        <f t="shared" si="68"/>
+        <v>1827.12330062459</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="72"/>
-        <v>1923.2515676826242</v>
+        <f t="shared" si="68"/>
+        <v>2021.2428707495626</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="72"/>
-        <v>2078.7806838181114</v>
+        <f t="shared" si="68"/>
+        <v>2176.267015098003</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="72"/>
-        <v>2233.1634390465811</v>
+        <f t="shared" si="68"/>
+        <v>2330.3673504463618</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" ref="BA20:BC20" si="73">+AZ32*$BF$30</f>
-        <v>2389.6769026932425</v>
+        <f t="shared" ref="BA20:BC20" si="69">+AZ32*$BF$30</f>
+        <v>2486.7121360529131</v>
       </c>
       <c r="BB20" s="2">
         <f>+BA32*$BF$30</f>
-        <v>2548.6883591276883</v>
+        <v>2645.6491729706595</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="73"/>
-        <v>2710.2736202279166</v>
+        <f t="shared" si="69"/>
+        <v>2807.2445870378729</v>
       </c>
     </row>
     <row r="21" spans="2:115" x14ac:dyDescent="0.2">
@@ -6222,35 +6199,35 @@
         <v>123</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="74">+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="70">+C19+C20</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>151.78</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:F21" si="75">+E19+E20</f>
+        <f t="shared" ref="E21:F21" si="71">+E19+E20</f>
         <v>277.30200000000008</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>272.8189999999999</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="76">+G19+G20</f>
+        <f t="shared" ref="G21:J21" si="72">+G19+G20</f>
         <v>105.54400000000005</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>717.572</v>
       </c>
       <c r="K21" s="12">
@@ -6266,131 +6243,140 @@
         <v>985.8</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="77">+N19+N20</f>
+        <f t="shared" ref="N21:Q21" si="73">+N19+N20</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ref="R21" si="78">+R19+R20</f>
-        <v>1116</v>
+        <f t="shared" ref="R21" si="74">+R19+R20</f>
+        <v>1243.3000000000002</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" ref="S21" si="79">+S19+S20</f>
-        <v>1185.3999999999996</v>
+        <f t="shared" ref="S21" si="75">+S19+S20</f>
+        <v>1350.6999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21:Y21" si="80">+T19+T20</f>
+        <f t="shared" ref="T21:AB21" si="76">+T19+T20</f>
         <v>1247.6999999999998</v>
       </c>
       <c r="U21" s="12">
-        <f t="shared" si="80"/>
-        <v>1371.9999999999995</v>
+        <f t="shared" si="76"/>
+        <v>1355.4999999999995</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="80"/>
-        <v>1153.33</v>
+        <f t="shared" si="76"/>
+        <v>1393.9</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="80"/>
-        <v>1144.33</v>
+        <f t="shared" si="76"/>
+        <v>1372.2000000000003</v>
       </c>
       <c r="X21" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>1328.2000000000003</v>
       </c>
       <c r="Y21" s="12">
-        <f t="shared" si="80"/>
-        <v>1408.8999999999996</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+        <f t="shared" si="76"/>
+        <v>1579.6999999999996</v>
+      </c>
+      <c r="Z21" s="12">
+        <f t="shared" si="76"/>
+        <v>1561.7296000000001</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" si="76"/>
+        <v>1581.1132000000002</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="76"/>
+        <v>1590.2092000000002</v>
+      </c>
       <c r="AK21" s="2">
         <f>+AK19+AK20</f>
-        <v>4800.5</v>
+        <v>5093.0999999999995</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" ref="AL21:AX21" si="81">+AL19+AL20</f>
-        <v>8586.1424999999999</v>
+        <f t="shared" ref="AL21:AX21" si="77">+AL19+AL20</f>
+        <v>5449.8000000000011</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="81"/>
-        <v>9125.5868900000005</v>
+        <f t="shared" si="77"/>
+        <v>9248.9142800000009</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="81"/>
-        <v>11648.70522132</v>
+        <f t="shared" si="77"/>
+        <v>11822.136738040001</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="81"/>
-        <v>15777.024903894566</v>
+        <f t="shared" si="77"/>
+        <v>15996.289089402324</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="81"/>
-        <v>18285.9901634378</v>
+        <f t="shared" si="77"/>
+        <v>18547.244880414524</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="81"/>
-        <v>20818.31260308643</v>
+        <f t="shared" si="77"/>
+        <v>21118.101960167474</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="81"/>
-        <v>23377.858381759579</v>
+        <f t="shared" si="77"/>
+        <v>23713.073961147835</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="81"/>
-        <v>25964.577991845559</v>
+        <f t="shared" si="77"/>
+        <v>26332.423948838947</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="81"/>
-        <v>27175.756840910683</v>
+        <f t="shared" si="77"/>
+        <v>27573.718488018534</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="81"/>
-        <v>27726.523571514714</v>
+        <f t="shared" si="77"/>
+        <v>28152.339098566918</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="81"/>
-        <v>28289.410116967549</v>
+        <f t="shared" si="77"/>
+        <v>28741.045133477179</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="81"/>
-        <v>23630.556775591147</v>
+        <f t="shared" si="77"/>
+        <v>24264.946265621576</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="81"/>
-        <v>19441.139516935902</v>
+        <f t="shared" si="77"/>
+        <v>19378.018043555072</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" ref="AY21:BC21" si="82">+AY19+AY20</f>
-        <v>19297.844403558709</v>
+        <f t="shared" ref="AY21:BC21" si="78">+AY19+AY20</f>
+        <v>19262.541918544797</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="82"/>
-        <v>19564.182955832664</v>
+        <f t="shared" si="78"/>
+        <v>19543.098200818946</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="82"/>
-        <v>19876.432054305747</v>
+        <f t="shared" si="78"/>
+        <v>19867.129614718357</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="82"/>
-        <v>20198.157637528544</v>
+        <f t="shared" si="78"/>
+        <v>20199.426758401671</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="82"/>
-        <v>5394.8549865392979</v>
+        <f t="shared" si="78"/>
+        <v>5405.7046509446445</v>
       </c>
     </row>
     <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6452,15 +6438,13 @@
         <v>257.89999999999998</v>
       </c>
       <c r="U22" s="12">
-        <v>191.7</v>
+        <v>214.4</v>
       </c>
       <c r="V22" s="2">
-        <f>+V21*0.15</f>
-        <v>172.99949999999998</v>
+        <v>269.39999999999998</v>
       </c>
       <c r="W22" s="2">
-        <f>+W21*0.15</f>
-        <v>171.64949999999999</v>
+        <v>256.8</v>
       </c>
       <c r="X22" s="2">
         <v>178.8</v>
@@ -6468,81 +6452,93 @@
       <c r="Y22" s="2">
         <v>261.10000000000002</v>
       </c>
+      <c r="Z22" s="2">
+        <f>+Z21*0.2</f>
+        <v>312.34592000000004</v>
+      </c>
+      <c r="AA22" s="2">
+        <f>+AA21*0.2</f>
+        <v>316.22264000000007</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>+AB21*0.2</f>
+        <v>318.04184000000009</v>
+      </c>
       <c r="AK22" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>1011.4</v>
       </c>
       <c r="AL22" s="2">
-        <f>+AL21*0.2</f>
-        <v>1717.2285000000002</v>
+        <f>SUM(U22:X22)</f>
+        <v>919.39999999999986</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AX22" si="83">+AM21*0.2</f>
-        <v>1825.1173780000001</v>
+        <f t="shared" ref="AM22:AX22" si="79">+AM21*0.2</f>
+        <v>1849.7828560000003</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" si="83"/>
-        <v>2329.7410442640003</v>
+        <f t="shared" si="79"/>
+        <v>2364.4273476080002</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" si="83"/>
-        <v>3155.4049807789133</v>
+        <f t="shared" si="79"/>
+        <v>3199.2578178804652</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" si="83"/>
-        <v>3657.19803268756</v>
+        <f t="shared" si="79"/>
+        <v>3709.4489760829051</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" si="83"/>
-        <v>4163.6625206172857</v>
+        <f t="shared" si="79"/>
+        <v>4223.6203920334947</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" si="83"/>
-        <v>4675.5716763519158</v>
+        <f t="shared" si="79"/>
+        <v>4742.6147922295668</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="83"/>
-        <v>5192.9155983691126</v>
+        <f t="shared" si="79"/>
+        <v>5266.4847897677901</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="83"/>
-        <v>5435.151368182137</v>
+        <f t="shared" si="79"/>
+        <v>5514.743697603707</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="83"/>
-        <v>5545.3047143029435</v>
+        <f t="shared" si="79"/>
+        <v>5630.4678197133835</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="83"/>
-        <v>5657.8820233935103</v>
+        <f t="shared" si="79"/>
+        <v>5748.2090266954365</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="83"/>
-        <v>4726.1113551182298</v>
+        <f t="shared" si="79"/>
+        <v>4852.9892531243158</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="83"/>
-        <v>3888.2279033871805</v>
+        <f t="shared" si="79"/>
+        <v>3875.6036087110147</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" ref="AY22:BC22" si="84">+AY21*0.2</f>
-        <v>3859.5688807117422</v>
+        <f t="shared" ref="AY22:BC22" si="80">+AY21*0.2</f>
+        <v>3852.5083837089596</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="84"/>
-        <v>3912.8365911665333</v>
+        <f t="shared" si="80"/>
+        <v>3908.6196401637894</v>
       </c>
       <c r="BA22" s="2">
         <f>+BA21*0.2</f>
-        <v>3975.2864108611498</v>
+        <v>3973.4259229436716</v>
       </c>
       <c r="BB22" s="2">
         <f>+BB21*0.2</f>
-        <v>4039.6315275057091</v>
+        <v>4039.8853516803342</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="84"/>
-        <v>1078.9709973078595</v>
+        <f t="shared" si="80"/>
+        <v>1081.1409301889289</v>
       </c>
     </row>
     <row r="23" spans="2:115" x14ac:dyDescent="0.2">
@@ -6550,35 +6546,35 @@
         <v>125</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="85">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="81">+C21-C22</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>151.78</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="86">+E21-E22</f>
+        <f t="shared" ref="E23:F23" si="82">+E21-E22</f>
         <v>225.76800000000009</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>213.10799999999989</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="87">+G21-G22</f>
+        <f t="shared" ref="G23:J23" si="83">+G21-G22</f>
         <v>92.396000000000058</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>730.072</v>
       </c>
       <c r="K23" s="12">
@@ -6594,371 +6590,380 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:Y23" si="88">+N21-N22</f>
+        <f t="shared" ref="N23:Y23" si="84">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>1002.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="88"/>
-        <v>857.4</v>
+        <f t="shared" si="84"/>
+        <v>984.70000000000016</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="88"/>
-        <v>939.49999999999966</v>
+        <f t="shared" si="84"/>
+        <v>1104.7999999999995</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="88"/>
-        <v>1180.2999999999995</v>
+        <f t="shared" si="84"/>
+        <v>1141.0999999999995</v>
       </c>
       <c r="V23" s="12">
-        <f t="shared" si="88"/>
-        <v>980.33049999999992</v>
+        <f t="shared" si="84"/>
+        <v>1124.5</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="88"/>
-        <v>972.68049999999994</v>
+        <f t="shared" si="84"/>
+        <v>1115.4000000000003</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="88"/>
-        <v>1147.7999999999997</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+        <f t="shared" si="84"/>
+        <v>1318.5999999999995</v>
+      </c>
+      <c r="Z23" s="12">
+        <f t="shared" ref="Z23:AB23" si="85">+Z21-Z22</f>
+        <v>1249.3836800000001</v>
+      </c>
+      <c r="AA23" s="12">
+        <f t="shared" si="85"/>
+        <v>1264.8905600000003</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" si="85"/>
+        <v>1272.1673600000001</v>
+      </c>
       <c r="AK23" s="2">
         <f>+AK21-AK22</f>
-        <v>3789.1</v>
+        <v>4081.6999999999994</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" ref="AL23:AR23" si="89">+AL21-AL22</f>
-        <v>6868.9139999999998</v>
+        <f t="shared" ref="AL23:AR23" si="86">+AL21-AL22</f>
+        <v>4530.4000000000015</v>
       </c>
       <c r="AM23" s="2">
+        <f t="shared" si="86"/>
+        <v>7399.1314240000011</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="86"/>
+        <v>9457.7093904320009</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="86"/>
+        <v>12797.031271521859</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="86"/>
+        <v>14837.795904331619</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="86"/>
+        <v>16894.481568133979</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="86"/>
+        <v>18970.459168918267</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" ref="AS23:AX23" si="87">+AS21-AS22</f>
+        <v>21065.939159071157</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="87"/>
+        <v>22058.974790414828</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="87"/>
+        <v>22521.871278853534</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="87"/>
+        <v>22992.836106781742</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="87"/>
+        <v>19411.95701249726</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="87"/>
+        <v>15502.414434844057</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" ref="AY23:BC23" si="88">+AY21-AY22</f>
+        <v>15410.033534835839</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="88"/>
+        <v>15634.478560655156</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="88"/>
+        <v>15893.703691774685</v>
+      </c>
+      <c r="BB23" s="2">
+        <f t="shared" si="88"/>
+        <v>16159.541406721337</v>
+      </c>
+      <c r="BC23" s="2">
+        <f t="shared" si="88"/>
+        <v>4324.5637207557156</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" ref="BD23:CI23" si="89">+BC23*(1+$BF$28)</f>
+        <v>4108.3355347179295</v>
+      </c>
+      <c r="BE23" s="2">
         <f t="shared" si="89"/>
-        <v>7300.4695120000006</v>
-      </c>
-      <c r="AN23" s="2">
+        <v>3902.9187579820327</v>
+      </c>
+      <c r="BF23" s="2">
         <f t="shared" si="89"/>
-        <v>9318.9641770560011</v>
-      </c>
-      <c r="AO23" s="2">
+        <v>3707.772820082931</v>
+      </c>
+      <c r="BG23" s="2">
         <f t="shared" si="89"/>
-        <v>12621.619923115653</v>
-      </c>
-      <c r="AP23" s="2">
+        <v>3522.3841790787842</v>
+      </c>
+      <c r="BH23" s="2">
         <f t="shared" si="89"/>
-        <v>14628.79213075024</v>
-      </c>
-      <c r="AQ23" s="2">
+        <v>3346.2649701248447</v>
+      </c>
+      <c r="BI23" s="2">
         <f t="shared" si="89"/>
-        <v>16654.650082469143</v>
-      </c>
-      <c r="AR23" s="2">
+        <v>3178.9517216186023</v>
+      </c>
+      <c r="BJ23" s="2">
         <f t="shared" si="89"/>
-        <v>18702.286705407663</v>
-      </c>
-      <c r="AS23" s="2">
-        <f t="shared" ref="AS23:AX23" si="90">+AS21-AS22</f>
-        <v>20771.662393476447</v>
-      </c>
-      <c r="AT23" s="2">
+        <v>3020.004135537672</v>
+      </c>
+      <c r="BK23" s="2">
+        <f t="shared" si="89"/>
+        <v>2869.0039287607883</v>
+      </c>
+      <c r="BL23" s="2">
+        <f t="shared" si="89"/>
+        <v>2725.5537323227486</v>
+      </c>
+      <c r="BM23" s="2">
+        <f t="shared" si="89"/>
+        <v>2589.2760457066111</v>
+      </c>
+      <c r="BN23" s="2">
+        <f t="shared" si="89"/>
+        <v>2459.8122434212805</v>
+      </c>
+      <c r="BO23" s="2">
+        <f t="shared" si="89"/>
+        <v>2336.8216312502163</v>
+      </c>
+      <c r="BP23" s="2">
+        <f t="shared" si="89"/>
+        <v>2219.9805496877052</v>
+      </c>
+      <c r="BQ23" s="2">
+        <f t="shared" si="89"/>
+        <v>2108.9815222033199</v>
+      </c>
+      <c r="BR23" s="2">
+        <f t="shared" si="89"/>
+        <v>2003.5324460931538</v>
+      </c>
+      <c r="BS23" s="2">
+        <f t="shared" si="89"/>
+        <v>1903.3558237884961</v>
+      </c>
+      <c r="BT23" s="2">
+        <f t="shared" si="89"/>
+        <v>1808.1880325990712</v>
+      </c>
+      <c r="BU23" s="2">
+        <f t="shared" si="89"/>
+        <v>1717.7786309691176</v>
+      </c>
+      <c r="BV23" s="2">
+        <f t="shared" si="89"/>
+        <v>1631.8896994206616</v>
+      </c>
+      <c r="BW23" s="2">
+        <f t="shared" si="89"/>
+        <v>1550.2952144496285</v>
+      </c>
+      <c r="BX23" s="2">
+        <f t="shared" si="89"/>
+        <v>1472.780453727147</v>
+      </c>
+      <c r="BY23" s="2">
+        <f t="shared" si="89"/>
+        <v>1399.1414310407895</v>
+      </c>
+      <c r="BZ23" s="2">
+        <f t="shared" si="89"/>
+        <v>1329.18435948875</v>
+      </c>
+      <c r="CA23" s="2">
+        <f t="shared" si="89"/>
+        <v>1262.7251415143126</v>
+      </c>
+      <c r="CB23" s="2">
+        <f t="shared" si="89"/>
+        <v>1199.5888844385968</v>
+      </c>
+      <c r="CC23" s="2">
+        <f t="shared" si="89"/>
+        <v>1139.6094402166668</v>
+      </c>
+      <c r="CD23" s="2">
+        <f t="shared" si="89"/>
+        <v>1082.6289682058334</v>
+      </c>
+      <c r="CE23" s="2">
+        <f t="shared" si="89"/>
+        <v>1028.4975197955416</v>
+      </c>
+      <c r="CF23" s="2">
+        <f t="shared" si="89"/>
+        <v>977.07264380576453</v>
+      </c>
+      <c r="CG23" s="2">
+        <f t="shared" si="89"/>
+        <v>928.21901161547623</v>
+      </c>
+      <c r="CH23" s="2">
+        <f t="shared" si="89"/>
+        <v>881.8080610347024</v>
+      </c>
+      <c r="CI23" s="2">
+        <f t="shared" si="89"/>
+        <v>837.71765798296724</v>
+      </c>
+      <c r="CJ23" s="2">
+        <f t="shared" ref="CJ23:DK23" si="90">+CI23*(1+$BF$28)</f>
+        <v>795.8317750838188</v>
+      </c>
+      <c r="CK23" s="2">
         <f t="shared" si="90"/>
-        <v>21740.605472728545</v>
-      </c>
-      <c r="AU23" s="2">
+        <v>756.04018632962777</v>
+      </c>
+      <c r="CL23" s="2">
         <f t="shared" si="90"/>
-        <v>22181.21885721177</v>
-      </c>
-      <c r="AV23" s="2">
+        <v>718.23817701314636</v>
+      </c>
+      <c r="CM23" s="2">
         <f t="shared" si="90"/>
-        <v>22631.528093574037</v>
-      </c>
-      <c r="AW23" s="2">
+        <v>682.32626816248899</v>
+      </c>
+      <c r="CN23" s="2">
         <f t="shared" si="90"/>
-        <v>18904.445420472919</v>
-      </c>
-      <c r="AX23" s="2">
+        <v>648.2099547543645</v>
+      </c>
+      <c r="CO23" s="2">
         <f t="shared" si="90"/>
-        <v>15552.911613548722</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" ref="AY23:BC23" si="91">+AY21-AY22</f>
-        <v>15438.275522846967</v>
-      </c>
-      <c r="AZ23" s="2">
-        <f t="shared" si="91"/>
-        <v>15651.346364666131</v>
-      </c>
-      <c r="BA23" s="2">
-        <f t="shared" si="91"/>
-        <v>15901.145643444597</v>
-      </c>
-      <c r="BB23" s="2">
-        <f t="shared" si="91"/>
-        <v>16158.526110022834</v>
-      </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="91"/>
-        <v>4315.8839892314381</v>
-      </c>
-      <c r="BD23" s="2">
-        <f t="shared" ref="BD23:CI23" si="92">+BC23*(1+$BF$28)</f>
-        <v>4100.089789769866</v>
-      </c>
-      <c r="BE23" s="2">
-        <f t="shared" si="92"/>
-        <v>3895.0853002813724</v>
-      </c>
-      <c r="BF23" s="2">
-        <f t="shared" si="92"/>
-        <v>3700.3310352673034</v>
-      </c>
-      <c r="BG23" s="2">
-        <f t="shared" si="92"/>
-        <v>3515.3144835039379</v>
-      </c>
-      <c r="BH23" s="2">
-        <f t="shared" si="92"/>
-        <v>3339.5487593287407</v>
-      </c>
-      <c r="BI23" s="2">
-        <f t="shared" si="92"/>
-        <v>3172.5713213623035</v>
-      </c>
-      <c r="BJ23" s="2">
-        <f t="shared" si="92"/>
-        <v>3013.9427552941884</v>
-      </c>
-      <c r="BK23" s="2">
-        <f t="shared" si="92"/>
-        <v>2863.2456175294787</v>
-      </c>
-      <c r="BL23" s="2">
-        <f t="shared" si="92"/>
-        <v>2720.0833366530046</v>
-      </c>
-      <c r="BM23" s="2">
-        <f t="shared" si="92"/>
-        <v>2584.0791698203543</v>
-      </c>
-      <c r="BN23" s="2">
-        <f t="shared" si="92"/>
-        <v>2454.8752113293363</v>
-      </c>
-      <c r="BO23" s="2">
-        <f t="shared" si="92"/>
-        <v>2332.1314507628695</v>
-      </c>
-      <c r="BP23" s="2">
-        <f t="shared" si="92"/>
-        <v>2215.5248782247259</v>
-      </c>
-      <c r="BQ23" s="2">
-        <f t="shared" si="92"/>
-        <v>2104.7486343134897</v>
-      </c>
-      <c r="BR23" s="2">
-        <f t="shared" si="92"/>
-        <v>1999.5112025978151</v>
-      </c>
-      <c r="BS23" s="2">
-        <f t="shared" si="92"/>
-        <v>1899.5356424679242</v>
-      </c>
-      <c r="BT23" s="2">
-        <f t="shared" si="92"/>
-        <v>1804.5588603445278</v>
-      </c>
-      <c r="BU23" s="2">
-        <f t="shared" si="92"/>
-        <v>1714.3309173273014</v>
-      </c>
-      <c r="BV23" s="2">
-        <f t="shared" si="92"/>
-        <v>1628.6143714609364</v>
-      </c>
-      <c r="BW23" s="2">
-        <f t="shared" si="92"/>
-        <v>1547.1836528878894</v>
-      </c>
-      <c r="BX23" s="2">
-        <f t="shared" si="92"/>
-        <v>1469.8244702434947</v>
-      </c>
-      <c r="BY23" s="2">
-        <f t="shared" si="92"/>
-        <v>1396.3332467313198</v>
-      </c>
-      <c r="BZ23" s="2">
-        <f t="shared" si="92"/>
-        <v>1326.5165843947539</v>
-      </c>
-      <c r="CA23" s="2">
-        <f t="shared" si="92"/>
-        <v>1260.1907551750162</v>
-      </c>
-      <c r="CB23" s="2">
-        <f t="shared" si="92"/>
-        <v>1197.1812174162653</v>
-      </c>
-      <c r="CC23" s="2">
-        <f t="shared" si="92"/>
-        <v>1137.3221565454521</v>
-      </c>
-      <c r="CD23" s="2">
-        <f t="shared" si="92"/>
-        <v>1080.4560487181795</v>
-      </c>
-      <c r="CE23" s="2">
-        <f t="shared" si="92"/>
-        <v>1026.4332462822706</v>
-      </c>
-      <c r="CF23" s="2">
-        <f t="shared" si="92"/>
-        <v>975.11158396815699</v>
-      </c>
-      <c r="CG23" s="2">
-        <f t="shared" si="92"/>
-        <v>926.35600476974912</v>
-      </c>
-      <c r="CH23" s="2">
-        <f t="shared" si="92"/>
-        <v>880.03820453126161</v>
-      </c>
-      <c r="CI23" s="2">
-        <f t="shared" si="92"/>
-        <v>836.03629430469846</v>
-      </c>
-      <c r="CJ23" s="2">
-        <f t="shared" ref="CJ23:DK23" si="93">+CI23*(1+$BF$28)</f>
-        <v>794.23447958946349</v>
-      </c>
-      <c r="CK23" s="2">
-        <f t="shared" si="93"/>
-        <v>754.52275560999033</v>
-      </c>
-      <c r="CL23" s="2">
-        <f t="shared" si="93"/>
-        <v>716.79661782949074</v>
-      </c>
-      <c r="CM23" s="2">
-        <f t="shared" si="93"/>
-        <v>680.95678693801619</v>
-      </c>
-      <c r="CN23" s="2">
-        <f t="shared" si="93"/>
-        <v>646.90894759111541</v>
-      </c>
-      <c r="CO23" s="2">
-        <f t="shared" si="93"/>
-        <v>614.56350021155959</v>
+        <v>615.79945701664622</v>
       </c>
       <c r="CP23" s="2">
-        <f t="shared" si="93"/>
-        <v>583.83532520098163</v>
+        <f t="shared" si="90"/>
+        <v>585.00948416581389</v>
       </c>
       <c r="CQ23" s="2">
-        <f t="shared" si="93"/>
-        <v>554.64355894093251</v>
+        <f t="shared" si="90"/>
+        <v>555.75900995752318</v>
       </c>
       <c r="CR23" s="2">
-        <f t="shared" si="93"/>
-        <v>526.91138099388581</v>
+        <f t="shared" si="90"/>
+        <v>527.97105945964699</v>
       </c>
       <c r="CS23" s="2">
-        <f t="shared" si="93"/>
-        <v>500.56581194419152</v>
+        <f t="shared" si="90"/>
+        <v>501.57250648666462</v>
       </c>
       <c r="CT23" s="2">
-        <f t="shared" si="93"/>
-        <v>475.53752134698192</v>
+        <f t="shared" si="90"/>
+        <v>476.49388116233138</v>
       </c>
       <c r="CU23" s="2">
-        <f t="shared" si="93"/>
-        <v>451.7606452796328</v>
+        <f t="shared" si="90"/>
+        <v>452.66918710421481</v>
       </c>
       <c r="CV23" s="2">
-        <f t="shared" si="93"/>
-        <v>429.17261301565111</v>
+        <f t="shared" si="90"/>
+        <v>430.03572774900402</v>
       </c>
       <c r="CW23" s="2">
-        <f t="shared" si="93"/>
-        <v>407.71398236486851</v>
+        <f t="shared" si="90"/>
+        <v>408.53394136155379</v>
       </c>
       <c r="CX23" s="2">
-        <f t="shared" si="93"/>
-        <v>387.32828324662506</v>
+        <f t="shared" si="90"/>
+        <v>388.10724429347607</v>
       </c>
       <c r="CY23" s="2">
-        <f t="shared" si="93"/>
-        <v>367.96186908429377</v>
+        <f t="shared" si="90"/>
+        <v>368.70188207880227</v>
       </c>
       <c r="CZ23" s="2">
-        <f t="shared" si="93"/>
-        <v>349.56377563007908</v>
+        <f t="shared" si="90"/>
+        <v>350.26678797486215</v>
       </c>
       <c r="DA23" s="2">
-        <f t="shared" si="93"/>
-        <v>332.08558684857513</v>
+        <f t="shared" si="90"/>
+        <v>332.75344857611901</v>
       </c>
       <c r="DB23" s="2">
-        <f t="shared" si="93"/>
-        <v>315.48130750614638</v>
+        <f t="shared" si="90"/>
+        <v>316.11577614731306</v>
       </c>
       <c r="DC23" s="2">
-        <f t="shared" si="93"/>
-        <v>299.70724213083906</v>
+        <f t="shared" si="90"/>
+        <v>300.30998733994738</v>
       </c>
       <c r="DD23" s="2">
-        <f t="shared" si="93"/>
-        <v>284.72188002429709</v>
+        <f t="shared" si="90"/>
+        <v>285.29448797294998</v>
       </c>
       <c r="DE23" s="2">
-        <f t="shared" si="93"/>
-        <v>270.4857860230822</v>
+        <f t="shared" si="90"/>
+        <v>271.02976357430248</v>
       </c>
       <c r="DF23" s="2">
-        <f t="shared" si="93"/>
-        <v>256.96149672192809</v>
+        <f t="shared" si="90"/>
+        <v>257.47827539558733</v>
       </c>
       <c r="DG23" s="2">
-        <f t="shared" si="93"/>
-        <v>244.11342188583166</v>
+        <f t="shared" si="90"/>
+        <v>244.60436162580794</v>
       </c>
       <c r="DH23" s="2">
-        <f t="shared" si="93"/>
-        <v>231.90775079154005</v>
+        <f t="shared" si="90"/>
+        <v>232.37414354451752</v>
       </c>
       <c r="DI23" s="2">
-        <f t="shared" si="93"/>
-        <v>220.31236325196303</v>
+        <f t="shared" si="90"/>
+        <v>220.75543636729162</v>
       </c>
       <c r="DJ23" s="2">
-        <f t="shared" si="93"/>
-        <v>209.29674508936486</v>
+        <f t="shared" si="90"/>
+        <v>209.71766454892702</v>
       </c>
       <c r="DK23" s="2">
-        <f t="shared" si="93"/>
-        <v>198.83190783489661</v>
+        <f t="shared" si="90"/>
+        <v>199.23178132148067</v>
       </c>
     </row>
     <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6966,59 +6971,59 @@
         <v>126</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:D24" si="94">+C23/C25</f>
+        <f t="shared" ref="C24:D24" si="91">+C23/C25</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D24" s="21">
+        <f t="shared" si="91"/>
+        <v>0.58419164626730091</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" ref="E24:G24" si="92">+E23/E25</f>
+        <v>0.86775439607956217</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="92"/>
+        <v>0.82020768064290128</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="92"/>
+        <v>0.35472390612462734</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" ref="H24:I24" si="93">+H23/H25</f>
+        <v>1.1487402139576055</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="93"/>
+        <v>2.5250023717814924</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" ref="J24:K24" si="94">+J23/J25</f>
+        <v>2.771692046028329</v>
+      </c>
+      <c r="K24" s="21">
         <f t="shared" si="94"/>
-        <v>0.58419164626730091</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" ref="E24:G24" si="95">+E23/E25</f>
-        <v>0.86775439607956217</v>
-      </c>
-      <c r="F24" s="21">
+        <v>2.2136444018645935</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" ref="L24:P24" si="95">+L23/L25</f>
+        <v>2.5575826681870013</v>
+      </c>
+      <c r="M24" s="21">
         <f t="shared" si="95"/>
-        <v>0.82020768064290128</v>
-      </c>
-      <c r="G24" s="21">
+        <v>2.9774723176785032</v>
+      </c>
+      <c r="N24" s="21">
         <f t="shared" si="95"/>
-        <v>0.35472390612462734</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" ref="H24:I24" si="96">+H23/H25</f>
-        <v>1.1487402139576055</v>
-      </c>
-      <c r="I24" s="21">
-        <f t="shared" si="96"/>
-        <v>2.5250023717814924</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" ref="J24:K24" si="97">+J23/J25</f>
-        <v>2.771692046028329</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="97"/>
-        <v>2.2136444018645935</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" ref="L24:P24" si="98">+L23/L25</f>
-        <v>2.5575826681870013</v>
-      </c>
-      <c r="M24" s="21">
-        <f t="shared" si="98"/>
-        <v>2.9774723176785032</v>
-      </c>
-      <c r="N24" s="21">
-        <f t="shared" si="98"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="95"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q24" s="21">
@@ -7026,115 +7031,124 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:Y24" si="99">+R23/R25</f>
-        <v>3.3142636258214146</v>
+        <f t="shared" ref="R24:Y24" si="96">+R23/R25</f>
+        <v>3.8063393892539628</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="99"/>
-        <v>3.6204238921001912</v>
+        <f t="shared" si="96"/>
+        <v>4.2574181117533696</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="96"/>
         <v>3.8025355359200916</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="99"/>
-        <v>4.5343834037648847</v>
+        <f t="shared" si="96"/>
+        <v>4.3837879369957715</v>
       </c>
       <c r="V24" s="21">
-        <f t="shared" si="99"/>
-        <v>3.7661563580484052</v>
+        <f t="shared" si="96"/>
+        <v>4.3183563748079878</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="99"/>
-        <v>3.7367671917018819</v>
+        <f t="shared" si="96"/>
+        <v>4.280122793553339</v>
       </c>
       <c r="X24" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="96"/>
         <v>4.4055193560751258</v>
       </c>
       <c r="Y24" s="21">
-        <f t="shared" si="99"/>
-        <v>4.3960168517809253</v>
-      </c>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
+        <f t="shared" si="96"/>
+        <v>5.0501723477594762</v>
+      </c>
+      <c r="Z24" s="21">
+        <f t="shared" ref="Z24:AB24" si="97">+Z23/Z25</f>
+        <v>4.785077288395251</v>
+      </c>
+      <c r="AA24" s="21">
+        <f t="shared" si="97"/>
+        <v>4.844467866717733</v>
+      </c>
+      <c r="AB24" s="21">
+        <f t="shared" si="97"/>
+        <v>4.8723376484105705</v>
+      </c>
       <c r="AK24" s="1">
         <f>+AK23/AK25</f>
-        <v>14.624083365495949</v>
+        <v>15.753377074488615</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" ref="AL24:AX24" si="100">+AL23/AL25</f>
-        <v>26.510667695870325</v>
+        <f t="shared" ref="AL24:AX24" si="98">+AL23/AL25</f>
+        <v>17.38783342928421</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="100"/>
-        <v>28.176262107294487</v>
+        <f t="shared" si="98"/>
+        <v>28.398124828247941</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="100"/>
-        <v>35.966669923025869</v>
+        <f t="shared" si="98"/>
+        <v>36.299018961550566</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="100"/>
-        <v>48.713315025533213</v>
+        <f t="shared" si="98"/>
+        <v>49.115452970722927</v>
       </c>
       <c r="AP24" s="1">
-        <f t="shared" si="100"/>
-        <v>56.460023661714558</v>
+        <f t="shared" si="98"/>
+        <v>56.947978907432805</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="100"/>
-        <v>64.278850183207823</v>
+        <f t="shared" si="98"/>
+        <v>64.841610317152089</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="100"/>
-        <v>72.181731784668727</v>
+        <f t="shared" si="98"/>
+        <v>72.809284854800481</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="100"/>
-        <v>80.168515605852761</v>
+        <f t="shared" si="98"/>
+        <v>80.851810243988311</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="100"/>
-        <v>83.908164695980503</v>
+        <f t="shared" si="98"/>
+        <v>84.66311567996479</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="100"/>
-        <v>85.608718090358053</v>
+        <f t="shared" si="98"/>
+        <v>86.439728569769841</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" si="100"/>
-        <v>87.346692757908301</v>
+        <f t="shared" si="98"/>
+        <v>88.247308028331375</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" si="100"/>
-        <v>72.961966115294956</v>
+        <f t="shared" si="98"/>
+        <v>74.503768998262359</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" si="100"/>
-        <v>60.026675467189207</v>
+        <f t="shared" si="98"/>
+        <v>59.498808040084654</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" ref="AY24:BC24" si="101">+AY23/AY25</f>
-        <v>59.584235904465338</v>
+        <f t="shared" ref="AY24:BC24" si="99">+AY23/AY25</f>
+        <v>59.144246919346912</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" si="101"/>
-        <v>60.406585737808314</v>
+        <f t="shared" si="99"/>
+        <v>60.005674767434868</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" si="101"/>
-        <v>61.370689476822072</v>
+        <f t="shared" si="99"/>
+        <v>61.000589874399097</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" si="101"/>
-        <v>62.364052914020981</v>
+        <f t="shared" si="99"/>
+        <v>62.020884309043701</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" si="101"/>
-        <v>16.657213389546271</v>
+        <f t="shared" si="99"/>
+        <v>16.597826600482499</v>
       </c>
     </row>
     <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7199,17 +7213,27 @@
         <v>260.3</v>
       </c>
       <c r="V25" s="2">
-        <f>+U25</f>
-        <v>260.3</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="W25" s="2">
-        <f>+V25</f>
-        <v>260.3</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="X25" s="2">
         <v>260.89999999999998</v>
       </c>
       <c r="Y25" s="2">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>+Y25</f>
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AA25" s="2">
+        <f>+Z25</f>
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>+AA25</f>
         <v>261.10000000000002</v>
       </c>
       <c r="AK25" s="2">
@@ -7217,76 +7241,76 @@
         <v>259.09999999999997</v>
       </c>
       <c r="AL25" s="2">
-        <f>+AK25</f>
-        <v>259.09999999999997</v>
+        <f>AVERAGE(U25:X25)</f>
+        <v>260.55</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" ref="AM25:AX25" si="102">+AL25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="AM25:AX25" si="100">+AL25</f>
+        <v>260.55</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="102"/>
-        <v>259.09999999999997</v>
+        <f t="shared" si="100"/>
+        <v>260.55</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" ref="AY25" si="103">+AX25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="AY25" si="101">+AX25</f>
+        <v>260.55</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" ref="AZ25" si="104">+AY25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="AZ25" si="102">+AY25</f>
+        <v>260.55</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" ref="BA25" si="105">+AZ25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="BA25" si="103">+AZ25</f>
+        <v>260.55</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" ref="BB25" si="106">+BA25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="BB25" si="104">+BA25</f>
+        <v>260.55</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" ref="BC25" si="107">+BB25</f>
-        <v>259.09999999999997</v>
+        <f t="shared" ref="BC25" si="105">+BB25</f>
+        <v>260.55</v>
       </c>
     </row>
     <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -7298,243 +7322,261 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <f t="shared" ref="G27:P27" si="108">+G13/C13-1</f>
+        <f t="shared" ref="G27:P27" si="106">+G13/C13-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.44493886310784858</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.76535979547461963</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.62012853473169161</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.61894736842105269</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.29435163086714389</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.13749174917491747</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.176856468118604</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.28998699609882972</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.27350952673632456</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:T27" si="109">+Q13/M13-1</f>
+        <f t="shared" ref="Q27:T27" si="107">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.2246376811594204</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.17656249999999996</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.1114864864864864</v>
       </c>
       <c r="U27" s="25">
-        <f t="shared" ref="U27" si="110">+U13/Q13-1</f>
+        <f t="shared" ref="U27" si="108">+U13/Q13-1</f>
         <v>0.13220500595947549</v>
       </c>
       <c r="V27" s="25">
-        <f t="shared" ref="V27" si="111">+V13/R13-1</f>
-        <v>-3.4274010013655043E-2</v>
+        <f t="shared" ref="V27" si="109">+V13/R13-1</f>
+        <v>0.13482020937642258</v>
       </c>
       <c r="W27" s="25">
-        <f t="shared" ref="W27" si="112">+W13/S13-1</f>
-        <v>-8.0366705222122192E-2</v>
+        <f t="shared" ref="W27" si="110">+W13/S13-1</f>
+        <v>6.3959216895857818E-2</v>
       </c>
       <c r="X27" s="25">
-        <f t="shared" ref="X27:Y27" si="113">+X13/T13-1</f>
+        <f t="shared" ref="X27:Y27" si="111">+X13/T13-1</f>
         <v>9.3226226660877209E-2</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>0.13297961933636526</v>
       </c>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
+      <c r="Z27" s="25">
+        <f t="shared" ref="Z27" si="112">+Z13/V13-1</f>
+        <v>2.6560243863308131E-2</v>
+      </c>
+      <c r="AA27" s="25">
+        <f t="shared" ref="AA27" si="113">+AA13/W13-1</f>
+        <v>4.4860283459494221E-2</v>
+      </c>
+      <c r="AB27" s="25">
+        <f t="shared" ref="AB27" si="114">+AB13/X13-1</f>
+        <v>5.5314374230448271E-2</v>
+      </c>
     </row>
     <row r="28" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="114">C15/C13</f>
+        <f t="shared" ref="C28" si="115">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:H28" si="115">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="116">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.88919366754371454</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.8557358650587249</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.86114315789473683</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.8528146380270486</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="116">I15/I13</f>
+        <f t="shared" ref="I28:J28" si="117">I15/I13</f>
         <v>0.8927412541254125</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.87896877459984257</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="117">K15/K13</f>
+        <f t="shared" ref="K28:L28" si="118">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>0.87516902274124164</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="118">M15/M13</f>
+        <f t="shared" ref="M28:P28" si="119">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.87290969899665549</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.88079032258064516</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.88059845559845551</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="119">Q15/Q13</f>
+        <f t="shared" ref="Q28:R28" si="120">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
         <f>S15/S13</f>
-        <v>0.87602279055819732</v>
+        <v>0.8770509360407831</v>
       </c>
       <c r="T28" s="19">
         <f>T15/T13</f>
         <v>0.87802865827181931</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" ref="U28:X28" si="120">U15/U13</f>
+        <f t="shared" ref="U28:X28" si="121">U15/U13</f>
         <v>0.88841165571837633</v>
       </c>
       <c r="V28" s="19">
-        <f t="shared" si="120"/>
-        <v>0.9</v>
+        <f t="shared" si="121"/>
+        <v>0.87694529119204234</v>
       </c>
       <c r="W28" s="19">
-        <f t="shared" si="120"/>
-        <v>0.9</v>
+        <f t="shared" si="121"/>
+        <v>0.87236269930745691</v>
       </c>
       <c r="X28" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.85534416332366847</v>
       </c>
       <c r="Y28" s="19">
-        <f t="shared" ref="Y28" si="121">Y15/Y13</f>
+        <f t="shared" ref="Y28:AB28" si="122">Y15/Y13</f>
         <v>0.87519512376421604</v>
       </c>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
+      <c r="Z28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.88</v>
+      </c>
+      <c r="AA28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.88</v>
+      </c>
+      <c r="AB28" s="19">
+        <f t="shared" si="122"/>
+        <v>0.88000000000000012</v>
+      </c>
       <c r="AJ28" s="19">
-        <f t="shared" ref="AJ28:AK28" si="122">AJ15/AJ13</f>
+        <f t="shared" ref="AJ28:AK28" si="123">AJ15/AJ13</f>
         <v>0.88060528435424446</v>
       </c>
       <c r="AK28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.89051478985198951</v>
+        <f t="shared" si="123"/>
+        <v>0.89078349268904367</v>
       </c>
       <c r="AL28" s="19">
-        <f t="shared" ref="AL28:AX28" si="123">AL15/AL13</f>
+        <f t="shared" ref="AL28:AX28" si="124">AL15/AL13</f>
+        <v>0.87304064118022551</v>
+      </c>
+      <c r="AM28" s="19">
+        <f t="shared" si="124"/>
         <v>0.93</v>
       </c>
-      <c r="AM28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AN28" s="19">
+        <f t="shared" si="124"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AO28" s="19">
+        <f t="shared" si="124"/>
         <v>0.93</v>
       </c>
-      <c r="AN28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AP28" s="19">
+        <f t="shared" si="124"/>
+        <v>0.93</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f t="shared" si="124"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AO28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AR28" s="19">
+        <f t="shared" si="124"/>
         <v>0.93</v>
       </c>
-      <c r="AP28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AS28" s="19">
+        <f t="shared" si="124"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AT28" s="19">
+        <f t="shared" si="124"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AU28" s="19">
+        <f t="shared" si="124"/>
         <v>0.93</v>
       </c>
-      <c r="AR28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AV28" s="19">
+        <f t="shared" si="124"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AS28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AW28" s="19">
+        <f t="shared" si="124"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AT28" s="19">
-        <f t="shared" si="123"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AU28" s="19">
-        <f t="shared" si="123"/>
+      <c r="AX28" s="19">
+        <f t="shared" si="124"/>
         <v>0.93</v>
-      </c>
-      <c r="AV28" s="19">
-        <f t="shared" si="123"/>
-        <v>0.93</v>
-      </c>
-      <c r="AW28" s="19">
-        <f t="shared" si="123"/>
-        <v>0.93</v>
-      </c>
-      <c r="AX28" s="19">
-        <f t="shared" si="123"/>
-        <v>0.92999999999999994</v>
       </c>
       <c r="BE28" t="s">
         <v>296</v>
@@ -7548,156 +7590,165 @@
         <v>292</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="124">+C16/C13</f>
+        <f t="shared" ref="C29" si="125">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="125">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="126">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="126">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="127">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="127">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="128">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="127"/>
-        <v>9.7997269003186172E-2</v>
+        <f t="shared" si="128"/>
+        <v>7.8880291306326816E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="127"/>
-        <v>0.105727627125905</v>
+        <f t="shared" si="128"/>
+        <v>7.7282268774364921E-2</v>
       </c>
       <c r="T29" s="19">
         <f>+T16/T13</f>
         <v>9.7959183673469383E-2</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" ref="U29:X29" si="128">+U16/U13</f>
+        <f t="shared" ref="U29:X29" si="129">+U16/U13</f>
         <v>8.2912245241704582E-2</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="128"/>
-        <v>0.10147523212518265</v>
+        <f t="shared" si="129"/>
+        <v>8.8079576447938374E-2</v>
       </c>
       <c r="W29" s="19">
-        <f t="shared" si="128"/>
-        <v>0.11496715889504823</v>
+        <f t="shared" si="129"/>
+        <v>8.6849734256724098E-2</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.11343686698176907</v>
       </c>
       <c r="Y29" s="19">
-        <f t="shared" ref="Y29" si="129">+Y16/Y13</f>
+        <f t="shared" ref="Y29:AB29" si="130">+Y16/Y13</f>
         <v>0.1010926930796105</v>
       </c>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
+      <c r="Z29" s="19">
+        <f t="shared" si="130"/>
+        <v>8.5800689218651097E-2</v>
+      </c>
+      <c r="AA29" s="19">
+        <f t="shared" si="130"/>
+        <v>8.3120906815567525E-2</v>
+      </c>
+      <c r="AB29" s="19">
+        <f t="shared" si="130"/>
+        <v>0.10749106593425205</v>
+      </c>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="19">
         <f>+AK16/AK13</f>
-        <v>9.5691797845898929E-2</v>
+        <v>8.3555386372287793E-2</v>
       </c>
       <c r="AL29" s="19">
-        <f t="shared" ref="AL29:AX29" si="130">+AL16/AL13</f>
-        <v>0.10000000000000002</v>
+        <f t="shared" ref="AL29:AX29" si="131">+AL16/AL13</f>
+        <v>9.2995450538538693E-2</v>
       </c>
       <c r="AM29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AN29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AO29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AP29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AQ29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AR29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AS29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AT29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AU29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AV29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AW29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
       <c r="AX29" s="19">
-        <f t="shared" si="130"/>
-        <v>0.1</v>
+        <f t="shared" si="131"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="BE29" t="s">
         <v>294</v>
@@ -7711,43 +7762,43 @@
         <v>183</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="131">C22/C21</f>
+        <f t="shared" ref="C30" si="132">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="132">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="133">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="133">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="134">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="134">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="135">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -7755,110 +7806,119 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="135">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="136">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.23172043010752691</v>
+        <f t="shared" si="136"/>
+        <v>0.20799485240891175</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="135"/>
-        <v>0.20744052640458924</v>
+        <f t="shared" si="136"/>
+        <v>0.18205374990745546</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>0.20670032860463253</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30:X30" si="136">U22/U21</f>
-        <v>0.13972303206997089</v>
+        <f t="shared" ref="U30:X30" si="137">U22/U21</f>
+        <v>0.15817041682036154</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" si="136"/>
-        <v>0.15</v>
+        <f t="shared" si="137"/>
+        <v>0.1932706793887653</v>
       </c>
       <c r="W30" s="19">
-        <f t="shared" si="136"/>
-        <v>0.15</v>
+        <f t="shared" si="137"/>
+        <v>0.18714473108876253</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.13461828037946091</v>
       </c>
       <c r="Y30" s="19">
-        <f t="shared" ref="Y30" si="137">Y22/Y21</f>
-        <v>0.18532188231954014</v>
-      </c>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
+        <f t="shared" ref="Y30:AB30" si="138">Y22/Y21</f>
+        <v>0.16528454769893022</v>
+      </c>
+      <c r="Z30" s="19">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA30" s="19">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB30" s="19">
+        <f t="shared" si="138"/>
+        <v>0.20000000000000004</v>
+      </c>
       <c r="AK30" s="23">
         <f>+AK22/AK21</f>
-        <v>0.21068638683470473</v>
+        <v>0.19858239579038309</v>
       </c>
       <c r="AL30" s="23">
-        <f t="shared" ref="AL30:AX30" si="138">+AL22/AL21</f>
+        <f t="shared" ref="AL30:AX30" si="139">+AL22/AL21</f>
+        <v>0.16870343865829932</v>
+      </c>
+      <c r="AM30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AM30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AN30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AN30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AO30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AO30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AP30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AP30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AQ30" s="23">
+        <f t="shared" si="139"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AR30" s="23">
+        <f t="shared" si="139"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AS30" s="23">
+        <f t="shared" si="139"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AT30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AQ30" s="23">
-        <f t="shared" si="138"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AR30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AU30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AS30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AV30" s="23">
+        <f t="shared" si="139"/>
         <v>0.20000000000000004</v>
       </c>
-      <c r="AT30" s="23">
-        <f t="shared" si="138"/>
+      <c r="AW30" s="23">
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AU30" s="23">
-        <f t="shared" si="138"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AV30" s="23">
-        <f t="shared" si="138"/>
-        <v>0.2</v>
-      </c>
-      <c r="AW30" s="23">
-        <f t="shared" si="138"/>
-        <v>0.2</v>
-      </c>
       <c r="AX30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
       <c r="BE30" t="s">
@@ -7874,7 +7934,7 @@
       </c>
       <c r="BF31" s="2">
         <f>NPV(BF29,AN23:CK23)+Main!M5-Main!M6</f>
-        <v>180072.46127652677</v>
+        <v>181927.01669986467</v>
       </c>
     </row>
     <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7891,109 +7951,155 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="M32" s="12">
+        <f>6304.33+619.638</f>
+        <v>6923.9679999999998</v>
+      </c>
+      <c r="N32" s="12">
+        <f>6063.678+644.315</f>
+        <v>6707.9930000000004</v>
+      </c>
+      <c r="O32" s="12">
+        <f>6275.698+685.187</f>
+        <v>6960.8850000000002</v>
+      </c>
+      <c r="P32" s="12">
+        <f>6795+729.9</f>
+        <v>7524.9</v>
+      </c>
       <c r="Q32" s="12">
         <f>7600.1+638</f>
         <v>8238.1</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <f>8702.2+551.2</f>
+        <v>9253.4000000000015</v>
+      </c>
       <c r="S32" s="12">
         <f>9171.5+599.2</f>
         <v>9770.7000000000007</v>
       </c>
-      <c r="T32" s="12"/>
+      <c r="T32" s="12">
+        <f>10504+274.5</f>
+        <v>10778.5</v>
+      </c>
       <c r="U32" s="12">
         <f>9289.9+1124.2+1081.5</f>
         <v>11495.6</v>
       </c>
+      <c r="V32" s="2">
+        <f>10151.1+1085.2+1357.3</f>
+        <v>12593.6</v>
+      </c>
+      <c r="W32" s="2">
+        <f>11110.2+818+1700</f>
+        <v>13628.2</v>
+      </c>
+      <c r="X32" s="2">
+        <f>10369.1+849.2+2497.8</f>
+        <v>13716.100000000002</v>
+      </c>
+      <c r="Y32" s="2">
+        <f>9158+1013.3+4381.4</f>
+        <v>14552.699999999999</v>
+      </c>
+      <c r="Z32" s="2">
+        <f>+Y32+Z23</f>
+        <v>15802.08368</v>
+      </c>
+      <c r="AA32" s="2">
+        <f>+Z32+AA23</f>
+        <v>17066.97424</v>
+      </c>
+      <c r="AB32" s="2">
+        <f>+AA32+AB23</f>
+        <v>18339.141599999999</v>
+      </c>
       <c r="AK32" s="2">
         <f>+T32</f>
-        <v>0</v>
+        <v>10778.5</v>
       </c>
       <c r="AL32" s="2">
-        <f>+AK32+AL23</f>
-        <v>6868.9139999999998</v>
+        <f>+X32</f>
+        <v>13716.100000000002</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AX32" si="139">+AL32+AM23</f>
-        <v>14169.383512</v>
+        <f t="shared" ref="AM32:AX32" si="140">+AL32+AM23</f>
+        <v>21115.231424000005</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="139"/>
-        <v>23488.347689056001</v>
+        <f t="shared" si="140"/>
+        <v>30572.940814432004</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="139"/>
-        <v>36109.967612171655</v>
+        <f t="shared" si="140"/>
+        <v>43369.972085953865</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="139"/>
-        <v>50738.759742921895</v>
+        <f t="shared" si="140"/>
+        <v>58207.767990285487</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="139"/>
-        <v>67393.409825391034</v>
+        <f t="shared" si="140"/>
+        <v>75102.249558419469</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="139"/>
-        <v>86095.696530798697</v>
+        <f t="shared" si="140"/>
+        <v>94072.70872733774</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="139"/>
-        <v>106867.35892427515</v>
+        <f t="shared" si="140"/>
+        <v>115138.6478864089</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="139"/>
-        <v>128607.9643970037</v>
+        <f t="shared" si="140"/>
+        <v>137197.62267682372</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="139"/>
-        <v>150789.18325421546</v>
+        <f t="shared" si="140"/>
+        <v>159719.49395567726</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="139"/>
-        <v>173420.7113477895</v>
+        <f t="shared" si="140"/>
+        <v>182712.33006245899</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" si="139"/>
-        <v>192325.15676826242</v>
+        <f t="shared" si="140"/>
+        <v>202124.28707495626</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="139"/>
-        <v>207878.06838181114</v>
+        <f t="shared" si="140"/>
+        <v>217626.7015098003</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" ref="AY32" si="140">+AX32+AY23</f>
-        <v>223316.3439046581</v>
+        <f t="shared" ref="AY32" si="141">+AX32+AY23</f>
+        <v>233036.73504463615</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32" si="141">+AY32+AZ23</f>
-        <v>238967.69026932423</v>
+        <f t="shared" ref="AZ32" si="142">+AY32+AZ23</f>
+        <v>248671.2136052913</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" ref="BA32" si="142">+AZ32+BA23</f>
-        <v>254868.83591276882</v>
+        <f t="shared" ref="BA32" si="143">+AZ32+BA23</f>
+        <v>264564.91729706596</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" ref="BB32" si="143">+BA32+BB23</f>
-        <v>271027.36202279164</v>
+        <f t="shared" ref="BB32" si="144">+BA32+BB23</f>
+        <v>280724.4587037873</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" ref="BC32" si="144">+BB32+BC23</f>
-        <v>275343.24601202307</v>
+        <f t="shared" ref="BC32" si="145">+BB32+BC23</f>
+        <v>285049.02242454304</v>
       </c>
       <c r="BE32" s="2" t="s">
         <v>297</v>
       </c>
       <c r="BF32" s="1">
         <f>BF31/Main!M3</f>
-        <v>689.93280182577303</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>704.99759299754771</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>262</v>
       </c>
@@ -8007,23 +8113,47 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+      <c r="M33" s="12">
+        <v>977.55100000000004</v>
+      </c>
+      <c r="N33" s="12">
+        <v>929.14200000000005</v>
+      </c>
+      <c r="O33" s="12">
+        <v>1100.3720000000001</v>
+      </c>
+      <c r="P33" s="12">
+        <v>1136.8</v>
+      </c>
       <c r="Q33" s="12">
         <v>1292.8</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>1332.9</v>
+      </c>
       <c r="S33" s="12">
         <v>1385.2</v>
       </c>
-      <c r="T33" s="12"/>
+      <c r="T33" s="12">
+        <v>1442.2</v>
+      </c>
       <c r="U33" s="12">
         <v>1547.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V33" s="2">
+        <v>1556.2</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1538.7</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1563.4</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1793.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>263</v>
       </c>
@@ -8037,23 +8167,47 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
+      <c r="M34" s="12">
+        <v>298.863</v>
+      </c>
+      <c r="N34" s="12">
+        <v>321.62</v>
+      </c>
+      <c r="O34" s="12">
+        <v>333.45600000000002</v>
+      </c>
+      <c r="P34" s="12">
+        <v>353.1</v>
+      </c>
       <c r="Q34" s="12">
         <v>338.9</v>
       </c>
-      <c r="R34" s="12"/>
+      <c r="R34" s="12">
+        <v>367.7</v>
+      </c>
       <c r="S34" s="12">
         <v>388.2</v>
       </c>
-      <c r="T34" s="12"/>
+      <c r="T34" s="12">
+        <v>460.6</v>
+      </c>
       <c r="U34" s="12">
         <v>535.1</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V34" s="2">
+        <v>603.5</v>
+      </c>
+      <c r="W34" s="2">
+        <v>688.7</v>
+      </c>
+      <c r="X34" s="2">
+        <v>738.8</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>813.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
@@ -8067,23 +8221,47 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="M35" s="12">
+        <v>338.92500000000001</v>
+      </c>
+      <c r="N35" s="12">
+        <v>498.75900000000001</v>
+      </c>
+      <c r="O35" s="12">
+        <v>457.827</v>
+      </c>
+      <c r="P35" s="12">
+        <v>545.79999999999995</v>
+      </c>
       <c r="Q35" s="12">
         <v>491.5</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="12">
+        <v>549.5</v>
+      </c>
       <c r="S35" s="12">
         <v>726.9</v>
       </c>
-      <c r="T35" s="12"/>
+      <c r="T35" s="12">
+        <v>553.5</v>
+      </c>
       <c r="U35" s="12">
         <v>468.7</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V35" s="2">
+        <v>476.9</v>
+      </c>
+      <c r="W35" s="2">
+        <v>540.20000000000005</v>
+      </c>
+      <c r="X35" s="2">
+        <v>623.70000000000005</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>511.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>265</v>
       </c>
@@ -8097,23 +8275,47 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
+      <c r="M36" s="12">
+        <v>986.12300000000005</v>
+      </c>
+      <c r="N36" s="12">
+        <v>1021.2329999999999</v>
+      </c>
+      <c r="O36" s="12">
+        <v>1042.347</v>
+      </c>
+      <c r="P36" s="12">
+        <v>1094.0999999999999</v>
+      </c>
       <c r="Q36" s="12">
         <v>1107.4000000000001</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="12">
+        <v>1100.0999999999999</v>
+      </c>
       <c r="S36" s="12">
         <v>1118.7</v>
       </c>
-      <c r="T36" s="12"/>
+      <c r="T36" s="12">
+        <v>1108.4000000000001</v>
+      </c>
       <c r="U36" s="12">
         <v>1111.7</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="2">
+        <v>1122.4000000000001</v>
+      </c>
+      <c r="W36" s="2">
+        <v>1124</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1159.3</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>1172.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>266</v>
       </c>
@@ -8127,26 +8329,60 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
+      <c r="M37" s="12">
+        <f>1002.158+400</f>
+        <v>1402.1579999999999</v>
+      </c>
+      <c r="N37" s="12">
+        <f>1002.158+400</f>
+        <v>1402.1579999999999</v>
+      </c>
+      <c r="O37" s="12">
+        <f>1002.158+400</f>
+        <v>1402.1579999999999</v>
+      </c>
+      <c r="P37" s="12">
+        <f>1002.2+400</f>
+        <v>1402.2</v>
+      </c>
       <c r="Q37" s="12">
         <f>1002.2+400</f>
         <v>1402.2</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="12">
+        <f>1002.2+387</f>
+        <v>1389.2</v>
+      </c>
       <c r="S37" s="12">
         <f>1075.2+603.6</f>
         <v>1678.8000000000002</v>
       </c>
-      <c r="T37" s="12"/>
+      <c r="T37" s="12">
+        <f>1088+603.6</f>
+        <v>1691.6</v>
+      </c>
       <c r="U37" s="12">
         <f>1088+603.6</f>
         <v>1691.6</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="2">
+        <f>1088+603.6</f>
+        <v>1691.6</v>
+      </c>
+      <c r="W37" s="2">
+        <f>1088+603.6</f>
+        <v>1691.6</v>
+      </c>
+      <c r="X37" s="2">
+        <f>1088+839.9</f>
+        <v>1927.9</v>
+      </c>
+      <c r="Y37" s="2">
+        <f>1088+834.9</f>
+        <v>1922.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
@@ -8160,23 +8396,47 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="M38" s="12">
+        <v>815.89</v>
+      </c>
+      <c r="N38" s="12">
+        <v>952.80799999999999</v>
+      </c>
+      <c r="O38" s="12">
+        <v>933.83900000000006</v>
+      </c>
+      <c r="P38" s="12">
+        <v>934.5</v>
+      </c>
       <c r="Q38" s="12">
         <v>945.5</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="12">
+        <v>1143.8</v>
+      </c>
       <c r="S38" s="12">
         <v>1162.7</v>
       </c>
-      <c r="T38" s="12"/>
+      <c r="T38" s="12">
+        <v>1246.9000000000001</v>
+      </c>
       <c r="U38" s="12">
         <v>1359.9</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="2">
+        <v>1538</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1729.1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1812.1</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>267</v>
       </c>
@@ -8190,23 +8450,47 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="M39" s="12">
+        <v>322.31900000000002</v>
+      </c>
+      <c r="N39" s="12">
+        <v>316.87400000000002</v>
+      </c>
+      <c r="O39" s="12">
+        <v>312.34300000000002</v>
+      </c>
+      <c r="P39" s="12">
+        <v>330.3</v>
+      </c>
       <c r="Q39" s="12">
         <v>329</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="12">
+        <v>318.3</v>
+      </c>
       <c r="S39" s="12">
         <v>342.7</v>
       </c>
-      <c r="T39" s="12"/>
+      <c r="T39" s="12">
+        <v>347.4</v>
+      </c>
       <c r="U39" s="12">
         <v>336.3</v>
       </c>
-    </row>
-    <row r="40" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V39" s="2">
+        <v>324.3</v>
+      </c>
+      <c r="W39" s="2">
+        <v>310.5</v>
+      </c>
+      <c r="X39" s="2">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>312.89999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>268</v>
       </c>
@@ -8220,23 +8504,47 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="M40" s="12">
+        <v>49.262</v>
+      </c>
+      <c r="N40" s="12">
+        <v>71.099000000000004</v>
+      </c>
+      <c r="O40" s="12">
+        <v>75.518000000000001</v>
+      </c>
+      <c r="P40" s="12">
+        <v>110.8</v>
+      </c>
       <c r="Q40" s="12">
         <v>110.7</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="12">
+        <v>127.3</v>
+      </c>
       <c r="S40" s="12">
         <v>132.5</v>
       </c>
-      <c r="T40" s="12"/>
+      <c r="T40" s="12">
+        <v>521.79999999999995</v>
+      </c>
       <c r="U40" s="12">
         <v>427.5</v>
       </c>
-    </row>
-    <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="2">
+        <v>442.7</v>
+      </c>
+      <c r="W40" s="2">
+        <v>475.2</v>
+      </c>
+      <c r="X40" s="2">
+        <v>895.3</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>875.7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>261</v>
       </c>
@@ -8250,26 +8558,72 @@
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="M41" s="12">
+        <f>SUM(M32:M40)</f>
+        <v>12115.058999999997</v>
+      </c>
+      <c r="N41" s="12">
+        <f>SUM(N32:N40)</f>
+        <v>12221.686</v>
+      </c>
+      <c r="O41" s="12">
+        <f>SUM(O32:O40)</f>
+        <v>12618.744999999999</v>
+      </c>
+      <c r="P41" s="12">
+        <f>SUM(P32:P40)</f>
+        <v>13432.499999999998</v>
+      </c>
       <c r="Q41" s="12">
         <f>SUM(Q32:Q40)</f>
         <v>14256.1</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="12">
+        <f>SUM(R32:R40)</f>
+        <v>15582.2</v>
+      </c>
       <c r="S41" s="12">
-        <f t="shared" ref="S41:U41" si="145">SUM(S32:S40)</f>
+        <f t="shared" ref="S41:AB41" si="146">SUM(S32:S40)</f>
         <v>16706.400000000005</v>
       </c>
-      <c r="T41" s="12"/>
+      <c r="T41" s="12">
+        <f t="shared" si="146"/>
+        <v>18150.900000000001</v>
+      </c>
       <c r="U41" s="12">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>18974.2</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="12">
+        <f t="shared" si="146"/>
+        <v>20349.2</v>
+      </c>
+      <c r="W41" s="12">
+        <f t="shared" si="146"/>
+        <v>21726.2</v>
+      </c>
+      <c r="X41" s="12">
+        <f t="shared" si="146"/>
+        <v>22730.199999999997</v>
+      </c>
+      <c r="Y41" s="12">
+        <f t="shared" si="146"/>
+        <v>23917.4</v>
+      </c>
+      <c r="Z41" s="12">
+        <f t="shared" si="146"/>
+        <v>15802.08368</v>
+      </c>
+      <c r="AA41" s="12">
+        <f t="shared" si="146"/>
+        <v>17066.97424</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="146"/>
+        <v>18339.141599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
@@ -8283,23 +8637,47 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="M43" s="12">
+        <v>127.839</v>
+      </c>
+      <c r="N43" s="12">
+        <v>127.53400000000001</v>
+      </c>
+      <c r="O43" s="12">
+        <v>127.863</v>
+      </c>
+      <c r="P43" s="12">
+        <v>195</v>
+      </c>
       <c r="Q43" s="12">
         <v>173.6</v>
       </c>
-      <c r="R43" s="12"/>
+      <c r="R43" s="12">
+        <v>198</v>
+      </c>
       <c r="S43" s="12">
         <v>126.9</v>
       </c>
-      <c r="T43" s="12"/>
+      <c r="T43" s="12">
+        <v>303.89999999999998</v>
+      </c>
       <c r="U43" s="12">
         <v>323.2</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="2">
+        <v>363</v>
+      </c>
+      <c r="W43" s="2">
+        <v>375.9</v>
+      </c>
+      <c r="X43" s="2">
+        <v>364.9</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>351.4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>270</v>
       </c>
@@ -8313,23 +8691,47 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
+      <c r="M44" s="12">
+        <v>1532.037</v>
+      </c>
+      <c r="N44" s="12">
+        <v>1482.556</v>
+      </c>
+      <c r="O44" s="12">
+        <v>1584.992</v>
+      </c>
+      <c r="P44" s="12">
+        <v>1678.6</v>
+      </c>
       <c r="Q44" s="12">
         <v>1720.5</v>
       </c>
-      <c r="R44" s="12"/>
+      <c r="R44" s="12">
+        <v>2119.5</v>
+      </c>
       <c r="S44" s="12">
         <v>2264.4</v>
       </c>
-      <c r="T44" s="12"/>
+      <c r="T44" s="12">
+        <v>2126.6999999999998</v>
+      </c>
       <c r="U44" s="12">
         <v>2326</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="2">
+        <v>2598.1</v>
+      </c>
+      <c r="W44" s="2">
+        <v>2907.3</v>
+      </c>
+      <c r="X44" s="2">
+        <v>2655.3</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>2795.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8343,23 +8745,47 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="M45" s="12">
+        <v>284.17399999999998</v>
+      </c>
+      <c r="N45" s="12">
+        <v>226.358</v>
+      </c>
+      <c r="O45" s="12">
+        <v>201.40899999999999</v>
+      </c>
+      <c r="P45" s="12">
+        <v>268.39999999999998</v>
+      </c>
       <c r="Q45" s="12">
         <v>286.10000000000002</v>
       </c>
-      <c r="R45" s="12"/>
+      <c r="R45" s="12">
+        <v>238.7</v>
+      </c>
       <c r="S45" s="12">
         <v>218</v>
       </c>
-      <c r="T45" s="12"/>
+      <c r="T45" s="12">
+        <v>311.5</v>
+      </c>
       <c r="U45" s="12">
         <v>377</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="2">
+        <v>391</v>
+      </c>
+      <c r="W45" s="2">
+        <v>316.2</v>
+      </c>
+      <c r="X45" s="2">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>648.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>267</v>
       </c>
@@ -8373,26 +8799,60 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
+      <c r="M46" s="12">
+        <f>530.33+368.467</f>
+        <v>898.79700000000003</v>
+      </c>
+      <c r="N46" s="12">
+        <f>524.925+368.924</f>
+        <v>893.84899999999993</v>
+      </c>
+      <c r="O46" s="12">
+        <f>513.255+363.545</f>
+        <v>876.8</v>
+      </c>
+      <c r="P46" s="12">
+        <f>509.8+377.4</f>
+        <v>887.2</v>
+      </c>
       <c r="Q46" s="12">
         <f>495.5+377</f>
         <v>872.5</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="12">
+        <f>482.3+365</f>
+        <v>847.3</v>
+      </c>
       <c r="S46" s="12">
         <f>442.3+382.3</f>
         <v>824.6</v>
       </c>
-      <c r="T46" s="12"/>
+      <c r="T46" s="12">
+        <f>430.8+379.5</f>
+        <v>810.3</v>
+      </c>
       <c r="U46" s="12">
         <f>417.6+371.6</f>
         <v>789.2</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V46" s="2">
+        <f>404.1+363.5</f>
+        <v>767.6</v>
+      </c>
+      <c r="W46" s="2">
+        <f>390.3+354.4</f>
+        <v>744.7</v>
+      </c>
+      <c r="X46" s="2">
+        <f>376.1+348.6</f>
+        <v>724.7</v>
+      </c>
+      <c r="Y46" s="2">
+        <f>361.5+359.8</f>
+        <v>721.3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>272</v>
       </c>
@@ -8406,23 +8866,47 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
+      <c r="M47" s="12">
+        <v>185.7</v>
+      </c>
+      <c r="N47" s="12">
+        <v>187.3</v>
+      </c>
+      <c r="O47" s="12">
+        <v>188.5</v>
+      </c>
+      <c r="P47" s="12">
+        <v>186.5</v>
+      </c>
       <c r="Q47" s="12">
         <v>179</v>
       </c>
-      <c r="R47" s="12"/>
+      <c r="R47" s="12">
+        <v>129.80000000000001</v>
+      </c>
       <c r="S47" s="12">
         <v>127.2</v>
       </c>
-      <c r="T47" s="12"/>
+      <c r="T47" s="12">
+        <v>0</v>
+      </c>
       <c r="U47" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>273</v>
       </c>
@@ -8436,23 +8920,47 @@
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
+      <c r="M48" s="12">
+        <v>106.258</v>
+      </c>
+      <c r="N48" s="12">
+        <v>107.693</v>
+      </c>
+      <c r="O48" s="12">
+        <v>108.473</v>
+      </c>
+      <c r="P48" s="12">
+        <v>116.8</v>
+      </c>
       <c r="Q48" s="12">
         <v>117.4</v>
       </c>
-      <c r="R48" s="12"/>
+      <c r="R48" s="12">
+        <v>115.4</v>
+      </c>
       <c r="S48" s="12">
         <v>115.7</v>
       </c>
-      <c r="T48" s="12"/>
+      <c r="T48" s="12">
+        <v>685.8</v>
+      </c>
       <c r="U48" s="12">
         <v>726.5</v>
       </c>
-    </row>
-    <row r="49" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V48" s="2">
+        <v>759.3</v>
+      </c>
+      <c r="W48" s="2">
+        <v>869.3</v>
+      </c>
+      <c r="X48" s="2">
+        <v>877.7</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>853.6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>275</v>
       </c>
@@ -8466,23 +8974,47 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
+      <c r="M49" s="12">
+        <v>8980.2540000000008</v>
+      </c>
+      <c r="N49" s="12">
+        <v>9196.3960000000006</v>
+      </c>
+      <c r="O49" s="12">
+        <v>9530.7080000000005</v>
+      </c>
+      <c r="P49" s="12">
+        <v>10100</v>
+      </c>
       <c r="Q49" s="12">
         <v>10907</v>
       </c>
-      <c r="R49" s="12"/>
+      <c r="R49" s="12">
+        <v>11933.5</v>
+      </c>
       <c r="S49" s="12">
         <v>13029.6</v>
       </c>
-      <c r="T49" s="12"/>
+      <c r="T49" s="12">
+        <v>13912.7</v>
+      </c>
       <c r="U49" s="12">
         <v>14432.3</v>
       </c>
-    </row>
-    <row r="50" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="2">
+        <v>15470.2</v>
+      </c>
+      <c r="W49" s="2">
+        <v>16512.8</v>
+      </c>
+      <c r="X49" s="2">
+        <v>17580.400000000001</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>18546.599999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>274</v>
       </c>
@@ -8496,26 +9028,72 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
+      <c r="M50" s="12">
+        <f>SUM(M43:M49)</f>
+        <v>12115.059000000001</v>
+      </c>
+      <c r="N50" s="12">
+        <f>SUM(N43:N49)</f>
+        <v>12221.686000000002</v>
+      </c>
+      <c r="O50" s="12">
+        <f>SUM(O43:O49)</f>
+        <v>12618.745000000001</v>
+      </c>
+      <c r="P50" s="12">
+        <f>SUM(P43:P49)</f>
+        <v>13432.5</v>
+      </c>
       <c r="Q50" s="12">
         <f>SUM(Q43:Q49)</f>
         <v>14256.1</v>
       </c>
-      <c r="R50" s="12"/>
+      <c r="R50" s="12">
+        <f>SUM(R43:R49)</f>
+        <v>15582.2</v>
+      </c>
       <c r="S50" s="12">
-        <f t="shared" ref="S50:U50" si="146">SUM(S43:S49)</f>
+        <f t="shared" ref="S50:Y50" si="147">SUM(S43:S49)</f>
         <v>16706.400000000001</v>
       </c>
-      <c r="T50" s="12"/>
+      <c r="T50" s="12">
+        <f t="shared" si="147"/>
+        <v>18150.900000000001</v>
+      </c>
       <c r="U50" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>18974.199999999997</v>
       </c>
-    </row>
-    <row r="52" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V50" s="12">
+        <f t="shared" si="147"/>
+        <v>20349.2</v>
+      </c>
+      <c r="W50" s="12">
+        <f t="shared" si="147"/>
+        <v>21726.2</v>
+      </c>
+      <c r="X50" s="12">
+        <f t="shared" si="147"/>
+        <v>22730.2</v>
+      </c>
+      <c r="Y50" s="12">
+        <f>SUM(Y43:Y49)</f>
+        <v>23917.399999999998</v>
+      </c>
+      <c r="Z50" s="12">
+        <f t="shared" ref="Z50:AB50" si="148">SUM(Z43:Z49)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="12">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>276</v>
       </c>
@@ -8529,23 +9107,72 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
+      <c r="M52" s="12">
+        <f t="shared" ref="M52:Q52" si="149">+M23</f>
+        <v>779.8</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="149"/>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="149"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" si="149"/>
+        <v>868.69999999999982</v>
+      </c>
       <c r="Q52" s="12">
         <f>+Q23</f>
         <v>1002.4000000000001</v>
       </c>
-      <c r="R52" s="12"/>
+      <c r="R52" s="12">
+        <f>+R23</f>
+        <v>984.70000000000016</v>
+      </c>
       <c r="S52" s="12">
         <f>+S23</f>
-        <v>939.49999999999966</v>
-      </c>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-    </row>
-    <row r="53" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1104.7999999999995</v>
+      </c>
+      <c r="T52" s="12">
+        <f>+T23</f>
+        <v>989.79999999999984</v>
+      </c>
+      <c r="U52" s="12">
+        <f>+U23</f>
+        <v>1141.0999999999995</v>
+      </c>
+      <c r="V52" s="12">
+        <f>+V23</f>
+        <v>1124.5</v>
+      </c>
+      <c r="W52" s="12">
+        <f>+W23</f>
+        <v>1115.4000000000003</v>
+      </c>
+      <c r="X52" s="12">
+        <f>+X23</f>
+        <v>1149.4000000000003</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>+Y23</f>
+        <v>1318.5999999999995</v>
+      </c>
+      <c r="Z52" s="2">
+        <f>+Z23</f>
+        <v>1249.3836800000001</v>
+      </c>
+      <c r="AA52" s="2">
+        <f>+AA23</f>
+        <v>1264.8905600000003</v>
+      </c>
+      <c r="AB52" s="2">
+        <f>+AB23</f>
+        <v>1272.1673600000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>277</v>
       </c>
@@ -8559,19 +9186,56 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
+      <c r="M53" s="12">
+        <v>653.13800000000003</v>
+      </c>
+      <c r="N53" s="12">
+        <f>720.062-M53</f>
+        <v>66.923999999999978</v>
+      </c>
+      <c r="O53" s="12">
+        <f>1571.99-N53-M53</f>
+        <v>851.928</v>
+      </c>
+      <c r="P53" s="12">
+        <f>2342.1-O53-N53-M53</f>
+        <v>770.11</v>
+      </c>
       <c r="Q53" s="12">
         <v>762.1</v>
       </c>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="12">
+        <f>1572.6-Q53</f>
+        <v>810.49999999999989</v>
+      </c>
+      <c r="S53" s="12">
+        <f>2503.1-R53-Q53</f>
+        <v>930.49999999999989</v>
+      </c>
+      <c r="T53" s="12">
+        <f>3322-S53-R53-Q53</f>
+        <v>818.9</v>
+      </c>
+      <c r="U53" s="12">
+        <v>699.8</v>
+      </c>
+      <c r="V53" s="2">
+        <f>1615.5-U53</f>
+        <v>915.7</v>
+      </c>
+      <c r="W53" s="2">
+        <f>2650.8-V53-U53</f>
+        <v>1035.3000000000002</v>
+      </c>
+      <c r="X53" s="2">
+        <f>3619.6-W53-V53-U53</f>
+        <v>968.79999999999973</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>1099.5999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>278</v>
       </c>
@@ -8585,19 +9249,56 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
+      <c r="M54" s="12">
+        <v>115.17400000000001</v>
+      </c>
+      <c r="N54" s="12">
+        <f>219.796-M54</f>
+        <v>104.62199999999999</v>
+      </c>
+      <c r="O54" s="12">
+        <f>322.792-N54-M54</f>
+        <v>102.99599999999998</v>
+      </c>
+      <c r="P54" s="12">
+        <f>441.4-O54-N54-M54</f>
+        <v>118.608</v>
+      </c>
       <c r="Q54" s="12">
         <v>130.30000000000001</v>
       </c>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R54" s="12">
+        <f>244.2-Q54</f>
+        <v>113.89999999999998</v>
+      </c>
+      <c r="S54" s="12">
+        <f>379.8-R54-Q54</f>
+        <v>135.60000000000002</v>
+      </c>
+      <c r="T54" s="12">
+        <f>491.3-S54-R54-Q54</f>
+        <v>111.5</v>
+      </c>
+      <c r="U54" s="12">
+        <v>122.4</v>
+      </c>
+      <c r="V54" s="2">
+        <f>241.7-U54</f>
+        <v>119.29999999999998</v>
+      </c>
+      <c r="W54" s="2">
+        <f>372.6-V54-U54</f>
+        <v>130.90000000000003</v>
+      </c>
+      <c r="X54" s="2">
+        <f>581.2-W54-V54-U54</f>
+        <v>208.6</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>191.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
@@ -8611,19 +9312,56 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
+      <c r="M55" s="12">
+        <v>28.834</v>
+      </c>
+      <c r="N55" s="12">
+        <f>60.072-M55</f>
+        <v>31.238000000000003</v>
+      </c>
+      <c r="O55" s="12">
+        <f>91.768-N55-M55</f>
+        <v>31.696000000000002</v>
+      </c>
+      <c r="P55" s="12">
+        <f>125.6-O55-N55-M55</f>
+        <v>33.831999999999994</v>
+      </c>
       <c r="Q55" s="12">
         <v>35.9</v>
       </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-    </row>
-    <row r="56" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R55" s="12">
+        <f>73.2-Q55</f>
+        <v>37.300000000000004</v>
+      </c>
+      <c r="S55" s="12">
+        <f>109.9-R55-Q55</f>
+        <v>36.699999999999996</v>
+      </c>
+      <c r="T55" s="12">
+        <f>148.3-S55-R55-Q55</f>
+        <v>38.400000000000013</v>
+      </c>
+      <c r="U55" s="12">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="V55" s="2">
+        <f>80.2-U55</f>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="W55" s="2">
+        <f>122.3-V55-U55</f>
+        <v>42.099999999999994</v>
+      </c>
+      <c r="X55" s="2">
+        <f>181.3-W55-V55-U55</f>
+        <v>59.000000000000014</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>272</v>
       </c>
@@ -8637,19 +9375,56 @@
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
+      <c r="M56" s="12">
+        <v>-3.9</v>
+      </c>
+      <c r="N56" s="12">
+        <f>-2.3-M56</f>
+        <v>1.6</v>
+      </c>
+      <c r="O56" s="12">
+        <f>-1.1-N56-M56</f>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="P56" s="12">
+        <f>-3.1-O56-N56-M56</f>
+        <v>-2.0000000000000004</v>
+      </c>
       <c r="Q56" s="12">
         <v>-7.5</v>
       </c>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R56" s="12">
+        <f>-56.7-Q56</f>
+        <v>-49.2</v>
+      </c>
+      <c r="S56" s="12">
+        <f>-59.3-R56-Q56</f>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="T56" s="12">
+        <f>-57.5-S56-R56-Q56</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="U56" s="12">
+        <v>-1.9</v>
+      </c>
+      <c r="V56" s="2">
+        <f>-2.5-U56</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="W56" s="2">
+        <f>-1.3-V56-U56</f>
+        <v>1.2</v>
+      </c>
+      <c r="X56" s="2">
+        <f>-51.6-W56-V56-U56</f>
+        <v>-50.300000000000004</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -8663,19 +9438,56 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
+      <c r="M57" s="12">
+        <v>57.042999999999999</v>
+      </c>
+      <c r="N57" s="12">
+        <f>-180.895-M57</f>
+        <v>-237.93800000000002</v>
+      </c>
+      <c r="O57" s="12">
+        <f>-112.654-N57-M57</f>
+        <v>68.241000000000014</v>
+      </c>
+      <c r="P57" s="12">
+        <f>-154.6-O57-N57-M57</f>
+        <v>-41.945999999999991</v>
+      </c>
       <c r="Q57" s="12">
         <v>-12.3</v>
       </c>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R57" s="12">
+        <f>-241.7-Q57</f>
+        <v>-229.39999999999998</v>
+      </c>
+      <c r="S57" s="12">
+        <f>-424-R57-Q57</f>
+        <v>-182.3</v>
+      </c>
+      <c r="T57" s="12">
+        <f>-275.9-S57-R57-Q57</f>
+        <v>148.10000000000002</v>
+      </c>
+      <c r="U57" s="12">
+        <v>-113.4</v>
+      </c>
+      <c r="V57" s="2">
+        <f>-290-U57</f>
+        <v>-176.6</v>
+      </c>
+      <c r="W57" s="2">
+        <f>-405.5-V57-U57</f>
+        <v>-115.5</v>
+      </c>
+      <c r="X57" s="2">
+        <f>-536.5-W57-V57-U57</f>
+        <v>-131</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>-158.30000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>280</v>
       </c>
@@ -8689,19 +9501,56 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
+      <c r="M58" s="12">
+        <v>52.295000000000002</v>
+      </c>
+      <c r="N58" s="12">
+        <f>41.686-M58</f>
+        <v>-10.609000000000002</v>
+      </c>
+      <c r="O58" s="12">
+        <f>-4.993-N58-M58</f>
+        <v>-46.679000000000002</v>
+      </c>
+      <c r="P58" s="12">
+        <f>-17.1-O58-N58-M58</f>
+        <v>-12.106999999999999</v>
+      </c>
       <c r="Q58" s="12">
         <v>75.599999999999994</v>
       </c>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R58" s="12">
+        <f>159.8-Q58</f>
+        <v>84.200000000000017</v>
+      </c>
+      <c r="S58" s="12">
+        <f>143.1-R58-Q58</f>
+        <v>-16.700000000000017</v>
+      </c>
+      <c r="T58" s="12">
+        <f>149.1-S58-R58-Q58</f>
+        <v>6</v>
+      </c>
+      <c r="U58" s="12">
+        <v>-6.4</v>
+      </c>
+      <c r="V58" s="2">
+        <f>-6-U58</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="W58" s="2">
+        <f>0.2-V58-U58</f>
+        <v>6.2</v>
+      </c>
+      <c r="X58" s="2">
+        <f>0.6-W58-V58-U58</f>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>281</v>
       </c>
@@ -8715,19 +9564,56 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
+      <c r="M59" s="12">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="N59" s="12">
+        <f>11.186-M59</f>
+        <v>8.8539999999999992</v>
+      </c>
+      <c r="O59" s="12">
+        <f>20.588-N59-M59</f>
+        <v>9.402000000000001</v>
+      </c>
+      <c r="P59" s="12">
+        <f>14.4-O59-N59-M59</f>
+        <v>-6.1879999999999997</v>
+      </c>
       <c r="Q59" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-    </row>
-    <row r="60" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R59" s="12">
+        <f>-6.3-Q59</f>
+        <v>-11.2</v>
+      </c>
+      <c r="S59" s="12">
+        <f>-32.8-R59-Q59</f>
+        <v>-26.5</v>
+      </c>
+      <c r="T59" s="12">
+        <f>11.8-S59-R59-Q59</f>
+        <v>44.6</v>
+      </c>
+      <c r="U59" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="V59" s="2">
+        <f>11.1-U59</f>
+        <v>-10.6</v>
+      </c>
+      <c r="W59" s="2">
+        <f>-9.6-V59-U59</f>
+        <v>-20.7</v>
+      </c>
+      <c r="X59" s="2">
+        <f>8.4-W59-V59-U59</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>-36.299999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>282</v>
       </c>
@@ -8741,20 +9627,60 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
+      <c r="M60" s="12">
+        <f>-98.373-22.785-13.319-10.644+152.983+8.277</f>
+        <v>16.138999999999996</v>
+      </c>
+      <c r="N60" s="12">
+        <f>-45.848-47.492-92.187-24.345+107.526-45.973-M60</f>
+        <v>-164.45799999999997</v>
+      </c>
+      <c r="O60" s="12">
+        <f>-231.166-65.827-107.672-22.043+254.157-67.333-N60-M60</f>
+        <v>-91.564999999999984</v>
+      </c>
+      <c r="P60" s="12">
+        <f>-274.7-92.8-91.8+31.9+305.4+16.8-O60-N60-M60</f>
+        <v>134.68399999999991</v>
+      </c>
       <c r="Q60" s="12">
         <f>-165.2+2+67.6-14.5+61.6+15.7</f>
         <v>-32.799999999999997</v>
       </c>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R60" s="12">
+        <f>-249.3-31.3+85.3+30.8+547.1-31.7-Q60</f>
+        <v>383.70000000000005</v>
+      </c>
+      <c r="S60" s="12">
+        <f>-368.8-58.1-41.9-39.1+980.3-40.7-R60-Q60</f>
+        <v>80.799999999999883</v>
+      </c>
+      <c r="T60" s="12">
+        <f>-358.6-136.4-326.4+120.8+542.5+498.9-S60-R60-Q60</f>
+        <v>-90.899999999999991</v>
+      </c>
+      <c r="U60" s="12">
+        <f>-90.5-82.6+46.2+35.7+140.7+89.4</f>
+        <v>138.9</v>
+      </c>
+      <c r="V60" s="2">
+        <f>-93.4-155.4+26.6+71.3+417.4+117.8-U60</f>
+        <v>245.39999999999995</v>
+      </c>
+      <c r="W60" s="2">
+        <f>-99.5-252.9-94.4+80.5+786.1+153.4-V60-U60</f>
+        <v>188.90000000000006</v>
+      </c>
+      <c r="X60" s="2">
+        <f>-84.1-322.9-545.7+48.7+429.4+208.9-W60-V60-U60</f>
+        <v>-838.90000000000009</v>
+      </c>
+      <c r="Y60" s="2">
+        <f>-251.6-80.1+99.2+0.1+194.1+167.6</f>
+        <v>129.29999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
@@ -8768,20 +9694,60 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
+      <c r="M61" s="12">
+        <f>SUM(M53:M60)</f>
+        <v>921.05499999999995</v>
+      </c>
+      <c r="N61" s="12">
+        <f>SUM(N53:N60)</f>
+        <v>-199.76700000000002</v>
+      </c>
+      <c r="O61" s="12">
+        <f>SUM(O53:O60)</f>
+        <v>927.21900000000028</v>
+      </c>
+      <c r="P61" s="12">
+        <f>SUM(P53:P60)</f>
+        <v>994.99299999999994</v>
+      </c>
       <c r="Q61" s="12">
         <f>SUM(Q53:Q60)</f>
         <v>956.20000000000016</v>
       </c>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-    </row>
-    <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R61" s="12">
+        <f>SUM(R53:R60)</f>
+        <v>1139.7999999999997</v>
+      </c>
+      <c r="S61" s="12">
+        <f>SUM(S53:S60)</f>
+        <v>955.49999999999989</v>
+      </c>
+      <c r="T61" s="12">
+        <f>SUM(T53:T60)</f>
+        <v>1078.3999999999996</v>
+      </c>
+      <c r="U61" s="12">
+        <f>SUM(U53:U60)</f>
+        <v>899.9</v>
+      </c>
+      <c r="V61" s="12">
+        <f>SUM(V53:V60)</f>
+        <v>1134.4000000000001</v>
+      </c>
+      <c r="W61" s="12">
+        <f>SUM(W53:W60)</f>
+        <v>1268.4000000000003</v>
+      </c>
+      <c r="X61" s="12">
+        <f>SUM(X53:X60)</f>
+        <v>234.59999999999968</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>SUM(Y53:Y60)</f>
+        <v>1306.6000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>283</v>
       </c>
@@ -8795,21 +9761,58 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
+      <c r="M63" s="12">
+        <v>-70.926000000000002</v>
+      </c>
+      <c r="N63" s="12">
+        <f>-120.763-M63</f>
+        <v>-49.837000000000003</v>
+      </c>
+      <c r="O63" s="12">
+        <f>-173.285-N63-M63</f>
+        <v>-52.521999999999991</v>
+      </c>
+      <c r="P63" s="12">
+        <f>-235-O63-N63-M63</f>
+        <v>-61.715000000000018</v>
+      </c>
       <c r="Q63" s="12">
         <v>-63.6</v>
       </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-    </row>
-    <row r="64" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R63" s="12">
+        <f>-116.9-Q63</f>
+        <v>-53.300000000000004</v>
+      </c>
+      <c r="S63" s="12">
+        <f>-171.1-R63-Q63</f>
+        <v>-54.199999999999982</v>
+      </c>
+      <c r="T63" s="12">
+        <f>-204.7-S63-R63-Q63</f>
+        <v>-33.599999999999987</v>
+      </c>
+      <c r="U63" s="12">
+        <v>-42.1</v>
+      </c>
+      <c r="V63" s="2">
+        <f>-101.7-U63</f>
+        <v>-59.6</v>
+      </c>
+      <c r="W63" s="2">
+        <f>-142.3-V63-U63</f>
+        <v>-40.600000000000016</v>
+      </c>
+      <c r="X63" s="2">
+        <f>-200.4-W63-V63-U63</f>
+        <v>-58.099999999999987</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>-68.400000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -8821,22 +9824,49 @@
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
+      <c r="M64" s="12">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0</v>
+      </c>
+      <c r="O64" s="12">
+        <v>0</v>
+      </c>
+      <c r="P64" s="12">
+        <v>0</v>
+      </c>
       <c r="Q64" s="12">
-        <f>-117.1+129.7</f>
-        <v>12.599999999999994</v>
-      </c>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-    </row>
-    <row r="65" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="12">
+        <v>0</v>
+      </c>
+      <c r="S64" s="12">
+        <v>-295.89999999999998</v>
+      </c>
+      <c r="T64" s="12">
+        <v>0</v>
+      </c>
+      <c r="U64" s="12">
+        <v>0</v>
+      </c>
+      <c r="V64" s="12">
+        <v>0</v>
+      </c>
+      <c r="W64" s="12">
+        <v>0</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -8848,48 +9878,129 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
+      <c r="M65" s="12">
+        <f>-121.455+118.072</f>
+        <v>-3.3829999999999956</v>
+      </c>
+      <c r="N65" s="12">
+        <f>-239.458+221.271-15-M65</f>
+        <v>-29.804000000000016</v>
+      </c>
+      <c r="O65" s="12">
+        <f>-447.759+452.133-37.991-N65-M65</f>
+        <v>-0.43000000000002103</v>
+      </c>
+      <c r="P65" s="12">
+        <f>-528.2+499.3-77-O65-N65-M65</f>
+        <v>-72.283000000000001</v>
+      </c>
       <c r="Q65" s="12">
-        <f>Q63+Q64</f>
+        <f>-117.1+129.7</f>
+        <v>12.599999999999994</v>
+      </c>
+      <c r="R65" s="12">
+        <f>-227.9+242.3-10-Q65</f>
+        <v>-8.1999999999999886</v>
+      </c>
+      <c r="S65" s="12">
+        <f>-417.8+435.9-47.8-R65-Q65</f>
+        <v>-34.100000000000037</v>
+      </c>
+      <c r="T65" s="12">
+        <f>-692.7+920-47.8-S65-R65-Q65</f>
+        <v>209.19999999999996</v>
+      </c>
+      <c r="U65" s="12">
+        <f>-1816.6+50-24.9</f>
+        <v>-1791.5</v>
+      </c>
+      <c r="V65" s="2">
+        <f>-2390.8+289.8+95.1-29.9-U65</f>
+        <v>-244.30000000000018</v>
+      </c>
+      <c r="W65" s="2">
+        <f>-2798+621+95.1-31-V65-U65</f>
+        <v>-77.099999999999909</v>
+      </c>
+      <c r="X65" s="2">
+        <f>-3786.5+839.1+95.1-31-58-W65-V65-U65</f>
+        <v>-828.40000000000009</v>
+      </c>
+      <c r="Y65" s="2">
+        <f>-2598.5+710.5-180</f>
+        <v>-2068</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12">
+        <f>M63+M65</f>
+        <v>-74.308999999999997</v>
+      </c>
+      <c r="N66" s="12">
+        <f>N63+N65</f>
+        <v>-79.64100000000002</v>
+      </c>
+      <c r="O66" s="12">
+        <f>O63+O65</f>
+        <v>-52.952000000000012</v>
+      </c>
+      <c r="P66" s="12">
+        <f>P63+P65</f>
+        <v>-133.99800000000002</v>
+      </c>
+      <c r="Q66" s="12">
+        <f>Q63+Q65</f>
         <v>-51.000000000000007</v>
       </c>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-    </row>
-    <row r="67" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
+      <c r="R66" s="12">
+        <f>R63+R65</f>
+        <v>-61.499999999999993</v>
+      </c>
+      <c r="S66" s="12">
+        <f>S63+S65+S64</f>
+        <v>-384.2</v>
+      </c>
+      <c r="T66" s="12">
+        <f>T63+T65+T64</f>
+        <v>175.59999999999997</v>
+      </c>
+      <c r="U66" s="12">
+        <f>+U63+U65</f>
+        <v>-1833.6</v>
+      </c>
+      <c r="V66" s="12">
+        <f>+V63+V65</f>
+        <v>-303.9000000000002</v>
+      </c>
+      <c r="W66" s="12">
+        <f>+W63+W65</f>
+        <v>-117.69999999999993</v>
+      </c>
+      <c r="X66" s="12">
+        <f>+X63+X65</f>
+        <v>-886.50000000000011</v>
+      </c>
+      <c r="Y66" s="2">
+        <f>+Y63+Y65</f>
+        <v>-2136.4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-    </row>
-    <row r="68" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -8901,21 +10012,58 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
+      <c r="M68" s="12">
+        <v>15.558999999999999</v>
+      </c>
+      <c r="N68" s="12">
+        <f>53.494-M68</f>
+        <v>37.935000000000002</v>
+      </c>
+      <c r="O68" s="12">
+        <f>67.289-N68-M68</f>
+        <v>13.795</v>
+      </c>
+      <c r="P68" s="12">
+        <f>102-O68-N68-M68</f>
+        <v>34.710999999999999</v>
+      </c>
       <c r="Q68" s="12">
-        <v>-117.5</v>
-      </c>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-    </row>
-    <row r="69" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="R68" s="12">
+        <f>98.1-Q68</f>
+        <v>64.399999999999991</v>
+      </c>
+      <c r="S68" s="12">
+        <f>134.7-R68-Q68</f>
+        <v>36.599999999999994</v>
+      </c>
+      <c r="T68" s="12">
+        <f>186.3-S68-R68-Q68</f>
+        <v>51.600000000000023</v>
+      </c>
+      <c r="U68" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="V68" s="2">
+        <f>72.8-U68</f>
+        <v>58.599999999999994</v>
+      </c>
+      <c r="W68" s="2">
+        <f>88.2-V68-U68</f>
+        <v>15.400000000000009</v>
+      </c>
+      <c r="X68" s="2">
+        <f>134.6-W68-V68-U68</f>
+        <v>46.399999999999991</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -8927,21 +10075,58 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
+      <c r="M69" s="12">
+        <v>-102.14</v>
+      </c>
+      <c r="N69" s="12">
+        <f>-105.664-M69</f>
+        <v>-3.5240000000000009</v>
+      </c>
+      <c r="O69" s="12">
+        <f>-134.223-N69-M69</f>
+        <v>-28.559000000000012</v>
+      </c>
+      <c r="P69" s="12">
+        <f>-135.9-O69-N69-M69</f>
+        <v>-1.6769999999999925</v>
+      </c>
       <c r="Q69" s="12">
-        <v>-12.9</v>
-      </c>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-    </row>
-    <row r="70" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-117.5</v>
+      </c>
+      <c r="R69" s="12">
+        <f>-121.9-Q69</f>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="S69" s="12">
+        <f>-169.9-R69-Q69</f>
+        <v>-48</v>
+      </c>
+      <c r="T69" s="12">
+        <f>-172-S69-R69-Q69</f>
+        <v>-2.0999999999999943</v>
+      </c>
+      <c r="U69" s="12">
+        <v>-166.6</v>
+      </c>
+      <c r="V69" s="2">
+        <f>-169.7-U69</f>
+        <v>-3.0999999999999943</v>
+      </c>
+      <c r="W69" s="2">
+        <f>-222.9-V69-U69</f>
+        <v>-53.200000000000017</v>
+      </c>
+      <c r="X69" s="2">
+        <f>-226.1-W69-V69-U69</f>
+        <v>-3.1999999999999886</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -8953,21 +10138,55 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
+      <c r="M70" s="12">
+        <v>-424.952</v>
+      </c>
+      <c r="N70" s="12">
+        <f>-424.952-M70</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="12">
+        <f>-1057.225-N70-M70</f>
+        <v>-632.27299999999991</v>
+      </c>
+      <c r="P70" s="12">
+        <f>-1425.4-O70-N70-M70</f>
+        <v>-368.17500000000018</v>
+      </c>
       <c r="Q70" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <v>0</v>
+      </c>
+      <c r="T70" s="12">
+        <v>0</v>
+      </c>
+      <c r="U70" s="12">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="V70" s="2">
+        <f>-161.1-U70</f>
+        <v>-28.299999999999983</v>
+      </c>
+      <c r="W70" s="2">
+        <f>-278.1-V70-U70</f>
+        <v>-117.00000000000003</v>
+      </c>
+      <c r="X70" s="2">
+        <f>-427.6-W70-V70-U70</f>
+        <v>-149.50000000000006</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>-131.19999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -8979,22 +10198,60 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
+      <c r="M71" s="12">
+        <f>-12.233+3.632</f>
+        <v>-8.6010000000000009</v>
+      </c>
+      <c r="N71" s="12">
+        <f>-22.535+11.625-M71</f>
+        <v>-2.3089999999999993</v>
+      </c>
+      <c r="O71" s="12">
+        <f>-34.592+12.647-N71-M71</f>
+        <v>-11.035000000000002</v>
+      </c>
+      <c r="P71" s="12">
+        <f>-47+22.6-O71-N71-M71</f>
+        <v>-2.4549999999999965</v>
+      </c>
       <c r="Q71" s="12">
-        <f>SUM(Q67:Q70)</f>
-        <v>-95.4</v>
-      </c>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-    </row>
-    <row r="72" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-12.9</v>
+      </c>
+      <c r="R71" s="12">
+        <f>-25.6-Q71</f>
+        <v>-12.700000000000001</v>
+      </c>
+      <c r="S71" s="12">
+        <f>-75.1-R71-Q71</f>
+        <v>-49.499999999999993</v>
+      </c>
+      <c r="T71" s="12">
+        <f>-85.5-S71-R71-Q71</f>
+        <v>-10.400000000000004</v>
+      </c>
+      <c r="U71" s="12">
+        <v>-10.6</v>
+      </c>
+      <c r="V71" s="2">
+        <f>-21.6-U71</f>
+        <v>-11.000000000000002</v>
+      </c>
+      <c r="W71" s="2">
+        <f>-32.9-V71-U71</f>
+        <v>-11.299999999999999</v>
+      </c>
+      <c r="X71" s="2">
+        <f>-44.9-W71-V71-U71+1.8</f>
+        <v>-10.200000000000001</v>
+      </c>
+      <c r="Y71" s="2">
+        <f>-233.5-13.2</f>
+        <v>-246.7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -9006,21 +10263,58 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
+      <c r="M72" s="12">
+        <v>1.48</v>
+      </c>
+      <c r="N72" s="12">
+        <f>2.928-M72</f>
+        <v>1.448</v>
+      </c>
+      <c r="O72" s="12">
+        <f>4.339-N72-M72</f>
+        <v>1.4110000000000005</v>
+      </c>
+      <c r="P72" s="12">
+        <f>5.7-O72-N72-M72</f>
+        <v>1.3609999999999998</v>
+      </c>
       <c r="Q72" s="12">
-        <v>-5.9</v>
-      </c>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-    </row>
-    <row r="73" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+      <c r="R72" s="12">
+        <f>1.7-Q72</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S72" s="12">
+        <f>2.4-R72-Q72</f>
+        <v>0.7</v>
+      </c>
+      <c r="T72" s="12">
+        <f>3.5-S72-R72-Q72</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="U72" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V72" s="2">
+        <f>2.2-U72</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W72" s="2">
+        <f>3.3-V72-U72</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="X72" s="2">
+        <f>0-W72-V72-U72</f>
+        <v>-3.3</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -9032,20 +10326,63 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="M73" s="12">
+        <f t="shared" ref="M73:P73" si="150">SUM(M68:M72)</f>
+        <v>-518.654</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="150"/>
+        <v>33.550000000000004</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="150"/>
+        <v>-656.66099999999994</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="150"/>
+        <v>-336.23500000000018</v>
+      </c>
       <c r="Q73" s="12">
-        <f>+Q71+Q72+Q65+Q61</f>
-        <v>803.90000000000009</v>
-      </c>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-    </row>
-    <row r="74" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(Q68:Q72)</f>
+        <v>-95.4</v>
+      </c>
+      <c r="R73" s="12">
+        <f>SUM(R68:R72)</f>
+        <v>47.699999999999982</v>
+      </c>
+      <c r="S73" s="12">
+        <f>SUM(S68:S72)</f>
+        <v>-60.199999999999996</v>
+      </c>
+      <c r="T73" s="12">
+        <f>SUM(T68:T72)</f>
+        <v>40.200000000000024</v>
+      </c>
+      <c r="U73" s="2">
+        <f>SUM(U68:U72)</f>
+        <v>-294.70000000000005</v>
+      </c>
+      <c r="V73" s="2">
+        <f>SUM(V68:V72)</f>
+        <v>17.300000000000018</v>
+      </c>
+      <c r="W73" s="2">
+        <f>SUM(W68:W72)</f>
+        <v>-165.00000000000006</v>
+      </c>
+      <c r="X73" s="2">
+        <f>SUM(X68:X72)</f>
+        <v>-119.80000000000005</v>
+      </c>
+      <c r="Y73" s="2">
+        <f>SUM(Y68:Y72)</f>
+        <v>-357.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -9056,15 +10393,156 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
+      <c r="M74" s="12">
+        <v>-4.03</v>
+      </c>
+      <c r="N74" s="12">
+        <f>-0.011-M74</f>
+        <v>4.0190000000000001</v>
+      </c>
+      <c r="O74" s="12">
+        <f>-8.472-N74-M74</f>
+        <v>-8.4609999999999985</v>
+      </c>
+      <c r="P74" s="12">
+        <f>-13.4-O74-N74-M74</f>
+        <v>-4.9280000000000017</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>-5.9</v>
+      </c>
+      <c r="R74" s="12">
+        <f>-31.8-Q74</f>
+        <v>-25.9</v>
+      </c>
+      <c r="S74" s="12">
+        <f>-70-R74-Q74</f>
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="T74" s="12">
+        <f>-29.2-S74-R74-Q74</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="U74" s="2">
+        <v>12</v>
+      </c>
+      <c r="V74" s="2">
+        <f>22-U74</f>
+        <v>10</v>
+      </c>
+      <c r="W74" s="2">
+        <f>-0.5-V74-U74</f>
+        <v>-22.5</v>
+      </c>
+      <c r="X74" s="2">
+        <f>26.9-W74-V74-U74</f>
+        <v>27.4</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12">
+        <f t="shared" ref="M75:P75" si="151">+M73+M74+M66+M61</f>
+        <v>324.06200000000001</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" si="151"/>
+        <v>-241.83900000000006</v>
+      </c>
+      <c r="O75" s="12">
+        <f t="shared" si="151"/>
+        <v>209.14500000000032</v>
+      </c>
+      <c r="P75" s="12">
+        <f t="shared" si="151"/>
+        <v>519.83199999999977</v>
+      </c>
+      <c r="Q75" s="12">
+        <f>+Q73+Q74+Q66+Q61</f>
+        <v>803.90000000000009</v>
+      </c>
+      <c r="R75" s="12">
+        <f>+R73+R74+R66+R61</f>
+        <v>1100.0999999999997</v>
+      </c>
+      <c r="S75" s="12">
+        <f>+S73+S74+S66+S61</f>
+        <v>472.89999999999986</v>
+      </c>
+      <c r="T75" s="12">
+        <f>+T73+T74+T66+T61</f>
+        <v>1334.9999999999995</v>
+      </c>
+      <c r="U75" s="2">
+        <f>+U74+U73+U66+U61</f>
+        <v>-1216.4000000000001</v>
+      </c>
+      <c r="V75" s="2">
+        <f>+V74+V73+V66+V61</f>
+        <v>857.8</v>
+      </c>
+      <c r="W75" s="2">
+        <f>+W74+W73+W66+W61</f>
+        <v>963.20000000000027</v>
+      </c>
+      <c r="X75" s="2">
+        <f>+X74+X73+X66+X61</f>
+        <v>-744.30000000000052</v>
+      </c>
+      <c r="Y75" s="2">
+        <f>+Y74+Y73+Y66+Y61</f>
+        <v>-1202.8999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>353</v>
+      </c>
+      <c r="P77" s="12">
+        <v>3900</v>
+      </c>
+      <c r="T77" s="12">
+        <v>4800</v>
+      </c>
+      <c r="X77" s="2">
+        <v>5400</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4396C83-E27E-432E-A219-D140E119EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB552B-1544-E743-8BAB-D24E8892C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51360" yWindow="1125" windowWidth="22860" windowHeight="19560" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2069,23 +2069,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
@@ -2131,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>258.05338699999999</v>
+        <v>258.10220299999997</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>116382.07753699999</v>
+        <v>116404.09355299998</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2179,14 +2179,14 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <f>10171.3+4381.4</f>
-        <v>14552.699999999999</v>
+        <f>4580.1+1215.4+4393.1</f>
+        <v>10188.6</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2209,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
         <v>329</v>
       </c>
@@ -2236,15 +2236,15 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>101829.37753699999</v>
+        <v>106215.49355299998</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2255,7 +2255,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
         <v>52</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>199</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>316</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="D16" t="s">
         <v>57</v>
@@ -2384,7 +2384,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
         <v>128</v>
@@ -2396,7 +2396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>335</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>341</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>306</v>
       </c>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>343</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>346</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>303</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>327</v>
       </c>
@@ -2489,112 +2489,112 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E29" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E30" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E31" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E32" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E33" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E34" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E35" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E36" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E37" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E38" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E39" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E40" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E41" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E42" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E43" s="17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E44" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E45" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E46" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E47" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E48" s="17" t="s">
         <v>258</v>
       </c>
@@ -2625,19 +2625,19 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>241</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -2685,28 +2685,28 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="18"/>
       <c r="D14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>242</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>244</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>246</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>248</v>
       </c>
@@ -2758,23 +2758,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C22" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>242</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>244</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>246</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>248</v>
       </c>
@@ -2815,27 +2815,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C29" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C31" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>349</v>
       </c>
@@ -2855,18 +2855,18 @@
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -2890,17 +2890,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>334</v>
       </c>
@@ -2921,18 +2921,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2964,22 +2964,22 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>338</v>
       </c>
@@ -2999,18 +2999,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -3048,19 +3048,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>11390600</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>11370798</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>11369692</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>11358977</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>11345700</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>11291662</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>11268077</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>11253509</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>11203571</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11186566</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11179394</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11179367</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>11155533</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>11147770</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>11124805</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>11117900</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>11110108</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>11110086</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>11084804</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>11066417</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>11059826</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>11052075</v>
       </c>
@@ -3659,18 +3659,18 @@
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>113</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3743,12 +3743,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -3833,27 +3833,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
   <dimension ref="A1:DK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="3"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="21" width="9.1640625" style="3"/>
+    <col min="53" max="53" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
         <v>315</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>1104.6221254112045</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>2003.2849054119479</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>22.76186560866579</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>5.879359474205796E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>324</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1031.5469533267519</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>3130.6747757912922</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>219.14723430539047</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>2911.5275414859016</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>313.06747757912922</v>
       </c>
     </row>
-    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>2796.7</v>
       </c>
     </row>
-    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>313.06747757912922</v>
       </c>
     </row>
-    <row r="19" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>2598.4600639067721</v>
       </c>
     </row>
-    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>2807.2445870378729</v>
       </c>
     </row>
-    <row r="21" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>5405.7046509446445</v>
       </c>
     </row>
-    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>124</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>1081.1409301889289</v>
       </c>
     </row>
-    <row r="23" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>199.23178132148067</v>
       </c>
     </row>
-    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>16.597826600482499</v>
       </c>
     </row>
-    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>260.55</v>
       </c>
     </row>
-    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="13" t="s">
         <v>302</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>5.5314374230448271E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>180</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>292</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:115" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>183</v>
       </c>
@@ -7928,16 +7928,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:115" x14ac:dyDescent="0.15">
       <c r="BE31" t="s">
         <v>295</v>
       </c>
       <c r="BF31" s="2">
         <f>NPV(BF29,AN23:CK23)+Main!M5-Main!M6</f>
-        <v>181927.01669986467</v>
-      </c>
-    </row>
-    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>177562.91669986467</v>
+      </c>
+    </row>
+    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -8096,10 +8096,10 @@
       </c>
       <c r="BF32" s="1">
         <f>BF31/Main!M3</f>
-        <v>704.99759299754771</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>687.95583546361547</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>262</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>1793.2</v>
       </c>
     </row>
-    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
         <v>263</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>813.1</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>511.1</v>
       </c>
     </row>
-    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>265</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>1172.8</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>266</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>267</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>268</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>875.7</v>
       </c>
     </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>261</v>
       </c>
@@ -8559,71 +8559,71 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12">
-        <f>SUM(M32:M40)</f>
+        <f t="shared" ref="M41:R41" si="146">SUM(M32:M40)</f>
         <v>12115.058999999997</v>
       </c>
       <c r="N41" s="12">
-        <f>SUM(N32:N40)</f>
+        <f t="shared" si="146"/>
         <v>12221.686</v>
       </c>
       <c r="O41" s="12">
-        <f>SUM(O32:O40)</f>
+        <f t="shared" si="146"/>
         <v>12618.744999999999</v>
       </c>
       <c r="P41" s="12">
-        <f>SUM(P32:P40)</f>
+        <f t="shared" si="146"/>
         <v>13432.499999999998</v>
       </c>
       <c r="Q41" s="12">
-        <f>SUM(Q32:Q40)</f>
+        <f t="shared" si="146"/>
         <v>14256.1</v>
       </c>
       <c r="R41" s="12">
-        <f>SUM(R32:R40)</f>
+        <f t="shared" si="146"/>
         <v>15582.2</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" ref="S41:AB41" si="146">SUM(S32:S40)</f>
+        <f t="shared" ref="S41:AB41" si="147">SUM(S32:S40)</f>
         <v>16706.400000000005</v>
       </c>
       <c r="T41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>18150.900000000001</v>
       </c>
       <c r="U41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>18974.2</v>
       </c>
       <c r="V41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>20349.2</v>
       </c>
       <c r="W41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>21726.2</v>
       </c>
       <c r="X41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>22730.199999999997</v>
       </c>
       <c r="Y41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>23917.4</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>15802.08368</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>17066.97424</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>18339.141599999999</v>
       </c>
     </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>351.4</v>
       </c>
     </row>
-    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>270</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>2795.9</v>
       </c>
     </row>
-    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>648.6</v>
       </c>
     </row>
-    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>267</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>721.3</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>272</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>273</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>853.6</v>
       </c>
     </row>
-    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>275</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>18546.599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>274</v>
       </c>
@@ -9029,51 +9029,51 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12">
-        <f>SUM(M43:M49)</f>
+        <f t="shared" ref="M50:R50" si="148">SUM(M43:M49)</f>
         <v>12115.059000000001</v>
       </c>
       <c r="N50" s="12">
-        <f>SUM(N43:N49)</f>
+        <f t="shared" si="148"/>
         <v>12221.686000000002</v>
       </c>
       <c r="O50" s="12">
-        <f>SUM(O43:O49)</f>
+        <f t="shared" si="148"/>
         <v>12618.745000000001</v>
       </c>
       <c r="P50" s="12">
-        <f>SUM(P43:P49)</f>
+        <f t="shared" si="148"/>
         <v>13432.5</v>
       </c>
       <c r="Q50" s="12">
-        <f>SUM(Q43:Q49)</f>
+        <f t="shared" si="148"/>
         <v>14256.1</v>
       </c>
       <c r="R50" s="12">
-        <f>SUM(R43:R49)</f>
+        <f t="shared" si="148"/>
         <v>15582.2</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" ref="S50:Y50" si="147">SUM(S43:S49)</f>
+        <f t="shared" ref="S50:X50" si="149">SUM(S43:S49)</f>
         <v>16706.400000000001</v>
       </c>
       <c r="T50" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>18150.900000000001</v>
       </c>
       <c r="U50" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>18974.199999999997</v>
       </c>
       <c r="V50" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>20349.2</v>
       </c>
       <c r="W50" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>21726.2</v>
       </c>
       <c r="X50" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>22730.2</v>
       </c>
       <c r="Y50" s="12">
@@ -9081,19 +9081,19 @@
         <v>23917.399999999998</v>
       </c>
       <c r="Z50" s="12">
-        <f t="shared" ref="Z50:AB50" si="148">SUM(Z43:Z49)</f>
+        <f t="shared" ref="Z50:AB50" si="150">SUM(Z43:Z49)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AB50" s="12">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>276</v>
       </c>
@@ -9108,71 +9108,71 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:Q52" si="149">+M23</f>
+        <f t="shared" ref="M52:P52" si="151">+M23</f>
         <v>779.8</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>897.40000000000009</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q52" s="12">
-        <f>+Q23</f>
+        <f t="shared" ref="Q52:AB52" si="152">+Q23</f>
         <v>1002.4000000000001</v>
       </c>
       <c r="R52" s="12">
-        <f>+R23</f>
+        <f t="shared" si="152"/>
         <v>984.70000000000016</v>
       </c>
       <c r="S52" s="12">
-        <f>+S23</f>
+        <f t="shared" si="152"/>
         <v>1104.7999999999995</v>
       </c>
       <c r="T52" s="12">
-        <f>+T23</f>
+        <f t="shared" si="152"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U52" s="12">
-        <f>+U23</f>
+        <f t="shared" si="152"/>
         <v>1141.0999999999995</v>
       </c>
       <c r="V52" s="12">
-        <f>+V23</f>
+        <f t="shared" si="152"/>
         <v>1124.5</v>
       </c>
       <c r="W52" s="12">
-        <f>+W23</f>
+        <f t="shared" si="152"/>
         <v>1115.4000000000003</v>
       </c>
       <c r="X52" s="12">
-        <f>+X23</f>
+        <f t="shared" si="152"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y52" s="2">
-        <f>+Y23</f>
+        <f t="shared" si="152"/>
         <v>1318.5999999999995</v>
       </c>
       <c r="Z52" s="2">
-        <f>+Z23</f>
+        <f t="shared" si="152"/>
         <v>1249.3836800000001</v>
       </c>
       <c r="AA52" s="2">
-        <f>+AA23</f>
+        <f t="shared" si="152"/>
         <v>1264.8905600000003</v>
       </c>
       <c r="AB52" s="2">
-        <f>+AB23</f>
+        <f t="shared" si="152"/>
         <v>1272.1673600000001</v>
       </c>
     </row>
-    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>277</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1099.5999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
         <v>278</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>191.9</v>
       </c>
     </row>
-    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
         <v>272</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>-158.30000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
         <v>280</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>281</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
         <v>282</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>129.29999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
@@ -9695,59 +9695,59 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12">
-        <f>SUM(M53:M60)</f>
+        <f t="shared" ref="M61:Y61" si="153">SUM(M53:M60)</f>
         <v>921.05499999999995</v>
       </c>
       <c r="N61" s="12">
-        <f>SUM(N53:N60)</f>
+        <f t="shared" si="153"/>
         <v>-199.76700000000002</v>
       </c>
       <c r="O61" s="12">
-        <f>SUM(O53:O60)</f>
+        <f t="shared" si="153"/>
         <v>927.21900000000028</v>
       </c>
       <c r="P61" s="12">
-        <f>SUM(P53:P60)</f>
+        <f t="shared" si="153"/>
         <v>994.99299999999994</v>
       </c>
       <c r="Q61" s="12">
-        <f>SUM(Q53:Q60)</f>
+        <f t="shared" si="153"/>
         <v>956.20000000000016</v>
       </c>
       <c r="R61" s="12">
-        <f>SUM(R53:R60)</f>
+        <f t="shared" si="153"/>
         <v>1139.7999999999997</v>
       </c>
       <c r="S61" s="12">
-        <f>SUM(S53:S60)</f>
+        <f t="shared" si="153"/>
         <v>955.49999999999989</v>
       </c>
       <c r="T61" s="12">
-        <f>SUM(T53:T60)</f>
+        <f t="shared" si="153"/>
         <v>1078.3999999999996</v>
       </c>
       <c r="U61" s="12">
-        <f>SUM(U53:U60)</f>
+        <f t="shared" si="153"/>
         <v>899.9</v>
       </c>
       <c r="V61" s="12">
-        <f>SUM(V53:V60)</f>
+        <f t="shared" si="153"/>
         <v>1134.4000000000001</v>
       </c>
       <c r="W61" s="12">
-        <f>SUM(W53:W60)</f>
+        <f t="shared" si="153"/>
         <v>1268.4000000000003</v>
       </c>
       <c r="X61" s="12">
-        <f>SUM(X53:X60)</f>
+        <f t="shared" si="153"/>
         <v>234.59999999999968</v>
       </c>
       <c r="Y61" s="2">
-        <f>SUM(Y53:Y60)</f>
+        <f t="shared" si="153"/>
         <v>1306.6000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
         <v>283</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>-68.400000000000006</v>
       </c>
     </row>
-    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
         <v>357</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>284</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>-2068</v>
       </c>
     </row>
-    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>285</v>
       </c>
@@ -9946,27 +9946,27 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12">
-        <f>M63+M65</f>
+        <f t="shared" ref="M66:R66" si="154">M63+M65</f>
         <v>-74.308999999999997</v>
       </c>
       <c r="N66" s="12">
-        <f>N63+N65</f>
+        <f t="shared" si="154"/>
         <v>-79.64100000000002</v>
       </c>
       <c r="O66" s="12">
-        <f>O63+O65</f>
+        <f t="shared" si="154"/>
         <v>-52.952000000000012</v>
       </c>
       <c r="P66" s="12">
-        <f>P63+P65</f>
+        <f t="shared" si="154"/>
         <v>-133.99800000000002</v>
       </c>
       <c r="Q66" s="12">
-        <f>Q63+Q65</f>
+        <f t="shared" si="154"/>
         <v>-51.000000000000007</v>
       </c>
       <c r="R66" s="12">
-        <f>R63+R65</f>
+        <f t="shared" si="154"/>
         <v>-61.499999999999993</v>
       </c>
       <c r="S66" s="12">
@@ -9998,7 +9998,7 @@
         <v>-2136.4</v>
       </c>
     </row>
-    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>290</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
         <v>291</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
         <v>352</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>-131.19999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
         <v>267</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>-246.7</v>
       </c>
     </row>
-    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>268</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
@@ -10327,59 +10327,59 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12">
-        <f t="shared" ref="M73:P73" si="150">SUM(M68:M72)</f>
+        <f t="shared" ref="M73:P73" si="155">SUM(M68:M72)</f>
         <v>-518.654</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>33.550000000000004</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>-656.66099999999994</v>
       </c>
       <c r="P73" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="155"/>
         <v>-336.23500000000018</v>
       </c>
       <c r="Q73" s="12">
-        <f>SUM(Q68:Q72)</f>
+        <f t="shared" ref="Q73:Y73" si="156">SUM(Q68:Q72)</f>
         <v>-95.4</v>
       </c>
       <c r="R73" s="12">
-        <f>SUM(R68:R72)</f>
+        <f t="shared" si="156"/>
         <v>47.699999999999982</v>
       </c>
       <c r="S73" s="12">
-        <f>SUM(S68:S72)</f>
+        <f t="shared" si="156"/>
         <v>-60.199999999999996</v>
       </c>
       <c r="T73" s="12">
-        <f>SUM(T68:T72)</f>
+        <f t="shared" si="156"/>
         <v>40.200000000000024</v>
       </c>
       <c r="U73" s="2">
-        <f>SUM(U68:U72)</f>
+        <f t="shared" si="156"/>
         <v>-294.70000000000005</v>
       </c>
       <c r="V73" s="2">
-        <f>SUM(V68:V72)</f>
+        <f t="shared" si="156"/>
         <v>17.300000000000018</v>
       </c>
       <c r="W73" s="2">
-        <f>SUM(W68:W72)</f>
+        <f t="shared" si="156"/>
         <v>-165.00000000000006</v>
       </c>
       <c r="X73" s="2">
-        <f>SUM(X68:X72)</f>
+        <f t="shared" si="156"/>
         <v>-119.80000000000005</v>
       </c>
       <c r="Y73" s="2">
-        <f>SUM(Y68:Y72)</f>
+        <f t="shared" si="156"/>
         <v>-357.5</v>
       </c>
     </row>
-    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
         <v>288</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
         <v>287</v>
       </c>
@@ -10457,19 +10457,19 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:P75" si="151">+M73+M74+M66+M61</f>
+        <f t="shared" ref="M75:P75" si="157">+M73+M74+M66+M61</f>
         <v>324.06200000000001</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>-241.83900000000006</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>209.14500000000032</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" si="151"/>
+        <f t="shared" si="157"/>
         <v>519.83199999999977</v>
       </c>
       <c r="Q75" s="12">
@@ -10509,7 +10509,7 @@
         <v>-1202.8999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -10530,7 +10530,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>353</v>
       </c>
@@ -10560,18 +10560,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>194</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>184</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>186</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>191</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -10643,17 +10643,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>189</v>
       </c>
@@ -10672,18 +10672,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -10721,18 +10721,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -10748,12 +10748,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -10772,17 +10772,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10790,12 +10790,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -10831,18 +10831,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>121</v>
       </c>
@@ -10898,17 +10898,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>151</v>
       </c>
@@ -10916,57 +10916,57 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" s="18" t="s">
         <v>157</v>
       </c>
@@ -10986,18 +10986,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>134</v>
       </c>
@@ -11029,47 +11029,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>340</v>
       </c>
@@ -11088,19 +11088,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -11124,27 +11124,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="18" t="s">
         <v>330</v>
       </c>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB552B-1544-E743-8BAB-D24E8892C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DEA0C2-0092-4E0B-9B10-AE6B8EB26EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="363">
   <si>
     <t>Price</t>
   </si>
@@ -1153,6 +1153,21 @@
   </si>
   <si>
     <t>ViaCyte</t>
+  </si>
+  <si>
+    <t>8/7/24: Casgevy reimbursement for TDBT in England.</t>
+  </si>
+  <si>
+    <t>Reimbursement</t>
+  </si>
+  <si>
+    <t>England TDBT approved 8/7/24.</t>
+  </si>
+  <si>
+    <t>MHRA approval 11/15/23.</t>
+  </si>
+  <si>
+    <t>International: Ludovic Fenaux</t>
   </si>
 </sst>
 </file>
@@ -2070,22 +2085,22 @@
   <dimension ref="B2:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" customWidth="1"/>
-    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2111,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -2155,11 +2170,11 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>116404.09355299998</v>
+        <v>121566.13761299998</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2186,7 +2201,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>329</v>
       </c>
@@ -2236,15 +2251,15 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>106215.49355299998</v>
+        <v>111377.53761299998</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2255,7 +2270,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2288,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2303,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2321,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>52</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>199</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>316</v>
       </c>
@@ -2368,7 +2383,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="D16" t="s">
         <v>57</v>
@@ -2384,7 +2399,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" t="s">
         <v>128</v>
@@ -2395,8 +2410,11 @@
       <c r="H17" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>335</v>
       </c>
@@ -2411,7 +2429,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>341</v>
       </c>
@@ -2426,7 +2444,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>306</v>
       </c>
@@ -2441,7 +2459,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>343</v>
       </c>
@@ -2452,7 +2470,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>346</v>
       </c>
@@ -2464,7 +2482,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>303</v>
       </c>
@@ -2481,120 +2499,125 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>327</v>
       </c>
       <c r="E25" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E27" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E28" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E29" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E30" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E31" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E32" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E47" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E48" s="17" t="s">
         <v>258</v>
       </c>
@@ -2625,19 +2648,19 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +2668,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2661,7 +2684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>241</v>
       </c>
@@ -2677,7 +2700,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -2685,28 +2708,28 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="18"/>
       <c r="D14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>242</v>
       </c>
@@ -2714,7 +2737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>244</v>
       </c>
@@ -2725,7 +2748,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>246</v>
       </c>
@@ -2736,7 +2759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -2747,7 +2770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>248</v>
       </c>
@@ -2758,23 +2781,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>242</v>
       </c>
@@ -2782,7 +2805,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>244</v>
       </c>
@@ -2793,7 +2816,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>246</v>
       </c>
@@ -2804,7 +2827,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>248</v>
       </c>
@@ -2815,27 +2838,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>349</v>
       </c>
@@ -2855,18 +2878,18 @@
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2874,7 +2897,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -2890,17 +2913,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>334</v>
       </c>
@@ -2921,18 +2944,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2940,7 +2963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2971,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2956,7 +2979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2964,22 +2987,22 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>338</v>
       </c>
@@ -2999,18 +3022,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3041,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3026,7 +3049,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -3048,19 +3071,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="7" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3109,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11390600</v>
       </c>
@@ -3112,7 +3135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>11370798</v>
       </c>
@@ -3138,7 +3161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>11369692</v>
       </c>
@@ -3164,7 +3187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>11358977</v>
       </c>
@@ -3190,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>11345700</v>
       </c>
@@ -3216,7 +3239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>11291662</v>
       </c>
@@ -3242,7 +3265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11268077</v>
       </c>
@@ -3268,7 +3291,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>11253509</v>
       </c>
@@ -3291,7 +3314,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>11203571</v>
       </c>
@@ -3317,7 +3340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>11186566</v>
       </c>
@@ -3343,7 +3366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11179394</v>
       </c>
@@ -3369,7 +3392,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11179367</v>
       </c>
@@ -3395,7 +3418,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11155533</v>
       </c>
@@ -3421,7 +3444,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11147770</v>
       </c>
@@ -3447,7 +3470,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>11124805</v>
       </c>
@@ -3473,7 +3496,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>11117900</v>
       </c>
@@ -3496,7 +3519,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>11110108</v>
       </c>
@@ -3519,7 +3542,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>11110086</v>
       </c>
@@ -3542,7 +3565,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>11084804</v>
       </c>
@@ -3568,7 +3591,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>11066417</v>
       </c>
@@ -3591,7 +3614,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>11059826</v>
       </c>
@@ -3617,7 +3640,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>11052075</v>
       </c>
@@ -3659,18 +3682,18 @@
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3710,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -3704,7 +3727,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>113</v>
       </c>
@@ -3721,7 +3744,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -3732,7 +3755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3743,12 +3766,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -3762,7 +3785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -3776,7 +3799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -3793,7 +3816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3807,7 +3830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -3840,20 +3863,20 @@
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="21" width="9.1640625" style="3"/>
-    <col min="53" max="53" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="21" width="9.140625" style="3"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>315</v>
       </c>
@@ -4036,7 +4059,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -4096,7 +4119,7 @@
         <v>1104.6221254112045</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4203,7 @@
         <v>2003.2849054119479</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4204,7 +4227,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -4292,7 +4315,7 @@
         <v>22.76186560866579</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
@@ -4326,7 +4349,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4515,7 @@
         <v>5.879359474205796E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4563,7 +4586,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4634,7 +4657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>324</v>
       </c>
@@ -4732,7 +4755,7 @@
         <v>1031.5469533267519</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4803,7 +4826,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
@@ -4996,7 +5019,7 @@
         <v>3130.6747757912922</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -5162,7 +5185,7 @@
         <v>219.14723430539047</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
@@ -5355,7 +5378,7 @@
         <v>2911.5275414859016</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
@@ -5523,7 +5546,7 @@
         <v>313.06747757912922</v>
       </c>
     </row>
-    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
@@ -5623,7 +5646,7 @@
         <v>2796.7</v>
       </c>
     </row>
-    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -5816,7 +5839,7 @@
         <v>313.06747757912922</v>
       </c>
     </row>
-    <row r="19" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
@@ -6009,7 +6032,7 @@
         <v>2598.4600639067721</v>
       </c>
     </row>
-    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
@@ -6194,7 +6217,7 @@
         <v>2807.2445870378729</v>
       </c>
     </row>
-    <row r="21" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
@@ -6379,7 +6402,7 @@
         <v>5405.7046509446445</v>
       </c>
     </row>
-    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>124</v>
       </c>
@@ -6541,7 +6564,7 @@
         <v>1081.1409301889289</v>
       </c>
     </row>
-    <row r="23" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6966,7 +6989,7 @@
         <v>199.23178132148067</v>
       </c>
     </row>
-    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
@@ -7151,7 +7174,7 @@
         <v>16.597826600482499</v>
       </c>
     </row>
-    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -7313,7 +7336,7 @@
         <v>260.55</v>
       </c>
     </row>
-    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>302</v>
       </c>
@@ -7410,7 +7433,7 @@
         <v>5.5314374230448271E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>180</v>
       </c>
@@ -7585,7 +7608,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>292</v>
       </c>
@@ -7757,7 +7780,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:115" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>183</v>
       </c>
@@ -7928,7 +7951,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:115" x14ac:dyDescent="0.2">
       <c r="BE31" t="s">
         <v>295</v>
       </c>
@@ -7937,7 +7960,7 @@
         <v>177562.91669986467</v>
       </c>
     </row>
-    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -8099,7 +8122,7 @@
         <v>687.95583546361547</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>262</v>
       </c>
@@ -8153,7 +8176,7 @@
         <v>1793.2</v>
       </c>
     </row>
-    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>263</v>
       </c>
@@ -8207,7 +8230,7 @@
         <v>813.1</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
@@ -8261,7 +8284,7 @@
         <v>511.1</v>
       </c>
     </row>
-    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>265</v>
       </c>
@@ -8315,7 +8338,7 @@
         <v>1172.8</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>266</v>
       </c>
@@ -8382,7 +8405,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
@@ -8436,7 +8459,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>267</v>
       </c>
@@ -8490,7 +8513,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>268</v>
       </c>
@@ -8544,7 +8567,7 @@
         <v>875.7</v>
       </c>
     </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>261</v>
       </c>
@@ -8623,7 +8646,7 @@
         <v>18339.141599999999</v>
       </c>
     </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
@@ -8677,7 +8700,7 @@
         <v>351.4</v>
       </c>
     </row>
-    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>270</v>
       </c>
@@ -8731,7 +8754,7 @@
         <v>2795.9</v>
       </c>
     </row>
-    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8785,7 +8808,7 @@
         <v>648.6</v>
       </c>
     </row>
-    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>267</v>
       </c>
@@ -8852,7 +8875,7 @@
         <v>721.3</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>272</v>
       </c>
@@ -8906,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>273</v>
       </c>
@@ -8960,7 +8983,7 @@
         <v>853.6</v>
       </c>
     </row>
-    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>275</v>
       </c>
@@ -9014,7 +9037,7 @@
         <v>18546.599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>274</v>
       </c>
@@ -9093,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>276</v>
       </c>
@@ -9172,7 +9195,7 @@
         <v>1272.1673600000001</v>
       </c>
     </row>
-    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>277</v>
       </c>
@@ -9235,7 +9258,7 @@
         <v>1099.5999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>278</v>
       </c>
@@ -9298,7 +9321,7 @@
         <v>191.9</v>
       </c>
     </row>
-    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
@@ -9361,7 +9384,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>272</v>
       </c>
@@ -9424,7 +9447,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -9487,7 +9510,7 @@
         <v>-158.30000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>280</v>
       </c>
@@ -9550,7 +9573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>281</v>
       </c>
@@ -9613,7 +9636,7 @@
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>282</v>
       </c>
@@ -9680,7 +9703,7 @@
         <v>129.29999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
@@ -9747,7 +9770,7 @@
         <v>1306.6000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>283</v>
       </c>
@@ -9810,7 +9833,7 @@
         <v>-68.400000000000006</v>
       </c>
     </row>
-    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>357</v>
       </c>
@@ -9864,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>284</v>
       </c>
@@ -9931,7 +9954,7 @@
         <v>-2068</v>
       </c>
     </row>
-    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>285</v>
       </c>
@@ -9998,7 +10021,7 @@
         <v>-2136.4</v>
       </c>
     </row>
-    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>290</v>
       </c>
@@ -10061,7 +10084,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>291</v>
       </c>
@@ -10124,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>352</v>
       </c>
@@ -10184,7 +10207,7 @@
         <v>-131.19999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>267</v>
       </c>
@@ -10249,7 +10272,7 @@
         <v>-246.7</v>
       </c>
     </row>
-    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>268</v>
       </c>
@@ -10312,7 +10335,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
@@ -10379,7 +10402,7 @@
         <v>-357.5</v>
       </c>
     </row>
-    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>288</v>
       </c>
@@ -10442,7 +10465,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>287</v>
       </c>
@@ -10509,7 +10532,7 @@
         <v>-1202.8999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -10530,7 +10553,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>353</v>
       </c>
@@ -10560,18 +10583,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10587,7 +10610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10595,7 +10618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -10603,7 +10626,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>194</v>
       </c>
@@ -10611,7 +10634,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>184</v>
       </c>
@@ -10619,7 +10642,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>186</v>
       </c>
@@ -10627,7 +10650,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>191</v>
       </c>
@@ -10635,7 +10658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -10643,17 +10666,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>189</v>
       </c>
@@ -10672,18 +10695,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10691,7 +10714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10699,7 +10722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -10721,18 +10744,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -10748,12 +10771,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -10772,17 +10795,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10790,12 +10813,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10803,7 +10826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -10811,7 +10834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -10827,22 +10850,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E64667-B707-436E-8242-61F1E098F287}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10850,7 +10873,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10858,7 +10881,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10866,7 +10889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -10874,7 +10897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -10882,7 +10905,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -10890,7 +10913,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>121</v>
       </c>
@@ -10898,83 +10921,96 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="18" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="18" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="18" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="18" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C26" s="18" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="18" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B7375EF0-5582-4E12-AC44-5AB9BFB39A26}"/>
-    <hyperlink ref="I11" r:id="rId1" location="!*menu=16*browseby=9*sortby=1*trend=4016" xr:uid="{5FC3E2BD-FEEC-4C40-834C-9C4DE1F9CFCD}"/>
+    <hyperlink ref="I13" r:id="rId1" location="!*menu=16*browseby=9*sortby=1*trend=4016" xr:uid="{5FC3E2BD-FEEC-4C40-834C-9C4DE1F9CFCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10986,18 +11022,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11005,7 +11041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -11013,7 +11049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -11021,7 +11057,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>134</v>
       </c>
@@ -11029,47 +11065,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>340</v>
       </c>
@@ -11088,19 +11124,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -11116,7 +11152,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -11124,27 +11160,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="18" t="s">
         <v>330</v>
       </c>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DEA0C2-0092-4E0B-9B10-AE6B8EB26EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5747E4-9E14-4894-BA3C-5C0C9855BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="-30570" yWindow="1140" windowWidth="28755" windowHeight="17490" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2085,7 +2085,7 @@
   <dimension ref="B2:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5747E4-9E14-4894-BA3C-5C0C9855BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34960FE6-D4FD-4089-96FA-383936FA9B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30570" yWindow="1140" windowWidth="28755" windowHeight="17490" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <author>tc={1C045D63-D9FC-44DC-A757-A0BD3F5361CF}</author>
   </authors>
   <commentList>
-    <comment ref="AK13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+    <comment ref="AP13" authorId="0" shapeId="0" xr:uid="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +65,7 @@
 Q322: increases full year product guidance to 8.8-8.9B</t>
       </text>
     </comment>
-    <comment ref="AM13" authorId="1" shapeId="0" xr:uid="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+    <comment ref="AR13" authorId="1" shapeId="0" xr:uid="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="369">
   <si>
     <t>Price</t>
   </si>
@@ -1168,6 +1168,24 @@
   </si>
   <si>
     <t>International: Ludovic Fenaux</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Journavx (fka VX-548)</t>
+  </si>
+  <si>
+    <t>Journavx</t>
   </si>
 </sst>
 </file>
@@ -1405,14 +1423,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>31998</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>36378</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>31998</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>36378</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:to>
@@ -1429,8 +1447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15607880" y="0"/>
-          <a:ext cx="0" cy="14097000"/>
+          <a:off x="18074757" y="0"/>
+          <a:ext cx="0" cy="13558575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1455,13 +1473,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>610101</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>43113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>610101</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>14538</xdr:rowOff>
@@ -2068,12 +2086,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AK13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
+  <threadedComment ref="AP13" dT="2022-07-21T11:22:03.36" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{40D7F6D4-94FB-41AD-9B66-6EAA39E6AF95}">
     <text>Q122: reiterates 8.4-8.6B guidance
 Q222: increases to 8.6-8.8B
 Q322: increases full year product guidance to 8.8-8.9B</text>
   </threadedComment>
-  <threadedComment ref="AM13" dT="2024-05-23T16:04:58.44" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
+  <threadedComment ref="AR13" dT="2024-05-23T16:04:58.44" personId="{FB8BFC03-2370-4716-A729-D8FACAD01755}" id="{1C045D63-D9FC-44DC-A757-A0BD3F5361CF}">
     <text>Q124: Product 10.55-10.75, reiterated from last quarter
 Q423: Product 10.55-10.75</text>
   </threadedComment>
@@ -2082,25 +2100,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
-  <dimension ref="B2:N48"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2126,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -2170,11 +2188,11 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>121566.13761299998</v>
+        <v>124147.15964299999</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2219,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>329</v>
       </c>
@@ -2251,15 +2269,27 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>111377.53761299998</v>
+        <v>113958.55964299999</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+    <row r="8" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="26"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2270,355 +2300,337 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
-        <v>47</v>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H12" s="8"/>
       <c r="J12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>52</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
-        <v>199</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C15" t="s">
-        <v>331</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="J15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
-        <v>319</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="J16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" t="s">
-        <v>345</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="24" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>327</v>
       </c>
+      <c r="E24" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E25" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E26" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E27" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E28" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E29" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E31" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E32" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E33" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E34" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E35" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E36" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E37" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E38" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E39" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E40" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E41" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E42" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E43" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E44" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E45" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E46" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E47" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2626,14 +2638,14 @@
   <hyperlinks>
     <hyperlink ref="B4" location="Symdeko!A1" display="Symdeko" xr:uid="{C2ABB3C4-317B-4C42-B59A-79B30666B3E0}"/>
     <hyperlink ref="B6" location="Kalydeco!A1" display="Kalydeco" xr:uid="{EEBD4082-1D83-43E3-A2D1-75DBB6BD2997}"/>
-    <hyperlink ref="B13" location="'VX-880'!A1" display="VX-880" xr:uid="{E8018D7F-9B73-4E6B-A79D-A97660AF55C8}"/>
+    <hyperlink ref="B12" location="'VX-880'!A1" display="VX-880" xr:uid="{E8018D7F-9B73-4E6B-A79D-A97660AF55C8}"/>
     <hyperlink ref="B3" location="Trikafta!A1" display="Trikafta" xr:uid="{FCEBE0EB-001B-4AF7-8302-88E3A55A88B1}"/>
-    <hyperlink ref="B12" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
+    <hyperlink ref="B11" location="inaxaplin!A1" display="VX-147" xr:uid="{362A6FBB-2244-4147-8746-8E7FC462FB02}"/>
     <hyperlink ref="B7" location="Casgevy!A1" display="Casgevy" xr:uid="{EE1FBA3F-8223-4960-A117-1323E22DA27E}"/>
     <hyperlink ref="B5" location="Orkambi!A1" display="Orkambi" xr:uid="{5B227DE1-747D-41D9-AFFC-27BF0DF44345}"/>
-    <hyperlink ref="B10" location="'VX-548'!A1" display="VX-548" xr:uid="{C5FCC979-874F-4CAD-BE67-3603EB5F3567}"/>
-    <hyperlink ref="B23" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
-    <hyperlink ref="B11" location="'VX-121'!A1" display="VX-121" xr:uid="{ECC6416F-1E64-4473-A6C6-D23E81B80E70}"/>
+    <hyperlink ref="B22" location="'VX-634'!A1" display="VX-634" xr:uid="{28A7C8E1-14DE-4193-86D6-B95B3E551AF5}"/>
+    <hyperlink ref="B10" location="'VX-121'!A1" display="VX-121" xr:uid="{ECC6416F-1E64-4473-A6C6-D23E81B80E70}"/>
+    <hyperlink ref="B8" location="'VX-548'!A1" display="VX-548" xr:uid="{67203671-9821-4D42-B3BF-32EA7ACD3A76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2648,19 +2660,19 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>241</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -2708,28 +2720,28 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="18" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18"/>
       <c r="D14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>242</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>244</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>246</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>247</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>248</v>
       </c>
@@ -2781,23 +2793,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" s="22"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>242</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>244</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>246</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>248</v>
       </c>
@@ -2838,27 +2850,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="18" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C34" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>349</v>
       </c>
@@ -2878,18 +2890,18 @@
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -2913,17 +2925,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>334</v>
       </c>
@@ -2944,18 +2956,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2963,7 +2975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2987,22 +2999,22 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>338</v>
       </c>
@@ -3022,18 +3034,18 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -3071,19 +3083,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11390600</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11370798</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11369692</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11358977</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11345700</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11291662</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11268077</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11253509</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>44614</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11203571</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11186566</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11179394</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11179367</v>
       </c>
@@ -3418,7 +3430,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11155533</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11147770</v>
       </c>
@@ -3470,7 +3482,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11124805</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11117900</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>44453</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11110108</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11110086</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11084804</v>
       </c>
@@ -3591,7 +3603,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11066417</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11059826</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11052075</v>
       </c>
@@ -3682,18 +3694,18 @@
       <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>103</v>
       </c>
@@ -3727,7 +3739,7 @@
         <v>40686</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>113</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -3766,12 +3778,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>108</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>109</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>105</v>
       </c>
@@ -3854,29 +3866,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
-  <dimension ref="A1:DK77"/>
+  <dimension ref="A1:DP77"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="21" width="9.140625" style="3"/>
-    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="21" width="9.1796875" style="3"/>
+    <col min="58" max="58" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>315</v>
       </c>
@@ -3955,173 +3967,186 @@
       <c r="AB2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="AD2">
+      <c r="AC2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AI2">
         <v>2015</v>
       </c>
-      <c r="AE2">
-        <f>+AD2+1</f>
+      <c r="AJ2">
+        <f>+AI2+1</f>
         <v>2016</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AX2" si="0">+AE2+1</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:BC2" si="0">+AJ2+1</f>
         <v>2017</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AY2">
-        <f t="shared" ref="AY2" si="1">+AX2+1</f>
+      <c r="BD2">
+        <f t="shared" ref="BD2" si="1">+BC2+1</f>
         <v>2036</v>
       </c>
-      <c r="AZ2">
-        <f t="shared" ref="AZ2" si="2">+AY2+1</f>
+      <c r="BE2">
+        <f t="shared" ref="BE2" si="2">+BD2+1</f>
         <v>2037</v>
       </c>
-      <c r="BA2">
-        <f t="shared" ref="BA2" si="3">+AZ2+1</f>
+      <c r="BF2">
+        <f t="shared" ref="BF2" si="3">+BE2+1</f>
         <v>2038</v>
       </c>
-      <c r="BB2">
-        <f t="shared" ref="BB2" si="4">+BA2+1</f>
+      <c r="BG2">
+        <f t="shared" ref="BG2" si="4">+BF2+1</f>
         <v>2039</v>
       </c>
-      <c r="BC2">
-        <f t="shared" ref="BC2" si="5">+BB2+1</f>
+      <c r="BH2">
+        <f t="shared" ref="BH2" si="5">+BG2+1</f>
         <v>2040</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AT3" s="2">
         <v>200</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AU3" s="2">
         <v>400</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AV3" s="2">
         <v>600</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AW3" s="2">
         <v>800</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AX3" s="2">
         <v>1000</v>
       </c>
-      <c r="AT3" s="2">
-        <f>+AS3*1.01</f>
+      <c r="AY3" s="2">
+        <f>+AX3*1.01</f>
         <v>1010</v>
       </c>
-      <c r="AU3" s="2">
-        <f t="shared" ref="AU3:AX4" si="6">+AT3*1.01</f>
+      <c r="AZ3" s="2">
+        <f t="shared" ref="AZ3:BC4" si="6">+AY3*1.01</f>
         <v>1020.1</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="BA3" s="2">
         <f t="shared" si="6"/>
         <v>1030.3009999999999</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="BB3" s="2">
         <f t="shared" si="6"/>
         <v>1040.60401</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BC3" s="2">
         <f t="shared" si="6"/>
         <v>1051.0100500999999</v>
       </c>
-      <c r="AY3" s="2">
-        <f t="shared" ref="AY3:AY4" si="7">+AX3*1.01</f>
+      <c r="BD3" s="2">
+        <f t="shared" ref="BD3:BD4" si="7">+BC3*1.01</f>
         <v>1061.5201506009998</v>
       </c>
-      <c r="AZ3" s="2">
-        <f t="shared" ref="AZ3:AZ4" si="8">+AY3*1.01</f>
+      <c r="BE3" s="2">
+        <f t="shared" ref="BE3:BE4" si="8">+BD3*1.01</f>
         <v>1072.1353521070098</v>
       </c>
-      <c r="BA3" s="2">
-        <f t="shared" ref="BA3:BA4" si="9">+AZ3*1.01</f>
+      <c r="BF3" s="2">
+        <f t="shared" ref="BF3:BF4" si="9">+BE3*1.01</f>
         <v>1082.8567056280799</v>
       </c>
-      <c r="BB3" s="2">
-        <f t="shared" ref="BB3:BB4" si="10">+BA3*1.01</f>
+      <c r="BG3" s="2">
+        <f t="shared" ref="BG3:BG4" si="10">+BF3*1.01</f>
         <v>1093.6852726843608</v>
       </c>
-      <c r="BC3" s="2">
-        <f t="shared" ref="BC3" si="11">+BB3*1.01</f>
+      <c r="BH3" s="2">
+        <f t="shared" ref="BH3" si="11">+BG3*1.01</f>
         <v>1104.6221254112045</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4142,68 +4167,80 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="AM4" s="2">
+      <c r="AC4" s="2">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF4" s="2">
         <v>200</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AS4" s="2">
+        <f>SUM(AC4:AF4)</f>
+        <v>500</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AU4" s="2">
         <v>3000</v>
       </c>
-      <c r="AO4" s="2">
-        <v>7500</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>12500</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>17500</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>18500</v>
-      </c>
-      <c r="AU4" s="2">
-        <f t="shared" ref="AU4:AW4" si="12">+AT4*1.01</f>
-        <v>18685</v>
-      </c>
       <c r="AV4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>+AW4*1.01</f>
+        <v>5050</v>
+      </c>
+      <c r="AY4" s="2">
+        <f>+AX4*1.01</f>
+        <v>5100.5</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f t="shared" ref="AZ4:BB4" si="12">+AY4*1.01</f>
+        <v>5151.5050000000001</v>
+      </c>
+      <c r="BA4" s="2">
         <f t="shared" si="12"/>
-        <v>18871.849999999999</v>
-      </c>
-      <c r="AW4" s="2">
+        <v>5203.0200500000001</v>
+      </c>
+      <c r="BB4" s="2">
         <f t="shared" si="12"/>
-        <v>19060.568499999998</v>
-      </c>
-      <c r="AX4" s="2">
+        <v>5255.0502505000004</v>
+      </c>
+      <c r="BC4" s="2">
         <f t="shared" si="6"/>
-        <v>19251.174184999996</v>
-      </c>
-      <c r="AY4" s="2">
+        <v>5307.6007530050001</v>
+      </c>
+      <c r="BD4" s="2">
         <f t="shared" si="7"/>
-        <v>19443.685926849997</v>
-      </c>
-      <c r="AZ4" s="2">
+        <v>5360.6767605350506</v>
+      </c>
+      <c r="BE4" s="2">
         <f t="shared" si="8"/>
-        <v>19638.122786118496</v>
-      </c>
-      <c r="BA4" s="2">
+        <v>5414.2835281404014</v>
+      </c>
+      <c r="BF4" s="2">
         <f t="shared" si="9"/>
-        <v>19834.50401397968</v>
-      </c>
-      <c r="BB4" s="2">
+        <v>5468.426363421805</v>
+      </c>
+      <c r="BG4" s="2">
         <f t="shared" si="10"/>
-        <v>20032.849054119477</v>
-      </c>
-      <c r="BC4" s="2">
-        <f t="shared" ref="BC4" si="13">+BB4*0.1</f>
-        <v>2003.2849054119479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5523.1106270560231</v>
+      </c>
+      <c r="BH4" s="2">
+        <f t="shared" ref="BH4" si="13">+BG4*0.1</f>
+        <v>552.31106270560235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4227,7 +4264,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -4250,72 +4287,72 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-      <c r="AM6" s="2">
+      <c r="AR6" s="2">
         <v>5</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AS6" s="2">
         <v>10</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AT6" s="2">
         <v>15</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AU6" s="2">
         <v>20</v>
       </c>
-      <c r="AQ6" s="2">
-        <f>+AP6*1.01</f>
+      <c r="AV6" s="2">
+        <f>+AU6*1.01</f>
         <v>20.2</v>
       </c>
-      <c r="AR6" s="2">
-        <f t="shared" ref="AR6:AX6" si="14">+AQ6*1.01</f>
+      <c r="AW6" s="2">
+        <f t="shared" ref="AW6:BC6" si="14">+AV6*1.01</f>
         <v>20.402000000000001</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AX6" s="2">
         <f t="shared" si="14"/>
         <v>20.606020000000001</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AY6" s="2">
         <f t="shared" si="14"/>
         <v>20.8120802</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AZ6" s="2">
         <f t="shared" si="14"/>
         <v>21.020201002</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="BA6" s="2">
         <f t="shared" si="14"/>
         <v>21.230403012020002</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="BB6" s="2">
         <f t="shared" si="14"/>
         <v>21.442707042140203</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BC6" s="2">
         <f t="shared" si="14"/>
         <v>21.657134112561604</v>
       </c>
-      <c r="AY6" s="2">
-        <f t="shared" ref="AY6" si="15">+AX6*1.01</f>
+      <c r="BD6" s="2">
+        <f t="shared" ref="BD6" si="15">+BC6*1.01</f>
         <v>21.873705453687219</v>
       </c>
-      <c r="AZ6" s="2">
-        <f t="shared" ref="AZ6" si="16">+AY6*1.01</f>
+      <c r="BE6" s="2">
+        <f t="shared" ref="BE6" si="16">+BD6*1.01</f>
         <v>22.092442508224092</v>
       </c>
-      <c r="BA6" s="2">
-        <f t="shared" ref="BA6" si="17">+AZ6*1.01</f>
+      <c r="BF6" s="2">
+        <f t="shared" ref="BF6" si="17">+BE6*1.01</f>
         <v>22.313366933306334</v>
       </c>
-      <c r="BB6" s="2">
-        <f t="shared" ref="BB6" si="18">+BA6*1.01</f>
+      <c r="BG6" s="2">
+        <f t="shared" ref="BG6" si="18">+BF6*1.01</f>
         <v>22.536500602639396</v>
       </c>
-      <c r="BC6" s="2">
-        <f t="shared" ref="BC6" si="19">+BB6*1.01</f>
+      <c r="BH6" s="2">
+        <f t="shared" ref="BH6" si="19">+BG6*1.01</f>
         <v>22.76186560866579</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>268</v>
       </c>
@@ -4349,7 +4386,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4423,99 +4460,112 @@
         <v>2483.6</v>
       </c>
       <c r="Z8" s="2">
-        <f>+V8*1.05</f>
-        <v>2352.42</v>
+        <v>2449.1999999999998</v>
       </c>
       <c r="AA8" s="2">
-        <f>+W8*1.05</f>
-        <v>2388.0150000000003</v>
+        <v>2585</v>
       </c>
       <c r="AB8" s="2">
-        <f>+X8*1.05</f>
-        <v>2449.9650000000001</v>
-      </c>
-      <c r="AJ8" s="2">
+        <v>2720.8</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>+Y8*1.1</f>
+        <v>2731.96</v>
+      </c>
+      <c r="AD8" s="2">
+        <f>+Z8*1.1</f>
+        <v>2694.12</v>
+      </c>
+      <c r="AE8" s="2">
+        <f>+AA8*1.1</f>
+        <v>2843.5000000000005</v>
+      </c>
+      <c r="AF8" s="2">
+        <f>+AB8*1.1</f>
+        <v>2992.8800000000006</v>
+      </c>
+      <c r="AO8" s="2">
         <f>SUM(M8:P8)</f>
         <v>5698.2</v>
       </c>
-      <c r="AK8" s="2">
-        <f t="shared" ref="AK8:AK10" si="20">SUM(Q8:T8)</f>
+      <c r="AP8" s="2">
+        <f t="shared" ref="AP8:AP10" si="20">SUM(Q8:T8)</f>
         <v>7687.1</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AQ8" s="2">
         <f>SUM(U8:X8)</f>
         <v>8944.7000000000007</v>
       </c>
-      <c r="AM8" s="2">
-        <f>+AL8*1.1</f>
+      <c r="AR8" s="2">
+        <f>+AQ8*1.1</f>
         <v>9839.1700000000019</v>
       </c>
-      <c r="AN8" s="2">
-        <f>+AM8*1.02</f>
+      <c r="AS8" s="2">
+        <f>+AR8*1.02</f>
         <v>10035.953400000002</v>
       </c>
-      <c r="AO8" s="2">
-        <f t="shared" ref="AO8:AV8" si="21">+AN8*1.02</f>
+      <c r="AT8" s="2">
+        <f t="shared" ref="AT8:BA8" si="21">+AS8*1.02</f>
         <v>10236.672468000002</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AU8" s="2">
         <f t="shared" si="21"/>
         <v>10441.405917360004</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AV8" s="2">
         <f t="shared" si="21"/>
         <v>10650.234035707204</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AW8" s="2">
         <f t="shared" si="21"/>
         <v>10863.238716421349</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AX8" s="2">
         <f t="shared" si="21"/>
         <v>11080.503490749776</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AY8" s="2">
         <f t="shared" si="21"/>
         <v>11302.113560564771</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AZ8" s="2">
         <f t="shared" si="21"/>
         <v>11528.155831776066</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="BA8" s="2">
         <f t="shared" si="21"/>
         <v>11758.718948411588</v>
       </c>
-      <c r="AW8" s="2">
-        <f>+AV8*0.5</f>
+      <c r="BB8" s="2">
+        <f>+BA8*0.5</f>
         <v>5879.359474205794</v>
       </c>
-      <c r="AX8" s="2">
-        <f>+AW8*0.1</f>
+      <c r="BC8" s="2">
+        <f>+BB8*0.1</f>
         <v>587.9359474205794</v>
       </c>
-      <c r="AY8" s="2">
-        <f t="shared" ref="AY8:BC8" si="22">+AX8*0.1</f>
+      <c r="BD8" s="2">
+        <f t="shared" ref="BD8:BH8" si="22">+BC8*0.1</f>
         <v>58.793594742057941</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BE8" s="2">
         <f t="shared" si="22"/>
         <v>5.8793594742057946</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BF8" s="2">
         <f t="shared" si="22"/>
         <v>0.58793594742057953</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BG8" s="2">
         <f t="shared" si="22"/>
         <v>5.8793594742057954E-2</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BH8" s="2">
         <f t="shared" si="22"/>
         <v>5.879359474205796E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4574,19 +4624,19 @@
         <v>34</v>
       </c>
       <c r="U9" s="12"/>
-      <c r="AJ9" s="2">
-        <f t="shared" ref="AJ9:AJ14" si="23">SUM(M9:P9)</f>
+      <c r="AO9" s="2">
+        <f t="shared" ref="AO9:AO14" si="23">SUM(M9:P9)</f>
         <v>420.1</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AP9" s="2">
         <f t="shared" si="20"/>
         <v>180</v>
       </c>
-      <c r="AL9" s="29" t="s">
+      <c r="AQ9" s="29" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4645,19 +4695,19 @@
         <v>111</v>
       </c>
       <c r="U10" s="12"/>
-      <c r="AJ10" s="2">
+      <c r="AO10" s="2">
         <f t="shared" si="23"/>
         <v>771.7</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AP10" s="2">
         <f t="shared" si="20"/>
         <v>511.29999999999995</v>
       </c>
-      <c r="AL10" s="29" t="s">
+      <c r="AQ10" s="29" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>324</v>
       </c>
@@ -4695,67 +4745,64 @@
         <v>207</v>
       </c>
       <c r="Z11" s="2">
-        <f>+Y11</f>
-        <v>207</v>
+        <v>196.4</v>
       </c>
       <c r="AA11" s="2">
-        <f>+Z11</f>
-        <v>207</v>
+        <v>186.9</v>
       </c>
       <c r="AB11" s="2">
-        <f>+AA11</f>
-        <v>207</v>
-      </c>
-      <c r="AL11" s="2">
+        <v>191.2</v>
+      </c>
+      <c r="AQ11" s="2">
         <f>SUM(U11:X11)</f>
         <v>924.6</v>
       </c>
-      <c r="AM11" s="2">
-        <f>+AL11*1.01</f>
+      <c r="AR11" s="2">
+        <f>+AQ11*1.01</f>
         <v>933.846</v>
       </c>
-      <c r="AN11" s="2">
-        <f t="shared" ref="AN11:AW11" si="24">+AM11*1.01</f>
+      <c r="AS11" s="2">
+        <f t="shared" ref="AS11:BB11" si="24">+AR11*1.01</f>
         <v>943.18446000000006</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AT11" s="2">
         <f t="shared" si="24"/>
         <v>952.61630460000003</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AU11" s="2">
         <f t="shared" si="24"/>
         <v>962.142467646</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AV11" s="2">
         <f t="shared" si="24"/>
         <v>971.76389232246004</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AW11" s="2">
         <f t="shared" si="24"/>
         <v>981.48153124568466</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AX11" s="2">
         <f t="shared" si="24"/>
         <v>991.29634655814152</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AY11" s="2">
         <f t="shared" si="24"/>
         <v>1001.209310023723</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AZ11" s="2">
         <f t="shared" si="24"/>
         <v>1011.2214031239603</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="BA11" s="2">
         <f t="shared" si="24"/>
         <v>1021.3336171551999</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="BB11" s="2">
         <f t="shared" si="24"/>
         <v>1031.5469533267519</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4814,19 +4861,19 @@
         <v>136</v>
       </c>
       <c r="U12" s="12"/>
-      <c r="AJ12" s="2">
+      <c r="AO12" s="2">
         <f t="shared" si="23"/>
         <v>683.3</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AP12" s="2">
         <f>SUM(Q12:T12)</f>
         <v>553.4</v>
       </c>
-      <c r="AL12" s="29" t="s">
+      <c r="AQ12" s="29" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
@@ -4924,102 +4971,119 @@
       </c>
       <c r="Z13" s="14">
         <f>SUM(Z8:Z12)</f>
-        <v>2559.42</v>
+        <v>2645.6</v>
       </c>
       <c r="AA13" s="14">
         <f>SUM(AA8:AA12)</f>
-        <v>2595.0150000000003</v>
+        <v>2771.9</v>
       </c>
       <c r="AB13" s="14">
         <f>SUM(AB8:AB12)</f>
-        <v>2656.9650000000001</v>
-      </c>
-      <c r="AI13" s="13">
-        <f t="shared" ref="AI13" si="28">SUM(AI8:AI12)</f>
+        <v>2912</v>
+      </c>
+      <c r="AC13" s="14">
+        <f>SUM(AC8:AC12)</f>
+        <v>2731.96</v>
+      </c>
+      <c r="AD13" s="14">
+        <f>SUM(AD8:AD12)</f>
+        <v>2694.12</v>
+      </c>
+      <c r="AE13" s="14">
+        <f>SUM(AE8:AE12)</f>
+        <v>2843.5000000000005</v>
+      </c>
+      <c r="AF13" s="14">
+        <f>SUM(AF8:AF12)</f>
+        <v>2992.8800000000006</v>
+      </c>
+      <c r="AG13" s="14"/>
+      <c r="AN13" s="13">
+        <f t="shared" ref="AN13" si="28">SUM(AN8:AN12)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="13">
-        <f>SUM(AJ8:AJ12)</f>
+      <c r="AO13" s="13">
+        <f>SUM(AO8:AO12)</f>
         <v>7573.3</v>
       </c>
-      <c r="AK13" s="13">
-        <f>SUM(AK8:AK12)</f>
+      <c r="AP13" s="13">
+        <f>SUM(AP8:AP12)</f>
         <v>8931.7999999999993</v>
       </c>
-      <c r="AL13" s="13">
-        <f>SUM(AL3:AL12)</f>
+      <c r="AQ13" s="13">
+        <f>SUM(AQ3:AQ12)</f>
         <v>9869.3000000000011</v>
       </c>
-      <c r="AM13" s="13">
-        <f t="shared" ref="AM13:AX13" si="29">SUM(AM3:AM12)</f>
-        <v>10978.016000000001</v>
-      </c>
-      <c r="AN13" s="13">
+      <c r="AR13" s="13">
+        <f t="shared" ref="AR13:BC13" si="29">SUM(AR3:AR12)</f>
+        <v>10778.016000000001</v>
+      </c>
+      <c r="AS13" s="13">
         <f t="shared" si="29"/>
-        <v>13989.137860000003</v>
-      </c>
-      <c r="AO13" s="13">
-        <f t="shared" si="29"/>
-        <v>18904.288772600004</v>
-      </c>
-      <c r="AP13" s="13">
-        <f t="shared" si="29"/>
-        <v>21823.548385006005</v>
-      </c>
-      <c r="AQ13" s="13">
-        <f t="shared" si="29"/>
-        <v>24742.197928029665</v>
-      </c>
-      <c r="AR13" s="13">
-        <f t="shared" si="29"/>
-        <v>27665.122247667034</v>
-      </c>
-      <c r="AS13" s="13">
-        <f>SUM(AS3:AS12)</f>
-        <v>30592.405857307916</v>
+        <v>11489.137860000003</v>
       </c>
       <c r="AT13" s="13">
         <f t="shared" si="29"/>
-        <v>31834.134950788492</v>
+        <v>13404.288772600003</v>
       </c>
       <c r="AU13" s="13">
         <f t="shared" si="29"/>
-        <v>32265.497435902023</v>
+        <v>14823.548385006003</v>
       </c>
       <c r="AV13" s="13">
         <f t="shared" si="29"/>
-        <v>32703.433968578807</v>
+        <v>16242.197928029664</v>
       </c>
       <c r="AW13" s="13">
         <f t="shared" si="29"/>
-        <v>27033.521644574685</v>
+        <v>17665.122247667034</v>
       </c>
       <c r="AX13" s="13">
+        <f>SUM(AX3:AX12)</f>
+        <v>18142.405857307916</v>
+      </c>
+      <c r="AY13" s="13">
         <f t="shared" si="29"/>
-        <v>20911.777316633139</v>
-      </c>
-      <c r="AY13" s="13">
-        <f t="shared" ref="AY13:BC13" si="30">SUM(AY3:AY12)</f>
-        <v>20585.873377646742</v>
+        <v>18434.634950788492</v>
       </c>
       <c r="AZ13" s="13">
+        <f t="shared" si="29"/>
+        <v>18732.002435902028</v>
+      </c>
+      <c r="BA13" s="13">
+        <f t="shared" si="29"/>
+        <v>19034.604018578808</v>
+      </c>
+      <c r="BB13" s="13">
+        <f t="shared" si="29"/>
+        <v>13228.003395074686</v>
+      </c>
+      <c r="BC13" s="13">
+        <f t="shared" si="29"/>
+        <v>6968.2038846381411</v>
+      </c>
+      <c r="BD13" s="13">
+        <f t="shared" ref="BD13:BH13" si="30">SUM(BD3:BD12)</f>
+        <v>6502.8642113317956</v>
+      </c>
+      <c r="BE13" s="13">
         <f t="shared" si="30"/>
-        <v>20738.229940207933</v>
-      </c>
-      <c r="BA13" s="13">
+        <v>6514.3906822298404</v>
+      </c>
+      <c r="BF13" s="13">
         <f t="shared" si="30"/>
-        <v>20940.262022488489</v>
-      </c>
-      <c r="BB13" s="13">
+        <v>6574.1843719306116</v>
+      </c>
+      <c r="BG13" s="13">
         <f t="shared" si="30"/>
-        <v>21149.129621001219</v>
-      </c>
-      <c r="BC13" s="13">
+        <v>6639.3911939377658</v>
+      </c>
+      <c r="BH13" s="13">
         <f t="shared" si="30"/>
-        <v>3130.6747757912922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1679.7009330849469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -5093,99 +5157,96 @@
         <v>335.8</v>
       </c>
       <c r="Z14" s="2">
-        <f>+Z13-Z15</f>
-        <v>307.13040000000001</v>
+        <v>365</v>
       </c>
       <c r="AA14" s="2">
-        <f>+AA13-AA15</f>
-        <v>311.40180000000009</v>
+        <v>385.7</v>
       </c>
       <c r="AB14" s="2">
-        <f>+AB13-AB15</f>
-        <v>318.83579999999984</v>
-      </c>
-      <c r="AJ14" s="2">
+        <v>416.3</v>
+      </c>
+      <c r="AO14" s="2">
         <f t="shared" si="23"/>
         <v>904.21199999999999</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AP14" s="2">
         <f>SUM(Q14:T14)</f>
         <v>975.5</v>
       </c>
-      <c r="AL14" s="2">
-        <f t="shared" ref="AL14:AL17" si="31">SUM(U14:X14)</f>
+      <c r="AQ14" s="2">
+        <f t="shared" ref="AQ14:AQ17" si="31">SUM(U14:X14)</f>
         <v>1253</v>
       </c>
-      <c r="AM14" s="2">
-        <f t="shared" ref="AM14:AX14" si="32">+AM13*0.07</f>
-        <v>768.46112000000016</v>
-      </c>
-      <c r="AN14" s="2">
-        <f t="shared" si="32"/>
-        <v>979.23965020000026</v>
-      </c>
-      <c r="AO14" s="2">
-        <f t="shared" si="32"/>
-        <v>1323.3002140820004</v>
-      </c>
-      <c r="AP14" s="2">
-        <f t="shared" si="32"/>
-        <v>1527.6483869504204</v>
-      </c>
-      <c r="AQ14" s="2">
-        <f t="shared" si="32"/>
-        <v>1731.9538549620768</v>
-      </c>
       <c r="AR14" s="2">
-        <f t="shared" si="32"/>
-        <v>1936.5585573366925</v>
+        <f t="shared" ref="AR14:BC14" si="32">+AR13*0.07</f>
+        <v>754.46112000000016</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" si="32"/>
-        <v>2141.4684100115542</v>
+        <v>804.23965020000026</v>
       </c>
       <c r="AT14" s="2">
         <f t="shared" si="32"/>
-        <v>2228.3894465551948</v>
+        <v>938.30021408200025</v>
       </c>
       <c r="AU14" s="2">
         <f t="shared" si="32"/>
-        <v>2258.5848205131419</v>
+        <v>1037.6483869504202</v>
       </c>
       <c r="AV14" s="2">
         <f t="shared" si="32"/>
-        <v>2289.2403778005169</v>
+        <v>1136.9538549620765</v>
       </c>
       <c r="AW14" s="2">
         <f t="shared" si="32"/>
-        <v>1892.3465151202281</v>
+        <v>1236.5585573366925</v>
       </c>
       <c r="AX14" s="2">
         <f t="shared" si="32"/>
-        <v>1463.8244121643199</v>
+        <v>1269.9684100115542</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" ref="AY14:BC14" si="33">+AY13*0.07</f>
-        <v>1441.011136435272</v>
+        <f t="shared" si="32"/>
+        <v>1290.4244465551944</v>
       </c>
       <c r="AZ14" s="2">
+        <f t="shared" si="32"/>
+        <v>1311.2401705131422</v>
+      </c>
+      <c r="BA14" s="2">
+        <f t="shared" si="32"/>
+        <v>1332.4222813005167</v>
+      </c>
+      <c r="BB14" s="2">
+        <f t="shared" si="32"/>
+        <v>925.96023765522807</v>
+      </c>
+      <c r="BC14" s="2">
+        <f t="shared" si="32"/>
+        <v>487.7742719246699</v>
+      </c>
+      <c r="BD14" s="2">
+        <f t="shared" ref="BD14:BH14" si="33">+BD13*0.07</f>
+        <v>455.20049479322574</v>
+      </c>
+      <c r="BE14" s="2">
         <f t="shared" si="33"/>
-        <v>1451.6760958145555</v>
-      </c>
-      <c r="BA14" s="2">
+        <v>456.00734775608885</v>
+      </c>
+      <c r="BF14" s="2">
         <f t="shared" si="33"/>
-        <v>1465.8183415741944</v>
-      </c>
-      <c r="BB14" s="2">
+        <v>460.19290603514287</v>
+      </c>
+      <c r="BG14" s="2">
         <f t="shared" si="33"/>
-        <v>1480.4390734700855</v>
-      </c>
-      <c r="BC14" s="2">
+        <v>464.75738357564364</v>
+      </c>
+      <c r="BH14" s="2">
         <f t="shared" si="33"/>
-        <v>219.14723430539047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117.57906531594629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
@@ -5282,103 +5343,103 @@
         <v>2354.7999999999997</v>
       </c>
       <c r="Z15" s="2">
-        <f>+Z13*0.88</f>
-        <v>2252.2896000000001</v>
+        <f>+Z13-Z14</f>
+        <v>2280.6</v>
       </c>
       <c r="AA15" s="2">
-        <f>+AA13*0.88</f>
-        <v>2283.6132000000002</v>
+        <f>+AA13-AA14</f>
+        <v>2386.2000000000003</v>
       </c>
       <c r="AB15" s="2">
-        <f>+AB13*0.88</f>
-        <v>2338.1292000000003</v>
-      </c>
-      <c r="AI15" s="2">
-        <f t="shared" ref="AI15" si="37">+AI13-AI14</f>
+        <f>+AB13-AB14</f>
+        <v>2495.6999999999998</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" ref="AN15" si="37">+AN13-AN14</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="2">
-        <f>+AJ13-AJ14</f>
+      <c r="AO15" s="2">
+        <f>+AO13-AO14</f>
         <v>6669.0879999999997</v>
       </c>
-      <c r="AK15" s="2">
-        <f>+AK13-AK14</f>
+      <c r="AP15" s="2">
+        <f>+AP13-AP14</f>
         <v>7956.2999999999993</v>
       </c>
-      <c r="AL15" s="2">
-        <f>+AL13-AL14</f>
+      <c r="AQ15" s="2">
+        <f>+AQ13-AQ14</f>
         <v>8616.3000000000011</v>
       </c>
-      <c r="AM15" s="2">
-        <f t="shared" ref="AM15:AX15" si="38">+AM13-AM14</f>
-        <v>10209.554880000002</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="38"/>
-        <v>13009.898209800001</v>
-      </c>
-      <c r="AO15" s="2">
-        <f t="shared" si="38"/>
-        <v>17580.988558518005</v>
-      </c>
-      <c r="AP15" s="2">
-        <f t="shared" si="38"/>
-        <v>20295.899998055585</v>
-      </c>
-      <c r="AQ15" s="2">
-        <f t="shared" si="38"/>
-        <v>23010.244073067588</v>
-      </c>
       <c r="AR15" s="2">
-        <f t="shared" si="38"/>
-        <v>25728.563690330342</v>
+        <f t="shared" ref="AR15:BC15" si="38">+AR13-AR14</f>
+        <v>10023.554880000002</v>
       </c>
       <c r="AS15" s="2">
         <f t="shared" si="38"/>
-        <v>28450.937447296361</v>
+        <v>10684.898209800001</v>
       </c>
       <c r="AT15" s="2">
         <f t="shared" si="38"/>
-        <v>29605.745504233295</v>
+        <v>12465.988558518002</v>
       </c>
       <c r="AU15" s="2">
         <f t="shared" si="38"/>
-        <v>30006.912615388883</v>
+        <v>13785.899998055582</v>
       </c>
       <c r="AV15" s="2">
         <f t="shared" si="38"/>
-        <v>30414.19359077829</v>
+        <v>15105.244073067588</v>
       </c>
       <c r="AW15" s="2">
         <f t="shared" si="38"/>
-        <v>25141.175129454456</v>
+        <v>16428.563690330342</v>
       </c>
       <c r="AX15" s="2">
         <f t="shared" si="38"/>
-        <v>19447.952904468821</v>
+        <v>16872.437447296361</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" ref="AY15:BC15" si="39">+AY13-AY14</f>
-        <v>19144.862241211471</v>
+        <f t="shared" si="38"/>
+        <v>17144.210504233299</v>
       </c>
       <c r="AZ15" s="2">
+        <f t="shared" si="38"/>
+        <v>17420.762265388887</v>
+      </c>
+      <c r="BA15" s="2">
+        <f t="shared" si="38"/>
+        <v>17702.18173727829</v>
+      </c>
+      <c r="BB15" s="2">
+        <f t="shared" si="38"/>
+        <v>12302.043157419457</v>
+      </c>
+      <c r="BC15" s="2">
+        <f t="shared" si="38"/>
+        <v>6480.4296127134712</v>
+      </c>
+      <c r="BD15" s="2">
+        <f t="shared" ref="BD15:BH15" si="39">+BD13-BD14</f>
+        <v>6047.66371653857</v>
+      </c>
+      <c r="BE15" s="2">
         <f t="shared" si="39"/>
-        <v>19286.553844393376</v>
-      </c>
-      <c r="BA15" s="2">
+        <v>6058.3833344737513</v>
+      </c>
+      <c r="BF15" s="2">
         <f t="shared" si="39"/>
-        <v>19474.443680914294</v>
-      </c>
-      <c r="BB15" s="2">
+        <v>6113.9914658954685</v>
+      </c>
+      <c r="BG15" s="2">
         <f t="shared" si="39"/>
-        <v>19668.690547531132</v>
-      </c>
-      <c r="BC15" s="2">
+        <v>6174.6338103621219</v>
+      </c>
+      <c r="BH15" s="2">
         <f t="shared" si="39"/>
-        <v>2911.5275414859016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1562.1218677690006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
@@ -5452,101 +5513,98 @@
         <v>272</v>
       </c>
       <c r="Z16" s="2">
-        <f>+V16</f>
-        <v>219.6</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="AA16" s="2">
-        <f>+W16</f>
-        <v>215.7</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="AB16" s="2">
-        <f>+X16</f>
-        <v>285.60000000000002</v>
-      </c>
-      <c r="AI16" s="2">
+        <v>310.10000000000002</v>
+      </c>
+      <c r="AN16" s="2">
         <v>609</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AO16" s="2">
         <v>673</v>
       </c>
-      <c r="AK16" s="2">
-        <f t="shared" ref="AK16:AK17" si="40">SUM(Q16:T16)</f>
+      <c r="AP16" s="2">
+        <f t="shared" ref="AP16:AP17" si="40">SUM(Q16:T16)</f>
         <v>746.30000000000007</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AQ16" s="2">
         <f t="shared" si="31"/>
         <v>917.80000000000007</v>
       </c>
-      <c r="AM16" s="2">
-        <f t="shared" ref="AM16:AX16" si="41">+AM13*0.1</f>
-        <v>1097.8016000000002</v>
-      </c>
-      <c r="AN16" s="2">
-        <f t="shared" si="41"/>
-        <v>1398.9137860000003</v>
-      </c>
-      <c r="AO16" s="2">
-        <f t="shared" si="41"/>
-        <v>1890.4288772600005</v>
-      </c>
-      <c r="AP16" s="2">
-        <f t="shared" si="41"/>
-        <v>2182.3548385006006</v>
-      </c>
-      <c r="AQ16" s="2">
-        <f t="shared" si="41"/>
-        <v>2474.2197928029668</v>
-      </c>
       <c r="AR16" s="2">
-        <f t="shared" si="41"/>
-        <v>2766.5122247667036</v>
+        <f t="shared" ref="AR16:BC16" si="41">+AR13*0.1</f>
+        <v>1077.8016000000002</v>
       </c>
       <c r="AS16" s="2">
         <f t="shared" si="41"/>
-        <v>3059.2405857307917</v>
+        <v>1148.9137860000003</v>
       </c>
       <c r="AT16" s="2">
         <f t="shared" si="41"/>
-        <v>3183.4134950788493</v>
+        <v>1340.4288772600003</v>
       </c>
       <c r="AU16" s="2">
         <f t="shared" si="41"/>
-        <v>3226.5497435902025</v>
+        <v>1482.3548385006004</v>
       </c>
       <c r="AV16" s="2">
         <f t="shared" si="41"/>
-        <v>3270.3433968578811</v>
+        <v>1624.2197928029664</v>
       </c>
       <c r="AW16" s="2">
         <f t="shared" si="41"/>
-        <v>2703.3521644574685</v>
+        <v>1766.5122247667034</v>
       </c>
       <c r="AX16" s="2">
         <f t="shared" si="41"/>
-        <v>2091.1777316633138</v>
+        <v>1814.2405857307917</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" ref="AY16:BC16" si="42">+AY13*0.1</f>
-        <v>2058.5873377646744</v>
+        <f t="shared" si="41"/>
+        <v>1843.4634950788493</v>
       </c>
       <c r="AZ16" s="2">
+        <f t="shared" si="41"/>
+        <v>1873.2002435902029</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" si="41"/>
+        <v>1903.4604018578809</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" si="41"/>
+        <v>1322.8003395074686</v>
+      </c>
+      <c r="BC16" s="2">
+        <f t="shared" si="41"/>
+        <v>696.8203884638142</v>
+      </c>
+      <c r="BD16" s="2">
+        <f t="shared" ref="BD16:BH16" si="42">+BD13*0.1</f>
+        <v>650.2864211331796</v>
+      </c>
+      <c r="BE16" s="2">
         <f t="shared" si="42"/>
-        <v>2073.8229940207934</v>
-      </c>
-      <c r="BA16" s="2">
+        <v>651.43906822298413</v>
+      </c>
+      <c r="BF16" s="2">
         <f t="shared" si="42"/>
-        <v>2094.0262022488491</v>
-      </c>
-      <c r="BB16" s="2">
+        <v>657.41843719306121</v>
+      </c>
+      <c r="BG16" s="2">
         <f t="shared" si="42"/>
-        <v>2114.9129621001221</v>
-      </c>
-      <c r="BC16" s="2">
+        <v>663.93911939377665</v>
+      </c>
+      <c r="BH16" s="2">
         <f t="shared" si="42"/>
-        <v>313.06747757912922</v>
-      </c>
-    </row>
-    <row r="17" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>167.97009330849471</v>
+      </c>
+    </row>
+    <row r="17" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
@@ -5620,33 +5678,30 @@
         <v>669.7</v>
       </c>
       <c r="Z17" s="2">
-        <f>+V17*0.9</f>
-        <v>637.55999999999995</v>
+        <v>697.2</v>
       </c>
       <c r="AA17" s="2">
-        <f>+W17*0.9</f>
-        <v>653.4</v>
+        <v>764</v>
       </c>
       <c r="AB17" s="2">
-        <f>+X17*0.9</f>
-        <v>628.91999999999996</v>
-      </c>
-      <c r="AI17" s="2">
+        <v>899.8</v>
+      </c>
+      <c r="AN17" s="2">
         <v>1372</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AO17" s="2">
         <v>1658</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AP17" s="2">
         <f t="shared" si="40"/>
         <v>2206.5</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AQ17" s="2">
         <f t="shared" si="31"/>
         <v>2796.7</v>
       </c>
     </row>
-    <row r="18" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -5744,102 +5799,107 @@
       </c>
       <c r="Z18" s="12">
         <f t="shared" ref="Z18:AB18" si="51">SUM(Z16:Z17)</f>
-        <v>857.16</v>
+        <v>977.6</v>
       </c>
       <c r="AA18" s="12">
         <f t="shared" si="51"/>
-        <v>869.09999999999991</v>
+        <v>1064.0999999999999</v>
       </c>
       <c r="AB18" s="12">
         <f t="shared" si="51"/>
-        <v>914.52</v>
-      </c>
-      <c r="AI18" s="12">
-        <f t="shared" ref="AI18:AK18" si="52">SUM(AI16:AI17)</f>
+        <v>1209.9000000000001</v>
+      </c>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AN18" s="12">
+        <f t="shared" ref="AN18:AP18" si="52">SUM(AN16:AN17)</f>
         <v>1981</v>
       </c>
-      <c r="AJ18" s="12">
+      <c r="AO18" s="12">
         <f t="shared" si="52"/>
         <v>2331</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="AP18" s="12">
         <f t="shared" si="52"/>
         <v>2952.8</v>
       </c>
-      <c r="AL18" s="12">
-        <f t="shared" ref="AL18:AX18" si="53">SUM(AL16:AL17)</f>
+      <c r="AQ18" s="12">
+        <f t="shared" ref="AQ18:BC18" si="53">SUM(AQ16:AQ17)</f>
         <v>3714.5</v>
-      </c>
-      <c r="AM18" s="12">
-        <f t="shared" si="53"/>
-        <v>1097.8016000000002</v>
-      </c>
-      <c r="AN18" s="12">
-        <f t="shared" si="53"/>
-        <v>1398.9137860000003</v>
-      </c>
-      <c r="AO18" s="12">
-        <f t="shared" si="53"/>
-        <v>1890.4288772600005</v>
-      </c>
-      <c r="AP18" s="12">
-        <f t="shared" si="53"/>
-        <v>2182.3548385006006</v>
-      </c>
-      <c r="AQ18" s="12">
-        <f t="shared" si="53"/>
-        <v>2474.2197928029668</v>
       </c>
       <c r="AR18" s="12">
         <f t="shared" si="53"/>
-        <v>2766.5122247667036</v>
+        <v>1077.8016000000002</v>
       </c>
       <c r="AS18" s="12">
         <f t="shared" si="53"/>
-        <v>3059.2405857307917</v>
+        <v>1148.9137860000003</v>
       </c>
       <c r="AT18" s="12">
         <f t="shared" si="53"/>
-        <v>3183.4134950788493</v>
+        <v>1340.4288772600003</v>
       </c>
       <c r="AU18" s="12">
         <f t="shared" si="53"/>
-        <v>3226.5497435902025</v>
+        <v>1482.3548385006004</v>
       </c>
       <c r="AV18" s="12">
         <f t="shared" si="53"/>
-        <v>3270.3433968578811</v>
+        <v>1624.2197928029664</v>
       </c>
       <c r="AW18" s="12">
         <f t="shared" si="53"/>
-        <v>2703.3521644574685</v>
+        <v>1766.5122247667034</v>
       </c>
       <c r="AX18" s="12">
         <f t="shared" si="53"/>
-        <v>2091.1777316633138</v>
+        <v>1814.2405857307917</v>
       </c>
       <c r="AY18" s="12">
-        <f t="shared" ref="AY18:BC18" si="54">SUM(AY16:AY17)</f>
-        <v>2058.5873377646744</v>
+        <f t="shared" si="53"/>
+        <v>1843.4634950788493</v>
       </c>
       <c r="AZ18" s="12">
+        <f t="shared" si="53"/>
+        <v>1873.2002435902029</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="53"/>
+        <v>1903.4604018578809</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="53"/>
+        <v>1322.8003395074686</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" si="53"/>
+        <v>696.8203884638142</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" ref="BD18:BH18" si="54">SUM(BD16:BD17)</f>
+        <v>650.2864211331796</v>
+      </c>
+      <c r="BE18" s="12">
         <f t="shared" si="54"/>
-        <v>2073.8229940207934</v>
-      </c>
-      <c r="BA18" s="12">
+        <v>651.43906822298413</v>
+      </c>
+      <c r="BF18" s="12">
         <f t="shared" si="54"/>
-        <v>2094.0262022488491</v>
-      </c>
-      <c r="BB18" s="12">
+        <v>657.41843719306121</v>
+      </c>
+      <c r="BG18" s="12">
         <f t="shared" si="54"/>
-        <v>2114.9129621001221</v>
-      </c>
-      <c r="BC18" s="12">
+        <v>663.93911939377665</v>
+      </c>
+      <c r="BH18" s="12">
         <f t="shared" si="54"/>
-        <v>313.06747757912922</v>
-      </c>
-    </row>
-    <row r="19" spans="2:115" x14ac:dyDescent="0.2">
+        <v>167.97009330849471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
@@ -5937,102 +5997,107 @@
       </c>
       <c r="Z19" s="12">
         <f t="shared" ref="Z19:AB19" si="63">Z15-Z18</f>
-        <v>1395.1296000000002</v>
+        <v>1303</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="63"/>
-        <v>1414.5132000000003</v>
+        <v>1322.1000000000004</v>
       </c>
       <c r="AB19" s="12">
         <f t="shared" si="63"/>
-        <v>1423.6092000000003</v>
-      </c>
-      <c r="AI19" s="12">
-        <f t="shared" ref="AI19:AK19" si="64">AI15-AI18</f>
+        <v>1285.7999999999997</v>
+      </c>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AN19" s="12">
+        <f t="shared" ref="AN19:AP19" si="64">AN15-AN18</f>
         <v>-1981</v>
       </c>
-      <c r="AJ19" s="12">
+      <c r="AO19" s="12">
         <f t="shared" si="64"/>
         <v>4338.0879999999997</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AP19" s="12">
         <f t="shared" si="64"/>
         <v>5003.4999999999991</v>
       </c>
-      <c r="AL19" s="12">
-        <f t="shared" ref="AL19:AX19" si="65">AL15-AL18</f>
+      <c r="AQ19" s="12">
+        <f t="shared" ref="AQ19:BC19" si="65">AQ15-AQ18</f>
         <v>4901.8000000000011</v>
-      </c>
-      <c r="AM19" s="12">
-        <f t="shared" si="65"/>
-        <v>9111.7532800000008</v>
-      </c>
-      <c r="AN19" s="12">
-        <f t="shared" si="65"/>
-        <v>11610.984423800001</v>
-      </c>
-      <c r="AO19" s="12">
-        <f t="shared" si="65"/>
-        <v>15690.559681258004</v>
-      </c>
-      <c r="AP19" s="12">
-        <f t="shared" si="65"/>
-        <v>18113.545159554986</v>
-      </c>
-      <c r="AQ19" s="12">
-        <f t="shared" si="65"/>
-        <v>20536.024280264621</v>
       </c>
       <c r="AR19" s="12">
         <f t="shared" si="65"/>
-        <v>22962.05146556364</v>
+        <v>8945.7532800000008</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" si="65"/>
-        <v>25391.696861565568</v>
+        <v>9535.9844238000005</v>
       </c>
       <c r="AT19" s="12">
         <f t="shared" si="65"/>
-        <v>26422.332009154445</v>
+        <v>11125.559681258001</v>
       </c>
       <c r="AU19" s="12">
         <f t="shared" si="65"/>
-        <v>26780.362871798679</v>
+        <v>12303.545159554982</v>
       </c>
       <c r="AV19" s="12">
         <f t="shared" si="65"/>
-        <v>27143.850193920407</v>
+        <v>13481.024280264621</v>
       </c>
       <c r="AW19" s="12">
         <f t="shared" si="65"/>
-        <v>22437.822964996987</v>
+        <v>14662.051465563638</v>
       </c>
       <c r="AX19" s="12">
         <f t="shared" si="65"/>
-        <v>17356.775172805508</v>
+        <v>15058.19686156557</v>
       </c>
       <c r="AY19" s="12">
-        <f t="shared" ref="AY19:BC19" si="66">AY15-AY18</f>
-        <v>17086.274903446796</v>
+        <f t="shared" si="65"/>
+        <v>15300.747009154449</v>
       </c>
       <c r="AZ19" s="12">
+        <f t="shared" si="65"/>
+        <v>15547.562021798683</v>
+      </c>
+      <c r="BA19" s="12">
+        <f t="shared" si="65"/>
+        <v>15798.721335420409</v>
+      </c>
+      <c r="BB19" s="12">
+        <f t="shared" si="65"/>
+        <v>10979.242817911989</v>
+      </c>
+      <c r="BC19" s="12">
+        <f t="shared" si="65"/>
+        <v>5783.609224249657</v>
+      </c>
+      <c r="BD19" s="12">
+        <f t="shared" ref="BD19:BH19" si="66">BD15-BD18</f>
+        <v>5397.3772954053902</v>
+      </c>
+      <c r="BE19" s="12">
         <f t="shared" si="66"/>
-        <v>17212.730850372584</v>
-      </c>
-      <c r="BA19" s="12">
+        <v>5406.9442662507672</v>
+      </c>
+      <c r="BF19" s="12">
         <f t="shared" si="66"/>
-        <v>17380.417478665444</v>
-      </c>
-      <c r="BB19" s="12">
+        <v>5456.5730287024071</v>
+      </c>
+      <c r="BG19" s="12">
         <f t="shared" si="66"/>
-        <v>17553.777585431009</v>
-      </c>
-      <c r="BC19" s="12">
+        <v>5510.6946909683456</v>
+      </c>
+      <c r="BH19" s="12">
         <f t="shared" si="66"/>
-        <v>2598.4600639067721</v>
-      </c>
-    </row>
-    <row r="20" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1394.1517744605057</v>
+      </c>
+    </row>
+    <row r="20" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>122</v>
       </c>
@@ -6129,95 +6194,95 @@
         <v>166.6</v>
       </c>
       <c r="Z20" s="2">
-        <f>+Y20</f>
-        <v>166.6</v>
+        <f>156.5-9.9-10.4</f>
+        <v>136.19999999999999</v>
       </c>
       <c r="AA20" s="2">
-        <f>+Z20</f>
-        <v>166.6</v>
+        <f>132.2-7.5-6.1</f>
+        <v>118.6</v>
       </c>
       <c r="AB20" s="2">
-        <f>+AA20</f>
-        <v>166.6</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" ref="AK20:AK22" si="67">SUM(Q20:T20)</f>
+        <f>128.2-2.8-7.7</f>
+        <v>117.69999999999999</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" ref="AP20:AP22" si="67">SUM(Q20:T20)</f>
         <v>89.6</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AQ20" s="2">
         <f>SUM(U20:X20)</f>
         <v>548</v>
       </c>
-      <c r="AM20" s="2">
-        <f t="shared" ref="AM20:AZ20" si="68">+AL32*$BF$30</f>
+      <c r="AR20" s="2">
+        <f t="shared" ref="AR20:BE20" si="68">+AQ32*$BK$30</f>
         <v>137.16100000000003</v>
-      </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="68"/>
-        <v>211.15231424000007</v>
-      </c>
-      <c r="AO20" s="2">
-        <f t="shared" si="68"/>
-        <v>305.72940814432008</v>
-      </c>
-      <c r="AP20" s="2">
-        <f t="shared" si="68"/>
-        <v>433.69972085953867</v>
-      </c>
-      <c r="AQ20" s="2">
-        <f t="shared" si="68"/>
-        <v>582.07767990285492</v>
-      </c>
-      <c r="AR20" s="2">
-        <f t="shared" si="68"/>
-        <v>751.02249558419476</v>
       </c>
       <c r="AS20" s="2">
         <f t="shared" si="68"/>
-        <v>940.72708727337738</v>
+        <v>209.82431424000004</v>
       </c>
       <c r="AT20" s="2">
         <f t="shared" si="68"/>
-        <v>1151.386478864089</v>
+        <v>287.79078414432001</v>
       </c>
       <c r="AU20" s="2">
         <f t="shared" si="68"/>
-        <v>1371.9762267682372</v>
+        <v>379.09758786753861</v>
       </c>
       <c r="AV20" s="2">
         <f t="shared" si="68"/>
-        <v>1597.1949395567726</v>
+        <v>480.55872984691871</v>
       </c>
       <c r="AW20" s="2">
         <f t="shared" si="68"/>
-        <v>1827.12330062459</v>
+        <v>592.25139392781102</v>
       </c>
       <c r="AX20" s="2">
         <f t="shared" si="68"/>
-        <v>2021.2428707495626</v>
+        <v>714.2858168037427</v>
       </c>
       <c r="AY20" s="2">
         <f t="shared" si="68"/>
-        <v>2176.267015098003</v>
+        <v>840.46567823069711</v>
       </c>
       <c r="AZ20" s="2">
         <f t="shared" si="68"/>
-        <v>2330.3673504463618</v>
+        <v>969.59537972977819</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" ref="BA20:BC20" si="69">+AZ32*$BF$30</f>
-        <v>2486.7121360529131</v>
+        <f t="shared" si="68"/>
+        <v>1101.7326389420059</v>
       </c>
       <c r="BB20" s="2">
-        <f>+BA32*$BF$30</f>
-        <v>2645.6491729706595</v>
+        <f t="shared" si="68"/>
+        <v>1236.9362707369053</v>
       </c>
       <c r="BC20" s="2">
+        <f t="shared" si="68"/>
+        <v>1334.6657034460961</v>
+      </c>
+      <c r="BD20" s="2">
+        <f t="shared" si="68"/>
+        <v>1391.6119028676621</v>
+      </c>
+      <c r="BE20" s="2">
+        <f t="shared" si="68"/>
+        <v>1445.9238164538465</v>
+      </c>
+      <c r="BF20" s="2">
+        <f t="shared" ref="BF20:BH20" si="69">+BE32*$BK$30</f>
+        <v>1500.7467611154837</v>
+      </c>
+      <c r="BG20" s="2">
+        <f>+BF32*$BK$30</f>
+        <v>1556.4053194340268</v>
+      </c>
+      <c r="BH20" s="2">
         <f t="shared" si="69"/>
-        <v>2807.2445870378729</v>
-      </c>
-    </row>
-    <row r="21" spans="2:115" x14ac:dyDescent="0.2">
+        <v>1612.9421195172454</v>
+      </c>
+    </row>
+    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>123</v>
       </c>
@@ -6315,94 +6380,99 @@
       </c>
       <c r="Z21" s="12">
         <f t="shared" si="76"/>
-        <v>1561.7296000000001</v>
+        <v>1439.2</v>
       </c>
       <c r="AA21" s="12">
         <f t="shared" si="76"/>
-        <v>1581.1132000000002</v>
+        <v>1440.7000000000003</v>
       </c>
       <c r="AB21" s="12">
         <f t="shared" si="76"/>
-        <v>1590.2092000000002</v>
-      </c>
-      <c r="AK21" s="2">
-        <f>+AK19+AK20</f>
+        <v>1403.4999999999998</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AP21" s="2">
+        <f>+AP19+AP20</f>
         <v>5093.0999999999995</v>
       </c>
-      <c r="AL21" s="2">
-        <f t="shared" ref="AL21:AX21" si="77">+AL19+AL20</f>
+      <c r="AQ21" s="2">
+        <f t="shared" ref="AQ21:BC21" si="77">+AQ19+AQ20</f>
         <v>5449.8000000000011</v>
-      </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="77"/>
-        <v>9248.9142800000009</v>
-      </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="77"/>
-        <v>11822.136738040001</v>
-      </c>
-      <c r="AO21" s="2">
-        <f t="shared" si="77"/>
-        <v>15996.289089402324</v>
-      </c>
-      <c r="AP21" s="2">
-        <f t="shared" si="77"/>
-        <v>18547.244880414524</v>
-      </c>
-      <c r="AQ21" s="2">
-        <f t="shared" si="77"/>
-        <v>21118.101960167474</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" si="77"/>
-        <v>23713.073961147835</v>
+        <v>9082.9142800000009</v>
       </c>
       <c r="AS21" s="2">
         <f t="shared" si="77"/>
-        <v>26332.423948838947</v>
+        <v>9745.8087380400011</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" si="77"/>
-        <v>27573.718488018534</v>
+        <v>11413.35046540232</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" si="77"/>
-        <v>28152.339098566918</v>
+        <v>12682.64274742252</v>
       </c>
       <c r="AV21" s="2">
         <f t="shared" si="77"/>
-        <v>28741.045133477179</v>
+        <v>13961.583010111539</v>
       </c>
       <c r="AW21" s="2">
         <f t="shared" si="77"/>
-        <v>24264.946265621576</v>
+        <v>15254.302859491449</v>
       </c>
       <c r="AX21" s="2">
         <f t="shared" si="77"/>
-        <v>19378.018043555072</v>
+        <v>15772.482678369312</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" ref="AY21:BC21" si="78">+AY19+AY20</f>
-        <v>19262.541918544797</v>
+        <f t="shared" si="77"/>
+        <v>16141.212687385147</v>
       </c>
       <c r="AZ21" s="2">
+        <f t="shared" si="77"/>
+        <v>16517.15740152846</v>
+      </c>
+      <c r="BA21" s="2">
+        <f t="shared" si="77"/>
+        <v>16900.453974362415</v>
+      </c>
+      <c r="BB21" s="2">
+        <f t="shared" si="77"/>
+        <v>12216.179088648894</v>
+      </c>
+      <c r="BC21" s="2">
+        <f t="shared" si="77"/>
+        <v>7118.2749276957529</v>
+      </c>
+      <c r="BD21" s="2">
+        <f t="shared" ref="BD21:BH21" si="78">+BD19+BD20</f>
+        <v>6788.9891982730524</v>
+      </c>
+      <c r="BE21" s="2">
         <f t="shared" si="78"/>
-        <v>19543.098200818946</v>
-      </c>
-      <c r="BA21" s="2">
+        <v>6852.8680827046137</v>
+      </c>
+      <c r="BF21" s="2">
         <f t="shared" si="78"/>
-        <v>19867.129614718357</v>
-      </c>
-      <c r="BB21" s="2">
+        <v>6957.3197898178905</v>
+      </c>
+      <c r="BG21" s="2">
         <f t="shared" si="78"/>
-        <v>20199.426758401671</v>
-      </c>
-      <c r="BC21" s="2">
+        <v>7067.1000104023724</v>
+      </c>
+      <c r="BH21" s="2">
         <f t="shared" si="78"/>
-        <v>5405.7046509446445</v>
-      </c>
-    </row>
-    <row r="22" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3007.0938939777511</v>
+      </c>
+    </row>
+    <row r="22" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>124</v>
       </c>
@@ -6476,95 +6546,92 @@
         <v>261.10000000000002</v>
       </c>
       <c r="Z22" s="2">
-        <f>+Z21*0.2</f>
-        <v>312.34592000000004</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="AA22" s="2">
-        <f>+AA21*0.2</f>
-        <v>316.22264000000007</v>
+        <v>282.7</v>
       </c>
       <c r="AB22" s="2">
-        <f>+AB21*0.2</f>
-        <v>318.04184000000009</v>
-      </c>
-      <c r="AK22" s="2">
+        <v>279.7</v>
+      </c>
+      <c r="AP22" s="2">
         <f t="shared" si="67"/>
         <v>1011.4</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AQ22" s="2">
         <f>SUM(U22:X22)</f>
         <v>919.39999999999986</v>
       </c>
-      <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AX22" si="79">+AM21*0.2</f>
-        <v>1849.7828560000003</v>
-      </c>
-      <c r="AN22" s="2">
-        <f t="shared" si="79"/>
-        <v>2364.4273476080002</v>
-      </c>
-      <c r="AO22" s="2">
-        <f t="shared" si="79"/>
-        <v>3199.2578178804652</v>
-      </c>
-      <c r="AP22" s="2">
-        <f t="shared" si="79"/>
-        <v>3709.4489760829051</v>
-      </c>
-      <c r="AQ22" s="2">
-        <f t="shared" si="79"/>
-        <v>4223.6203920334947</v>
-      </c>
       <c r="AR22" s="2">
-        <f t="shared" si="79"/>
-        <v>4742.6147922295668</v>
+        <f t="shared" ref="AR22:BC22" si="79">+AR21*0.2</f>
+        <v>1816.5828560000002</v>
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="79"/>
-        <v>5266.4847897677901</v>
+        <v>1949.1617476080003</v>
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="79"/>
-        <v>5514.743697603707</v>
+        <v>2282.6700930804641</v>
       </c>
       <c r="AU22" s="2">
         <f t="shared" si="79"/>
-        <v>5630.4678197133835</v>
+        <v>2536.5285494845043</v>
       </c>
       <c r="AV22" s="2">
         <f t="shared" si="79"/>
-        <v>5748.2090266954365</v>
+        <v>2792.316602022308</v>
       </c>
       <c r="AW22" s="2">
         <f t="shared" si="79"/>
-        <v>4852.9892531243158</v>
+        <v>3050.8605718982899</v>
       </c>
       <c r="AX22" s="2">
         <f t="shared" si="79"/>
-        <v>3875.6036087110147</v>
+        <v>3154.4965356738626</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" ref="AY22:BC22" si="80">+AY21*0.2</f>
-        <v>3852.5083837089596</v>
+        <f t="shared" si="79"/>
+        <v>3228.2425374770296</v>
       </c>
       <c r="AZ22" s="2">
+        <f t="shared" si="79"/>
+        <v>3303.4314803056923</v>
+      </c>
+      <c r="BA22" s="2">
+        <f t="shared" si="79"/>
+        <v>3380.0907948724835</v>
+      </c>
+      <c r="BB22" s="2">
+        <f t="shared" si="79"/>
+        <v>2443.2358177297788</v>
+      </c>
+      <c r="BC22" s="2">
+        <f t="shared" si="79"/>
+        <v>1423.6549855391506</v>
+      </c>
+      <c r="BD22" s="2">
+        <f t="shared" ref="BD22:BH22" si="80">+BD21*0.2</f>
+        <v>1357.7978396546105</v>
+      </c>
+      <c r="BE22" s="2">
         <f t="shared" si="80"/>
-        <v>3908.6196401637894</v>
-      </c>
-      <c r="BA22" s="2">
-        <f>+BA21*0.2</f>
-        <v>3973.4259229436716</v>
-      </c>
-      <c r="BB22" s="2">
-        <f>+BB21*0.2</f>
-        <v>4039.8853516803342</v>
-      </c>
-      <c r="BC22" s="2">
+        <v>1370.5736165409228</v>
+      </c>
+      <c r="BF22" s="2">
+        <f>+BF21*0.2</f>
+        <v>1391.4639579635782</v>
+      </c>
+      <c r="BG22" s="2">
+        <f>+BG21*0.2</f>
+        <v>1413.4200020804747</v>
+      </c>
+      <c r="BH22" s="2">
         <f t="shared" si="80"/>
-        <v>1081.1409301889289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:115" x14ac:dyDescent="0.2">
+        <v>601.41877879555022</v>
+      </c>
+    </row>
+    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6662,334 +6729,339 @@
       </c>
       <c r="Z23" s="12">
         <f t="shared" ref="Z23:AB23" si="85">+Z21-Z22</f>
-        <v>1249.3836800000001</v>
+        <v>1138.5999999999999</v>
       </c>
       <c r="AA23" s="12">
         <f t="shared" si="85"/>
-        <v>1264.8905600000003</v>
+        <v>1158.0000000000002</v>
       </c>
       <c r="AB23" s="12">
         <f t="shared" si="85"/>
-        <v>1272.1673600000001</v>
-      </c>
-      <c r="AK23" s="2">
-        <f>+AK21-AK22</f>
+        <v>1123.7999999999997</v>
+      </c>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AP23" s="2">
+        <f>+AP21-AP22</f>
         <v>4081.6999999999994</v>
       </c>
-      <c r="AL23" s="2">
-        <f t="shared" ref="AL23:AR23" si="86">+AL21-AL22</f>
+      <c r="AQ23" s="2">
+        <f t="shared" ref="AQ23:AW23" si="86">+AQ21-AQ22</f>
         <v>4530.4000000000015</v>
-      </c>
-      <c r="AM23" s="2">
-        <f t="shared" si="86"/>
-        <v>7399.1314240000011</v>
-      </c>
-      <c r="AN23" s="2">
-        <f t="shared" si="86"/>
-        <v>9457.7093904320009</v>
-      </c>
-      <c r="AO23" s="2">
-        <f t="shared" si="86"/>
-        <v>12797.031271521859</v>
-      </c>
-      <c r="AP23" s="2">
-        <f t="shared" si="86"/>
-        <v>14837.795904331619</v>
-      </c>
-      <c r="AQ23" s="2">
-        <f t="shared" si="86"/>
-        <v>16894.481568133979</v>
       </c>
       <c r="AR23" s="2">
         <f t="shared" si="86"/>
-        <v>18970.459168918267</v>
+        <v>7266.3314240000009</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" ref="AS23:AX23" si="87">+AS21-AS22</f>
-        <v>21065.939159071157</v>
+        <f t="shared" si="86"/>
+        <v>7796.6469904320011</v>
       </c>
       <c r="AT23" s="2">
+        <f t="shared" si="86"/>
+        <v>9130.6803723218563</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="86"/>
+        <v>10146.114197938015</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="86"/>
+        <v>11169.266408089232</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="86"/>
+        <v>12203.44228759316</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" ref="AX23:BC23" si="87">+AX21-AX22</f>
+        <v>12617.986142695449</v>
+      </c>
+      <c r="AY23" s="2">
         <f t="shared" si="87"/>
-        <v>22058.974790414828</v>
-      </c>
-      <c r="AU23" s="2">
+        <v>12912.970149908117</v>
+      </c>
+      <c r="AZ23" s="2">
         <f t="shared" si="87"/>
-        <v>22521.871278853534</v>
-      </c>
-      <c r="AV23" s="2">
+        <v>13213.725921222769</v>
+      </c>
+      <c r="BA23" s="2">
         <f t="shared" si="87"/>
-        <v>22992.836106781742</v>
-      </c>
-      <c r="AW23" s="2">
+        <v>13520.363179489932</v>
+      </c>
+      <c r="BB23" s="2">
         <f t="shared" si="87"/>
-        <v>19411.95701249726</v>
-      </c>
-      <c r="AX23" s="2">
+        <v>9772.9432709191151</v>
+      </c>
+      <c r="BC23" s="2">
         <f t="shared" si="87"/>
-        <v>15502.414434844057</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" ref="AY23:BC23" si="88">+AY21-AY22</f>
-        <v>15410.033534835839</v>
-      </c>
-      <c r="AZ23" s="2">
+        <v>5694.6199421566025</v>
+      </c>
+      <c r="BD23" s="2">
+        <f t="shared" ref="BD23:BH23" si="88">+BD21-BD22</f>
+        <v>5431.1913586184419</v>
+      </c>
+      <c r="BE23" s="2">
         <f t="shared" si="88"/>
-        <v>15634.478560655156</v>
-      </c>
-      <c r="BA23" s="2">
+        <v>5482.2944661636911</v>
+      </c>
+      <c r="BF23" s="2">
         <f t="shared" si="88"/>
-        <v>15893.703691774685</v>
-      </c>
-      <c r="BB23" s="2">
+        <v>5565.8558318543128</v>
+      </c>
+      <c r="BG23" s="2">
         <f t="shared" si="88"/>
-        <v>16159.541406721337</v>
-      </c>
-      <c r="BC23" s="2">
+        <v>5653.6800083218977</v>
+      </c>
+      <c r="BH23" s="2">
         <f t="shared" si="88"/>
-        <v>4324.5637207557156</v>
-      </c>
-      <c r="BD23" s="2">
-        <f t="shared" ref="BD23:CI23" si="89">+BC23*(1+$BF$28)</f>
-        <v>4108.3355347179295</v>
-      </c>
-      <c r="BE23" s="2">
-        <f t="shared" si="89"/>
-        <v>3902.9187579820327</v>
-      </c>
-      <c r="BF23" s="2">
-        <f t="shared" si="89"/>
-        <v>3707.772820082931</v>
-      </c>
-      <c r="BG23" s="2">
-        <f t="shared" si="89"/>
-        <v>3522.3841790787842</v>
-      </c>
-      <c r="BH23" s="2">
-        <f t="shared" si="89"/>
-        <v>3346.2649701248447</v>
+        <v>2405.6751151822009</v>
       </c>
       <c r="BI23" s="2">
-        <f t="shared" si="89"/>
-        <v>3178.9517216186023</v>
+        <f t="shared" ref="BI23:CN23" si="89">+BH23*(1+$BK$28)</f>
+        <v>2285.3913594230908</v>
       </c>
       <c r="BJ23" s="2">
         <f t="shared" si="89"/>
-        <v>3020.004135537672</v>
+        <v>2171.1217914519361</v>
       </c>
       <c r="BK23" s="2">
         <f t="shared" si="89"/>
-        <v>2869.0039287607883</v>
+        <v>2062.565701879339</v>
       </c>
       <c r="BL23" s="2">
         <f t="shared" si="89"/>
-        <v>2725.5537323227486</v>
+        <v>1959.4374167853721</v>
       </c>
       <c r="BM23" s="2">
         <f t="shared" si="89"/>
-        <v>2589.2760457066111</v>
+        <v>1861.4655459461035</v>
       </c>
       <c r="BN23" s="2">
         <f t="shared" si="89"/>
-        <v>2459.8122434212805</v>
+        <v>1768.3922686487981</v>
       </c>
       <c r="BO23" s="2">
         <f t="shared" si="89"/>
-        <v>2336.8216312502163</v>
+        <v>1679.9726552163581</v>
       </c>
       <c r="BP23" s="2">
         <f t="shared" si="89"/>
-        <v>2219.9805496877052</v>
+        <v>1595.9740224555401</v>
       </c>
       <c r="BQ23" s="2">
         <f t="shared" si="89"/>
-        <v>2108.9815222033199</v>
+        <v>1516.1753213327629</v>
       </c>
       <c r="BR23" s="2">
         <f t="shared" si="89"/>
-        <v>2003.5324460931538</v>
+        <v>1440.3665552661248</v>
       </c>
       <c r="BS23" s="2">
         <f t="shared" si="89"/>
-        <v>1903.3558237884961</v>
+        <v>1368.3482275028184</v>
       </c>
       <c r="BT23" s="2">
         <f t="shared" si="89"/>
-        <v>1808.1880325990712</v>
+        <v>1299.9308161276774</v>
       </c>
       <c r="BU23" s="2">
         <f t="shared" si="89"/>
-        <v>1717.7786309691176</v>
+        <v>1234.9342753212934</v>
       </c>
       <c r="BV23" s="2">
         <f t="shared" si="89"/>
-        <v>1631.8896994206616</v>
+        <v>1173.1875615552287</v>
       </c>
       <c r="BW23" s="2">
         <f t="shared" si="89"/>
-        <v>1550.2952144496285</v>
+        <v>1114.5281834774673</v>
       </c>
       <c r="BX23" s="2">
         <f t="shared" si="89"/>
-        <v>1472.780453727147</v>
+        <v>1058.8017743035939</v>
       </c>
       <c r="BY23" s="2">
         <f t="shared" si="89"/>
-        <v>1399.1414310407895</v>
+        <v>1005.8616855884142</v>
       </c>
       <c r="BZ23" s="2">
         <f t="shared" si="89"/>
-        <v>1329.18435948875</v>
+        <v>955.56860130899338</v>
       </c>
       <c r="CA23" s="2">
         <f t="shared" si="89"/>
-        <v>1262.7251415143126</v>
+        <v>907.79017124354368</v>
       </c>
       <c r="CB23" s="2">
         <f t="shared" si="89"/>
-        <v>1199.5888844385968</v>
+        <v>862.4006626813665</v>
       </c>
       <c r="CC23" s="2">
         <f t="shared" si="89"/>
-        <v>1139.6094402166668</v>
+        <v>819.28062954729819</v>
       </c>
       <c r="CD23" s="2">
         <f t="shared" si="89"/>
-        <v>1082.6289682058334</v>
+        <v>778.31659806993321</v>
       </c>
       <c r="CE23" s="2">
         <f t="shared" si="89"/>
-        <v>1028.4975197955416</v>
+        <v>739.40076816643648</v>
       </c>
       <c r="CF23" s="2">
         <f t="shared" si="89"/>
-        <v>977.07264380576453</v>
+        <v>702.43072975811458</v>
       </c>
       <c r="CG23" s="2">
         <f t="shared" si="89"/>
-        <v>928.21901161547623</v>
+        <v>667.30919327020877</v>
       </c>
       <c r="CH23" s="2">
         <f t="shared" si="89"/>
-        <v>881.8080610347024</v>
+        <v>633.94373360669829</v>
       </c>
       <c r="CI23" s="2">
         <f t="shared" si="89"/>
-        <v>837.71765798296724</v>
+        <v>602.24654692636329</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" ref="CJ23:DK23" si="90">+CI23*(1+$BF$28)</f>
-        <v>795.8317750838188</v>
+        <f t="shared" si="89"/>
+        <v>572.13421958004506</v>
       </c>
       <c r="CK23" s="2">
-        <f t="shared" si="90"/>
-        <v>756.04018632962777</v>
+        <f t="shared" si="89"/>
+        <v>543.52750860104277</v>
       </c>
       <c r="CL23" s="2">
-        <f t="shared" si="90"/>
-        <v>718.23817701314636</v>
+        <f t="shared" si="89"/>
+        <v>516.35113317099058</v>
       </c>
       <c r="CM23" s="2">
-        <f t="shared" si="90"/>
-        <v>682.32626816248899</v>
+        <f t="shared" si="89"/>
+        <v>490.53357651244102</v>
       </c>
       <c r="CN23" s="2">
-        <f t="shared" si="90"/>
-        <v>648.2099547543645</v>
+        <f t="shared" si="89"/>
+        <v>466.00689768681895</v>
       </c>
       <c r="CO23" s="2">
-        <f t="shared" si="90"/>
-        <v>615.79945701664622</v>
+        <f t="shared" ref="CO23:DP23" si="90">+CN23*(1+$BK$28)</f>
+        <v>442.70655280247797</v>
       </c>
       <c r="CP23" s="2">
         <f t="shared" si="90"/>
-        <v>585.00948416581389</v>
+        <v>420.57122516235404</v>
       </c>
       <c r="CQ23" s="2">
         <f t="shared" si="90"/>
-        <v>555.75900995752318</v>
+        <v>399.54266390423629</v>
       </c>
       <c r="CR23" s="2">
         <f t="shared" si="90"/>
-        <v>527.97105945964699</v>
+        <v>379.56553070902447</v>
       </c>
       <c r="CS23" s="2">
         <f t="shared" si="90"/>
-        <v>501.57250648666462</v>
+        <v>360.58725417357323</v>
       </c>
       <c r="CT23" s="2">
         <f t="shared" si="90"/>
-        <v>476.49388116233138</v>
+        <v>342.55789146489457</v>
       </c>
       <c r="CU23" s="2">
         <f t="shared" si="90"/>
-        <v>452.66918710421481</v>
+        <v>325.42999689164981</v>
       </c>
       <c r="CV23" s="2">
         <f t="shared" si="90"/>
-        <v>430.03572774900402</v>
+        <v>309.15849704706733</v>
       </c>
       <c r="CW23" s="2">
         <f t="shared" si="90"/>
-        <v>408.53394136155379</v>
+        <v>293.70057219471397</v>
       </c>
       <c r="CX23" s="2">
         <f t="shared" si="90"/>
-        <v>388.10724429347607</v>
+        <v>279.01554358497827</v>
       </c>
       <c r="CY23" s="2">
         <f t="shared" si="90"/>
-        <v>368.70188207880227</v>
+        <v>265.06476640572936</v>
       </c>
       <c r="CZ23" s="2">
         <f t="shared" si="90"/>
-        <v>350.26678797486215</v>
+        <v>251.81152808544289</v>
       </c>
       <c r="DA23" s="2">
         <f t="shared" si="90"/>
-        <v>332.75344857611901</v>
+        <v>239.22095168117073</v>
       </c>
       <c r="DB23" s="2">
         <f t="shared" si="90"/>
-        <v>316.11577614731306</v>
+        <v>227.25990409711218</v>
       </c>
       <c r="DC23" s="2">
         <f t="shared" si="90"/>
-        <v>300.30998733994738</v>
+        <v>215.89690889225656</v>
       </c>
       <c r="DD23" s="2">
         <f t="shared" si="90"/>
-        <v>285.29448797294998</v>
+        <v>205.10206344764373</v>
       </c>
       <c r="DE23" s="2">
         <f t="shared" si="90"/>
-        <v>271.02976357430248</v>
+        <v>194.84696027526152</v>
       </c>
       <c r="DF23" s="2">
         <f t="shared" si="90"/>
-        <v>257.47827539558733</v>
+        <v>185.10461226149843</v>
       </c>
       <c r="DG23" s="2">
         <f t="shared" si="90"/>
-        <v>244.60436162580794</v>
+        <v>175.8493816484235</v>
       </c>
       <c r="DH23" s="2">
         <f t="shared" si="90"/>
-        <v>232.37414354451752</v>
+        <v>167.05691256600232</v>
       </c>
       <c r="DI23" s="2">
         <f t="shared" si="90"/>
-        <v>220.75543636729162</v>
+        <v>158.70406693770221</v>
       </c>
       <c r="DJ23" s="2">
         <f t="shared" si="90"/>
-        <v>209.71766454892702</v>
+        <v>150.76886359081709</v>
       </c>
       <c r="DK23" s="2">
         <f t="shared" si="90"/>
-        <v>199.23178132148067</v>
-      </c>
-    </row>
-    <row r="24" spans="2:115" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143.23042041127624</v>
+      </c>
+      <c r="DL23" s="2">
+        <f t="shared" si="90"/>
+        <v>136.06889939071243</v>
+      </c>
+      <c r="DM23" s="2">
+        <f t="shared" si="90"/>
+        <v>129.2654544211768</v>
+      </c>
+      <c r="DN23" s="2">
+        <f t="shared" si="90"/>
+        <v>122.80218170011796</v>
+      </c>
+      <c r="DO23" s="2">
+        <f t="shared" si="90"/>
+        <v>116.66207261511205</v>
+      </c>
+      <c r="DP23" s="2">
+        <f t="shared" si="90"/>
+        <v>110.82896898435645</v>
+      </c>
+    </row>
+    <row r="24" spans="2:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
@@ -7087,94 +7159,99 @@
       </c>
       <c r="Z24" s="21">
         <f t="shared" ref="Z24:AB24" si="97">+Z23/Z25</f>
-        <v>4.785077288395251</v>
+        <v>4.411468423091824</v>
       </c>
       <c r="AA24" s="21">
         <f t="shared" si="97"/>
-        <v>4.844467866717733</v>
+        <v>4.4367816091954033</v>
       </c>
       <c r="AB24" s="21">
         <f t="shared" si="97"/>
-        <v>4.8723376484105705</v>
-      </c>
-      <c r="AK24" s="1">
-        <f>+AK23/AK25</f>
+        <v>4.3140115163147783</v>
+      </c>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AP24" s="1">
+        <f>+AP23/AP25</f>
         <v>15.753377074488615</v>
       </c>
-      <c r="AL24" s="1">
-        <f t="shared" ref="AL24:AX24" si="98">+AL23/AL25</f>
+      <c r="AQ24" s="1">
+        <f t="shared" ref="AQ24:BC24" si="98">+AQ23/AQ25</f>
         <v>17.38783342928421</v>
-      </c>
-      <c r="AM24" s="1">
-        <f t="shared" si="98"/>
-        <v>28.398124828247941</v>
-      </c>
-      <c r="AN24" s="1">
-        <f t="shared" si="98"/>
-        <v>36.299018961550566</v>
-      </c>
-      <c r="AO24" s="1">
-        <f t="shared" si="98"/>
-        <v>49.115452970722927</v>
-      </c>
-      <c r="AP24" s="1">
-        <f t="shared" si="98"/>
-        <v>56.947978907432805</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="98"/>
-        <v>64.841610317152089</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" si="98"/>
-        <v>72.809284854800481</v>
+        <v>27.888433790059491</v>
       </c>
       <c r="AS24" s="1">
         <f t="shared" si="98"/>
-        <v>80.851810243988311</v>
+        <v>29.923803455889466</v>
       </c>
       <c r="AT24" s="1">
         <f t="shared" si="98"/>
-        <v>84.66311567996479</v>
+        <v>35.043870168189812</v>
       </c>
       <c r="AU24" s="1">
         <f t="shared" si="98"/>
-        <v>86.439728569769841</v>
+        <v>38.941140656066075</v>
       </c>
       <c r="AV24" s="1">
         <f t="shared" si="98"/>
-        <v>88.247308028331375</v>
+        <v>42.868034573361086</v>
       </c>
       <c r="AW24" s="1">
         <f t="shared" si="98"/>
-        <v>74.503768998262359</v>
+        <v>46.837237718645781</v>
       </c>
       <c r="AX24" s="1">
         <f t="shared" si="98"/>
-        <v>59.498808040084654</v>
+        <v>48.4282715129359</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" ref="AY24:BC24" si="99">+AY23/AY25</f>
-        <v>59.144246919346912</v>
+        <f t="shared" si="98"/>
+        <v>49.560430435264308</v>
       </c>
       <c r="AZ24" s="1">
+        <f t="shared" si="98"/>
+        <v>50.714741589801456</v>
+      </c>
+      <c r="BA24" s="1">
+        <f t="shared" si="98"/>
+        <v>51.891626096679836</v>
+      </c>
+      <c r="BB24" s="1">
+        <f t="shared" si="98"/>
+        <v>37.508897604755767</v>
+      </c>
+      <c r="BC24" s="1">
+        <f t="shared" si="98"/>
+        <v>21.856150228964122</v>
+      </c>
+      <c r="BD24" s="1">
+        <f t="shared" ref="BD24:BH24" si="99">+BD23/BD25</f>
+        <v>20.845102124806914</v>
+      </c>
+      <c r="BE24" s="1">
         <f t="shared" si="99"/>
-        <v>60.005674767434868</v>
-      </c>
-      <c r="BA24" s="1">
+        <v>21.041237636398737</v>
+      </c>
+      <c r="BF24" s="1">
         <f t="shared" si="99"/>
-        <v>61.000589874399097</v>
-      </c>
-      <c r="BB24" s="1">
+        <v>21.361949076393447</v>
+      </c>
+      <c r="BG24" s="1">
         <f t="shared" si="99"/>
-        <v>62.020884309043701</v>
-      </c>
-      <c r="BC24" s="1">
+        <v>21.699021333033574</v>
+      </c>
+      <c r="BH24" s="1">
         <f t="shared" si="99"/>
-        <v>16.597826600482499</v>
-      </c>
-    </row>
-    <row r="25" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9.233065112961814</v>
+      </c>
+    </row>
+    <row r="25" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -7248,47 +7325,24 @@
         <v>261.10000000000002</v>
       </c>
       <c r="Z25" s="2">
-        <f>+Y25</f>
-        <v>261.10000000000002</v>
+        <v>258.10000000000002</v>
       </c>
       <c r="AA25" s="2">
-        <f>+Z25</f>
-        <v>261.10000000000002</v>
+        <v>261</v>
       </c>
       <c r="AB25" s="2">
-        <f>+AA25</f>
-        <v>261.10000000000002</v>
-      </c>
-      <c r="AK25" s="2">
+        <v>260.5</v>
+      </c>
+      <c r="AP25" s="2">
         <f>AVERAGE(Q25:T25)</f>
         <v>259.09999999999997</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AQ25" s="2">
         <f>AVERAGE(U25:X25)</f>
         <v>260.55</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" ref="AM25:AX25" si="100">+AL25</f>
-        <v>260.55</v>
-      </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="100"/>
-        <v>260.55</v>
-      </c>
-      <c r="AO25" s="2">
-        <f t="shared" si="100"/>
-        <v>260.55</v>
-      </c>
-      <c r="AP25" s="2">
-        <f t="shared" si="100"/>
-        <v>260.55</v>
-      </c>
-      <c r="AQ25" s="2">
-        <f t="shared" si="100"/>
-        <v>260.55</v>
-      </c>
       <c r="AR25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="AR25:BC25" si="100">+AQ25</f>
         <v>260.55</v>
       </c>
       <c r="AS25" s="2">
@@ -7316,27 +7370,47 @@
         <v>260.55</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" ref="AY25" si="101">+AX25</f>
+        <f t="shared" si="100"/>
         <v>260.55</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" ref="AZ25" si="102">+AY25</f>
+        <f t="shared" si="100"/>
         <v>260.55</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" ref="BA25" si="103">+AZ25</f>
+        <f t="shared" si="100"/>
         <v>260.55</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" ref="BB25" si="104">+BA25</f>
+        <f t="shared" si="100"/>
         <v>260.55</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" ref="BC25" si="105">+BB25</f>
+        <f t="shared" si="100"/>
         <v>260.55</v>
       </c>
-    </row>
-    <row r="27" spans="2:115" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BD25" s="2">
+        <f t="shared" ref="BD25" si="101">+BC25</f>
+        <v>260.55</v>
+      </c>
+      <c r="BE25" s="2">
+        <f t="shared" ref="BE25" si="102">+BD25</f>
+        <v>260.55</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" ref="BF25" si="103">+BE25</f>
+        <v>260.55</v>
+      </c>
+      <c r="BG25" s="2">
+        <f t="shared" ref="BG25" si="104">+BF25</f>
+        <v>260.55</v>
+      </c>
+      <c r="BH25" s="2">
+        <f t="shared" ref="BH25" si="105">+BG25</f>
+        <v>260.55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:120" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>302</v>
       </c>
@@ -7422,83 +7496,88 @@
       </c>
       <c r="Z27" s="25">
         <f t="shared" ref="Z27" si="112">+Z13/V13-1</f>
-        <v>2.6560243863308131E-2</v>
+        <v>6.1126263436547257E-2</v>
       </c>
       <c r="AA27" s="25">
-        <f t="shared" ref="AA27" si="113">+AA13/W13-1</f>
-        <v>4.4860283459494221E-2</v>
+        <f>+AA13/W13-1</f>
+        <v>0.11608149460460604</v>
       </c>
       <c r="AB27" s="25">
-        <f t="shared" ref="AB27" si="114">+AB13/X13-1</f>
-        <v>5.5314374230448271E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:115" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB27" si="113">+AB13/X13-1</f>
+        <v>0.15661119275529245</v>
+      </c>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+    </row>
+    <row r="28" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="115">C15/C13</f>
+        <f t="shared" ref="C28" si="114">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:H28" si="116">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="115">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
+        <f t="shared" si="115"/>
+        <v>0.88919366754371454</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="115"/>
+        <v>0.8557358650587249</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" si="115"/>
+        <v>0.86114315789473683</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="115"/>
+        <v>0.8528146380270486</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" ref="I28:J28" si="116">I15/I13</f>
+        <v>0.8927412541254125</v>
+      </c>
+      <c r="J28" s="19">
         <f t="shared" si="116"/>
-        <v>0.88919366754371454</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="116"/>
-        <v>0.8557358650587249</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="116"/>
-        <v>0.86114315789473683</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="116"/>
-        <v>0.8528146380270486</v>
-      </c>
-      <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="117">I15/I13</f>
-        <v>0.8927412541254125</v>
-      </c>
-      <c r="J28" s="19">
+        <v>0.87896877459984257</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" ref="K28:L28" si="117">K15/K13</f>
+        <v>0.87894538361508456</v>
+      </c>
+      <c r="L28" s="19">
         <f t="shared" si="117"/>
-        <v>0.87896877459984257</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="118">K15/K13</f>
-        <v>0.87894538361508456</v>
-      </c>
-      <c r="L28" s="19">
+        <v>0.87516902274124164</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" ref="M28:P28" si="118">M15/M13</f>
+        <v>0.888411768119306</v>
+      </c>
+      <c r="N28" s="19">
         <f t="shared" si="118"/>
-        <v>0.87516902274124164</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="119">M15/M13</f>
-        <v>0.888411768119306</v>
-      </c>
-      <c r="N28" s="19">
+        <v>0.87290969899665549</v>
+      </c>
+      <c r="O28" s="19">
+        <f t="shared" si="118"/>
+        <v>0.88079032258064516</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" si="118"/>
+        <v>0.88059845559845551</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" ref="Q28:R28" si="119">Q15/Q13</f>
+        <v>0.93048867699642435</v>
+      </c>
+      <c r="R28" s="19">
         <f t="shared" si="119"/>
-        <v>0.87290969899665549</v>
-      </c>
-      <c r="O28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.88079032258064516</v>
-      </c>
-      <c r="P28" s="19">
-        <f t="shared" si="119"/>
-        <v>0.88059845559845551</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="120">Q15/Q13</f>
-        <v>0.93048867699642435</v>
-      </c>
-      <c r="R28" s="19">
-        <f t="shared" si="120"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
@@ -7510,174 +7589,179 @@
         <v>0.87802865827181931</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" ref="U28:X28" si="121">U15/U13</f>
+        <f t="shared" ref="U28:X28" si="120">U15/U13</f>
         <v>0.88841165571837633</v>
       </c>
       <c r="V28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.87694529119204234</v>
+      </c>
+      <c r="W28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.87236269930745691</v>
+      </c>
+      <c r="X28" s="19">
+        <f t="shared" si="120"/>
+        <v>0.85534416332366847</v>
+      </c>
+      <c r="Y28" s="19">
+        <f t="shared" ref="Y28:AB28" si="121">Y15/Y13</f>
+        <v>0.87519512376421604</v>
+      </c>
+      <c r="Z28" s="19">
         <f t="shared" si="121"/>
-        <v>0.87694529119204234</v>
-      </c>
-      <c r="W28" s="19">
+        <v>0.86203507710916238</v>
+      </c>
+      <c r="AA28" s="19">
         <f t="shared" si="121"/>
-        <v>0.87236269930745691</v>
-      </c>
-      <c r="X28" s="19">
+        <v>0.86085356614596498</v>
+      </c>
+      <c r="AB28" s="19">
         <f t="shared" si="121"/>
-        <v>0.85534416332366847</v>
-      </c>
-      <c r="Y28" s="19">
-        <f t="shared" ref="Y28:AB28" si="122">Y15/Y13</f>
-        <v>0.87519512376421604</v>
-      </c>
-      <c r="Z28" s="19">
+        <v>0.85703983516483506</v>
+      </c>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AO28" s="19">
+        <f t="shared" ref="AO28:AP28" si="122">AO15/AO13</f>
+        <v>0.88060528435424446</v>
+      </c>
+      <c r="AP28" s="19">
         <f t="shared" si="122"/>
-        <v>0.88</v>
-      </c>
-      <c r="AA28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.88</v>
-      </c>
-      <c r="AB28" s="19">
-        <f t="shared" si="122"/>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="AJ28" s="19">
-        <f t="shared" ref="AJ28:AK28" si="123">AJ15/AJ13</f>
-        <v>0.88060528435424446</v>
-      </c>
-      <c r="AK28" s="19">
+        <v>0.89078349268904367</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f t="shared" ref="AQ28:BC28" si="123">AQ15/AQ13</f>
+        <v>0.87304064118022551</v>
+      </c>
+      <c r="AR28" s="19">
         <f t="shared" si="123"/>
-        <v>0.89078349268904367</v>
-      </c>
-      <c r="AL28" s="19">
-        <f t="shared" ref="AL28:AX28" si="124">AL15/AL13</f>
-        <v>0.87304064118022551</v>
-      </c>
-      <c r="AM28" s="19">
-        <f t="shared" si="124"/>
         <v>0.93</v>
       </c>
-      <c r="AN28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AS28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AO28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AT28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AU28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AV28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AP28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AW28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AQ28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AX28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AR28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AY28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AS28" s="19">
-        <f t="shared" si="124"/>
+      <c r="AZ28" s="19">
+        <f t="shared" si="123"/>
+        <v>0.93</v>
+      </c>
+      <c r="BA28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AT28" s="19">
-        <f t="shared" si="124"/>
+      <c r="BB28" s="19">
+        <f t="shared" si="123"/>
         <v>0.92999999999999994</v>
       </c>
-      <c r="AU28" s="19">
-        <f t="shared" si="124"/>
+      <c r="BC28" s="19">
+        <f t="shared" si="123"/>
         <v>0.93</v>
       </c>
-      <c r="AV28" s="19">
-        <f t="shared" si="124"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AW28" s="19">
-        <f t="shared" si="124"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="AX28" s="19">
-        <f t="shared" si="124"/>
-        <v>0.93</v>
-      </c>
-      <c r="BE28" t="s">
+      <c r="BJ28" t="s">
         <v>296</v>
       </c>
-      <c r="BF28" s="23">
+      <c r="BK28" s="23">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="125">+C16/C13</f>
+        <f t="shared" ref="C29" si="124">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="126">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="125">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
+        <f t="shared" si="125"/>
+        <v>0.1713447730201752</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="125"/>
+        <v>0.16632993698673523</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="125"/>
+        <v>0.16807789473684212</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="125"/>
+        <v>0.15535163086714399</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" ref="I29:J29" si="126">+I16/I13</f>
+        <v>0.12030231023102311</v>
+      </c>
+      <c r="J29" s="19">
         <f t="shared" si="126"/>
-        <v>0.1713447730201752</v>
-      </c>
-      <c r="F29" s="19">
-        <f t="shared" si="126"/>
-        <v>0.16632993698673523</v>
-      </c>
-      <c r="G29" s="19">
-        <f t="shared" si="126"/>
-        <v>0.16807789473684212</v>
-      </c>
-      <c r="H29" s="19">
-        <f t="shared" si="126"/>
-        <v>0.15535163086714399</v>
-      </c>
-      <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="127">+I16/I13</f>
-        <v>0.12030231023102311</v>
-      </c>
-      <c r="J29" s="19">
+        <v>0.12581999475203359</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" ref="K29:S29" si="127">+K16/K13</f>
+        <v>0.11999414824447334</v>
+      </c>
+      <c r="L29" s="19">
         <f t="shared" si="127"/>
-        <v>0.12581999475203359</v>
-      </c>
-      <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="128">+K16/K13</f>
-        <v>0.11999414824447334</v>
-      </c>
-      <c r="L29" s="19">
-        <f t="shared" si="128"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>7.8880291306326816E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>7.7282268774364921E-2</v>
       </c>
       <c r="T29" s="19">
@@ -7685,143 +7769,148 @@
         <v>9.7959183673469383E-2</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" ref="U29:X29" si="129">+U16/U13</f>
+        <f t="shared" ref="U29:X29" si="128">+U16/U13</f>
         <v>8.2912245241704582E-2</v>
       </c>
       <c r="V29" s="19">
+        <f t="shared" si="128"/>
+        <v>8.8079576447938374E-2</v>
+      </c>
+      <c r="W29" s="19">
+        <f t="shared" si="128"/>
+        <v>8.6849734256724098E-2</v>
+      </c>
+      <c r="X29" s="19">
+        <f t="shared" si="128"/>
+        <v>0.11343686698176907</v>
+      </c>
+      <c r="Y29" s="19">
+        <f t="shared" ref="Y29:AB29" si="129">+Y16/Y13</f>
+        <v>0.1010926930796105</v>
+      </c>
+      <c r="Z29" s="19">
         <f t="shared" si="129"/>
-        <v>8.8079576447938374E-2</v>
-      </c>
-      <c r="W29" s="19">
+        <v>0.10598729966737223</v>
+      </c>
+      <c r="AA29" s="19">
         <f t="shared" si="129"/>
-        <v>8.6849734256724098E-2</v>
-      </c>
-      <c r="X29" s="19">
+        <v>0.10826508892817202</v>
+      </c>
+      <c r="AB29" s="19">
         <f t="shared" si="129"/>
-        <v>0.11343686698176907</v>
-      </c>
-      <c r="Y29" s="19">
-        <f t="shared" ref="Y29:AB29" si="130">+Y16/Y13</f>
-        <v>0.1010926930796105</v>
-      </c>
-      <c r="Z29" s="19">
+        <v>0.10649038461538463</v>
+      </c>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19">
+        <f>+AP16/AP13</f>
+        <v>8.3555386372287793E-2</v>
+      </c>
+      <c r="AQ29" s="19">
+        <f t="shared" ref="AQ29:BC29" si="130">+AQ16/AQ13</f>
+        <v>9.2995450538538693E-2</v>
+      </c>
+      <c r="AR29" s="19">
         <f t="shared" si="130"/>
-        <v>8.5800689218651097E-2</v>
-      </c>
-      <c r="AA29" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AS29" s="19">
         <f t="shared" si="130"/>
-        <v>8.3120906815567525E-2</v>
-      </c>
-      <c r="AB29" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AT29" s="19">
         <f t="shared" si="130"/>
-        <v>0.10749106593425205</v>
-      </c>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19">
-        <f>+AK16/AK13</f>
-        <v>8.3555386372287793E-2</v>
-      </c>
-      <c r="AL29" s="19">
-        <f t="shared" ref="AL29:AX29" si="131">+AL16/AL13</f>
-        <v>9.2995450538538693E-2</v>
-      </c>
-      <c r="AM29" s="19">
-        <f t="shared" si="131"/>
         <v>0.1</v>
       </c>
-      <c r="AN29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AU29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AO29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AV29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AP29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AW29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AQ29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AX29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AR29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AY29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AS29" s="19">
-        <f t="shared" si="131"/>
+      <c r="AZ29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AT29" s="19">
-        <f t="shared" si="131"/>
+      <c r="BA29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AU29" s="19">
-        <f t="shared" si="131"/>
+      <c r="BB29" s="19">
+        <f t="shared" si="130"/>
         <v>0.1</v>
       </c>
-      <c r="AV29" s="19">
-        <f t="shared" si="131"/>
-        <v>0.1</v>
-      </c>
-      <c r="AW29" s="19">
-        <f t="shared" si="131"/>
-        <v>0.1</v>
-      </c>
-      <c r="AX29" s="19">
-        <f t="shared" si="131"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="BE29" t="s">
+      <c r="BC29" s="19">
+        <f t="shared" si="130"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="BJ29" t="s">
         <v>294</v>
       </c>
-      <c r="BF29" s="23">
+      <c r="BK29" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:115" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="132">C22/C21</f>
+        <f t="shared" ref="C30" si="131">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="133">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="132">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.18584070796460173</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.21886672115945011</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.1245736375350564</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="132"/>
+        <v>0.23736987411666366</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" ref="I30:J30" si="133">I22/I21</f>
+        <v>7.6068135142753596E-2</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="133"/>
-        <v>0.18584070796460173</v>
-      </c>
-      <c r="F30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.21886672115945011</v>
-      </c>
-      <c r="G30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.1245736375350564</v>
-      </c>
-      <c r="H30" s="19">
-        <f t="shared" si="133"/>
-        <v>0.23736987411666366</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="134">I22/I21</f>
-        <v>7.6068135142753596E-2</v>
-      </c>
-      <c r="J30" s="19">
+        <v>-1.7419854732347417E-2</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" ref="K30:L30" si="134">K22/K21</f>
+        <v>0.1183036858950188</v>
+      </c>
+      <c r="L30" s="19">
         <f t="shared" si="134"/>
-        <v>-1.7419854732347417E-2</v>
-      </c>
-      <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="135">K22/K21</f>
-        <v>0.1183036858950188</v>
-      </c>
-      <c r="L30" s="19">
-        <f t="shared" si="135"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -7829,138 +7918,143 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="136">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="135">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.22163530370872531</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.21576239053895463</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.19897714559693142</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.20799485240891175</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.18205374990745546</v>
+      </c>
+      <c r="T30" s="19">
+        <f t="shared" si="135"/>
+        <v>0.20670032860463253</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" ref="U30:X30" si="136">U22/U21</f>
+        <v>0.15817041682036154</v>
+      </c>
+      <c r="V30" s="19">
         <f t="shared" si="136"/>
-        <v>0.22163530370872531</v>
-      </c>
-      <c r="P30" s="19">
+        <v>0.1932706793887653</v>
+      </c>
+      <c r="W30" s="19">
         <f t="shared" si="136"/>
-        <v>0.21576239053895463</v>
-      </c>
-      <c r="Q30" s="19">
+        <v>0.18714473108876253</v>
+      </c>
+      <c r="X30" s="19">
         <f t="shared" si="136"/>
-        <v>0.19897714559693142</v>
-      </c>
-      <c r="R30" s="19">
-        <f t="shared" si="136"/>
-        <v>0.20799485240891175</v>
-      </c>
-      <c r="S30" s="19">
-        <f t="shared" si="136"/>
-        <v>0.18205374990745546</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" si="136"/>
-        <v>0.20670032860463253</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" ref="U30:X30" si="137">U22/U21</f>
-        <v>0.15817041682036154</v>
-      </c>
-      <c r="V30" s="19">
+        <v>0.13461828037946091</v>
+      </c>
+      <c r="Y30" s="19">
+        <f t="shared" ref="Y30:AB30" si="137">Y22/Y21</f>
+        <v>0.16528454769893022</v>
+      </c>
+      <c r="Z30" s="19">
         <f t="shared" si="137"/>
-        <v>0.1932706793887653</v>
-      </c>
-      <c r="W30" s="19">
+        <v>0.20886603668704837</v>
+      </c>
+      <c r="AA30" s="19">
         <f t="shared" si="137"/>
-        <v>0.18714473108876253</v>
-      </c>
-      <c r="X30" s="19">
+        <v>0.19622405774970497</v>
+      </c>
+      <c r="AB30" s="19">
         <f t="shared" si="137"/>
-        <v>0.13461828037946091</v>
-      </c>
-      <c r="Y30" s="19">
-        <f t="shared" ref="Y30:AB30" si="138">Y22/Y21</f>
-        <v>0.16528454769893022</v>
-      </c>
-      <c r="Z30" s="19">
+        <v>0.19928749554684719</v>
+      </c>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AP30" s="23">
+        <f>+AP22/AP21</f>
+        <v>0.19858239579038309</v>
+      </c>
+      <c r="AQ30" s="23">
+        <f t="shared" ref="AQ30:BC30" si="138">+AQ22/AQ21</f>
+        <v>0.16870343865829932</v>
+      </c>
+      <c r="AR30" s="23">
         <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AA30" s="19">
+      <c r="AS30" s="23">
         <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AB30" s="19">
+      <c r="AT30" s="23">
         <f t="shared" si="138"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AK30" s="23">
-        <f>+AK22/AK21</f>
-        <v>0.19858239579038309</v>
-      </c>
-      <c r="AL30" s="23">
-        <f t="shared" ref="AL30:AX30" si="139">+AL22/AL21</f>
-        <v>0.16870343865829932</v>
-      </c>
-      <c r="AM30" s="23">
-        <f t="shared" si="139"/>
         <v>0.2</v>
       </c>
-      <c r="AN30" s="23">
-        <f t="shared" si="139"/>
+      <c r="AU30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AO30" s="23">
-        <f t="shared" si="139"/>
+      <c r="AV30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AP30" s="23">
-        <f t="shared" si="139"/>
+      <c r="AW30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AQ30" s="23">
-        <f t="shared" si="139"/>
+      <c r="AX30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="AY30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="AZ30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="BA30" s="23">
+        <f t="shared" si="138"/>
+        <v>0.2</v>
+      </c>
+      <c r="BB30" s="23">
+        <f t="shared" si="138"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AR30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AS30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AT30" s="23">
-        <f t="shared" si="139"/>
+      <c r="BC30" s="23">
+        <f t="shared" si="138"/>
         <v>0.2</v>
       </c>
-      <c r="AU30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.2</v>
-      </c>
-      <c r="AV30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AW30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.2</v>
-      </c>
-      <c r="AX30" s="23">
-        <f t="shared" si="139"/>
-        <v>0.2</v>
-      </c>
-      <c r="BE30" t="s">
+      <c r="BJ30" t="s">
         <v>293</v>
       </c>
-      <c r="BF30" s="23">
+      <c r="BK30" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:115" x14ac:dyDescent="0.2">
-      <c r="BE31" t="s">
+    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="BJ31" t="s">
         <v>295</v>
       </c>
-      <c r="BF31" s="2">
-        <f>NPV(BF29,AN23:CK23)+Main!M5-Main!M6</f>
-        <v>177562.91669986467</v>
-      </c>
-    </row>
-    <row r="32" spans="2:115" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BK31" s="2">
+        <f>NPV(BK29,AS23:CP23)+Main!M5-Main!M6</f>
+        <v>106169.26235786869</v>
+      </c>
+    </row>
+    <row r="32" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -8028,101 +8122,101 @@
       </c>
       <c r="Z32" s="2">
         <f>+Y32+Z23</f>
-        <v>15802.08368</v>
+        <v>15691.3</v>
       </c>
       <c r="AA32" s="2">
         <f>+Z32+AA23</f>
-        <v>17066.97424</v>
+        <v>16849.3</v>
       </c>
       <c r="AB32" s="2">
         <f>+AA32+AB23</f>
-        <v>18339.141599999999</v>
-      </c>
-      <c r="AK32" s="2">
+        <v>17973.099999999999</v>
+      </c>
+      <c r="AP32" s="2">
         <f>+T32</f>
         <v>10778.5</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AQ32" s="2">
         <f>+X32</f>
         <v>13716.100000000002</v>
       </c>
-      <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AX32" si="140">+AL32+AM23</f>
-        <v>21115.231424000005</v>
-      </c>
-      <c r="AN32" s="2">
-        <f t="shared" si="140"/>
-        <v>30572.940814432004</v>
-      </c>
-      <c r="AO32" s="2">
-        <f t="shared" si="140"/>
-        <v>43369.972085953865</v>
-      </c>
-      <c r="AP32" s="2">
-        <f t="shared" si="140"/>
-        <v>58207.767990285487</v>
-      </c>
-      <c r="AQ32" s="2">
-        <f t="shared" si="140"/>
-        <v>75102.249558419469</v>
-      </c>
       <c r="AR32" s="2">
-        <f t="shared" si="140"/>
-        <v>94072.70872733774</v>
+        <f t="shared" ref="AR32:BC32" si="139">+AQ32+AR23</f>
+        <v>20982.431424000002</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="140"/>
-        <v>115138.6478864089</v>
+        <f t="shared" si="139"/>
+        <v>28779.078414432002</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="140"/>
-        <v>137197.62267682372</v>
+        <f t="shared" si="139"/>
+        <v>37909.75878675386</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="140"/>
-        <v>159719.49395567726</v>
+        <f t="shared" si="139"/>
+        <v>48055.872984691872</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="140"/>
-        <v>182712.33006245899</v>
+        <f t="shared" si="139"/>
+        <v>59225.1393927811</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" si="140"/>
-        <v>202124.28707495626</v>
+        <f t="shared" si="139"/>
+        <v>71428.581680374264</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="140"/>
-        <v>217626.7015098003</v>
+        <f t="shared" si="139"/>
+        <v>84046.567823069709</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" ref="AY32" si="141">+AX32+AY23</f>
-        <v>233036.73504463615</v>
+        <f t="shared" si="139"/>
+        <v>96959.537972977821</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" ref="AZ32" si="142">+AY32+AZ23</f>
-        <v>248671.2136052913</v>
+        <f t="shared" si="139"/>
+        <v>110173.26389420059</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" ref="BA32" si="143">+AZ32+BA23</f>
-        <v>264564.91729706596</v>
+        <f t="shared" si="139"/>
+        <v>123693.62707369051</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" ref="BB32" si="144">+BA32+BB23</f>
-        <v>280724.4587037873</v>
+        <f t="shared" si="139"/>
+        <v>133466.57034460962</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" ref="BC32" si="145">+BB32+BC23</f>
-        <v>285049.02242454304</v>
-      </c>
-      <c r="BE32" s="2" t="s">
+        <f t="shared" si="139"/>
+        <v>139161.19028676621</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" ref="BD32" si="140">+BC32+BD23</f>
+        <v>144592.38164538465</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" ref="BE32" si="141">+BD32+BE23</f>
+        <v>150074.67611154835</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" ref="BF32" si="142">+BE32+BF23</f>
+        <v>155640.53194340266</v>
+      </c>
+      <c r="BG32" s="2">
+        <f t="shared" ref="BG32" si="143">+BF32+BG23</f>
+        <v>161294.21195172454</v>
+      </c>
+      <c r="BH32" s="2">
+        <f t="shared" ref="BH32" si="144">+BG32+BH23</f>
+        <v>163699.88706690675</v>
+      </c>
+      <c r="BJ32" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BF32" s="1">
-        <f>BF31/Main!M3</f>
-        <v>687.95583546361547</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BK32" s="1">
+        <f>BK31/Main!M3</f>
+        <v>411.34582008146867</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>262</v>
       </c>
@@ -8176,7 +8270,7 @@
         <v>1793.2</v>
       </c>
     </row>
-    <row r="34" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>263</v>
       </c>
@@ -8230,7 +8324,7 @@
         <v>813.1</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>264</v>
       </c>
@@ -8284,7 +8378,7 @@
         <v>511.1</v>
       </c>
     </row>
-    <row r="36" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>265</v>
       </c>
@@ -8338,7 +8432,7 @@
         <v>1172.8</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>266</v>
       </c>
@@ -8405,7 +8499,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
@@ -8459,7 +8553,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>267</v>
       </c>
@@ -8513,7 +8607,7 @@
         <v>312.89999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>268</v>
       </c>
@@ -8567,7 +8661,7 @@
         <v>875.7</v>
       </c>
     </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>261</v>
       </c>
@@ -8582,71 +8676,76 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12">
-        <f t="shared" ref="M41:R41" si="146">SUM(M32:M40)</f>
+        <f t="shared" ref="M41:R41" si="145">SUM(M32:M40)</f>
         <v>12115.058999999997</v>
       </c>
       <c r="N41" s="12">
+        <f t="shared" si="145"/>
+        <v>12221.686</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="145"/>
+        <v>12618.744999999999</v>
+      </c>
+      <c r="P41" s="12">
+        <f t="shared" si="145"/>
+        <v>13432.499999999998</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="145"/>
+        <v>14256.1</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="145"/>
+        <v>15582.2</v>
+      </c>
+      <c r="S41" s="12">
+        <f t="shared" ref="S41:AB41" si="146">SUM(S32:S40)</f>
+        <v>16706.400000000005</v>
+      </c>
+      <c r="T41" s="12">
         <f t="shared" si="146"/>
-        <v>12221.686</v>
-      </c>
-      <c r="O41" s="12">
+        <v>18150.900000000001</v>
+      </c>
+      <c r="U41" s="12">
         <f t="shared" si="146"/>
-        <v>12618.744999999999</v>
-      </c>
-      <c r="P41" s="12">
+        <v>18974.2</v>
+      </c>
+      <c r="V41" s="12">
         <f t="shared" si="146"/>
-        <v>13432.499999999998</v>
-      </c>
-      <c r="Q41" s="12">
+        <v>20349.2</v>
+      </c>
+      <c r="W41" s="12">
         <f t="shared" si="146"/>
-        <v>14256.1</v>
-      </c>
-      <c r="R41" s="12">
+        <v>21726.2</v>
+      </c>
+      <c r="X41" s="12">
         <f t="shared" si="146"/>
-        <v>15582.2</v>
-      </c>
-      <c r="S41" s="12">
-        <f t="shared" ref="S41:AB41" si="147">SUM(S32:S40)</f>
-        <v>16706.400000000005</v>
-      </c>
-      <c r="T41" s="12">
-        <f t="shared" si="147"/>
-        <v>18150.900000000001</v>
-      </c>
-      <c r="U41" s="12">
-        <f t="shared" si="147"/>
-        <v>18974.2</v>
-      </c>
-      <c r="V41" s="12">
-        <f t="shared" si="147"/>
-        <v>20349.2</v>
-      </c>
-      <c r="W41" s="12">
-        <f t="shared" si="147"/>
-        <v>21726.2</v>
-      </c>
-      <c r="X41" s="12">
-        <f t="shared" si="147"/>
         <v>22730.199999999997</v>
       </c>
       <c r="Y41" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>23917.4</v>
       </c>
       <c r="Z41" s="12">
-        <f t="shared" si="147"/>
-        <v>15802.08368</v>
+        <f t="shared" si="146"/>
+        <v>15691.3</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="147"/>
-        <v>17066.97424</v>
+        <f t="shared" si="146"/>
+        <v>16849.3</v>
       </c>
       <c r="AB41" s="12">
-        <f t="shared" si="147"/>
-        <v>18339.141599999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="146"/>
+        <v>17973.099999999999</v>
+      </c>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+    </row>
+    <row r="43" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
@@ -8700,7 +8799,7 @@
         <v>351.4</v>
       </c>
     </row>
-    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>270</v>
       </c>
@@ -8754,7 +8853,7 @@
         <v>2795.9</v>
       </c>
     </row>
-    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>271</v>
       </c>
@@ -8808,7 +8907,7 @@
         <v>648.6</v>
       </c>
     </row>
-    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>267</v>
       </c>
@@ -8875,7 +8974,7 @@
         <v>721.3</v>
       </c>
     </row>
-    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>272</v>
       </c>
@@ -8929,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>273</v>
       </c>
@@ -8983,7 +9082,7 @@
         <v>853.6</v>
       </c>
     </row>
-    <row r="49" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>275</v>
       </c>
@@ -9037,7 +9136,7 @@
         <v>18546.599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>274</v>
       </c>
@@ -9052,51 +9151,51 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12">
-        <f t="shared" ref="M50:R50" si="148">SUM(M43:M49)</f>
+        <f t="shared" ref="M50:R50" si="147">SUM(M43:M49)</f>
         <v>12115.059000000001</v>
       </c>
       <c r="N50" s="12">
+        <f t="shared" si="147"/>
+        <v>12221.686000000002</v>
+      </c>
+      <c r="O50" s="12">
+        <f t="shared" si="147"/>
+        <v>12618.745000000001</v>
+      </c>
+      <c r="P50" s="12">
+        <f t="shared" si="147"/>
+        <v>13432.5</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="147"/>
+        <v>14256.1</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" si="147"/>
+        <v>15582.2</v>
+      </c>
+      <c r="S50" s="12">
+        <f t="shared" ref="S50:X50" si="148">SUM(S43:S49)</f>
+        <v>16706.400000000001</v>
+      </c>
+      <c r="T50" s="12">
         <f t="shared" si="148"/>
-        <v>12221.686000000002</v>
-      </c>
-      <c r="O50" s="12">
+        <v>18150.900000000001</v>
+      </c>
+      <c r="U50" s="12">
         <f t="shared" si="148"/>
-        <v>12618.745000000001</v>
-      </c>
-      <c r="P50" s="12">
+        <v>18974.199999999997</v>
+      </c>
+      <c r="V50" s="12">
         <f t="shared" si="148"/>
-        <v>13432.5</v>
-      </c>
-      <c r="Q50" s="12">
+        <v>20349.2</v>
+      </c>
+      <c r="W50" s="12">
         <f t="shared" si="148"/>
-        <v>14256.1</v>
-      </c>
-      <c r="R50" s="12">
+        <v>21726.2</v>
+      </c>
+      <c r="X50" s="12">
         <f t="shared" si="148"/>
-        <v>15582.2</v>
-      </c>
-      <c r="S50" s="12">
-        <f t="shared" ref="S50:X50" si="149">SUM(S43:S49)</f>
-        <v>16706.400000000001</v>
-      </c>
-      <c r="T50" s="12">
-        <f t="shared" si="149"/>
-        <v>18150.900000000001</v>
-      </c>
-      <c r="U50" s="12">
-        <f t="shared" si="149"/>
-        <v>18974.199999999997</v>
-      </c>
-      <c r="V50" s="12">
-        <f t="shared" si="149"/>
-        <v>20349.2</v>
-      </c>
-      <c r="W50" s="12">
-        <f t="shared" si="149"/>
-        <v>21726.2</v>
-      </c>
-      <c r="X50" s="12">
-        <f t="shared" si="149"/>
         <v>22730.2</v>
       </c>
       <c r="Y50" s="12">
@@ -9104,19 +9203,24 @@
         <v>23917.399999999998</v>
       </c>
       <c r="Z50" s="12">
-        <f t="shared" ref="Z50:AB50" si="150">SUM(Z43:Z49)</f>
+        <f t="shared" ref="Z50:AB50" si="149">SUM(Z43:Z49)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="AB50" s="12">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+    </row>
+    <row r="52" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>276</v>
       </c>
@@ -9131,71 +9235,71 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12">
-        <f t="shared" ref="M52:P52" si="151">+M23</f>
+        <f t="shared" ref="M52:P52" si="150">+M23</f>
         <v>779.8</v>
       </c>
       <c r="N52" s="12">
+        <f t="shared" si="150"/>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="150"/>
+        <v>810.59600000000034</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" si="150"/>
+        <v>868.69999999999982</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" ref="Q52:AB52" si="151">+Q23</f>
+        <v>1002.4000000000001</v>
+      </c>
+      <c r="R52" s="12">
         <f t="shared" si="151"/>
-        <v>897.40000000000009</v>
-      </c>
-      <c r="O52" s="12">
+        <v>984.70000000000016</v>
+      </c>
+      <c r="S52" s="12">
         <f t="shared" si="151"/>
-        <v>810.59600000000034</v>
-      </c>
-      <c r="P52" s="12">
+        <v>1104.7999999999995</v>
+      </c>
+      <c r="T52" s="12">
         <f t="shared" si="151"/>
-        <v>868.69999999999982</v>
-      </c>
-      <c r="Q52" s="12">
-        <f t="shared" ref="Q52:AB52" si="152">+Q23</f>
-        <v>1002.4000000000001</v>
-      </c>
-      <c r="R52" s="12">
-        <f t="shared" si="152"/>
-        <v>984.70000000000016</v>
-      </c>
-      <c r="S52" s="12">
-        <f t="shared" si="152"/>
-        <v>1104.7999999999995</v>
-      </c>
-      <c r="T52" s="12">
-        <f t="shared" si="152"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U52" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1141.0999999999995</v>
       </c>
       <c r="V52" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1124.5</v>
       </c>
       <c r="W52" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1115.4000000000003</v>
       </c>
       <c r="X52" s="12">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>1318.5999999999995</v>
       </c>
       <c r="Z52" s="2">
-        <f t="shared" si="152"/>
-        <v>1249.3836800000001</v>
+        <f t="shared" si="151"/>
+        <v>1138.5999999999999</v>
       </c>
       <c r="AA52" s="2">
-        <f t="shared" si="152"/>
-        <v>1264.8905600000003</v>
+        <f t="shared" si="151"/>
+        <v>1158.0000000000002</v>
       </c>
       <c r="AB52" s="2">
-        <f t="shared" si="152"/>
-        <v>1272.1673600000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="151"/>
+        <v>1123.7999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>277</v>
       </c>
@@ -9258,7 +9362,7 @@
         <v>1099.5999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>278</v>
       </c>
@@ -9321,7 +9425,7 @@
         <v>191.9</v>
       </c>
     </row>
-    <row r="55" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>279</v>
       </c>
@@ -9384,7 +9488,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="56" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>272</v>
       </c>
@@ -9447,7 +9551,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
@@ -9510,7 +9614,7 @@
         <v>-158.30000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>280</v>
       </c>
@@ -9573,7 +9677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>281</v>
       </c>
@@ -9636,7 +9740,7 @@
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>282</v>
       </c>
@@ -9703,7 +9807,7 @@
         <v>129.29999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>286</v>
       </c>
@@ -9718,59 +9822,59 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12">
-        <f t="shared" ref="M61:Y61" si="153">SUM(M53:M60)</f>
+        <f t="shared" ref="M61:Y61" si="152">SUM(M53:M60)</f>
         <v>921.05499999999995</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>-199.76700000000002</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>927.21900000000028</v>
       </c>
       <c r="P61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>994.99299999999994</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>956.20000000000016</v>
       </c>
       <c r="R61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1139.7999999999997</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>955.49999999999989</v>
       </c>
       <c r="T61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1078.3999999999996</v>
       </c>
       <c r="U61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>899.9</v>
       </c>
       <c r="V61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1134.4000000000001</v>
       </c>
       <c r="W61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1268.4000000000003</v>
       </c>
       <c r="X61" s="12">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>234.59999999999968</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1306.6000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>283</v>
       </c>
@@ -9833,7 +9937,7 @@
         <v>-68.400000000000006</v>
       </c>
     </row>
-    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>357</v>
       </c>
@@ -9887,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>284</v>
       </c>
@@ -9954,7 +10058,7 @@
         <v>-2068</v>
       </c>
     </row>
-    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>285</v>
       </c>
@@ -9969,27 +10073,27 @@
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12">
-        <f t="shared" ref="M66:R66" si="154">M63+M65</f>
+        <f t="shared" ref="M66:R66" si="153">M63+M65</f>
         <v>-74.308999999999997</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>-79.64100000000002</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>-52.952000000000012</v>
       </c>
       <c r="P66" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>-133.99800000000002</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>-51.000000000000007</v>
       </c>
       <c r="R66" s="12">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>-61.499999999999993</v>
       </c>
       <c r="S66" s="12">
@@ -10021,7 +10125,7 @@
         <v>-2136.4</v>
       </c>
     </row>
-    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>290</v>
       </c>
@@ -10084,7 +10188,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>291</v>
       </c>
@@ -10147,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>352</v>
       </c>
@@ -10207,7 +10311,7 @@
         <v>-131.19999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>267</v>
       </c>
@@ -10272,7 +10376,7 @@
         <v>-246.7</v>
       </c>
     </row>
-    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>268</v>
       </c>
@@ -10335,7 +10439,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
@@ -10350,59 +10454,59 @@
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12">
-        <f t="shared" ref="M73:P73" si="155">SUM(M68:M72)</f>
+        <f t="shared" ref="M73:P73" si="154">SUM(M68:M72)</f>
         <v>-518.654</v>
       </c>
       <c r="N73" s="12">
+        <f t="shared" si="154"/>
+        <v>33.550000000000004</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="154"/>
+        <v>-656.66099999999994</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" si="154"/>
+        <v>-336.23500000000018</v>
+      </c>
+      <c r="Q73" s="12">
+        <f t="shared" ref="Q73:Y73" si="155">SUM(Q68:Q72)</f>
+        <v>-95.4</v>
+      </c>
+      <c r="R73" s="12">
         <f t="shared" si="155"/>
-        <v>33.550000000000004</v>
-      </c>
-      <c r="O73" s="12">
+        <v>47.699999999999982</v>
+      </c>
+      <c r="S73" s="12">
         <f t="shared" si="155"/>
-        <v>-656.66099999999994</v>
-      </c>
-      <c r="P73" s="12">
+        <v>-60.199999999999996</v>
+      </c>
+      <c r="T73" s="12">
         <f t="shared" si="155"/>
-        <v>-336.23500000000018</v>
-      </c>
-      <c r="Q73" s="12">
-        <f t="shared" ref="Q73:Y73" si="156">SUM(Q68:Q72)</f>
-        <v>-95.4</v>
-      </c>
-      <c r="R73" s="12">
-        <f t="shared" si="156"/>
-        <v>47.699999999999982</v>
-      </c>
-      <c r="S73" s="12">
-        <f t="shared" si="156"/>
-        <v>-60.199999999999996</v>
-      </c>
-      <c r="T73" s="12">
-        <f t="shared" si="156"/>
         <v>40.200000000000024</v>
       </c>
       <c r="U73" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>-294.70000000000005</v>
       </c>
       <c r="V73" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>17.300000000000018</v>
       </c>
       <c r="W73" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>-165.00000000000006</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>-119.80000000000005</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>-357.5</v>
       </c>
     </row>
-    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>288</v>
       </c>
@@ -10465,7 +10569,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>287</v>
       </c>
@@ -10480,19 +10584,19 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12">
-        <f t="shared" ref="M75:P75" si="157">+M73+M74+M66+M61</f>
+        <f t="shared" ref="M75:P75" si="156">+M73+M74+M66+M61</f>
         <v>324.06200000000001</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="156"/>
         <v>-241.83900000000006</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="156"/>
         <v>209.14500000000032</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" si="157"/>
+        <f t="shared" si="156"/>
         <v>519.83199999999977</v>
       </c>
       <c r="Q75" s="12">
@@ -10532,7 +10636,7 @@
         <v>-1202.8999999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -10553,7 +10657,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>353</v>
       </c>
@@ -10583,18 +10687,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10714,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10618,7 +10722,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>121</v>
       </c>
@@ -10626,7 +10730,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>194</v>
       </c>
@@ -10634,7 +10738,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>184</v>
       </c>
@@ -10642,7 +10746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>186</v>
       </c>
@@ -10650,7 +10754,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>191</v>
       </c>
@@ -10658,7 +10762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -10666,17 +10770,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>189</v>
       </c>
@@ -10695,18 +10799,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10714,7 +10818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10722,7 +10826,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>121</v>
       </c>
@@ -10744,18 +10848,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -10771,12 +10875,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -10795,17 +10899,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10813,12 +10917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10826,7 +10930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -10834,7 +10938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -10854,18 +10958,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -10873,7 +10977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -10881,7 +10985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -10889,7 +10993,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -10897,7 +11001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -10905,7 +11009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>134</v>
       </c>
@@ -10913,7 +11017,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>121</v>
       </c>
@@ -10921,12 +11025,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>359</v>
       </c>
@@ -10934,17 +11038,17 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>151</v>
       </c>
@@ -10952,57 +11056,57 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="18" t="s">
         <v>157</v>
       </c>
@@ -11022,18 +11126,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11041,7 +11145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -11049,7 +11153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -11057,7 +11161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>134</v>
       </c>
@@ -11065,47 +11169,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>340</v>
       </c>
@@ -11124,19 +11228,19 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -11144,7 +11248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -11152,7 +11256,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -11160,27 +11264,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="18" t="s">
         <v>330</v>
       </c>

--- a/VRTX.xlsx
+++ b/VRTX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34960FE6-D4FD-4089-96FA-383936FA9B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CC7D2-8453-4B5D-A9C5-39FA8EB377F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
+    <workbookView xWindow="53310" yWindow="3970" windowWidth="23530" windowHeight="16500" xr2:uid="{79B82797-CA5A-45D2-8A30-BD70659F48DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="368">
   <si>
     <t>Price</t>
   </si>
@@ -222,9 +222,6 @@
     <t>VX-121</t>
   </si>
   <si>
-    <t>VX-548</t>
-  </si>
-  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -1182,10 +1179,10 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>Journavx (fka VX-548)</t>
-  </si>
-  <si>
     <t>Journavx</t>
+  </si>
+  <si>
+    <t>Journavx, fka VX-548</t>
   </si>
 </sst>
 </file>
@@ -2102,14 +2099,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE714A94-C7D9-4203-913D-E82693A2B152}">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="22.453125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
@@ -2144,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -2152,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2164,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>258.10220299999997</v>
+        <v>256.78986900000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2175,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -2188,7 +2183,7 @@
       </c>
       <c r="M4" s="2">
         <f>+M3*M2</f>
-        <v>124147.15964299999</v>
+        <v>123772.716858</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -2197,13 +2192,13 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -2216,7 +2211,7 @@
         <v>10188.6</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -2242,24 +2237,24 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>38</v>
@@ -2269,22 +2264,22 @@
       </c>
       <c r="M7" s="2">
         <f>+M4-M5+M6</f>
-        <v>113958.55964299999</v>
+        <v>113584.11685799999</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="26"/>
       <c r="H8" s="8"/>
@@ -2305,13 +2300,13 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -2320,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -2330,308 +2325,308 @@
       </c>
       <c r="H11" s="8"/>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="8"/>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="D20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
     </row>
     <row r="24" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E25" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E26" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E27" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E28" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E29" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E31" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="E32" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E33" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E34" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E35" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E36" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E37" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E38" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E39" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E40" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E41" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E42" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E43" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E44" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E45" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E46" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="5:5" ht="13" x14ac:dyDescent="0.3">
       <c r="E47" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2656,9 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AB47AF-768E-4B06-9E84-BC4ABCFB8ABD}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2677,7 +2670,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2685,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,7 +2686,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,49 +2694,49 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
         <v>350</v>
-      </c>
-      <c r="C7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="18"/>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="22">
         <v>101</v>
@@ -2751,46 +2744,46 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="22">
         <v>137.80000000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="22">
         <v>86.9</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="22">
         <v>112.9</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D19" s="22">
         <v>115.6</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
@@ -2801,17 +2794,17 @@
     </row>
     <row r="22" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24">
         <v>72.7</v>
@@ -2819,60 +2812,60 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25">
         <v>110.5</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26">
         <v>95.1</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27">
         <v>85.2</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C34" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2899,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,25 +2912,25 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,27 +2989,27 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,15 +3051,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3097,28 +3090,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3126,13 +3119,13 @@
         <v>11390600</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3144,7 +3137,7 @@
         <v>44761</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,13 +3145,13 @@
         <v>11370798</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3170,7 +3163,7 @@
         <v>44740</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3178,13 +3171,13 @@
         <v>11369692</v>
       </c>
       <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -3196,7 +3189,7 @@
         <v>44740</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,13 +3197,13 @@
         <v>11358977</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -3222,7 +3215,7 @@
         <v>44726</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3230,13 +3223,13 @@
         <v>11345700</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3248,7 +3241,7 @@
         <v>44712</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,13 +3249,13 @@
         <v>11291662</v>
       </c>
       <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3282,13 +3275,13 @@
         <v>11268077</v>
       </c>
       <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3300,7 +3293,7 @@
         <v>44628</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,13 +3301,13 @@
         <v>11253509</v>
       </c>
       <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
         <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -3331,13 +3324,13 @@
         <v>11203571</v>
       </c>
       <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
         <v>205</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>206</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -3349,7 +3342,7 @@
         <v>44551</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3357,13 +3350,13 @@
         <v>11186566</v>
       </c>
       <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
         <v>207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>208</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3375,7 +3368,7 @@
         <v>44530</v>
       </c>
       <c r="I12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3383,13 +3376,13 @@
         <v>11179394</v>
       </c>
       <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>211</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -3401,7 +3394,7 @@
         <v>44523</v>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3409,13 +3402,13 @@
         <v>11179367</v>
       </c>
       <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>214</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3427,7 +3420,7 @@
         <v>44523</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3435,13 +3428,13 @@
         <v>11155533</v>
       </c>
       <c r="C15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
         <v>216</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>217</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3453,7 +3446,7 @@
         <v>44495</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,13 +3454,13 @@
         <v>11147770</v>
       </c>
       <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
         <v>219</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3479,7 +3472,7 @@
         <v>44488</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -3487,13 +3480,13 @@
         <v>11124805</v>
       </c>
       <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
         <v>221</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>222</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -3505,7 +3498,7 @@
         <v>44460</v>
       </c>
       <c r="I17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -3513,13 +3506,13 @@
         <v>11117900</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3536,13 +3529,13 @@
         <v>11110108</v>
       </c>
       <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>224</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>225</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3559,13 +3552,13 @@
         <v>11110086</v>
       </c>
       <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
         <v>226</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>227</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -3582,13 +3575,13 @@
         <v>11084804</v>
       </c>
       <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
         <v>228</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>229</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3600,7 +3593,7 @@
         <v>44418</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -3608,13 +3601,13 @@
         <v>11066417</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3631,13 +3624,13 @@
         <v>11059826</v>
       </c>
       <c r="C23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
         <v>232</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>233</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -3649,7 +3642,7 @@
         <v>44390</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -3657,13 +3650,13 @@
         <v>11052075</v>
       </c>
       <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
         <v>235</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>236</v>
       </c>
       <c r="G24" s="15">
         <v>43679</v>
@@ -3672,7 +3665,7 @@
         <v>44383</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3719,21 +3712,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
         <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
       </c>
       <c r="F3" s="15">
         <v>40686</v>
@@ -3741,13 +3734,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3758,10 +3751,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3772,7 +3765,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -3785,75 +3778,75 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>259</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E8267B-C4D8-4F55-9938-4004F5DC3025}">
   <dimension ref="A1:DP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3890,22 +3883,22 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>25</v>
@@ -3944,40 +3937,40 @@
         <v>35</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="Y2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="AC2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AI2">
@@ -4086,7 +4079,7 @@
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT3" s="2">
         <v>200</v>
@@ -4146,7 +4139,7 @@
     </row>
     <row r="4" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4354,7 +4347,7 @@
     </row>
     <row r="7" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
@@ -4633,7 +4626,7 @@
         <v>180</v>
       </c>
       <c r="AQ9" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4704,12 +4697,12 @@
         <v>511.29999999999995</v>
       </c>
       <c r="AQ10" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4870,7 +4863,7 @@
         <v>553.4</v>
       </c>
       <c r="AQ12" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:60" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -4966,40 +4959,40 @@
         <v>2517.7000000000003</v>
       </c>
       <c r="Y13" s="14">
-        <f>SUM(Y8:Y12)</f>
+        <f t="shared" ref="Y13:AF13" si="28">SUM(Y8:Y12)</f>
         <v>2690.6</v>
       </c>
       <c r="Z13" s="14">
-        <f>SUM(Z8:Z12)</f>
+        <f t="shared" si="28"/>
         <v>2645.6</v>
       </c>
       <c r="AA13" s="14">
-        <f>SUM(AA8:AA12)</f>
+        <f t="shared" si="28"/>
         <v>2771.9</v>
       </c>
       <c r="AB13" s="14">
-        <f>SUM(AB8:AB12)</f>
+        <f t="shared" si="28"/>
         <v>2912</v>
       </c>
       <c r="AC13" s="14">
-        <f>SUM(AC8:AC12)</f>
+        <f t="shared" si="28"/>
         <v>2731.96</v>
       </c>
       <c r="AD13" s="14">
-        <f>SUM(AD8:AD12)</f>
+        <f t="shared" si="28"/>
         <v>2694.12</v>
       </c>
       <c r="AE13" s="14">
-        <f>SUM(AE8:AE12)</f>
+        <f t="shared" si="28"/>
         <v>2843.5000000000005</v>
       </c>
       <c r="AF13" s="14">
-        <f>SUM(AF8:AF12)</f>
+        <f t="shared" si="28"/>
         <v>2992.8800000000006</v>
       </c>
       <c r="AG13" s="14"/>
       <c r="AN13" s="13">
-        <f t="shared" ref="AN13" si="28">SUM(AN8:AN12)</f>
+        <f t="shared" ref="AN13" si="29">SUM(AN8:AN12)</f>
         <v>0</v>
       </c>
       <c r="AO13" s="13">
@@ -5015,27 +5008,27 @@
         <v>9869.3000000000011</v>
       </c>
       <c r="AR13" s="13">
-        <f t="shared" ref="AR13:BC13" si="29">SUM(AR3:AR12)</f>
+        <f t="shared" ref="AR13:BC13" si="30">SUM(AR3:AR12)</f>
         <v>10778.016000000001</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11489.137860000003</v>
       </c>
       <c r="AT13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13404.288772600003</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14823.548385006003</v>
       </c>
       <c r="AV13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16242.197928029664</v>
       </c>
       <c r="AW13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17665.122247667034</v>
       </c>
       <c r="AX13" s="13">
@@ -5043,49 +5036,49 @@
         <v>18142.405857307916</v>
       </c>
       <c r="AY13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18434.634950788492</v>
       </c>
       <c r="AZ13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18732.002435902028</v>
       </c>
       <c r="BA13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19034.604018578808</v>
       </c>
       <c r="BB13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13228.003395074686</v>
       </c>
       <c r="BC13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6968.2038846381411</v>
       </c>
       <c r="BD13" s="13">
-        <f t="shared" ref="BD13:BH13" si="30">SUM(BD3:BD12)</f>
+        <f t="shared" ref="BD13:BH13" si="31">SUM(BD3:BD12)</f>
         <v>6502.8642113317956</v>
       </c>
       <c r="BE13" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6514.3906822298404</v>
       </c>
       <c r="BF13" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6574.1843719306116</v>
       </c>
       <c r="BG13" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6639.3911939377658</v>
       </c>
       <c r="BH13" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1679.7009330849469</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12">
         <v>111.255</v>
@@ -5174,120 +5167,120 @@
         <v>975.5</v>
       </c>
       <c r="AQ14" s="2">
-        <f t="shared" ref="AQ14:AQ17" si="31">SUM(U14:X14)</f>
+        <f t="shared" ref="AQ14:AQ17" si="32">SUM(U14:X14)</f>
         <v>1253</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" ref="AR14:BC14" si="32">+AR13*0.07</f>
+        <f t="shared" ref="AR14:BC14" si="33">+AR13*0.07</f>
         <v>754.46112000000016</v>
       </c>
       <c r="AS14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>804.23965020000026</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>938.30021408200025</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1037.6483869504202</v>
       </c>
       <c r="AV14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1136.9538549620765</v>
       </c>
       <c r="AW14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1236.5585573366925</v>
       </c>
       <c r="AX14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1269.9684100115542</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1290.4244465551944</v>
       </c>
       <c r="AZ14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1311.2401705131422</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1332.4222813005167</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>925.96023765522807</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>487.7742719246699</v>
       </c>
       <c r="BD14" s="2">
-        <f t="shared" ref="BD14:BH14" si="33">+BD13*0.07</f>
+        <f t="shared" ref="BD14:BH14" si="34">+BD13*0.07</f>
         <v>455.20049479322574</v>
       </c>
       <c r="BE14" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>456.00734775608885</v>
       </c>
       <c r="BF14" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>460.19290603514287</v>
       </c>
       <c r="BG14" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>464.75738357564364</v>
       </c>
       <c r="BH14" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>117.57906531594629</v>
       </c>
     </row>
     <row r="15" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:J15" si="34">+C13-C14</f>
+        <f t="shared" ref="C15:J15" si="35">+C13-C14</f>
         <v>671.745</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>747.64400000000001</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>763.09</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>805.173</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>818.08600000000001</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1071.9880000000001</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1352.5029999999999</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1339.9</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" ref="K15:L15" si="35">+K13-K14</f>
+        <f t="shared" ref="K15:L15" si="36">+K13-K14</f>
         <v>1351.818</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1423.9</v>
       </c>
       <c r="M15" s="12">
@@ -5311,7 +5304,7 @@
         <v>1951.7</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ref="R15:T15" si="36">+R13-R14</f>
+        <f t="shared" ref="R15:T15" si="37">+R13-R14</f>
         <v>1935.2</v>
       </c>
       <c r="S15" s="12">
@@ -5319,43 +5312,43 @@
         <v>2047.2999999999997</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2022.1</v>
       </c>
       <c r="U15" s="12">
-        <f>+U13-U14</f>
+        <f t="shared" ref="U15:AB15" si="38">+U13-U14</f>
         <v>2109.7999999999997</v>
       </c>
       <c r="V15" s="2">
-        <f>+V13-V14</f>
+        <f t="shared" si="38"/>
         <v>2186.4</v>
       </c>
       <c r="W15" s="2">
-        <f>+W13-W14</f>
+        <f t="shared" si="38"/>
         <v>2166.6000000000004</v>
       </c>
       <c r="X15" s="2">
-        <f>+X13-X14</f>
+        <f t="shared" si="38"/>
         <v>2153.5000000000005</v>
       </c>
       <c r="Y15" s="2">
-        <f>+Y13-Y14</f>
+        <f t="shared" si="38"/>
         <v>2354.7999999999997</v>
       </c>
       <c r="Z15" s="2">
-        <f>+Z13-Z14</f>
+        <f t="shared" si="38"/>
         <v>2280.6</v>
       </c>
       <c r="AA15" s="2">
-        <f>+AA13-AA14</f>
+        <f t="shared" si="38"/>
         <v>2386.2000000000003</v>
       </c>
       <c r="AB15" s="2">
-        <f>+AB13-AB14</f>
+        <f t="shared" si="38"/>
         <v>2495.6999999999998</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" ref="AN15" si="37">+AN13-AN14</f>
+        <f t="shared" ref="AN15" si="39">+AN13-AN14</f>
         <v>0</v>
       </c>
       <c r="AO15" s="2">
@@ -5371,77 +5364,77 @@
         <v>8616.3000000000011</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" ref="AR15:BC15" si="38">+AR13-AR14</f>
+        <f t="shared" ref="AR15:BC15" si="40">+AR13-AR14</f>
         <v>10023.554880000002</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10684.898209800001</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12465.988558518002</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>13785.899998055582</v>
       </c>
       <c r="AV15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>15105.244073067588</v>
       </c>
       <c r="AW15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>16428.563690330342</v>
       </c>
       <c r="AX15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>16872.437447296361</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17144.210504233299</v>
       </c>
       <c r="AZ15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17420.762265388887</v>
       </c>
       <c r="BA15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>17702.18173727829</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12302.043157419457</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>6480.4296127134712</v>
       </c>
       <c r="BD15" s="2">
-        <f t="shared" ref="BD15:BH15" si="39">+BD13-BD14</f>
+        <f t="shared" ref="BD15:BH15" si="41">+BD13-BD14</f>
         <v>6047.66371653857</v>
       </c>
       <c r="BE15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6058.3833344737513</v>
       </c>
       <c r="BF15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6113.9914658954685</v>
       </c>
       <c r="BG15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6174.6338103621219</v>
       </c>
       <c r="BH15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1562.1218677690006</v>
       </c>
     </row>
     <row r="16" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="12">
         <v>137.29499999999999</v>
@@ -5528,85 +5521,85 @@
         <v>673</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" ref="AP16:AP17" si="40">SUM(Q16:T16)</f>
+        <f t="shared" ref="AP16:AP17" si="42">SUM(Q16:T16)</f>
         <v>746.30000000000007</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>917.80000000000007</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" ref="AR16:BC16" si="41">+AR13*0.1</f>
+        <f t="shared" ref="AR16:BC16" si="43">+AR13*0.1</f>
         <v>1077.8016000000002</v>
       </c>
       <c r="AS16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1148.9137860000003</v>
       </c>
       <c r="AT16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1340.4288772600003</v>
       </c>
       <c r="AU16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1482.3548385006004</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1624.2197928029664</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1766.5122247667034</v>
       </c>
       <c r="AX16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1814.2405857307917</v>
       </c>
       <c r="AY16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1843.4634950788493</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1873.2002435902029</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1903.4604018578809</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1322.8003395074686</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>696.8203884638142</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" ref="BD16:BH16" si="42">+BD13*0.1</f>
+        <f t="shared" ref="BD16:BH16" si="44">+BD13*0.1</f>
         <v>650.2864211331796</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>651.43906822298413</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>657.41843719306121</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>663.93911939377665</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>167.97009330849471</v>
       </c>
     </row>
     <row r="17" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12">
         <v>330.51</v>
@@ -5693,56 +5686,56 @@
         <v>1658</v>
       </c>
       <c r="AP17" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2206.5</v>
       </c>
       <c r="AQ17" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2796.7</v>
       </c>
     </row>
     <row r="18" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" ref="C18:D18" si="43">SUM(C16:C17)</f>
+        <f t="shared" ref="C18:D18" si="45">SUM(C16:C17)</f>
         <v>467.80499999999995</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>591.09100000000001</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18:G18" si="44">SUM(E16:E17)</f>
+        <f t="shared" ref="E18:G18" si="46">SUM(E16:E17)</f>
         <v>486.53499999999997</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>535.59300000000007</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>715.62199999999996</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" ref="H18:I18" si="45">SUM(H16:H17)</f>
+        <f t="shared" ref="H18:I18" si="47">SUM(H16:H17)</f>
         <v>675.28800000000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>630.78600000000006</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18" si="46">SUM(J16:J17)</f>
+        <f t="shared" ref="J18" si="48">SUM(J16:J17)</f>
         <v>612.70000000000005</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" ref="K18:L18" si="47">SUM(K16:K17)</f>
+        <f t="shared" ref="K18:L18" si="49">SUM(K16:K17)</f>
         <v>678.048</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>539</v>
       </c>
       <c r="M18" s="12">
@@ -5750,11 +5743,11 @@
         <v>531</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ref="N18:Q18" si="48">SUM(N16:N17)</f>
+        <f t="shared" ref="N18:Q18" si="50">SUM(N16:N17)</f>
         <v>643.29999999999995</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>691.93999999999994</v>
       </c>
       <c r="P18" s="12">
@@ -5762,7 +5755,7 @@
         <v>703</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>687</v>
       </c>
       <c r="R18" s="12">
@@ -5774,39 +5767,39 @@
         <v>728.9</v>
       </c>
       <c r="T18" s="12">
-        <f t="shared" ref="T18:U18" si="49">SUM(T16:T17)</f>
+        <f t="shared" ref="T18:U18" si="51">SUM(T16:T17)</f>
         <v>848.80000000000007</v>
       </c>
       <c r="U18" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>860.4</v>
       </c>
       <c r="V18" s="12">
-        <f t="shared" ref="V18:Y18" si="50">SUM(V16:V17)</f>
+        <f t="shared" ref="V18:Y18" si="52">SUM(V16:V17)</f>
         <v>928</v>
       </c>
       <c r="W18" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>941.7</v>
       </c>
       <c r="X18" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>984.4</v>
       </c>
       <c r="Y18" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>941.7</v>
       </c>
       <c r="Z18" s="12">
-        <f t="shared" ref="Z18:AB18" si="51">SUM(Z16:Z17)</f>
+        <f t="shared" ref="Z18:AB18" si="53">SUM(Z16:Z17)</f>
         <v>977.6</v>
       </c>
       <c r="AA18" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1064.0999999999999</v>
       </c>
       <c r="AB18" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1209.9000000000001</v>
       </c>
       <c r="AC18" s="12"/>
@@ -5815,132 +5808,132 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AN18" s="12">
-        <f t="shared" ref="AN18:AP18" si="52">SUM(AN16:AN17)</f>
+        <f t="shared" ref="AN18:AP18" si="54">SUM(AN16:AN17)</f>
         <v>1981</v>
       </c>
       <c r="AO18" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2331</v>
       </c>
       <c r="AP18" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2952.8</v>
       </c>
       <c r="AQ18" s="12">
-        <f t="shared" ref="AQ18:BC18" si="53">SUM(AQ16:AQ17)</f>
+        <f t="shared" ref="AQ18:BC18" si="55">SUM(AQ16:AQ17)</f>
         <v>3714.5</v>
       </c>
       <c r="AR18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1077.8016000000002</v>
       </c>
       <c r="AS18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1148.9137860000003</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1340.4288772600003</v>
       </c>
       <c r="AU18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1482.3548385006004</v>
       </c>
       <c r="AV18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1624.2197928029664</v>
       </c>
       <c r="AW18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1766.5122247667034</v>
       </c>
       <c r="AX18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1814.2405857307917</v>
       </c>
       <c r="AY18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1843.4634950788493</v>
       </c>
       <c r="AZ18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1873.2002435902029</v>
       </c>
       <c r="BA18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1903.4604018578809</v>
       </c>
       <c r="BB18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1322.8003395074686</v>
       </c>
       <c r="BC18" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>696.8203884638142</v>
       </c>
       <c r="BD18" s="12">
-        <f t="shared" ref="BD18:BH18" si="54">SUM(BD16:BD17)</f>
+        <f t="shared" ref="BD18:BH18" si="56">SUM(BD16:BD17)</f>
         <v>650.2864211331796</v>
       </c>
       <c r="BE18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>651.43906822298413</v>
       </c>
       <c r="BF18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>657.41843719306121</v>
       </c>
       <c r="BG18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>663.93911939377665</v>
       </c>
       <c r="BH18" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>167.97009330849471</v>
       </c>
     </row>
     <row r="19" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19:D19" si="55">C15-C18</f>
+        <f t="shared" ref="C19:D19" si="57">C15-C18</f>
         <v>203.94000000000005</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>156.553</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" ref="E19:G19" si="56">E15-E18</f>
+        <f t="shared" ref="E19:G19" si="58">E15-E18</f>
         <v>276.55500000000006</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>269.57999999999993</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>102.46400000000006</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19:I19" si="57">H15-H18</f>
+        <f t="shared" ref="H19:I19" si="59">H15-H18</f>
         <v>396.70000000000005</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>721.71699999999987</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19" si="58">J15-J18</f>
+        <f t="shared" ref="J19" si="60">J15-J18</f>
         <v>727.2</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:L19" si="59">K15-K18</f>
+        <f t="shared" ref="K19:L19" si="61">K15-K18</f>
         <v>673.77</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>884.90000000000009</v>
       </c>
       <c r="M19" s="12">
@@ -5948,11 +5941,11 @@
         <v>1000</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ref="N19:Q19" si="60">N15-N18</f>
+        <f t="shared" ref="N19:Q19" si="62">N15-N18</f>
         <v>922.7</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1055.5480000000002</v>
       </c>
       <c r="P19" s="12">
@@ -5960,7 +5953,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1264.7</v>
       </c>
       <c r="R19" s="12">
@@ -5972,19 +5965,19 @@
         <v>1318.3999999999996</v>
       </c>
       <c r="T19" s="12">
-        <f t="shared" ref="T19:U19" si="61">T15-T18</f>
+        <f t="shared" ref="T19:U19" si="63">T15-T18</f>
         <v>1173.2999999999997</v>
       </c>
       <c r="U19" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1249.3999999999996</v>
       </c>
       <c r="V19" s="12">
-        <f t="shared" ref="V19:Y19" si="62">V15-V18</f>
+        <f t="shared" ref="V19:Y19" si="64">V15-V18</f>
         <v>1258.4000000000001</v>
       </c>
       <c r="W19" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1224.9000000000003</v>
       </c>
       <c r="X19" s="12">
@@ -5992,19 +5985,19 @@
         <v>1169.1000000000004</v>
       </c>
       <c r="Y19" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1413.0999999999997</v>
       </c>
       <c r="Z19" s="12">
-        <f t="shared" ref="Z19:AB19" si="63">Z15-Z18</f>
+        <f t="shared" ref="Z19:AB19" si="65">Z15-Z18</f>
         <v>1303</v>
       </c>
       <c r="AA19" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1322.1000000000004</v>
       </c>
       <c r="AB19" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1285.7999999999997</v>
       </c>
       <c r="AC19" s="12"/>
@@ -6013,93 +6006,93 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AN19" s="12">
-        <f t="shared" ref="AN19:AP19" si="64">AN15-AN18</f>
+        <f t="shared" ref="AN19:AP19" si="66">AN15-AN18</f>
         <v>-1981</v>
       </c>
       <c r="AO19" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4338.0879999999997</v>
       </c>
       <c r="AP19" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5003.4999999999991</v>
       </c>
       <c r="AQ19" s="12">
-        <f t="shared" ref="AQ19:BC19" si="65">AQ15-AQ18</f>
+        <f t="shared" ref="AQ19:BC19" si="67">AQ15-AQ18</f>
         <v>4901.8000000000011</v>
       </c>
       <c r="AR19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8945.7532800000008</v>
       </c>
       <c r="AS19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9535.9844238000005</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>11125.559681258001</v>
       </c>
       <c r="AU19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>12303.545159554982</v>
       </c>
       <c r="AV19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>13481.024280264621</v>
       </c>
       <c r="AW19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>14662.051465563638</v>
       </c>
       <c r="AX19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15058.19686156557</v>
       </c>
       <c r="AY19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15300.747009154449</v>
       </c>
       <c r="AZ19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15547.562021798683</v>
       </c>
       <c r="BA19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15798.721335420409</v>
       </c>
       <c r="BB19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10979.242817911989</v>
       </c>
       <c r="BC19" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>5783.609224249657</v>
       </c>
       <c r="BD19" s="12">
-        <f t="shared" ref="BD19:BH19" si="66">BD15-BD18</f>
+        <f t="shared" ref="BD19:BH19" si="68">BD15-BD18</f>
         <v>5397.3772954053902</v>
       </c>
       <c r="BE19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>5406.9442662507672</v>
       </c>
       <c r="BF19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>5456.5730287024071</v>
       </c>
       <c r="BG19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>5510.6946909683456</v>
       </c>
       <c r="BH19" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1394.1517744605057</v>
       </c>
     </row>
     <row r="20" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="12">
         <f>10.543-18.686</f>
@@ -6206,7 +6199,7 @@
         <v>117.69999999999999</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" ref="AP20:AP22" si="67">SUM(Q20:T20)</f>
+        <f t="shared" ref="AP20:AP22" si="69">SUM(Q20:T20)</f>
         <v>89.6</v>
       </c>
       <c r="AQ20" s="2">
@@ -6214,63 +6207,63 @@
         <v>548</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" ref="AR20:BE20" si="68">+AQ32*$BK$30</f>
+        <f t="shared" ref="AR20:BE20" si="70">+AQ32*$BK$30</f>
         <v>137.16100000000003</v>
       </c>
       <c r="AS20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>209.82431424000004</v>
       </c>
       <c r="AT20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>287.79078414432001</v>
       </c>
       <c r="AU20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>379.09758786753861</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>480.55872984691871</v>
       </c>
       <c r="AW20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>592.25139392781102</v>
       </c>
       <c r="AX20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>714.2858168037427</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>840.46567823069711</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>969.59537972977819</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1101.7326389420059</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1236.9362707369053</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1334.6657034460961</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1391.6119028676621</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1445.9238164538465</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" ref="BF20:BH20" si="69">+BE32*$BK$30</f>
+        <f t="shared" ref="BF20:BH20" si="71">+BE32*$BK$30</f>
         <v>1500.7467611154837</v>
       </c>
       <c r="BG20" s="2">
@@ -6278,44 +6271,44 @@
         <v>1556.4053194340268</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1612.9421195172454</v>
       </c>
     </row>
     <row r="21" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="12">
-        <f t="shared" ref="C21:D21" si="70">+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="72">+C19+C20</f>
         <v>195.79700000000005</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>151.78</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" ref="E21:F21" si="71">+E19+E20</f>
+        <f t="shared" ref="E21:F21" si="73">+E19+E20</f>
         <v>277.30200000000008</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>272.8189999999999</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="72">+G19+G20</f>
+        <f t="shared" ref="G21:J21" si="74">+G19+G20</f>
         <v>105.54400000000005</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>394.81000000000006</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>720.15699999999993</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>717.572</v>
       </c>
       <c r="K21" s="12">
@@ -6331,63 +6324,63 @@
         <v>985.8</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ref="N21:Q21" si="73">+N19+N20</f>
+        <f t="shared" ref="N21:Q21" si="75">+N19+N20</f>
         <v>908.30000000000007</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1041.4090000000003</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1107.6999999999998</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1251.4000000000001</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ref="R21" si="74">+R19+R20</f>
+        <f t="shared" ref="R21" si="76">+R19+R20</f>
         <v>1243.3000000000002</v>
       </c>
       <c r="S21" s="12">
-        <f t="shared" ref="S21" si="75">+S19+S20</f>
+        <f t="shared" ref="S21" si="77">+S19+S20</f>
         <v>1350.6999999999996</v>
       </c>
       <c r="T21" s="12">
-        <f t="shared" ref="T21:AB21" si="76">+T19+T20</f>
+        <f t="shared" ref="T21:AB21" si="78">+T19+T20</f>
         <v>1247.6999999999998</v>
       </c>
       <c r="U21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1355.4999999999995</v>
       </c>
       <c r="V21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1393.9</v>
       </c>
       <c r="W21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1372.2000000000003</v>
       </c>
       <c r="X21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1328.2000000000003</v>
       </c>
       <c r="Y21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1579.6999999999996</v>
       </c>
       <c r="Z21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1439.2</v>
       </c>
       <c r="AA21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1440.7000000000003</v>
       </c>
       <c r="AB21" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1403.4999999999998</v>
       </c>
       <c r="AC21" s="12"/>
@@ -6400,81 +6393,81 @@
         <v>5093.0999999999995</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" ref="AQ21:BC21" si="77">+AQ19+AQ20</f>
+        <f t="shared" ref="AQ21:BC21" si="79">+AQ19+AQ20</f>
         <v>5449.8000000000011</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9082.9142800000009</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9745.8087380400011</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>11413.35046540232</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>12682.64274742252</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>13961.583010111539</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>15254.302859491449</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>15772.482678369312</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>16141.212687385147</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>16517.15740152846</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>16900.453974362415</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>12216.179088648894</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7118.2749276957529</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" ref="BD21:BH21" si="78">+BD19+BD20</f>
+        <f t="shared" ref="BD21:BH21" si="80">+BD19+BD20</f>
         <v>6788.9891982730524</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6852.8680827046137</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6957.3197898178905</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7067.1000104023724</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>3007.0938939777511</v>
       </c>
     </row>
     <row r="22" spans="2:120" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12">
         <v>8.0549999999999997</v>
@@ -6555,7 +6548,7 @@
         <v>279.7</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1011.4</v>
       </c>
       <c r="AQ22" s="2">
@@ -6563,59 +6556,59 @@
         <v>919.39999999999986</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" ref="AR22:BC22" si="79">+AR21*0.2</f>
+        <f t="shared" ref="AR22:BC22" si="81">+AR21*0.2</f>
         <v>1816.5828560000002</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1949.1617476080003</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2282.6700930804641</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2536.5285494845043</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2792.316602022308</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3050.8605718982899</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3154.4965356738626</v>
       </c>
       <c r="AY22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3228.2425374770296</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3303.4314803056923</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3380.0907948724835</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2443.2358177297788</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1423.6549855391506</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" ref="BD22:BH22" si="80">+BD21*0.2</f>
+        <f t="shared" ref="BD22:BH22" si="82">+BD21*0.2</f>
         <v>1357.7978396546105</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1370.5736165409228</v>
       </c>
       <c r="BF22" s="2">
@@ -6627,44 +6620,44 @@
         <v>1413.4200020804747</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>601.41877879555022</v>
       </c>
     </row>
     <row r="23" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="81">+C21-C22</f>
+        <f t="shared" ref="C23:D23" si="83">+C21-C22</f>
         <v>187.74200000000005</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>151.78</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:F23" si="82">+E21-E22</f>
+        <f t="shared" ref="E23:F23" si="84">+E21-E22</f>
         <v>225.76800000000009</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>213.10799999999989</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" ref="G23:J23" si="83">+G21-G22</f>
+        <f t="shared" ref="G23:J23" si="85">+G21-G22</f>
         <v>92.396000000000058</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>301.09400000000005</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>665.37599999999998</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>730.072</v>
       </c>
       <c r="K23" s="12">
@@ -6680,63 +6673,63 @@
         <v>779.8</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ref="N23:Y23" si="84">+N21-N22</f>
+        <f t="shared" ref="N23:Y23" si="86">+N21-N22</f>
         <v>897.40000000000009</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>810.59600000000034</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>868.69999999999982</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1002.4000000000001</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>984.70000000000016</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1104.7999999999995</v>
       </c>
       <c r="T23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>989.79999999999984</v>
       </c>
       <c r="U23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1141.0999999999995</v>
       </c>
       <c r="V23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1124.5</v>
       </c>
       <c r="W23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1115.4000000000003</v>
       </c>
       <c r="X23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1149.4000000000003</v>
       </c>
       <c r="Y23" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1318.5999999999995</v>
       </c>
       <c r="Z23" s="12">
-        <f t="shared" ref="Z23:AB23" si="85">+Z21-Z22</f>
+        <f t="shared" ref="Z23:AB23" si="87">+Z21-Z22</f>
         <v>1138.5999999999999</v>
       </c>
       <c r="AA23" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1158.0000000000002</v>
       </c>
       <c r="AB23" s="12">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1123.7999999999997</v>
       </c>
       <c r="AC23" s="12"/>
@@ -6749,376 +6742,376 @@
         <v>4081.6999999999994</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" ref="AQ23:AW23" si="86">+AQ21-AQ22</f>
+        <f t="shared" ref="AQ23:AW23" si="88">+AQ21-AQ22</f>
         <v>4530.4000000000015</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7266.3314240000009</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7796.6469904320011</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>9130.6803723218563</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>10146.114197938015</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>11169.266408089232</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>12203.44228759316</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" ref="AX23:BC23" si="87">+AX21-AX22</f>
+        <f t="shared" ref="AX23:BC23" si="89">+AX21-AX22</f>
         <v>12617.986142695449</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>12912.970149908117</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>13213.725921222769</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>13520.363179489932</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>9772.9432709191151</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>5694.6199421566025</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" ref="BD23:BH23" si="88">+BD21-BD22</f>
+        <f t="shared" ref="BD23:BH23" si="90">+BD21-BD22</f>
         <v>5431.1913586184419</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>5482.2944661636911</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>5565.8558318543128</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>5653.6800083218977</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2405.6751151822009</v>
       </c>
       <c r="BI23" s="2">
-        <f t="shared" ref="BI23:CN23" si="89">+BH23*(1+$BK$28)</f>
+        <f t="shared" ref="BI23:CN23" si="91">+BH23*(1+$BK$28)</f>
         <v>2285.3913594230908</v>
       </c>
       <c r="BJ23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2171.1217914519361</v>
       </c>
       <c r="BK23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2062.565701879339</v>
       </c>
       <c r="BL23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1959.4374167853721</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1861.4655459461035</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1768.3922686487981</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1679.9726552163581</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1595.9740224555401</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1516.1753213327629</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1440.3665552661248</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1368.3482275028184</v>
       </c>
       <c r="BT23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1299.9308161276774</v>
       </c>
       <c r="BU23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1234.9342753212934</v>
       </c>
       <c r="BV23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1173.1875615552287</v>
       </c>
       <c r="BW23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1114.5281834774673</v>
       </c>
       <c r="BX23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1058.8017743035939</v>
       </c>
       <c r="BY23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1005.8616855884142</v>
       </c>
       <c r="BZ23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>955.56860130899338</v>
       </c>
       <c r="CA23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>907.79017124354368</v>
       </c>
       <c r="CB23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>862.4006626813665</v>
       </c>
       <c r="CC23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>819.28062954729819</v>
       </c>
       <c r="CD23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>778.31659806993321</v>
       </c>
       <c r="CE23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>739.40076816643648</v>
       </c>
       <c r="CF23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>702.43072975811458</v>
       </c>
       <c r="CG23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>667.30919327020877</v>
       </c>
       <c r="CH23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>633.94373360669829</v>
       </c>
       <c r="CI23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>602.24654692636329</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>572.13421958004506</v>
       </c>
       <c r="CK23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>543.52750860104277</v>
       </c>
       <c r="CL23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>516.35113317099058</v>
       </c>
       <c r="CM23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>490.53357651244102</v>
       </c>
       <c r="CN23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>466.00689768681895</v>
       </c>
       <c r="CO23" s="2">
-        <f t="shared" ref="CO23:DP23" si="90">+CN23*(1+$BK$28)</f>
+        <f t="shared" ref="CO23:DP23" si="92">+CN23*(1+$BK$28)</f>
         <v>442.70655280247797</v>
       </c>
       <c r="CP23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>420.57122516235404</v>
       </c>
       <c r="CQ23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>399.54266390423629</v>
       </c>
       <c r="CR23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>379.56553070902447</v>
       </c>
       <c r="CS23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>360.58725417357323</v>
       </c>
       <c r="CT23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>342.55789146489457</v>
       </c>
       <c r="CU23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>325.42999689164981</v>
       </c>
       <c r="CV23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>309.15849704706733</v>
       </c>
       <c r="CW23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>293.70057219471397</v>
       </c>
       <c r="CX23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>279.01554358497827</v>
       </c>
       <c r="CY23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>265.06476640572936</v>
       </c>
       <c r="CZ23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>251.81152808544289</v>
       </c>
       <c r="DA23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>239.22095168117073</v>
       </c>
       <c r="DB23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>227.25990409711218</v>
       </c>
       <c r="DC23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>215.89690889225656</v>
       </c>
       <c r="DD23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>205.10206344764373</v>
       </c>
       <c r="DE23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>194.84696027526152</v>
       </c>
       <c r="DF23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>185.10461226149843</v>
       </c>
       <c r="DG23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>175.8493816484235</v>
       </c>
       <c r="DH23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>167.05691256600232</v>
       </c>
       <c r="DI23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>158.70406693770221</v>
       </c>
       <c r="DJ23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>150.76886359081709</v>
       </c>
       <c r="DK23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>143.23042041127624</v>
       </c>
       <c r="DL23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>136.06889939071243</v>
       </c>
       <c r="DM23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>129.2654544211768</v>
       </c>
       <c r="DN23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>122.80218170011796</v>
       </c>
       <c r="DO23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>116.66207261511205</v>
       </c>
       <c r="DP23" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>110.82896898435645</v>
       </c>
     </row>
     <row r="24" spans="2:120" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="21">
-        <f t="shared" ref="C24:D24" si="91">+C23/C25</f>
+        <f t="shared" ref="C24:D24" si="93">+C23/C25</f>
         <v>0.72267387254222692</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>0.58419164626730091</v>
       </c>
       <c r="E24" s="21">
-        <f t="shared" ref="E24:G24" si="92">+E23/E25</f>
+        <f t="shared" ref="E24:G24" si="94">+E23/E25</f>
         <v>0.86775439607956217</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.82020768064290128</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>0.35472390612462734</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" ref="H24:I24" si="93">+H23/H25</f>
+        <f t="shared" ref="H24:I24" si="95">+H23/H25</f>
         <v>1.1487402139576055</v>
       </c>
       <c r="I24" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2.5250023717814924</v>
       </c>
       <c r="J24" s="21">
-        <f t="shared" ref="J24:K24" si="94">+J23/J25</f>
+        <f t="shared" ref="J24:K24" si="96">+J23/J25</f>
         <v>2.771692046028329</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.2136444018645935</v>
       </c>
       <c r="L24" s="21">
-        <f t="shared" ref="L24:P24" si="95">+L23/L25</f>
+        <f t="shared" ref="L24:P24" si="97">+L23/L25</f>
         <v>2.5575826681870013</v>
       </c>
       <c r="M24" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>2.9774723176785032</v>
       </c>
       <c r="N24" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3.438314176245211</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3.1211942689261374</v>
       </c>
       <c r="P24" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3.3801556420233454</v>
       </c>
       <c r="Q24" s="21">
@@ -7126,47 +7119,47 @@
         <v>3.8867778208607993</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" ref="R24:Y24" si="96">+R23/R25</f>
+        <f t="shared" ref="R24:Y24" si="98">+R23/R25</f>
         <v>3.8063393892539628</v>
       </c>
       <c r="S24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.2574181117533696</v>
       </c>
       <c r="T24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>3.8025355359200916</v>
       </c>
       <c r="U24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.3837879369957715</v>
       </c>
       <c r="V24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.3183563748079878</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.280122793553339</v>
       </c>
       <c r="X24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.4055193560751258</v>
       </c>
       <c r="Y24" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>5.0501723477594762</v>
       </c>
       <c r="Z24" s="21">
-        <f t="shared" ref="Z24:AB24" si="97">+Z23/Z25</f>
+        <f t="shared" ref="Z24:AB24" si="99">+Z23/Z25</f>
         <v>4.411468423091824</v>
       </c>
       <c r="AA24" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>4.4367816091954033</v>
       </c>
       <c r="AB24" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>4.3140115163147783</v>
       </c>
       <c r="AC24" s="21"/>
@@ -7179,75 +7172,75 @@
         <v>15.753377074488615</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" ref="AQ24:BC24" si="98">+AQ23/AQ25</f>
+        <f t="shared" ref="AQ24:BC24" si="100">+AQ23/AQ25</f>
         <v>17.38783342928421</v>
       </c>
       <c r="AR24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>27.888433790059491</v>
       </c>
       <c r="AS24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>29.923803455889466</v>
       </c>
       <c r="AT24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>35.043870168189812</v>
       </c>
       <c r="AU24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>38.941140656066075</v>
       </c>
       <c r="AV24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>42.868034573361086</v>
       </c>
       <c r="AW24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>46.837237718645781</v>
       </c>
       <c r="AX24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>48.4282715129359</v>
       </c>
       <c r="AY24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>49.560430435264308</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>50.714741589801456</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>51.891626096679836</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>37.508897604755767</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>21.856150228964122</v>
       </c>
       <c r="BD24" s="1">
-        <f t="shared" ref="BD24:BH24" si="99">+BD23/BD25</f>
+        <f t="shared" ref="BD24:BH24" si="101">+BD23/BD25</f>
         <v>20.845102124806914</v>
       </c>
       <c r="BE24" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21.041237636398737</v>
       </c>
       <c r="BF24" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21.361949076393447</v>
       </c>
       <c r="BG24" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21.699021333033574</v>
       </c>
       <c r="BH24" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>9.233065112961814</v>
       </c>
     </row>
@@ -7342,160 +7335,160 @@
         <v>260.55</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" ref="AR25:BC25" si="100">+AQ25</f>
+        <f t="shared" ref="AR25:BC25" si="102">+AQ25</f>
         <v>260.55</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>260.55</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" ref="BD25" si="101">+BC25</f>
+        <f t="shared" ref="BD25" si="103">+BC25</f>
         <v>260.55</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" ref="BE25" si="102">+BD25</f>
+        <f t="shared" ref="BE25" si="104">+BD25</f>
         <v>260.55</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" ref="BF25" si="103">+BE25</f>
+        <f t="shared" ref="BF25" si="105">+BE25</f>
         <v>260.55</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" ref="BG25" si="104">+BF25</f>
+        <f t="shared" ref="BG25" si="106">+BF25</f>
         <v>260.55</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" ref="BH25" si="105">+BG25</f>
+        <f t="shared" ref="BH25" si="107">+BG25</f>
         <v>260.55</v>
       </c>
     </row>
     <row r="27" spans="2:120" s="26" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25">
-        <f t="shared" ref="G27:P27" si="106">+G13/C13-1</f>
+        <f t="shared" ref="G27:P27" si="108">+G13/C13-1</f>
         <v>0.21328224776500648</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.44493886310784858</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.76535979547461963</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.62012853473169161</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.61894736842105269</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.29435163086714389</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.13749174917491747</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.176856468118604</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.28998699609882972</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>0.27350952673632456</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:T27" si="107">+Q13/M13-1</f>
+        <f t="shared" ref="Q27:T27" si="109">+Q13/M13-1</f>
         <v>0.21714153078396103</v>
       </c>
       <c r="R27" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0.2246376811594204</v>
       </c>
       <c r="S27" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0.17656249999999996</v>
       </c>
       <c r="T27" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0.1114864864864864</v>
       </c>
       <c r="U27" s="25">
-        <f t="shared" ref="U27" si="108">+U13/Q13-1</f>
+        <f t="shared" ref="U27" si="110">+U13/Q13-1</f>
         <v>0.13220500595947549</v>
       </c>
       <c r="V27" s="25">
-        <f t="shared" ref="V27" si="109">+V13/R13-1</f>
+        <f t="shared" ref="V27" si="111">+V13/R13-1</f>
         <v>0.13482020937642258</v>
       </c>
       <c r="W27" s="25">
-        <f t="shared" ref="W27" si="110">+W13/S13-1</f>
+        <f t="shared" ref="W27" si="112">+W13/S13-1</f>
         <v>6.3959216895857818E-2</v>
       </c>
       <c r="X27" s="25">
-        <f t="shared" ref="X27:Y27" si="111">+X13/T13-1</f>
+        <f t="shared" ref="X27:Y27" si="113">+X13/T13-1</f>
         <v>9.3226226660877209E-2</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.13297961933636526</v>
       </c>
       <c r="Z27" s="25">
-        <f t="shared" ref="Z27" si="112">+Z13/V13-1</f>
+        <f t="shared" ref="Z27" si="114">+Z13/V13-1</f>
         <v>6.1126263436547257E-2</v>
       </c>
       <c r="AA27" s="25">
@@ -7503,7 +7496,7 @@
         <v>0.11608149460460604</v>
       </c>
       <c r="AB27" s="25">
-        <f t="shared" ref="AB27" si="113">+AB13/X13-1</f>
+        <f t="shared" ref="AB27" si="115">+AB13/X13-1</f>
         <v>0.15661119275529245</v>
       </c>
       <c r="AC27" s="25"/>
@@ -7514,70 +7507,70 @@
     </row>
     <row r="28" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="19">
-        <f t="shared" ref="C28" si="114">C15/C13</f>
+        <f t="shared" ref="C28" si="116">C15/C13</f>
         <v>0.85791187739463604</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" ref="D28:H28" si="115">D15/D13</f>
+        <f t="shared" ref="D28:H28" si="117">D15/D13</f>
         <v>0.8594271053058109</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.88919366754371454</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.8557358650587249</v>
       </c>
       <c r="G28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.86114315789473683</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>0.8528146380270486</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" ref="I28:J28" si="116">I15/I13</f>
+        <f t="shared" ref="I28:J28" si="118">I15/I13</f>
         <v>0.8927412541254125</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.87896877459984257</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" ref="K28:L28" si="117">K15/K13</f>
+        <f t="shared" ref="K28:L28" si="119">K15/K13</f>
         <v>0.87894538361508456</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0.87516902274124164</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" ref="M28:P28" si="118">M15/M13</f>
+        <f t="shared" ref="M28:P28" si="120">M15/M13</f>
         <v>0.888411768119306</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0.87290969899665549</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0.88079032258064516</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>0.88059845559845551</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" ref="Q28:R28" si="119">Q15/Q13</f>
+        <f t="shared" ref="Q28:R28" si="121">Q15/Q13</f>
         <v>0.93048867699642435</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0.88083750568957675</v>
       </c>
       <c r="S28" s="19">
@@ -7589,35 +7582,35 @@
         <v>0.87802865827181931</v>
       </c>
       <c r="U28" s="19">
-        <f t="shared" ref="U28:X28" si="120">U15/U13</f>
+        <f t="shared" ref="U28:X28" si="122">U15/U13</f>
         <v>0.88841165571837633</v>
       </c>
       <c r="V28" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0.87694529119204234</v>
       </c>
       <c r="W28" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0.87236269930745691</v>
       </c>
       <c r="X28" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0.85534416332366847</v>
       </c>
       <c r="Y28" s="19">
-        <f t="shared" ref="Y28:AB28" si="121">Y15/Y13</f>
+        <f t="shared" ref="Y28:AB28" si="123">Y15/Y13</f>
         <v>0.87519512376421604</v>
       </c>
       <c r="Z28" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0.86203507710916238</v>
       </c>
       <c r="AA28" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0.86085356614596498</v>
       </c>
       <c r="AB28" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>0.85703983516483506</v>
       </c>
       <c r="AC28" s="19"/>
@@ -7626,67 +7619,67 @@
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AO28" s="19">
-        <f t="shared" ref="AO28:AP28" si="122">AO15/AO13</f>
+        <f t="shared" ref="AO28:AP28" si="124">AO15/AO13</f>
         <v>0.88060528435424446</v>
       </c>
       <c r="AP28" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>0.89078349268904367</v>
       </c>
       <c r="AQ28" s="19">
-        <f t="shared" ref="AQ28:BC28" si="123">AQ15/AQ13</f>
+        <f t="shared" ref="AQ28:BC28" si="125">AQ15/AQ13</f>
         <v>0.87304064118022551</v>
       </c>
       <c r="AR28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="AS28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AT28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AU28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AV28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="AW28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="AX28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="AY28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="AZ28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="BA28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="BB28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="BC28" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>0.93</v>
       </c>
       <c r="BJ28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BK28" s="23">
         <v>-0.05</v>
@@ -7694,74 +7687,74 @@
     </row>
     <row r="29" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="19">
-        <f t="shared" ref="C29" si="124">+C16/C13</f>
+        <f t="shared" ref="C29" si="126">+C16/C13</f>
         <v>0.17534482758620687</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" ref="D29:H29" si="125">+D16/D13</f>
+        <f t="shared" ref="D29:H29" si="127">+D16/D13</f>
         <v>0.17611701131006641</v>
       </c>
       <c r="E29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0.1713447730201752</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0.16632993698673523</v>
       </c>
       <c r="G29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0.16807789473684212</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>0.15535163086714399</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:J29" si="126">+I16/I13</f>
+        <f t="shared" ref="I29:J29" si="128">+I16/I13</f>
         <v>0.12030231023102311</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0.12581999475203359</v>
       </c>
       <c r="K29" s="19">
-        <f t="shared" ref="K29:S29" si="127">+K16/K13</f>
+        <f t="shared" ref="K29:S29" si="129">+K16/K13</f>
         <v>0.11999414824447334</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.107559926244622</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>8.7622584576103987E-2</v>
       </c>
       <c r="N29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.1084726867335563</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>9.9893649193548387E-2</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.10135135135135136</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>7.9618593563766382E-2</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>7.8880291306326816E-2</v>
       </c>
       <c r="S29" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>7.7282268774364921E-2</v>
       </c>
       <c r="T29" s="19">
@@ -7769,35 +7762,35 @@
         <v>9.7959183673469383E-2</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" ref="U29:X29" si="128">+U16/U13</f>
+        <f t="shared" ref="U29:X29" si="130">+U16/U13</f>
         <v>8.2912245241704582E-2</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>8.8079576447938374E-2</v>
       </c>
       <c r="W29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>8.6849734256724098E-2</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>0.11343686698176907</v>
       </c>
       <c r="Y29" s="19">
-        <f t="shared" ref="Y29:AB29" si="129">+Y16/Y13</f>
+        <f t="shared" ref="Y29:AB29" si="131">+Y16/Y13</f>
         <v>0.1010926930796105</v>
       </c>
       <c r="Z29" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0.10598729966737223</v>
       </c>
       <c r="AA29" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0.10826508892817202</v>
       </c>
       <c r="AB29" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>0.10649038461538463</v>
       </c>
       <c r="AC29" s="19"/>
@@ -7811,59 +7804,59 @@
         <v>8.3555386372287793E-2</v>
       </c>
       <c r="AQ29" s="19">
-        <f t="shared" ref="AQ29:BC29" si="130">+AQ16/AQ13</f>
+        <f t="shared" ref="AQ29:BC29" si="132">+AQ16/AQ13</f>
         <v>9.2995450538538693E-2</v>
       </c>
       <c r="AR29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AS29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AT29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AU29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AV29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AW29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AX29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AY29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="AZ29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="BA29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="BB29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.1</v>
       </c>
       <c r="BC29" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="BJ29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BK29" s="23">
         <v>7.0000000000000007E-2</v>
@@ -7871,46 +7864,46 @@
     </row>
     <row r="30" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" ref="C30" si="131">C22/C21</f>
+        <f t="shared" ref="C30" si="133">C22/C21</f>
         <v>4.1139547592659732E-2</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:H30" si="132">D22/D21</f>
+        <f t="shared" ref="D30:H30" si="134">D22/D21</f>
         <v>0</v>
       </c>
       <c r="E30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.18584070796460173</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.21886672115945011</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.1245736375350564</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0.23736987411666366</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:J30" si="133">I22/I21</f>
+        <f t="shared" ref="I30:J30" si="135">I22/I21</f>
         <v>7.6068135142753596E-2</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>-1.7419854732347417E-2</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" ref="K30:L30" si="134">K22/K21</f>
+        <f t="shared" ref="K30:L30" si="136">K22/K21</f>
         <v>0.1183036858950188</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0.22735101619014811</v>
       </c>
       <c r="M30" s="19">
@@ -7918,63 +7911,63 @@
         <v>0.20896733617366606</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" ref="N30:T30" si="135">N22/N21</f>
+        <f t="shared" ref="N30:T30" si="137">N22/N21</f>
         <v>1.2000440383133325E-2</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.22163530370872531</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.21576239053895463</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.19897714559693142</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.20799485240891175</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.18205374990745546</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>0.20670032860463253</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30:X30" si="136">U22/U21</f>
+        <f t="shared" ref="U30:X30" si="138">U22/U21</f>
         <v>0.15817041682036154</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0.1932706793887653</v>
       </c>
       <c r="W30" s="19">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0.18714473108876253</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0.13461828037946091</v>
       </c>
       <c r="Y30" s="19">
-        <f t="shared" ref="Y30:AB30" si="137">Y22/Y21</f>
+        <f t="shared" ref="Y30:AB30" si="139">Y22/Y21</f>
         <v>0.16528454769893022</v>
       </c>
       <c r="Z30" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.20886603668704837</v>
       </c>
       <c r="AA30" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.19622405774970497</v>
       </c>
       <c r="AB30" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.19928749554684719</v>
       </c>
       <c r="AC30" s="19"/>
@@ -7987,59 +7980,59 @@
         <v>0.19858239579038309</v>
       </c>
       <c r="AQ30" s="23">
-        <f t="shared" ref="AQ30:BC30" si="138">+AQ22/AQ21</f>
+        <f t="shared" ref="AQ30:BC30" si="140">+AQ22/AQ21</f>
         <v>0.16870343865829932</v>
       </c>
       <c r="AR30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AS30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AT30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AU30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AV30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AW30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AX30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AY30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="AZ30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="BA30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="BB30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="BC30" s="23">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0.2</v>
       </c>
       <c r="BJ30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BK30" s="23">
         <v>0.01</v>
@@ -8047,7 +8040,7 @@
     </row>
     <row r="31" spans="2:120" x14ac:dyDescent="0.25">
       <c r="BJ31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BK31" s="2">
         <f>NPV(BK29,AS23:CP23)+Main!M5-Main!M6</f>
@@ -8141,84 +8134,84 @@
         <v>13716.100000000002</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" ref="AR32:BC32" si="139">+AQ32+AR23</f>
+        <f t="shared" ref="AR32:BC32" si="141">+AQ32+AR23</f>
         <v>20982.431424000002</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>28779.078414432002</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>37